--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="20490" windowHeight="7395"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="20490" windowHeight="7275"/>
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
     <sheet name="Standard" sheetId="2" r:id="rId2"/>
+    <sheet name="Backup" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="204">
   <si>
     <t>No</t>
   </si>
@@ -416,9 +417,6 @@
     <t>cp_profession</t>
   </si>
   <si>
-    <t>cp_credit</t>
-  </si>
-  <si>
     <t>cp_code</t>
   </si>
   <si>
@@ -591,6 +589,45 @@
   </si>
   <si>
     <t>pfa_content</t>
+  </si>
+  <si>
+    <t>pfa_isgradable</t>
+  </si>
+  <si>
+    <t>0 - No, 1 - Yes</t>
+  </si>
+  <si>
+    <t>l1q_questiontext</t>
+  </si>
+  <si>
+    <t>pro_l1qa_level1_question_answers</t>
+  </si>
+  <si>
+    <t>pro_l1q_level1_question</t>
+  </si>
+  <si>
+    <t>l1qa_question</t>
+  </si>
+  <si>
+    <t>l1qa_answer</t>
+  </si>
+  <si>
+    <t>l1qa_fraction</t>
+  </si>
+  <si>
+    <t>pro_l1qn_level1_questionnaires</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>cp_level</t>
+  </si>
+  <si>
+    <t>cp_validfrom</t>
+  </si>
+  <si>
+    <t>cp_validto</t>
   </si>
 </sst>
 </file>
@@ -819,7 +856,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -961,6 +998,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1300,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K300"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B256" sqref="B256"/>
+    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A243" sqref="A243:K244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,49 +1372,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="58"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="A3" s="56" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -1440,7 +1489,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
@@ -1467,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
@@ -1571,45 +1620,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="54"/>
+      <c r="A13" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="58"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -1684,7 +1733,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -1711,7 +1760,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>14</v>
@@ -1736,7 +1785,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>9</v>
@@ -1842,45 +1891,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="51"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="52" t="s">
+      <c r="A24" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
@@ -2096,7 +2145,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>14</v>
@@ -2115,7 +2164,7 @@
       <c r="I32" s="42"/>
       <c r="J32" s="49"/>
       <c r="K32" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2123,7 +2172,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -2142,7 +2191,7 @@
       <c r="I33" s="42"/>
       <c r="J33" s="49"/>
       <c r="K33" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2229,7 +2278,7 @@
         <v>12</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C37" s="7" t="s">
         <v>14</v>
@@ -2335,7 +2384,7 @@
         <v>16</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>9</v>
@@ -2362,7 +2411,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>15</v>
@@ -2383,7 +2432,7 @@
       <c r="I42" s="42"/>
       <c r="J42" s="49"/>
       <c r="K42" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -2497,45 +2546,45 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="50"/>
-      <c r="B47" s="50"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
-      <c r="K47" s="50"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51"/>
-      <c r="G48" s="51"/>
-      <c r="H48" s="51"/>
-      <c r="I48" s="51"/>
-      <c r="J48" s="51"/>
-      <c r="K48" s="51"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="53"/>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="54"/>
+      <c r="A49" s="56" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="58"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -2610,7 +2659,7 @@
         <v>2</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C52" s="7" t="s">
         <v>116</v>
@@ -2641,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>9</v>
@@ -2670,7 +2719,7 @@
         <v>4</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>17</v>
@@ -2693,7 +2742,7 @@
         <v>5</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>17</v>
@@ -2716,7 +2765,7 @@
         <v>6</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>15</v>
@@ -2737,7 +2786,7 @@
       <c r="I56" s="37"/>
       <c r="J56" s="49"/>
       <c r="K56" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2824,45 +2873,45 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="50"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="50"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
-      <c r="G60" s="50"/>
-      <c r="H60" s="50"/>
-      <c r="I60" s="50"/>
-      <c r="J60" s="50"/>
-      <c r="K60" s="50"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="55"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="55"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="55"/>
+      <c r="J61" s="55"/>
+      <c r="K61" s="55"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="53"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="54"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="57"/>
+      <c r="K62" s="58"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
@@ -3027,7 +3076,7 @@
         <v>48</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="D68" s="7">
         <v>20</v>
@@ -3086,7 +3135,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>14</v>
@@ -3190,45 +3239,45 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
-      <c r="B74" s="50"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="50"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
-      <c r="G74" s="50"/>
-      <c r="H74" s="50"/>
-      <c r="I74" s="50"/>
-      <c r="J74" s="50"/>
-      <c r="K74" s="50"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51"/>
-      <c r="G75" s="51"/>
-      <c r="H75" s="51"/>
-      <c r="I75" s="51"/>
-      <c r="J75" s="51"/>
-      <c r="K75" s="51"/>
+      <c r="A75" s="55"/>
+      <c r="B75" s="55"/>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="52" t="s">
+      <c r="A76" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="53"/>
-      <c r="G76" s="53"/>
-      <c r="H76" s="53"/>
-      <c r="I76" s="53"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="54"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+      <c r="G76" s="57"/>
+      <c r="H76" s="57"/>
+      <c r="I76" s="57"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="58"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
@@ -3438,7 +3487,7 @@
         <v>7</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>15</v>
@@ -3471,7 +3520,7 @@
         <v>8</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>14</v>
@@ -3575,45 +3624,45 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
-      <c r="B89" s="50"/>
-      <c r="C89" s="50"/>
-      <c r="D89" s="50"/>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="50"/>
-      <c r="H89" s="50"/>
-      <c r="I89" s="50"/>
-      <c r="J89" s="50"/>
-      <c r="K89" s="50"/>
+      <c r="A89" s="54"/>
+      <c r="B89" s="54"/>
+      <c r="C89" s="54"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="54"/>
+      <c r="H89" s="54"/>
+      <c r="I89" s="54"/>
+      <c r="J89" s="54"/>
+      <c r="K89" s="54"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51"/>
-      <c r="E90" s="51"/>
-      <c r="F90" s="51"/>
-      <c r="G90" s="51"/>
-      <c r="H90" s="51"/>
-      <c r="I90" s="51"/>
-      <c r="J90" s="51"/>
-      <c r="K90" s="51"/>
+      <c r="A90" s="55"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="55"/>
+      <c r="D90" s="55"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="55"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="55"/>
+      <c r="J90" s="55"/>
+      <c r="K90" s="55"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="52" t="s">
+      <c r="A91" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="B91" s="53"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="53"/>
-      <c r="E91" s="53"/>
-      <c r="F91" s="53"/>
-      <c r="G91" s="53"/>
-      <c r="H91" s="53"/>
-      <c r="I91" s="53"/>
-      <c r="J91" s="53"/>
-      <c r="K91" s="54"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="57"/>
+      <c r="D91" s="57"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="57"/>
+      <c r="H91" s="57"/>
+      <c r="I91" s="57"/>
+      <c r="J91" s="57"/>
+      <c r="K91" s="58"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
@@ -3804,7 +3853,7 @@
         <v>6</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>14</v>
@@ -3833,7 +3882,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3922,7 +3971,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C102" s="7" t="s">
         <v>14</v>
@@ -4026,45 +4075,45 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="50"/>
-      <c r="B106" s="50"/>
-      <c r="C106" s="50"/>
-      <c r="D106" s="50"/>
-      <c r="E106" s="50"/>
-      <c r="F106" s="50"/>
-      <c r="G106" s="50"/>
-      <c r="H106" s="50"/>
-      <c r="I106" s="50"/>
-      <c r="J106" s="50"/>
-      <c r="K106" s="50"/>
+      <c r="A106" s="54"/>
+      <c r="B106" s="54"/>
+      <c r="C106" s="54"/>
+      <c r="D106" s="54"/>
+      <c r="E106" s="54"/>
+      <c r="F106" s="54"/>
+      <c r="G106" s="54"/>
+      <c r="H106" s="54"/>
+      <c r="I106" s="54"/>
+      <c r="J106" s="54"/>
+      <c r="K106" s="54"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="51"/>
-      <c r="B107" s="51"/>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
-      <c r="E107" s="51"/>
-      <c r="F107" s="51"/>
-      <c r="G107" s="51"/>
-      <c r="H107" s="51"/>
-      <c r="I107" s="51"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="51"/>
+      <c r="A107" s="55"/>
+      <c r="B107" s="55"/>
+      <c r="C107" s="55"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="55"/>
+      <c r="J107" s="55"/>
+      <c r="K107" s="55"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="52" t="s">
+      <c r="A108" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="53"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="53"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="53"/>
-      <c r="G108" s="53"/>
-      <c r="H108" s="53"/>
-      <c r="I108" s="53"/>
-      <c r="J108" s="53"/>
-      <c r="K108" s="54"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="58"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
@@ -4347,45 +4396,45 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="50"/>
-      <c r="B119" s="50"/>
-      <c r="C119" s="50"/>
-      <c r="D119" s="50"/>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
-      <c r="G119" s="50"/>
-      <c r="H119" s="50"/>
-      <c r="I119" s="50"/>
-      <c r="J119" s="50"/>
-      <c r="K119" s="50"/>
+      <c r="A119" s="54"/>
+      <c r="B119" s="54"/>
+      <c r="C119" s="54"/>
+      <c r="D119" s="54"/>
+      <c r="E119" s="54"/>
+      <c r="F119" s="54"/>
+      <c r="G119" s="54"/>
+      <c r="H119" s="54"/>
+      <c r="I119" s="54"/>
+      <c r="J119" s="54"/>
+      <c r="K119" s="54"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="51"/>
-      <c r="B120" s="51"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="51"/>
-      <c r="E120" s="51"/>
-      <c r="F120" s="51"/>
-      <c r="G120" s="51"/>
-      <c r="H120" s="51"/>
-      <c r="I120" s="51"/>
-      <c r="J120" s="51"/>
-      <c r="K120" s="51"/>
+      <c r="A120" s="55"/>
+      <c r="B120" s="55"/>
+      <c r="C120" s="55"/>
+      <c r="D120" s="55"/>
+      <c r="E120" s="55"/>
+      <c r="F120" s="55"/>
+      <c r="G120" s="55"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="55"/>
+      <c r="J120" s="55"/>
+      <c r="K120" s="55"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="52" t="s">
+      <c r="A121" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="B121" s="53"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="53"/>
-      <c r="E121" s="53"/>
-      <c r="F121" s="53"/>
-      <c r="G121" s="53"/>
-      <c r="H121" s="53"/>
-      <c r="I121" s="53"/>
-      <c r="J121" s="53"/>
-      <c r="K121" s="54"/>
+      <c r="B121" s="57"/>
+      <c r="C121" s="57"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="57"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="57"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="58"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
@@ -4516,45 +4565,45 @@
       <c r="K125" s="14"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="50"/>
-      <c r="B126" s="50"/>
-      <c r="C126" s="50"/>
-      <c r="D126" s="50"/>
-      <c r="E126" s="50"/>
-      <c r="F126" s="50"/>
-      <c r="G126" s="50"/>
-      <c r="H126" s="50"/>
-      <c r="I126" s="50"/>
-      <c r="J126" s="50"/>
-      <c r="K126" s="50"/>
+      <c r="A126" s="54"/>
+      <c r="B126" s="54"/>
+      <c r="C126" s="54"/>
+      <c r="D126" s="54"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="54"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="54"/>
+      <c r="K126" s="54"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="51"/>
-      <c r="B127" s="51"/>
-      <c r="C127" s="51"/>
-      <c r="D127" s="51"/>
-      <c r="E127" s="51"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="51"/>
-      <c r="H127" s="51"/>
-      <c r="I127" s="51"/>
-      <c r="J127" s="51"/>
-      <c r="K127" s="51"/>
+      <c r="A127" s="55"/>
+      <c r="B127" s="55"/>
+      <c r="C127" s="55"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="55"/>
+      <c r="J127" s="55"/>
+      <c r="K127" s="55"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="52" t="s">
+      <c r="A128" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="B128" s="53"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="53"/>
-      <c r="E128" s="53"/>
-      <c r="F128" s="53"/>
-      <c r="G128" s="53"/>
-      <c r="H128" s="53"/>
-      <c r="I128" s="53"/>
-      <c r="J128" s="53"/>
-      <c r="K128" s="54"/>
+      <c r="B128" s="57"/>
+      <c r="C128" s="57"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="57"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="57"/>
+      <c r="J128" s="57"/>
+      <c r="K128" s="58"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="20" t="s">
@@ -4654,45 +4703,45 @@
       <c r="K131" s="14"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="50"/>
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="50"/>
-      <c r="G132" s="50"/>
-      <c r="H132" s="50"/>
-      <c r="I132" s="50"/>
-      <c r="J132" s="50"/>
-      <c r="K132" s="50"/>
+      <c r="A132" s="54"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="54"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="54"/>
+      <c r="G132" s="54"/>
+      <c r="H132" s="54"/>
+      <c r="I132" s="54"/>
+      <c r="J132" s="54"/>
+      <c r="K132" s="54"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="51"/>
-      <c r="B133" s="51"/>
-      <c r="C133" s="51"/>
-      <c r="D133" s="51"/>
-      <c r="E133" s="51"/>
-      <c r="F133" s="51"/>
-      <c r="G133" s="51"/>
-      <c r="H133" s="51"/>
-      <c r="I133" s="51"/>
-      <c r="J133" s="51"/>
-      <c r="K133" s="51"/>
+      <c r="A133" s="55"/>
+      <c r="B133" s="55"/>
+      <c r="C133" s="55"/>
+      <c r="D133" s="55"/>
+      <c r="E133" s="55"/>
+      <c r="F133" s="55"/>
+      <c r="G133" s="55"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="55"/>
+      <c r="K133" s="55"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="52" t="s">
+      <c r="A134" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="B134" s="53"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="53"/>
-      <c r="E134" s="53"/>
-      <c r="F134" s="53"/>
-      <c r="G134" s="53"/>
-      <c r="H134" s="53"/>
-      <c r="I134" s="53"/>
-      <c r="J134" s="53"/>
-      <c r="K134" s="54"/>
+      <c r="B134" s="57"/>
+      <c r="C134" s="57"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="57"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="57"/>
+      <c r="K134" s="58"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
@@ -4960,45 +5009,45 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="50"/>
-      <c r="B144" s="50"/>
-      <c r="C144" s="50"/>
-      <c r="D144" s="50"/>
-      <c r="E144" s="50"/>
-      <c r="F144" s="50"/>
-      <c r="G144" s="50"/>
-      <c r="H144" s="50"/>
-      <c r="I144" s="50"/>
-      <c r="J144" s="50"/>
-      <c r="K144" s="50"/>
+      <c r="A144" s="54"/>
+      <c r="B144" s="54"/>
+      <c r="C144" s="54"/>
+      <c r="D144" s="54"/>
+      <c r="E144" s="54"/>
+      <c r="F144" s="54"/>
+      <c r="G144" s="54"/>
+      <c r="H144" s="54"/>
+      <c r="I144" s="54"/>
+      <c r="J144" s="54"/>
+      <c r="K144" s="54"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="51"/>
-      <c r="B145" s="51"/>
-      <c r="C145" s="51"/>
-      <c r="D145" s="51"/>
-      <c r="E145" s="51"/>
-      <c r="F145" s="51"/>
-      <c r="G145" s="51"/>
-      <c r="H145" s="51"/>
-      <c r="I145" s="51"/>
-      <c r="J145" s="51"/>
-      <c r="K145" s="51"/>
+      <c r="A145" s="55"/>
+      <c r="B145" s="55"/>
+      <c r="C145" s="55"/>
+      <c r="D145" s="55"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="55"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="55"/>
+      <c r="J145" s="55"/>
+      <c r="K145" s="55"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="52" t="s">
+      <c r="A146" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="B146" s="53"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="53"/>
-      <c r="E146" s="53"/>
-      <c r="F146" s="53"/>
-      <c r="G146" s="53"/>
-      <c r="H146" s="53"/>
-      <c r="I146" s="53"/>
-      <c r="J146" s="53"/>
-      <c r="K146" s="54"/>
+      <c r="B146" s="57"/>
+      <c r="C146" s="57"/>
+      <c r="D146" s="57"/>
+      <c r="E146" s="57"/>
+      <c r="F146" s="57"/>
+      <c r="G146" s="57"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="57"/>
+      <c r="J146" s="57"/>
+      <c r="K146" s="58"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
@@ -5268,45 +5317,45 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="50"/>
-      <c r="B156" s="50"/>
-      <c r="C156" s="50"/>
-      <c r="D156" s="50"/>
-      <c r="E156" s="50"/>
-      <c r="F156" s="50"/>
-      <c r="G156" s="50"/>
-      <c r="H156" s="50"/>
-      <c r="I156" s="50"/>
-      <c r="J156" s="50"/>
-      <c r="K156" s="50"/>
+      <c r="A156" s="54"/>
+      <c r="B156" s="54"/>
+      <c r="C156" s="54"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="54"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="54"/>
+      <c r="H156" s="54"/>
+      <c r="I156" s="54"/>
+      <c r="J156" s="54"/>
+      <c r="K156" s="54"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="51"/>
-      <c r="B157" s="51"/>
-      <c r="C157" s="51"/>
-      <c r="D157" s="51"/>
-      <c r="E157" s="51"/>
-      <c r="F157" s="51"/>
-      <c r="G157" s="51"/>
-      <c r="H157" s="51"/>
-      <c r="I157" s="51"/>
-      <c r="J157" s="51"/>
-      <c r="K157" s="51"/>
+      <c r="A157" s="55"/>
+      <c r="B157" s="55"/>
+      <c r="C157" s="55"/>
+      <c r="D157" s="55"/>
+      <c r="E157" s="55"/>
+      <c r="F157" s="55"/>
+      <c r="G157" s="55"/>
+      <c r="H157" s="55"/>
+      <c r="I157" s="55"/>
+      <c r="J157" s="55"/>
+      <c r="K157" s="55"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B158" s="53"/>
-      <c r="C158" s="53"/>
-      <c r="D158" s="53"/>
-      <c r="E158" s="53"/>
-      <c r="F158" s="53"/>
-      <c r="G158" s="53"/>
-      <c r="H158" s="53"/>
-      <c r="I158" s="53"/>
-      <c r="J158" s="53"/>
-      <c r="K158" s="54"/>
+      <c r="A158" s="56" t="s">
+        <v>121</v>
+      </c>
+      <c r="B158" s="57"/>
+      <c r="C158" s="57"/>
+      <c r="D158" s="57"/>
+      <c r="E158" s="57"/>
+      <c r="F158" s="57"/>
+      <c r="G158" s="57"/>
+      <c r="H158" s="57"/>
+      <c r="I158" s="57"/>
+      <c r="J158" s="57"/>
+      <c r="K158" s="58"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -5344,151 +5393,152 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+      <c r="A160" s="39">
         <v>1</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2">
-        <v>11</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I160" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="C160" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D160" s="5">
+        <v>20</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I160" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J160" s="47"/>
       <c r="K160" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+      <c r="A161" s="40">
         <v>2</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C161" s="2" t="s">
+      <c r="B161" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D161" s="7">
+        <v>20</v>
+      </c>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I161" s="29"/>
+      <c r="J161" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K161" s="9"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A162" s="40">
+        <v>3</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D161" s="2">
-        <v>25</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H161" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J161" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K161" s="9"/>
-    </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
-        <v>3</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C162" s="2" t="s">
+      <c r="D162" s="7">
+        <v>50</v>
+      </c>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I162" s="29"/>
+      <c r="J162" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K162" s="9"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A163" s="40">
+        <v>4</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I163" s="30"/>
+      <c r="J163" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K163" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" s="40">
+        <v>5</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C164" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D162" s="2">
-        <v>20</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H162" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J162" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K162" s="9"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
-        <v>4</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J163" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K163" s="9"/>
-    </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
-        <v>5</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D164" s="2">
-        <v>30</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J164" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="D164" s="7">
+        <v>100</v>
+      </c>
+      <c r="E164" s="10"/>
+      <c r="F164" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I164" s="46"/>
+      <c r="J164" s="49"/>
       <c r="K164" s="9"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+      <c r="A165" s="40">
         <v>6</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>90</v>
+      <c r="B165" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="C165" s="7" t="s">
         <v>17</v>
@@ -5504,243 +5554,253 @@
       <c r="H165" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I165" s="8"/>
+      <c r="I165" s="29"/>
       <c r="J165" s="49"/>
       <c r="K165" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+      <c r="A166" s="40">
         <v>7</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E166" s="17" t="s">
+      <c r="B166" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="7"/>
+      <c r="E166" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F166" s="17" t="s">
+      <c r="F166" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H166" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K166" s="9"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I166" s="29"/>
+      <c r="J166" s="49"/>
+      <c r="K166" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="40">
+      <c r="A167" s="41">
         <v>8</v>
       </c>
-      <c r="B167" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C167" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" s="7"/>
-      <c r="E167" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F167" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G167" s="7"/>
-      <c r="H167" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I167" s="8"/>
-      <c r="J167" s="49"/>
-      <c r="K167" s="9" t="s">
-        <v>16</v>
+      <c r="B167" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D167" s="13">
+        <v>1</v>
+      </c>
+      <c r="E167" s="13">
+        <v>0</v>
+      </c>
+      <c r="F167" s="13">
+        <v>0</v>
+      </c>
+      <c r="G167" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H167" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I167" s="28"/>
+      <c r="J167" s="48"/>
+      <c r="K167" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="40">
-        <v>9</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D168" s="7"/>
-      <c r="E168" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F168" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" s="7"/>
-      <c r="H168" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I168" s="8"/>
-      <c r="J168" s="49"/>
-      <c r="K168" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="A168" s="54"/>
+      <c r="B168" s="54"/>
+      <c r="C168" s="54"/>
+      <c r="D168" s="54"/>
+      <c r="E168" s="54"/>
+      <c r="F168" s="54"/>
+      <c r="G168" s="54"/>
+      <c r="H168" s="54"/>
+      <c r="I168" s="54"/>
+      <c r="J168" s="54"/>
+      <c r="K168" s="54"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="41">
-        <v>10</v>
-      </c>
-      <c r="B169" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C169" s="13" t="s">
+      <c r="A169" s="55"/>
+      <c r="B169" s="55"/>
+      <c r="C169" s="55"/>
+      <c r="D169" s="55"/>
+      <c r="E169" s="55"/>
+      <c r="F169" s="55"/>
+      <c r="G169" s="55"/>
+      <c r="H169" s="55"/>
+      <c r="I169" s="55"/>
+      <c r="J169" s="55"/>
+      <c r="K169" s="55"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" s="56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B170" s="57"/>
+      <c r="C170" s="57"/>
+      <c r="D170" s="57"/>
+      <c r="E170" s="57"/>
+      <c r="F170" s="57"/>
+      <c r="G170" s="57"/>
+      <c r="H170" s="57"/>
+      <c r="I170" s="57"/>
+      <c r="J170" s="57"/>
+      <c r="K170" s="58"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C171" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D171" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E171" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F171" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G171" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H171" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I171" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J171" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K171" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="39">
+        <v>1</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D172" s="5">
+        <v>20</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H172" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I172" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J172" s="50"/>
+      <c r="K172" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="40">
+        <v>2</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D173" s="7">
+        <v>20</v>
+      </c>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H173" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I173" s="7"/>
+      <c r="J173" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K173" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="40">
+        <v>3</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C174" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D169" s="13">
+      <c r="D174" s="7">
         <v>1</v>
       </c>
-      <c r="E169" s="13">
-        <v>0</v>
-      </c>
-      <c r="F169" s="13">
-        <v>0</v>
-      </c>
-      <c r="G169" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H169" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I169" s="16"/>
-      <c r="J169" s="48"/>
-      <c r="K169" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="50"/>
-      <c r="B170" s="50"/>
-      <c r="C170" s="50"/>
-      <c r="D170" s="50"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="50"/>
-      <c r="G170" s="50"/>
-      <c r="H170" s="50"/>
-      <c r="I170" s="50"/>
-      <c r="J170" s="50"/>
-      <c r="K170" s="50"/>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="51"/>
-      <c r="B171" s="51"/>
-      <c r="C171" s="51"/>
-      <c r="D171" s="51"/>
-      <c r="E171" s="51"/>
-      <c r="F171" s="51"/>
-      <c r="G171" s="51"/>
-      <c r="H171" s="51"/>
-      <c r="I171" s="51"/>
-      <c r="J171" s="51"/>
-      <c r="K171" s="51"/>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="52" t="s">
-        <v>99</v>
-      </c>
-      <c r="B172" s="53"/>
-      <c r="C172" s="53"/>
-      <c r="D172" s="53"/>
-      <c r="E172" s="53"/>
-      <c r="F172" s="53"/>
-      <c r="G172" s="53"/>
-      <c r="H172" s="53"/>
-      <c r="I172" s="53"/>
-      <c r="J172" s="53"/>
-      <c r="K172" s="54"/>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E173" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G173" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H173" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I173" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J173" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K173" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="39">
-        <v>1</v>
-      </c>
-      <c r="B174" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C174" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D174" s="5">
-        <v>20</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H174" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I174" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J174" s="47"/>
-      <c r="K174" s="6" t="s">
-        <v>13</v>
+      <c r="E174" s="7"/>
+      <c r="F174" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I174" s="7"/>
+      <c r="J174" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K174" s="9" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D175" s="7">
-        <v>50</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
       <c r="F175" s="7" t="s">
         <v>10</v>
       </c>
@@ -5748,259 +5808,251 @@
       <c r="H175" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I175" s="23"/>
-      <c r="J175" s="49" t="s">
+      <c r="I175" s="7"/>
+      <c r="J175" s="52" t="s">
         <v>12</v>
       </c>
       <c r="K175" s="9"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B176" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D176" s="7">
+        <v>1</v>
+      </c>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7">
+        <v>0</v>
+      </c>
+      <c r="G176" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I176" s="7"/>
+      <c r="J176" s="52"/>
+      <c r="K176" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" s="40"/>
+      <c r="B177" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D176" s="7"/>
-      <c r="E176" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F176" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G176" s="7"/>
-      <c r="H176" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I176" s="23"/>
-      <c r="J176" s="49"/>
-      <c r="K176" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="40">
-        <v>4</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D177" s="7"/>
-      <c r="E177" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F177" s="10" t="s">
-        <v>18</v>
+      <c r="E177" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G177" s="7"/>
       <c r="H177" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I177" s="23"/>
-      <c r="J177" s="49"/>
+      <c r="I177" s="52"/>
+      <c r="J177" s="52"/>
       <c r="K177" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="40">
+      <c r="A178" s="40"/>
+      <c r="B178" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="7"/>
+      <c r="E178" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I178" s="52"/>
+      <c r="J178" s="52"/>
+      <c r="K178" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="41"/>
+      <c r="B179" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" s="13">
+        <v>1</v>
+      </c>
+      <c r="E179" s="13">
+        <v>0</v>
+      </c>
+      <c r="F179" s="13">
+        <v>0</v>
+      </c>
+      <c r="G179" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H179" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I179" s="51"/>
+      <c r="J179" s="51"/>
+      <c r="K179" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="63"/>
+      <c r="B180" s="63"/>
+      <c r="C180" s="63"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="63"/>
+      <c r="F180" s="63"/>
+      <c r="G180" s="63"/>
+      <c r="H180" s="63"/>
+      <c r="I180" s="63"/>
+      <c r="J180" s="63"/>
+      <c r="K180" s="63"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="55"/>
+      <c r="B181" s="55"/>
+      <c r="C181" s="55"/>
+      <c r="D181" s="55"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="55"/>
+      <c r="G181" s="55"/>
+      <c r="H181" s="55"/>
+      <c r="I181" s="55"/>
+      <c r="J181" s="55"/>
+      <c r="K181" s="55"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="B182" s="57"/>
+      <c r="C182" s="57"/>
+      <c r="D182" s="57"/>
+      <c r="E182" s="57"/>
+      <c r="F182" s="57"/>
+      <c r="G182" s="57"/>
+      <c r="H182" s="57"/>
+      <c r="I182" s="57"/>
+      <c r="J182" s="57"/>
+      <c r="K182" s="58"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C183" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E183" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B178" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C178" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D178" s="13">
+      <c r="F183" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J183" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K183" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="39">
         <v>1</v>
       </c>
-      <c r="E178" s="13">
-        <v>0</v>
-      </c>
-      <c r="F178" s="13">
-        <v>0</v>
-      </c>
-      <c r="G178" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H178" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I178" s="22"/>
-      <c r="J178" s="48"/>
-      <c r="K178" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="50"/>
-      <c r="B179" s="50"/>
-      <c r="C179" s="50"/>
-      <c r="D179" s="50"/>
-      <c r="E179" s="50"/>
-      <c r="F179" s="50"/>
-      <c r="G179" s="50"/>
-      <c r="H179" s="50"/>
-      <c r="I179" s="50"/>
-      <c r="J179" s="50"/>
-      <c r="K179" s="50"/>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="51"/>
-      <c r="B180" s="51"/>
-      <c r="C180" s="51"/>
-      <c r="D180" s="51"/>
-      <c r="E180" s="51"/>
-      <c r="F180" s="51"/>
-      <c r="G180" s="51"/>
-      <c r="H180" s="51"/>
-      <c r="I180" s="51"/>
-      <c r="J180" s="51"/>
-      <c r="K180" s="51"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="B181" s="53"/>
-      <c r="C181" s="53"/>
-      <c r="D181" s="53"/>
-      <c r="E181" s="53"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="53"/>
-      <c r="H181" s="53"/>
-      <c r="I181" s="53"/>
-      <c r="J181" s="53"/>
-      <c r="K181" s="54"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C182" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D182" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F182" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G182" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H182" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I182" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J182" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K182" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="39">
-        <v>1</v>
-      </c>
-      <c r="B183" s="5" t="s">
+      <c r="B184" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C183" s="5" t="s">
+      <c r="C184" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D183" s="5">
+      <c r="D184" s="5">
         <v>20</v>
       </c>
-      <c r="E183" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F183" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G183" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H183" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I183" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J183" s="47"/>
-      <c r="K183" s="6" t="s">
+      <c r="E184" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I184" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J184" s="47"/>
+      <c r="K184" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="40">
-        <v>2</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D184" s="7">
-        <v>11</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H184" s="7"/>
-      <c r="I184" s="23"/>
-      <c r="J184" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K184" s="9"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="C185" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D185" s="7">
-        <v>25</v>
-      </c>
-      <c r="E185" s="10" t="s">
-        <v>18</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E185" s="7"/>
       <c r="F185" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="7"/>
       <c r="H185" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I185" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="I185" s="30"/>
       <c r="J185" s="49" t="s">
         <v>12</v>
       </c>
@@ -6008,18 +6060,18 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D186" s="7">
+        <v>25</v>
+      </c>
+      <c r="E186" s="7"/>
       <c r="F186" s="7" t="s">
         <v>10</v>
       </c>
@@ -6027,2984 +6079,1591 @@
       <c r="H186" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I186" s="23"/>
+      <c r="I186" s="30"/>
       <c r="J186" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="K186" s="9"/>
+      <c r="K186" s="9" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D187" s="7">
-        <v>2</v>
-      </c>
-      <c r="E187" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
       <c r="F187" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G187" s="7"/>
       <c r="H187" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I187" s="23"/>
-      <c r="J187" s="49" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I187" s="30"/>
+      <c r="J187" s="49"/>
       <c r="K187" s="9"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D188" s="7"/>
-      <c r="E188" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F188" s="12" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D188" s="7">
+        <v>50</v>
+      </c>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="G188" s="7"/>
       <c r="H188" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I188" s="23"/>
+      <c r="I188" s="30"/>
       <c r="J188" s="49"/>
-      <c r="K188" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="K188" s="9"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D189" s="7"/>
-      <c r="E189" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F189" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="D189" s="7">
+        <v>20</v>
+      </c>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7">
+        <v>0</v>
+      </c>
+      <c r="G189" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H189" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I189" s="23"/>
+      <c r="I189" s="30"/>
       <c r="J189" s="49"/>
-      <c r="K189" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="K189" s="9"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
+        <v>7</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D190" s="7">
+        <v>1</v>
+      </c>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7">
+        <v>0</v>
+      </c>
+      <c r="G190" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I190" s="30"/>
+      <c r="J190" s="49"/>
+      <c r="K190" s="9"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="40">
+        <v>8</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="D191" s="7">
+        <v>10</v>
+      </c>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H191" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I191" s="46"/>
+      <c r="J191" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K191" s="9"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="40">
+        <v>9</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I192" s="53"/>
+      <c r="J192" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K192" s="9"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="40">
+        <v>10</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I193" s="53"/>
+      <c r="J193" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K193" s="9"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="40">
+        <v>11</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="7"/>
+      <c r="E194" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F194" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I194" s="30"/>
+      <c r="J194" s="49"/>
+      <c r="K194" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="40">
+        <v>12</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" s="7"/>
+      <c r="E195" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" s="30"/>
+      <c r="J195" s="49"/>
+      <c r="K195" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="41">
+        <v>13</v>
+      </c>
+      <c r="B196" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C190" s="13" t="s">
+      <c r="C196" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D190" s="13">
+      <c r="D196" s="13">
         <v>1</v>
       </c>
-      <c r="E190" s="13">
-        <v>0</v>
-      </c>
-      <c r="F190" s="13">
-        <v>0</v>
-      </c>
-      <c r="G190" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H190" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I190" s="16"/>
-      <c r="J190" s="48"/>
-      <c r="K190" s="14" t="s">
+      <c r="E196" s="13">
+        <v>0</v>
+      </c>
+      <c r="F196" s="13">
+        <v>0</v>
+      </c>
+      <c r="G196" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="31"/>
+      <c r="J196" s="48"/>
+      <c r="K196" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="50"/>
-      <c r="B191" s="50"/>
-      <c r="C191" s="50"/>
-      <c r="D191" s="50"/>
-      <c r="E191" s="50"/>
-      <c r="F191" s="50"/>
-      <c r="G191" s="50"/>
-      <c r="H191" s="50"/>
-      <c r="I191" s="50"/>
-      <c r="J191" s="50"/>
-      <c r="K191" s="50"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="51"/>
-      <c r="B192" s="51"/>
-      <c r="C192" s="51"/>
-      <c r="D192" s="51"/>
-      <c r="E192" s="51"/>
-      <c r="F192" s="51"/>
-      <c r="G192" s="51"/>
-      <c r="H192" s="51"/>
-      <c r="I192" s="51"/>
-      <c r="J192" s="51"/>
-      <c r="K192" s="51"/>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="B193" s="53"/>
-      <c r="C193" s="53"/>
-      <c r="D193" s="53"/>
-      <c r="E193" s="53"/>
-      <c r="F193" s="53"/>
-      <c r="G193" s="53"/>
-      <c r="H193" s="53"/>
-      <c r="I193" s="53"/>
-      <c r="J193" s="53"/>
-      <c r="K193" s="54"/>
-    </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B194" s="4" t="s">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="54"/>
+      <c r="B197" s="54"/>
+      <c r="C197" s="54"/>
+      <c r="D197" s="54"/>
+      <c r="E197" s="54"/>
+      <c r="F197" s="54"/>
+      <c r="G197" s="54"/>
+      <c r="H197" s="54"/>
+      <c r="I197" s="54"/>
+      <c r="J197" s="54"/>
+      <c r="K197" s="54"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="55"/>
+      <c r="B198" s="55"/>
+      <c r="C198" s="55"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="55"/>
+      <c r="H198" s="55"/>
+      <c r="I198" s="55"/>
+      <c r="J198" s="55"/>
+      <c r="K198" s="55"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B199" s="57"/>
+      <c r="C199" s="57"/>
+      <c r="D199" s="57"/>
+      <c r="E199" s="57"/>
+      <c r="F199" s="57"/>
+      <c r="G199" s="57"/>
+      <c r="H199" s="57"/>
+      <c r="I199" s="57"/>
+      <c r="J199" s="57"/>
+      <c r="K199" s="58"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C200" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D194" s="4" t="s">
+      <c r="D200" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E194" s="4" t="s">
+      <c r="E200" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F194" s="4" t="s">
+      <c r="F200" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G194" s="4" t="s">
+      <c r="G200" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H194" s="4" t="s">
+      <c r="H200" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I194" s="3" t="s">
+      <c r="I200" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J194" s="3" t="s">
+      <c r="J200" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K194" s="4" t="s">
+      <c r="K200" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="39">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="39">
         <v>1</v>
       </c>
-      <c r="B195" s="5" t="s">
+      <c r="B201" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C201" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D195" s="5">
+      <c r="D201" s="5">
         <v>20</v>
       </c>
-      <c r="E195" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F195" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G195" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H195" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I195" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J195" s="47"/>
-      <c r="K195" s="6" t="s">
+      <c r="E201" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I201" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J201" s="47"/>
+      <c r="K201" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="40">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="40">
         <v>2</v>
       </c>
-      <c r="B196" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C196" s="7" t="s">
+      <c r="B202" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C202" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D196" s="7">
+      <c r="D202" s="7">
         <v>20</v>
       </c>
-      <c r="E196" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G196" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H196" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I196" s="8"/>
-      <c r="J196" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K196" s="9"/>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="40">
+      <c r="E202" s="7"/>
+      <c r="F202" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H202" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I202" s="35"/>
+      <c r="J202" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K202" s="9"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="40">
         <v>3</v>
       </c>
-      <c r="B197" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C197" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D197" s="7">
-        <v>50</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G197" s="7"/>
-      <c r="H197" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I197" s="8"/>
-      <c r="J197" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K197" s="9"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="40">
+      <c r="B203" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D203" s="7">
+        <v>20</v>
+      </c>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H203" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I203" s="35"/>
+      <c r="J203" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K203" s="9"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="40">
         <v>4</v>
       </c>
-      <c r="B198" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C198" s="7" t="s">
+      <c r="B204" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="7"/>
+      <c r="E204" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F204" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G204" s="7"/>
+      <c r="H204" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I204" s="35"/>
+      <c r="J204" s="49"/>
+      <c r="K204" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="40">
+        <v>5</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="7"/>
+      <c r="E205" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F205" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G205" s="7"/>
+      <c r="H205" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I205" s="35"/>
+      <c r="J205" s="49"/>
+      <c r="K205" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="41">
+        <v>6</v>
+      </c>
+      <c r="B206" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C206" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D198" s="7">
+      <c r="D206" s="13">
         <v>1</v>
       </c>
-      <c r="E198" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G198" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H198" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I198" s="8"/>
-      <c r="J198" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K198" s="9"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="40">
+      <c r="E206" s="13">
+        <v>0</v>
+      </c>
+      <c r="F206" s="13">
+        <v>0</v>
+      </c>
+      <c r="G206" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H206" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I206" s="34"/>
+      <c r="J206" s="48"/>
+      <c r="K206" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="54"/>
+      <c r="B207" s="54"/>
+      <c r="C207" s="54"/>
+      <c r="D207" s="54"/>
+      <c r="E207" s="54"/>
+      <c r="F207" s="54"/>
+      <c r="G207" s="54"/>
+      <c r="H207" s="54"/>
+      <c r="I207" s="54"/>
+      <c r="J207" s="54"/>
+      <c r="K207" s="54"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="55"/>
+      <c r="B208" s="55"/>
+      <c r="C208" s="55"/>
+      <c r="D208" s="55"/>
+      <c r="E208" s="55"/>
+      <c r="F208" s="55"/>
+      <c r="G208" s="55"/>
+      <c r="H208" s="55"/>
+      <c r="I208" s="55"/>
+      <c r="J208" s="55"/>
+      <c r="K208" s="55"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="56" t="s">
+        <v>180</v>
+      </c>
+      <c r="B209" s="57"/>
+      <c r="C209" s="57"/>
+      <c r="D209" s="57"/>
+      <c r="E209" s="57"/>
+      <c r="F209" s="57"/>
+      <c r="G209" s="57"/>
+      <c r="H209" s="57"/>
+      <c r="I209" s="57"/>
+      <c r="J209" s="57"/>
+      <c r="K209" s="58"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E210" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B199" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C199" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D199" s="7"/>
-      <c r="E199" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F199" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G199" s="7"/>
-      <c r="H199" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I199" s="8"/>
-      <c r="J199" s="49"/>
-      <c r="K199" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="40">
+      <c r="F210" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G210" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H210" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I210" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B200" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C200" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D200" s="7"/>
-      <c r="E200" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F200" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" s="7"/>
-      <c r="H200" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I200" s="8"/>
-      <c r="J200" s="49"/>
-      <c r="K200" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="41">
-        <v>7</v>
-      </c>
-      <c r="B201" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C201" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D201" s="13">
+      <c r="J210" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K210" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211" s="39">
         <v>1</v>
       </c>
-      <c r="E201" s="13">
-        <v>0</v>
-      </c>
-      <c r="F201" s="13">
-        <v>0</v>
-      </c>
-      <c r="G201" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H201" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I201" s="16"/>
-      <c r="J201" s="48"/>
-      <c r="K201" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="50"/>
-      <c r="B202" s="50"/>
-      <c r="C202" s="50"/>
-      <c r="D202" s="50"/>
-      <c r="E202" s="50"/>
-      <c r="F202" s="50"/>
-      <c r="G202" s="50"/>
-      <c r="H202" s="50"/>
-      <c r="I202" s="50"/>
-      <c r="J202" s="50"/>
-      <c r="K202" s="50"/>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="51"/>
-      <c r="B203" s="51"/>
-      <c r="C203" s="51"/>
-      <c r="D203" s="51"/>
-      <c r="E203" s="51"/>
-      <c r="F203" s="51"/>
-      <c r="G203" s="51"/>
-      <c r="H203" s="51"/>
-      <c r="I203" s="51"/>
-      <c r="J203" s="51"/>
-      <c r="K203" s="51"/>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="52" t="s">
-        <v>107</v>
-      </c>
-      <c r="B204" s="53"/>
-      <c r="C204" s="53"/>
-      <c r="D204" s="53"/>
-      <c r="E204" s="53"/>
-      <c r="F204" s="53"/>
-      <c r="G204" s="53"/>
-      <c r="H204" s="53"/>
-      <c r="I204" s="53"/>
-      <c r="J204" s="53"/>
-      <c r="K204" s="54"/>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C205" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D205" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E205" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F205" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G205" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H205" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I205" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J205" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K205" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="39">
-        <v>1</v>
-      </c>
-      <c r="B206" s="5" t="s">
+      <c r="B211" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C206" s="5" t="s">
+      <c r="C211" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D206" s="5">
+      <c r="D211" s="5">
         <v>20</v>
       </c>
-      <c r="E206" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F206" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G206" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H206" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I206" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="J206" s="47"/>
-      <c r="K206" s="6" t="s">
+      <c r="E211" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I211" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J211" s="47"/>
+      <c r="K211" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <v>2</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D207" s="2">
-        <v>100</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H207" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J207" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K207" s="9"/>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <v>3</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C208" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D208" s="7">
-        <v>11</v>
-      </c>
-      <c r="E208" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G208" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H208" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I208" s="25"/>
-      <c r="J208" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K208" s="9"/>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <v>4</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D209" s="2">
-        <v>2</v>
-      </c>
-      <c r="F209" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H209" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J209" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K209" s="9"/>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <v>5</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D210" s="2">
-        <v>1</v>
-      </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H210" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J210" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K210" s="9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="40">
-        <v>6</v>
-      </c>
-      <c r="B211" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C211" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D211" s="7"/>
-      <c r="E211" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F211" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G211" s="7"/>
-      <c r="H211" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I211" s="29"/>
-      <c r="J211" s="49"/>
-      <c r="K211" s="9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
+        <v>2</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D212" s="7">
+        <v>20</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H212" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I212" s="35"/>
+      <c r="J212" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K212" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213" s="40">
+        <v>3</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D213" s="7">
+        <v>1</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I213" s="35"/>
+      <c r="J213" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K213" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214" s="40">
+        <v>4</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D214" s="7">
+        <v>255</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="7"/>
+      <c r="H214" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I214" s="35"/>
+      <c r="J214" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K214" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215" s="40">
+        <v>5</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D215" s="7">
+        <v>255</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="7"/>
+      <c r="H215" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I215" s="35"/>
+      <c r="J215" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K215" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216" s="40">
+        <v>6</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D216" s="7">
+        <v>255</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="7"/>
+      <c r="H216" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I216" s="35"/>
+      <c r="J216" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K216" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217" s="40">
         <v>7</v>
       </c>
-      <c r="B212" s="7" t="s">
+      <c r="B217" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D217" s="7">
+        <v>1</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F217" s="7">
+        <v>0</v>
+      </c>
+      <c r="G217" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I217" s="35"/>
+      <c r="J217" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K217" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218" s="40">
+        <v>8</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="7"/>
+      <c r="H218" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I218" s="35"/>
+      <c r="J218" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K218" s="9"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="40">
+        <v>9</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D219" s="7"/>
+      <c r="E219" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F219" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G219" s="7"/>
+      <c r="H219" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I219" s="35"/>
+      <c r="J219" s="49"/>
+      <c r="K219" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="40">
+        <v>10</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D220" s="7">
+        <v>45</v>
+      </c>
+      <c r="E220" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F220" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G220" s="7"/>
+      <c r="H220" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I220" s="35"/>
+      <c r="J220" s="49"/>
+      <c r="K220" s="9"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="40">
+        <v>11</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D221" s="7"/>
+      <c r="E221" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F221" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G221" s="7"/>
+      <c r="H221" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I221" s="35"/>
+      <c r="J221" s="49"/>
+      <c r="K221" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="41">
+        <v>12</v>
+      </c>
+      <c r="B222" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="C222" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D212" s="7"/>
-      <c r="E212" s="10" t="s">
+      <c r="D222" s="13"/>
+      <c r="E222" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F212" s="10" t="s">
+      <c r="F222" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G212" s="7"/>
-      <c r="H212" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I212" s="29"/>
-      <c r="J212" s="49"/>
-      <c r="K212" s="9" t="s">
+      <c r="G222" s="13"/>
+      <c r="H222" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I222" s="34"/>
+      <c r="J222" s="48"/>
+      <c r="K222" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="41">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="54"/>
+      <c r="B223" s="54"/>
+      <c r="C223" s="54"/>
+      <c r="D223" s="54"/>
+      <c r="E223" s="54"/>
+      <c r="F223" s="54"/>
+      <c r="G223" s="54"/>
+      <c r="H223" s="54"/>
+      <c r="I223" s="54"/>
+      <c r="J223" s="54"/>
+      <c r="K223" s="54"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="55"/>
+      <c r="B224" s="55"/>
+      <c r="C224" s="55"/>
+      <c r="D224" s="55"/>
+      <c r="E224" s="55"/>
+      <c r="F224" s="55"/>
+      <c r="G224" s="55"/>
+      <c r="H224" s="55"/>
+      <c r="I224" s="55"/>
+      <c r="J224" s="55"/>
+      <c r="K224" s="55"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B225" s="57"/>
+      <c r="C225" s="57"/>
+      <c r="D225" s="57"/>
+      <c r="E225" s="57"/>
+      <c r="F225" s="57"/>
+      <c r="G225" s="57"/>
+      <c r="H225" s="57"/>
+      <c r="I225" s="57"/>
+      <c r="J225" s="57"/>
+      <c r="K225" s="58"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C226" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D226" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F226" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G226" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H226" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I226" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J226" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B213" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C213" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D213" s="13">
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="39">
         <v>1</v>
       </c>
-      <c r="E213" s="13">
-        <v>0</v>
-      </c>
-      <c r="F213" s="13">
-        <v>0</v>
-      </c>
-      <c r="G213" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H213" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I213" s="28"/>
-      <c r="J213" s="48"/>
-      <c r="K213" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="50"/>
-      <c r="B214" s="50"/>
-      <c r="C214" s="50"/>
-      <c r="D214" s="50"/>
-      <c r="E214" s="50"/>
-      <c r="F214" s="50"/>
-      <c r="G214" s="50"/>
-      <c r="H214" s="50"/>
-      <c r="I214" s="50"/>
-      <c r="J214" s="50"/>
-      <c r="K214" s="50"/>
-    </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="51"/>
-      <c r="B215" s="51"/>
-      <c r="C215" s="51"/>
-      <c r="D215" s="51"/>
-      <c r="E215" s="51"/>
-      <c r="F215" s="51"/>
-      <c r="G215" s="51"/>
-      <c r="H215" s="51"/>
-      <c r="I215" s="51"/>
-      <c r="J215" s="51"/>
-      <c r="K215" s="51"/>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="52" t="s">
-        <v>112</v>
-      </c>
-      <c r="B216" s="53"/>
-      <c r="C216" s="53"/>
-      <c r="D216" s="53"/>
-      <c r="E216" s="53"/>
-      <c r="F216" s="53"/>
-      <c r="G216" s="53"/>
-      <c r="H216" s="53"/>
-      <c r="I216" s="53"/>
-      <c r="J216" s="53"/>
-      <c r="K216" s="54"/>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B217" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C217" s="4" t="s">
+      <c r="B227" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D227" s="5">
+        <v>20</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I227" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J227" s="50"/>
+      <c r="K227" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="40">
         <v>2</v>
       </c>
-      <c r="D217" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E217" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G217" s="4" t="s">
+      <c r="B228" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G228" s="7"/>
+      <c r="H228" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I228" s="52"/>
+      <c r="J228" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K228" s="9"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="40">
         <v>3</v>
       </c>
-      <c r="H217" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I217" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J217" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K217" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="39">
-        <v>1</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C218" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D218" s="5">
-        <v>20</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F218" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H218" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I218" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J218" s="47"/>
-      <c r="K218" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <v>2</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D219" s="2">
-        <v>20</v>
-      </c>
-      <c r="F219" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H219" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J219" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K219" s="9"/>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <v>3</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D220" s="2">
-        <v>20</v>
-      </c>
-      <c r="F220" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H220" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J220" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K220" s="9"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <v>4</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D221" s="2">
-        <v>20</v>
-      </c>
-      <c r="F221" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H221" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J221" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K221" s="9"/>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="40">
-        <v>5</v>
-      </c>
-      <c r="B222" s="7" t="s">
+      <c r="B229" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C229" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D222" s="7"/>
-      <c r="E222" s="12" t="s">
+      <c r="D229" s="7"/>
+      <c r="E229" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F222" s="12" t="s">
+      <c r="F229" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G222" s="7"/>
-      <c r="H222" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I222" s="29"/>
-      <c r="J222" s="49"/>
-      <c r="K222" s="9" t="s">
+      <c r="G229" s="7"/>
+      <c r="H229" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I229" s="52"/>
+      <c r="J229" s="52"/>
+      <c r="K229" s="9" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="40">
-        <v>6</v>
-      </c>
-      <c r="B223" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C223" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D223" s="7"/>
-      <c r="E223" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F223" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G223" s="7"/>
-      <c r="H223" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I223" s="29"/>
-      <c r="J223" s="49"/>
-      <c r="K223" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="41">
-        <v>7</v>
-      </c>
-      <c r="B224" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C224" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D224" s="13">
-        <v>1</v>
-      </c>
-      <c r="E224" s="13">
-        <v>0</v>
-      </c>
-      <c r="F224" s="13">
-        <v>0</v>
-      </c>
-      <c r="G224" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H224" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I224" s="28"/>
-      <c r="J224" s="48"/>
-      <c r="K224" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="50"/>
-      <c r="B225" s="50"/>
-      <c r="C225" s="50"/>
-      <c r="D225" s="50"/>
-      <c r="E225" s="50"/>
-      <c r="F225" s="50"/>
-      <c r="G225" s="50"/>
-      <c r="H225" s="50"/>
-      <c r="I225" s="50"/>
-      <c r="J225" s="50"/>
-      <c r="K225" s="50"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="51"/>
-      <c r="B226" s="51"/>
-      <c r="C226" s="51"/>
-      <c r="D226" s="51"/>
-      <c r="E226" s="51"/>
-      <c r="F226" s="51"/>
-      <c r="G226" s="51"/>
-      <c r="H226" s="51"/>
-      <c r="I226" s="51"/>
-      <c r="J226" s="51"/>
-      <c r="K226" s="51"/>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="B227" s="53"/>
-      <c r="C227" s="53"/>
-      <c r="D227" s="53"/>
-      <c r="E227" s="53"/>
-      <c r="F227" s="53"/>
-      <c r="G227" s="53"/>
-      <c r="H227" s="53"/>
-      <c r="I227" s="53"/>
-      <c r="J227" s="53"/>
-      <c r="K227" s="54"/>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B228" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C228" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D228" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E228" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F228" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G228" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H228" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I228" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J228" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K228" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="39">
-        <v>1</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D229" s="5">
-        <v>20</v>
-      </c>
-      <c r="E229" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F229" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G229" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H229" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I229" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J229" s="47"/>
-      <c r="K229" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
+        <v>4</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D230" s="7"/>
+      <c r="E230" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F230" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G230" s="7"/>
+      <c r="H230" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I230" s="52"/>
+      <c r="J230" s="52"/>
+      <c r="K230" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="41">
+        <v>5</v>
+      </c>
+      <c r="B231" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C231" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D231" s="13">
+        <v>1</v>
+      </c>
+      <c r="E231" s="13">
+        <v>0</v>
+      </c>
+      <c r="F231" s="13">
+        <v>0</v>
+      </c>
+      <c r="G231" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I231" s="51"/>
+      <c r="J231" s="51"/>
+      <c r="K231" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="54"/>
+      <c r="B232" s="54"/>
+      <c r="C232" s="54"/>
+      <c r="D232" s="54"/>
+      <c r="E232" s="54"/>
+      <c r="F232" s="54"/>
+      <c r="G232" s="54"/>
+      <c r="H232" s="54"/>
+      <c r="I232" s="54"/>
+      <c r="J232" s="54"/>
+      <c r="K232" s="54"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="55"/>
+      <c r="B233" s="55"/>
+      <c r="C233" s="55"/>
+      <c r="D233" s="55"/>
+      <c r="E233" s="55"/>
+      <c r="F233" s="55"/>
+      <c r="G233" s="55"/>
+      <c r="H233" s="55"/>
+      <c r="I233" s="55"/>
+      <c r="J233" s="55"/>
+      <c r="K233" s="55"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="B234" s="57"/>
+      <c r="C234" s="57"/>
+      <c r="D234" s="57"/>
+      <c r="E234" s="57"/>
+      <c r="F234" s="57"/>
+      <c r="G234" s="57"/>
+      <c r="H234" s="57"/>
+      <c r="I234" s="57"/>
+      <c r="J234" s="57"/>
+      <c r="K234" s="58"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C235" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B230" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C230" s="7" t="s">
+      <c r="D235" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="39">
+        <v>1</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C236" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D230" s="7">
+      <c r="D236" s="5">
         <v>20</v>
       </c>
-      <c r="E230" s="7"/>
-      <c r="F230" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G230" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H230" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I230" s="29"/>
-      <c r="J230" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K230" s="9"/>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="40">
+      <c r="E236" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G236" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I236" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J236" s="50"/>
+      <c r="K236" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="40">
+        <v>2</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D237" s="7">
+        <v>20</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F237" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G237" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H237" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="I237" s="52"/>
+      <c r="J237" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K237" s="9"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="40">
         <v>3</v>
       </c>
-      <c r="B231" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C231" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D231" s="7">
-        <v>20</v>
-      </c>
-      <c r="E231" s="7"/>
-      <c r="F231" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G231" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H231" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I231" s="29"/>
-      <c r="J231" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K231" s="9"/>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="40">
+      <c r="B238" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D238" s="7">
+        <v>50</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G238" s="7"/>
+      <c r="H238" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I238" s="52"/>
+      <c r="J238" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K238" s="9"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="40">
         <v>4</v>
       </c>
-      <c r="B232" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C232" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="7">
-        <v>10</v>
-      </c>
-      <c r="E232" s="7"/>
-      <c r="F232" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G232" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H232" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I232" s="29"/>
-      <c r="J232" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K232" s="9"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="40">
+      <c r="B239" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D239" s="7">
+        <v>1</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G239" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H239" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I239" s="52"/>
+      <c r="J239" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K239" s="9"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="40">
         <v>5</v>
       </c>
-      <c r="B233" s="7" t="s">
+      <c r="B240" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C240" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D233" s="7"/>
-      <c r="E233" s="12" t="s">
+      <c r="D240" s="7"/>
+      <c r="E240" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F233" s="12" t="s">
+      <c r="F240" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G233" s="7"/>
-      <c r="H233" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I233" s="29"/>
-      <c r="J233" s="49"/>
-      <c r="K233" s="9" t="s">
+      <c r="G240" s="7"/>
+      <c r="H240" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I240" s="52"/>
+      <c r="J240" s="52"/>
+      <c r="K240" s="9" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="40">
-        <v>6</v>
-      </c>
-      <c r="B234" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C234" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D234" s="7"/>
-      <c r="E234" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F234" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G234" s="7"/>
-      <c r="H234" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I234" s="29"/>
-      <c r="J234" s="49"/>
-      <c r="K234" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="41">
-        <v>7</v>
-      </c>
-      <c r="B235" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C235" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D235" s="13">
-        <v>1</v>
-      </c>
-      <c r="E235" s="13">
-        <v>0</v>
-      </c>
-      <c r="F235" s="13">
-        <v>0</v>
-      </c>
-      <c r="G235" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H235" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I235" s="28"/>
-      <c r="J235" s="48"/>
-      <c r="K235" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="50"/>
-      <c r="B236" s="50"/>
-      <c r="C236" s="50"/>
-      <c r="D236" s="50"/>
-      <c r="E236" s="50"/>
-      <c r="F236" s="50"/>
-      <c r="G236" s="50"/>
-      <c r="H236" s="50"/>
-      <c r="I236" s="50"/>
-      <c r="J236" s="50"/>
-      <c r="K236" s="50"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="51"/>
-      <c r="B237" s="51"/>
-      <c r="C237" s="51"/>
-      <c r="D237" s="51"/>
-      <c r="E237" s="51"/>
-      <c r="F237" s="51"/>
-      <c r="G237" s="51"/>
-      <c r="H237" s="51"/>
-      <c r="I237" s="51"/>
-      <c r="J237" s="51"/>
-      <c r="K237" s="51"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B238" s="53"/>
-      <c r="C238" s="53"/>
-      <c r="D238" s="53"/>
-      <c r="E238" s="53"/>
-      <c r="F238" s="53"/>
-      <c r="G238" s="53"/>
-      <c r="H238" s="53"/>
-      <c r="I238" s="53"/>
-      <c r="J238" s="53"/>
-      <c r="K238" s="54"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B239" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C239" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D239" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E239" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F239" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G239" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H239" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I239" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J239" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K239" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="39">
-        <v>1</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D240" s="5">
-        <v>20</v>
-      </c>
-      <c r="E240" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F240" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G240" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H240" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I240" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J240" s="47"/>
-      <c r="K240" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
+        <v>6</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D241" s="7"/>
+      <c r="E241" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G241" s="7"/>
+      <c r="H241" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I241" s="52"/>
+      <c r="J241" s="52"/>
+      <c r="K241" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="41">
+        <v>7</v>
+      </c>
+      <c r="B242" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C242" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D242" s="13">
+        <v>1</v>
+      </c>
+      <c r="E242" s="13">
+        <v>0</v>
+      </c>
+      <c r="F242" s="13">
+        <v>0</v>
+      </c>
+      <c r="G242" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H242" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I242" s="51"/>
+      <c r="J242" s="51"/>
+      <c r="K242" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="54"/>
+      <c r="B243" s="54"/>
+      <c r="C243" s="54"/>
+      <c r="D243" s="54"/>
+      <c r="E243" s="54"/>
+      <c r="F243" s="54"/>
+      <c r="G243" s="54"/>
+      <c r="H243" s="54"/>
+      <c r="I243" s="54"/>
+      <c r="J243" s="54"/>
+      <c r="K243" s="54"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="55"/>
+      <c r="B244" s="55"/>
+      <c r="C244" s="55"/>
+      <c r="D244" s="55"/>
+      <c r="E244" s="55"/>
+      <c r="F244" s="55"/>
+      <c r="G244" s="55"/>
+      <c r="H244" s="55"/>
+      <c r="I244" s="55"/>
+      <c r="J244" s="55"/>
+      <c r="K244" s="55"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="56" t="s">
+        <v>199</v>
+      </c>
+      <c r="B245" s="57"/>
+      <c r="C245" s="57"/>
+      <c r="D245" s="57"/>
+      <c r="E245" s="57"/>
+      <c r="F245" s="57"/>
+      <c r="G245" s="57"/>
+      <c r="H245" s="57"/>
+      <c r="I245" s="57"/>
+      <c r="J245" s="57"/>
+      <c r="K245" s="58"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B241" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D241" s="7">
-        <v>20</v>
-      </c>
-      <c r="E241" s="7"/>
-      <c r="F241" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G241" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H241" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I241" s="29"/>
-      <c r="J241" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K241" s="9"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="40">
+      <c r="D246" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F246" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G246" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B242" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C242" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D242" s="7">
-        <v>50</v>
-      </c>
-      <c r="E242" s="7"/>
-      <c r="F242" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G242" s="7"/>
-      <c r="H242" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I242" s="29"/>
-      <c r="J242" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K242" s="9"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="40">
+      <c r="H246" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B243" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C243" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D243" s="7"/>
-      <c r="E243" s="7"/>
-      <c r="F243" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G243" s="7"/>
-      <c r="H243" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I243" s="30"/>
-      <c r="J243" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K243" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="40">
-        <v>5</v>
-      </c>
-      <c r="B244" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C244" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D244" s="7">
-        <v>100</v>
-      </c>
-      <c r="E244" s="10"/>
-      <c r="F244" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" s="7"/>
-      <c r="H244" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I244" s="46"/>
-      <c r="J244" s="49"/>
-      <c r="K244" s="9"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="40">
+      <c r="I246" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B245" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C245" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D245" s="7"/>
-      <c r="E245" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F245" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G245" s="7"/>
-      <c r="H245" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I245" s="29"/>
-      <c r="J245" s="49"/>
-      <c r="K245" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="40">
-        <v>7</v>
-      </c>
-      <c r="B246" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D246" s="7"/>
-      <c r="E246" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F246" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G246" s="7"/>
-      <c r="H246" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I246" s="29"/>
-      <c r="J246" s="49"/>
-      <c r="K246" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="41">
+      <c r="J246" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K246" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B247" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C247" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D247" s="13">
-        <v>1</v>
-      </c>
-      <c r="E247" s="13">
-        <v>0</v>
-      </c>
-      <c r="F247" s="13">
-        <v>0</v>
-      </c>
-      <c r="G247" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H247" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I247" s="28"/>
-      <c r="J247" s="48"/>
-      <c r="K247" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="50"/>
-      <c r="B248" s="50"/>
-      <c r="C248" s="50"/>
-      <c r="D248" s="50"/>
-      <c r="E248" s="50"/>
-      <c r="F248" s="50"/>
-      <c r="G248" s="50"/>
-      <c r="H248" s="50"/>
-      <c r="I248" s="50"/>
-      <c r="J248" s="50"/>
-      <c r="K248" s="50"/>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="51"/>
-      <c r="B249" s="51"/>
-      <c r="C249" s="51"/>
-      <c r="D249" s="51"/>
-      <c r="E249" s="51"/>
-      <c r="F249" s="51"/>
-      <c r="G249" s="51"/>
-      <c r="H249" s="51"/>
-      <c r="I249" s="51"/>
-      <c r="J249" s="51"/>
-      <c r="K249" s="51"/>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="52" t="s">
-        <v>186</v>
-      </c>
-      <c r="B250" s="53"/>
-      <c r="C250" s="53"/>
-      <c r="D250" s="53"/>
-      <c r="E250" s="53"/>
-      <c r="F250" s="53"/>
-      <c r="G250" s="53"/>
-      <c r="H250" s="53"/>
-      <c r="I250" s="53"/>
-      <c r="J250" s="53"/>
-      <c r="K250" s="54"/>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B251" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C251" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D251" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E251" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F251" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G251" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H251" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I251" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J251" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K251" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="49">
-        <v>1</v>
-      </c>
-      <c r="B252" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C252" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D252" s="7">
-        <v>20</v>
-      </c>
-      <c r="E252" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F252" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G252" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H252" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I252" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="J252" s="49"/>
-      <c r="K252" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="49">
-        <v>2</v>
-      </c>
-      <c r="B253" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C253" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D253" s="7">
-        <v>20</v>
-      </c>
-      <c r="E253" s="7"/>
-      <c r="F253" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G253" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H253" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I253" s="7"/>
-      <c r="J253" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K253" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="49">
-        <v>3</v>
-      </c>
-      <c r="B254" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C254" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D254" s="7">
-        <v>1</v>
-      </c>
-      <c r="E254" s="7"/>
-      <c r="F254" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G254" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H254" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I254" s="7"/>
-      <c r="J254" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K254" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="49">
-        <v>4</v>
-      </c>
-      <c r="B255" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C255" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D255" s="7"/>
-      <c r="E255" s="7"/>
-      <c r="F255" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G255" s="7"/>
-      <c r="H255" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I255" s="7"/>
-      <c r="J255" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K255" s="7"/>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="49"/>
-      <c r="B256" s="7"/>
-      <c r="C256" s="7"/>
-      <c r="D256" s="7"/>
-      <c r="E256" s="7"/>
-      <c r="F256" s="7"/>
-      <c r="G256" s="7"/>
-      <c r="H256" s="7"/>
-      <c r="I256" s="7"/>
-      <c r="J256" s="49"/>
-      <c r="K256" s="7"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="49"/>
-      <c r="B257" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D257" s="7"/>
-      <c r="E257" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F257" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G257" s="7"/>
-      <c r="H257" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I257" s="49"/>
-      <c r="J257" s="49"/>
-      <c r="K257" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="49"/>
-      <c r="B258" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D258" s="7"/>
-      <c r="E258" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F258" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G258" s="7"/>
-      <c r="H258" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I258" s="49"/>
-      <c r="J258" s="49"/>
-      <c r="K258" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="49"/>
-      <c r="B259" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C259" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D259" s="13">
-        <v>1</v>
-      </c>
-      <c r="E259" s="13">
-        <v>0</v>
-      </c>
-      <c r="F259" s="13">
-        <v>0</v>
-      </c>
-      <c r="G259" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H259" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I259" s="48"/>
-      <c r="J259" s="48"/>
-      <c r="K259" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="59"/>
-      <c r="B260" s="59"/>
-      <c r="C260" s="59"/>
-      <c r="D260" s="59"/>
-      <c r="E260" s="59"/>
-      <c r="F260" s="59"/>
-      <c r="G260" s="59"/>
-      <c r="H260" s="59"/>
-      <c r="I260" s="59"/>
-      <c r="J260" s="59"/>
-      <c r="K260" s="59"/>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="51"/>
-      <c r="B261" s="51"/>
-      <c r="C261" s="51"/>
-      <c r="D261" s="51"/>
-      <c r="E261" s="51"/>
-      <c r="F261" s="51"/>
-      <c r="G261" s="51"/>
-      <c r="H261" s="51"/>
-      <c r="I261" s="51"/>
-      <c r="J261" s="51"/>
-      <c r="K261" s="51"/>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="B262" s="53"/>
-      <c r="C262" s="53"/>
-      <c r="D262" s="53"/>
-      <c r="E262" s="53"/>
-      <c r="F262" s="53"/>
-      <c r="G262" s="53"/>
-      <c r="H262" s="53"/>
-      <c r="I262" s="53"/>
-      <c r="J262" s="53"/>
-      <c r="K262" s="54"/>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B263" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C263" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D263" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E263" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F263" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G263" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H263" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I263" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J263" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K263" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="39">
-        <v>1</v>
-      </c>
-      <c r="B264" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C264" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D264" s="5">
-        <v>20</v>
-      </c>
-      <c r="E264" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F264" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G264" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H264" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I264" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J264" s="47"/>
-      <c r="K264" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="40">
-        <v>2</v>
-      </c>
-      <c r="B265" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C265" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D265" s="7">
-        <v>50</v>
-      </c>
-      <c r="E265" s="7"/>
-      <c r="F265" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G265" s="7"/>
-      <c r="H265" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I265" s="30"/>
-      <c r="J265" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K265" s="9"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="40">
-        <v>3</v>
-      </c>
-      <c r="B266" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C266" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D266" s="7"/>
-      <c r="E266" s="7"/>
-      <c r="F266" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G266" s="7"/>
-      <c r="H266" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I266" s="30"/>
-      <c r="J266" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K266" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="40">
-        <v>4</v>
-      </c>
-      <c r="B267" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C267" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D267" s="7"/>
-      <c r="E267" s="7"/>
-      <c r="F267" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G267" s="7"/>
-      <c r="H267" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I267" s="30"/>
-      <c r="J267" s="49"/>
-      <c r="K267" s="9"/>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="40">
-        <v>5</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D268" s="7">
-        <v>50</v>
-      </c>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G268" s="7"/>
-      <c r="H268" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I268" s="30"/>
-      <c r="J268" s="49"/>
-      <c r="K268" s="9"/>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="40">
-        <v>6</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D269" s="7">
-        <v>20</v>
-      </c>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G269" s="7"/>
-      <c r="H269" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I269" s="30"/>
-      <c r="J269" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K269" s="9"/>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="40">
-        <v>7</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D270" s="7">
-        <v>10</v>
-      </c>
-      <c r="E270" s="7"/>
-      <c r="F270" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G270" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H270" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I270" s="30"/>
-      <c r="J270" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K270" s="9"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="40">
-        <v>8</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D271" s="7">
-        <v>10</v>
-      </c>
-      <c r="E271" s="7"/>
-      <c r="F271" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G271" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H271" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I271" s="46"/>
-      <c r="J271" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K271" s="9"/>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="40">
-        <v>9</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D272" s="7"/>
-      <c r="E272" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F272" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G272" s="7"/>
-      <c r="H272" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I272" s="30"/>
-      <c r="J272" s="49"/>
-      <c r="K272" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="40">
-        <v>10</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D273" s="7"/>
-      <c r="E273" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F273" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G273" s="7"/>
-      <c r="H273" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I273" s="30"/>
-      <c r="J273" s="49"/>
-      <c r="K273" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="41">
-        <v>11</v>
-      </c>
-      <c r="B274" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C274" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D274" s="13">
-        <v>1</v>
-      </c>
-      <c r="E274" s="13">
-        <v>0</v>
-      </c>
-      <c r="F274" s="13">
-        <v>0</v>
-      </c>
-      <c r="G274" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H274" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I274" s="31"/>
-      <c r="J274" s="48"/>
-      <c r="K274" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="50"/>
-      <c r="B275" s="50"/>
-      <c r="C275" s="50"/>
-      <c r="D275" s="50"/>
-      <c r="E275" s="50"/>
-      <c r="F275" s="50"/>
-      <c r="G275" s="50"/>
-      <c r="H275" s="50"/>
-      <c r="I275" s="50"/>
-      <c r="J275" s="50"/>
-      <c r="K275" s="50"/>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="51"/>
-      <c r="B276" s="51"/>
-      <c r="C276" s="51"/>
-      <c r="D276" s="51"/>
-      <c r="E276" s="51"/>
-      <c r="F276" s="51"/>
-      <c r="G276" s="51"/>
-      <c r="H276" s="51"/>
-      <c r="I276" s="51"/>
-      <c r="J276" s="51"/>
-      <c r="K276" s="51"/>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="52" t="s">
-        <v>137</v>
-      </c>
-      <c r="B277" s="53"/>
-      <c r="C277" s="53"/>
-      <c r="D277" s="53"/>
-      <c r="E277" s="53"/>
-      <c r="F277" s="53"/>
-      <c r="G277" s="53"/>
-      <c r="H277" s="53"/>
-      <c r="I277" s="53"/>
-      <c r="J277" s="53"/>
-      <c r="K277" s="54"/>
-    </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C278" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D278" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E278" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F278" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G278" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H278" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I278" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J278" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K278" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="39">
-        <v>1</v>
-      </c>
-      <c r="B279" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C279" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D279" s="5">
-        <v>20</v>
-      </c>
-      <c r="E279" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F279" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G279" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H279" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I279" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J279" s="47"/>
-      <c r="K279" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A280" s="40">
-        <v>2</v>
-      </c>
-      <c r="B280" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C280" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D280" s="7">
-        <v>20</v>
-      </c>
-      <c r="E280" s="7"/>
-      <c r="F280" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G280" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H280" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I280" s="35"/>
-      <c r="J280" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K280" s="9"/>
-    </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="40">
-        <v>3</v>
-      </c>
-      <c r="B281" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D281" s="7">
-        <v>20</v>
-      </c>
-      <c r="E281" s="7"/>
-      <c r="F281" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G281" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H281" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I281" s="35"/>
-      <c r="J281" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K281" s="9"/>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="40">
-        <v>4</v>
-      </c>
-      <c r="B282" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C282" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D282" s="7"/>
-      <c r="E282" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F282" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G282" s="7"/>
-      <c r="H282" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I282" s="35"/>
-      <c r="J282" s="49"/>
-      <c r="K282" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="40">
-        <v>5</v>
-      </c>
-      <c r="B283" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C283" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D283" s="7"/>
-      <c r="E283" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F283" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G283" s="7"/>
-      <c r="H283" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I283" s="35"/>
-      <c r="J283" s="49"/>
-      <c r="K283" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="41">
-        <v>6</v>
-      </c>
-      <c r="B284" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C284" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D284" s="13">
-        <v>1</v>
-      </c>
-      <c r="E284" s="13">
-        <v>0</v>
-      </c>
-      <c r="F284" s="13">
-        <v>0</v>
-      </c>
-      <c r="G284" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H284" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I284" s="34"/>
-      <c r="J284" s="48"/>
-      <c r="K284" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="50"/>
-      <c r="B285" s="50"/>
-      <c r="C285" s="50"/>
-      <c r="D285" s="50"/>
-      <c r="E285" s="50"/>
-      <c r="F285" s="50"/>
-      <c r="G285" s="50"/>
-      <c r="H285" s="50"/>
-      <c r="I285" s="50"/>
-      <c r="J285" s="50"/>
-      <c r="K285" s="50"/>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="51"/>
-      <c r="B286" s="51"/>
-      <c r="C286" s="51"/>
-      <c r="D286" s="51"/>
-      <c r="E286" s="51"/>
-      <c r="F286" s="51"/>
-      <c r="G286" s="51"/>
-      <c r="H286" s="51"/>
-      <c r="I286" s="51"/>
-      <c r="J286" s="51"/>
-      <c r="K286" s="51"/>
-    </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="52" t="s">
-        <v>181</v>
-      </c>
-      <c r="B287" s="53"/>
-      <c r="C287" s="53"/>
-      <c r="D287" s="53"/>
-      <c r="E287" s="53"/>
-      <c r="F287" s="53"/>
-      <c r="G287" s="53"/>
-      <c r="H287" s="53"/>
-      <c r="I287" s="53"/>
-      <c r="J287" s="53"/>
-      <c r="K287" s="54"/>
-    </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B288" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C288" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D288" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E288" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F288" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G288" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H288" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I288" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J288" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K288" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A289" s="39">
-        <v>1</v>
-      </c>
-      <c r="B289" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C289" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D289" s="5">
-        <v>20</v>
-      </c>
-      <c r="E289" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F289" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G289" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H289" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I289" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J289" s="47"/>
-      <c r="K289" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A290" s="40">
-        <v>2</v>
-      </c>
-      <c r="B290" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C290" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D290" s="7">
-        <v>20</v>
-      </c>
-      <c r="E290" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F290" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G290" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H290" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I290" s="35"/>
-      <c r="J290" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K290" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A291" s="40">
-        <v>3</v>
-      </c>
-      <c r="B291" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C291" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D291" s="7">
-        <v>1</v>
-      </c>
-      <c r="E291" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F291" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G291" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H291" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I291" s="35"/>
-      <c r="J291" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K291" s="9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A292" s="40">
-        <v>4</v>
-      </c>
-      <c r="B292" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C292" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D292" s="7">
-        <v>255</v>
-      </c>
-      <c r="E292" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F292" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G292" s="7"/>
-      <c r="H292" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I292" s="35"/>
-      <c r="J292" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K292" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A293" s="40">
-        <v>5</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C293" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D293" s="7">
-        <v>255</v>
-      </c>
-      <c r="E293" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F293" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G293" s="7"/>
-      <c r="H293" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I293" s="35"/>
-      <c r="J293" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K293" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A294" s="40">
-        <v>6</v>
-      </c>
-      <c r="B294" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C294" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D294" s="7">
-        <v>255</v>
-      </c>
-      <c r="E294" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F294" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G294" s="7"/>
-      <c r="H294" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I294" s="35"/>
-      <c r="J294" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K294" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="40">
-        <v>7</v>
-      </c>
-      <c r="B295" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C295" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D295" s="7">
-        <v>1</v>
-      </c>
-      <c r="E295" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F295" s="7">
-        <v>0</v>
-      </c>
-      <c r="G295" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H295" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I295" s="35"/>
-      <c r="J295" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K295" s="9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="40">
-        <v>8</v>
-      </c>
-      <c r="B296" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C296" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D296" s="7"/>
-      <c r="E296" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F296" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G296" s="7"/>
-      <c r="H296" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I296" s="35"/>
-      <c r="J296" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K296" s="9"/>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="40">
-        <v>9</v>
-      </c>
-      <c r="B297" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C297" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D297" s="7"/>
-      <c r="E297" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F297" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G297" s="7"/>
-      <c r="H297" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I297" s="35"/>
-      <c r="J297" s="49"/>
-      <c r="K297" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="40">
-        <v>10</v>
-      </c>
-      <c r="B298" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C298" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D298" s="7">
-        <v>45</v>
-      </c>
-      <c r="E298" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F298" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G298" s="7"/>
-      <c r="H298" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I298" s="35"/>
-      <c r="J298" s="49"/>
-      <c r="K298" s="9"/>
-    </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="40">
-        <v>11</v>
-      </c>
-      <c r="B299" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C299" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D299" s="7"/>
-      <c r="E299" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F299" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G299" s="7"/>
-      <c r="H299" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I299" s="35"/>
-      <c r="J299" s="49"/>
-      <c r="K299" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A300" s="41">
-        <v>12</v>
-      </c>
-      <c r="B300" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C300" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D300" s="13"/>
-      <c r="E300" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F300" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G300" s="13"/>
-      <c r="H300" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I300" s="34"/>
-      <c r="J300" s="48"/>
-      <c r="K300" s="14" t="s">
-        <v>16</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A248:K249"/>
-    <mergeCell ref="A250:K250"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A287:K287"/>
-    <mergeCell ref="A225:K226"/>
-    <mergeCell ref="A227:K227"/>
-    <mergeCell ref="A236:K237"/>
-    <mergeCell ref="A238:K238"/>
-    <mergeCell ref="A260:K261"/>
-    <mergeCell ref="A262:K262"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A275:K276"/>
-    <mergeCell ref="A277:K277"/>
-    <mergeCell ref="A285:K286"/>
-    <mergeCell ref="A214:K215"/>
-    <mergeCell ref="A216:K216"/>
-    <mergeCell ref="A134:K134"/>
-    <mergeCell ref="A132:K133"/>
-    <mergeCell ref="A146:K146"/>
-    <mergeCell ref="A144:K145"/>
-    <mergeCell ref="A193:K193"/>
-    <mergeCell ref="A156:K157"/>
-    <mergeCell ref="A158:K158"/>
-    <mergeCell ref="A179:K180"/>
-    <mergeCell ref="A202:K203"/>
-    <mergeCell ref="A191:K192"/>
-    <mergeCell ref="A204:K204"/>
-    <mergeCell ref="A126:K127"/>
-    <mergeCell ref="A121:K121"/>
-    <mergeCell ref="A119:K120"/>
-    <mergeCell ref="A108:K108"/>
-    <mergeCell ref="A181:K181"/>
-    <mergeCell ref="A170:K171"/>
-    <mergeCell ref="A172:K172"/>
-    <mergeCell ref="A128:K128"/>
-    <mergeCell ref="A106:K107"/>
-    <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A89:K90"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A74:K75"/>
+  <mergeCells count="41">
     <mergeCell ref="A22:K23"/>
     <mergeCell ref="A62:K62"/>
     <mergeCell ref="A60:K61"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A47:K48"/>
     <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A106:K107"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A89:K90"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A74:K75"/>
+    <mergeCell ref="A121:K121"/>
+    <mergeCell ref="A119:K120"/>
+    <mergeCell ref="A108:K108"/>
+    <mergeCell ref="A128:K128"/>
+    <mergeCell ref="A126:K127"/>
+    <mergeCell ref="A209:K209"/>
+    <mergeCell ref="A156:K157"/>
+    <mergeCell ref="A158:K158"/>
+    <mergeCell ref="A180:K181"/>
+    <mergeCell ref="A182:K182"/>
+    <mergeCell ref="A197:K198"/>
+    <mergeCell ref="A199:K199"/>
+    <mergeCell ref="A207:K208"/>
+    <mergeCell ref="A168:K169"/>
+    <mergeCell ref="A170:K170"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A134:K134"/>
+    <mergeCell ref="A132:K133"/>
+    <mergeCell ref="A146:K146"/>
+    <mergeCell ref="A144:K145"/>
+    <mergeCell ref="A243:K244"/>
+    <mergeCell ref="A245:K245"/>
+    <mergeCell ref="A223:K224"/>
+    <mergeCell ref="A225:K225"/>
+    <mergeCell ref="A234:K234"/>
+    <mergeCell ref="A232:K233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9052,4 +7711,2100 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67:K80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="39">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="47"/>
+      <c r="K5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
+        <v>50</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="23"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>5</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="39">
+        <v>1</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="5">
+        <v>20</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="J14" s="47"/>
+      <c r="K14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>2</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="7">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="23"/>
+      <c r="J16" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>5</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>6</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>7</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>8</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>9</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="13">
+        <v>1</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="16"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="58"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="39">
+        <v>1</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="5">
+        <v>20</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J26" s="47"/>
+      <c r="K26" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>2</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="7">
+        <v>20</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>3</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="7">
+        <v>50</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8"/>
+      <c r="J28" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="9"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>4</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29" s="8"/>
+      <c r="J29" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="9"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>5</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="49"/>
+      <c r="K30" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>6</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="8"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="41">
+        <v>7</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="13">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="16"/>
+      <c r="J32" s="48"/>
+      <c r="K32" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="58"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="39">
+        <v>1</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D37" s="5">
+        <v>20</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J37" s="47"/>
+      <c r="K37" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="2">
+        <v>100</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="7">
+        <v>11</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" s="25"/>
+      <c r="J39" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>6</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="29"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
+        <v>7</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="29"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="41">
+        <v>8</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13">
+        <v>0</v>
+      </c>
+      <c r="F44" s="13">
+        <v>0</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="28"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="58"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="39">
+        <v>1</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D49" s="5">
+        <v>20</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J49" s="47"/>
+      <c r="K49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>2</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="2">
+        <v>20</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K50" s="9"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="2">
+        <v>20</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K51" s="9"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D52" s="2">
+        <v>20</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K52" s="9"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="40">
+        <v>5</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="29"/>
+      <c r="J53" s="49"/>
+      <c r="K53" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="40">
+        <v>6</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I54" s="29"/>
+      <c r="J54" s="49"/>
+      <c r="K54" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="41">
+        <v>7</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="13">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13">
+        <v>0</v>
+      </c>
+      <c r="F55" s="13">
+        <v>0</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" s="28"/>
+      <c r="J55" s="48"/>
+      <c r="K55" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="55"/>
+      <c r="K57" s="55"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="56" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
+      <c r="E58" s="57"/>
+      <c r="F58" s="57"/>
+      <c r="G58" s="57"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
+      <c r="J58" s="57"/>
+      <c r="K58" s="58"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="39">
+        <v>1</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D60" s="5">
+        <v>20</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J60" s="47"/>
+      <c r="K60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="40">
+        <v>2</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="7">
+        <v>20</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="29"/>
+      <c r="J61" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K61" s="9"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="40">
+        <v>3</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="7">
+        <v>20</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="29"/>
+      <c r="J62" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K62" s="9"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="40">
+        <v>4</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="7">
+        <v>10</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" s="29"/>
+      <c r="J63" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K63" s="9"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="40">
+        <v>5</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="7"/>
+      <c r="E64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I64" s="29"/>
+      <c r="J64" s="49"/>
+      <c r="K64" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="40">
+        <v>6</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="7"/>
+      <c r="E65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I65" s="29"/>
+      <c r="J65" s="49"/>
+      <c r="K65" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="41">
+        <v>7</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="13">
+        <v>1</v>
+      </c>
+      <c r="E66" s="13">
+        <v>0</v>
+      </c>
+      <c r="F66" s="13">
+        <v>0</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I66" s="28"/>
+      <c r="J66" s="48"/>
+      <c r="K66" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="55"/>
+      <c r="B68" s="55"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="55"/>
+      <c r="J68" s="55"/>
+      <c r="K68" s="55"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="57"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="58"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>1</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2">
+        <v>11</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="2">
+        <v>25</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K72" s="9"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73" s="2">
+        <v>20</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K73" s="9"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>4</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K74" s="9"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>5</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75" s="2">
+        <v>30</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K75" s="9"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>6</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="7"/>
+      <c r="E76" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I76" s="8"/>
+      <c r="J76" s="49"/>
+      <c r="K76" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>7</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="9"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="40">
+        <v>8</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="7"/>
+      <c r="E78" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I78" s="8"/>
+      <c r="J78" s="49"/>
+      <c r="K78" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="40">
+        <v>9</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="7"/>
+      <c r="E79" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I79" s="8"/>
+      <c r="J79" s="49"/>
+      <c r="K79" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="41">
+        <v>10</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="13">
+        <v>1</v>
+      </c>
+      <c r="E80" s="13">
+        <v>0</v>
+      </c>
+      <c r="F80" s="13">
+        <v>0</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I80" s="16"/>
+      <c r="J80" s="48"/>
+      <c r="K80" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A22:K23"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A67:K68"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A10:K11"/>
+    <mergeCell ref="A56:K57"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A45:K46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A33:K34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -1030,6 +1030,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,9 +1044,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A230" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A243" sqref="A243:K244"/>
     </sheetView>
   </sheetViews>
@@ -1372,34 +1372,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="56" t="s">
@@ -1620,17 +1620,17 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="55"/>
@@ -5923,17 +5923,17 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="63"/>
-      <c r="B180" s="63"/>
-      <c r="C180" s="63"/>
-      <c r="D180" s="63"/>
-      <c r="E180" s="63"/>
-      <c r="F180" s="63"/>
-      <c r="G180" s="63"/>
-      <c r="H180" s="63"/>
-      <c r="I180" s="63"/>
-      <c r="J180" s="63"/>
-      <c r="K180" s="63"/>
+      <c r="A180" s="59"/>
+      <c r="B180" s="59"/>
+      <c r="C180" s="59"/>
+      <c r="D180" s="59"/>
+      <c r="E180" s="59"/>
+      <c r="F180" s="59"/>
+      <c r="G180" s="59"/>
+      <c r="H180" s="59"/>
+      <c r="I180" s="59"/>
+      <c r="J180" s="59"/>
+      <c r="K180" s="59"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="55"/>
@@ -7623,22 +7623,21 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A22:K23"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="A60:K61"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A47:K48"/>
-    <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A106:K107"/>
-    <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A89:K90"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A74:K75"/>
-    <mergeCell ref="A121:K121"/>
-    <mergeCell ref="A119:K120"/>
-    <mergeCell ref="A108:K108"/>
-    <mergeCell ref="A128:K128"/>
-    <mergeCell ref="A126:K127"/>
+    <mergeCell ref="A245:K245"/>
+    <mergeCell ref="A223:K224"/>
+    <mergeCell ref="A225:K225"/>
+    <mergeCell ref="A234:K234"/>
+    <mergeCell ref="A232:K233"/>
+    <mergeCell ref="A134:K134"/>
+    <mergeCell ref="A132:K133"/>
+    <mergeCell ref="A146:K146"/>
+    <mergeCell ref="A144:K145"/>
+    <mergeCell ref="A243:K244"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="A13:K13"/>
     <mergeCell ref="A209:K209"/>
     <mergeCell ref="A156:K157"/>
     <mergeCell ref="A158:K158"/>
@@ -7649,21 +7648,22 @@
     <mergeCell ref="A207:K208"/>
     <mergeCell ref="A168:K169"/>
     <mergeCell ref="A170:K170"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A134:K134"/>
-    <mergeCell ref="A132:K133"/>
-    <mergeCell ref="A146:K146"/>
-    <mergeCell ref="A144:K145"/>
-    <mergeCell ref="A243:K244"/>
-    <mergeCell ref="A245:K245"/>
-    <mergeCell ref="A223:K224"/>
-    <mergeCell ref="A225:K225"/>
-    <mergeCell ref="A234:K234"/>
-    <mergeCell ref="A232:K233"/>
+    <mergeCell ref="A121:K121"/>
+    <mergeCell ref="A119:K120"/>
+    <mergeCell ref="A108:K108"/>
+    <mergeCell ref="A128:K128"/>
+    <mergeCell ref="A126:K127"/>
+    <mergeCell ref="A106:K107"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A89:K90"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A74:K75"/>
+    <mergeCell ref="A22:K23"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="A60:K61"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A47:K48"/>
+    <mergeCell ref="A24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9790,11 +9790,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A22:K23"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A67:K68"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="A12:K12"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A10:K11"/>
@@ -9804,6 +9799,11 @@
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="A33:K34"/>
+    <mergeCell ref="A22:K23"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A67:K68"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="A12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -1015,12 +1015,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,7 +1024,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1044,6 +1041,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,7 +1351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A221" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A243" sqref="A243:K244"/>
     </sheetView>
   </sheetViews>
@@ -1372,49 +1372,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="63"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="62"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -1620,45 +1620,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="63"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="58"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="56"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -1891,45 +1891,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
@@ -2546,45 +2546,45 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="55"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="58"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="58"/>
+      <c r="J48" s="58"/>
+      <c r="K48" s="58"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="56" t="s">
+      <c r="A49" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="58"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="56"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -2873,45 +2873,45 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="55"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="55"/>
-      <c r="G61" s="55"/>
-      <c r="H61" s="55"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
+      <c r="A61" s="58"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="58"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="58"/>
+      <c r="J61" s="58"/>
+      <c r="K61" s="58"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="56" t="s">
+      <c r="A62" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
-      <c r="J62" s="57"/>
-      <c r="K62" s="58"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="55"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="55"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="55"/>
+      <c r="J62" s="55"/>
+      <c r="K62" s="56"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
@@ -3239,45 +3239,45 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+      <c r="G74" s="57"/>
+      <c r="H74" s="57"/>
+      <c r="I74" s="57"/>
+      <c r="J74" s="57"/>
+      <c r="K74" s="57"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="55"/>
-      <c r="B75" s="55"/>
-      <c r="C75" s="55"/>
-      <c r="D75" s="55"/>
-      <c r="E75" s="55"/>
-      <c r="F75" s="55"/>
-      <c r="G75" s="55"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="55"/>
-      <c r="J75" s="55"/>
-      <c r="K75" s="55"/>
+      <c r="A75" s="58"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="58"/>
+      <c r="G75" s="58"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="58"/>
+      <c r="J75" s="58"/>
+      <c r="K75" s="58"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
-      <c r="E76" s="57"/>
-      <c r="F76" s="57"/>
-      <c r="G76" s="57"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="57"/>
-      <c r="J76" s="57"/>
-      <c r="K76" s="58"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="55"/>
+      <c r="J76" s="55"/>
+      <c r="K76" s="56"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
@@ -3624,45 +3624,45 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="54"/>
-      <c r="B89" s="54"/>
-      <c r="C89" s="54"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="54"/>
-      <c r="G89" s="54"/>
-      <c r="H89" s="54"/>
-      <c r="I89" s="54"/>
-      <c r="J89" s="54"/>
-      <c r="K89" s="54"/>
+      <c r="A89" s="57"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="57"/>
+      <c r="H89" s="57"/>
+      <c r="I89" s="57"/>
+      <c r="J89" s="57"/>
+      <c r="K89" s="57"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="55"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="55"/>
-      <c r="J90" s="55"/>
-      <c r="K90" s="55"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="58"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="58"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="58"/>
+      <c r="J90" s="58"/>
+      <c r="K90" s="58"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="B91" s="57"/>
-      <c r="C91" s="57"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="57"/>
-      <c r="G91" s="57"/>
-      <c r="H91" s="57"/>
-      <c r="I91" s="57"/>
-      <c r="J91" s="57"/>
-      <c r="K91" s="58"/>
+      <c r="B91" s="55"/>
+      <c r="C91" s="55"/>
+      <c r="D91" s="55"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="56"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
@@ -4075,45 +4075,45 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="54"/>
-      <c r="B106" s="54"/>
-      <c r="C106" s="54"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="54"/>
-      <c r="F106" s="54"/>
-      <c r="G106" s="54"/>
-      <c r="H106" s="54"/>
-      <c r="I106" s="54"/>
-      <c r="J106" s="54"/>
-      <c r="K106" s="54"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="57"/>
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="57"/>
+      <c r="K106" s="57"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="55"/>
-      <c r="B107" s="55"/>
-      <c r="C107" s="55"/>
-      <c r="D107" s="55"/>
-      <c r="E107" s="55"/>
-      <c r="F107" s="55"/>
-      <c r="G107" s="55"/>
-      <c r="H107" s="55"/>
-      <c r="I107" s="55"/>
-      <c r="J107" s="55"/>
-      <c r="K107" s="55"/>
+      <c r="A107" s="58"/>
+      <c r="B107" s="58"/>
+      <c r="C107" s="58"/>
+      <c r="D107" s="58"/>
+      <c r="E107" s="58"/>
+      <c r="F107" s="58"/>
+      <c r="G107" s="58"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="58"/>
+      <c r="J107" s="58"/>
+      <c r="K107" s="58"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="56" t="s">
+      <c r="A108" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="57"/>
-      <c r="C108" s="57"/>
-      <c r="D108" s="57"/>
-      <c r="E108" s="57"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
-      <c r="K108" s="58"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="55"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="55"/>
+      <c r="J108" s="55"/>
+      <c r="K108" s="56"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
@@ -4396,45 +4396,45 @@
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="54"/>
-      <c r="B119" s="54"/>
-      <c r="C119" s="54"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="54"/>
-      <c r="G119" s="54"/>
-      <c r="H119" s="54"/>
-      <c r="I119" s="54"/>
-      <c r="J119" s="54"/>
-      <c r="K119" s="54"/>
+      <c r="A119" s="57"/>
+      <c r="B119" s="57"/>
+      <c r="C119" s="57"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="57"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="57"/>
+      <c r="J119" s="57"/>
+      <c r="K119" s="57"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="55"/>
-      <c r="B120" s="55"/>
-      <c r="C120" s="55"/>
-      <c r="D120" s="55"/>
-      <c r="E120" s="55"/>
-      <c r="F120" s="55"/>
-      <c r="G120" s="55"/>
-      <c r="H120" s="55"/>
-      <c r="I120" s="55"/>
-      <c r="J120" s="55"/>
-      <c r="K120" s="55"/>
+      <c r="A120" s="58"/>
+      <c r="B120" s="58"/>
+      <c r="C120" s="58"/>
+      <c r="D120" s="58"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="58"/>
+      <c r="G120" s="58"/>
+      <c r="H120" s="58"/>
+      <c r="I120" s="58"/>
+      <c r="J120" s="58"/>
+      <c r="K120" s="58"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="56" t="s">
+      <c r="A121" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="B121" s="57"/>
-      <c r="C121" s="57"/>
-      <c r="D121" s="57"/>
-      <c r="E121" s="57"/>
-      <c r="F121" s="57"/>
-      <c r="G121" s="57"/>
-      <c r="H121" s="57"/>
-      <c r="I121" s="57"/>
-      <c r="J121" s="57"/>
-      <c r="K121" s="58"/>
+      <c r="B121" s="55"/>
+      <c r="C121" s="55"/>
+      <c r="D121" s="55"/>
+      <c r="E121" s="55"/>
+      <c r="F121" s="55"/>
+      <c r="G121" s="55"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="55"/>
+      <c r="J121" s="55"/>
+      <c r="K121" s="56"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="20" t="s">
@@ -4565,45 +4565,45 @@
       <c r="K125" s="14"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="54"/>
-      <c r="B126" s="54"/>
-      <c r="C126" s="54"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="54"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="54"/>
-      <c r="K126" s="54"/>
+      <c r="A126" s="57"/>
+      <c r="B126" s="57"/>
+      <c r="C126" s="57"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="57"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="57"/>
+      <c r="J126" s="57"/>
+      <c r="K126" s="57"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="55"/>
-      <c r="B127" s="55"/>
-      <c r="C127" s="55"/>
-      <c r="D127" s="55"/>
-      <c r="E127" s="55"/>
-      <c r="F127" s="55"/>
-      <c r="G127" s="55"/>
-      <c r="H127" s="55"/>
-      <c r="I127" s="55"/>
-      <c r="J127" s="55"/>
-      <c r="K127" s="55"/>
+      <c r="A127" s="58"/>
+      <c r="B127" s="58"/>
+      <c r="C127" s="58"/>
+      <c r="D127" s="58"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="58"/>
+      <c r="G127" s="58"/>
+      <c r="H127" s="58"/>
+      <c r="I127" s="58"/>
+      <c r="J127" s="58"/>
+      <c r="K127" s="58"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="56" t="s">
+      <c r="A128" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="B128" s="57"/>
-      <c r="C128" s="57"/>
-      <c r="D128" s="57"/>
-      <c r="E128" s="57"/>
-      <c r="F128" s="57"/>
-      <c r="G128" s="57"/>
-      <c r="H128" s="57"/>
-      <c r="I128" s="57"/>
-      <c r="J128" s="57"/>
-      <c r="K128" s="58"/>
+      <c r="B128" s="55"/>
+      <c r="C128" s="55"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55"/>
+      <c r="G128" s="55"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="55"/>
+      <c r="J128" s="55"/>
+      <c r="K128" s="56"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="20" t="s">
@@ -4703,45 +4703,45 @@
       <c r="K131" s="14"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="54"/>
-      <c r="B132" s="54"/>
-      <c r="C132" s="54"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="54"/>
-      <c r="G132" s="54"/>
-      <c r="H132" s="54"/>
-      <c r="I132" s="54"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="54"/>
+      <c r="A132" s="57"/>
+      <c r="B132" s="57"/>
+      <c r="C132" s="57"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="57"/>
+      <c r="H132" s="57"/>
+      <c r="I132" s="57"/>
+      <c r="J132" s="57"/>
+      <c r="K132" s="57"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="55"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="55"/>
-      <c r="D133" s="55"/>
-      <c r="E133" s="55"/>
-      <c r="F133" s="55"/>
-      <c r="G133" s="55"/>
-      <c r="H133" s="55"/>
-      <c r="I133" s="55"/>
-      <c r="J133" s="55"/>
-      <c r="K133" s="55"/>
+      <c r="A133" s="58"/>
+      <c r="B133" s="58"/>
+      <c r="C133" s="58"/>
+      <c r="D133" s="58"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="58"/>
+      <c r="G133" s="58"/>
+      <c r="H133" s="58"/>
+      <c r="I133" s="58"/>
+      <c r="J133" s="58"/>
+      <c r="K133" s="58"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="56" t="s">
+      <c r="A134" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="B134" s="57"/>
-      <c r="C134" s="57"/>
-      <c r="D134" s="57"/>
-      <c r="E134" s="57"/>
-      <c r="F134" s="57"/>
-      <c r="G134" s="57"/>
-      <c r="H134" s="57"/>
-      <c r="I134" s="57"/>
-      <c r="J134" s="57"/>
-      <c r="K134" s="58"/>
+      <c r="B134" s="55"/>
+      <c r="C134" s="55"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="55"/>
+      <c r="G134" s="55"/>
+      <c r="H134" s="55"/>
+      <c r="I134" s="55"/>
+      <c r="J134" s="55"/>
+      <c r="K134" s="56"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
@@ -5009,45 +5009,45 @@
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="54"/>
-      <c r="B144" s="54"/>
-      <c r="C144" s="54"/>
-      <c r="D144" s="54"/>
-      <c r="E144" s="54"/>
-      <c r="F144" s="54"/>
-      <c r="G144" s="54"/>
-      <c r="H144" s="54"/>
-      <c r="I144" s="54"/>
-      <c r="J144" s="54"/>
-      <c r="K144" s="54"/>
+      <c r="A144" s="57"/>
+      <c r="B144" s="57"/>
+      <c r="C144" s="57"/>
+      <c r="D144" s="57"/>
+      <c r="E144" s="57"/>
+      <c r="F144" s="57"/>
+      <c r="G144" s="57"/>
+      <c r="H144" s="57"/>
+      <c r="I144" s="57"/>
+      <c r="J144" s="57"/>
+      <c r="K144" s="57"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="55"/>
-      <c r="B145" s="55"/>
-      <c r="C145" s="55"/>
-      <c r="D145" s="55"/>
-      <c r="E145" s="55"/>
-      <c r="F145" s="55"/>
-      <c r="G145" s="55"/>
-      <c r="H145" s="55"/>
-      <c r="I145" s="55"/>
-      <c r="J145" s="55"/>
-      <c r="K145" s="55"/>
+      <c r="A145" s="58"/>
+      <c r="B145" s="58"/>
+      <c r="C145" s="58"/>
+      <c r="D145" s="58"/>
+      <c r="E145" s="58"/>
+      <c r="F145" s="58"/>
+      <c r="G145" s="58"/>
+      <c r="H145" s="58"/>
+      <c r="I145" s="58"/>
+      <c r="J145" s="58"/>
+      <c r="K145" s="58"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="56" t="s">
+      <c r="A146" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B146" s="57"/>
-      <c r="C146" s="57"/>
-      <c r="D146" s="57"/>
-      <c r="E146" s="57"/>
-      <c r="F146" s="57"/>
-      <c r="G146" s="57"/>
-      <c r="H146" s="57"/>
-      <c r="I146" s="57"/>
-      <c r="J146" s="57"/>
-      <c r="K146" s="58"/>
+      <c r="B146" s="55"/>
+      <c r="C146" s="55"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="55"/>
+      <c r="H146" s="55"/>
+      <c r="I146" s="55"/>
+      <c r="J146" s="55"/>
+      <c r="K146" s="56"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
@@ -5317,45 +5317,45 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="54"/>
-      <c r="B156" s="54"/>
-      <c r="C156" s="54"/>
-      <c r="D156" s="54"/>
-      <c r="E156" s="54"/>
-      <c r="F156" s="54"/>
-      <c r="G156" s="54"/>
-      <c r="H156" s="54"/>
-      <c r="I156" s="54"/>
-      <c r="J156" s="54"/>
-      <c r="K156" s="54"/>
+      <c r="A156" s="57"/>
+      <c r="B156" s="57"/>
+      <c r="C156" s="57"/>
+      <c r="D156" s="57"/>
+      <c r="E156" s="57"/>
+      <c r="F156" s="57"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="57"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="57"/>
+      <c r="K156" s="57"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="55"/>
-      <c r="B157" s="55"/>
-      <c r="C157" s="55"/>
-      <c r="D157" s="55"/>
-      <c r="E157" s="55"/>
-      <c r="F157" s="55"/>
-      <c r="G157" s="55"/>
-      <c r="H157" s="55"/>
-      <c r="I157" s="55"/>
-      <c r="J157" s="55"/>
-      <c r="K157" s="55"/>
+      <c r="A157" s="58"/>
+      <c r="B157" s="58"/>
+      <c r="C157" s="58"/>
+      <c r="D157" s="58"/>
+      <c r="E157" s="58"/>
+      <c r="F157" s="58"/>
+      <c r="G157" s="58"/>
+      <c r="H157" s="58"/>
+      <c r="I157" s="58"/>
+      <c r="J157" s="58"/>
+      <c r="K157" s="58"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="56" t="s">
+      <c r="A158" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="B158" s="57"/>
-      <c r="C158" s="57"/>
-      <c r="D158" s="57"/>
-      <c r="E158" s="57"/>
-      <c r="F158" s="57"/>
-      <c r="G158" s="57"/>
-      <c r="H158" s="57"/>
-      <c r="I158" s="57"/>
-      <c r="J158" s="57"/>
-      <c r="K158" s="58"/>
+      <c r="B158" s="55"/>
+      <c r="C158" s="55"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="55"/>
+      <c r="F158" s="55"/>
+      <c r="G158" s="55"/>
+      <c r="H158" s="55"/>
+      <c r="I158" s="55"/>
+      <c r="J158" s="55"/>
+      <c r="K158" s="56"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -5619,45 +5619,45 @@
       </c>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="54"/>
-      <c r="B168" s="54"/>
-      <c r="C168" s="54"/>
-      <c r="D168" s="54"/>
-      <c r="E168" s="54"/>
-      <c r="F168" s="54"/>
-      <c r="G168" s="54"/>
-      <c r="H168" s="54"/>
-      <c r="I168" s="54"/>
-      <c r="J168" s="54"/>
-      <c r="K168" s="54"/>
+      <c r="A168" s="57"/>
+      <c r="B168" s="57"/>
+      <c r="C168" s="57"/>
+      <c r="D168" s="57"/>
+      <c r="E168" s="57"/>
+      <c r="F168" s="57"/>
+      <c r="G168" s="57"/>
+      <c r="H168" s="57"/>
+      <c r="I168" s="57"/>
+      <c r="J168" s="57"/>
+      <c r="K168" s="57"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="55"/>
-      <c r="B169" s="55"/>
-      <c r="C169" s="55"/>
-      <c r="D169" s="55"/>
-      <c r="E169" s="55"/>
-      <c r="F169" s="55"/>
-      <c r="G169" s="55"/>
-      <c r="H169" s="55"/>
-      <c r="I169" s="55"/>
-      <c r="J169" s="55"/>
-      <c r="K169" s="55"/>
+      <c r="A169" s="58"/>
+      <c r="B169" s="58"/>
+      <c r="C169" s="58"/>
+      <c r="D169" s="58"/>
+      <c r="E169" s="58"/>
+      <c r="F169" s="58"/>
+      <c r="G169" s="58"/>
+      <c r="H169" s="58"/>
+      <c r="I169" s="58"/>
+      <c r="J169" s="58"/>
+      <c r="K169" s="58"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="56" t="s">
+      <c r="A170" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="B170" s="57"/>
-      <c r="C170" s="57"/>
-      <c r="D170" s="57"/>
-      <c r="E170" s="57"/>
-      <c r="F170" s="57"/>
-      <c r="G170" s="57"/>
-      <c r="H170" s="57"/>
-      <c r="I170" s="57"/>
-      <c r="J170" s="57"/>
-      <c r="K170" s="58"/>
+      <c r="B170" s="55"/>
+      <c r="C170" s="55"/>
+      <c r="D170" s="55"/>
+      <c r="E170" s="55"/>
+      <c r="F170" s="55"/>
+      <c r="G170" s="55"/>
+      <c r="H170" s="55"/>
+      <c r="I170" s="55"/>
+      <c r="J170" s="55"/>
+      <c r="K170" s="56"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="20" t="s">
@@ -5923,45 +5923,45 @@
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="59"/>
-      <c r="B180" s="59"/>
-      <c r="C180" s="59"/>
-      <c r="D180" s="59"/>
-      <c r="E180" s="59"/>
-      <c r="F180" s="59"/>
-      <c r="G180" s="59"/>
-      <c r="H180" s="59"/>
-      <c r="I180" s="59"/>
-      <c r="J180" s="59"/>
-      <c r="K180" s="59"/>
+      <c r="A180" s="63"/>
+      <c r="B180" s="63"/>
+      <c r="C180" s="63"/>
+      <c r="D180" s="63"/>
+      <c r="E180" s="63"/>
+      <c r="F180" s="63"/>
+      <c r="G180" s="63"/>
+      <c r="H180" s="63"/>
+      <c r="I180" s="63"/>
+      <c r="J180" s="63"/>
+      <c r="K180" s="63"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="55"/>
-      <c r="B181" s="55"/>
-      <c r="C181" s="55"/>
-      <c r="D181" s="55"/>
-      <c r="E181" s="55"/>
-      <c r="F181" s="55"/>
-      <c r="G181" s="55"/>
-      <c r="H181" s="55"/>
-      <c r="I181" s="55"/>
-      <c r="J181" s="55"/>
-      <c r="K181" s="55"/>
+      <c r="A181" s="58"/>
+      <c r="B181" s="58"/>
+      <c r="C181" s="58"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="58"/>
+      <c r="H181" s="58"/>
+      <c r="I181" s="58"/>
+      <c r="J181" s="58"/>
+      <c r="K181" s="58"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="56" t="s">
+      <c r="A182" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="B182" s="57"/>
-      <c r="C182" s="57"/>
-      <c r="D182" s="57"/>
-      <c r="E182" s="57"/>
-      <c r="F182" s="57"/>
-      <c r="G182" s="57"/>
-      <c r="H182" s="57"/>
-      <c r="I182" s="57"/>
-      <c r="J182" s="57"/>
-      <c r="K182" s="58"/>
+      <c r="B182" s="55"/>
+      <c r="C182" s="55"/>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
+      <c r="G182" s="55"/>
+      <c r="H182" s="55"/>
+      <c r="I182" s="55"/>
+      <c r="J182" s="55"/>
+      <c r="K182" s="56"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
@@ -6354,45 +6354,45 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="54"/>
-      <c r="B197" s="54"/>
-      <c r="C197" s="54"/>
-      <c r="D197" s="54"/>
-      <c r="E197" s="54"/>
-      <c r="F197" s="54"/>
-      <c r="G197" s="54"/>
-      <c r="H197" s="54"/>
-      <c r="I197" s="54"/>
-      <c r="J197" s="54"/>
-      <c r="K197" s="54"/>
+      <c r="A197" s="57"/>
+      <c r="B197" s="57"/>
+      <c r="C197" s="57"/>
+      <c r="D197" s="57"/>
+      <c r="E197" s="57"/>
+      <c r="F197" s="57"/>
+      <c r="G197" s="57"/>
+      <c r="H197" s="57"/>
+      <c r="I197" s="57"/>
+      <c r="J197" s="57"/>
+      <c r="K197" s="57"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="55"/>
-      <c r="B198" s="55"/>
-      <c r="C198" s="55"/>
-      <c r="D198" s="55"/>
-      <c r="E198" s="55"/>
-      <c r="F198" s="55"/>
-      <c r="G198" s="55"/>
-      <c r="H198" s="55"/>
-      <c r="I198" s="55"/>
-      <c r="J198" s="55"/>
-      <c r="K198" s="55"/>
+      <c r="A198" s="58"/>
+      <c r="B198" s="58"/>
+      <c r="C198" s="58"/>
+      <c r="D198" s="58"/>
+      <c r="E198" s="58"/>
+      <c r="F198" s="58"/>
+      <c r="G198" s="58"/>
+      <c r="H198" s="58"/>
+      <c r="I198" s="58"/>
+      <c r="J198" s="58"/>
+      <c r="K198" s="58"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="56" t="s">
+      <c r="A199" s="54" t="s">
         <v>136</v>
       </c>
-      <c r="B199" s="57"/>
-      <c r="C199" s="57"/>
-      <c r="D199" s="57"/>
-      <c r="E199" s="57"/>
-      <c r="F199" s="57"/>
-      <c r="G199" s="57"/>
-      <c r="H199" s="57"/>
-      <c r="I199" s="57"/>
-      <c r="J199" s="57"/>
-      <c r="K199" s="58"/>
+      <c r="B199" s="55"/>
+      <c r="C199" s="55"/>
+      <c r="D199" s="55"/>
+      <c r="E199" s="55"/>
+      <c r="F199" s="55"/>
+      <c r="G199" s="55"/>
+      <c r="H199" s="55"/>
+      <c r="I199" s="55"/>
+      <c r="J199" s="55"/>
+      <c r="K199" s="56"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
@@ -6606,45 +6606,45 @@
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="54"/>
-      <c r="B207" s="54"/>
-      <c r="C207" s="54"/>
-      <c r="D207" s="54"/>
-      <c r="E207" s="54"/>
-      <c r="F207" s="54"/>
-      <c r="G207" s="54"/>
-      <c r="H207" s="54"/>
-      <c r="I207" s="54"/>
-      <c r="J207" s="54"/>
-      <c r="K207" s="54"/>
+      <c r="A207" s="57"/>
+      <c r="B207" s="57"/>
+      <c r="C207" s="57"/>
+      <c r="D207" s="57"/>
+      <c r="E207" s="57"/>
+      <c r="F207" s="57"/>
+      <c r="G207" s="57"/>
+      <c r="H207" s="57"/>
+      <c r="I207" s="57"/>
+      <c r="J207" s="57"/>
+      <c r="K207" s="57"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="55"/>
-      <c r="B208" s="55"/>
-      <c r="C208" s="55"/>
-      <c r="D208" s="55"/>
-      <c r="E208" s="55"/>
-      <c r="F208" s="55"/>
-      <c r="G208" s="55"/>
-      <c r="H208" s="55"/>
-      <c r="I208" s="55"/>
-      <c r="J208" s="55"/>
-      <c r="K208" s="55"/>
+      <c r="A208" s="58"/>
+      <c r="B208" s="58"/>
+      <c r="C208" s="58"/>
+      <c r="D208" s="58"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="58"/>
+      <c r="G208" s="58"/>
+      <c r="H208" s="58"/>
+      <c r="I208" s="58"/>
+      <c r="J208" s="58"/>
+      <c r="K208" s="58"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="56" t="s">
+      <c r="A209" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="B209" s="57"/>
-      <c r="C209" s="57"/>
-      <c r="D209" s="57"/>
-      <c r="E209" s="57"/>
-      <c r="F209" s="57"/>
-      <c r="G209" s="57"/>
-      <c r="H209" s="57"/>
-      <c r="I209" s="57"/>
-      <c r="J209" s="57"/>
-      <c r="K209" s="58"/>
+      <c r="B209" s="55"/>
+      <c r="C209" s="55"/>
+      <c r="D209" s="55"/>
+      <c r="E209" s="55"/>
+      <c r="F209" s="55"/>
+      <c r="G209" s="55"/>
+      <c r="H209" s="55"/>
+      <c r="I209" s="55"/>
+      <c r="J209" s="55"/>
+      <c r="K209" s="56"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
@@ -7042,45 +7042,45 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="54"/>
-      <c r="B223" s="54"/>
-      <c r="C223" s="54"/>
-      <c r="D223" s="54"/>
-      <c r="E223" s="54"/>
-      <c r="F223" s="54"/>
-      <c r="G223" s="54"/>
-      <c r="H223" s="54"/>
-      <c r="I223" s="54"/>
-      <c r="J223" s="54"/>
-      <c r="K223" s="54"/>
+      <c r="A223" s="57"/>
+      <c r="B223" s="57"/>
+      <c r="C223" s="57"/>
+      <c r="D223" s="57"/>
+      <c r="E223" s="57"/>
+      <c r="F223" s="57"/>
+      <c r="G223" s="57"/>
+      <c r="H223" s="57"/>
+      <c r="I223" s="57"/>
+      <c r="J223" s="57"/>
+      <c r="K223" s="57"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="55"/>
-      <c r="B224" s="55"/>
-      <c r="C224" s="55"/>
-      <c r="D224" s="55"/>
-      <c r="E224" s="55"/>
-      <c r="F224" s="55"/>
-      <c r="G224" s="55"/>
-      <c r="H224" s="55"/>
-      <c r="I224" s="55"/>
-      <c r="J224" s="55"/>
-      <c r="K224" s="55"/>
+      <c r="A224" s="58"/>
+      <c r="B224" s="58"/>
+      <c r="C224" s="58"/>
+      <c r="D224" s="58"/>
+      <c r="E224" s="58"/>
+      <c r="F224" s="58"/>
+      <c r="G224" s="58"/>
+      <c r="H224" s="58"/>
+      <c r="I224" s="58"/>
+      <c r="J224" s="58"/>
+      <c r="K224" s="58"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="56" t="s">
+      <c r="A225" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="B225" s="57"/>
-      <c r="C225" s="57"/>
-      <c r="D225" s="57"/>
-      <c r="E225" s="57"/>
-      <c r="F225" s="57"/>
-      <c r="G225" s="57"/>
-      <c r="H225" s="57"/>
-      <c r="I225" s="57"/>
-      <c r="J225" s="57"/>
-      <c r="K225" s="58"/>
+      <c r="B225" s="55"/>
+      <c r="C225" s="55"/>
+      <c r="D225" s="55"/>
+      <c r="E225" s="55"/>
+      <c r="F225" s="55"/>
+      <c r="G225" s="55"/>
+      <c r="H225" s="55"/>
+      <c r="I225" s="55"/>
+      <c r="J225" s="55"/>
+      <c r="K225" s="56"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="20" t="s">
@@ -7261,45 +7261,45 @@
       </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="54"/>
-      <c r="B232" s="54"/>
-      <c r="C232" s="54"/>
-      <c r="D232" s="54"/>
-      <c r="E232" s="54"/>
-      <c r="F232" s="54"/>
-      <c r="G232" s="54"/>
-      <c r="H232" s="54"/>
-      <c r="I232" s="54"/>
-      <c r="J232" s="54"/>
-      <c r="K232" s="54"/>
+      <c r="A232" s="57"/>
+      <c r="B232" s="57"/>
+      <c r="C232" s="57"/>
+      <c r="D232" s="57"/>
+      <c r="E232" s="57"/>
+      <c r="F232" s="57"/>
+      <c r="G232" s="57"/>
+      <c r="H232" s="57"/>
+      <c r="I232" s="57"/>
+      <c r="J232" s="57"/>
+      <c r="K232" s="57"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="55"/>
-      <c r="B233" s="55"/>
-      <c r="C233" s="55"/>
-      <c r="D233" s="55"/>
-      <c r="E233" s="55"/>
-      <c r="F233" s="55"/>
-      <c r="G233" s="55"/>
-      <c r="H233" s="55"/>
-      <c r="I233" s="55"/>
-      <c r="J233" s="55"/>
-      <c r="K233" s="55"/>
+      <c r="A233" s="58"/>
+      <c r="B233" s="58"/>
+      <c r="C233" s="58"/>
+      <c r="D233" s="58"/>
+      <c r="E233" s="58"/>
+      <c r="F233" s="58"/>
+      <c r="G233" s="58"/>
+      <c r="H233" s="58"/>
+      <c r="I233" s="58"/>
+      <c r="J233" s="58"/>
+      <c r="K233" s="58"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="56" t="s">
+      <c r="A234" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="B234" s="57"/>
-      <c r="C234" s="57"/>
-      <c r="D234" s="57"/>
-      <c r="E234" s="57"/>
-      <c r="F234" s="57"/>
-      <c r="G234" s="57"/>
-      <c r="H234" s="57"/>
-      <c r="I234" s="57"/>
-      <c r="J234" s="57"/>
-      <c r="K234" s="58"/>
+      <c r="B234" s="55"/>
+      <c r="C234" s="55"/>
+      <c r="D234" s="55"/>
+      <c r="E234" s="55"/>
+      <c r="F234" s="55"/>
+      <c r="G234" s="55"/>
+      <c r="H234" s="55"/>
+      <c r="I234" s="55"/>
+      <c r="J234" s="55"/>
+      <c r="K234" s="56"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
@@ -7546,45 +7546,45 @@
       </c>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="54"/>
-      <c r="B243" s="54"/>
-      <c r="C243" s="54"/>
-      <c r="D243" s="54"/>
-      <c r="E243" s="54"/>
-      <c r="F243" s="54"/>
-      <c r="G243" s="54"/>
-      <c r="H243" s="54"/>
-      <c r="I243" s="54"/>
-      <c r="J243" s="54"/>
-      <c r="K243" s="54"/>
+      <c r="A243" s="57"/>
+      <c r="B243" s="57"/>
+      <c r="C243" s="57"/>
+      <c r="D243" s="57"/>
+      <c r="E243" s="57"/>
+      <c r="F243" s="57"/>
+      <c r="G243" s="57"/>
+      <c r="H243" s="57"/>
+      <c r="I243" s="57"/>
+      <c r="J243" s="57"/>
+      <c r="K243" s="57"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="55"/>
-      <c r="B244" s="55"/>
-      <c r="C244" s="55"/>
-      <c r="D244" s="55"/>
-      <c r="E244" s="55"/>
-      <c r="F244" s="55"/>
-      <c r="G244" s="55"/>
-      <c r="H244" s="55"/>
-      <c r="I244" s="55"/>
-      <c r="J244" s="55"/>
-      <c r="K244" s="55"/>
+      <c r="A244" s="58"/>
+      <c r="B244" s="58"/>
+      <c r="C244" s="58"/>
+      <c r="D244" s="58"/>
+      <c r="E244" s="58"/>
+      <c r="F244" s="58"/>
+      <c r="G244" s="58"/>
+      <c r="H244" s="58"/>
+      <c r="I244" s="58"/>
+      <c r="J244" s="58"/>
+      <c r="K244" s="58"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="56" t="s">
+      <c r="A245" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="B245" s="57"/>
-      <c r="C245" s="57"/>
-      <c r="D245" s="57"/>
-      <c r="E245" s="57"/>
-      <c r="F245" s="57"/>
-      <c r="G245" s="57"/>
-      <c r="H245" s="57"/>
-      <c r="I245" s="57"/>
-      <c r="J245" s="57"/>
-      <c r="K245" s="58"/>
+      <c r="B245" s="55"/>
+      <c r="C245" s="55"/>
+      <c r="D245" s="55"/>
+      <c r="E245" s="55"/>
+      <c r="F245" s="55"/>
+      <c r="G245" s="55"/>
+      <c r="H245" s="55"/>
+      <c r="I245" s="55"/>
+      <c r="J245" s="55"/>
+      <c r="K245" s="56"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
@@ -7623,21 +7623,32 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A245:K245"/>
-    <mergeCell ref="A223:K224"/>
-    <mergeCell ref="A225:K225"/>
-    <mergeCell ref="A234:K234"/>
-    <mergeCell ref="A232:K233"/>
+    <mergeCell ref="A22:K23"/>
+    <mergeCell ref="A62:K62"/>
+    <mergeCell ref="A60:K61"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A47:K48"/>
+    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A106:K107"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A89:K90"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A74:K75"/>
+    <mergeCell ref="A121:K121"/>
+    <mergeCell ref="A119:K120"/>
+    <mergeCell ref="A108:K108"/>
+    <mergeCell ref="A128:K128"/>
+    <mergeCell ref="A126:K127"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="A13:K13"/>
     <mergeCell ref="A134:K134"/>
     <mergeCell ref="A132:K133"/>
     <mergeCell ref="A146:K146"/>
     <mergeCell ref="A144:K145"/>
     <mergeCell ref="A243:K244"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="A13:K13"/>
     <mergeCell ref="A209:K209"/>
     <mergeCell ref="A156:K157"/>
     <mergeCell ref="A158:K158"/>
@@ -7648,22 +7659,11 @@
     <mergeCell ref="A207:K208"/>
     <mergeCell ref="A168:K169"/>
     <mergeCell ref="A170:K170"/>
-    <mergeCell ref="A121:K121"/>
-    <mergeCell ref="A119:K120"/>
-    <mergeCell ref="A108:K108"/>
-    <mergeCell ref="A128:K128"/>
-    <mergeCell ref="A126:K127"/>
-    <mergeCell ref="A106:K107"/>
-    <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A89:K90"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A74:K75"/>
-    <mergeCell ref="A22:K23"/>
-    <mergeCell ref="A62:K62"/>
-    <mergeCell ref="A60:K61"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A47:K48"/>
-    <mergeCell ref="A24:K24"/>
+    <mergeCell ref="A245:K245"/>
+    <mergeCell ref="A223:K224"/>
+    <mergeCell ref="A225:K225"/>
+    <mergeCell ref="A234:K234"/>
+    <mergeCell ref="A232:K233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7735,45 +7735,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
+      <c r="A1" s="57"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -7958,45 +7958,45 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -8268,45 +8268,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -8553,45 +8553,45 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="58"/>
+      <c r="K34" s="58"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="58"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="56"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -8865,45 +8865,45 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="58"/>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="56" t="s">
+      <c r="A47" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="58"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="56"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -9146,45 +9146,45 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="57"/>
+      <c r="K56" s="57"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="55"/>
-      <c r="G57" s="55"/>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
+      <c r="A57" s="58"/>
+      <c r="B57" s="58"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="58"/>
+      <c r="G57" s="58"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="58"/>
+      <c r="J57" s="58"/>
+      <c r="K57" s="58"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="56" t="s">
+      <c r="A58" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-      <c r="E58" s="57"/>
-      <c r="F58" s="57"/>
-      <c r="G58" s="57"/>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
-      <c r="J58" s="57"/>
-      <c r="K58" s="58"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="55"/>
+      <c r="K58" s="56"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -9427,45 +9427,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="57"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="55"/>
-      <c r="B68" s="55"/>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55"/>
-      <c r="F68" s="55"/>
-      <c r="G68" s="55"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="58"/>
+      <c r="C68" s="58"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="58"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58"/>
+      <c r="K68" s="58"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="56" t="s">
+      <c r="A69" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="57"/>
-      <c r="G69" s="57"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="57"/>
-      <c r="J69" s="57"/>
-      <c r="K69" s="58"/>
+      <c r="B69" s="55"/>
+      <c r="C69" s="55"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="55"/>
+      <c r="K69" s="56"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -9790,6 +9790,9 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A67:K68"/>
+    <mergeCell ref="A69:K69"/>
+    <mergeCell ref="A12:K12"/>
     <mergeCell ref="A1:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A10:K11"/>
@@ -9801,9 +9804,6 @@
     <mergeCell ref="A33:K34"/>
     <mergeCell ref="A22:K23"/>
     <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A67:K68"/>
-    <mergeCell ref="A69:K69"/>
-    <mergeCell ref="A12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -1352,7 +1352,7 @@
   <dimension ref="A1:K246"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243:K244"/>
+      <selection activeCell="H251" sqref="H251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="20490" windowHeight="7275"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="20490" windowHeight="7215"/>
   </bookViews>
   <sheets>
-    <sheet name="Design" sheetId="1" r:id="rId1"/>
+    <sheet name="Schema" sheetId="1" r:id="rId1"/>
     <sheet name="Standard" sheetId="2" r:id="rId2"/>
     <sheet name="Backup" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="224">
   <si>
     <t>No</t>
   </si>
@@ -615,9 +615,6 @@
     <t>l1qa_fraction</t>
   </si>
   <si>
-    <t>pro_l1qn_level1_questionnaires</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
@@ -628,6 +625,69 @@
   </si>
   <si>
     <t>cp_validto</t>
+  </si>
+  <si>
+    <t>pro_l1ac_level1_activities</t>
+  </si>
+  <si>
+    <t>l1ac_text</t>
+  </si>
+  <si>
+    <t>l1ac_points</t>
+  </si>
+  <si>
+    <t>pro_l1op_level1_options</t>
+  </si>
+  <si>
+    <t>l1op_activity</t>
+  </si>
+  <si>
+    <t>l1op_option</t>
+  </si>
+  <si>
+    <t>l1op_fraction</t>
+  </si>
+  <si>
+    <t>pro_l1ans_level1_answers</t>
+  </si>
+  <si>
+    <t>l1ans_teenager</t>
+  </si>
+  <si>
+    <t>l1ans_activity</t>
+  </si>
+  <si>
+    <t>l1ans_answer</t>
+  </si>
+  <si>
+    <t>pro_l2ac_level2_activities</t>
+  </si>
+  <si>
+    <t>l2ac_text</t>
+  </si>
+  <si>
+    <t>l2ac_points</t>
+  </si>
+  <si>
+    <t>pro_l2op_level2_options</t>
+  </si>
+  <si>
+    <t>l2op_activity</t>
+  </si>
+  <si>
+    <t>l2op_option</t>
+  </si>
+  <si>
+    <t>l2op_fraction</t>
+  </si>
+  <si>
+    <t>l2ans_teenager</t>
+  </si>
+  <si>
+    <t>l2ans_activity</t>
+  </si>
+  <si>
+    <t>l2ans_answer</t>
   </si>
 </sst>
 </file>
@@ -856,7 +916,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1015,6 +1075,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1023,12 +1101,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1349,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K246"/>
+  <dimension ref="A1:K273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H251" sqref="H251"/>
+    <sheetView tabSelected="1" topLeftCell="A244" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A262" sqref="A262:K263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1372,49 +1444,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="60" t="s">
         <v>158</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -1620,45 +1692,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="58"/>
-      <c r="K12" s="58"/>
+      <c r="A12" s="59"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="56"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="62"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -1891,45 +1963,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
@@ -2546,45 +2618,45 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48" s="58"/>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
-      <c r="H48" s="58"/>
-      <c r="I48" s="58"/>
-      <c r="J48" s="58"/>
-      <c r="K48" s="58"/>
+      <c r="A48" s="59"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="54" t="s">
+      <c r="A49" s="60" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="56"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="61"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="62"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
@@ -2873,45 +2945,45 @@
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="57"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="58"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
+      <c r="J60" s="58"/>
+      <c r="K60" s="58"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="58"/>
-      <c r="D61" s="58"/>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="58"/>
-      <c r="K61" s="58"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="59"/>
+      <c r="F61" s="59"/>
+      <c r="G61" s="59"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="59"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="54" t="s">
+      <c r="A62" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B62" s="55"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="56"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="61"/>
+      <c r="E62" s="61"/>
+      <c r="F62" s="61"/>
+      <c r="G62" s="61"/>
+      <c r="H62" s="61"/>
+      <c r="I62" s="61"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="62"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
@@ -3239,45 +3311,45 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="57"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
-      <c r="E74" s="57"/>
-      <c r="F74" s="57"/>
-      <c r="G74" s="57"/>
-      <c r="H74" s="57"/>
-      <c r="I74" s="57"/>
-      <c r="J74" s="57"/>
-      <c r="K74" s="57"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="58"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="58"/>
+      <c r="J74" s="58"/>
+      <c r="K74" s="58"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="58"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="58"/>
-      <c r="K75" s="58"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="59"/>
+      <c r="F75" s="59"/>
+      <c r="G75" s="59"/>
+      <c r="H75" s="59"/>
+      <c r="I75" s="59"/>
+      <c r="J75" s="59"/>
+      <c r="K75" s="59"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="54" t="s">
+      <c r="A76" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="B76" s="55"/>
-      <c r="C76" s="55"/>
-      <c r="D76" s="55"/>
-      <c r="E76" s="55"/>
-      <c r="F76" s="55"/>
-      <c r="G76" s="55"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="55"/>
-      <c r="J76" s="55"/>
-      <c r="K76" s="56"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+      <c r="G76" s="61"/>
+      <c r="H76" s="61"/>
+      <c r="I76" s="61"/>
+      <c r="J76" s="61"/>
+      <c r="K76" s="62"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="20" t="s">
@@ -3624,45 +3696,45 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="57"/>
-      <c r="B89" s="57"/>
-      <c r="C89" s="57"/>
-      <c r="D89" s="57"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="57"/>
-      <c r="G89" s="57"/>
-      <c r="H89" s="57"/>
-      <c r="I89" s="57"/>
-      <c r="J89" s="57"/>
-      <c r="K89" s="57"/>
+      <c r="A89" s="58"/>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="58"/>
+      <c r="J89" s="58"/>
+      <c r="K89" s="58"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="58"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="58"/>
-      <c r="D90" s="58"/>
-      <c r="E90" s="58"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="58"/>
-      <c r="I90" s="58"/>
-      <c r="J90" s="58"/>
-      <c r="K90" s="58"/>
+      <c r="A90" s="59"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="59"/>
+      <c r="J90" s="59"/>
+      <c r="K90" s="59"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="54" t="s">
+      <c r="A91" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="B91" s="55"/>
-      <c r="C91" s="55"/>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="56"/>
+      <c r="B91" s="61"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="61"/>
+      <c r="F91" s="61"/>
+      <c r="G91" s="61"/>
+      <c r="H91" s="61"/>
+      <c r="I91" s="61"/>
+      <c r="J91" s="61"/>
+      <c r="K91" s="62"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="20" t="s">
@@ -4075,45 +4147,45 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="57"/>
-      <c r="B106" s="57"/>
-      <c r="C106" s="57"/>
-      <c r="D106" s="57"/>
-      <c r="E106" s="57"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="57"/>
-      <c r="K106" s="57"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="67"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="67"/>
+      <c r="G106" s="67"/>
+      <c r="H106" s="67"/>
+      <c r="I106" s="67"/>
+      <c r="J106" s="67"/>
+      <c r="K106" s="67"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="58"/>
-      <c r="B107" s="58"/>
-      <c r="C107" s="58"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
-      <c r="H107" s="58"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="58"/>
+      <c r="A107" s="59"/>
+      <c r="B107" s="59"/>
+      <c r="C107" s="59"/>
+      <c r="D107" s="59"/>
+      <c r="E107" s="59"/>
+      <c r="F107" s="59"/>
+      <c r="G107" s="59"/>
+      <c r="H107" s="59"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="59"/>
+      <c r="K107" s="59"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B108" s="55"/>
-      <c r="C108" s="55"/>
-      <c r="D108" s="55"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="55"/>
-      <c r="H108" s="55"/>
-      <c r="I108" s="55"/>
-      <c r="J108" s="55"/>
-      <c r="K108" s="56"/>
+      <c r="A108" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="B108" s="61"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="61"/>
+      <c r="E108" s="61"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="61"/>
+      <c r="H108" s="61"/>
+      <c r="I108" s="61"/>
+      <c r="J108" s="61"/>
+      <c r="K108" s="62"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
@@ -4131,7 +4203,7 @@
       <c r="E109" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F109" s="19" t="s">
+      <c r="F109" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G109" s="4" t="s">
@@ -4151,17 +4223,17 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+      <c r="A110" s="39">
         <v>1</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="D110" s="5">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E110" s="5" t="s">
         <v>10</v>
@@ -4175,7 +4247,7 @@
       <c r="H110" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I110" s="15" t="s">
+      <c r="I110" s="32" t="s">
         <v>12</v>
       </c>
       <c r="J110" s="47"/>
@@ -4184,117 +4256,123 @@
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+      <c r="A111" s="40">
         <v>2</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C111" s="2" t="s">
+      <c r="B111" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C111" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D111" s="2">
-        <v>255</v>
-      </c>
-      <c r="E111" s="17" t="s">
+      <c r="D111" s="7">
+        <v>50</v>
+      </c>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I111" s="30"/>
+      <c r="J111" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K111" s="9"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="40">
+        <v>3</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112" s="7">
+        <v>25</v>
+      </c>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I112" s="30"/>
+      <c r="J112" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K112" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="40">
+        <v>4</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F111" s="17" t="s">
+      <c r="G113" s="7"/>
+      <c r="H113" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I113" s="30"/>
+      <c r="J113" s="49"/>
+      <c r="K113" s="9"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="40">
+        <v>5</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114" s="7">
+        <v>50</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="H111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K111" s="9"/>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <v>3</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D112" s="2">
-        <v>255</v>
-      </c>
-      <c r="E112" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="F112" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K112" s="9"/>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <v>4</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K113" s="9"/>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <v>5</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D114" s="7"/>
-      <c r="E114" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>26</v>
       </c>
       <c r="G114" s="7"/>
       <c r="H114" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I114" s="8"/>
+      <c r="I114" s="30"/>
       <c r="J114" s="49"/>
-      <c r="K114" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="K114" s="9"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+      <c r="A115" s="40">
         <v>6</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="D115" s="7">
-        <v>11</v>
-      </c>
-      <c r="E115" s="7">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E115" s="7"/>
       <c r="F115" s="7">
         <v>0</v>
       </c>
@@ -4304,416 +4382,452 @@
       <c r="H115" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I115" s="8"/>
+      <c r="I115" s="30"/>
       <c r="J115" s="49"/>
       <c r="K115" s="9"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+      <c r="A116" s="40">
         <v>7</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>24</v>
+        <v>200</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D116" s="7">
+        <v>1</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7">
+        <v>0</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H116" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I116" s="8"/>
+      <c r="I116" s="30"/>
       <c r="J116" s="49"/>
-      <c r="K116" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="K116" s="9"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+      <c r="A117" s="40">
         <v>8</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>68</v>
+        <v>181</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="7">
-        <v>11</v>
-      </c>
-      <c r="E117" s="7">
-        <v>0</v>
-      </c>
-      <c r="F117" s="10">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G117" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I117" s="8"/>
-      <c r="J117" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="46"/>
+      <c r="J117" s="49" t="s">
+        <v>12</v>
+      </c>
       <c r="K117" s="9"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="34">
+      <c r="A118" s="40">
         <v>9</v>
       </c>
-      <c r="B118" s="13" t="s">
+      <c r="B118" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="7"/>
+      <c r="H118" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I118" s="53"/>
+      <c r="J118" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K118" s="9"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="40">
+        <v>10</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I119" s="53"/>
+      <c r="J119" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="K119" s="9"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="40">
+        <v>11</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D120" s="7"/>
+      <c r="E120" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="30"/>
+      <c r="J120" s="49"/>
+      <c r="K120" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="40">
+        <v>12</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="7"/>
+      <c r="E121" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I121" s="30"/>
+      <c r="J121" s="49"/>
+      <c r="K121" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122" s="41">
+        <v>13</v>
+      </c>
+      <c r="B122" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C118" s="13" t="s">
+      <c r="C122" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D118" s="13">
-        <v>1</v>
-      </c>
-      <c r="E118" s="13">
-        <v>0</v>
-      </c>
-      <c r="F118" s="13">
-        <v>0</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I118" s="16"/>
-      <c r="J118" s="48"/>
-      <c r="K118" s="14" t="s">
+      <c r="D122" s="13">
+        <v>1</v>
+      </c>
+      <c r="E122" s="13">
+        <v>0</v>
+      </c>
+      <c r="F122" s="13">
+        <v>0</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I122" s="31"/>
+      <c r="J122" s="48"/>
+      <c r="K122" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="57"/>
-      <c r="B119" s="57"/>
-      <c r="C119" s="57"/>
-      <c r="D119" s="57"/>
-      <c r="E119" s="57"/>
-      <c r="F119" s="57"/>
-      <c r="G119" s="57"/>
-      <c r="H119" s="57"/>
-      <c r="I119" s="57"/>
-      <c r="J119" s="57"/>
-      <c r="K119" s="57"/>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="58"/>
-      <c r="B120" s="58"/>
-      <c r="C120" s="58"/>
-      <c r="D120" s="58"/>
-      <c r="E120" s="58"/>
-      <c r="F120" s="58"/>
-      <c r="G120" s="58"/>
-      <c r="H120" s="58"/>
-      <c r="I120" s="58"/>
-      <c r="J120" s="58"/>
-      <c r="K120" s="58"/>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="B121" s="55"/>
-      <c r="C121" s="55"/>
-      <c r="D121" s="55"/>
-      <c r="E121" s="55"/>
-      <c r="F121" s="55"/>
-      <c r="G121" s="55"/>
-      <c r="H121" s="55"/>
-      <c r="I121" s="55"/>
-      <c r="J121" s="55"/>
-      <c r="K121" s="56"/>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A122" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C122" s="19" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="58"/>
+      <c r="B123" s="58"/>
+      <c r="C123" s="58"/>
+      <c r="D123" s="58"/>
+      <c r="E123" s="58"/>
+      <c r="F123" s="58"/>
+      <c r="G123" s="58"/>
+      <c r="H123" s="58"/>
+      <c r="I123" s="58"/>
+      <c r="J123" s="58"/>
+      <c r="K123" s="58"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="59"/>
+      <c r="B124" s="59"/>
+      <c r="C124" s="59"/>
+      <c r="D124" s="59"/>
+      <c r="E124" s="59"/>
+      <c r="F124" s="59"/>
+      <c r="G124" s="59"/>
+      <c r="H124" s="59"/>
+      <c r="I124" s="59"/>
+      <c r="J124" s="59"/>
+      <c r="K124" s="59"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B125" s="61"/>
+      <c r="C125" s="61"/>
+      <c r="D125" s="61"/>
+      <c r="E125" s="61"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="61"/>
+      <c r="H125" s="61"/>
+      <c r="I125" s="61"/>
+      <c r="J125" s="61"/>
+      <c r="K125" s="62"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D126" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="19" t="s">
+      <c r="E126" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F122" s="19" t="s">
+      <c r="F126" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G122" s="19" t="s">
+      <c r="G126" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H122" s="19" t="s">
+      <c r="H126" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I122" s="20" t="s">
+      <c r="I126" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J122" s="20" t="s">
+      <c r="J126" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K122" s="19" t="s">
+      <c r="K126" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="39">
-        <v>1</v>
-      </c>
-      <c r="B123" s="5" t="s">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="39">
+        <v>1</v>
+      </c>
+      <c r="B127" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="5">
-        <v>11</v>
-      </c>
-      <c r="E123" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H123" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I123" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J123" s="47"/>
-      <c r="K123" s="6" t="s">
+      <c r="C127" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D127" s="5">
+        <v>20</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J127" s="47"/>
+      <c r="K127" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="40">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="40">
         <v>2</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D124" s="7">
-        <v>255</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I124" s="8"/>
-      <c r="J124" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K124" s="9"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="41">
+      <c r="B128" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D128" s="7">
+        <v>20</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I128" s="35"/>
+      <c r="J128" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K128" s="9"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129" s="40">
         <v>3</v>
       </c>
-      <c r="B125" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="13">
-        <v>11</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I125" s="16"/>
-      <c r="J125" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="K125" s="14"/>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="57"/>
-      <c r="B126" s="57"/>
-      <c r="C126" s="57"/>
-      <c r="D126" s="57"/>
-      <c r="E126" s="57"/>
-      <c r="F126" s="57"/>
-      <c r="G126" s="57"/>
-      <c r="H126" s="57"/>
-      <c r="I126" s="57"/>
-      <c r="J126" s="57"/>
-      <c r="K126" s="57"/>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
-      <c r="B127" s="58"/>
-      <c r="C127" s="58"/>
-      <c r="D127" s="58"/>
-      <c r="E127" s="58"/>
-      <c r="F127" s="58"/>
-      <c r="G127" s="58"/>
-      <c r="H127" s="58"/>
-      <c r="I127" s="58"/>
-      <c r="J127" s="58"/>
-      <c r="K127" s="58"/>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B128" s="55"/>
-      <c r="C128" s="55"/>
-      <c r="D128" s="55"/>
-      <c r="E128" s="55"/>
-      <c r="F128" s="55"/>
-      <c r="G128" s="55"/>
-      <c r="H128" s="55"/>
-      <c r="I128" s="55"/>
-      <c r="J128" s="55"/>
-      <c r="K128" s="56"/>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A129" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C129" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E129" s="19" t="s">
+      <c r="B129" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D129" s="7">
+        <v>20</v>
+      </c>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H129" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I129" s="35"/>
+      <c r="J129" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K129" s="9"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130" s="40">
+        <v>4</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" s="7"/>
+      <c r="E130" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I130" s="35"/>
+      <c r="J130" s="49"/>
+      <c r="K130" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131" s="40">
         <v>5</v>
       </c>
-      <c r="F129" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G129" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H129" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I129" s="20" t="s">
+      <c r="B131" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D131" s="7"/>
+      <c r="E131" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I131" s="35"/>
+      <c r="J131" s="49"/>
+      <c r="K131" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132" s="41">
         <v>6</v>
       </c>
-      <c r="J129" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K129" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A130" s="39">
-        <v>1</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C130" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="5">
-        <v>11</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I130" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J130" s="47"/>
-      <c r="K130" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41">
-        <v>2</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D131" s="13">
-        <v>255</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="13"/>
-      <c r="H131" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="I131" s="16"/>
-      <c r="J131" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="K131" s="14"/>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="57"/>
-      <c r="B132" s="57"/>
-      <c r="C132" s="57"/>
-      <c r="D132" s="57"/>
-      <c r="E132" s="57"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="57"/>
-      <c r="H132" s="57"/>
-      <c r="I132" s="57"/>
-      <c r="J132" s="57"/>
-      <c r="K132" s="57"/>
+      <c r="B132" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" s="13">
+        <v>1</v>
+      </c>
+      <c r="E132" s="13">
+        <v>0</v>
+      </c>
+      <c r="F132" s="13">
+        <v>0</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I132" s="34"/>
+      <c r="J132" s="48"/>
+      <c r="K132" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="58"/>
@@ -4729,121 +4843,107 @@
       <c r="K133" s="58"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="54" t="s">
-        <v>75</v>
-      </c>
-      <c r="B134" s="55"/>
-      <c r="C134" s="55"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="55"/>
-      <c r="H134" s="55"/>
-      <c r="I134" s="55"/>
-      <c r="J134" s="55"/>
-      <c r="K134" s="56"/>
+      <c r="A134" s="59"/>
+      <c r="B134" s="59"/>
+      <c r="C134" s="59"/>
+      <c r="D134" s="59"/>
+      <c r="E134" s="59"/>
+      <c r="F134" s="59"/>
+      <c r="G134" s="59"/>
+      <c r="H134" s="59"/>
+      <c r="I134" s="59"/>
+      <c r="J134" s="59"/>
+      <c r="K134" s="59"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C135" s="4" t="s">
+      <c r="A135" s="60" t="s">
+        <v>69</v>
+      </c>
+      <c r="B135" s="61"/>
+      <c r="C135" s="61"/>
+      <c r="D135" s="61"/>
+      <c r="E135" s="61"/>
+      <c r="F135" s="61"/>
+      <c r="G135" s="61"/>
+      <c r="H135" s="61"/>
+      <c r="I135" s="61"/>
+      <c r="J135" s="61"/>
+      <c r="K135" s="62"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C136" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D135" s="4" t="s">
+      <c r="D136" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E135" s="4" t="s">
+      <c r="E136" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F135" s="19" t="s">
+      <c r="F136" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G135" s="4" t="s">
+      <c r="G136" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H135" s="4" t="s">
+      <c r="H136" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I135" s="3" t="s">
+      <c r="I136" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J135" s="3" t="s">
+      <c r="J136" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K135" s="4" t="s">
+      <c r="K136" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="39">
-        <v>1</v>
-      </c>
-      <c r="B136" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C136" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="5">
-        <v>11</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I136" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J136" s="47"/>
-      <c r="K136" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <v>2</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D137" s="2">
-        <v>255</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H137" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J137" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K137" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="B137" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="5">
+        <v>11</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I137" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J137" s="47"/>
+      <c r="K137" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>14</v>
@@ -4851,92 +4951,78 @@
       <c r="D138" s="2">
         <v>255</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F138" s="2" t="s">
-        <v>10</v>
+      <c r="E138" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F138" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J138" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K138" s="9"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="40">
+      <c r="A139" s="1">
+        <v>3</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="2">
+        <v>255</v>
+      </c>
+      <c r="E139" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K139" s="9"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
         <v>4</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B140" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K140" s="9"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>5</v>
+      </c>
+      <c r="B141" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="C139" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D139" s="7"/>
-      <c r="E139" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F139" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I139" s="8"/>
-      <c r="J139" s="49"/>
-      <c r="K139" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="40">
-        <v>5</v>
-      </c>
-      <c r="B140" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D140" s="7">
-        <v>11</v>
-      </c>
-      <c r="E140" s="7">
-        <v>0</v>
-      </c>
-      <c r="F140" s="12">
-        <v>0</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H140" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I140" s="8"/>
-      <c r="J140" s="49"/>
-      <c r="K140" s="9"/>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="40">
-        <v>6</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>24</v>
       </c>
       <c r="C141" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D141" s="7"/>
-      <c r="E141" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>18</v>
+      <c r="E141" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F141" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G141" s="7"/>
       <c r="H141" s="7" t="s">
@@ -4949,11 +5035,11 @@
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A142" s="40">
-        <v>7</v>
+      <c r="A142" s="1">
+        <v>6</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C142" s="7" t="s">
         <v>9</v>
@@ -4964,7 +5050,7 @@
       <c r="E142" s="7">
         <v>0</v>
       </c>
-      <c r="F142" s="12">
+      <c r="F142" s="7">
         <v>0</v>
       </c>
       <c r="G142" s="7" t="s">
@@ -4978,262 +5064,258 @@
       <c r="K142" s="9"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A143" s="41">
+      <c r="A143" s="1">
+        <v>7</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="7"/>
+      <c r="E143" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I143" s="8"/>
+      <c r="J143" s="49"/>
+      <c r="K143" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
         <v>8</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B144" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C144" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="7">
+        <v>11</v>
+      </c>
+      <c r="E144" s="7">
+        <v>0</v>
+      </c>
+      <c r="F144" s="10">
+        <v>0</v>
+      </c>
+      <c r="G144" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I144" s="8"/>
+      <c r="J144" s="49"/>
+      <c r="K144" s="9"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145" s="34">
+        <v>9</v>
+      </c>
+      <c r="B145" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C145" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D143" s="13">
-        <v>1</v>
-      </c>
-      <c r="E143" s="13">
-        <v>0</v>
-      </c>
-      <c r="F143" s="13">
-        <v>0</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H143" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I143" s="16"/>
-      <c r="J143" s="48"/>
-      <c r="K143" s="14" t="s">
+      <c r="D145" s="13">
+        <v>1</v>
+      </c>
+      <c r="E145" s="13">
+        <v>0</v>
+      </c>
+      <c r="F145" s="13">
+        <v>0</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I145" s="16"/>
+      <c r="J145" s="48"/>
+      <c r="K145" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A144" s="57"/>
-      <c r="B144" s="57"/>
-      <c r="C144" s="57"/>
-      <c r="D144" s="57"/>
-      <c r="E144" s="57"/>
-      <c r="F144" s="57"/>
-      <c r="G144" s="57"/>
-      <c r="H144" s="57"/>
-      <c r="I144" s="57"/>
-      <c r="J144" s="57"/>
-      <c r="K144" s="57"/>
-    </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A145" s="58"/>
-      <c r="B145" s="58"/>
-      <c r="C145" s="58"/>
-      <c r="D145" s="58"/>
-      <c r="E145" s="58"/>
-      <c r="F145" s="58"/>
-      <c r="G145" s="58"/>
-      <c r="H145" s="58"/>
-      <c r="I145" s="58"/>
-      <c r="J145" s="58"/>
-      <c r="K145" s="58"/>
-    </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A146" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="B146" s="55"/>
-      <c r="C146" s="55"/>
-      <c r="D146" s="55"/>
-      <c r="E146" s="55"/>
-      <c r="F146" s="55"/>
-      <c r="G146" s="55"/>
-      <c r="H146" s="55"/>
-      <c r="I146" s="55"/>
-      <c r="J146" s="55"/>
-      <c r="K146" s="56"/>
+      <c r="A146" s="58"/>
+      <c r="B146" s="58"/>
+      <c r="C146" s="58"/>
+      <c r="D146" s="58"/>
+      <c r="E146" s="58"/>
+      <c r="F146" s="58"/>
+      <c r="G146" s="58"/>
+      <c r="H146" s="58"/>
+      <c r="I146" s="58"/>
+      <c r="J146" s="58"/>
+      <c r="K146" s="58"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" s="4" t="s">
+      <c r="A147" s="59"/>
+      <c r="B147" s="59"/>
+      <c r="C147" s="59"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="59"/>
+      <c r="F147" s="59"/>
+      <c r="G147" s="59"/>
+      <c r="H147" s="59"/>
+      <c r="I147" s="59"/>
+      <c r="J147" s="59"/>
+      <c r="K147" s="59"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" s="61"/>
+      <c r="C148" s="61"/>
+      <c r="D148" s="61"/>
+      <c r="E148" s="61"/>
+      <c r="F148" s="61"/>
+      <c r="G148" s="61"/>
+      <c r="H148" s="61"/>
+      <c r="I148" s="61"/>
+      <c r="J148" s="61"/>
+      <c r="K148" s="62"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C149" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D149" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="4" t="s">
+      <c r="E149" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F147" s="4" t="s">
+      <c r="F149" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G147" s="4" t="s">
+      <c r="G149" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H147" s="4" t="s">
+      <c r="H149" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I147" s="3" t="s">
+      <c r="I149" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J147" s="3" t="s">
+      <c r="J149" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K147" s="4" t="s">
+      <c r="K149" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="40">
-        <v>1</v>
-      </c>
-      <c r="B148" s="7" t="s">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150" s="39">
+        <v>1</v>
+      </c>
+      <c r="B150" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C148" s="7" t="s">
+      <c r="C150" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D148" s="7">
-        <v>11</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G148" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H148" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I148" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J148" s="49"/>
-      <c r="K148" s="6" t="s">
+      <c r="D150" s="5">
+        <v>11</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I150" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J150" s="47"/>
+      <c r="K150" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="40">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
         <v>2</v>
       </c>
-      <c r="B149" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C149" s="7" t="s">
+      <c r="B151" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D149" s="7">
+      <c r="D151" s="2">
         <v>255</v>
       </c>
-      <c r="E149" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I149" s="8"/>
-      <c r="J149" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K149" s="9"/>
-    </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="40">
+      <c r="E151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K151" s="9"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
         <v>3</v>
       </c>
-      <c r="B150" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C150" s="7" t="s">
+      <c r="B152" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C152" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D150" s="7">
+      <c r="D152" s="2">
         <v>255</v>
       </c>
-      <c r="E150" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I150" s="8"/>
-      <c r="J150" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K150" s="9"/>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="40">
-        <v>4</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D151" s="7">
-        <v>255</v>
-      </c>
-      <c r="E151" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I151" s="8"/>
-      <c r="J151" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K151" s="9"/>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="40">
-        <v>5</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I152" s="8"/>
-      <c r="J152" s="49" t="s">
+      <c r="E152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J152" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K152" s="9"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>23</v>
@@ -5260,566 +5342,576 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F154" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="D154" s="7">
+        <v>11</v>
+      </c>
+      <c r="E154" s="7">
+        <v>0</v>
+      </c>
+      <c r="F154" s="12">
+        <v>0</v>
+      </c>
+      <c r="G154" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H154" s="7" t="s">
         <v>12</v>
       </c>
       <c r="I154" s="8"/>
       <c r="J154" s="49"/>
-      <c r="K154" s="9" t="s">
+      <c r="K154" s="9"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" s="40">
+        <v>6</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C155" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="7"/>
+      <c r="E155" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I155" s="8"/>
+      <c r="J155" s="49"/>
+      <c r="K155" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="41">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="40">
+        <v>7</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="7">
+        <v>11</v>
+      </c>
+      <c r="E156" s="7">
+        <v>0</v>
+      </c>
+      <c r="F156" s="12">
+        <v>0</v>
+      </c>
+      <c r="G156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H156" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I156" s="8"/>
+      <c r="J156" s="49"/>
+      <c r="K156" s="9"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="41">
         <v>8</v>
       </c>
-      <c r="B155" s="13" t="s">
+      <c r="B157" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C157" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D155" s="13">
-        <v>1</v>
-      </c>
-      <c r="E155" s="13">
-        <v>0</v>
-      </c>
-      <c r="F155" s="13">
-        <v>0</v>
-      </c>
-      <c r="G155" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H155" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I155" s="16"/>
-      <c r="J155" s="48"/>
-      <c r="K155" s="14" t="s">
+      <c r="D157" s="13">
+        <v>1</v>
+      </c>
+      <c r="E157" s="13">
+        <v>0</v>
+      </c>
+      <c r="F157" s="13">
+        <v>0</v>
+      </c>
+      <c r="G157" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H157" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I157" s="16"/>
+      <c r="J157" s="48"/>
+      <c r="K157" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="57"/>
-      <c r="B156" s="57"/>
-      <c r="C156" s="57"/>
-      <c r="D156" s="57"/>
-      <c r="E156" s="57"/>
-      <c r="F156" s="57"/>
-      <c r="G156" s="57"/>
-      <c r="H156" s="57"/>
-      <c r="I156" s="57"/>
-      <c r="J156" s="57"/>
-      <c r="K156" s="57"/>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="58"/>
-      <c r="B157" s="58"/>
-      <c r="C157" s="58"/>
-      <c r="D157" s="58"/>
-      <c r="E157" s="58"/>
-      <c r="F157" s="58"/>
-      <c r="G157" s="58"/>
-      <c r="H157" s="58"/>
-      <c r="I157" s="58"/>
-      <c r="J157" s="58"/>
-      <c r="K157" s="58"/>
-    </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="B158" s="55"/>
-      <c r="C158" s="55"/>
-      <c r="D158" s="55"/>
-      <c r="E158" s="55"/>
-      <c r="F158" s="55"/>
-      <c r="G158" s="55"/>
-      <c r="H158" s="55"/>
-      <c r="I158" s="55"/>
-      <c r="J158" s="55"/>
-      <c r="K158" s="56"/>
+      <c r="A158" s="58"/>
+      <c r="B158" s="58"/>
+      <c r="C158" s="58"/>
+      <c r="D158" s="58"/>
+      <c r="E158" s="58"/>
+      <c r="F158" s="58"/>
+      <c r="G158" s="58"/>
+      <c r="H158" s="58"/>
+      <c r="I158" s="58"/>
+      <c r="J158" s="58"/>
+      <c r="K158" s="58"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C159" s="4" t="s">
+      <c r="A159" s="59"/>
+      <c r="B159" s="59"/>
+      <c r="C159" s="59"/>
+      <c r="D159" s="59"/>
+      <c r="E159" s="59"/>
+      <c r="F159" s="59"/>
+      <c r="G159" s="59"/>
+      <c r="H159" s="59"/>
+      <c r="I159" s="59"/>
+      <c r="J159" s="59"/>
+      <c r="K159" s="59"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B160" s="61"/>
+      <c r="C160" s="61"/>
+      <c r="D160" s="61"/>
+      <c r="E160" s="61"/>
+      <c r="F160" s="61"/>
+      <c r="G160" s="61"/>
+      <c r="H160" s="61"/>
+      <c r="I160" s="61"/>
+      <c r="J160" s="61"/>
+      <c r="K160" s="62"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="D161" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E159" s="4" t="s">
+      <c r="E161" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F159" s="4" t="s">
+      <c r="F161" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G159" s="4" t="s">
+      <c r="G161" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H159" s="4" t="s">
+      <c r="H161" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I159" s="3" t="s">
+      <c r="I161" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J159" s="3" t="s">
+      <c r="J161" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K159" s="4" t="s">
+      <c r="K161" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="39">
-        <v>1</v>
-      </c>
-      <c r="B160" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D160" s="5">
-        <v>20</v>
-      </c>
-      <c r="E160" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F160" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H160" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I160" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J160" s="47"/>
-      <c r="K160" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="40">
-        <v>2</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D161" s="7">
-        <v>20</v>
-      </c>
-      <c r="E161" s="7"/>
-      <c r="F161" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G161" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I161" s="29"/>
-      <c r="J161" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K161" s="9"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D162" s="7">
-        <v>50</v>
-      </c>
-      <c r="E162" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F162" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G162" s="7"/>
+      <c r="G162" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H162" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I162" s="29"/>
-      <c r="J162" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K162" s="9"/>
+      <c r="I162" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J162" s="49"/>
+      <c r="K162" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
-      <c r="F163" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D163" s="7">
+        <v>255</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="7"/>
       <c r="H163" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I163" s="30"/>
+      <c r="I163" s="8"/>
       <c r="J163" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="K163" s="9" t="s">
-        <v>127</v>
-      </c>
+      <c r="K163" s="9"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
       <c r="C164" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D164" s="7">
-        <v>100</v>
-      </c>
-      <c r="E164" s="10"/>
-      <c r="F164" s="10" t="s">
-        <v>18</v>
+        <v>255</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G164" s="7"/>
       <c r="H164" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I164" s="46"/>
-      <c r="J164" s="49"/>
+        <v>0</v>
+      </c>
+      <c r="I164" s="8"/>
+      <c r="J164" s="49" t="s">
+        <v>12</v>
+      </c>
       <c r="K164" s="9"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D165" s="7"/>
-      <c r="E165" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F165" s="12" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D165" s="7">
+        <v>255</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G165" s="7"/>
       <c r="H165" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I165" s="29"/>
-      <c r="J165" s="49"/>
-      <c r="K165" s="9" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" s="8"/>
+      <c r="J165" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K165" s="9"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D166" s="7"/>
-      <c r="E166" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F166" s="10" t="s">
-        <v>18</v>
+      <c r="E166" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G166" s="7"/>
       <c r="H166" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I166" s="29"/>
-      <c r="J166" s="49"/>
-      <c r="K166" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I166" s="8"/>
+      <c r="J166" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K166" s="9"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="40">
+        <v>6</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="7"/>
+      <c r="E167" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G167" s="7"/>
+      <c r="H167" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I167" s="8"/>
+      <c r="J167" s="49"/>
+      <c r="K167" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="41">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A168" s="40">
+        <v>7</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="7"/>
+      <c r="E168" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168" s="7"/>
+      <c r="H168" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I168" s="8"/>
+      <c r="J168" s="49"/>
+      <c r="K168" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" s="41">
         <v>8</v>
       </c>
-      <c r="B167" s="13" t="s">
+      <c r="B169" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C169" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D167" s="13">
-        <v>1</v>
-      </c>
-      <c r="E167" s="13">
-        <v>0</v>
-      </c>
-      <c r="F167" s="13">
-        <v>0</v>
-      </c>
-      <c r="G167" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H167" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I167" s="28"/>
-      <c r="J167" s="48"/>
-      <c r="K167" s="14" t="s">
+      <c r="D169" s="13">
+        <v>1</v>
+      </c>
+      <c r="E169" s="13">
+        <v>0</v>
+      </c>
+      <c r="F169" s="13">
+        <v>0</v>
+      </c>
+      <c r="G169" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I169" s="16"/>
+      <c r="J169" s="48"/>
+      <c r="K169" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A168" s="57"/>
-      <c r="B168" s="57"/>
-      <c r="C168" s="57"/>
-      <c r="D168" s="57"/>
-      <c r="E168" s="57"/>
-      <c r="F168" s="57"/>
-      <c r="G168" s="57"/>
-      <c r="H168" s="57"/>
-      <c r="I168" s="57"/>
-      <c r="J168" s="57"/>
-      <c r="K168" s="57"/>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A169" s="58"/>
-      <c r="B169" s="58"/>
-      <c r="C169" s="58"/>
-      <c r="D169" s="58"/>
-      <c r="E169" s="58"/>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
-      <c r="H169" s="58"/>
-      <c r="I169" s="58"/>
-      <c r="J169" s="58"/>
-      <c r="K169" s="58"/>
-    </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A170" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="B170" s="55"/>
-      <c r="C170" s="55"/>
-      <c r="D170" s="55"/>
-      <c r="E170" s="55"/>
-      <c r="F170" s="55"/>
-      <c r="G170" s="55"/>
-      <c r="H170" s="55"/>
-      <c r="I170" s="55"/>
-      <c r="J170" s="55"/>
-      <c r="K170" s="56"/>
+      <c r="A170" s="58"/>
+      <c r="B170" s="58"/>
+      <c r="C170" s="58"/>
+      <c r="D170" s="58"/>
+      <c r="E170" s="58"/>
+      <c r="F170" s="58"/>
+      <c r="G170" s="58"/>
+      <c r="H170" s="58"/>
+      <c r="I170" s="58"/>
+      <c r="J170" s="58"/>
+      <c r="K170" s="58"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B171" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C171" s="19" t="s">
+      <c r="A171" s="59"/>
+      <c r="B171" s="59"/>
+      <c r="C171" s="59"/>
+      <c r="D171" s="59"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="59"/>
+      <c r="G171" s="59"/>
+      <c r="H171" s="59"/>
+      <c r="I171" s="59"/>
+      <c r="J171" s="59"/>
+      <c r="K171" s="59"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B172" s="61"/>
+      <c r="C172" s="61"/>
+      <c r="D172" s="61"/>
+      <c r="E172" s="61"/>
+      <c r="F172" s="61"/>
+      <c r="G172" s="61"/>
+      <c r="H172" s="61"/>
+      <c r="I172" s="61"/>
+      <c r="J172" s="61"/>
+      <c r="K172" s="62"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D171" s="19" t="s">
+      <c r="D173" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E171" s="19" t="s">
+      <c r="E173" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F171" s="19" t="s">
+      <c r="F173" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G171" s="19" t="s">
+      <c r="G173" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H171" s="19" t="s">
+      <c r="H173" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I171" s="20" t="s">
+      <c r="I173" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J171" s="20" t="s">
+      <c r="J173" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K171" s="19" t="s">
+      <c r="K173" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="39">
-        <v>1</v>
-      </c>
-      <c r="B172" s="5" t="s">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A174" s="39">
+        <v>1</v>
+      </c>
+      <c r="B174" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C174" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D172" s="5">
+      <c r="D174" s="5">
         <v>20</v>
       </c>
-      <c r="E172" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G172" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H172" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I172" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J172" s="50"/>
-      <c r="K172" s="6" t="s">
+      <c r="E174" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H174" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I174" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="J174" s="47"/>
+      <c r="K174" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="40">
-        <v>2</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D173" s="7">
-        <v>20</v>
-      </c>
-      <c r="E173" s="7"/>
-      <c r="F173" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G173" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H173" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I173" s="7"/>
-      <c r="J173" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K173" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="40">
-        <v>3</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D174" s="7">
-        <v>1</v>
-      </c>
-      <c r="E174" s="7"/>
-      <c r="F174" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G174" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H174" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I174" s="7"/>
-      <c r="J174" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K174" s="9" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
+        <v>116</v>
+      </c>
+      <c r="D175" s="7">
+        <v>20</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F175" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G175" s="7"/>
+      <c r="G175" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H175" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I175" s="7"/>
-      <c r="J175" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K175" s="9"/>
+      <c r="I175" s="35"/>
+      <c r="J175" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K175" s="9" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>15</v>
@@ -5827,702 +5919,729 @@
       <c r="D176" s="7">
         <v>1</v>
       </c>
-      <c r="E176" s="7"/>
-      <c r="F176" s="7">
-        <v>0</v>
+      <c r="E176" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F176" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G176" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H176" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I176" s="7"/>
-      <c r="J176" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="I176" s="35"/>
+      <c r="J176" s="49" t="s">
+        <v>12</v>
+      </c>
       <c r="K176" s="9" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="40"/>
+      <c r="A177" s="40">
+        <v>4</v>
+      </c>
       <c r="B177" s="7" t="s">
-        <v>23</v>
+        <v>168</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D177" s="7"/>
-      <c r="E177" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F177" s="12" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D177" s="7">
+        <v>255</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F177" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G177" s="7"/>
       <c r="H177" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I177" s="52"/>
-      <c r="J177" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="I177" s="35"/>
+      <c r="J177" s="49" t="s">
+        <v>12</v>
+      </c>
       <c r="K177" s="9" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" s="40"/>
+      <c r="A178" s="40">
+        <v>5</v>
+      </c>
       <c r="B178" s="7" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D178" s="7"/>
-      <c r="E178" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F178" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="D178" s="7">
+        <v>255</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G178" s="7"/>
       <c r="H178" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I178" s="52"/>
-      <c r="J178" s="52"/>
+        <v>0</v>
+      </c>
+      <c r="I178" s="35"/>
+      <c r="J178" s="49" t="s">
+        <v>12</v>
+      </c>
       <c r="K178" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" s="40">
+        <v>6</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="7">
+        <v>255</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I179" s="35"/>
+      <c r="J179" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K179" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" s="40">
+        <v>7</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="7">
+        <v>1</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F180" s="7">
+        <v>0</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H180" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I180" s="35"/>
+      <c r="J180" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K180" s="9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A181" s="40">
+        <v>8</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I181" s="35"/>
+      <c r="J181" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K181" s="9"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" s="40">
+        <v>9</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D182" s="7"/>
+      <c r="E182" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I182" s="35"/>
+      <c r="J182" s="49"/>
+      <c r="K182" s="9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" s="40">
+        <v>10</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="7">
+        <v>45</v>
+      </c>
+      <c r="E183" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I183" s="35"/>
+      <c r="J183" s="49"/>
+      <c r="K183" s="9"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" s="40">
+        <v>11</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="7"/>
+      <c r="E184" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I184" s="35"/>
+      <c r="J184" s="49"/>
+      <c r="K184" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="41"/>
-      <c r="B179" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D179" s="13">
-        <v>1</v>
-      </c>
-      <c r="E179" s="13">
-        <v>0</v>
-      </c>
-      <c r="F179" s="13">
-        <v>0</v>
-      </c>
-      <c r="G179" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H179" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I179" s="51"/>
-      <c r="J179" s="51"/>
-      <c r="K179" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" s="63"/>
-      <c r="B180" s="63"/>
-      <c r="C180" s="63"/>
-      <c r="D180" s="63"/>
-      <c r="E180" s="63"/>
-      <c r="F180" s="63"/>
-      <c r="G180" s="63"/>
-      <c r="H180" s="63"/>
-      <c r="I180" s="63"/>
-      <c r="J180" s="63"/>
-      <c r="K180" s="63"/>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A181" s="58"/>
-      <c r="B181" s="58"/>
-      <c r="C181" s="58"/>
-      <c r="D181" s="58"/>
-      <c r="E181" s="58"/>
-      <c r="F181" s="58"/>
-      <c r="G181" s="58"/>
-      <c r="H181" s="58"/>
-      <c r="I181" s="58"/>
-      <c r="J181" s="58"/>
-      <c r="K181" s="58"/>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B182" s="55"/>
-      <c r="C182" s="55"/>
-      <c r="D182" s="55"/>
-      <c r="E182" s="55"/>
-      <c r="F182" s="55"/>
-      <c r="G182" s="55"/>
-      <c r="H182" s="55"/>
-      <c r="I182" s="55"/>
-      <c r="J182" s="55"/>
-      <c r="K182" s="56"/>
-    </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B183" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C183" s="4" t="s">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" s="41">
+        <v>12</v>
+      </c>
+      <c r="B185" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="13"/>
+      <c r="E185" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F185" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="13"/>
+      <c r="H185" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I185" s="34"/>
+      <c r="J185" s="48"/>
+      <c r="K185" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A186" s="58"/>
+      <c r="B186" s="58"/>
+      <c r="C186" s="58"/>
+      <c r="D186" s="58"/>
+      <c r="E186" s="58"/>
+      <c r="F186" s="58"/>
+      <c r="G186" s="58"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="58"/>
+      <c r="J186" s="58"/>
+      <c r="K186" s="58"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" s="59"/>
+      <c r="B187" s="59"/>
+      <c r="C187" s="59"/>
+      <c r="D187" s="59"/>
+      <c r="E187" s="59"/>
+      <c r="F187" s="59"/>
+      <c r="G187" s="59"/>
+      <c r="H187" s="59"/>
+      <c r="I187" s="59"/>
+      <c r="J187" s="59"/>
+      <c r="K187" s="59"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" s="60" t="s">
+        <v>203</v>
+      </c>
+      <c r="B188" s="61"/>
+      <c r="C188" s="61"/>
+      <c r="D188" s="61"/>
+      <c r="E188" s="61"/>
+      <c r="F188" s="61"/>
+      <c r="G188" s="61"/>
+      <c r="H188" s="61"/>
+      <c r="I188" s="61"/>
+      <c r="J188" s="61"/>
+      <c r="K188" s="62"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C189" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D183" s="4" t="s">
+      <c r="D189" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E183" s="4" t="s">
+      <c r="E189" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F183" s="4" t="s">
+      <c r="F189" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G183" s="4" t="s">
+      <c r="G189" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H183" s="4" t="s">
+      <c r="H189" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I183" s="3" t="s">
+      <c r="I189" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J183" s="3" t="s">
+      <c r="J189" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K183" s="4" t="s">
+      <c r="K189" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="39">
-        <v>1</v>
-      </c>
-      <c r="B184" s="5" t="s">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A190" s="39">
+        <v>1</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C190" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D184" s="5">
+      <c r="D190" s="5">
         <v>20</v>
       </c>
-      <c r="E184" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F184" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H184" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I184" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J184" s="47"/>
-      <c r="K184" s="6" t="s">
+      <c r="E190" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I190" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="J190" s="54"/>
+      <c r="K190" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="40">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
         <v>2</v>
       </c>
-      <c r="B185" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D185" s="7">
-        <v>50</v>
-      </c>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I185" s="30"/>
-      <c r="J185" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K185" s="9"/>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="40">
+      <c r="B191" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K191" s="9"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
         <v>3</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D186" s="7">
-        <v>25</v>
-      </c>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I186" s="30"/>
-      <c r="J186" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K186" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="40">
-        <v>4</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C187" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I187" s="30"/>
-      <c r="J187" s="49"/>
-      <c r="K187" s="9"/>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="40">
-        <v>5</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D188" s="7">
-        <v>50</v>
-      </c>
-      <c r="E188" s="7"/>
-      <c r="F188" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" s="7"/>
-      <c r="H188" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I188" s="30"/>
-      <c r="J188" s="49"/>
-      <c r="K188" s="9"/>
-    </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="40">
-        <v>6</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C189" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D189" s="7">
-        <v>20</v>
-      </c>
-      <c r="E189" s="7"/>
-      <c r="F189" s="7">
-        <v>0</v>
-      </c>
-      <c r="G189" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H189" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I189" s="30"/>
-      <c r="J189" s="49"/>
-      <c r="K189" s="9"/>
-    </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A190" s="40">
-        <v>7</v>
-      </c>
-      <c r="B190" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C190" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D190" s="7">
-        <v>1</v>
-      </c>
-      <c r="E190" s="7"/>
-      <c r="F190" s="7">
-        <v>0</v>
-      </c>
-      <c r="G190" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H190" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I190" s="30"/>
-      <c r="J190" s="49"/>
-      <c r="K190" s="9"/>
-    </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="40">
-        <v>8</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C191" s="7" t="s">
+      <c r="B192" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D191" s="7">
-        <v>10</v>
-      </c>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G191" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H191" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I191" s="46"/>
-      <c r="J191" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K191" s="9"/>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" s="40">
-        <v>9</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C192" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D192" s="7"/>
-      <c r="E192" s="7"/>
-      <c r="F192" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G192" s="7"/>
-      <c r="H192" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I192" s="53"/>
-      <c r="J192" s="53" t="s">
+      <c r="D192" s="2">
+        <v>10</v>
+      </c>
+      <c r="F192" s="2">
+        <v>0</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H192" s="2" t="s">
         <v>12</v>
       </c>
       <c r="K192" s="9"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>203</v>
+        <v>23</v>
       </c>
       <c r="C193" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
-      <c r="F193" s="7" t="s">
-        <v>10</v>
+      <c r="E193" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F193" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G193" s="7"/>
       <c r="H193" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I193" s="53"/>
-      <c r="J193" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="K193" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I193" s="57"/>
+      <c r="J193" s="57"/>
+      <c r="K193" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C194" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D194" s="7"/>
-      <c r="E194" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F194" s="12" t="s">
-        <v>26</v>
+      <c r="E194" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G194" s="7"/>
       <c r="H194" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I194" s="30"/>
-      <c r="J194" s="49"/>
+      <c r="I194" s="57"/>
+      <c r="J194" s="57"/>
       <c r="K194" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="40">
-        <v>12</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D195" s="7"/>
-      <c r="E195" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F195" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" s="7"/>
-      <c r="H195" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I195" s="30"/>
-      <c r="J195" s="49"/>
-      <c r="K195" s="9" t="s">
-        <v>16</v>
+      <c r="A195" s="41">
+        <v>6</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D195" s="13">
+        <v>1</v>
+      </c>
+      <c r="E195" s="13">
+        <v>0</v>
+      </c>
+      <c r="F195" s="13">
+        <v>0</v>
+      </c>
+      <c r="G195" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H195" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195" s="56"/>
+      <c r="J195" s="56"/>
+      <c r="K195" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="41">
+      <c r="A196" s="58"/>
+      <c r="B196" s="58"/>
+      <c r="C196" s="58"/>
+      <c r="D196" s="58"/>
+      <c r="E196" s="58"/>
+      <c r="F196" s="58"/>
+      <c r="G196" s="58"/>
+      <c r="H196" s="58"/>
+      <c r="I196" s="58"/>
+      <c r="J196" s="58"/>
+      <c r="K196" s="58"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="59"/>
+      <c r="B197" s="59"/>
+      <c r="C197" s="59"/>
+      <c r="D197" s="59"/>
+      <c r="E197" s="59"/>
+      <c r="F197" s="59"/>
+      <c r="G197" s="59"/>
+      <c r="H197" s="59"/>
+      <c r="I197" s="59"/>
+      <c r="J197" s="59"/>
+      <c r="K197" s="59"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="B198" s="61"/>
+      <c r="C198" s="61"/>
+      <c r="D198" s="61"/>
+      <c r="E198" s="61"/>
+      <c r="F198" s="61"/>
+      <c r="G198" s="61"/>
+      <c r="H198" s="61"/>
+      <c r="I198" s="61"/>
+      <c r="J198" s="61"/>
+      <c r="K198" s="62"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C199" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D199" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E199" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F199" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G199" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J199" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K199" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="39">
+        <v>1</v>
+      </c>
+      <c r="B200" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D200" s="5">
+        <v>20</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I200" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J200" s="55"/>
+      <c r="K200" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B196" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D196" s="13">
-        <v>1</v>
-      </c>
-      <c r="E196" s="13">
-        <v>0</v>
-      </c>
-      <c r="F196" s="13">
-        <v>0</v>
-      </c>
-      <c r="G196" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H196" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I196" s="31"/>
-      <c r="J196" s="48"/>
-      <c r="K196" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="57"/>
-      <c r="B197" s="57"/>
-      <c r="C197" s="57"/>
-      <c r="D197" s="57"/>
-      <c r="E197" s="57"/>
-      <c r="F197" s="57"/>
-      <c r="G197" s="57"/>
-      <c r="H197" s="57"/>
-      <c r="I197" s="57"/>
-      <c r="J197" s="57"/>
-      <c r="K197" s="57"/>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="58"/>
-      <c r="B198" s="58"/>
-      <c r="C198" s="58"/>
-      <c r="D198" s="58"/>
-      <c r="E198" s="58"/>
-      <c r="F198" s="58"/>
-      <c r="G198" s="58"/>
-      <c r="H198" s="58"/>
-      <c r="I198" s="58"/>
-      <c r="J198" s="58"/>
-      <c r="K198" s="58"/>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B199" s="55"/>
-      <c r="C199" s="55"/>
-      <c r="D199" s="55"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="55"/>
-      <c r="H199" s="55"/>
-      <c r="I199" s="55"/>
-      <c r="J199" s="55"/>
-      <c r="K199" s="56"/>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C200" s="4" t="s">
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="40">
         <v>2</v>
       </c>
-      <c r="D200" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E200" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F200" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G200" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H200" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I200" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J200" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K200" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="39">
-        <v>1</v>
-      </c>
-      <c r="B201" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C201" s="5" t="s">
+      <c r="B201" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C201" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D201" s="5">
+      <c r="D201" s="7">
         <v>20</v>
       </c>
-      <c r="E201" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F201" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G201" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H201" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I201" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J201" s="47"/>
-      <c r="K201" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="E201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H201" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I201" s="57"/>
+      <c r="J201" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K201" s="9"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="D202" s="7">
-        <v>20</v>
-      </c>
-      <c r="E202" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="F202" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G202" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="G202" s="7"/>
       <c r="H202" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I202" s="35"/>
-      <c r="J202" s="49" t="s">
+      <c r="I202" s="57"/>
+      <c r="J202" s="57" t="s">
         <v>12</v>
       </c>
       <c r="K202" s="9"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="D203" s="7">
-        <v>20</v>
-      </c>
-      <c r="E203" s="7"/>
-      <c r="F203" s="7" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="7">
+        <v>0</v>
       </c>
       <c r="G203" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H203" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I203" s="35"/>
-      <c r="J203" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="I203" s="57"/>
+      <c r="J203" s="57" t="s">
         <v>12</v>
       </c>
       <c r="K203" s="9"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B204" s="7" t="s">
         <v>23</v>
@@ -6541,15 +6660,15 @@
       <c r="H204" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I204" s="35"/>
-      <c r="J204" s="49"/>
+      <c r="I204" s="57"/>
+      <c r="J204" s="57"/>
       <c r="K204" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B205" s="7" t="s">
         <v>24</v>
@@ -6568,15 +6687,15 @@
       <c r="H205" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I205" s="35"/>
-      <c r="J205" s="49"/>
+      <c r="I205" s="57"/>
+      <c r="J205" s="57"/>
       <c r="K205" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B206" s="13" t="s">
         <v>41</v>
@@ -6599,52 +6718,52 @@
       <c r="H206" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I206" s="34"/>
-      <c r="J206" s="48"/>
+      <c r="I206" s="56"/>
+      <c r="J206" s="56"/>
       <c r="K206" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="57"/>
-      <c r="B207" s="57"/>
-      <c r="C207" s="57"/>
-      <c r="D207" s="57"/>
-      <c r="E207" s="57"/>
-      <c r="F207" s="57"/>
-      <c r="G207" s="57"/>
-      <c r="H207" s="57"/>
-      <c r="I207" s="57"/>
-      <c r="J207" s="57"/>
-      <c r="K207" s="57"/>
+      <c r="A207" s="58"/>
+      <c r="B207" s="58"/>
+      <c r="C207" s="58"/>
+      <c r="D207" s="58"/>
+      <c r="E207" s="58"/>
+      <c r="F207" s="58"/>
+      <c r="G207" s="58"/>
+      <c r="H207" s="58"/>
+      <c r="I207" s="58"/>
+      <c r="J207" s="58"/>
+      <c r="K207" s="58"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="58"/>
-      <c r="B208" s="58"/>
-      <c r="C208" s="58"/>
-      <c r="D208" s="58"/>
-      <c r="E208" s="58"/>
-      <c r="F208" s="58"/>
-      <c r="G208" s="58"/>
-      <c r="H208" s="58"/>
-      <c r="I208" s="58"/>
-      <c r="J208" s="58"/>
-      <c r="K208" s="58"/>
+      <c r="A208" s="59"/>
+      <c r="B208" s="59"/>
+      <c r="C208" s="59"/>
+      <c r="D208" s="59"/>
+      <c r="E208" s="59"/>
+      <c r="F208" s="59"/>
+      <c r="G208" s="59"/>
+      <c r="H208" s="59"/>
+      <c r="I208" s="59"/>
+      <c r="J208" s="59"/>
+      <c r="K208" s="59"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="54" t="s">
-        <v>180</v>
-      </c>
-      <c r="B209" s="55"/>
-      <c r="C209" s="55"/>
-      <c r="D209" s="55"/>
-      <c r="E209" s="55"/>
-      <c r="F209" s="55"/>
-      <c r="G209" s="55"/>
-      <c r="H209" s="55"/>
-      <c r="I209" s="55"/>
-      <c r="J209" s="55"/>
-      <c r="K209" s="56"/>
+      <c r="A209" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" s="61"/>
+      <c r="C209" s="61"/>
+      <c r="D209" s="61"/>
+      <c r="E209" s="61"/>
+      <c r="F209" s="61"/>
+      <c r="G209" s="61"/>
+      <c r="H209" s="61"/>
+      <c r="I209" s="61"/>
+      <c r="J209" s="61"/>
+      <c r="K209" s="62"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
@@ -6706,10 +6825,10 @@
       <c r="H211" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I211" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J211" s="47"/>
+      <c r="I211" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J211" s="55"/>
       <c r="K211" s="6" t="s">
         <v>13</v>
       </c>
@@ -6719,7 +6838,7 @@
         <v>2</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="C212" s="7" t="s">
         <v>116</v>
@@ -6727,9 +6846,7 @@
       <c r="D212" s="7">
         <v>20</v>
       </c>
-      <c r="E212" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="E212" s="7"/>
       <c r="F212" s="7" t="s">
         <v>10</v>
       </c>
@@ -6739,30 +6856,26 @@
       <c r="H212" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I212" s="35"/>
-      <c r="J212" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K212" s="9" t="s">
-        <v>139</v>
-      </c>
+      <c r="I212" s="57"/>
+      <c r="J212" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K212" s="9"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>3</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>167</v>
+        <v>212</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D213" s="7">
-        <v>1</v>
-      </c>
-      <c r="E213" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E213" s="7"/>
       <c r="F213" s="7" t="s">
         <v>10</v>
       </c>
@@ -6772,74 +6885,66 @@
       <c r="H213" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I213" s="35"/>
-      <c r="J213" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K213" s="9" t="s">
-        <v>144</v>
-      </c>
+      <c r="I213" s="57"/>
+      <c r="J213" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K213" s="9"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>4</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D214" s="7">
-        <v>255</v>
-      </c>
-      <c r="E214" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E214" s="7"/>
       <c r="F214" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G214" s="7"/>
+      <c r="G214" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H214" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I214" s="35"/>
-      <c r="J214" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K214" s="9" t="s">
-        <v>140</v>
-      </c>
+      <c r="I214" s="57"/>
+      <c r="J214" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K214" s="9"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>5</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D215" s="7">
-        <v>255</v>
-      </c>
-      <c r="E215" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F215" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D215" s="7"/>
+      <c r="E215" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F215" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G215" s="7"/>
       <c r="H215" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I215" s="35"/>
-      <c r="J215" s="49" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I215" s="57"/>
+      <c r="J215" s="57"/>
       <c r="K215" s="9" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
@@ -6847,823 +6952,1521 @@
         <v>6</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D216" s="7">
-        <v>255</v>
-      </c>
-      <c r="E216" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F216" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D216" s="7"/>
+      <c r="E216" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F216" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G216" s="7"/>
       <c r="H216" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I216" s="35"/>
-      <c r="J216" s="49" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I216" s="57"/>
+      <c r="J216" s="57"/>
       <c r="K216" s="9" t="s">
-        <v>142</v>
+        <v>16</v>
       </c>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="40">
+      <c r="A217" s="41">
         <v>7</v>
       </c>
-      <c r="B217" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C217" s="7" t="s">
+      <c r="B217" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C217" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D217" s="7">
-        <v>1</v>
-      </c>
-      <c r="E217" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F217" s="7">
-        <v>0</v>
-      </c>
-      <c r="G217" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H217" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I217" s="35"/>
-      <c r="J217" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K217" s="9" t="s">
-        <v>145</v>
+      <c r="D217" s="13">
+        <v>1</v>
+      </c>
+      <c r="E217" s="13">
+        <v>0</v>
+      </c>
+      <c r="F217" s="13">
+        <v>0</v>
+      </c>
+      <c r="G217" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H217" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I217" s="56"/>
+      <c r="J217" s="56"/>
+      <c r="K217" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="40">
+      <c r="A218" s="58"/>
+      <c r="B218" s="58"/>
+      <c r="C218" s="58"/>
+      <c r="D218" s="58"/>
+      <c r="E218" s="58"/>
+      <c r="F218" s="58"/>
+      <c r="G218" s="58"/>
+      <c r="H218" s="58"/>
+      <c r="I218" s="58"/>
+      <c r="J218" s="58"/>
+      <c r="K218" s="58"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219" s="59"/>
+      <c r="B219" s="59"/>
+      <c r="C219" s="59"/>
+      <c r="D219" s="59"/>
+      <c r="E219" s="59"/>
+      <c r="F219" s="59"/>
+      <c r="G219" s="59"/>
+      <c r="H219" s="59"/>
+      <c r="I219" s="59"/>
+      <c r="J219" s="59"/>
+      <c r="K219" s="59"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B220" s="61"/>
+      <c r="C220" s="61"/>
+      <c r="D220" s="61"/>
+      <c r="E220" s="61"/>
+      <c r="F220" s="61"/>
+      <c r="G220" s="61"/>
+      <c r="H220" s="61"/>
+      <c r="I220" s="61"/>
+      <c r="J220" s="61"/>
+      <c r="K220" s="62"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D221" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G221" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H221" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B218" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C218" s="7" t="s">
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222" s="39">
+        <v>1</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D222" s="5">
+        <v>20</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I222" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J222" s="55"/>
+      <c r="K222" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A223" s="1">
+        <v>2</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C223" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D218" s="7"/>
-      <c r="E218" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F218" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G218" s="7"/>
-      <c r="H218" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I218" s="35"/>
-      <c r="J218" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K218" s="9"/>
-    </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="40">
+      <c r="F223" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H223" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K223" s="9"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A224" s="1">
+        <v>3</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B219" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C219" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D219" s="7"/>
-      <c r="E219" s="10" t="s">
+      <c r="D224" s="2">
+        <v>10</v>
+      </c>
+      <c r="F224" s="2">
+        <v>0</v>
+      </c>
+      <c r="G224" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H224" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K224" s="9"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A225" s="40">
+        <v>4</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D225" s="7"/>
+      <c r="E225" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I225" s="57"/>
+      <c r="J225" s="57"/>
+      <c r="K225" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A226" s="40">
+        <v>5</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D226" s="7"/>
+      <c r="E226" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F219" s="10" t="s">
+      <c r="F226" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G219" s="7"/>
-      <c r="H219" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I219" s="35"/>
-      <c r="J219" s="49"/>
-      <c r="K219" s="9" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="40">
-        <v>10</v>
-      </c>
-      <c r="B220" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C220" s="7" t="s">
+      <c r="G226" s="7"/>
+      <c r="H226" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I226" s="57"/>
+      <c r="J226" s="57"/>
+      <c r="K226" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A227" s="41">
+        <v>6</v>
+      </c>
+      <c r="B227" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="13">
+        <v>1</v>
+      </c>
+      <c r="E227" s="13">
+        <v>0</v>
+      </c>
+      <c r="F227" s="13">
+        <v>0</v>
+      </c>
+      <c r="G227" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I227" s="56"/>
+      <c r="J227" s="56"/>
+      <c r="K227" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A228" s="58"/>
+      <c r="B228" s="58"/>
+      <c r="C228" s="58"/>
+      <c r="D228" s="58"/>
+      <c r="E228" s="58"/>
+      <c r="F228" s="58"/>
+      <c r="G228" s="58"/>
+      <c r="H228" s="58"/>
+      <c r="I228" s="58"/>
+      <c r="J228" s="58"/>
+      <c r="K228" s="58"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A229" s="59"/>
+      <c r="B229" s="59"/>
+      <c r="C229" s="59"/>
+      <c r="D229" s="59"/>
+      <c r="E229" s="59"/>
+      <c r="F229" s="59"/>
+      <c r="G229" s="59"/>
+      <c r="H229" s="59"/>
+      <c r="I229" s="59"/>
+      <c r="J229" s="59"/>
+      <c r="K229" s="59"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A230" s="60" t="s">
+        <v>217</v>
+      </c>
+      <c r="B230" s="61"/>
+      <c r="C230" s="61"/>
+      <c r="D230" s="61"/>
+      <c r="E230" s="61"/>
+      <c r="F230" s="61"/>
+      <c r="G230" s="61"/>
+      <c r="H230" s="61"/>
+      <c r="I230" s="61"/>
+      <c r="J230" s="61"/>
+      <c r="K230" s="62"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K231" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A232" s="39">
+        <v>1</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D232" s="5">
+        <v>20</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I232" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J232" s="55"/>
+      <c r="K232" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="40">
+        <v>2</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D233" s="7">
+        <v>20</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H233" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I233" s="57"/>
+      <c r="J233" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K233" s="9"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A234" s="40">
+        <v>3</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C234" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D220" s="7">
-        <v>45</v>
-      </c>
-      <c r="E220" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F220" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G220" s="7"/>
-      <c r="H220" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I220" s="35"/>
-      <c r="J220" s="49"/>
-      <c r="K220" s="9"/>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="40">
-        <v>11</v>
-      </c>
-      <c r="B221" s="7" t="s">
+      <c r="D234" s="7">
+        <v>50</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F234" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G234" s="7"/>
+      <c r="H234" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I234" s="57"/>
+      <c r="J234" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K234" s="9"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A235" s="40">
+        <v>4</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D235" s="7">
+        <v>1</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F235" s="7">
+        <v>0</v>
+      </c>
+      <c r="G235" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H235" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I235" s="57"/>
+      <c r="J235" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K235" s="9"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A236" s="40">
+        <v>5</v>
+      </c>
+      <c r="B236" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C236" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D221" s="7"/>
-      <c r="E221" s="12" t="s">
+      <c r="D236" s="7"/>
+      <c r="E236" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F221" s="12" t="s">
+      <c r="F236" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G221" s="7"/>
-      <c r="H221" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I221" s="35"/>
-      <c r="J221" s="49"/>
-      <c r="K221" s="9" t="s">
+      <c r="G236" s="7"/>
+      <c r="H236" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I236" s="57"/>
+      <c r="J236" s="57"/>
+      <c r="K236" s="9" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="41">
-        <v>12</v>
-      </c>
-      <c r="B222" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D222" s="13"/>
-      <c r="E222" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F222" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" s="13"/>
-      <c r="H222" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I222" s="34"/>
-      <c r="J222" s="48"/>
-      <c r="K222" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="57"/>
-      <c r="B223" s="57"/>
-      <c r="C223" s="57"/>
-      <c r="D223" s="57"/>
-      <c r="E223" s="57"/>
-      <c r="F223" s="57"/>
-      <c r="G223" s="57"/>
-      <c r="H223" s="57"/>
-      <c r="I223" s="57"/>
-      <c r="J223" s="57"/>
-      <c r="K223" s="57"/>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="58"/>
-      <c r="B224" s="58"/>
-      <c r="C224" s="58"/>
-      <c r="D224" s="58"/>
-      <c r="E224" s="58"/>
-      <c r="F224" s="58"/>
-      <c r="G224" s="58"/>
-      <c r="H224" s="58"/>
-      <c r="I224" s="58"/>
-      <c r="J224" s="58"/>
-      <c r="K224" s="58"/>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="B225" s="55"/>
-      <c r="C225" s="55"/>
-      <c r="D225" s="55"/>
-      <c r="E225" s="55"/>
-      <c r="F225" s="55"/>
-      <c r="G225" s="55"/>
-      <c r="H225" s="55"/>
-      <c r="I225" s="55"/>
-      <c r="J225" s="55"/>
-      <c r="K225" s="56"/>
-    </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B226" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C226" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D226" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E226" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F226" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G226" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H226" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I226" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J226" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K226" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="39">
-        <v>1</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C227" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D227" s="5">
-        <v>20</v>
-      </c>
-      <c r="E227" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F227" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G227" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H227" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I227" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J227" s="50"/>
-      <c r="K227" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="40">
-        <v>2</v>
-      </c>
-      <c r="B228" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C228" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D228" s="7"/>
-      <c r="E228" s="7"/>
-      <c r="F228" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G228" s="7"/>
-      <c r="H228" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I228" s="52"/>
-      <c r="J228" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K228" s="9"/>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="40">
-        <v>3</v>
-      </c>
-      <c r="B229" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C229" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D229" s="7"/>
-      <c r="E229" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F229" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G229" s="7"/>
-      <c r="H229" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I229" s="52"/>
-      <c r="J229" s="52"/>
-      <c r="K229" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="40">
-        <v>4</v>
-      </c>
-      <c r="B230" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C230" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D230" s="7"/>
-      <c r="E230" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F230" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" s="7"/>
-      <c r="H230" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I230" s="52"/>
-      <c r="J230" s="52"/>
-      <c r="K230" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="41">
-        <v>5</v>
-      </c>
-      <c r="B231" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C231" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D231" s="13">
-        <v>1</v>
-      </c>
-      <c r="E231" s="13">
-        <v>0</v>
-      </c>
-      <c r="F231" s="13">
-        <v>0</v>
-      </c>
-      <c r="G231" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H231" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I231" s="51"/>
-      <c r="J231" s="51"/>
-      <c r="K231" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="57"/>
-      <c r="B232" s="57"/>
-      <c r="C232" s="57"/>
-      <c r="D232" s="57"/>
-      <c r="E232" s="57"/>
-      <c r="F232" s="57"/>
-      <c r="G232" s="57"/>
-      <c r="H232" s="57"/>
-      <c r="I232" s="57"/>
-      <c r="J232" s="57"/>
-      <c r="K232" s="57"/>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="58"/>
-      <c r="B233" s="58"/>
-      <c r="C233" s="58"/>
-      <c r="D233" s="58"/>
-      <c r="E233" s="58"/>
-      <c r="F233" s="58"/>
-      <c r="G233" s="58"/>
-      <c r="H233" s="58"/>
-      <c r="I233" s="58"/>
-      <c r="J233" s="58"/>
-      <c r="K233" s="58"/>
-    </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="B234" s="55"/>
-      <c r="C234" s="55"/>
-      <c r="D234" s="55"/>
-      <c r="E234" s="55"/>
-      <c r="F234" s="55"/>
-      <c r="G234" s="55"/>
-      <c r="H234" s="55"/>
-      <c r="I234" s="55"/>
-      <c r="J234" s="55"/>
-      <c r="K234" s="56"/>
-    </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B235" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C235" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D235" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E235" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F235" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H235" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I235" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J235" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K235" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="39">
-        <v>1</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D236" s="5">
-        <v>20</v>
-      </c>
-      <c r="E236" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F236" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G236" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H236" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I236" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J236" s="50"/>
-      <c r="K236" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
+        <v>6</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D237" s="7"/>
+      <c r="E237" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F237" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G237" s="7"/>
+      <c r="H237" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I237" s="57"/>
+      <c r="J237" s="57"/>
+      <c r="K237" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="41">
+        <v>7</v>
+      </c>
+      <c r="B238" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C238" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D238" s="13">
+        <v>1</v>
+      </c>
+      <c r="E238" s="13">
+        <v>0</v>
+      </c>
+      <c r="F238" s="13">
+        <v>0</v>
+      </c>
+      <c r="G238" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H238" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I238" s="56"/>
+      <c r="J238" s="56"/>
+      <c r="K238" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="58"/>
+      <c r="B239" s="58"/>
+      <c r="C239" s="58"/>
+      <c r="D239" s="58"/>
+      <c r="E239" s="58"/>
+      <c r="F239" s="58"/>
+      <c r="G239" s="58"/>
+      <c r="H239" s="58"/>
+      <c r="I239" s="58"/>
+      <c r="J239" s="58"/>
+      <c r="K239" s="58"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="59"/>
+      <c r="B240" s="59"/>
+      <c r="C240" s="59"/>
+      <c r="D240" s="59"/>
+      <c r="E240" s="59"/>
+      <c r="F240" s="59"/>
+      <c r="G240" s="59"/>
+      <c r="H240" s="59"/>
+      <c r="I240" s="59"/>
+      <c r="J240" s="59"/>
+      <c r="K240" s="59"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="B241" s="61"/>
+      <c r="C241" s="61"/>
+      <c r="D241" s="61"/>
+      <c r="E241" s="61"/>
+      <c r="F241" s="61"/>
+      <c r="G241" s="61"/>
+      <c r="H241" s="61"/>
+      <c r="I241" s="61"/>
+      <c r="J241" s="61"/>
+      <c r="K241" s="62"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C242" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B237" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C237" s="7" t="s">
+      <c r="D242" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F242" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G242" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H242" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K242" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="39">
+        <v>1</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C243" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D237" s="7">
+      <c r="D243" s="5">
         <v>20</v>
       </c>
-      <c r="E237" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F237" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G237" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H237" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="I237" s="52"/>
-      <c r="J237" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K237" s="9"/>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="40">
+      <c r="E243" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G243" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H243" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I243" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J243" s="55"/>
+      <c r="K243" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="40">
+        <v>2</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D244" s="7">
+        <v>20</v>
+      </c>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G244" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H244" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I244" s="57"/>
+      <c r="J244" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K244" s="9"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="40">
         <v>3</v>
       </c>
-      <c r="B238" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="C238" s="7" t="s">
+      <c r="B245" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D245" s="7">
+        <v>20</v>
+      </c>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G245" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H245" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I245" s="57"/>
+      <c r="J245" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K245" s="9"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" s="40">
+        <v>4</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D246" s="7">
+        <v>10</v>
+      </c>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G246" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H246" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I246" s="57"/>
+      <c r="J246" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K246" s="9"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="40">
+        <v>5</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D247" s="7"/>
+      <c r="E247" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F247" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G247" s="7"/>
+      <c r="H247" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I247" s="57"/>
+      <c r="J247" s="57"/>
+      <c r="K247" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" s="40">
+        <v>6</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D248" s="7"/>
+      <c r="E248" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F248" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G248" s="7"/>
+      <c r="H248" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I248" s="57"/>
+      <c r="J248" s="57"/>
+      <c r="K248" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="41">
+        <v>7</v>
+      </c>
+      <c r="B249" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C249" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D249" s="13">
+        <v>1</v>
+      </c>
+      <c r="E249" s="13">
+        <v>0</v>
+      </c>
+      <c r="F249" s="13">
+        <v>0</v>
+      </c>
+      <c r="G249" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H249" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I249" s="56"/>
+      <c r="J249" s="56"/>
+      <c r="K249" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="58"/>
+      <c r="B250" s="58"/>
+      <c r="C250" s="58"/>
+      <c r="D250" s="58"/>
+      <c r="E250" s="58"/>
+      <c r="F250" s="58"/>
+      <c r="G250" s="58"/>
+      <c r="H250" s="58"/>
+      <c r="I250" s="58"/>
+      <c r="J250" s="58"/>
+      <c r="K250" s="58"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="59"/>
+      <c r="B251" s="59"/>
+      <c r="C251" s="59"/>
+      <c r="D251" s="59"/>
+      <c r="E251" s="59"/>
+      <c r="F251" s="59"/>
+      <c r="G251" s="59"/>
+      <c r="H251" s="59"/>
+      <c r="I251" s="59"/>
+      <c r="J251" s="59"/>
+      <c r="K251" s="59"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="B252" s="61"/>
+      <c r="C252" s="61"/>
+      <c r="D252" s="61"/>
+      <c r="E252" s="61"/>
+      <c r="F252" s="61"/>
+      <c r="G252" s="61"/>
+      <c r="H252" s="61"/>
+      <c r="I252" s="61"/>
+      <c r="J252" s="61"/>
+      <c r="K252" s="62"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F253" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G253" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H253" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K253" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" s="39">
+        <v>1</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D254" s="5">
+        <v>20</v>
+      </c>
+      <c r="E254" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I254" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J254" s="47"/>
+      <c r="K254" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" s="40">
+        <v>2</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D255" s="7">
+        <v>20</v>
+      </c>
+      <c r="E255" s="7"/>
+      <c r="F255" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G255" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H255" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I255" s="29"/>
+      <c r="J255" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K255" s="9"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" s="40">
+        <v>3</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C256" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D238" s="7">
+      <c r="D256" s="7">
         <v>50</v>
       </c>
-      <c r="E238" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F238" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I238" s="52"/>
-      <c r="J238" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K238" s="9"/>
-    </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="40">
+      <c r="E256" s="7"/>
+      <c r="F256" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G256" s="7"/>
+      <c r="H256" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I256" s="29"/>
+      <c r="J256" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K256" s="9"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" s="40">
         <v>4</v>
       </c>
-      <c r="B239" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C239" s="7" t="s">
+      <c r="B257" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D257" s="7"/>
+      <c r="E257" s="7"/>
+      <c r="F257" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G257" s="7"/>
+      <c r="H257" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I257" s="30"/>
+      <c r="J257" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K257" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" s="40">
+        <v>5</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D258" s="7">
+        <v>100</v>
+      </c>
+      <c r="E258" s="10"/>
+      <c r="F258" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G258" s="7"/>
+      <c r="H258" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I258" s="46"/>
+      <c r="J258" s="49"/>
+      <c r="K258" s="9"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="40">
+        <v>6</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D259" s="7"/>
+      <c r="E259" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F259" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G259" s="7"/>
+      <c r="H259" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I259" s="29"/>
+      <c r="J259" s="49"/>
+      <c r="K259" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" s="40">
+        <v>7</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D260" s="7"/>
+      <c r="E260" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F260" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G260" s="7"/>
+      <c r="H260" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I260" s="29"/>
+      <c r="J260" s="49"/>
+      <c r="K260" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="41">
+        <v>8</v>
+      </c>
+      <c r="B261" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C261" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D239" s="7">
-        <v>1</v>
-      </c>
-      <c r="E239" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F239" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G239" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H239" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I239" s="52"/>
-      <c r="J239" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K239" s="9"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="40">
+      <c r="D261" s="13">
+        <v>1</v>
+      </c>
+      <c r="E261" s="13">
+        <v>0</v>
+      </c>
+      <c r="F261" s="13">
+        <v>0</v>
+      </c>
+      <c r="G261" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H261" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I261" s="28"/>
+      <c r="J261" s="48"/>
+      <c r="K261" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="58"/>
+      <c r="B262" s="58"/>
+      <c r="C262" s="58"/>
+      <c r="D262" s="58"/>
+      <c r="E262" s="58"/>
+      <c r="F262" s="58"/>
+      <c r="G262" s="58"/>
+      <c r="H262" s="58"/>
+      <c r="I262" s="58"/>
+      <c r="J262" s="58"/>
+      <c r="K262" s="58"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" s="59"/>
+      <c r="B263" s="59"/>
+      <c r="C263" s="59"/>
+      <c r="D263" s="59"/>
+      <c r="E263" s="59"/>
+      <c r="F263" s="59"/>
+      <c r="G263" s="59"/>
+      <c r="H263" s="59"/>
+      <c r="I263" s="59"/>
+      <c r="J263" s="59"/>
+      <c r="K263" s="59"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="B264" s="61"/>
+      <c r="C264" s="61"/>
+      <c r="D264" s="61"/>
+      <c r="E264" s="61"/>
+      <c r="F264" s="61"/>
+      <c r="G264" s="61"/>
+      <c r="H264" s="61"/>
+      <c r="I264" s="61"/>
+      <c r="J264" s="61"/>
+      <c r="K264" s="62"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B265" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C265" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D265" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B240" s="7" t="s">
+      <c r="F265" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G265" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H265" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I265" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J265" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K265" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" s="39">
+        <v>1</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D266" s="5">
+        <v>20</v>
+      </c>
+      <c r="E266" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G266" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H266" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I266" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J266" s="50"/>
+      <c r="K266" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" s="40">
+        <v>2</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D267" s="7">
+        <v>20</v>
+      </c>
+      <c r="E267" s="7"/>
+      <c r="F267" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G267" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H267" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I267" s="7"/>
+      <c r="J267" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K267" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="40">
+        <v>3</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268" s="7">
+        <v>1</v>
+      </c>
+      <c r="E268" s="7"/>
+      <c r="F268" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G268" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H268" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I268" s="7"/>
+      <c r="J268" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K268" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="40">
+        <v>4</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D269" s="7"/>
+      <c r="E269" s="7"/>
+      <c r="F269" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G269" s="7"/>
+      <c r="H269" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I269" s="7"/>
+      <c r="J269" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K269" s="9"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="40">
+        <v>5</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D270" s="7">
+        <v>1</v>
+      </c>
+      <c r="E270" s="7"/>
+      <c r="F270" s="7">
+        <v>0</v>
+      </c>
+      <c r="G270" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H270" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I270" s="7"/>
+      <c r="J270" s="52"/>
+      <c r="K270" s="9" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="40">
+        <v>6</v>
+      </c>
+      <c r="B271" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C271" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D240" s="7"/>
-      <c r="E240" s="12" t="s">
+      <c r="D271" s="7"/>
+      <c r="E271" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F240" s="12" t="s">
+      <c r="F271" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G240" s="7"/>
-      <c r="H240" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I240" s="52"/>
-      <c r="J240" s="52"/>
-      <c r="K240" s="9" t="s">
+      <c r="G271" s="7"/>
+      <c r="H271" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I271" s="52"/>
+      <c r="J271" s="52"/>
+      <c r="K271" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="40">
-        <v>6</v>
-      </c>
-      <c r="B241" s="7" t="s">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" s="40">
+        <v>7</v>
+      </c>
+      <c r="B272" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C272" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D241" s="7"/>
-      <c r="E241" s="10" t="s">
+      <c r="D272" s="7"/>
+      <c r="E272" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F241" s="10" t="s">
+      <c r="F272" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G241" s="7"/>
-      <c r="H241" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I241" s="52"/>
-      <c r="J241" s="52"/>
-      <c r="K241" s="9" t="s">
+      <c r="G272" s="7"/>
+      <c r="H272" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I272" s="52"/>
+      <c r="J272" s="52"/>
+      <c r="K272" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="41">
-        <v>7</v>
-      </c>
-      <c r="B242" s="13" t="s">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" s="41">
+        <v>8</v>
+      </c>
+      <c r="B273" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C242" s="13" t="s">
+      <c r="C273" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D242" s="13">
-        <v>1</v>
-      </c>
-      <c r="E242" s="13">
-        <v>0</v>
-      </c>
-      <c r="F242" s="13">
-        <v>0</v>
-      </c>
-      <c r="G242" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H242" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I242" s="51"/>
-      <c r="J242" s="51"/>
-      <c r="K242" s="14" t="s">
+      <c r="D273" s="13">
+        <v>1</v>
+      </c>
+      <c r="E273" s="13">
+        <v>0</v>
+      </c>
+      <c r="F273" s="13">
+        <v>0</v>
+      </c>
+      <c r="G273" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H273" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I273" s="51"/>
+      <c r="J273" s="51"/>
+      <c r="K273" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="57"/>
-      <c r="B243" s="57"/>
-      <c r="C243" s="57"/>
-      <c r="D243" s="57"/>
-      <c r="E243" s="57"/>
-      <c r="F243" s="57"/>
-      <c r="G243" s="57"/>
-      <c r="H243" s="57"/>
-      <c r="I243" s="57"/>
-      <c r="J243" s="57"/>
-      <c r="K243" s="57"/>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="58"/>
-      <c r="B244" s="58"/>
-      <c r="C244" s="58"/>
-      <c r="D244" s="58"/>
-      <c r="E244" s="58"/>
-      <c r="F244" s="58"/>
-      <c r="G244" s="58"/>
-      <c r="H244" s="58"/>
-      <c r="I244" s="58"/>
-      <c r="J244" s="58"/>
-      <c r="K244" s="58"/>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="B245" s="55"/>
-      <c r="C245" s="55"/>
-      <c r="D245" s="55"/>
-      <c r="E245" s="55"/>
-      <c r="F245" s="55"/>
-      <c r="G245" s="55"/>
-      <c r="H245" s="55"/>
-      <c r="I245" s="55"/>
-      <c r="J245" s="55"/>
-      <c r="K245" s="56"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F246" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G246" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H246" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I246" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J246" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K246" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="43">
+    <mergeCell ref="A241:K241"/>
+    <mergeCell ref="A218:K219"/>
+    <mergeCell ref="A220:K220"/>
+    <mergeCell ref="A228:K229"/>
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="A239:K240"/>
+    <mergeCell ref="A196:K197"/>
+    <mergeCell ref="A198:K198"/>
+    <mergeCell ref="A207:K208"/>
+    <mergeCell ref="A209:K209"/>
+    <mergeCell ref="A188:K188"/>
+    <mergeCell ref="A148:K148"/>
+    <mergeCell ref="A146:K147"/>
+    <mergeCell ref="A160:K160"/>
+    <mergeCell ref="A158:K159"/>
+    <mergeCell ref="A186:K187"/>
+    <mergeCell ref="A172:K172"/>
+    <mergeCell ref="A250:K251"/>
+    <mergeCell ref="A252:K252"/>
+    <mergeCell ref="A106:K107"/>
+    <mergeCell ref="A108:K108"/>
+    <mergeCell ref="A123:K124"/>
+    <mergeCell ref="A125:K125"/>
+    <mergeCell ref="A170:K171"/>
+    <mergeCell ref="A262:K263"/>
+    <mergeCell ref="A264:K264"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A135:K135"/>
+    <mergeCell ref="A133:K134"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A89:K90"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A74:K75"/>
     <mergeCell ref="A22:K23"/>
     <mergeCell ref="A62:K62"/>
     <mergeCell ref="A60:K61"/>
     <mergeCell ref="A49:K49"/>
     <mergeCell ref="A47:K48"/>
     <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A106:K107"/>
-    <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A89:K90"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A74:K75"/>
-    <mergeCell ref="A121:K121"/>
-    <mergeCell ref="A119:K120"/>
-    <mergeCell ref="A108:K108"/>
-    <mergeCell ref="A128:K128"/>
-    <mergeCell ref="A126:K127"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A134:K134"/>
-    <mergeCell ref="A132:K133"/>
-    <mergeCell ref="A146:K146"/>
-    <mergeCell ref="A144:K145"/>
-    <mergeCell ref="A243:K244"/>
-    <mergeCell ref="A209:K209"/>
-    <mergeCell ref="A156:K157"/>
-    <mergeCell ref="A158:K158"/>
-    <mergeCell ref="A180:K181"/>
-    <mergeCell ref="A182:K182"/>
-    <mergeCell ref="A197:K198"/>
-    <mergeCell ref="A199:K199"/>
-    <mergeCell ref="A207:K208"/>
-    <mergeCell ref="A168:K169"/>
-    <mergeCell ref="A170:K170"/>
-    <mergeCell ref="A245:K245"/>
-    <mergeCell ref="A223:K224"/>
-    <mergeCell ref="A225:K225"/>
-    <mergeCell ref="A234:K234"/>
-    <mergeCell ref="A232:K233"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7715,10 +8518,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A67" sqref="A67:K80"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A103" sqref="A103:K115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7735,45 +8538,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="57"/>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
+      <c r="A1" s="58"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
+      <c r="A2" s="59"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -7958,45 +8761,45 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="62"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -8268,45 +9071,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="60" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="62"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -8553,45 +9356,45 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
+      <c r="A33" s="58"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="58"/>
+      <c r="K33" s="58"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="58"/>
-      <c r="B34" s="58"/>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="56"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="62"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -8865,45 +9668,45 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
+      <c r="A45" s="58"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="58"/>
+      <c r="G45" s="58"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="58"/>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="58"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
-      <c r="H46" s="58"/>
-      <c r="I46" s="58"/>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59"/>
+      <c r="J46" s="59"/>
+      <c r="K46" s="59"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="60" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="56"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="61"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="62"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -9146,45 +9949,45 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
-      <c r="J56" s="57"/>
-      <c r="K56" s="57"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="58"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="58"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
+      <c r="J56" s="58"/>
+      <c r="K56" s="58"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="58"/>
-      <c r="J57" s="58"/>
-      <c r="K57" s="58"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="59"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="59"/>
+      <c r="J57" s="59"/>
+      <c r="K57" s="59"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="54" t="s">
+      <c r="A58" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
-      <c r="D58" s="55"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="55"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="56"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
+      <c r="H58" s="61"/>
+      <c r="I58" s="61"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="62"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -9427,45 +10230,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="57"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="57"/>
-      <c r="G67" s="57"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="57"/>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
+      <c r="A67" s="58"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="58"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="58"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
+      <c r="K67" s="58"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
-      <c r="K68" s="58"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
+      <c r="J68" s="59"/>
+      <c r="K68" s="59"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="55"/>
-      <c r="C69" s="55"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="G69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="56"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="61"/>
+      <c r="D69" s="61"/>
+      <c r="E69" s="61"/>
+      <c r="F69" s="61"/>
+      <c r="G69" s="61"/>
+      <c r="H69" s="61"/>
+      <c r="I69" s="61"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="62"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -9788,8 +10591,827 @@
         <v>42</v>
       </c>
     </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82" s="58"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="58"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="58"/>
+      <c r="J82" s="58"/>
+      <c r="K82" s="58"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="59"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="59"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="59"/>
+      <c r="J83" s="59"/>
+      <c r="K83" s="59"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="B84" s="61"/>
+      <c r="C84" s="61"/>
+      <c r="D84" s="61"/>
+      <c r="E84" s="61"/>
+      <c r="F84" s="61"/>
+      <c r="G84" s="61"/>
+      <c r="H84" s="61"/>
+      <c r="I84" s="61"/>
+      <c r="J84" s="61"/>
+      <c r="K84" s="62"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H85" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J85" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K85" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="39">
+        <v>1</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D86" s="5">
+        <v>20</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I86" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J86" s="50"/>
+      <c r="K86" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="40">
+        <v>2</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K87" s="9"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="40">
+        <v>3</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="7"/>
+      <c r="E88" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I88" s="52"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="40">
+        <v>4</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="7"/>
+      <c r="E89" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89" s="7"/>
+      <c r="H89" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I89" s="52"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90" s="41">
+        <v>5</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="13">
+        <v>1</v>
+      </c>
+      <c r="E90" s="13">
+        <v>0</v>
+      </c>
+      <c r="F90" s="13">
+        <v>0</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="58"/>
+      <c r="B91" s="58"/>
+      <c r="C91" s="58"/>
+      <c r="D91" s="58"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="58"/>
+      <c r="J91" s="58"/>
+      <c r="K91" s="58"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="59"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="59"/>
+      <c r="J92" s="59"/>
+      <c r="K92" s="59"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="60" t="s">
+        <v>194</v>
+      </c>
+      <c r="B93" s="61"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="61"/>
+      <c r="E93" s="61"/>
+      <c r="F93" s="61"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="61"/>
+      <c r="I93" s="61"/>
+      <c r="J93" s="61"/>
+      <c r="K93" s="62"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K94" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="39">
+        <v>1</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D95" s="5">
+        <v>20</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I95" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J95" s="50"/>
+      <c r="K95" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="40">
+        <v>2</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="7">
+        <v>20</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H96" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K96" s="9"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="40">
+        <v>3</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97" s="7">
+        <v>50</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I97" s="52"/>
+      <c r="J97" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K97" s="9"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" s="40">
+        <v>4</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D98" s="7">
+        <v>1</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H98" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K98" s="9"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="40">
+        <v>5</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="7"/>
+      <c r="E99" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I99" s="52"/>
+      <c r="J99" s="52"/>
+      <c r="K99" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="40">
+        <v>6</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="7"/>
+      <c r="E100" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="7"/>
+      <c r="H100" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I100" s="52"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="41">
+        <v>7</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D101" s="13">
+        <v>1</v>
+      </c>
+      <c r="E101" s="13">
+        <v>0</v>
+      </c>
+      <c r="F101" s="13">
+        <v>0</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="58"/>
+      <c r="B103" s="58"/>
+      <c r="C103" s="58"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="58"/>
+      <c r="F103" s="58"/>
+      <c r="G103" s="58"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="58"/>
+      <c r="J103" s="58"/>
+      <c r="K103" s="58"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="59"/>
+      <c r="B104" s="59"/>
+      <c r="C104" s="59"/>
+      <c r="D104" s="59"/>
+      <c r="E104" s="59"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="59"/>
+      <c r="K104" s="59"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" s="61"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="61"/>
+      <c r="H105" s="61"/>
+      <c r="I105" s="61"/>
+      <c r="J105" s="61"/>
+      <c r="K105" s="62"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D106" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F106" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H106" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I106" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K106" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="39">
+        <v>1</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="5">
+        <v>11</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I107" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J107" s="47"/>
+      <c r="K107" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="40">
+        <v>2</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108" s="7">
+        <v>255</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F108" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="7"/>
+      <c r="H108" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I108" s="8"/>
+      <c r="J108" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K108" s="9"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="41">
+        <v>3</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="13">
+        <v>11</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I109" s="16"/>
+      <c r="J109" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K109" s="14"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110" s="58"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="58"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="58"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="58"/>
+      <c r="J110" s="58"/>
+      <c r="K110" s="58"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="59"/>
+      <c r="B111" s="59"/>
+      <c r="C111" s="59"/>
+      <c r="D111" s="59"/>
+      <c r="E111" s="59"/>
+      <c r="F111" s="59"/>
+      <c r="G111" s="59"/>
+      <c r="H111" s="59"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="59"/>
+      <c r="K111" s="59"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
+      <c r="E112" s="61"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="61"/>
+      <c r="H112" s="61"/>
+      <c r="I112" s="61"/>
+      <c r="J112" s="61"/>
+      <c r="K112" s="62"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D113" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F113" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I113" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J113" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K113" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114" s="39">
+        <v>1</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="5">
+        <v>11</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I114" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J114" s="47"/>
+      <c r="K114" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="41">
+        <v>2</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="13">
+        <v>255</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="13"/>
+      <c r="H115" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I115" s="16"/>
+      <c r="J115" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="K115" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="22">
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="A110:K111"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A103:K104"/>
+    <mergeCell ref="A82:K83"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A91:K92"/>
     <mergeCell ref="A67:K68"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="A12:K12"/>
@@ -9797,12 +11419,12 @@
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A10:K11"/>
     <mergeCell ref="A56:K57"/>
+    <mergeCell ref="A22:K23"/>
     <mergeCell ref="A58:K58"/>
     <mergeCell ref="A45:K46"/>
     <mergeCell ref="A47:K47"/>
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="A33:K34"/>
-    <mergeCell ref="A22:K23"/>
     <mergeCell ref="A35:K35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="248">
   <si>
     <t>No</t>
   </si>
@@ -384,9 +384,6 @@
     <t>pro_pf_profession</t>
   </si>
   <si>
-    <t>pf_parent</t>
-  </si>
-  <si>
     <t>pf_name</t>
   </si>
   <si>
@@ -399,9 +396,6 @@
     <t>pf_intro</t>
   </si>
   <si>
-    <t>HTML</t>
-  </si>
-  <si>
     <t>pro_cp_coupons</t>
   </si>
   <si>
@@ -694,6 +688,78 @@
   </si>
   <si>
     <t>1 - Male, 2 - Female</t>
+  </si>
+  <si>
+    <t>pro_l2ans_level2_answers</t>
+  </si>
+  <si>
+    <t>l2ac_apptitude_type</t>
+  </si>
+  <si>
+    <t>l2ac_personality_type</t>
+  </si>
+  <si>
+    <t>l2ac_mi_type</t>
+  </si>
+  <si>
+    <t>l2ac_interest</t>
+  </si>
+  <si>
+    <t>Reference Apptitude types</t>
+  </si>
+  <si>
+    <t>Reference Personality types</t>
+  </si>
+  <si>
+    <t>Reference Interest types</t>
+  </si>
+  <si>
+    <t>pf_basket</t>
+  </si>
+  <si>
+    <t>Basket Reference ID</t>
+  </si>
+  <si>
+    <t>HTML (Editor)</t>
+  </si>
+  <si>
+    <t>pro_b_baskets</t>
+  </si>
+  <si>
+    <t>b_name</t>
+  </si>
+  <si>
+    <t>b_intro</t>
+  </si>
+  <si>
+    <t>b_logo</t>
+  </si>
+  <si>
+    <t>pro_apt_apptitude_types</t>
+  </si>
+  <si>
+    <t>apt_name</t>
+  </si>
+  <si>
+    <t>pro_pt_personality_types</t>
+  </si>
+  <si>
+    <t>pt_name</t>
+  </si>
+  <si>
+    <t>pro_mit_multiple_intelligence_types</t>
+  </si>
+  <si>
+    <t>mit_name</t>
+  </si>
+  <si>
+    <t>pro_it_interest_types</t>
+  </si>
+  <si>
+    <t>it_name</t>
+  </si>
+  <si>
+    <t>Reference Multiple Intelligence types</t>
   </si>
 </sst>
 </file>
@@ -922,7 +988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1091,6 +1157,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1430,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K274"/>
+  <dimension ref="A1:K325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A246" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A257" sqref="A257:K257"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1453,49 +1528,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="71"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -1570,7 +1645,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>14</v>
@@ -1597,7 +1672,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>14</v>
@@ -1701,45 +1776,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
+      <c r="A11" s="67"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="59" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
+      <c r="A13" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
@@ -1814,7 +1889,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>14</v>
@@ -1841,7 +1916,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>14</v>
@@ -1866,7 +1941,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>9</v>
@@ -1972,45 +2047,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
@@ -2226,7 +2301,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>15</v>
@@ -2249,7 +2324,7 @@
         <v>12</v>
       </c>
       <c r="K32" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2257,7 +2332,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>14</v>
@@ -2276,7 +2351,7 @@
       <c r="I33" s="42"/>
       <c r="J33" s="49"/>
       <c r="K33" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2284,7 +2359,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>14</v>
@@ -2303,7 +2378,7 @@
       <c r="I34" s="42"/>
       <c r="J34" s="49"/>
       <c r="K34" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2390,7 +2465,7 @@
         <v>13</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>14</v>
@@ -2496,7 +2571,7 @@
         <v>17</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>9</v>
@@ -2523,7 +2598,7 @@
         <v>18</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>15</v>
@@ -2544,7 +2619,7 @@
       <c r="I43" s="42"/>
       <c r="J43" s="49"/>
       <c r="K43" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2658,45 +2733,45 @@
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="62"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="63"/>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
+      <c r="A49" s="66"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="59" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="60"/>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
-      <c r="J50" s="60"/>
-      <c r="K50" s="61"/>
+      <c r="A50" s="62" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="64"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
@@ -2771,7 +2846,7 @@
         <v>2</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>116</v>
@@ -2802,7 +2877,7 @@
         <v>3</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>9</v>
@@ -2831,7 +2906,7 @@
         <v>4</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>17</v>
@@ -2854,7 +2929,7 @@
         <v>5</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>17</v>
@@ -2877,7 +2952,7 @@
         <v>6</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>15</v>
@@ -2898,7 +2973,7 @@
       <c r="I57" s="37"/>
       <c r="J57" s="49"/>
       <c r="K57" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2985,45 +3060,45 @@
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="62"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="62"/>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="62"/>
-      <c r="G61" s="62"/>
-      <c r="H61" s="62"/>
-      <c r="I61" s="62"/>
-      <c r="J61" s="62"/>
-      <c r="K61" s="62"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="63"/>
-      <c r="F62" s="63"/>
-      <c r="G62" s="63"/>
-      <c r="H62" s="63"/>
-      <c r="I62" s="63"/>
-      <c r="J62" s="63"/>
-      <c r="K62" s="63"/>
+      <c r="A62" s="66"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="59" t="s">
+      <c r="A63" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="60"/>
-      <c r="F63" s="60"/>
-      <c r="G63" s="60"/>
-      <c r="H63" s="60"/>
-      <c r="I63" s="60"/>
-      <c r="J63" s="60"/>
-      <c r="K63" s="61"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="63"/>
+      <c r="G63" s="63"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="64"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
@@ -3247,7 +3322,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>14</v>
@@ -3351,45 +3426,45 @@
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="62"/>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="62"/>
-      <c r="F75" s="62"/>
-      <c r="G75" s="62"/>
-      <c r="H75" s="62"/>
-      <c r="I75" s="62"/>
-      <c r="J75" s="62"/>
-      <c r="K75" s="62"/>
+      <c r="A75" s="65"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="63"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="63"/>
-      <c r="D76" s="63"/>
-      <c r="E76" s="63"/>
-      <c r="F76" s="63"/>
-      <c r="G76" s="63"/>
-      <c r="H76" s="63"/>
-      <c r="I76" s="63"/>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
+      <c r="A76" s="66"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
+      <c r="A77" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="60"/>
-      <c r="F77" s="60"/>
-      <c r="G77" s="60"/>
-      <c r="H77" s="60"/>
-      <c r="I77" s="60"/>
-      <c r="J77" s="60"/>
-      <c r="K77" s="61"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="63"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="63"/>
+      <c r="F77" s="63"/>
+      <c r="G77" s="63"/>
+      <c r="H77" s="63"/>
+      <c r="I77" s="63"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="64"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="20" t="s">
@@ -3576,7 +3651,7 @@
         <v>6</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C84" s="7" t="s">
         <v>14</v>
@@ -3599,7 +3674,7 @@
         <v>7</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C85" s="7" t="s">
         <v>15</v>
@@ -3632,7 +3707,7 @@
         <v>8</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C86" s="7" t="s">
         <v>14</v>
@@ -3736,45 +3811,45 @@
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="62"/>
-      <c r="B90" s="62"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="62"/>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62"/>
-      <c r="G90" s="62"/>
-      <c r="H90" s="62"/>
-      <c r="I90" s="62"/>
-      <c r="J90" s="62"/>
-      <c r="K90" s="62"/>
+      <c r="A90" s="65"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="63"/>
-      <c r="B91" s="63"/>
-      <c r="C91" s="63"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63"/>
-      <c r="G91" s="63"/>
-      <c r="H91" s="63"/>
-      <c r="I91" s="63"/>
-      <c r="J91" s="63"/>
-      <c r="K91" s="63"/>
+      <c r="A91" s="66"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="59" t="s">
+      <c r="A92" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="60"/>
-      <c r="C92" s="60"/>
-      <c r="D92" s="60"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="60"/>
-      <c r="J92" s="60"/>
-      <c r="K92" s="61"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="63"/>
+      <c r="F92" s="63"/>
+      <c r="G92" s="63"/>
+      <c r="H92" s="63"/>
+      <c r="I92" s="63"/>
+      <c r="J92" s="63"/>
+      <c r="K92" s="64"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="20" t="s">
@@ -3965,7 +4040,7 @@
         <v>6</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C99" s="7" t="s">
         <v>14</v>
@@ -3994,7 +4069,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C100" s="7" t="s">
         <v>14</v>
@@ -4083,7 +4158,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C103" s="7" t="s">
         <v>14</v>
@@ -4187,45 +4262,45 @@
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="64"/>
-      <c r="B107" s="64"/>
-      <c r="C107" s="64"/>
-      <c r="D107" s="64"/>
-      <c r="E107" s="64"/>
-      <c r="F107" s="64"/>
-      <c r="G107" s="64"/>
-      <c r="H107" s="64"/>
-      <c r="I107" s="64"/>
-      <c r="J107" s="64"/>
-      <c r="K107" s="64"/>
+      <c r="A107" s="67"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="67"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="67"/>
+      <c r="G107" s="67"/>
+      <c r="H107" s="67"/>
+      <c r="I107" s="67"/>
+      <c r="J107" s="67"/>
+      <c r="K107" s="67"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="63"/>
-      <c r="B108" s="63"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="63"/>
-      <c r="F108" s="63"/>
-      <c r="G108" s="63"/>
-      <c r="H108" s="63"/>
-      <c r="I108" s="63"/>
-      <c r="J108" s="63"/>
-      <c r="K108" s="63"/>
+      <c r="A108" s="66"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="66"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="59" t="s">
-        <v>128</v>
-      </c>
-      <c r="B109" s="60"/>
-      <c r="C109" s="60"/>
-      <c r="D109" s="60"/>
-      <c r="E109" s="60"/>
-      <c r="F109" s="60"/>
-      <c r="G109" s="60"/>
-      <c r="H109" s="60"/>
-      <c r="I109" s="60"/>
-      <c r="J109" s="60"/>
-      <c r="K109" s="61"/>
+      <c r="A109" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="63"/>
+      <c r="C109" s="63"/>
+      <c r="D109" s="63"/>
+      <c r="E109" s="63"/>
+      <c r="F109" s="63"/>
+      <c r="G109" s="63"/>
+      <c r="H109" s="63"/>
+      <c r="I109" s="63"/>
+      <c r="J109" s="63"/>
+      <c r="K109" s="64"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
@@ -4300,7 +4375,7 @@
         <v>2</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -4327,7 +4402,7 @@
         <v>3</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C113" s="7" t="s">
         <v>14</v>
@@ -4348,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -4356,7 +4431,7 @@
         <v>4</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C114" s="7" t="s">
         <v>78</v>
@@ -4379,7 +4454,7 @@
         <v>5</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C115" s="7" t="s">
         <v>14</v>
@@ -4404,7 +4479,7 @@
         <v>6</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C116" s="7" t="s">
         <v>116</v>
@@ -4431,7 +4506,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C117" s="7" t="s">
         <v>15</v>
@@ -4458,7 +4533,7 @@
         <v>8</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C118" s="7" t="s">
         <v>9</v>
@@ -4487,7 +4562,7 @@
         <v>9</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C119" s="7" t="s">
         <v>17</v>
@@ -4512,7 +4587,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C120" s="7" t="s">
         <v>17</v>
@@ -4618,45 +4693,45 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="62"/>
-      <c r="B124" s="62"/>
-      <c r="C124" s="62"/>
-      <c r="D124" s="62"/>
-      <c r="E124" s="62"/>
-      <c r="F124" s="62"/>
-      <c r="G124" s="62"/>
-      <c r="H124" s="62"/>
-      <c r="I124" s="62"/>
-      <c r="J124" s="62"/>
-      <c r="K124" s="62"/>
+      <c r="A124" s="65"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="63"/>
-      <c r="B125" s="63"/>
-      <c r="C125" s="63"/>
-      <c r="D125" s="63"/>
-      <c r="E125" s="63"/>
-      <c r="F125" s="63"/>
-      <c r="G125" s="63"/>
-      <c r="H125" s="63"/>
-      <c r="I125" s="63"/>
-      <c r="J125" s="63"/>
-      <c r="K125" s="63"/>
+      <c r="A125" s="66"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="66"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="66"/>
+      <c r="G125" s="66"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="66"/>
+      <c r="J125" s="66"/>
+      <c r="K125" s="66"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="B126" s="60"/>
-      <c r="C126" s="60"/>
-      <c r="D126" s="60"/>
-      <c r="E126" s="60"/>
-      <c r="F126" s="60"/>
-      <c r="G126" s="60"/>
-      <c r="H126" s="60"/>
-      <c r="I126" s="60"/>
-      <c r="J126" s="60"/>
-      <c r="K126" s="61"/>
+      <c r="A126" s="62" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" s="63"/>
+      <c r="C126" s="63"/>
+      <c r="D126" s="63"/>
+      <c r="E126" s="63"/>
+      <c r="F126" s="63"/>
+      <c r="G126" s="63"/>
+      <c r="H126" s="63"/>
+      <c r="I126" s="63"/>
+      <c r="J126" s="63"/>
+      <c r="K126" s="64"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
@@ -4731,7 +4806,7 @@
         <v>2</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>116</v>
@@ -4760,7 +4835,7 @@
         <v>3</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>116</v>
@@ -4870,45 +4945,45 @@
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="62"/>
-      <c r="B134" s="62"/>
-      <c r="C134" s="62"/>
-      <c r="D134" s="62"/>
-      <c r="E134" s="62"/>
-      <c r="F134" s="62"/>
-      <c r="G134" s="62"/>
-      <c r="H134" s="62"/>
-      <c r="I134" s="62"/>
-      <c r="J134" s="62"/>
-      <c r="K134" s="62"/>
+      <c r="A134" s="65"/>
+      <c r="B134" s="65"/>
+      <c r="C134" s="65"/>
+      <c r="D134" s="65"/>
+      <c r="E134" s="65"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="65"/>
+      <c r="H134" s="65"/>
+      <c r="I134" s="65"/>
+      <c r="J134" s="65"/>
+      <c r="K134" s="65"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="63"/>
-      <c r="B135" s="63"/>
-      <c r="C135" s="63"/>
-      <c r="D135" s="63"/>
-      <c r="E135" s="63"/>
-      <c r="F135" s="63"/>
-      <c r="G135" s="63"/>
-      <c r="H135" s="63"/>
-      <c r="I135" s="63"/>
-      <c r="J135" s="63"/>
-      <c r="K135" s="63"/>
+      <c r="A135" s="66"/>
+      <c r="B135" s="66"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="66"/>
+      <c r="E135" s="66"/>
+      <c r="F135" s="66"/>
+      <c r="G135" s="66"/>
+      <c r="H135" s="66"/>
+      <c r="I135" s="66"/>
+      <c r="J135" s="66"/>
+      <c r="K135" s="66"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="59" t="s">
+      <c r="A136" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="B136" s="60"/>
-      <c r="C136" s="60"/>
-      <c r="D136" s="60"/>
-      <c r="E136" s="60"/>
-      <c r="F136" s="60"/>
-      <c r="G136" s="60"/>
-      <c r="H136" s="60"/>
-      <c r="I136" s="60"/>
-      <c r="J136" s="60"/>
-      <c r="K136" s="61"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="63"/>
+      <c r="D136" s="63"/>
+      <c r="E136" s="63"/>
+      <c r="F136" s="63"/>
+      <c r="G136" s="63"/>
+      <c r="H136" s="63"/>
+      <c r="I136" s="63"/>
+      <c r="J136" s="63"/>
+      <c r="K136" s="64"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
@@ -5191,45 +5266,45 @@
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="62"/>
-      <c r="B147" s="62"/>
-      <c r="C147" s="62"/>
-      <c r="D147" s="62"/>
-      <c r="E147" s="62"/>
-      <c r="F147" s="62"/>
-      <c r="G147" s="62"/>
-      <c r="H147" s="62"/>
-      <c r="I147" s="62"/>
-      <c r="J147" s="62"/>
-      <c r="K147" s="62"/>
+      <c r="A147" s="65"/>
+      <c r="B147" s="65"/>
+      <c r="C147" s="65"/>
+      <c r="D147" s="65"/>
+      <c r="E147" s="65"/>
+      <c r="F147" s="65"/>
+      <c r="G147" s="65"/>
+      <c r="H147" s="65"/>
+      <c r="I147" s="65"/>
+      <c r="J147" s="65"/>
+      <c r="K147" s="65"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A148" s="63"/>
-      <c r="B148" s="63"/>
-      <c r="C148" s="63"/>
-      <c r="D148" s="63"/>
-      <c r="E148" s="63"/>
-      <c r="F148" s="63"/>
-      <c r="G148" s="63"/>
-      <c r="H148" s="63"/>
-      <c r="I148" s="63"/>
-      <c r="J148" s="63"/>
-      <c r="K148" s="63"/>
+      <c r="A148" s="66"/>
+      <c r="B148" s="66"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="66"/>
+      <c r="E148" s="66"/>
+      <c r="F148" s="66"/>
+      <c r="G148" s="66"/>
+      <c r="H148" s="66"/>
+      <c r="I148" s="66"/>
+      <c r="J148" s="66"/>
+      <c r="K148" s="66"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A149" s="59" t="s">
+      <c r="A149" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="B149" s="60"/>
-      <c r="C149" s="60"/>
-      <c r="D149" s="60"/>
-      <c r="E149" s="60"/>
-      <c r="F149" s="60"/>
-      <c r="G149" s="60"/>
-      <c r="H149" s="60"/>
-      <c r="I149" s="60"/>
-      <c r="J149" s="60"/>
-      <c r="K149" s="61"/>
+      <c r="B149" s="63"/>
+      <c r="C149" s="63"/>
+      <c r="D149" s="63"/>
+      <c r="E149" s="63"/>
+      <c r="F149" s="63"/>
+      <c r="G149" s="63"/>
+      <c r="H149" s="63"/>
+      <c r="I149" s="63"/>
+      <c r="J149" s="63"/>
+      <c r="K149" s="64"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
@@ -5497,45 +5572,45 @@
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="62"/>
-      <c r="B159" s="62"/>
-      <c r="C159" s="62"/>
-      <c r="D159" s="62"/>
-      <c r="E159" s="62"/>
-      <c r="F159" s="62"/>
-      <c r="G159" s="62"/>
-      <c r="H159" s="62"/>
-      <c r="I159" s="62"/>
-      <c r="J159" s="62"/>
-      <c r="K159" s="62"/>
+      <c r="A159" s="65"/>
+      <c r="B159" s="65"/>
+      <c r="C159" s="65"/>
+      <c r="D159" s="65"/>
+      <c r="E159" s="65"/>
+      <c r="F159" s="65"/>
+      <c r="G159" s="65"/>
+      <c r="H159" s="65"/>
+      <c r="I159" s="65"/>
+      <c r="J159" s="65"/>
+      <c r="K159" s="65"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="63"/>
-      <c r="B160" s="63"/>
-      <c r="C160" s="63"/>
-      <c r="D160" s="63"/>
-      <c r="E160" s="63"/>
-      <c r="F160" s="63"/>
-      <c r="G160" s="63"/>
-      <c r="H160" s="63"/>
-      <c r="I160" s="63"/>
-      <c r="J160" s="63"/>
-      <c r="K160" s="63"/>
+      <c r="A160" s="66"/>
+      <c r="B160" s="66"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="66"/>
+      <c r="F160" s="66"/>
+      <c r="G160" s="66"/>
+      <c r="H160" s="66"/>
+      <c r="I160" s="66"/>
+      <c r="J160" s="66"/>
+      <c r="K160" s="66"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="59" t="s">
+      <c r="A161" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="B161" s="60"/>
-      <c r="C161" s="60"/>
-      <c r="D161" s="60"/>
-      <c r="E161" s="60"/>
-      <c r="F161" s="60"/>
-      <c r="G161" s="60"/>
-      <c r="H161" s="60"/>
-      <c r="I161" s="60"/>
-      <c r="J161" s="60"/>
-      <c r="K161" s="61"/>
+      <c r="B161" s="63"/>
+      <c r="C161" s="63"/>
+      <c r="D161" s="63"/>
+      <c r="E161" s="63"/>
+      <c r="F161" s="63"/>
+      <c r="G161" s="63"/>
+      <c r="H161" s="63"/>
+      <c r="I161" s="63"/>
+      <c r="J161" s="63"/>
+      <c r="K161" s="64"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
@@ -5805,45 +5880,45 @@
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A171" s="62"/>
-      <c r="B171" s="62"/>
-      <c r="C171" s="62"/>
-      <c r="D171" s="62"/>
-      <c r="E171" s="62"/>
-      <c r="F171" s="62"/>
-      <c r="G171" s="62"/>
-      <c r="H171" s="62"/>
-      <c r="I171" s="62"/>
-      <c r="J171" s="62"/>
-      <c r="K171" s="62"/>
+      <c r="A171" s="65"/>
+      <c r="B171" s="65"/>
+      <c r="C171" s="65"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="65"/>
+      <c r="F171" s="65"/>
+      <c r="G171" s="65"/>
+      <c r="H171" s="65"/>
+      <c r="I171" s="65"/>
+      <c r="J171" s="65"/>
+      <c r="K171" s="65"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A172" s="63"/>
-      <c r="B172" s="63"/>
-      <c r="C172" s="63"/>
-      <c r="D172" s="63"/>
-      <c r="E172" s="63"/>
-      <c r="F172" s="63"/>
-      <c r="G172" s="63"/>
-      <c r="H172" s="63"/>
-      <c r="I172" s="63"/>
-      <c r="J172" s="63"/>
-      <c r="K172" s="63"/>
+      <c r="A172" s="66"/>
+      <c r="B172" s="66"/>
+      <c r="C172" s="66"/>
+      <c r="D172" s="66"/>
+      <c r="E172" s="66"/>
+      <c r="F172" s="66"/>
+      <c r="G172" s="66"/>
+      <c r="H172" s="66"/>
+      <c r="I172" s="66"/>
+      <c r="J172" s="66"/>
+      <c r="K172" s="66"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="B173" s="60"/>
-      <c r="C173" s="60"/>
-      <c r="D173" s="60"/>
-      <c r="E173" s="60"/>
-      <c r="F173" s="60"/>
-      <c r="G173" s="60"/>
-      <c r="H173" s="60"/>
-      <c r="I173" s="60"/>
-      <c r="J173" s="60"/>
-      <c r="K173" s="61"/>
+      <c r="A173" s="62" t="s">
+        <v>178</v>
+      </c>
+      <c r="B173" s="63"/>
+      <c r="C173" s="63"/>
+      <c r="D173" s="63"/>
+      <c r="E173" s="63"/>
+      <c r="F173" s="63"/>
+      <c r="G173" s="63"/>
+      <c r="H173" s="63"/>
+      <c r="I173" s="63"/>
+      <c r="J173" s="63"/>
+      <c r="K173" s="64"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
@@ -5918,7 +5993,7 @@
         <v>2</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C176" s="7" t="s">
         <v>116</v>
@@ -5943,7 +6018,7 @@
         <v>12</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -5951,7 +6026,7 @@
         <v>3</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C177" s="7" t="s">
         <v>15</v>
@@ -5976,7 +6051,7 @@
         <v>12</v>
       </c>
       <c r="K177" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -5984,7 +6059,7 @@
         <v>4</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C178" s="7" t="s">
         <v>14</v>
@@ -6007,7 +6082,7 @@
         <v>12</v>
       </c>
       <c r="K178" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
@@ -6015,7 +6090,7 @@
         <v>5</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C179" s="7" t="s">
         <v>14</v>
@@ -6038,7 +6113,7 @@
         <v>12</v>
       </c>
       <c r="K179" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
@@ -6046,7 +6121,7 @@
         <v>6</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C180" s="7" t="s">
         <v>14</v>
@@ -6069,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -6077,7 +6152,7 @@
         <v>7</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C181" s="7" t="s">
         <v>15</v>
@@ -6102,7 +6177,7 @@
         <v>12</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
@@ -6110,7 +6185,7 @@
         <v>8</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C182" s="7" t="s">
         <v>78</v>
@@ -6137,7 +6212,7 @@
         <v>9</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>66</v>
@@ -6156,7 +6231,7 @@
       <c r="I183" s="35"/>
       <c r="J183" s="49"/>
       <c r="K183" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -6164,7 +6239,7 @@
         <v>10</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C184" s="7" t="s">
         <v>14</v>
@@ -6241,45 +6316,45 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="62"/>
-      <c r="B187" s="62"/>
-      <c r="C187" s="62"/>
-      <c r="D187" s="62"/>
-      <c r="E187" s="62"/>
-      <c r="F187" s="62"/>
-      <c r="G187" s="62"/>
-      <c r="H187" s="62"/>
-      <c r="I187" s="62"/>
-      <c r="J187" s="62"/>
-      <c r="K187" s="62"/>
+      <c r="A187" s="65"/>
+      <c r="B187" s="65"/>
+      <c r="C187" s="65"/>
+      <c r="D187" s="65"/>
+      <c r="E187" s="65"/>
+      <c r="F187" s="65"/>
+      <c r="G187" s="65"/>
+      <c r="H187" s="65"/>
+      <c r="I187" s="65"/>
+      <c r="J187" s="65"/>
+      <c r="K187" s="65"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="63"/>
-      <c r="B188" s="63"/>
-      <c r="C188" s="63"/>
-      <c r="D188" s="63"/>
-      <c r="E188" s="63"/>
-      <c r="F188" s="63"/>
-      <c r="G188" s="63"/>
-      <c r="H188" s="63"/>
-      <c r="I188" s="63"/>
-      <c r="J188" s="63"/>
-      <c r="K188" s="63"/>
+      <c r="A188" s="66"/>
+      <c r="B188" s="66"/>
+      <c r="C188" s="66"/>
+      <c r="D188" s="66"/>
+      <c r="E188" s="66"/>
+      <c r="F188" s="66"/>
+      <c r="G188" s="66"/>
+      <c r="H188" s="66"/>
+      <c r="I188" s="66"/>
+      <c r="J188" s="66"/>
+      <c r="K188" s="66"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="59" t="s">
-        <v>203</v>
-      </c>
-      <c r="B189" s="60"/>
-      <c r="C189" s="60"/>
-      <c r="D189" s="60"/>
-      <c r="E189" s="60"/>
-      <c r="F189" s="60"/>
-      <c r="G189" s="60"/>
-      <c r="H189" s="60"/>
-      <c r="I189" s="60"/>
-      <c r="J189" s="60"/>
-      <c r="K189" s="61"/>
+      <c r="A189" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="63"/>
+      <c r="C189" s="63"/>
+      <c r="D189" s="63"/>
+      <c r="E189" s="63"/>
+      <c r="F189" s="63"/>
+      <c r="G189" s="63"/>
+      <c r="H189" s="63"/>
+      <c r="I189" s="63"/>
+      <c r="J189" s="63"/>
+      <c r="K189" s="64"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
@@ -6354,7 +6429,7 @@
         <v>2</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>78</v>
@@ -6375,7 +6450,7 @@
         <v>3</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
@@ -6480,45 +6555,45 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="62"/>
-      <c r="B197" s="62"/>
-      <c r="C197" s="62"/>
-      <c r="D197" s="62"/>
-      <c r="E197" s="62"/>
-      <c r="F197" s="62"/>
-      <c r="G197" s="62"/>
-      <c r="H197" s="62"/>
-      <c r="I197" s="62"/>
-      <c r="J197" s="62"/>
-      <c r="K197" s="62"/>
+      <c r="A197" s="65"/>
+      <c r="B197" s="65"/>
+      <c r="C197" s="65"/>
+      <c r="D197" s="65"/>
+      <c r="E197" s="65"/>
+      <c r="F197" s="65"/>
+      <c r="G197" s="65"/>
+      <c r="H197" s="65"/>
+      <c r="I197" s="65"/>
+      <c r="J197" s="65"/>
+      <c r="K197" s="65"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="63"/>
-      <c r="B198" s="63"/>
-      <c r="C198" s="63"/>
-      <c r="D198" s="63"/>
-      <c r="E198" s="63"/>
-      <c r="F198" s="63"/>
-      <c r="G198" s="63"/>
-      <c r="H198" s="63"/>
-      <c r="I198" s="63"/>
-      <c r="J198" s="63"/>
-      <c r="K198" s="63"/>
+      <c r="A198" s="66"/>
+      <c r="B198" s="66"/>
+      <c r="C198" s="66"/>
+      <c r="D198" s="66"/>
+      <c r="E198" s="66"/>
+      <c r="F198" s="66"/>
+      <c r="G198" s="66"/>
+      <c r="H198" s="66"/>
+      <c r="I198" s="66"/>
+      <c r="J198" s="66"/>
+      <c r="K198" s="66"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="59" t="s">
-        <v>206</v>
-      </c>
-      <c r="B199" s="60"/>
-      <c r="C199" s="60"/>
-      <c r="D199" s="60"/>
-      <c r="E199" s="60"/>
-      <c r="F199" s="60"/>
-      <c r="G199" s="60"/>
-      <c r="H199" s="60"/>
-      <c r="I199" s="60"/>
-      <c r="J199" s="60"/>
-      <c r="K199" s="61"/>
+      <c r="A199" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B199" s="63"/>
+      <c r="C199" s="63"/>
+      <c r="D199" s="63"/>
+      <c r="E199" s="63"/>
+      <c r="F199" s="63"/>
+      <c r="G199" s="63"/>
+      <c r="H199" s="63"/>
+      <c r="I199" s="63"/>
+      <c r="J199" s="63"/>
+      <c r="K199" s="64"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
@@ -6593,7 +6668,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>116</v>
@@ -6624,7 +6699,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>14</v>
@@ -6653,7 +6728,7 @@
         <v>4</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>15</v>
@@ -6765,45 +6840,45 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="62"/>
-      <c r="B208" s="62"/>
-      <c r="C208" s="62"/>
-      <c r="D208" s="62"/>
-      <c r="E208" s="62"/>
-      <c r="F208" s="62"/>
-      <c r="G208" s="62"/>
-      <c r="H208" s="62"/>
-      <c r="I208" s="62"/>
-      <c r="J208" s="62"/>
-      <c r="K208" s="62"/>
+      <c r="A208" s="65"/>
+      <c r="B208" s="65"/>
+      <c r="C208" s="65"/>
+      <c r="D208" s="65"/>
+      <c r="E208" s="65"/>
+      <c r="F208" s="65"/>
+      <c r="G208" s="65"/>
+      <c r="H208" s="65"/>
+      <c r="I208" s="65"/>
+      <c r="J208" s="65"/>
+      <c r="K208" s="65"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="63"/>
-      <c r="B209" s="63"/>
-      <c r="C209" s="63"/>
-      <c r="D209" s="63"/>
-      <c r="E209" s="63"/>
-      <c r="F209" s="63"/>
-      <c r="G209" s="63"/>
-      <c r="H209" s="63"/>
-      <c r="I209" s="63"/>
-      <c r="J209" s="63"/>
-      <c r="K209" s="63"/>
+      <c r="A209" s="66"/>
+      <c r="B209" s="66"/>
+      <c r="C209" s="66"/>
+      <c r="D209" s="66"/>
+      <c r="E209" s="66"/>
+      <c r="F209" s="66"/>
+      <c r="G209" s="66"/>
+      <c r="H209" s="66"/>
+      <c r="I209" s="66"/>
+      <c r="J209" s="66"/>
+      <c r="K209" s="66"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B210" s="60"/>
-      <c r="C210" s="60"/>
-      <c r="D210" s="60"/>
-      <c r="E210" s="60"/>
-      <c r="F210" s="60"/>
-      <c r="G210" s="60"/>
-      <c r="H210" s="60"/>
-      <c r="I210" s="60"/>
-      <c r="J210" s="60"/>
-      <c r="K210" s="61"/>
+      <c r="A210" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="B210" s="63"/>
+      <c r="C210" s="63"/>
+      <c r="D210" s="63"/>
+      <c r="E210" s="63"/>
+      <c r="F210" s="63"/>
+      <c r="G210" s="63"/>
+      <c r="H210" s="63"/>
+      <c r="I210" s="63"/>
+      <c r="J210" s="63"/>
+      <c r="K210" s="64"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -6878,7 +6953,7 @@
         <v>2</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C213" s="7" t="s">
         <v>116</v>
@@ -6907,7 +6982,7 @@
         <v>3</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C214" s="7" t="s">
         <v>116</v>
@@ -6936,7 +7011,7 @@
         <v>4</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C215" s="7" t="s">
         <v>9</v>
@@ -7046,45 +7121,45 @@
       </c>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="62"/>
-      <c r="B219" s="62"/>
-      <c r="C219" s="62"/>
-      <c r="D219" s="62"/>
-      <c r="E219" s="62"/>
-      <c r="F219" s="62"/>
-      <c r="G219" s="62"/>
-      <c r="H219" s="62"/>
-      <c r="I219" s="62"/>
-      <c r="J219" s="62"/>
-      <c r="K219" s="62"/>
+      <c r="A219" s="65"/>
+      <c r="B219" s="65"/>
+      <c r="C219" s="65"/>
+      <c r="D219" s="65"/>
+      <c r="E219" s="65"/>
+      <c r="F219" s="65"/>
+      <c r="G219" s="65"/>
+      <c r="H219" s="65"/>
+      <c r="I219" s="65"/>
+      <c r="J219" s="65"/>
+      <c r="K219" s="65"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="63"/>
-      <c r="B220" s="63"/>
-      <c r="C220" s="63"/>
-      <c r="D220" s="63"/>
-      <c r="E220" s="63"/>
-      <c r="F220" s="63"/>
-      <c r="G220" s="63"/>
-      <c r="H220" s="63"/>
-      <c r="I220" s="63"/>
-      <c r="J220" s="63"/>
-      <c r="K220" s="63"/>
+      <c r="A220" s="66"/>
+      <c r="B220" s="66"/>
+      <c r="C220" s="66"/>
+      <c r="D220" s="66"/>
+      <c r="E220" s="66"/>
+      <c r="F220" s="66"/>
+      <c r="G220" s="66"/>
+      <c r="H220" s="66"/>
+      <c r="I220" s="66"/>
+      <c r="J220" s="66"/>
+      <c r="K220" s="66"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="59" t="s">
-        <v>214</v>
-      </c>
-      <c r="B221" s="60"/>
-      <c r="C221" s="60"/>
-      <c r="D221" s="60"/>
-      <c r="E221" s="60"/>
-      <c r="F221" s="60"/>
-      <c r="G221" s="60"/>
-      <c r="H221" s="60"/>
-      <c r="I221" s="60"/>
-      <c r="J221" s="60"/>
-      <c r="K221" s="61"/>
+      <c r="A221" s="62" t="s">
+        <v>239</v>
+      </c>
+      <c r="B221" s="63"/>
+      <c r="C221" s="63"/>
+      <c r="D221" s="63"/>
+      <c r="E221" s="63"/>
+      <c r="F221" s="63"/>
+      <c r="G221" s="63"/>
+      <c r="H221" s="63"/>
+      <c r="I221" s="63"/>
+      <c r="J221" s="63"/>
+      <c r="K221" s="64"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
@@ -7129,10 +7204,10 @@
         <v>25</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="D223" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E223" s="5" t="s">
         <v>10</v>
@@ -7146,159 +7221,156 @@
       <c r="H223" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I223" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J223" s="55"/>
+      <c r="I223" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J223" s="59"/>
       <c r="K223" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+      <c r="A224" s="40">
         <v>2</v>
       </c>
-      <c r="B224" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F224" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H224" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J224" s="1" t="s">
+      <c r="B224" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="7">
+        <v>255</v>
+      </c>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G224" s="7"/>
+      <c r="H224" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I224" s="61"/>
+      <c r="J224" s="61" t="s">
         <v>12</v>
       </c>
       <c r="K224" s="9"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+      <c r="A225" s="40">
         <v>3</v>
       </c>
-      <c r="B225" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D225" s="2">
-        <v>10</v>
-      </c>
-      <c r="F225" s="2">
-        <v>0</v>
-      </c>
-      <c r="G225" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H225" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="K225" s="9"/>
+      <c r="B225" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D225" s="7"/>
+      <c r="E225" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F225" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G225" s="7"/>
+      <c r="H225" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I225" s="61"/>
+      <c r="J225" s="61"/>
+      <c r="K225" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>4</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C226" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D226" s="7"/>
-      <c r="E226" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F226" s="12" t="s">
-        <v>26</v>
+      <c r="E226" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F226" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G226" s="7"/>
       <c r="H226" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I226" s="57"/>
-      <c r="J226" s="57"/>
+      <c r="I226" s="61"/>
+      <c r="J226" s="61"/>
       <c r="K226" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="40">
+      <c r="A227" s="41">
         <v>5</v>
       </c>
-      <c r="B227" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C227" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D227" s="7"/>
-      <c r="E227" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F227" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G227" s="7"/>
-      <c r="H227" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I227" s="57"/>
-      <c r="J227" s="57"/>
-      <c r="K227" s="9" t="s">
-        <v>16</v>
+      <c r="B227" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C227" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D227" s="13">
+        <v>1</v>
+      </c>
+      <c r="E227" s="13">
+        <v>0</v>
+      </c>
+      <c r="F227" s="13">
+        <v>0</v>
+      </c>
+      <c r="G227" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H227" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I227" s="60"/>
+      <c r="J227" s="60"/>
+      <c r="K227" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A228" s="41">
-        <v>6</v>
-      </c>
-      <c r="B228" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D228" s="13">
-        <v>1</v>
-      </c>
-      <c r="E228" s="13">
-        <v>0</v>
-      </c>
-      <c r="F228" s="13">
-        <v>0</v>
-      </c>
-      <c r="G228" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H228" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I228" s="56"/>
-      <c r="J228" s="56"/>
-      <c r="K228" s="14" t="s">
-        <v>42</v>
-      </c>
+      <c r="A228" s="65"/>
+      <c r="B228" s="65"/>
+      <c r="C228" s="65"/>
+      <c r="D228" s="65"/>
+      <c r="E228" s="65"/>
+      <c r="F228" s="65"/>
+      <c r="G228" s="65"/>
+      <c r="H228" s="65"/>
+      <c r="I228" s="65"/>
+      <c r="J228" s="65"/>
+      <c r="K228" s="65"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A229" s="62"/>
-      <c r="B229" s="62"/>
-      <c r="C229" s="62"/>
-      <c r="D229" s="62"/>
-      <c r="E229" s="62"/>
-      <c r="F229" s="62"/>
-      <c r="G229" s="62"/>
-      <c r="H229" s="62"/>
-      <c r="I229" s="62"/>
-      <c r="J229" s="62"/>
-      <c r="K229" s="62"/>
+      <c r="A229" s="66"/>
+      <c r="B229" s="66"/>
+      <c r="C229" s="66"/>
+      <c r="D229" s="66"/>
+      <c r="E229" s="66"/>
+      <c r="F229" s="66"/>
+      <c r="G229" s="66"/>
+      <c r="H229" s="66"/>
+      <c r="I229" s="66"/>
+      <c r="J229" s="66"/>
+      <c r="K229" s="66"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A230" s="63"/>
+      <c r="A230" s="62" t="s">
+        <v>241</v>
+      </c>
       <c r="B230" s="63"/>
       <c r="C230" s="63"/>
       <c r="D230" s="63"/>
@@ -7308,1183 +7380,2458 @@
       <c r="H230" s="63"/>
       <c r="I230" s="63"/>
       <c r="J230" s="63"/>
-      <c r="K230" s="63"/>
+      <c r="K230" s="64"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A231" s="59" t="s">
-        <v>217</v>
-      </c>
-      <c r="B231" s="60"/>
-      <c r="C231" s="60"/>
-      <c r="D231" s="60"/>
-      <c r="E231" s="60"/>
-      <c r="F231" s="60"/>
-      <c r="G231" s="60"/>
-      <c r="H231" s="60"/>
-      <c r="I231" s="60"/>
-      <c r="J231" s="60"/>
-      <c r="K231" s="61"/>
+      <c r="A231" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D231" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F231" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H231" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K231" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A232" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B232" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C232" s="4" t="s">
+      <c r="A232" s="39">
+        <v>1</v>
+      </c>
+      <c r="B232" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C232" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="5">
+        <v>10</v>
+      </c>
+      <c r="E232" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G232" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H232" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I232" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J232" s="59"/>
+      <c r="K232" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A233" s="40">
         <v>2</v>
       </c>
-      <c r="D232" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E232" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G232" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H232" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I232" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J232" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K232" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A233" s="39">
-        <v>1</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D233" s="5">
-        <v>20</v>
-      </c>
-      <c r="E233" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F233" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G233" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H233" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I233" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J233" s="55"/>
-      <c r="K233" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B233" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D233" s="7">
+        <v>255</v>
+      </c>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G233" s="7"/>
+      <c r="H233" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I233" s="61"/>
+      <c r="J233" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K233" s="9"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>218</v>
+        <v>23</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D234" s="7">
-        <v>20</v>
-      </c>
-      <c r="E234" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F234" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G234" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D234" s="7"/>
+      <c r="E234" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F234" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G234" s="7"/>
       <c r="H234" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I234" s="57"/>
-      <c r="J234" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K234" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I234" s="61"/>
+      <c r="J234" s="61"/>
+      <c r="K234" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>219</v>
+        <v>24</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D235" s="7">
-        <v>50</v>
-      </c>
-      <c r="E235" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F235" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D235" s="7"/>
+      <c r="E235" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F235" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G235" s="7"/>
       <c r="H235" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I235" s="57"/>
-      <c r="J235" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K235" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I235" s="61"/>
+      <c r="J235" s="61"/>
+      <c r="K235" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="40">
+      <c r="A236" s="41">
+        <v>5</v>
+      </c>
+      <c r="B236" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C236" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D236" s="13">
+        <v>1</v>
+      </c>
+      <c r="E236" s="13">
+        <v>0</v>
+      </c>
+      <c r="F236" s="13">
+        <v>0</v>
+      </c>
+      <c r="G236" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H236" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I236" s="60"/>
+      <c r="J236" s="60"/>
+      <c r="K236" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A237" s="65"/>
+      <c r="B237" s="65"/>
+      <c r="C237" s="65"/>
+      <c r="D237" s="65"/>
+      <c r="E237" s="65"/>
+      <c r="F237" s="65"/>
+      <c r="G237" s="65"/>
+      <c r="H237" s="65"/>
+      <c r="I237" s="65"/>
+      <c r="J237" s="65"/>
+      <c r="K237" s="65"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A238" s="66"/>
+      <c r="B238" s="66"/>
+      <c r="C238" s="66"/>
+      <c r="D238" s="66"/>
+      <c r="E238" s="66"/>
+      <c r="F238" s="66"/>
+      <c r="G238" s="66"/>
+      <c r="H238" s="66"/>
+      <c r="I238" s="66"/>
+      <c r="J238" s="66"/>
+      <c r="K238" s="66"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="B239" s="63"/>
+      <c r="C239" s="63"/>
+      <c r="D239" s="63"/>
+      <c r="E239" s="63"/>
+      <c r="F239" s="63"/>
+      <c r="G239" s="63"/>
+      <c r="H239" s="63"/>
+      <c r="I239" s="63"/>
+      <c r="J239" s="63"/>
+      <c r="K239" s="64"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H240" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B236" s="7" t="s">
+      <c r="I240" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K240" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A241" s="39">
+        <v>1</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D241" s="5">
+        <v>10</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G241" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H241" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I241" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J241" s="59"/>
+      <c r="K241" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242" s="40">
+        <v>2</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D242" s="7">
+        <v>255</v>
+      </c>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G242" s="7"/>
+      <c r="H242" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I242" s="61"/>
+      <c r="J242" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K242" s="9"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243" s="40">
+        <v>3</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D243" s="7"/>
+      <c r="E243" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F243" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G243" s="7"/>
+      <c r="H243" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I243" s="61"/>
+      <c r="J243" s="61"/>
+      <c r="K243" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244" s="40">
+        <v>4</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D244" s="7"/>
+      <c r="E244" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F244" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G244" s="7"/>
+      <c r="H244" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I244" s="61"/>
+      <c r="J244" s="61"/>
+      <c r="K244" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="41">
+        <v>5</v>
+      </c>
+      <c r="B245" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C245" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D245" s="13">
+        <v>1</v>
+      </c>
+      <c r="E245" s="13">
+        <v>0</v>
+      </c>
+      <c r="F245" s="13">
+        <v>0</v>
+      </c>
+      <c r="G245" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H245" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I245" s="60"/>
+      <c r="J245" s="60"/>
+      <c r="K245" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246" s="65"/>
+      <c r="B246" s="65"/>
+      <c r="C246" s="65"/>
+      <c r="D246" s="65"/>
+      <c r="E246" s="65"/>
+      <c r="F246" s="65"/>
+      <c r="G246" s="65"/>
+      <c r="H246" s="65"/>
+      <c r="I246" s="65"/>
+      <c r="J246" s="65"/>
+      <c r="K246" s="65"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247" s="66"/>
+      <c r="B247" s="66"/>
+      <c r="C247" s="66"/>
+      <c r="D247" s="66"/>
+      <c r="E247" s="66"/>
+      <c r="F247" s="66"/>
+      <c r="G247" s="66"/>
+      <c r="H247" s="66"/>
+      <c r="I247" s="66"/>
+      <c r="J247" s="66"/>
+      <c r="K247" s="66"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248" s="62" t="s">
+        <v>245</v>
+      </c>
+      <c r="B248" s="63"/>
+      <c r="C248" s="63"/>
+      <c r="D248" s="63"/>
+      <c r="E248" s="63"/>
+      <c r="F248" s="63"/>
+      <c r="G248" s="63"/>
+      <c r="H248" s="63"/>
+      <c r="I248" s="63"/>
+      <c r="J248" s="63"/>
+      <c r="K248" s="64"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D249" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F249" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H249" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K249" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250" s="39">
+        <v>1</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C250" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" s="5">
+        <v>10</v>
+      </c>
+      <c r="E250" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H250" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I250" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J250" s="59"/>
+      <c r="K250" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251" s="40">
+        <v>2</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D251" s="7">
+        <v>255</v>
+      </c>
+      <c r="E251" s="7"/>
+      <c r="F251" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G251" s="7"/>
+      <c r="H251" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I251" s="61"/>
+      <c r="J251" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K251" s="9"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252" s="40">
+        <v>3</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D252" s="7"/>
+      <c r="E252" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G252" s="7"/>
+      <c r="H252" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I252" s="61"/>
+      <c r="J252" s="61"/>
+      <c r="K252" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253" s="40">
+        <v>4</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D253" s="7"/>
+      <c r="E253" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F253" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G253" s="7"/>
+      <c r="H253" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I253" s="61"/>
+      <c r="J253" s="61"/>
+      <c r="K253" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254" s="41">
+        <v>5</v>
+      </c>
+      <c r="B254" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C254" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D254" s="13">
+        <v>1</v>
+      </c>
+      <c r="E254" s="13">
+        <v>0</v>
+      </c>
+      <c r="F254" s="13">
+        <v>0</v>
+      </c>
+      <c r="G254" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H254" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I254" s="60"/>
+      <c r="J254" s="60"/>
+      <c r="K254" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255" s="65"/>
+      <c r="B255" s="65"/>
+      <c r="C255" s="65"/>
+      <c r="D255" s="65"/>
+      <c r="E255" s="65"/>
+      <c r="F255" s="65"/>
+      <c r="G255" s="65"/>
+      <c r="H255" s="65"/>
+      <c r="I255" s="65"/>
+      <c r="J255" s="65"/>
+      <c r="K255" s="65"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256" s="66"/>
+      <c r="B256" s="66"/>
+      <c r="C256" s="66"/>
+      <c r="D256" s="66"/>
+      <c r="E256" s="66"/>
+      <c r="F256" s="66"/>
+      <c r="G256" s="66"/>
+      <c r="H256" s="66"/>
+      <c r="I256" s="66"/>
+      <c r="J256" s="66"/>
+      <c r="K256" s="66"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A257" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="B257" s="63"/>
+      <c r="C257" s="63"/>
+      <c r="D257" s="63"/>
+      <c r="E257" s="63"/>
+      <c r="F257" s="63"/>
+      <c r="G257" s="63"/>
+      <c r="H257" s="63"/>
+      <c r="I257" s="63"/>
+      <c r="J257" s="63"/>
+      <c r="K257" s="64"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D258" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F258" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G258" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H258" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K258" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A259" s="39">
+        <v>1</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D259" s="5">
+        <v>20</v>
+      </c>
+      <c r="E259" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G259" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H259" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I259" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J259" s="55"/>
+      <c r="K259" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>2</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H260" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K260" s="9"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>3</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D261" s="2">
+        <v>10</v>
+      </c>
+      <c r="F261" s="2">
+        <v>0</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H261" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K261" s="9"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>4</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D262" s="2">
+        <v>2</v>
+      </c>
+      <c r="F262" s="2">
+        <v>0</v>
+      </c>
+      <c r="G262" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K262" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>5</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D263" s="2">
+        <v>2</v>
+      </c>
+      <c r="F263" s="2">
+        <v>0</v>
+      </c>
+      <c r="G263" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K263" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>6</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D264" s="2">
+        <v>2</v>
+      </c>
+      <c r="F264" s="2">
+        <v>0</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H264" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K264" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>7</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D265" s="2">
+        <v>2</v>
+      </c>
+      <c r="F265" s="2">
+        <v>0</v>
+      </c>
+      <c r="K265" s="9" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A266" s="40">
+        <v>8</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D266" s="7"/>
+      <c r="E266" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F266" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G266" s="7"/>
+      <c r="H266" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I266" s="57"/>
+      <c r="J266" s="57"/>
+      <c r="K266" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A267" s="40">
+        <v>9</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D267" s="7"/>
+      <c r="E267" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F267" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G267" s="7"/>
+      <c r="H267" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I267" s="57"/>
+      <c r="J267" s="57"/>
+      <c r="K267" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A268" s="41">
+        <v>10</v>
+      </c>
+      <c r="B268" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C268" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D268" s="13">
+        <v>1</v>
+      </c>
+      <c r="E268" s="13">
+        <v>0</v>
+      </c>
+      <c r="F268" s="13">
+        <v>0</v>
+      </c>
+      <c r="G268" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H268" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I268" s="56"/>
+      <c r="J268" s="56"/>
+      <c r="K268" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A269" s="65"/>
+      <c r="B269" s="65"/>
+      <c r="C269" s="65"/>
+      <c r="D269" s="65"/>
+      <c r="E269" s="65"/>
+      <c r="F269" s="65"/>
+      <c r="G269" s="65"/>
+      <c r="H269" s="65"/>
+      <c r="I269" s="65"/>
+      <c r="J269" s="65"/>
+      <c r="K269" s="65"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A270" s="66"/>
+      <c r="B270" s="66"/>
+      <c r="C270" s="66"/>
+      <c r="D270" s="66"/>
+      <c r="E270" s="66"/>
+      <c r="F270" s="66"/>
+      <c r="G270" s="66"/>
+      <c r="H270" s="66"/>
+      <c r="I270" s="66"/>
+      <c r="J270" s="66"/>
+      <c r="K270" s="66"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A271" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="B271" s="63"/>
+      <c r="C271" s="63"/>
+      <c r="D271" s="63"/>
+      <c r="E271" s="63"/>
+      <c r="F271" s="63"/>
+      <c r="G271" s="63"/>
+      <c r="H271" s="63"/>
+      <c r="I271" s="63"/>
+      <c r="J271" s="63"/>
+      <c r="K271" s="64"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D272" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F272" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G272" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H272" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K272" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A273" s="39">
+        <v>1</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D273" s="5">
+        <v>20</v>
+      </c>
+      <c r="E273" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G273" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H273" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I273" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J273" s="55"/>
+      <c r="K273" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A274" s="40">
+        <v>2</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D274" s="7">
+        <v>20</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F274" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G274" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H274" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I274" s="57"/>
+      <c r="J274" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K274" s="9"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A275" s="40">
+        <v>3</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D275" s="7">
+        <v>50</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G275" s="7"/>
+      <c r="H275" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I275" s="57"/>
+      <c r="J275" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K275" s="9"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A276" s="40">
+        <v>4</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D276" s="7">
+        <v>1</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="7">
+        <v>0</v>
+      </c>
+      <c r="G276" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H276" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I276" s="57"/>
+      <c r="J276" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K276" s="9"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A277" s="40">
+        <v>5</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D277" s="7"/>
+      <c r="E277" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F277" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G277" s="7"/>
+      <c r="H277" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I277" s="57"/>
+      <c r="J277" s="57"/>
+      <c r="K277" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A278" s="40">
+        <v>6</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D278" s="7"/>
+      <c r="E278" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F278" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G278" s="7"/>
+      <c r="H278" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I278" s="57"/>
+      <c r="J278" s="57"/>
+      <c r="K278" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A279" s="41">
+        <v>7</v>
+      </c>
+      <c r="B279" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C279" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D279" s="13">
+        <v>1</v>
+      </c>
+      <c r="E279" s="13">
+        <v>0</v>
+      </c>
+      <c r="F279" s="13">
+        <v>0</v>
+      </c>
+      <c r="G279" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H279" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I279" s="56"/>
+      <c r="J279" s="56"/>
+      <c r="K279" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A280" s="65"/>
+      <c r="B280" s="65"/>
+      <c r="C280" s="65"/>
+      <c r="D280" s="65"/>
+      <c r="E280" s="65"/>
+      <c r="F280" s="65"/>
+      <c r="G280" s="65"/>
+      <c r="H280" s="65"/>
+      <c r="I280" s="65"/>
+      <c r="J280" s="65"/>
+      <c r="K280" s="65"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A281" s="66"/>
+      <c r="B281" s="66"/>
+      <c r="C281" s="66"/>
+      <c r="D281" s="66"/>
+      <c r="E281" s="66"/>
+      <c r="F281" s="66"/>
+      <c r="G281" s="66"/>
+      <c r="H281" s="66"/>
+      <c r="I281" s="66"/>
+      <c r="J281" s="66"/>
+      <c r="K281" s="66"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A282" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B282" s="63"/>
+      <c r="C282" s="63"/>
+      <c r="D282" s="63"/>
+      <c r="E282" s="63"/>
+      <c r="F282" s="63"/>
+      <c r="G282" s="63"/>
+      <c r="H282" s="63"/>
+      <c r="I282" s="63"/>
+      <c r="J282" s="63"/>
+      <c r="K282" s="64"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F283" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H283" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K283" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A284" s="39">
+        <v>1</v>
+      </c>
+      <c r="B284" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C284" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D284" s="5">
+        <v>20</v>
+      </c>
+      <c r="E284" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G284" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H284" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I284" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="J284" s="55"/>
+      <c r="K284" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A285" s="40">
+        <v>2</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D285" s="7">
+        <v>20</v>
+      </c>
+      <c r="E285" s="7"/>
+      <c r="F285" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G285" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H285" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I285" s="57"/>
+      <c r="J285" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K285" s="9"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A286" s="40">
+        <v>3</v>
+      </c>
+      <c r="B286" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C286" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D286" s="7">
+        <v>20</v>
+      </c>
+      <c r="E286" s="7"/>
+      <c r="F286" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G286" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H286" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I286" s="57"/>
+      <c r="J286" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K286" s="9"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A287" s="40">
+        <v>4</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D287" s="7">
+        <v>10</v>
+      </c>
+      <c r="E287" s="7"/>
+      <c r="F287" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G287" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H287" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I287" s="57"/>
+      <c r="J287" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="K287" s="9"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A288" s="40">
+        <v>5</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D288" s="7"/>
+      <c r="E288" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F288" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G288" s="7"/>
+      <c r="H288" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I288" s="57"/>
+      <c r="J288" s="57"/>
+      <c r="K288" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A289" s="40">
+        <v>6</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D289" s="7"/>
+      <c r="E289" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F289" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G289" s="7"/>
+      <c r="H289" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I289" s="57"/>
+      <c r="J289" s="57"/>
+      <c r="K289" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A290" s="41">
+        <v>7</v>
+      </c>
+      <c r="B290" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C290" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D236" s="7">
-        <v>1</v>
-      </c>
-      <c r="E236" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F236" s="7">
-        <v>0</v>
-      </c>
-      <c r="G236" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H236" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I236" s="57"/>
-      <c r="J236" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K236" s="9"/>
-    </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="40">
+      <c r="D290" s="13">
+        <v>1</v>
+      </c>
+      <c r="E290" s="13">
+        <v>0</v>
+      </c>
+      <c r="F290" s="13">
+        <v>0</v>
+      </c>
+      <c r="G290" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H290" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I290" s="56"/>
+      <c r="J290" s="56"/>
+      <c r="K290" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A291" s="65"/>
+      <c r="B291" s="65"/>
+      <c r="C291" s="65"/>
+      <c r="D291" s="65"/>
+      <c r="E291" s="65"/>
+      <c r="F291" s="65"/>
+      <c r="G291" s="65"/>
+      <c r="H291" s="65"/>
+      <c r="I291" s="65"/>
+      <c r="J291" s="65"/>
+      <c r="K291" s="65"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" s="66"/>
+      <c r="B292" s="66"/>
+      <c r="C292" s="66"/>
+      <c r="D292" s="66"/>
+      <c r="E292" s="66"/>
+      <c r="F292" s="66"/>
+      <c r="G292" s="66"/>
+      <c r="H292" s="66"/>
+      <c r="I292" s="66"/>
+      <c r="J292" s="66"/>
+      <c r="K292" s="66"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" s="62" t="s">
+        <v>235</v>
+      </c>
+      <c r="B293" s="63"/>
+      <c r="C293" s="63"/>
+      <c r="D293" s="63"/>
+      <c r="E293" s="63"/>
+      <c r="F293" s="63"/>
+      <c r="G293" s="63"/>
+      <c r="H293" s="63"/>
+      <c r="I293" s="63"/>
+      <c r="J293" s="63"/>
+      <c r="K293" s="64"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D294" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B237" s="7" t="s">
+      <c r="F294" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G294" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H294" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K294" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" s="39">
+        <v>1</v>
+      </c>
+      <c r="B295" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C295" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D295" s="5">
+        <v>10</v>
+      </c>
+      <c r="E295" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G295" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H295" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I295" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="J295" s="59"/>
+      <c r="K295" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" s="40">
+        <v>2</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D296" s="7">
+        <v>50</v>
+      </c>
+      <c r="E296" s="7"/>
+      <c r="F296" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G296" s="7"/>
+      <c r="H296" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I296" s="61"/>
+      <c r="J296" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K296" s="9"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" s="40">
+        <v>3</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D297" s="7"/>
+      <c r="E297" s="7"/>
+      <c r="F297" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G297" s="7"/>
+      <c r="H297" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I297" s="61"/>
+      <c r="J297" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="K297" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A298" s="40">
+        <v>4</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D298" s="7">
+        <v>100</v>
+      </c>
+      <c r="E298" s="10"/>
+      <c r="F298" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G298" s="7"/>
+      <c r="H298" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I298" s="61"/>
+      <c r="J298" s="61"/>
+      <c r="K298" s="9"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A299" s="40">
+        <v>5</v>
+      </c>
+      <c r="B299" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C299" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D237" s="7"/>
-      <c r="E237" s="12" t="s">
+      <c r="D299" s="7"/>
+      <c r="E299" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F237" s="12" t="s">
+      <c r="F299" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G237" s="7"/>
-      <c r="H237" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I237" s="57"/>
-      <c r="J237" s="57"/>
-      <c r="K237" s="9" t="s">
+      <c r="G299" s="7"/>
+      <c r="H299" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I299" s="61"/>
+      <c r="J299" s="61"/>
+      <c r="K299" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="40">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A300" s="40">
         <v>6</v>
       </c>
-      <c r="B238" s="7" t="s">
+      <c r="B300" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C300" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D238" s="7"/>
-      <c r="E238" s="10" t="s">
+      <c r="D300" s="7"/>
+      <c r="E300" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F238" s="10" t="s">
+      <c r="F300" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G238" s="7"/>
-      <c r="H238" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I238" s="57"/>
-      <c r="J238" s="57"/>
-      <c r="K238" s="9" t="s">
+      <c r="G300" s="7"/>
+      <c r="H300" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I300" s="61"/>
+      <c r="J300" s="61"/>
+      <c r="K300" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="41">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A301" s="41">
         <v>7</v>
       </c>
-      <c r="B239" s="13" t="s">
+      <c r="B301" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C239" s="13" t="s">
+      <c r="C301" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D239" s="13">
-        <v>1</v>
-      </c>
-      <c r="E239" s="13">
-        <v>0</v>
-      </c>
-      <c r="F239" s="13">
-        <v>0</v>
-      </c>
-      <c r="G239" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H239" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I239" s="56"/>
-      <c r="J239" s="56"/>
-      <c r="K239" s="14" t="s">
+      <c r="D301" s="13">
+        <v>1</v>
+      </c>
+      <c r="E301" s="13">
+        <v>0</v>
+      </c>
+      <c r="F301" s="13">
+        <v>0</v>
+      </c>
+      <c r="G301" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H301" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I301" s="60"/>
+      <c r="J301" s="60"/>
+      <c r="K301" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A240" s="62"/>
-      <c r="B240" s="62"/>
-      <c r="C240" s="62"/>
-      <c r="D240" s="62"/>
-      <c r="E240" s="62"/>
-      <c r="F240" s="62"/>
-      <c r="G240" s="62"/>
-      <c r="H240" s="62"/>
-      <c r="I240" s="62"/>
-      <c r="J240" s="62"/>
-      <c r="K240" s="62"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A241" s="63"/>
-      <c r="B241" s="63"/>
-      <c r="C241" s="63"/>
-      <c r="D241" s="63"/>
-      <c r="E241" s="63"/>
-      <c r="F241" s="63"/>
-      <c r="G241" s="63"/>
-      <c r="H241" s="63"/>
-      <c r="I241" s="63"/>
-      <c r="J241" s="63"/>
-      <c r="K241" s="63"/>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A242" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="B242" s="60"/>
-      <c r="C242" s="60"/>
-      <c r="D242" s="60"/>
-      <c r="E242" s="60"/>
-      <c r="F242" s="60"/>
-      <c r="G242" s="60"/>
-      <c r="H242" s="60"/>
-      <c r="I242" s="60"/>
-      <c r="J242" s="60"/>
-      <c r="K242" s="61"/>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A243" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B243" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C243" s="4" t="s">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A302" s="65"/>
+      <c r="B302" s="65"/>
+      <c r="C302" s="65"/>
+      <c r="D302" s="65"/>
+      <c r="E302" s="65"/>
+      <c r="F302" s="65"/>
+      <c r="G302" s="65"/>
+      <c r="H302" s="65"/>
+      <c r="I302" s="65"/>
+      <c r="J302" s="65"/>
+      <c r="K302" s="65"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A303" s="66"/>
+      <c r="B303" s="66"/>
+      <c r="C303" s="66"/>
+      <c r="D303" s="66"/>
+      <c r="E303" s="66"/>
+      <c r="F303" s="66"/>
+      <c r="G303" s="66"/>
+      <c r="H303" s="66"/>
+      <c r="I303" s="66"/>
+      <c r="J303" s="66"/>
+      <c r="K303" s="66"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A304" s="62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B304" s="63"/>
+      <c r="C304" s="63"/>
+      <c r="D304" s="63"/>
+      <c r="E304" s="63"/>
+      <c r="F304" s="63"/>
+      <c r="G304" s="63"/>
+      <c r="H304" s="63"/>
+      <c r="I304" s="63"/>
+      <c r="J304" s="63"/>
+      <c r="K304" s="64"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A305" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C305" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D243" s="4" t="s">
+      <c r="D305" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E243" s="4" t="s">
+      <c r="E305" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F243" s="4" t="s">
+      <c r="F305" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G243" s="4" t="s">
+      <c r="G305" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H243" s="4" t="s">
+      <c r="H305" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I243" s="3" t="s">
+      <c r="I305" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J243" s="3" t="s">
+      <c r="J305" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K243" s="4" t="s">
+      <c r="K305" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A244" s="39">
-        <v>1</v>
-      </c>
-      <c r="B244" s="5" t="s">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A306" s="39">
+        <v>1</v>
+      </c>
+      <c r="B306" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C244" s="5" t="s">
+      <c r="C306" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D244" s="5">
+      <c r="D306" s="5">
         <v>20</v>
       </c>
-      <c r="E244" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F244" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G244" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H244" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I244" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J244" s="55"/>
-      <c r="K244" s="6" t="s">
+      <c r="E306" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G306" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H306" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I306" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J306" s="47"/>
+      <c r="K306" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="40">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A307" s="40">
         <v>2</v>
       </c>
-      <c r="B245" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C245" s="7" t="s">
+      <c r="B307" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D307" s="7">
+        <v>10</v>
+      </c>
+      <c r="E307" s="7"/>
+      <c r="F307" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G307" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H307" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I307" s="29"/>
+      <c r="J307" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K307" s="9" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A308" s="40">
+        <v>3</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D308" s="7">
+        <v>50</v>
+      </c>
+      <c r="E308" s="7"/>
+      <c r="F308" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G308" s="7"/>
+      <c r="H308" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I308" s="29"/>
+      <c r="J308" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K308" s="9"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A309" s="40">
+        <v>4</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D309" s="7"/>
+      <c r="E309" s="7"/>
+      <c r="F309" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G309" s="7"/>
+      <c r="H309" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I309" s="30"/>
+      <c r="J309" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="K309" s="9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A310" s="40">
+        <v>5</v>
+      </c>
+      <c r="B310" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C310" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D310" s="7">
+        <v>100</v>
+      </c>
+      <c r="E310" s="10"/>
+      <c r="F310" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G310" s="7"/>
+      <c r="H310" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I310" s="46"/>
+      <c r="J310" s="49"/>
+      <c r="K310" s="9"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A311" s="40">
+        <v>6</v>
+      </c>
+      <c r="B311" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C311" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D311" s="7"/>
+      <c r="E311" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F311" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G311" s="7"/>
+      <c r="H311" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I311" s="29"/>
+      <c r="J311" s="49"/>
+      <c r="K311" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A312" s="40">
+        <v>7</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C312" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D312" s="7"/>
+      <c r="E312" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F312" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G312" s="7"/>
+      <c r="H312" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I312" s="29"/>
+      <c r="J312" s="49"/>
+      <c r="K312" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A313" s="41">
+        <v>8</v>
+      </c>
+      <c r="B313" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C313" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D313" s="13">
+        <v>1</v>
+      </c>
+      <c r="E313" s="13">
+        <v>0</v>
+      </c>
+      <c r="F313" s="13">
+        <v>0</v>
+      </c>
+      <c r="G313" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H313" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I313" s="28"/>
+      <c r="J313" s="48"/>
+      <c r="K313" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A314" s="65"/>
+      <c r="B314" s="65"/>
+      <c r="C314" s="65"/>
+      <c r="D314" s="65"/>
+      <c r="E314" s="65"/>
+      <c r="F314" s="65"/>
+      <c r="G314" s="65"/>
+      <c r="H314" s="65"/>
+      <c r="I314" s="65"/>
+      <c r="J314" s="65"/>
+      <c r="K314" s="65"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A315" s="66"/>
+      <c r="B315" s="66"/>
+      <c r="C315" s="66"/>
+      <c r="D315" s="66"/>
+      <c r="E315" s="66"/>
+      <c r="F315" s="66"/>
+      <c r="G315" s="66"/>
+      <c r="H315" s="66"/>
+      <c r="I315" s="66"/>
+      <c r="J315" s="66"/>
+      <c r="K315" s="66"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A316" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="B316" s="63"/>
+      <c r="C316" s="63"/>
+      <c r="D316" s="63"/>
+      <c r="E316" s="63"/>
+      <c r="F316" s="63"/>
+      <c r="G316" s="63"/>
+      <c r="H316" s="63"/>
+      <c r="I316" s="63"/>
+      <c r="J316" s="63"/>
+      <c r="K316" s="64"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A317" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B317" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C317" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D317" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E317" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F317" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G317" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H317" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I317" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J317" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K317" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A318" s="39">
+        <v>1</v>
+      </c>
+      <c r="B318" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C318" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D245" s="7">
+      <c r="D318" s="5">
         <v>20</v>
       </c>
-      <c r="E245" s="7"/>
-      <c r="F245" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G245" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H245" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I245" s="57"/>
-      <c r="J245" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K245" s="9"/>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="40">
+      <c r="E318" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G318" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H318" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I318" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J318" s="50"/>
+      <c r="K318" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A319" s="40">
+        <v>2</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C319" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D319" s="7">
+        <v>20</v>
+      </c>
+      <c r="E319" s="7"/>
+      <c r="F319" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G319" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H319" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I319" s="7"/>
+      <c r="J319" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K319" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A320" s="40">
         <v>3</v>
       </c>
-      <c r="B246" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C246" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D246" s="7">
-        <v>20</v>
-      </c>
-      <c r="E246" s="7"/>
-      <c r="F246" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G246" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H246" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I246" s="57"/>
-      <c r="J246" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K246" s="9"/>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="40">
+      <c r="B320" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C320" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D320" s="7">
+        <v>1</v>
+      </c>
+      <c r="E320" s="7"/>
+      <c r="F320" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G320" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H320" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I320" s="7"/>
+      <c r="J320" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K320" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A321" s="40">
         <v>4</v>
       </c>
-      <c r="B247" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="C247" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D247" s="7">
-        <v>10</v>
-      </c>
-      <c r="E247" s="7"/>
-      <c r="F247" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G247" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H247" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I247" s="57"/>
-      <c r="J247" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="K247" s="9"/>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="40">
+      <c r="B321" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C321" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D321" s="7"/>
+      <c r="E321" s="7"/>
+      <c r="F321" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G321" s="7"/>
+      <c r="H321" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I321" s="7"/>
+      <c r="J321" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K321" s="9"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A322" s="40">
         <v>5</v>
       </c>
-      <c r="B248" s="7" t="s">
+      <c r="B322" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C322" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D322" s="7">
+        <v>1</v>
+      </c>
+      <c r="E322" s="7"/>
+      <c r="F322" s="7">
+        <v>0</v>
+      </c>
+      <c r="G322" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H322" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I322" s="7"/>
+      <c r="J322" s="52"/>
+      <c r="K322" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A323" s="40">
+        <v>6</v>
+      </c>
+      <c r="B323" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C323" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D248" s="7"/>
-      <c r="E248" s="12" t="s">
+      <c r="D323" s="7"/>
+      <c r="E323" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F248" s="12" t="s">
+      <c r="F323" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G248" s="7"/>
-      <c r="H248" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I248" s="57"/>
-      <c r="J248" s="57"/>
-      <c r="K248" s="9" t="s">
+      <c r="G323" s="7"/>
+      <c r="H323" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I323" s="52"/>
+      <c r="J323" s="52"/>
+      <c r="K323" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="40">
-        <v>6</v>
-      </c>
-      <c r="B249" s="7" t="s">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A324" s="40">
+        <v>7</v>
+      </c>
+      <c r="B324" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="C324" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D249" s="7"/>
-      <c r="E249" s="10" t="s">
+      <c r="D324" s="7"/>
+      <c r="E324" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F249" s="10" t="s">
+      <c r="F324" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G249" s="7"/>
-      <c r="H249" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I249" s="57"/>
-      <c r="J249" s="57"/>
-      <c r="K249" s="9" t="s">
+      <c r="G324" s="7"/>
+      <c r="H324" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I324" s="52"/>
+      <c r="J324" s="52"/>
+      <c r="K324" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A250" s="41">
-        <v>7</v>
-      </c>
-      <c r="B250" s="13" t="s">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A325" s="41">
+        <v>8</v>
+      </c>
+      <c r="B325" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C250" s="13" t="s">
+      <c r="C325" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D250" s="13">
-        <v>1</v>
-      </c>
-      <c r="E250" s="13">
-        <v>0</v>
-      </c>
-      <c r="F250" s="13">
-        <v>0</v>
-      </c>
-      <c r="G250" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H250" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I250" s="56"/>
-      <c r="J250" s="56"/>
-      <c r="K250" s="14" t="s">
+      <c r="D325" s="13">
+        <v>1</v>
+      </c>
+      <c r="E325" s="13">
+        <v>0</v>
+      </c>
+      <c r="F325" s="13">
+        <v>0</v>
+      </c>
+      <c r="G325" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H325" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I325" s="51"/>
+      <c r="J325" s="51"/>
+      <c r="K325" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="62"/>
-      <c r="B251" s="62"/>
-      <c r="C251" s="62"/>
-      <c r="D251" s="62"/>
-      <c r="E251" s="62"/>
-      <c r="F251" s="62"/>
-      <c r="G251" s="62"/>
-      <c r="H251" s="62"/>
-      <c r="I251" s="62"/>
-      <c r="J251" s="62"/>
-      <c r="K251" s="62"/>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A252" s="63"/>
-      <c r="B252" s="63"/>
-      <c r="C252" s="63"/>
-      <c r="D252" s="63"/>
-      <c r="E252" s="63"/>
-      <c r="F252" s="63"/>
-      <c r="G252" s="63"/>
-      <c r="H252" s="63"/>
-      <c r="I252" s="63"/>
-      <c r="J252" s="63"/>
-      <c r="K252" s="63"/>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A253" s="59" t="s">
-        <v>121</v>
-      </c>
-      <c r="B253" s="60"/>
-      <c r="C253" s="60"/>
-      <c r="D253" s="60"/>
-      <c r="E253" s="60"/>
-      <c r="F253" s="60"/>
-      <c r="G253" s="60"/>
-      <c r="H253" s="60"/>
-      <c r="I253" s="60"/>
-      <c r="J253" s="60"/>
-      <c r="K253" s="61"/>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C254" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D254" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E254" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F254" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G254" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H254" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I254" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J254" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K254" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="39">
-        <v>1</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D255" s="5">
-        <v>20</v>
-      </c>
-      <c r="E255" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F255" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G255" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H255" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I255" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J255" s="47"/>
-      <c r="K255" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="40">
-        <v>2</v>
-      </c>
-      <c r="B256" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C256" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D256" s="7">
-        <v>20</v>
-      </c>
-      <c r="E256" s="7"/>
-      <c r="F256" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G256" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H256" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I256" s="29"/>
-      <c r="J256" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K256" s="9"/>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="40">
-        <v>3</v>
-      </c>
-      <c r="B257" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D257" s="7">
-        <v>50</v>
-      </c>
-      <c r="E257" s="7"/>
-      <c r="F257" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G257" s="7"/>
-      <c r="H257" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I257" s="29"/>
-      <c r="J257" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K257" s="9"/>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="40">
-        <v>4</v>
-      </c>
-      <c r="B258" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C258" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D258" s="7"/>
-      <c r="E258" s="7"/>
-      <c r="F258" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G258" s="7"/>
-      <c r="H258" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I258" s="30"/>
-      <c r="J258" s="49" t="s">
-        <v>12</v>
-      </c>
-      <c r="K258" s="9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="40">
-        <v>5</v>
-      </c>
-      <c r="B259" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C259" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D259" s="7">
-        <v>100</v>
-      </c>
-      <c r="E259" s="10"/>
-      <c r="F259" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G259" s="7"/>
-      <c r="H259" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I259" s="46"/>
-      <c r="J259" s="49"/>
-      <c r="K259" s="9"/>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A260" s="40">
-        <v>6</v>
-      </c>
-      <c r="B260" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C260" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D260" s="7"/>
-      <c r="E260" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F260" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G260" s="7"/>
-      <c r="H260" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I260" s="29"/>
-      <c r="J260" s="49"/>
-      <c r="K260" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A261" s="40">
-        <v>7</v>
-      </c>
-      <c r="B261" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D261" s="7"/>
-      <c r="E261" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F261" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G261" s="7"/>
-      <c r="H261" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I261" s="29"/>
-      <c r="J261" s="49"/>
-      <c r="K261" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A262" s="41">
-        <v>8</v>
-      </c>
-      <c r="B262" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C262" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D262" s="13">
-        <v>1</v>
-      </c>
-      <c r="E262" s="13">
-        <v>0</v>
-      </c>
-      <c r="F262" s="13">
-        <v>0</v>
-      </c>
-      <c r="G262" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H262" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I262" s="28"/>
-      <c r="J262" s="48"/>
-      <c r="K262" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="62"/>
-      <c r="B263" s="62"/>
-      <c r="C263" s="62"/>
-      <c r="D263" s="62"/>
-      <c r="E263" s="62"/>
-      <c r="F263" s="62"/>
-      <c r="G263" s="62"/>
-      <c r="H263" s="62"/>
-      <c r="I263" s="62"/>
-      <c r="J263" s="62"/>
-      <c r="K263" s="62"/>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="63"/>
-      <c r="B264" s="63"/>
-      <c r="C264" s="63"/>
-      <c r="D264" s="63"/>
-      <c r="E264" s="63"/>
-      <c r="F264" s="63"/>
-      <c r="G264" s="63"/>
-      <c r="H264" s="63"/>
-      <c r="I264" s="63"/>
-      <c r="J264" s="63"/>
-      <c r="K264" s="63"/>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="59" t="s">
-        <v>185</v>
-      </c>
-      <c r="B265" s="60"/>
-      <c r="C265" s="60"/>
-      <c r="D265" s="60"/>
-      <c r="E265" s="60"/>
-      <c r="F265" s="60"/>
-      <c r="G265" s="60"/>
-      <c r="H265" s="60"/>
-      <c r="I265" s="60"/>
-      <c r="J265" s="60"/>
-      <c r="K265" s="61"/>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B266" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C266" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D266" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E266" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F266" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G266" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H266" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I266" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J266" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K266" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="39">
-        <v>1</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C267" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D267" s="5">
-        <v>20</v>
-      </c>
-      <c r="E267" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F267" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G267" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H267" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I267" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J267" s="50"/>
-      <c r="K267" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="40">
-        <v>2</v>
-      </c>
-      <c r="B268" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C268" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D268" s="7">
-        <v>20</v>
-      </c>
-      <c r="E268" s="7"/>
-      <c r="F268" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G268" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H268" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I268" s="7"/>
-      <c r="J268" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K268" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="40">
-        <v>3</v>
-      </c>
-      <c r="B269" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C269" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D269" s="7">
-        <v>1</v>
-      </c>
-      <c r="E269" s="7"/>
-      <c r="F269" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G269" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H269" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I269" s="7"/>
-      <c r="J269" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K269" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="40">
-        <v>4</v>
-      </c>
-      <c r="B270" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C270" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D270" s="7"/>
-      <c r="E270" s="7"/>
-      <c r="F270" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G270" s="7"/>
-      <c r="H270" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I270" s="7"/>
-      <c r="J270" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K270" s="9"/>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A271" s="40">
-        <v>5</v>
-      </c>
-      <c r="B271" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C271" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D271" s="7">
-        <v>1</v>
-      </c>
-      <c r="E271" s="7"/>
-      <c r="F271" s="7">
-        <v>0</v>
-      </c>
-      <c r="G271" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H271" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I271" s="7"/>
-      <c r="J271" s="52"/>
-      <c r="K271" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="40">
-        <v>6</v>
-      </c>
-      <c r="B272" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C272" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D272" s="7"/>
-      <c r="E272" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F272" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G272" s="7"/>
-      <c r="H272" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I272" s="52"/>
-      <c r="J272" s="52"/>
-      <c r="K272" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="40">
-        <v>7</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D273" s="7"/>
-      <c r="E273" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F273" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G273" s="7"/>
-      <c r="H273" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I273" s="52"/>
-      <c r="J273" s="52"/>
-      <c r="K273" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="41">
-        <v>8</v>
-      </c>
-      <c r="B274" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C274" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D274" s="13">
-        <v>1</v>
-      </c>
-      <c r="E274" s="13">
-        <v>0</v>
-      </c>
-      <c r="F274" s="13">
-        <v>0</v>
-      </c>
-      <c r="G274" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H274" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I274" s="51"/>
-      <c r="J274" s="51"/>
-      <c r="K274" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="53">
+    <mergeCell ref="A230:K230"/>
+    <mergeCell ref="A237:K238"/>
+    <mergeCell ref="A239:K239"/>
+    <mergeCell ref="A246:K247"/>
+    <mergeCell ref="A248:K248"/>
+    <mergeCell ref="A291:K292"/>
+    <mergeCell ref="A293:K293"/>
+    <mergeCell ref="A219:K220"/>
+    <mergeCell ref="A221:K221"/>
+    <mergeCell ref="A228:K229"/>
     <mergeCell ref="A50:K50"/>
     <mergeCell ref="A48:K49"/>
     <mergeCell ref="A24:K24"/>
-    <mergeCell ref="A263:K264"/>
-    <mergeCell ref="A265:K265"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A314:K315"/>
+    <mergeCell ref="A316:K316"/>
     <mergeCell ref="A136:K136"/>
     <mergeCell ref="A134:K135"/>
     <mergeCell ref="A92:K92"/>
     <mergeCell ref="A90:K91"/>
     <mergeCell ref="A77:K77"/>
     <mergeCell ref="A75:K76"/>
+    <mergeCell ref="A197:K198"/>
+    <mergeCell ref="A199:K199"/>
+    <mergeCell ref="A208:K209"/>
+    <mergeCell ref="A210:K210"/>
+    <mergeCell ref="A189:K189"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="A13:K13"/>
     <mergeCell ref="A22:K23"/>
     <mergeCell ref="A63:K63"/>
     <mergeCell ref="A61:K62"/>
-    <mergeCell ref="A251:K252"/>
-    <mergeCell ref="A253:K253"/>
+    <mergeCell ref="A302:K303"/>
+    <mergeCell ref="A304:K304"/>
     <mergeCell ref="A107:K108"/>
     <mergeCell ref="A109:K109"/>
     <mergeCell ref="A124:K125"/>
@@ -8496,17 +9843,12 @@
     <mergeCell ref="A159:K160"/>
     <mergeCell ref="A187:K188"/>
     <mergeCell ref="A173:K173"/>
-    <mergeCell ref="A197:K198"/>
-    <mergeCell ref="A199:K199"/>
-    <mergeCell ref="A208:K209"/>
-    <mergeCell ref="A210:K210"/>
-    <mergeCell ref="A189:K189"/>
-    <mergeCell ref="A242:K242"/>
-    <mergeCell ref="A219:K220"/>
-    <mergeCell ref="A221:K221"/>
-    <mergeCell ref="A229:K230"/>
-    <mergeCell ref="A231:K231"/>
-    <mergeCell ref="A240:K241"/>
+    <mergeCell ref="A282:K282"/>
+    <mergeCell ref="A255:K256"/>
+    <mergeCell ref="A257:K257"/>
+    <mergeCell ref="A269:K270"/>
+    <mergeCell ref="A271:K271"/>
+    <mergeCell ref="A280:K281"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8540,7 +9882,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8578,45 +9920,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="62"/>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="64"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -8801,45 +10143,45 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="63"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="59" t="s">
+      <c r="A12" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -9111,45 +10453,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -9396,45 +10738,45 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="63"/>
-      <c r="F34" s="63"/>
-      <c r="G34" s="63"/>
-      <c r="H34" s="63"/>
-      <c r="I34" s="63"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="62" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="61"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="64"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -9708,45 +11050,45 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
-      <c r="D45" s="62"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="63"/>
-      <c r="F46" s="63"/>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="63"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
+      <c r="A46" s="66"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="60"/>
-      <c r="H47" s="60"/>
-      <c r="I47" s="60"/>
-      <c r="J47" s="60"/>
-      <c r="K47" s="61"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="63"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="64"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -9989,45 +11331,45 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="62"/>
-      <c r="B56" s="62"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="62"/>
-      <c r="E56" s="62"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="63"/>
-      <c r="E57" s="63"/>
-      <c r="F57" s="63"/>
-      <c r="G57" s="63"/>
-      <c r="H57" s="63"/>
-      <c r="I57" s="63"/>
-      <c r="J57" s="63"/>
-      <c r="K57" s="63"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="59" t="s">
+      <c r="A58" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
-      <c r="H58" s="60"/>
-      <c r="I58" s="60"/>
-      <c r="J58" s="60"/>
-      <c r="K58" s="61"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="63"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="63"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="64"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -10270,45 +11612,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="62"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="62"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="62"/>
-      <c r="F67" s="62"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="63"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
+      <c r="A68" s="66"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="66"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="59" t="s">
+      <c r="A69" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="60"/>
-      <c r="F69" s="60"/>
-      <c r="G69" s="60"/>
-      <c r="H69" s="60"/>
-      <c r="I69" s="60"/>
-      <c r="J69" s="60"/>
-      <c r="K69" s="61"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="63"/>
+      <c r="G69" s="63"/>
+      <c r="H69" s="63"/>
+      <c r="I69" s="63"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="64"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -10632,45 +11974,45 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="62"/>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
-      <c r="I82" s="62"/>
-      <c r="J82" s="62"/>
-      <c r="K82" s="62"/>
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="65"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="63"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="63"/>
-      <c r="D83" s="63"/>
-      <c r="E83" s="63"/>
-      <c r="F83" s="63"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="63"/>
-      <c r="I83" s="63"/>
-      <c r="J83" s="63"/>
-      <c r="K83" s="63"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="59" t="s">
-        <v>195</v>
-      </c>
-      <c r="B84" s="60"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
-      <c r="E84" s="60"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="60"/>
-      <c r="J84" s="60"/>
-      <c r="K84" s="61"/>
+      <c r="A84" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="63"/>
+      <c r="C84" s="63"/>
+      <c r="D84" s="63"/>
+      <c r="E84" s="63"/>
+      <c r="F84" s="63"/>
+      <c r="G84" s="63"/>
+      <c r="H84" s="63"/>
+      <c r="I84" s="63"/>
+      <c r="J84" s="63"/>
+      <c r="K84" s="64"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
@@ -10745,7 +12087,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>66</v>
@@ -10851,45 +12193,45 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="62"/>
-      <c r="B91" s="62"/>
-      <c r="C91" s="62"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62"/>
-      <c r="G91" s="62"/>
-      <c r="H91" s="62"/>
-      <c r="I91" s="62"/>
-      <c r="J91" s="62"/>
-      <c r="K91" s="62"/>
+      <c r="A91" s="65"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="65"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="63"/>
-      <c r="B92" s="63"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="63"/>
-      <c r="F92" s="63"/>
-      <c r="G92" s="63"/>
-      <c r="H92" s="63"/>
-      <c r="I92" s="63"/>
-      <c r="J92" s="63"/>
-      <c r="K92" s="63"/>
+      <c r="A92" s="66"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="B93" s="60"/>
-      <c r="C93" s="60"/>
-      <c r="D93" s="60"/>
-      <c r="E93" s="60"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="60"/>
-      <c r="I93" s="60"/>
-      <c r="J93" s="60"/>
-      <c r="K93" s="61"/>
+      <c r="A93" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="B93" s="63"/>
+      <c r="C93" s="63"/>
+      <c r="D93" s="63"/>
+      <c r="E93" s="63"/>
+      <c r="F93" s="63"/>
+      <c r="G93" s="63"/>
+      <c r="H93" s="63"/>
+      <c r="I93" s="63"/>
+      <c r="J93" s="63"/>
+      <c r="K93" s="64"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -10964,7 +12306,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>116</v>
@@ -10982,7 +12324,7 @@
         <v>11</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I96" s="52"/>
       <c r="J96" s="52" t="s">
@@ -10995,7 +12337,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -11024,7 +12366,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>15</v>
@@ -11136,45 +12478,45 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="62"/>
-      <c r="B103" s="62"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="62"/>
-      <c r="E103" s="62"/>
-      <c r="F103" s="62"/>
-      <c r="G103" s="62"/>
-      <c r="H103" s="62"/>
-      <c r="I103" s="62"/>
-      <c r="J103" s="62"/>
-      <c r="K103" s="62"/>
+      <c r="A103" s="65"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="63"/>
-      <c r="B104" s="63"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="63"/>
-      <c r="F104" s="63"/>
-      <c r="G104" s="63"/>
-      <c r="H104" s="63"/>
-      <c r="I104" s="63"/>
-      <c r="J104" s="63"/>
-      <c r="K104" s="63"/>
+      <c r="A104" s="66"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="I104" s="66"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="66"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="59" t="s">
+      <c r="A105" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="60"/>
-      <c r="C105" s="60"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="60"/>
-      <c r="F105" s="60"/>
-      <c r="G105" s="60"/>
-      <c r="H105" s="60"/>
-      <c r="I105" s="60"/>
-      <c r="J105" s="60"/>
-      <c r="K105" s="61"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="63"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="63"/>
+      <c r="F105" s="63"/>
+      <c r="G105" s="63"/>
+      <c r="H105" s="63"/>
+      <c r="I105" s="63"/>
+      <c r="J105" s="63"/>
+      <c r="K105" s="64"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
@@ -11305,45 +12647,45 @@
       <c r="K109" s="14"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="62"/>
-      <c r="B110" s="62"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="62"/>
-      <c r="E110" s="62"/>
-      <c r="F110" s="62"/>
-      <c r="G110" s="62"/>
-      <c r="H110" s="62"/>
-      <c r="I110" s="62"/>
-      <c r="J110" s="62"/>
-      <c r="K110" s="62"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="65"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="65"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="63"/>
-      <c r="B111" s="63"/>
-      <c r="C111" s="63"/>
-      <c r="D111" s="63"/>
-      <c r="E111" s="63"/>
-      <c r="F111" s="63"/>
-      <c r="G111" s="63"/>
-      <c r="H111" s="63"/>
-      <c r="I111" s="63"/>
-      <c r="J111" s="63"/>
-      <c r="K111" s="63"/>
+      <c r="A111" s="66"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="66"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="59" t="s">
+      <c r="A112" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="60"/>
-      <c r="C112" s="60"/>
-      <c r="D112" s="60"/>
-      <c r="E112" s="60"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="60"/>
-      <c r="J112" s="60"/>
-      <c r="K112" s="61"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="63"/>
+      <c r="D112" s="63"/>
+      <c r="E112" s="63"/>
+      <c r="F112" s="63"/>
+      <c r="G112" s="63"/>
+      <c r="H112" s="63"/>
+      <c r="I112" s="63"/>
+      <c r="J112" s="63"/>
+      <c r="K112" s="64"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -1327,6 +1327,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1338,24 +1356,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1672,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A393" sqref="A393"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,49 +1693,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="95"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -1941,30 +1941,30 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="89"/>
+      <c r="K11" s="89"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="94"/>
-      <c r="K12" s="94"/>
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="96" t="s">
@@ -2185,45 +2185,45 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="93"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="91"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="91"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="91"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="94"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="94"/>
+      <c r="A22" s="90"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="90" t="s">
+      <c r="A23" s="86" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="91"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="92"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="88"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2456,45 +2456,45 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="95"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="95"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="89"/>
+      <c r="G32" s="89"/>
+      <c r="H32" s="89"/>
+      <c r="I32" s="89"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
-      <c r="C33" s="94"/>
-      <c r="D33" s="94"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="94"/>
-      <c r="G33" s="94"/>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="90" t="s">
+      <c r="A34" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="91"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="92"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="88"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
@@ -3179,11 +3179,11 @@
         <v>15</v>
       </c>
       <c r="D59" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>11</v>
@@ -3310,45 +3310,45 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="95"/>
-      <c r="B64" s="95"/>
-      <c r="C64" s="95"/>
-      <c r="D64" s="95"/>
-      <c r="E64" s="95"/>
-      <c r="F64" s="95"/>
-      <c r="G64" s="95"/>
-      <c r="H64" s="95"/>
-      <c r="I64" s="95"/>
-      <c r="J64" s="95"/>
-      <c r="K64" s="95"/>
+      <c r="A64" s="89"/>
+      <c r="B64" s="89"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="89"/>
+      <c r="E64" s="89"/>
+      <c r="F64" s="89"/>
+      <c r="G64" s="89"/>
+      <c r="H64" s="89"/>
+      <c r="I64" s="89"/>
+      <c r="J64" s="89"/>
+      <c r="K64" s="89"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="94"/>
-      <c r="B65" s="94"/>
-      <c r="C65" s="94"/>
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-      <c r="F65" s="94"/>
-      <c r="G65" s="94"/>
-      <c r="H65" s="94"/>
-      <c r="I65" s="94"/>
-      <c r="J65" s="94"/>
-      <c r="K65" s="94"/>
+      <c r="A65" s="90"/>
+      <c r="B65" s="90"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="90"/>
+      <c r="E65" s="90"/>
+      <c r="F65" s="90"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="90"/>
+      <c r="I65" s="90"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="90"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="90" t="s">
+      <c r="A66" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="B66" s="91"/>
-      <c r="C66" s="91"/>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
-      <c r="G66" s="91"/>
-      <c r="H66" s="91"/>
-      <c r="I66" s="91"/>
-      <c r="J66" s="91"/>
-      <c r="K66" s="92"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="88"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
@@ -3562,45 +3562,45 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="93"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="93"/>
-      <c r="I74" s="93"/>
-      <c r="J74" s="93"/>
-      <c r="K74" s="93"/>
+      <c r="A74" s="91"/>
+      <c r="B74" s="91"/>
+      <c r="C74" s="91"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="94"/>
-      <c r="B75" s="94"/>
-      <c r="C75" s="94"/>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94"/>
-      <c r="F75" s="94"/>
-      <c r="G75" s="94"/>
-      <c r="H75" s="94"/>
-      <c r="I75" s="94"/>
-      <c r="J75" s="94"/>
-      <c r="K75" s="94"/>
+      <c r="A75" s="90"/>
+      <c r="B75" s="90"/>
+      <c r="C75" s="90"/>
+      <c r="D75" s="90"/>
+      <c r="E75" s="90"/>
+      <c r="F75" s="90"/>
+      <c r="G75" s="90"/>
+      <c r="H75" s="90"/>
+      <c r="I75" s="90"/>
+      <c r="J75" s="90"/>
+      <c r="K75" s="90"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="90" t="s">
+      <c r="A76" s="86" t="s">
         <v>147</v>
       </c>
-      <c r="B76" s="91"/>
-      <c r="C76" s="91"/>
-      <c r="D76" s="91"/>
-      <c r="E76" s="91"/>
-      <c r="F76" s="91"/>
-      <c r="G76" s="91"/>
-      <c r="H76" s="91"/>
-      <c r="I76" s="91"/>
-      <c r="J76" s="91"/>
-      <c r="K76" s="92"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="87"/>
+      <c r="D76" s="87"/>
+      <c r="E76" s="87"/>
+      <c r="F76" s="87"/>
+      <c r="G76" s="87"/>
+      <c r="H76" s="87"/>
+      <c r="I76" s="87"/>
+      <c r="J76" s="87"/>
+      <c r="K76" s="88"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -3889,45 +3889,45 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="95"/>
-      <c r="B87" s="95"/>
-      <c r="C87" s="95"/>
-      <c r="D87" s="95"/>
-      <c r="E87" s="95"/>
-      <c r="F87" s="95"/>
-      <c r="G87" s="95"/>
-      <c r="H87" s="95"/>
-      <c r="I87" s="95"/>
-      <c r="J87" s="95"/>
-      <c r="K87" s="95"/>
+      <c r="A87" s="89"/>
+      <c r="B87" s="89"/>
+      <c r="C87" s="89"/>
+      <c r="D87" s="89"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="89"/>
+      <c r="H87" s="89"/>
+      <c r="I87" s="89"/>
+      <c r="J87" s="89"/>
+      <c r="K87" s="89"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="94"/>
-      <c r="B88" s="94"/>
-      <c r="C88" s="94"/>
-      <c r="D88" s="94"/>
-      <c r="E88" s="94"/>
-      <c r="F88" s="94"/>
-      <c r="G88" s="94"/>
-      <c r="H88" s="94"/>
-      <c r="I88" s="94"/>
-      <c r="J88" s="94"/>
-      <c r="K88" s="94"/>
+      <c r="A88" s="90"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="90"/>
+      <c r="E88" s="90"/>
+      <c r="F88" s="90"/>
+      <c r="G88" s="90"/>
+      <c r="H88" s="90"/>
+      <c r="I88" s="90"/>
+      <c r="J88" s="90"/>
+      <c r="K88" s="90"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="90" t="s">
+      <c r="A89" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="B89" s="91"/>
-      <c r="C89" s="91"/>
-      <c r="D89" s="91"/>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
-      <c r="H89" s="91"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
-      <c r="K89" s="92"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="87"/>
+      <c r="D89" s="87"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="87"/>
+      <c r="G89" s="87"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="87"/>
+      <c r="J89" s="87"/>
+      <c r="K89" s="88"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
@@ -4255,45 +4255,45 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="95"/>
-      <c r="B101" s="95"/>
-      <c r="C101" s="95"/>
-      <c r="D101" s="95"/>
-      <c r="E101" s="95"/>
-      <c r="F101" s="95"/>
-      <c r="G101" s="95"/>
-      <c r="H101" s="95"/>
-      <c r="I101" s="95"/>
-      <c r="J101" s="95"/>
-      <c r="K101" s="95"/>
+      <c r="A101" s="89"/>
+      <c r="B101" s="89"/>
+      <c r="C101" s="89"/>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="89"/>
+      <c r="H101" s="89"/>
+      <c r="I101" s="89"/>
+      <c r="J101" s="89"/>
+      <c r="K101" s="89"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="94"/>
-      <c r="B102" s="94"/>
-      <c r="C102" s="94"/>
-      <c r="D102" s="94"/>
-      <c r="E102" s="94"/>
-      <c r="F102" s="94"/>
-      <c r="G102" s="94"/>
-      <c r="H102" s="94"/>
-      <c r="I102" s="94"/>
-      <c r="J102" s="94"/>
-      <c r="K102" s="94"/>
+      <c r="A102" s="90"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="90"/>
+      <c r="D102" s="90"/>
+      <c r="E102" s="90"/>
+      <c r="F102" s="90"/>
+      <c r="G102" s="90"/>
+      <c r="H102" s="90"/>
+      <c r="I102" s="90"/>
+      <c r="J102" s="90"/>
+      <c r="K102" s="90"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="90" t="s">
+      <c r="A103" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="91"/>
-      <c r="C103" s="91"/>
-      <c r="D103" s="91"/>
-      <c r="E103" s="91"/>
-      <c r="F103" s="91"/>
-      <c r="G103" s="91"/>
-      <c r="H103" s="91"/>
-      <c r="I103" s="91"/>
-      <c r="J103" s="91"/>
-      <c r="K103" s="92"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="87"/>
+      <c r="D103" s="87"/>
+      <c r="E103" s="87"/>
+      <c r="F103" s="87"/>
+      <c r="G103" s="87"/>
+      <c r="H103" s="87"/>
+      <c r="I103" s="87"/>
+      <c r="J103" s="87"/>
+      <c r="K103" s="88"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
@@ -4669,45 +4669,45 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="95"/>
-      <c r="B117" s="95"/>
-      <c r="C117" s="95"/>
-      <c r="D117" s="95"/>
-      <c r="E117" s="95"/>
-      <c r="F117" s="95"/>
-      <c r="G117" s="95"/>
-      <c r="H117" s="95"/>
-      <c r="I117" s="95"/>
-      <c r="J117" s="95"/>
-      <c r="K117" s="95"/>
+      <c r="A117" s="89"/>
+      <c r="B117" s="89"/>
+      <c r="C117" s="89"/>
+      <c r="D117" s="89"/>
+      <c r="E117" s="89"/>
+      <c r="F117" s="89"/>
+      <c r="G117" s="89"/>
+      <c r="H117" s="89"/>
+      <c r="I117" s="89"/>
+      <c r="J117" s="89"/>
+      <c r="K117" s="89"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="94"/>
-      <c r="B118" s="94"/>
-      <c r="C118" s="94"/>
-      <c r="D118" s="94"/>
-      <c r="E118" s="94"/>
-      <c r="F118" s="94"/>
-      <c r="G118" s="94"/>
-      <c r="H118" s="94"/>
-      <c r="I118" s="94"/>
-      <c r="J118" s="94"/>
-      <c r="K118" s="94"/>
+      <c r="A118" s="90"/>
+      <c r="B118" s="90"/>
+      <c r="C118" s="90"/>
+      <c r="D118" s="90"/>
+      <c r="E118" s="90"/>
+      <c r="F118" s="90"/>
+      <c r="G118" s="90"/>
+      <c r="H118" s="90"/>
+      <c r="I118" s="90"/>
+      <c r="J118" s="90"/>
+      <c r="K118" s="90"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="90" t="s">
+      <c r="A119" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="B119" s="91"/>
-      <c r="C119" s="91"/>
-      <c r="D119" s="91"/>
-      <c r="E119" s="91"/>
-      <c r="F119" s="91"/>
-      <c r="G119" s="91"/>
-      <c r="H119" s="91"/>
-      <c r="I119" s="91"/>
-      <c r="J119" s="91"/>
-      <c r="K119" s="92"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="87"/>
+      <c r="D119" s="87"/>
+      <c r="E119" s="87"/>
+      <c r="F119" s="87"/>
+      <c r="G119" s="87"/>
+      <c r="H119" s="87"/>
+      <c r="I119" s="87"/>
+      <c r="J119" s="87"/>
+      <c r="K119" s="88"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
@@ -5149,45 +5149,45 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="95"/>
-      <c r="B135" s="95"/>
-      <c r="C135" s="95"/>
-      <c r="D135" s="95"/>
-      <c r="E135" s="95"/>
-      <c r="F135" s="95"/>
-      <c r="G135" s="95"/>
-      <c r="H135" s="95"/>
-      <c r="I135" s="95"/>
-      <c r="J135" s="95"/>
-      <c r="K135" s="95"/>
+      <c r="A135" s="89"/>
+      <c r="B135" s="89"/>
+      <c r="C135" s="89"/>
+      <c r="D135" s="89"/>
+      <c r="E135" s="89"/>
+      <c r="F135" s="89"/>
+      <c r="G135" s="89"/>
+      <c r="H135" s="89"/>
+      <c r="I135" s="89"/>
+      <c r="J135" s="89"/>
+      <c r="K135" s="89"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="94"/>
-      <c r="B136" s="94"/>
-      <c r="C136" s="94"/>
-      <c r="D136" s="94"/>
-      <c r="E136" s="94"/>
-      <c r="F136" s="94"/>
-      <c r="G136" s="94"/>
-      <c r="H136" s="94"/>
-      <c r="I136" s="94"/>
-      <c r="J136" s="94"/>
-      <c r="K136" s="94"/>
+      <c r="A136" s="90"/>
+      <c r="B136" s="90"/>
+      <c r="C136" s="90"/>
+      <c r="D136" s="90"/>
+      <c r="E136" s="90"/>
+      <c r="F136" s="90"/>
+      <c r="G136" s="90"/>
+      <c r="H136" s="90"/>
+      <c r="I136" s="90"/>
+      <c r="J136" s="90"/>
+      <c r="K136" s="90"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="90" t="s">
+      <c r="A137" s="86" t="s">
         <v>126</v>
       </c>
-      <c r="B137" s="91"/>
-      <c r="C137" s="91"/>
-      <c r="D137" s="91"/>
-      <c r="E137" s="91"/>
-      <c r="F137" s="91"/>
-      <c r="G137" s="91"/>
-      <c r="H137" s="91"/>
-      <c r="I137" s="91"/>
-      <c r="J137" s="91"/>
-      <c r="K137" s="92"/>
+      <c r="B137" s="87"/>
+      <c r="C137" s="87"/>
+      <c r="D137" s="87"/>
+      <c r="E137" s="87"/>
+      <c r="F137" s="87"/>
+      <c r="G137" s="87"/>
+      <c r="H137" s="87"/>
+      <c r="I137" s="87"/>
+      <c r="J137" s="87"/>
+      <c r="K137" s="88"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
@@ -5580,45 +5580,45 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="95"/>
-      <c r="B152" s="95"/>
-      <c r="C152" s="95"/>
-      <c r="D152" s="95"/>
-      <c r="E152" s="95"/>
-      <c r="F152" s="95"/>
-      <c r="G152" s="95"/>
-      <c r="H152" s="95"/>
-      <c r="I152" s="95"/>
-      <c r="J152" s="95"/>
-      <c r="K152" s="95"/>
+      <c r="A152" s="89"/>
+      <c r="B152" s="89"/>
+      <c r="C152" s="89"/>
+      <c r="D152" s="89"/>
+      <c r="E152" s="89"/>
+      <c r="F152" s="89"/>
+      <c r="G152" s="89"/>
+      <c r="H152" s="89"/>
+      <c r="I152" s="89"/>
+      <c r="J152" s="89"/>
+      <c r="K152" s="89"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="94"/>
-      <c r="B153" s="94"/>
-      <c r="C153" s="94"/>
-      <c r="D153" s="94"/>
-      <c r="E153" s="94"/>
-      <c r="F153" s="94"/>
-      <c r="G153" s="94"/>
-      <c r="H153" s="94"/>
-      <c r="I153" s="94"/>
-      <c r="J153" s="94"/>
-      <c r="K153" s="94"/>
+      <c r="A153" s="90"/>
+      <c r="B153" s="90"/>
+      <c r="C153" s="90"/>
+      <c r="D153" s="90"/>
+      <c r="E153" s="90"/>
+      <c r="F153" s="90"/>
+      <c r="G153" s="90"/>
+      <c r="H153" s="90"/>
+      <c r="I153" s="90"/>
+      <c r="J153" s="90"/>
+      <c r="K153" s="90"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="90" t="s">
+      <c r="A154" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="B154" s="91"/>
-      <c r="C154" s="91"/>
-      <c r="D154" s="91"/>
-      <c r="E154" s="91"/>
-      <c r="F154" s="91"/>
-      <c r="G154" s="91"/>
-      <c r="H154" s="91"/>
-      <c r="I154" s="91"/>
-      <c r="J154" s="91"/>
-      <c r="K154" s="92"/>
+      <c r="B154" s="87"/>
+      <c r="C154" s="87"/>
+      <c r="D154" s="87"/>
+      <c r="E154" s="87"/>
+      <c r="F154" s="87"/>
+      <c r="G154" s="87"/>
+      <c r="H154" s="87"/>
+      <c r="I154" s="87"/>
+      <c r="J154" s="87"/>
+      <c r="K154" s="88"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
@@ -5832,45 +5832,45 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="95"/>
-      <c r="B162" s="95"/>
-      <c r="C162" s="95"/>
-      <c r="D162" s="95"/>
-      <c r="E162" s="95"/>
-      <c r="F162" s="95"/>
-      <c r="G162" s="95"/>
-      <c r="H162" s="95"/>
-      <c r="I162" s="95"/>
-      <c r="J162" s="95"/>
-      <c r="K162" s="95"/>
+      <c r="A162" s="89"/>
+      <c r="B162" s="89"/>
+      <c r="C162" s="89"/>
+      <c r="D162" s="89"/>
+      <c r="E162" s="89"/>
+      <c r="F162" s="89"/>
+      <c r="G162" s="89"/>
+      <c r="H162" s="89"/>
+      <c r="I162" s="89"/>
+      <c r="J162" s="89"/>
+      <c r="K162" s="89"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="94"/>
-      <c r="B163" s="94"/>
-      <c r="C163" s="94"/>
-      <c r="D163" s="94"/>
-      <c r="E163" s="94"/>
-      <c r="F163" s="94"/>
-      <c r="G163" s="94"/>
-      <c r="H163" s="94"/>
-      <c r="I163" s="94"/>
-      <c r="J163" s="94"/>
-      <c r="K163" s="94"/>
+      <c r="A163" s="90"/>
+      <c r="B163" s="90"/>
+      <c r="C163" s="90"/>
+      <c r="D163" s="90"/>
+      <c r="E163" s="90"/>
+      <c r="F163" s="90"/>
+      <c r="G163" s="90"/>
+      <c r="H163" s="90"/>
+      <c r="I163" s="90"/>
+      <c r="J163" s="90"/>
+      <c r="K163" s="90"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="90" t="s">
+      <c r="A164" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="B164" s="91"/>
-      <c r="C164" s="91"/>
-      <c r="D164" s="91"/>
-      <c r="E164" s="91"/>
-      <c r="F164" s="91"/>
-      <c r="G164" s="91"/>
-      <c r="H164" s="91"/>
-      <c r="I164" s="91"/>
-      <c r="J164" s="91"/>
-      <c r="K164" s="92"/>
+      <c r="B164" s="87"/>
+      <c r="C164" s="87"/>
+      <c r="D164" s="87"/>
+      <c r="E164" s="87"/>
+      <c r="F164" s="87"/>
+      <c r="G164" s="87"/>
+      <c r="H164" s="87"/>
+      <c r="I164" s="87"/>
+      <c r="J164" s="87"/>
+      <c r="K164" s="88"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
@@ -6153,45 +6153,45 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="95"/>
-      <c r="B175" s="95"/>
-      <c r="C175" s="95"/>
-      <c r="D175" s="95"/>
-      <c r="E175" s="95"/>
-      <c r="F175" s="95"/>
-      <c r="G175" s="95"/>
-      <c r="H175" s="95"/>
-      <c r="I175" s="95"/>
-      <c r="J175" s="95"/>
-      <c r="K175" s="95"/>
+      <c r="A175" s="89"/>
+      <c r="B175" s="89"/>
+      <c r="C175" s="89"/>
+      <c r="D175" s="89"/>
+      <c r="E175" s="89"/>
+      <c r="F175" s="89"/>
+      <c r="G175" s="89"/>
+      <c r="H175" s="89"/>
+      <c r="I175" s="89"/>
+      <c r="J175" s="89"/>
+      <c r="K175" s="89"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="94"/>
-      <c r="B176" s="94"/>
-      <c r="C176" s="94"/>
-      <c r="D176" s="94"/>
-      <c r="E176" s="94"/>
-      <c r="F176" s="94"/>
-      <c r="G176" s="94"/>
-      <c r="H176" s="94"/>
-      <c r="I176" s="94"/>
-      <c r="J176" s="94"/>
-      <c r="K176" s="94"/>
+      <c r="A176" s="90"/>
+      <c r="B176" s="90"/>
+      <c r="C176" s="90"/>
+      <c r="D176" s="90"/>
+      <c r="E176" s="90"/>
+      <c r="F176" s="90"/>
+      <c r="G176" s="90"/>
+      <c r="H176" s="90"/>
+      <c r="I176" s="90"/>
+      <c r="J176" s="90"/>
+      <c r="K176" s="90"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="90" t="s">
+      <c r="A177" s="86" t="s">
         <v>75</v>
       </c>
-      <c r="B177" s="91"/>
-      <c r="C177" s="91"/>
-      <c r="D177" s="91"/>
-      <c r="E177" s="91"/>
-      <c r="F177" s="91"/>
-      <c r="G177" s="91"/>
-      <c r="H177" s="91"/>
-      <c r="I177" s="91"/>
-      <c r="J177" s="91"/>
-      <c r="K177" s="92"/>
+      <c r="B177" s="87"/>
+      <c r="C177" s="87"/>
+      <c r="D177" s="87"/>
+      <c r="E177" s="87"/>
+      <c r="F177" s="87"/>
+      <c r="G177" s="87"/>
+      <c r="H177" s="87"/>
+      <c r="I177" s="87"/>
+      <c r="J177" s="87"/>
+      <c r="K177" s="88"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
@@ -6459,45 +6459,45 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="95"/>
-      <c r="B187" s="95"/>
-      <c r="C187" s="95"/>
-      <c r="D187" s="95"/>
-      <c r="E187" s="95"/>
-      <c r="F187" s="95"/>
-      <c r="G187" s="95"/>
-      <c r="H187" s="95"/>
-      <c r="I187" s="95"/>
-      <c r="J187" s="95"/>
-      <c r="K187" s="95"/>
+      <c r="A187" s="89"/>
+      <c r="B187" s="89"/>
+      <c r="C187" s="89"/>
+      <c r="D187" s="89"/>
+      <c r="E187" s="89"/>
+      <c r="F187" s="89"/>
+      <c r="G187" s="89"/>
+      <c r="H187" s="89"/>
+      <c r="I187" s="89"/>
+      <c r="J187" s="89"/>
+      <c r="K187" s="89"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="94"/>
-      <c r="B188" s="94"/>
-      <c r="C188" s="94"/>
-      <c r="D188" s="94"/>
-      <c r="E188" s="94"/>
-      <c r="F188" s="94"/>
-      <c r="G188" s="94"/>
-      <c r="H188" s="94"/>
-      <c r="I188" s="94"/>
-      <c r="J188" s="94"/>
-      <c r="K188" s="94"/>
+      <c r="A188" s="90"/>
+      <c r="B188" s="90"/>
+      <c r="C188" s="90"/>
+      <c r="D188" s="90"/>
+      <c r="E188" s="90"/>
+      <c r="F188" s="90"/>
+      <c r="G188" s="90"/>
+      <c r="H188" s="90"/>
+      <c r="I188" s="90"/>
+      <c r="J188" s="90"/>
+      <c r="K188" s="90"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="90" t="s">
+      <c r="A189" s="86" t="s">
         <v>83</v>
       </c>
-      <c r="B189" s="91"/>
-      <c r="C189" s="91"/>
-      <c r="D189" s="91"/>
-      <c r="E189" s="91"/>
-      <c r="F189" s="91"/>
-      <c r="G189" s="91"/>
-      <c r="H189" s="91"/>
-      <c r="I189" s="91"/>
-      <c r="J189" s="91"/>
-      <c r="K189" s="92"/>
+      <c r="B189" s="87"/>
+      <c r="C189" s="87"/>
+      <c r="D189" s="87"/>
+      <c r="E189" s="87"/>
+      <c r="F189" s="87"/>
+      <c r="G189" s="87"/>
+      <c r="H189" s="87"/>
+      <c r="I189" s="87"/>
+      <c r="J189" s="87"/>
+      <c r="K189" s="88"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
@@ -6767,45 +6767,45 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="95"/>
-      <c r="B199" s="95"/>
-      <c r="C199" s="95"/>
-      <c r="D199" s="95"/>
-      <c r="E199" s="95"/>
-      <c r="F199" s="95"/>
-      <c r="G199" s="95"/>
-      <c r="H199" s="95"/>
-      <c r="I199" s="95"/>
-      <c r="J199" s="95"/>
-      <c r="K199" s="95"/>
+      <c r="A199" s="89"/>
+      <c r="B199" s="89"/>
+      <c r="C199" s="89"/>
+      <c r="D199" s="89"/>
+      <c r="E199" s="89"/>
+      <c r="F199" s="89"/>
+      <c r="G199" s="89"/>
+      <c r="H199" s="89"/>
+      <c r="I199" s="89"/>
+      <c r="J199" s="89"/>
+      <c r="K199" s="89"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="94"/>
-      <c r="B200" s="94"/>
-      <c r="C200" s="94"/>
-      <c r="D200" s="94"/>
-      <c r="E200" s="94"/>
-      <c r="F200" s="94"/>
-      <c r="G200" s="94"/>
-      <c r="H200" s="94"/>
-      <c r="I200" s="94"/>
-      <c r="J200" s="94"/>
-      <c r="K200" s="94"/>
+      <c r="A200" s="90"/>
+      <c r="B200" s="90"/>
+      <c r="C200" s="90"/>
+      <c r="D200" s="90"/>
+      <c r="E200" s="90"/>
+      <c r="F200" s="90"/>
+      <c r="G200" s="90"/>
+      <c r="H200" s="90"/>
+      <c r="I200" s="90"/>
+      <c r="J200" s="90"/>
+      <c r="K200" s="90"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="90" t="s">
+      <c r="A201" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="B201" s="91"/>
-      <c r="C201" s="91"/>
-      <c r="D201" s="91"/>
-      <c r="E201" s="91"/>
-      <c r="F201" s="91"/>
-      <c r="G201" s="91"/>
-      <c r="H201" s="91"/>
-      <c r="I201" s="91"/>
-      <c r="J201" s="91"/>
-      <c r="K201" s="92"/>
+      <c r="B201" s="87"/>
+      <c r="C201" s="87"/>
+      <c r="D201" s="87"/>
+      <c r="E201" s="87"/>
+      <c r="F201" s="87"/>
+      <c r="G201" s="87"/>
+      <c r="H201" s="87"/>
+      <c r="I201" s="87"/>
+      <c r="J201" s="87"/>
+      <c r="K201" s="88"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
@@ -7203,45 +7203,45 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="95"/>
-      <c r="B215" s="95"/>
-      <c r="C215" s="95"/>
-      <c r="D215" s="95"/>
-      <c r="E215" s="95"/>
-      <c r="F215" s="95"/>
-      <c r="G215" s="95"/>
-      <c r="H215" s="95"/>
-      <c r="I215" s="95"/>
-      <c r="J215" s="95"/>
-      <c r="K215" s="95"/>
+      <c r="A215" s="89"/>
+      <c r="B215" s="89"/>
+      <c r="C215" s="89"/>
+      <c r="D215" s="89"/>
+      <c r="E215" s="89"/>
+      <c r="F215" s="89"/>
+      <c r="G215" s="89"/>
+      <c r="H215" s="89"/>
+      <c r="I215" s="89"/>
+      <c r="J215" s="89"/>
+      <c r="K215" s="89"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="94"/>
-      <c r="B216" s="94"/>
-      <c r="C216" s="94"/>
-      <c r="D216" s="94"/>
-      <c r="E216" s="94"/>
-      <c r="F216" s="94"/>
-      <c r="G216" s="94"/>
-      <c r="H216" s="94"/>
-      <c r="I216" s="94"/>
-      <c r="J216" s="94"/>
-      <c r="K216" s="94"/>
+      <c r="A216" s="90"/>
+      <c r="B216" s="90"/>
+      <c r="C216" s="90"/>
+      <c r="D216" s="90"/>
+      <c r="E216" s="90"/>
+      <c r="F216" s="90"/>
+      <c r="G216" s="90"/>
+      <c r="H216" s="90"/>
+      <c r="I216" s="90"/>
+      <c r="J216" s="90"/>
+      <c r="K216" s="90"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="90" t="s">
+      <c r="A217" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="B217" s="91"/>
-      <c r="C217" s="91"/>
-      <c r="D217" s="91"/>
-      <c r="E217" s="91"/>
-      <c r="F217" s="91"/>
-      <c r="G217" s="91"/>
-      <c r="H217" s="91"/>
-      <c r="I217" s="91"/>
-      <c r="J217" s="91"/>
-      <c r="K217" s="92"/>
+      <c r="B217" s="87"/>
+      <c r="C217" s="87"/>
+      <c r="D217" s="87"/>
+      <c r="E217" s="87"/>
+      <c r="F217" s="87"/>
+      <c r="G217" s="87"/>
+      <c r="H217" s="87"/>
+      <c r="I217" s="87"/>
+      <c r="J217" s="87"/>
+      <c r="K217" s="88"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
@@ -7442,45 +7442,45 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="95"/>
-      <c r="B225" s="95"/>
-      <c r="C225" s="95"/>
-      <c r="D225" s="95"/>
-      <c r="E225" s="95"/>
-      <c r="F225" s="95"/>
-      <c r="G225" s="95"/>
-      <c r="H225" s="95"/>
-      <c r="I225" s="95"/>
-      <c r="J225" s="95"/>
-      <c r="K225" s="95"/>
+      <c r="A225" s="89"/>
+      <c r="B225" s="89"/>
+      <c r="C225" s="89"/>
+      <c r="D225" s="89"/>
+      <c r="E225" s="89"/>
+      <c r="F225" s="89"/>
+      <c r="G225" s="89"/>
+      <c r="H225" s="89"/>
+      <c r="I225" s="89"/>
+      <c r="J225" s="89"/>
+      <c r="K225" s="89"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="94"/>
-      <c r="B226" s="94"/>
-      <c r="C226" s="94"/>
-      <c r="D226" s="94"/>
-      <c r="E226" s="94"/>
-      <c r="F226" s="94"/>
-      <c r="G226" s="94"/>
-      <c r="H226" s="94"/>
-      <c r="I226" s="94"/>
-      <c r="J226" s="94"/>
-      <c r="K226" s="94"/>
+      <c r="A226" s="90"/>
+      <c r="B226" s="90"/>
+      <c r="C226" s="90"/>
+      <c r="D226" s="90"/>
+      <c r="E226" s="90"/>
+      <c r="F226" s="90"/>
+      <c r="G226" s="90"/>
+      <c r="H226" s="90"/>
+      <c r="I226" s="90"/>
+      <c r="J226" s="90"/>
+      <c r="K226" s="90"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="90" t="s">
+      <c r="A227" s="86" t="s">
         <v>204</v>
       </c>
-      <c r="B227" s="91"/>
-      <c r="C227" s="91"/>
-      <c r="D227" s="91"/>
-      <c r="E227" s="91"/>
-      <c r="F227" s="91"/>
-      <c r="G227" s="91"/>
-      <c r="H227" s="91"/>
-      <c r="I227" s="91"/>
-      <c r="J227" s="91"/>
-      <c r="K227" s="92"/>
+      <c r="B227" s="87"/>
+      <c r="C227" s="87"/>
+      <c r="D227" s="87"/>
+      <c r="E227" s="87"/>
+      <c r="F227" s="87"/>
+      <c r="G227" s="87"/>
+      <c r="H227" s="87"/>
+      <c r="I227" s="87"/>
+      <c r="J227" s="87"/>
+      <c r="K227" s="88"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
@@ -7727,45 +7727,45 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="95"/>
-      <c r="B236" s="95"/>
-      <c r="C236" s="95"/>
-      <c r="D236" s="95"/>
-      <c r="E236" s="95"/>
-      <c r="F236" s="95"/>
-      <c r="G236" s="95"/>
-      <c r="H236" s="95"/>
-      <c r="I236" s="95"/>
-      <c r="J236" s="95"/>
-      <c r="K236" s="95"/>
+      <c r="A236" s="89"/>
+      <c r="B236" s="89"/>
+      <c r="C236" s="89"/>
+      <c r="D236" s="89"/>
+      <c r="E236" s="89"/>
+      <c r="F236" s="89"/>
+      <c r="G236" s="89"/>
+      <c r="H236" s="89"/>
+      <c r="I236" s="89"/>
+      <c r="J236" s="89"/>
+      <c r="K236" s="89"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="94"/>
-      <c r="B237" s="94"/>
-      <c r="C237" s="94"/>
-      <c r="D237" s="94"/>
-      <c r="E237" s="94"/>
-      <c r="F237" s="94"/>
-      <c r="G237" s="94"/>
-      <c r="H237" s="94"/>
-      <c r="I237" s="94"/>
-      <c r="J237" s="94"/>
-      <c r="K237" s="94"/>
+      <c r="A237" s="90"/>
+      <c r="B237" s="90"/>
+      <c r="C237" s="90"/>
+      <c r="D237" s="90"/>
+      <c r="E237" s="90"/>
+      <c r="F237" s="90"/>
+      <c r="G237" s="90"/>
+      <c r="H237" s="90"/>
+      <c r="I237" s="90"/>
+      <c r="J237" s="90"/>
+      <c r="K237" s="90"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="90" t="s">
+      <c r="A238" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="B238" s="91"/>
-      <c r="C238" s="91"/>
-      <c r="D238" s="91"/>
-      <c r="E238" s="91"/>
-      <c r="F238" s="91"/>
-      <c r="G238" s="91"/>
-      <c r="H238" s="91"/>
-      <c r="I238" s="91"/>
-      <c r="J238" s="91"/>
-      <c r="K238" s="92"/>
+      <c r="B238" s="87"/>
+      <c r="C238" s="87"/>
+      <c r="D238" s="87"/>
+      <c r="E238" s="87"/>
+      <c r="F238" s="87"/>
+      <c r="G238" s="87"/>
+      <c r="H238" s="87"/>
+      <c r="I238" s="87"/>
+      <c r="J238" s="87"/>
+      <c r="K238" s="88"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
@@ -8008,45 +8008,45 @@
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="95"/>
-      <c r="B247" s="95"/>
-      <c r="C247" s="95"/>
-      <c r="D247" s="95"/>
-      <c r="E247" s="95"/>
-      <c r="F247" s="95"/>
-      <c r="G247" s="95"/>
-      <c r="H247" s="95"/>
-      <c r="I247" s="95"/>
-      <c r="J247" s="95"/>
-      <c r="K247" s="95"/>
+      <c r="A247" s="89"/>
+      <c r="B247" s="89"/>
+      <c r="C247" s="89"/>
+      <c r="D247" s="89"/>
+      <c r="E247" s="89"/>
+      <c r="F247" s="89"/>
+      <c r="G247" s="89"/>
+      <c r="H247" s="89"/>
+      <c r="I247" s="89"/>
+      <c r="J247" s="89"/>
+      <c r="K247" s="89"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="94"/>
-      <c r="B248" s="94"/>
-      <c r="C248" s="94"/>
-      <c r="D248" s="94"/>
-      <c r="E248" s="94"/>
-      <c r="F248" s="94"/>
-      <c r="G248" s="94"/>
-      <c r="H248" s="94"/>
-      <c r="I248" s="94"/>
-      <c r="J248" s="94"/>
-      <c r="K248" s="94"/>
+      <c r="A248" s="90"/>
+      <c r="B248" s="90"/>
+      <c r="C248" s="90"/>
+      <c r="D248" s="90"/>
+      <c r="E248" s="90"/>
+      <c r="F248" s="90"/>
+      <c r="G248" s="90"/>
+      <c r="H248" s="90"/>
+      <c r="I248" s="90"/>
+      <c r="J248" s="90"/>
+      <c r="K248" s="90"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="90" t="s">
+      <c r="A249" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="B249" s="91"/>
-      <c r="C249" s="91"/>
-      <c r="D249" s="91"/>
-      <c r="E249" s="91"/>
-      <c r="F249" s="91"/>
-      <c r="G249" s="91"/>
-      <c r="H249" s="91"/>
-      <c r="I249" s="91"/>
-      <c r="J249" s="91"/>
-      <c r="K249" s="92"/>
+      <c r="B249" s="87"/>
+      <c r="C249" s="87"/>
+      <c r="D249" s="87"/>
+      <c r="E249" s="87"/>
+      <c r="F249" s="87"/>
+      <c r="G249" s="87"/>
+      <c r="H249" s="87"/>
+      <c r="I249" s="87"/>
+      <c r="J249" s="87"/>
+      <c r="K249" s="88"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
@@ -8229,45 +8229,45 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="95"/>
-      <c r="B256" s="95"/>
-      <c r="C256" s="95"/>
-      <c r="D256" s="95"/>
-      <c r="E256" s="95"/>
-      <c r="F256" s="95"/>
-      <c r="G256" s="95"/>
-      <c r="H256" s="95"/>
-      <c r="I256" s="95"/>
-      <c r="J256" s="95"/>
-      <c r="K256" s="95"/>
+      <c r="A256" s="89"/>
+      <c r="B256" s="89"/>
+      <c r="C256" s="89"/>
+      <c r="D256" s="89"/>
+      <c r="E256" s="89"/>
+      <c r="F256" s="89"/>
+      <c r="G256" s="89"/>
+      <c r="H256" s="89"/>
+      <c r="I256" s="89"/>
+      <c r="J256" s="89"/>
+      <c r="K256" s="89"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="94"/>
-      <c r="B257" s="94"/>
-      <c r="C257" s="94"/>
-      <c r="D257" s="94"/>
-      <c r="E257" s="94"/>
-      <c r="F257" s="94"/>
-      <c r="G257" s="94"/>
-      <c r="H257" s="94"/>
-      <c r="I257" s="94"/>
-      <c r="J257" s="94"/>
-      <c r="K257" s="94"/>
+      <c r="A257" s="90"/>
+      <c r="B257" s="90"/>
+      <c r="C257" s="90"/>
+      <c r="D257" s="90"/>
+      <c r="E257" s="90"/>
+      <c r="F257" s="90"/>
+      <c r="G257" s="90"/>
+      <c r="H257" s="90"/>
+      <c r="I257" s="90"/>
+      <c r="J257" s="90"/>
+      <c r="K257" s="90"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="90" t="s">
+      <c r="A258" s="86" t="s">
         <v>241</v>
       </c>
-      <c r="B258" s="91"/>
-      <c r="C258" s="91"/>
-      <c r="D258" s="91"/>
-      <c r="E258" s="91"/>
-      <c r="F258" s="91"/>
-      <c r="G258" s="91"/>
-      <c r="H258" s="91"/>
-      <c r="I258" s="91"/>
-      <c r="J258" s="91"/>
-      <c r="K258" s="92"/>
+      <c r="B258" s="87"/>
+      <c r="C258" s="87"/>
+      <c r="D258" s="87"/>
+      <c r="E258" s="87"/>
+      <c r="F258" s="87"/>
+      <c r="G258" s="87"/>
+      <c r="H258" s="87"/>
+      <c r="I258" s="87"/>
+      <c r="J258" s="87"/>
+      <c r="K258" s="88"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
@@ -8450,45 +8450,45 @@
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="95"/>
-      <c r="B265" s="95"/>
-      <c r="C265" s="95"/>
-      <c r="D265" s="95"/>
-      <c r="E265" s="95"/>
-      <c r="F265" s="95"/>
-      <c r="G265" s="95"/>
-      <c r="H265" s="95"/>
-      <c r="I265" s="95"/>
-      <c r="J265" s="95"/>
-      <c r="K265" s="95"/>
+      <c r="A265" s="89"/>
+      <c r="B265" s="89"/>
+      <c r="C265" s="89"/>
+      <c r="D265" s="89"/>
+      <c r="E265" s="89"/>
+      <c r="F265" s="89"/>
+      <c r="G265" s="89"/>
+      <c r="H265" s="89"/>
+      <c r="I265" s="89"/>
+      <c r="J265" s="89"/>
+      <c r="K265" s="89"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="94"/>
-      <c r="B266" s="94"/>
-      <c r="C266" s="94"/>
-      <c r="D266" s="94"/>
-      <c r="E266" s="94"/>
-      <c r="F266" s="94"/>
-      <c r="G266" s="94"/>
-      <c r="H266" s="94"/>
-      <c r="I266" s="94"/>
-      <c r="J266" s="94"/>
-      <c r="K266" s="94"/>
+      <c r="A266" s="90"/>
+      <c r="B266" s="90"/>
+      <c r="C266" s="90"/>
+      <c r="D266" s="90"/>
+      <c r="E266" s="90"/>
+      <c r="F266" s="90"/>
+      <c r="G266" s="90"/>
+      <c r="H266" s="90"/>
+      <c r="I266" s="90"/>
+      <c r="J266" s="90"/>
+      <c r="K266" s="90"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="90" t="s">
+      <c r="A267" s="86" t="s">
         <v>243</v>
       </c>
-      <c r="B267" s="91"/>
-      <c r="C267" s="91"/>
-      <c r="D267" s="91"/>
-      <c r="E267" s="91"/>
-      <c r="F267" s="91"/>
-      <c r="G267" s="91"/>
-      <c r="H267" s="91"/>
-      <c r="I267" s="91"/>
-      <c r="J267" s="91"/>
-      <c r="K267" s="92"/>
+      <c r="B267" s="87"/>
+      <c r="C267" s="87"/>
+      <c r="D267" s="87"/>
+      <c r="E267" s="87"/>
+      <c r="F267" s="87"/>
+      <c r="G267" s="87"/>
+      <c r="H267" s="87"/>
+      <c r="I267" s="87"/>
+      <c r="J267" s="87"/>
+      <c r="K267" s="88"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
@@ -8671,45 +8671,45 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="95"/>
-      <c r="B274" s="95"/>
-      <c r="C274" s="95"/>
-      <c r="D274" s="95"/>
-      <c r="E274" s="95"/>
-      <c r="F274" s="95"/>
-      <c r="G274" s="95"/>
-      <c r="H274" s="95"/>
-      <c r="I274" s="95"/>
-      <c r="J274" s="95"/>
-      <c r="K274" s="95"/>
+      <c r="A274" s="89"/>
+      <c r="B274" s="89"/>
+      <c r="C274" s="89"/>
+      <c r="D274" s="89"/>
+      <c r="E274" s="89"/>
+      <c r="F274" s="89"/>
+      <c r="G274" s="89"/>
+      <c r="H274" s="89"/>
+      <c r="I274" s="89"/>
+      <c r="J274" s="89"/>
+      <c r="K274" s="89"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="94"/>
-      <c r="B275" s="94"/>
-      <c r="C275" s="94"/>
-      <c r="D275" s="94"/>
-      <c r="E275" s="94"/>
-      <c r="F275" s="94"/>
-      <c r="G275" s="94"/>
-      <c r="H275" s="94"/>
-      <c r="I275" s="94"/>
-      <c r="J275" s="94"/>
-      <c r="K275" s="94"/>
+      <c r="A275" s="90"/>
+      <c r="B275" s="90"/>
+      <c r="C275" s="90"/>
+      <c r="D275" s="90"/>
+      <c r="E275" s="90"/>
+      <c r="F275" s="90"/>
+      <c r="G275" s="90"/>
+      <c r="H275" s="90"/>
+      <c r="I275" s="90"/>
+      <c r="J275" s="90"/>
+      <c r="K275" s="90"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="90" t="s">
+      <c r="A276" s="86" t="s">
         <v>245</v>
       </c>
-      <c r="B276" s="91"/>
-      <c r="C276" s="91"/>
-      <c r="D276" s="91"/>
-      <c r="E276" s="91"/>
-      <c r="F276" s="91"/>
-      <c r="G276" s="91"/>
-      <c r="H276" s="91"/>
-      <c r="I276" s="91"/>
-      <c r="J276" s="91"/>
-      <c r="K276" s="92"/>
+      <c r="B276" s="87"/>
+      <c r="C276" s="87"/>
+      <c r="D276" s="87"/>
+      <c r="E276" s="87"/>
+      <c r="F276" s="87"/>
+      <c r="G276" s="87"/>
+      <c r="H276" s="87"/>
+      <c r="I276" s="87"/>
+      <c r="J276" s="87"/>
+      <c r="K276" s="88"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
@@ -8892,45 +8892,45 @@
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="95"/>
-      <c r="B283" s="95"/>
-      <c r="C283" s="95"/>
-      <c r="D283" s="95"/>
-      <c r="E283" s="95"/>
-      <c r="F283" s="95"/>
-      <c r="G283" s="95"/>
-      <c r="H283" s="95"/>
-      <c r="I283" s="95"/>
-      <c r="J283" s="95"/>
-      <c r="K283" s="95"/>
+      <c r="A283" s="89"/>
+      <c r="B283" s="89"/>
+      <c r="C283" s="89"/>
+      <c r="D283" s="89"/>
+      <c r="E283" s="89"/>
+      <c r="F283" s="89"/>
+      <c r="G283" s="89"/>
+      <c r="H283" s="89"/>
+      <c r="I283" s="89"/>
+      <c r="J283" s="89"/>
+      <c r="K283" s="89"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="94"/>
-      <c r="B284" s="94"/>
-      <c r="C284" s="94"/>
-      <c r="D284" s="94"/>
-      <c r="E284" s="94"/>
-      <c r="F284" s="94"/>
-      <c r="G284" s="94"/>
-      <c r="H284" s="94"/>
-      <c r="I284" s="94"/>
-      <c r="J284" s="94"/>
-      <c r="K284" s="94"/>
+      <c r="A284" s="90"/>
+      <c r="B284" s="90"/>
+      <c r="C284" s="90"/>
+      <c r="D284" s="90"/>
+      <c r="E284" s="90"/>
+      <c r="F284" s="90"/>
+      <c r="G284" s="90"/>
+      <c r="H284" s="90"/>
+      <c r="I284" s="90"/>
+      <c r="J284" s="90"/>
+      <c r="K284" s="90"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="90" t="s">
+      <c r="A285" s="86" t="s">
         <v>212</v>
       </c>
-      <c r="B285" s="91"/>
-      <c r="C285" s="91"/>
-      <c r="D285" s="91"/>
-      <c r="E285" s="91"/>
-      <c r="F285" s="91"/>
-      <c r="G285" s="91"/>
-      <c r="H285" s="91"/>
-      <c r="I285" s="91"/>
-      <c r="J285" s="91"/>
-      <c r="K285" s="92"/>
+      <c r="B285" s="87"/>
+      <c r="C285" s="87"/>
+      <c r="D285" s="87"/>
+      <c r="E285" s="87"/>
+      <c r="F285" s="87"/>
+      <c r="G285" s="87"/>
+      <c r="H285" s="87"/>
+      <c r="I285" s="87"/>
+      <c r="J285" s="87"/>
+      <c r="K285" s="88"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
@@ -9229,45 +9229,45 @@
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="95"/>
-      <c r="B297" s="95"/>
-      <c r="C297" s="95"/>
-      <c r="D297" s="95"/>
-      <c r="E297" s="95"/>
-      <c r="F297" s="95"/>
-      <c r="G297" s="95"/>
-      <c r="H297" s="95"/>
-      <c r="I297" s="95"/>
-      <c r="J297" s="95"/>
-      <c r="K297" s="95"/>
+      <c r="A297" s="89"/>
+      <c r="B297" s="89"/>
+      <c r="C297" s="89"/>
+      <c r="D297" s="89"/>
+      <c r="E297" s="89"/>
+      <c r="F297" s="89"/>
+      <c r="G297" s="89"/>
+      <c r="H297" s="89"/>
+      <c r="I297" s="89"/>
+      <c r="J297" s="89"/>
+      <c r="K297" s="89"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="94"/>
-      <c r="B298" s="94"/>
-      <c r="C298" s="94"/>
-      <c r="D298" s="94"/>
-      <c r="E298" s="94"/>
-      <c r="F298" s="94"/>
-      <c r="G298" s="94"/>
-      <c r="H298" s="94"/>
-      <c r="I298" s="94"/>
-      <c r="J298" s="94"/>
-      <c r="K298" s="94"/>
+      <c r="A298" s="90"/>
+      <c r="B298" s="90"/>
+      <c r="C298" s="90"/>
+      <c r="D298" s="90"/>
+      <c r="E298" s="90"/>
+      <c r="F298" s="90"/>
+      <c r="G298" s="90"/>
+      <c r="H298" s="90"/>
+      <c r="I298" s="90"/>
+      <c r="J298" s="90"/>
+      <c r="K298" s="90"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="90" t="s">
+      <c r="A299" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="B299" s="91"/>
-      <c r="C299" s="91"/>
-      <c r="D299" s="91"/>
-      <c r="E299" s="91"/>
-      <c r="F299" s="91"/>
-      <c r="G299" s="91"/>
-      <c r="H299" s="91"/>
-      <c r="I299" s="91"/>
-      <c r="J299" s="91"/>
-      <c r="K299" s="92"/>
+      <c r="B299" s="87"/>
+      <c r="C299" s="87"/>
+      <c r="D299" s="87"/>
+      <c r="E299" s="87"/>
+      <c r="F299" s="87"/>
+      <c r="G299" s="87"/>
+      <c r="H299" s="87"/>
+      <c r="I299" s="87"/>
+      <c r="J299" s="87"/>
+      <c r="K299" s="88"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
@@ -9514,45 +9514,45 @@
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="95"/>
-      <c r="B308" s="95"/>
-      <c r="C308" s="95"/>
-      <c r="D308" s="95"/>
-      <c r="E308" s="95"/>
-      <c r="F308" s="95"/>
-      <c r="G308" s="95"/>
-      <c r="H308" s="95"/>
-      <c r="I308" s="95"/>
-      <c r="J308" s="95"/>
-      <c r="K308" s="95"/>
+      <c r="A308" s="89"/>
+      <c r="B308" s="89"/>
+      <c r="C308" s="89"/>
+      <c r="D308" s="89"/>
+      <c r="E308" s="89"/>
+      <c r="F308" s="89"/>
+      <c r="G308" s="89"/>
+      <c r="H308" s="89"/>
+      <c r="I308" s="89"/>
+      <c r="J308" s="89"/>
+      <c r="K308" s="89"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="94"/>
-      <c r="B309" s="94"/>
-      <c r="C309" s="94"/>
-      <c r="D309" s="94"/>
-      <c r="E309" s="94"/>
-      <c r="F309" s="94"/>
-      <c r="G309" s="94"/>
-      <c r="H309" s="94"/>
-      <c r="I309" s="94"/>
-      <c r="J309" s="94"/>
-      <c r="K309" s="94"/>
+      <c r="A309" s="90"/>
+      <c r="B309" s="90"/>
+      <c r="C309" s="90"/>
+      <c r="D309" s="90"/>
+      <c r="E309" s="90"/>
+      <c r="F309" s="90"/>
+      <c r="G309" s="90"/>
+      <c r="H309" s="90"/>
+      <c r="I309" s="90"/>
+      <c r="J309" s="90"/>
+      <c r="K309" s="90"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="90" t="s">
+      <c r="A310" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="B310" s="91"/>
-      <c r="C310" s="91"/>
-      <c r="D310" s="91"/>
-      <c r="E310" s="91"/>
-      <c r="F310" s="91"/>
-      <c r="G310" s="91"/>
-      <c r="H310" s="91"/>
-      <c r="I310" s="91"/>
-      <c r="J310" s="91"/>
-      <c r="K310" s="92"/>
+      <c r="B310" s="87"/>
+      <c r="C310" s="87"/>
+      <c r="D310" s="87"/>
+      <c r="E310" s="87"/>
+      <c r="F310" s="87"/>
+      <c r="G310" s="87"/>
+      <c r="H310" s="87"/>
+      <c r="I310" s="87"/>
+      <c r="J310" s="87"/>
+      <c r="K310" s="88"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
@@ -9795,45 +9795,45 @@
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="95"/>
-      <c r="B319" s="95"/>
-      <c r="C319" s="95"/>
-      <c r="D319" s="95"/>
-      <c r="E319" s="95"/>
-      <c r="F319" s="95"/>
-      <c r="G319" s="95"/>
-      <c r="H319" s="95"/>
-      <c r="I319" s="95"/>
-      <c r="J319" s="95"/>
-      <c r="K319" s="95"/>
+      <c r="A319" s="89"/>
+      <c r="B319" s="89"/>
+      <c r="C319" s="89"/>
+      <c r="D319" s="89"/>
+      <c r="E319" s="89"/>
+      <c r="F319" s="89"/>
+      <c r="G319" s="89"/>
+      <c r="H319" s="89"/>
+      <c r="I319" s="89"/>
+      <c r="J319" s="89"/>
+      <c r="K319" s="89"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="94"/>
-      <c r="B320" s="94"/>
-      <c r="C320" s="94"/>
-      <c r="D320" s="94"/>
-      <c r="E320" s="94"/>
-      <c r="F320" s="94"/>
-      <c r="G320" s="94"/>
-      <c r="H320" s="94"/>
-      <c r="I320" s="94"/>
-      <c r="J320" s="94"/>
-      <c r="K320" s="94"/>
+      <c r="A320" s="90"/>
+      <c r="B320" s="90"/>
+      <c r="C320" s="90"/>
+      <c r="D320" s="90"/>
+      <c r="E320" s="90"/>
+      <c r="F320" s="90"/>
+      <c r="G320" s="90"/>
+      <c r="H320" s="90"/>
+      <c r="I320" s="90"/>
+      <c r="J320" s="90"/>
+      <c r="K320" s="90"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="90" t="s">
+      <c r="A321" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="B321" s="91"/>
-      <c r="C321" s="91"/>
-      <c r="D321" s="91"/>
-      <c r="E321" s="91"/>
-      <c r="F321" s="91"/>
-      <c r="G321" s="91"/>
-      <c r="H321" s="91"/>
-      <c r="I321" s="91"/>
-      <c r="J321" s="91"/>
-      <c r="K321" s="92"/>
+      <c r="B321" s="87"/>
+      <c r="C321" s="87"/>
+      <c r="D321" s="87"/>
+      <c r="E321" s="87"/>
+      <c r="F321" s="87"/>
+      <c r="G321" s="87"/>
+      <c r="H321" s="87"/>
+      <c r="I321" s="87"/>
+      <c r="J321" s="87"/>
+      <c r="K321" s="88"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
@@ -10068,45 +10068,45 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="95"/>
-      <c r="B330" s="95"/>
-      <c r="C330" s="95"/>
-      <c r="D330" s="95"/>
-      <c r="E330" s="95"/>
-      <c r="F330" s="95"/>
-      <c r="G330" s="95"/>
-      <c r="H330" s="95"/>
-      <c r="I330" s="95"/>
-      <c r="J330" s="95"/>
-      <c r="K330" s="95"/>
+      <c r="A330" s="89"/>
+      <c r="B330" s="89"/>
+      <c r="C330" s="89"/>
+      <c r="D330" s="89"/>
+      <c r="E330" s="89"/>
+      <c r="F330" s="89"/>
+      <c r="G330" s="89"/>
+      <c r="H330" s="89"/>
+      <c r="I330" s="89"/>
+      <c r="J330" s="89"/>
+      <c r="K330" s="89"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="94"/>
-      <c r="B331" s="94"/>
-      <c r="C331" s="94"/>
-      <c r="D331" s="94"/>
-      <c r="E331" s="94"/>
-      <c r="F331" s="94"/>
-      <c r="G331" s="94"/>
-      <c r="H331" s="94"/>
-      <c r="I331" s="94"/>
-      <c r="J331" s="94"/>
-      <c r="K331" s="94"/>
+      <c r="A331" s="90"/>
+      <c r="B331" s="90"/>
+      <c r="C331" s="90"/>
+      <c r="D331" s="90"/>
+      <c r="E331" s="90"/>
+      <c r="F331" s="90"/>
+      <c r="G331" s="90"/>
+      <c r="H331" s="90"/>
+      <c r="I331" s="90"/>
+      <c r="J331" s="90"/>
+      <c r="K331" s="90"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="90" t="s">
+      <c r="A332" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="B332" s="91"/>
-      <c r="C332" s="91"/>
-      <c r="D332" s="91"/>
-      <c r="E332" s="91"/>
-      <c r="F332" s="91"/>
-      <c r="G332" s="91"/>
-      <c r="H332" s="91"/>
-      <c r="I332" s="91"/>
-      <c r="J332" s="91"/>
-      <c r="K332" s="92"/>
+      <c r="B332" s="87"/>
+      <c r="C332" s="87"/>
+      <c r="D332" s="87"/>
+      <c r="E332" s="87"/>
+      <c r="F332" s="87"/>
+      <c r="G332" s="87"/>
+      <c r="H332" s="87"/>
+      <c r="I332" s="87"/>
+      <c r="J332" s="87"/>
+      <c r="K332" s="88"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
@@ -10372,45 +10372,45 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="95"/>
-      <c r="B342" s="95"/>
-      <c r="C342" s="95"/>
-      <c r="D342" s="95"/>
-      <c r="E342" s="95"/>
-      <c r="F342" s="95"/>
-      <c r="G342" s="95"/>
-      <c r="H342" s="95"/>
-      <c r="I342" s="95"/>
-      <c r="J342" s="95"/>
-      <c r="K342" s="95"/>
+      <c r="A342" s="89"/>
+      <c r="B342" s="89"/>
+      <c r="C342" s="89"/>
+      <c r="D342" s="89"/>
+      <c r="E342" s="89"/>
+      <c r="F342" s="89"/>
+      <c r="G342" s="89"/>
+      <c r="H342" s="89"/>
+      <c r="I342" s="89"/>
+      <c r="J342" s="89"/>
+      <c r="K342" s="89"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="94"/>
-      <c r="B343" s="94"/>
-      <c r="C343" s="94"/>
-      <c r="D343" s="94"/>
-      <c r="E343" s="94"/>
-      <c r="F343" s="94"/>
-      <c r="G343" s="94"/>
-      <c r="H343" s="94"/>
-      <c r="I343" s="94"/>
-      <c r="J343" s="94"/>
-      <c r="K343" s="94"/>
+      <c r="A343" s="90"/>
+      <c r="B343" s="90"/>
+      <c r="C343" s="90"/>
+      <c r="D343" s="90"/>
+      <c r="E343" s="90"/>
+      <c r="F343" s="90"/>
+      <c r="G343" s="90"/>
+      <c r="H343" s="90"/>
+      <c r="I343" s="90"/>
+      <c r="J343" s="90"/>
+      <c r="K343" s="90"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="90" t="s">
+      <c r="A344" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="B344" s="91"/>
-      <c r="C344" s="91"/>
-      <c r="D344" s="91"/>
-      <c r="E344" s="91"/>
-      <c r="F344" s="91"/>
-      <c r="G344" s="91"/>
-      <c r="H344" s="91"/>
-      <c r="I344" s="91"/>
-      <c r="J344" s="91"/>
-      <c r="K344" s="92"/>
+      <c r="B344" s="87"/>
+      <c r="C344" s="87"/>
+      <c r="D344" s="87"/>
+      <c r="E344" s="87"/>
+      <c r="F344" s="87"/>
+      <c r="G344" s="87"/>
+      <c r="H344" s="87"/>
+      <c r="I344" s="87"/>
+      <c r="J344" s="87"/>
+      <c r="K344" s="88"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="20" t="s">
@@ -10682,45 +10682,45 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="95"/>
-      <c r="B354" s="95"/>
-      <c r="C354" s="95"/>
-      <c r="D354" s="95"/>
-      <c r="E354" s="95"/>
-      <c r="F354" s="95"/>
-      <c r="G354" s="95"/>
-      <c r="H354" s="95"/>
-      <c r="I354" s="95"/>
-      <c r="J354" s="95"/>
-      <c r="K354" s="95"/>
+      <c r="A354" s="89"/>
+      <c r="B354" s="89"/>
+      <c r="C354" s="89"/>
+      <c r="D354" s="89"/>
+      <c r="E354" s="89"/>
+      <c r="F354" s="89"/>
+      <c r="G354" s="89"/>
+      <c r="H354" s="89"/>
+      <c r="I354" s="89"/>
+      <c r="J354" s="89"/>
+      <c r="K354" s="89"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="94"/>
-      <c r="B355" s="94"/>
-      <c r="C355" s="94"/>
-      <c r="D355" s="94"/>
-      <c r="E355" s="94"/>
-      <c r="F355" s="94"/>
-      <c r="G355" s="94"/>
-      <c r="H355" s="94"/>
-      <c r="I355" s="94"/>
-      <c r="J355" s="94"/>
-      <c r="K355" s="94"/>
+      <c r="A355" s="90"/>
+      <c r="B355" s="90"/>
+      <c r="C355" s="90"/>
+      <c r="D355" s="90"/>
+      <c r="E355" s="90"/>
+      <c r="F355" s="90"/>
+      <c r="G355" s="90"/>
+      <c r="H355" s="90"/>
+      <c r="I355" s="90"/>
+      <c r="J355" s="90"/>
+      <c r="K355" s="90"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="90" t="s">
+      <c r="A356" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="B356" s="91"/>
-      <c r="C356" s="91"/>
-      <c r="D356" s="91"/>
-      <c r="E356" s="91"/>
-      <c r="F356" s="91"/>
-      <c r="G356" s="91"/>
-      <c r="H356" s="91"/>
-      <c r="I356" s="91"/>
-      <c r="J356" s="91"/>
-      <c r="K356" s="92"/>
+      <c r="B356" s="87"/>
+      <c r="C356" s="87"/>
+      <c r="D356" s="87"/>
+      <c r="E356" s="87"/>
+      <c r="F356" s="87"/>
+      <c r="G356" s="87"/>
+      <c r="H356" s="87"/>
+      <c r="I356" s="87"/>
+      <c r="J356" s="87"/>
+      <c r="K356" s="88"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="20" t="s">
@@ -10930,45 +10930,45 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="95"/>
-      <c r="B364" s="95"/>
-      <c r="C364" s="95"/>
-      <c r="D364" s="95"/>
-      <c r="E364" s="95"/>
-      <c r="F364" s="95"/>
-      <c r="G364" s="95"/>
-      <c r="H364" s="95"/>
-      <c r="I364" s="95"/>
-      <c r="J364" s="95"/>
-      <c r="K364" s="95"/>
+      <c r="A364" s="89"/>
+      <c r="B364" s="89"/>
+      <c r="C364" s="89"/>
+      <c r="D364" s="89"/>
+      <c r="E364" s="89"/>
+      <c r="F364" s="89"/>
+      <c r="G364" s="89"/>
+      <c r="H364" s="89"/>
+      <c r="I364" s="89"/>
+      <c r="J364" s="89"/>
+      <c r="K364" s="89"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="94"/>
-      <c r="B365" s="94"/>
-      <c r="C365" s="94"/>
-      <c r="D365" s="94"/>
-      <c r="E365" s="94"/>
-      <c r="F365" s="94"/>
-      <c r="G365" s="94"/>
-      <c r="H365" s="94"/>
-      <c r="I365" s="94"/>
-      <c r="J365" s="94"/>
-      <c r="K365" s="94"/>
+      <c r="A365" s="90"/>
+      <c r="B365" s="90"/>
+      <c r="C365" s="90"/>
+      <c r="D365" s="90"/>
+      <c r="E365" s="90"/>
+      <c r="F365" s="90"/>
+      <c r="G365" s="90"/>
+      <c r="H365" s="90"/>
+      <c r="I365" s="90"/>
+      <c r="J365" s="90"/>
+      <c r="K365" s="90"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="90" t="s">
+      <c r="A366" s="86" t="s">
         <v>265</v>
       </c>
-      <c r="B366" s="91"/>
-      <c r="C366" s="91"/>
-      <c r="D366" s="91"/>
-      <c r="E366" s="91"/>
-      <c r="F366" s="91"/>
-      <c r="G366" s="91"/>
-      <c r="H366" s="91"/>
-      <c r="I366" s="91"/>
-      <c r="J366" s="91"/>
-      <c r="K366" s="92"/>
+      <c r="B366" s="87"/>
+      <c r="C366" s="87"/>
+      <c r="D366" s="87"/>
+      <c r="E366" s="87"/>
+      <c r="F366" s="87"/>
+      <c r="G366" s="87"/>
+      <c r="H366" s="87"/>
+      <c r="I366" s="87"/>
+      <c r="J366" s="87"/>
+      <c r="K366" s="88"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="20" t="s">
@@ -11178,45 +11178,45 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="95"/>
-      <c r="B374" s="95"/>
-      <c r="C374" s="95"/>
-      <c r="D374" s="95"/>
-      <c r="E374" s="95"/>
-      <c r="F374" s="95"/>
-      <c r="G374" s="95"/>
-      <c r="H374" s="95"/>
-      <c r="I374" s="95"/>
-      <c r="J374" s="95"/>
-      <c r="K374" s="95"/>
+      <c r="A374" s="89"/>
+      <c r="B374" s="89"/>
+      <c r="C374" s="89"/>
+      <c r="D374" s="89"/>
+      <c r="E374" s="89"/>
+      <c r="F374" s="89"/>
+      <c r="G374" s="89"/>
+      <c r="H374" s="89"/>
+      <c r="I374" s="89"/>
+      <c r="J374" s="89"/>
+      <c r="K374" s="89"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="94"/>
-      <c r="B375" s="94"/>
-      <c r="C375" s="94"/>
-      <c r="D375" s="94"/>
-      <c r="E375" s="94"/>
-      <c r="F375" s="94"/>
-      <c r="G375" s="94"/>
-      <c r="H375" s="94"/>
-      <c r="I375" s="94"/>
-      <c r="J375" s="94"/>
-      <c r="K375" s="94"/>
+      <c r="A375" s="90"/>
+      <c r="B375" s="90"/>
+      <c r="C375" s="90"/>
+      <c r="D375" s="90"/>
+      <c r="E375" s="90"/>
+      <c r="F375" s="90"/>
+      <c r="G375" s="90"/>
+      <c r="H375" s="90"/>
+      <c r="I375" s="90"/>
+      <c r="J375" s="90"/>
+      <c r="K375" s="90"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="90" t="s">
+      <c r="A376" s="86" t="s">
         <v>268</v>
       </c>
-      <c r="B376" s="91"/>
-      <c r="C376" s="91"/>
-      <c r="D376" s="91"/>
-      <c r="E376" s="91"/>
-      <c r="F376" s="91"/>
-      <c r="G376" s="91"/>
-      <c r="H376" s="91"/>
-      <c r="I376" s="91"/>
-      <c r="J376" s="91"/>
-      <c r="K376" s="92"/>
+      <c r="B376" s="87"/>
+      <c r="C376" s="87"/>
+      <c r="D376" s="87"/>
+      <c r="E376" s="87"/>
+      <c r="F376" s="87"/>
+      <c r="G376" s="87"/>
+      <c r="H376" s="87"/>
+      <c r="I376" s="87"/>
+      <c r="J376" s="87"/>
+      <c r="K376" s="88"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="20" t="s">
@@ -11420,45 +11420,45 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="95"/>
-      <c r="B384" s="95"/>
-      <c r="C384" s="95"/>
-      <c r="D384" s="95"/>
-      <c r="E384" s="95"/>
-      <c r="F384" s="95"/>
-      <c r="G384" s="95"/>
-      <c r="H384" s="95"/>
-      <c r="I384" s="95"/>
-      <c r="J384" s="95"/>
-      <c r="K384" s="95"/>
+      <c r="A384" s="89"/>
+      <c r="B384" s="89"/>
+      <c r="C384" s="89"/>
+      <c r="D384" s="89"/>
+      <c r="E384" s="89"/>
+      <c r="F384" s="89"/>
+      <c r="G384" s="89"/>
+      <c r="H384" s="89"/>
+      <c r="I384" s="89"/>
+      <c r="J384" s="89"/>
+      <c r="K384" s="89"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="94"/>
-      <c r="B385" s="94"/>
-      <c r="C385" s="94"/>
-      <c r="D385" s="94"/>
-      <c r="E385" s="94"/>
-      <c r="F385" s="94"/>
-      <c r="G385" s="94"/>
-      <c r="H385" s="94"/>
-      <c r="I385" s="94"/>
-      <c r="J385" s="94"/>
-      <c r="K385" s="94"/>
+      <c r="A385" s="90"/>
+      <c r="B385" s="90"/>
+      <c r="C385" s="90"/>
+      <c r="D385" s="90"/>
+      <c r="E385" s="90"/>
+      <c r="F385" s="90"/>
+      <c r="G385" s="90"/>
+      <c r="H385" s="90"/>
+      <c r="I385" s="90"/>
+      <c r="J385" s="90"/>
+      <c r="K385" s="90"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="90" t="s">
+      <c r="A386" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="B386" s="91"/>
-      <c r="C386" s="91"/>
-      <c r="D386" s="91"/>
-      <c r="E386" s="91"/>
-      <c r="F386" s="91"/>
-      <c r="G386" s="91"/>
-      <c r="H386" s="91"/>
-      <c r="I386" s="91"/>
-      <c r="J386" s="91"/>
-      <c r="K386" s="92"/>
+      <c r="B386" s="87"/>
+      <c r="C386" s="87"/>
+      <c r="D386" s="87"/>
+      <c r="E386" s="87"/>
+      <c r="F386" s="87"/>
+      <c r="G386" s="87"/>
+      <c r="H386" s="87"/>
+      <c r="I386" s="87"/>
+      <c r="J386" s="87"/>
+      <c r="K386" s="88"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="20" t="s">
@@ -11692,14 +11692,39 @@
     </row>
   </sheetData>
   <mergeCells count="65">
-    <mergeCell ref="A376:K376"/>
-    <mergeCell ref="A384:K385"/>
-    <mergeCell ref="A386:K386"/>
-    <mergeCell ref="A215:K216"/>
-    <mergeCell ref="A201:K201"/>
-    <mergeCell ref="A364:K365"/>
-    <mergeCell ref="A366:K366"/>
-    <mergeCell ref="A374:K375"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A21:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A199:K200"/>
+    <mergeCell ref="A189:K189"/>
+    <mergeCell ref="A187:K188"/>
+    <mergeCell ref="A177:K177"/>
+    <mergeCell ref="A175:K176"/>
+    <mergeCell ref="A297:K298"/>
+    <mergeCell ref="A299:K299"/>
+    <mergeCell ref="A308:K309"/>
+    <mergeCell ref="A258:K258"/>
+    <mergeCell ref="A265:K266"/>
+    <mergeCell ref="A267:K267"/>
+    <mergeCell ref="A274:K275"/>
+    <mergeCell ref="A276:K276"/>
+    <mergeCell ref="A164:K164"/>
+    <mergeCell ref="A162:K163"/>
+    <mergeCell ref="A154:K154"/>
+    <mergeCell ref="A64:K65"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A74:K75"/>
+    <mergeCell ref="A119:K119"/>
+    <mergeCell ref="A117:K118"/>
+    <mergeCell ref="A103:K103"/>
+    <mergeCell ref="A101:K102"/>
+    <mergeCell ref="A89:K89"/>
+    <mergeCell ref="A87:K88"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="A32:K33"/>
     <mergeCell ref="A354:K355"/>
@@ -11716,11 +11741,14 @@
     <mergeCell ref="A227:K227"/>
     <mergeCell ref="A225:K226"/>
     <mergeCell ref="A217:K217"/>
-    <mergeCell ref="A164:K164"/>
-    <mergeCell ref="A162:K163"/>
-    <mergeCell ref="A154:K154"/>
-    <mergeCell ref="A64:K65"/>
-    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="A376:K376"/>
+    <mergeCell ref="A384:K385"/>
+    <mergeCell ref="A386:K386"/>
+    <mergeCell ref="A215:K216"/>
+    <mergeCell ref="A201:K201"/>
+    <mergeCell ref="A364:K365"/>
+    <mergeCell ref="A366:K366"/>
+    <mergeCell ref="A374:K375"/>
     <mergeCell ref="A319:K320"/>
     <mergeCell ref="A321:K321"/>
     <mergeCell ref="A247:K248"/>
@@ -11729,34 +11757,6 @@
     <mergeCell ref="A310:K310"/>
     <mergeCell ref="A283:K284"/>
     <mergeCell ref="A285:K285"/>
-    <mergeCell ref="A297:K298"/>
-    <mergeCell ref="A299:K299"/>
-    <mergeCell ref="A308:K309"/>
-    <mergeCell ref="A258:K258"/>
-    <mergeCell ref="A265:K266"/>
-    <mergeCell ref="A267:K267"/>
-    <mergeCell ref="A274:K275"/>
-    <mergeCell ref="A276:K276"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A74:K75"/>
-    <mergeCell ref="A119:K119"/>
-    <mergeCell ref="A117:K118"/>
-    <mergeCell ref="A103:K103"/>
-    <mergeCell ref="A101:K102"/>
-    <mergeCell ref="A89:K89"/>
-    <mergeCell ref="A87:K88"/>
-    <mergeCell ref="A199:K200"/>
-    <mergeCell ref="A189:K189"/>
-    <mergeCell ref="A187:K188"/>
-    <mergeCell ref="A177:K177"/>
-    <mergeCell ref="A175:K176"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A21:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="A13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11828,45 +11828,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="95"/>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="95"/>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
+      <c r="A1" s="89"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
+      <c r="A3" s="86" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="91"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="91"/>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
-      <c r="K3" s="92"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="88"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12051,45 +12051,45 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="95"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="94"/>
+      <c r="A11" s="90"/>
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="86" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91"/>
-      <c r="D12" s="91"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="91"/>
-      <c r="J12" s="91"/>
-      <c r="K12" s="92"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="88"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -12361,45 +12361,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="95"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="95"/>
+      <c r="A22" s="89"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="89"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="94"/>
-      <c r="I23" s="94"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
+      <c r="A23" s="90"/>
+      <c r="B23" s="90"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="92"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="88"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -12646,45 +12646,45 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="95"/>
-      <c r="B33" s="95"/>
-      <c r="C33" s="95"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="95"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
-      <c r="I33" s="95"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="95"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="89"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
-      <c r="C34" s="94"/>
-      <c r="D34" s="94"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="94"/>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
+      <c r="F34" s="90"/>
+      <c r="G34" s="90"/>
+      <c r="H34" s="90"/>
+      <c r="I34" s="90"/>
+      <c r="J34" s="90"/>
+      <c r="K34" s="90"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="90" t="s">
+      <c r="A35" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="91"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="92"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="87"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="87"/>
+      <c r="K35" s="88"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -12958,45 +12958,45 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="95"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
+      <c r="A45" s="89"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="89"/>
+      <c r="D45" s="89"/>
+      <c r="E45" s="89"/>
+      <c r="F45" s="89"/>
+      <c r="G45" s="89"/>
+      <c r="H45" s="89"/>
+      <c r="I45" s="89"/>
+      <c r="J45" s="89"/>
+      <c r="K45" s="89"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="D46" s="94"/>
-      <c r="E46" s="94"/>
-      <c r="F46" s="94"/>
-      <c r="G46" s="94"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="94"/>
-      <c r="J46" s="94"/>
-      <c r="K46" s="94"/>
+      <c r="A46" s="90"/>
+      <c r="B46" s="90"/>
+      <c r="C46" s="90"/>
+      <c r="D46" s="90"/>
+      <c r="E46" s="90"/>
+      <c r="F46" s="90"/>
+      <c r="G46" s="90"/>
+      <c r="H46" s="90"/>
+      <c r="I46" s="90"/>
+      <c r="J46" s="90"/>
+      <c r="K46" s="90"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="91"/>
-      <c r="C47" s="91"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="91"/>
-      <c r="F47" s="91"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="91"/>
-      <c r="I47" s="91"/>
-      <c r="J47" s="91"/>
-      <c r="K47" s="92"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="87"/>
+      <c r="H47" s="87"/>
+      <c r="I47" s="87"/>
+      <c r="J47" s="87"/>
+      <c r="K47" s="88"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -13239,45 +13239,45 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="95"/>
-      <c r="B56" s="95"/>
-      <c r="C56" s="95"/>
-      <c r="D56" s="95"/>
-      <c r="E56" s="95"/>
-      <c r="F56" s="95"/>
-      <c r="G56" s="95"/>
-      <c r="H56" s="95"/>
-      <c r="I56" s="95"/>
-      <c r="J56" s="95"/>
-      <c r="K56" s="95"/>
+      <c r="A56" s="89"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="89"/>
+      <c r="D56" s="89"/>
+      <c r="E56" s="89"/>
+      <c r="F56" s="89"/>
+      <c r="G56" s="89"/>
+      <c r="H56" s="89"/>
+      <c r="I56" s="89"/>
+      <c r="J56" s="89"/>
+      <c r="K56" s="89"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="94"/>
-      <c r="B57" s="94"/>
-      <c r="C57" s="94"/>
-      <c r="D57" s="94"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="94"/>
-      <c r="G57" s="94"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="94"/>
-      <c r="J57" s="94"/>
-      <c r="K57" s="94"/>
+      <c r="A57" s="90"/>
+      <c r="B57" s="90"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="90"/>
+      <c r="E57" s="90"/>
+      <c r="F57" s="90"/>
+      <c r="G57" s="90"/>
+      <c r="H57" s="90"/>
+      <c r="I57" s="90"/>
+      <c r="J57" s="90"/>
+      <c r="K57" s="90"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="90" t="s">
+      <c r="A58" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="91"/>
-      <c r="C58" s="91"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="91"/>
-      <c r="F58" s="91"/>
-      <c r="G58" s="91"/>
-      <c r="H58" s="91"/>
-      <c r="I58" s="91"/>
-      <c r="J58" s="91"/>
-      <c r="K58" s="92"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="87"/>
+      <c r="D58" s="87"/>
+      <c r="E58" s="87"/>
+      <c r="F58" s="87"/>
+      <c r="G58" s="87"/>
+      <c r="H58" s="87"/>
+      <c r="I58" s="87"/>
+      <c r="J58" s="87"/>
+      <c r="K58" s="88"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -13520,45 +13520,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="95"/>
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="95"/>
-      <c r="I67" s="95"/>
-      <c r="J67" s="95"/>
-      <c r="K67" s="95"/>
+      <c r="A67" s="89"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="89"/>
+      <c r="J67" s="89"/>
+      <c r="K67" s="89"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="94"/>
-      <c r="B68" s="94"/>
-      <c r="C68" s="94"/>
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-      <c r="F68" s="94"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="94"/>
-      <c r="J68" s="94"/>
-      <c r="K68" s="94"/>
+      <c r="A68" s="90"/>
+      <c r="B68" s="90"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="90"/>
+      <c r="E68" s="90"/>
+      <c r="F68" s="90"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="90"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="90" t="s">
+      <c r="A69" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="91"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="91"/>
-      <c r="E69" s="91"/>
-      <c r="F69" s="91"/>
-      <c r="G69" s="91"/>
-      <c r="H69" s="91"/>
-      <c r="I69" s="91"/>
-      <c r="J69" s="91"/>
-      <c r="K69" s="92"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="87"/>
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
+      <c r="H69" s="87"/>
+      <c r="I69" s="87"/>
+      <c r="J69" s="87"/>
+      <c r="K69" s="88"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -13882,45 +13882,45 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="95"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="95"/>
-      <c r="G82" s="95"/>
-      <c r="H82" s="95"/>
-      <c r="I82" s="95"/>
-      <c r="J82" s="95"/>
-      <c r="K82" s="95"/>
+      <c r="A82" s="89"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="89"/>
+      <c r="D82" s="89"/>
+      <c r="E82" s="89"/>
+      <c r="F82" s="89"/>
+      <c r="G82" s="89"/>
+      <c r="H82" s="89"/>
+      <c r="I82" s="89"/>
+      <c r="J82" s="89"/>
+      <c r="K82" s="89"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="94"/>
-      <c r="B83" s="94"/>
-      <c r="C83" s="94"/>
-      <c r="D83" s="94"/>
-      <c r="E83" s="94"/>
-      <c r="F83" s="94"/>
-      <c r="G83" s="94"/>
-      <c r="H83" s="94"/>
-      <c r="I83" s="94"/>
-      <c r="J83" s="94"/>
-      <c r="K83" s="94"/>
+      <c r="A83" s="90"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="90"/>
+      <c r="E83" s="90"/>
+      <c r="F83" s="90"/>
+      <c r="G83" s="90"/>
+      <c r="H83" s="90"/>
+      <c r="I83" s="90"/>
+      <c r="J83" s="90"/>
+      <c r="K83" s="90"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="90" t="s">
+      <c r="A84" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="B84" s="91"/>
-      <c r="C84" s="91"/>
-      <c r="D84" s="91"/>
-      <c r="E84" s="91"/>
-      <c r="F84" s="91"/>
-      <c r="G84" s="91"/>
-      <c r="H84" s="91"/>
-      <c r="I84" s="91"/>
-      <c r="J84" s="91"/>
-      <c r="K84" s="92"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="87"/>
+      <c r="E84" s="87"/>
+      <c r="F84" s="87"/>
+      <c r="G84" s="87"/>
+      <c r="H84" s="87"/>
+      <c r="I84" s="87"/>
+      <c r="J84" s="87"/>
+      <c r="K84" s="88"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
@@ -14101,45 +14101,45 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="95"/>
-      <c r="B91" s="95"/>
-      <c r="C91" s="95"/>
-      <c r="D91" s="95"/>
-      <c r="E91" s="95"/>
-      <c r="F91" s="95"/>
-      <c r="G91" s="95"/>
-      <c r="H91" s="95"/>
-      <c r="I91" s="95"/>
-      <c r="J91" s="95"/>
-      <c r="K91" s="95"/>
+      <c r="A91" s="89"/>
+      <c r="B91" s="89"/>
+      <c r="C91" s="89"/>
+      <c r="D91" s="89"/>
+      <c r="E91" s="89"/>
+      <c r="F91" s="89"/>
+      <c r="G91" s="89"/>
+      <c r="H91" s="89"/>
+      <c r="I91" s="89"/>
+      <c r="J91" s="89"/>
+      <c r="K91" s="89"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="94"/>
-      <c r="B92" s="94"/>
-      <c r="C92" s="94"/>
-      <c r="D92" s="94"/>
-      <c r="E92" s="94"/>
-      <c r="F92" s="94"/>
-      <c r="G92" s="94"/>
-      <c r="H92" s="94"/>
-      <c r="I92" s="94"/>
-      <c r="J92" s="94"/>
-      <c r="K92" s="94"/>
+      <c r="A92" s="90"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="90"/>
+      <c r="D92" s="90"/>
+      <c r="E92" s="90"/>
+      <c r="F92" s="90"/>
+      <c r="G92" s="90"/>
+      <c r="H92" s="90"/>
+      <c r="I92" s="90"/>
+      <c r="J92" s="90"/>
+      <c r="K92" s="90"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="90" t="s">
+      <c r="A93" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="B93" s="91"/>
-      <c r="C93" s="91"/>
-      <c r="D93" s="91"/>
-      <c r="E93" s="91"/>
-      <c r="F93" s="91"/>
-      <c r="G93" s="91"/>
-      <c r="H93" s="91"/>
-      <c r="I93" s="91"/>
-      <c r="J93" s="91"/>
-      <c r="K93" s="92"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="87"/>
+      <c r="D93" s="87"/>
+      <c r="E93" s="87"/>
+      <c r="F93" s="87"/>
+      <c r="G93" s="87"/>
+      <c r="H93" s="87"/>
+      <c r="I93" s="87"/>
+      <c r="J93" s="87"/>
+      <c r="K93" s="88"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -14386,45 +14386,45 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="95"/>
-      <c r="B103" s="95"/>
-      <c r="C103" s="95"/>
-      <c r="D103" s="95"/>
-      <c r="E103" s="95"/>
-      <c r="F103" s="95"/>
-      <c r="G103" s="95"/>
-      <c r="H103" s="95"/>
-      <c r="I103" s="95"/>
-      <c r="J103" s="95"/>
-      <c r="K103" s="95"/>
+      <c r="A103" s="89"/>
+      <c r="B103" s="89"/>
+      <c r="C103" s="89"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="89"/>
+      <c r="F103" s="89"/>
+      <c r="G103" s="89"/>
+      <c r="H103" s="89"/>
+      <c r="I103" s="89"/>
+      <c r="J103" s="89"/>
+      <c r="K103" s="89"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="94"/>
-      <c r="B104" s="94"/>
-      <c r="C104" s="94"/>
-      <c r="D104" s="94"/>
-      <c r="E104" s="94"/>
-      <c r="F104" s="94"/>
-      <c r="G104" s="94"/>
-      <c r="H104" s="94"/>
-      <c r="I104" s="94"/>
-      <c r="J104" s="94"/>
-      <c r="K104" s="94"/>
+      <c r="A104" s="90"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="90"/>
+      <c r="D104" s="90"/>
+      <c r="E104" s="90"/>
+      <c r="F104" s="90"/>
+      <c r="G104" s="90"/>
+      <c r="H104" s="90"/>
+      <c r="I104" s="90"/>
+      <c r="J104" s="90"/>
+      <c r="K104" s="90"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="90" t="s">
+      <c r="A105" s="86" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="91"/>
-      <c r="C105" s="91"/>
-      <c r="D105" s="91"/>
-      <c r="E105" s="91"/>
-      <c r="F105" s="91"/>
-      <c r="G105" s="91"/>
-      <c r="H105" s="91"/>
-      <c r="I105" s="91"/>
-      <c r="J105" s="91"/>
-      <c r="K105" s="92"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="87"/>
+      <c r="D105" s="87"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="87"/>
+      <c r="G105" s="87"/>
+      <c r="H105" s="87"/>
+      <c r="I105" s="87"/>
+      <c r="J105" s="87"/>
+      <c r="K105" s="88"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
@@ -14555,45 +14555,45 @@
       <c r="K109" s="14"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="95"/>
-      <c r="B110" s="95"/>
-      <c r="C110" s="95"/>
-      <c r="D110" s="95"/>
-      <c r="E110" s="95"/>
-      <c r="F110" s="95"/>
-      <c r="G110" s="95"/>
-      <c r="H110" s="95"/>
-      <c r="I110" s="95"/>
-      <c r="J110" s="95"/>
-      <c r="K110" s="95"/>
+      <c r="A110" s="89"/>
+      <c r="B110" s="89"/>
+      <c r="C110" s="89"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="89"/>
+      <c r="F110" s="89"/>
+      <c r="G110" s="89"/>
+      <c r="H110" s="89"/>
+      <c r="I110" s="89"/>
+      <c r="J110" s="89"/>
+      <c r="K110" s="89"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="94"/>
-      <c r="B111" s="94"/>
-      <c r="C111" s="94"/>
-      <c r="D111" s="94"/>
-      <c r="E111" s="94"/>
-      <c r="F111" s="94"/>
-      <c r="G111" s="94"/>
-      <c r="H111" s="94"/>
-      <c r="I111" s="94"/>
-      <c r="J111" s="94"/>
-      <c r="K111" s="94"/>
+      <c r="A111" s="90"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="90"/>
+      <c r="D111" s="90"/>
+      <c r="E111" s="90"/>
+      <c r="F111" s="90"/>
+      <c r="G111" s="90"/>
+      <c r="H111" s="90"/>
+      <c r="I111" s="90"/>
+      <c r="J111" s="90"/>
+      <c r="K111" s="90"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="90" t="s">
+      <c r="A112" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="91"/>
-      <c r="C112" s="91"/>
-      <c r="D112" s="91"/>
-      <c r="E112" s="91"/>
-      <c r="F112" s="91"/>
-      <c r="G112" s="91"/>
-      <c r="H112" s="91"/>
-      <c r="I112" s="91"/>
-      <c r="J112" s="91"/>
-      <c r="K112" s="92"/>
+      <c r="B112" s="87"/>
+      <c r="C112" s="87"/>
+      <c r="D112" s="87"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="87"/>
+      <c r="G112" s="87"/>
+      <c r="H112" s="87"/>
+      <c r="I112" s="87"/>
+      <c r="J112" s="87"/>
+      <c r="K112" s="88"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -14694,6 +14694,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="A110:K111"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A103:K104"/>
+    <mergeCell ref="A82:K83"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A91:K92"/>
     <mergeCell ref="A67:K68"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="A12:K12"/>
@@ -14708,14 +14716,6 @@
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="A33:K34"/>
     <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="A110:K111"/>
-    <mergeCell ref="A105:K105"/>
-    <mergeCell ref="A103:K104"/>
-    <mergeCell ref="A82:K83"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A91:K92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2526" uniqueCount="276">
   <si>
     <t>No</t>
   </si>
@@ -838,6 +838,12 @@
   </si>
   <si>
     <t>fq_teenager</t>
+  </si>
+  <si>
+    <t>pro_l1qa_level1_qualities</t>
+  </si>
+  <si>
+    <t>l1qa_name</t>
   </si>
 </sst>
 </file>
@@ -1072,7 +1078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1327,15 +1333,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1356,6 +1353,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1670,10 +1685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K394"/>
+  <dimension ref="A1:K403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A376" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J401" sqref="J401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,49 +1708,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="92"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -1941,45 +1956,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="89"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="90"/>
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="96" t="s">
+      <c r="A13" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="98"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="101"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
@@ -2185,45 +2200,45 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="91"/>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="90"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="86" t="s">
+      <c r="A23" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="88"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="94"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="94"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2456,45 +2471,45 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="89"/>
-      <c r="G32" s="89"/>
-      <c r="H32" s="89"/>
-      <c r="I32" s="89"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="98"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="98"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="86" t="s">
+      <c r="A34" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="87"/>
-      <c r="H34" s="87"/>
-      <c r="I34" s="87"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="88"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="94"/>
+      <c r="E34" s="94"/>
+      <c r="F34" s="94"/>
+      <c r="G34" s="94"/>
+      <c r="H34" s="94"/>
+      <c r="I34" s="94"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="95"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
@@ -3310,45 +3325,45 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="89"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="98"/>
+      <c r="C64" s="98"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="98"/>
+      <c r="J64" s="98"/>
+      <c r="K64" s="98"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="90"/>
-      <c r="B65" s="90"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="90"/>
-      <c r="E65" s="90"/>
-      <c r="F65" s="90"/>
-      <c r="G65" s="90"/>
-      <c r="H65" s="90"/>
-      <c r="I65" s="90"/>
-      <c r="J65" s="90"/>
-      <c r="K65" s="90"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="97"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="86" t="s">
+      <c r="A66" s="93" t="s">
         <v>252</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="87"/>
-      <c r="K66" s="88"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="94"/>
+      <c r="E66" s="94"/>
+      <c r="F66" s="94"/>
+      <c r="G66" s="94"/>
+      <c r="H66" s="94"/>
+      <c r="I66" s="94"/>
+      <c r="J66" s="94"/>
+      <c r="K66" s="95"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
@@ -3562,45 +3577,45 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="91"/>
-      <c r="B74" s="91"/>
-      <c r="C74" s="91"/>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
-      <c r="J74" s="91"/>
-      <c r="K74" s="91"/>
+      <c r="A74" s="96"/>
+      <c r="B74" s="96"/>
+      <c r="C74" s="96"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="96"/>
+      <c r="G74" s="96"/>
+      <c r="H74" s="96"/>
+      <c r="I74" s="96"/>
+      <c r="J74" s="96"/>
+      <c r="K74" s="96"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="90"/>
-      <c r="B75" s="90"/>
-      <c r="C75" s="90"/>
-      <c r="D75" s="90"/>
-      <c r="E75" s="90"/>
-      <c r="F75" s="90"/>
-      <c r="G75" s="90"/>
-      <c r="H75" s="90"/>
-      <c r="I75" s="90"/>
-      <c r="J75" s="90"/>
-      <c r="K75" s="90"/>
+      <c r="A75" s="97"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="86" t="s">
+      <c r="A76" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="88"/>
+      <c r="B76" s="94"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="94"/>
+      <c r="E76" s="94"/>
+      <c r="F76" s="94"/>
+      <c r="G76" s="94"/>
+      <c r="H76" s="94"/>
+      <c r="I76" s="94"/>
+      <c r="J76" s="94"/>
+      <c r="K76" s="95"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -3889,45 +3904,45 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="89"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="89"/>
-      <c r="D87" s="89"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="89"/>
-      <c r="G87" s="89"/>
-      <c r="H87" s="89"/>
-      <c r="I87" s="89"/>
-      <c r="J87" s="89"/>
-      <c r="K87" s="89"/>
+      <c r="A87" s="98"/>
+      <c r="B87" s="98"/>
+      <c r="C87" s="98"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="98"/>
+      <c r="H87" s="98"/>
+      <c r="I87" s="98"/>
+      <c r="J87" s="98"/>
+      <c r="K87" s="98"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="90"/>
-      <c r="B88" s="90"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
-      <c r="H88" s="90"/>
-      <c r="I88" s="90"/>
-      <c r="J88" s="90"/>
-      <c r="K88" s="90"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="97"/>
+      <c r="F88" s="97"/>
+      <c r="G88" s="97"/>
+      <c r="H88" s="97"/>
+      <c r="I88" s="97"/>
+      <c r="J88" s="97"/>
+      <c r="K88" s="97"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="86" t="s">
+      <c r="A89" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="B89" s="87"/>
-      <c r="C89" s="87"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="87"/>
-      <c r="G89" s="87"/>
-      <c r="H89" s="87"/>
-      <c r="I89" s="87"/>
-      <c r="J89" s="87"/>
-      <c r="K89" s="88"/>
+      <c r="B89" s="94"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="94"/>
+      <c r="E89" s="94"/>
+      <c r="F89" s="94"/>
+      <c r="G89" s="94"/>
+      <c r="H89" s="94"/>
+      <c r="I89" s="94"/>
+      <c r="J89" s="94"/>
+      <c r="K89" s="95"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
@@ -4255,45 +4270,45 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="89"/>
-      <c r="B101" s="89"/>
-      <c r="C101" s="89"/>
-      <c r="D101" s="89"/>
-      <c r="E101" s="89"/>
-      <c r="F101" s="89"/>
-      <c r="G101" s="89"/>
-      <c r="H101" s="89"/>
-      <c r="I101" s="89"/>
-      <c r="J101" s="89"/>
-      <c r="K101" s="89"/>
+      <c r="A101" s="98"/>
+      <c r="B101" s="98"/>
+      <c r="C101" s="98"/>
+      <c r="D101" s="98"/>
+      <c r="E101" s="98"/>
+      <c r="F101" s="98"/>
+      <c r="G101" s="98"/>
+      <c r="H101" s="98"/>
+      <c r="I101" s="98"/>
+      <c r="J101" s="98"/>
+      <c r="K101" s="98"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="90"/>
-      <c r="B102" s="90"/>
-      <c r="C102" s="90"/>
-      <c r="D102" s="90"/>
-      <c r="E102" s="90"/>
-      <c r="F102" s="90"/>
-      <c r="G102" s="90"/>
-      <c r="H102" s="90"/>
-      <c r="I102" s="90"/>
-      <c r="J102" s="90"/>
-      <c r="K102" s="90"/>
+      <c r="A102" s="97"/>
+      <c r="B102" s="97"/>
+      <c r="C102" s="97"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="97"/>
+      <c r="F102" s="97"/>
+      <c r="G102" s="97"/>
+      <c r="H102" s="97"/>
+      <c r="I102" s="97"/>
+      <c r="J102" s="97"/>
+      <c r="K102" s="97"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="86" t="s">
+      <c r="A103" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="87"/>
-      <c r="C103" s="87"/>
-      <c r="D103" s="87"/>
-      <c r="E103" s="87"/>
-      <c r="F103" s="87"/>
-      <c r="G103" s="87"/>
-      <c r="H103" s="87"/>
-      <c r="I103" s="87"/>
-      <c r="J103" s="87"/>
-      <c r="K103" s="88"/>
+      <c r="B103" s="94"/>
+      <c r="C103" s="94"/>
+      <c r="D103" s="94"/>
+      <c r="E103" s="94"/>
+      <c r="F103" s="94"/>
+      <c r="G103" s="94"/>
+      <c r="H103" s="94"/>
+      <c r="I103" s="94"/>
+      <c r="J103" s="94"/>
+      <c r="K103" s="95"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
@@ -4669,45 +4684,45 @@
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="89"/>
-      <c r="B117" s="89"/>
-      <c r="C117" s="89"/>
-      <c r="D117" s="89"/>
-      <c r="E117" s="89"/>
-      <c r="F117" s="89"/>
-      <c r="G117" s="89"/>
-      <c r="H117" s="89"/>
-      <c r="I117" s="89"/>
-      <c r="J117" s="89"/>
-      <c r="K117" s="89"/>
+      <c r="A117" s="98"/>
+      <c r="B117" s="98"/>
+      <c r="C117" s="98"/>
+      <c r="D117" s="98"/>
+      <c r="E117" s="98"/>
+      <c r="F117" s="98"/>
+      <c r="G117" s="98"/>
+      <c r="H117" s="98"/>
+      <c r="I117" s="98"/>
+      <c r="J117" s="98"/>
+      <c r="K117" s="98"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="90"/>
-      <c r="B118" s="90"/>
-      <c r="C118" s="90"/>
-      <c r="D118" s="90"/>
-      <c r="E118" s="90"/>
-      <c r="F118" s="90"/>
-      <c r="G118" s="90"/>
-      <c r="H118" s="90"/>
-      <c r="I118" s="90"/>
-      <c r="J118" s="90"/>
-      <c r="K118" s="90"/>
+      <c r="A118" s="97"/>
+      <c r="B118" s="97"/>
+      <c r="C118" s="97"/>
+      <c r="D118" s="97"/>
+      <c r="E118" s="97"/>
+      <c r="F118" s="97"/>
+      <c r="G118" s="97"/>
+      <c r="H118" s="97"/>
+      <c r="I118" s="97"/>
+      <c r="J118" s="97"/>
+      <c r="K118" s="97"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="86" t="s">
+      <c r="A119" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="B119" s="87"/>
-      <c r="C119" s="87"/>
-      <c r="D119" s="87"/>
-      <c r="E119" s="87"/>
-      <c r="F119" s="87"/>
-      <c r="G119" s="87"/>
-      <c r="H119" s="87"/>
-      <c r="I119" s="87"/>
-      <c r="J119" s="87"/>
-      <c r="K119" s="88"/>
+      <c r="B119" s="94"/>
+      <c r="C119" s="94"/>
+      <c r="D119" s="94"/>
+      <c r="E119" s="94"/>
+      <c r="F119" s="94"/>
+      <c r="G119" s="94"/>
+      <c r="H119" s="94"/>
+      <c r="I119" s="94"/>
+      <c r="J119" s="94"/>
+      <c r="K119" s="95"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="20" t="s">
@@ -5149,45 +5164,45 @@
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="89"/>
-      <c r="B135" s="89"/>
-      <c r="C135" s="89"/>
-      <c r="D135" s="89"/>
-      <c r="E135" s="89"/>
-      <c r="F135" s="89"/>
-      <c r="G135" s="89"/>
-      <c r="H135" s="89"/>
-      <c r="I135" s="89"/>
-      <c r="J135" s="89"/>
-      <c r="K135" s="89"/>
+      <c r="A135" s="98"/>
+      <c r="B135" s="98"/>
+      <c r="C135" s="98"/>
+      <c r="D135" s="98"/>
+      <c r="E135" s="98"/>
+      <c r="F135" s="98"/>
+      <c r="G135" s="98"/>
+      <c r="H135" s="98"/>
+      <c r="I135" s="98"/>
+      <c r="J135" s="98"/>
+      <c r="K135" s="98"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="90"/>
-      <c r="B136" s="90"/>
-      <c r="C136" s="90"/>
-      <c r="D136" s="90"/>
-      <c r="E136" s="90"/>
-      <c r="F136" s="90"/>
-      <c r="G136" s="90"/>
-      <c r="H136" s="90"/>
-      <c r="I136" s="90"/>
-      <c r="J136" s="90"/>
-      <c r="K136" s="90"/>
+      <c r="A136" s="97"/>
+      <c r="B136" s="97"/>
+      <c r="C136" s="97"/>
+      <c r="D136" s="97"/>
+      <c r="E136" s="97"/>
+      <c r="F136" s="97"/>
+      <c r="G136" s="97"/>
+      <c r="H136" s="97"/>
+      <c r="I136" s="97"/>
+      <c r="J136" s="97"/>
+      <c r="K136" s="97"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A137" s="86" t="s">
+      <c r="A137" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="B137" s="87"/>
-      <c r="C137" s="87"/>
-      <c r="D137" s="87"/>
-      <c r="E137" s="87"/>
-      <c r="F137" s="87"/>
-      <c r="G137" s="87"/>
-      <c r="H137" s="87"/>
-      <c r="I137" s="87"/>
-      <c r="J137" s="87"/>
-      <c r="K137" s="88"/>
+      <c r="B137" s="94"/>
+      <c r="C137" s="94"/>
+      <c r="D137" s="94"/>
+      <c r="E137" s="94"/>
+      <c r="F137" s="94"/>
+      <c r="G137" s="94"/>
+      <c r="H137" s="94"/>
+      <c r="I137" s="94"/>
+      <c r="J137" s="94"/>
+      <c r="K137" s="95"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
@@ -5580,45 +5595,45 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="89"/>
-      <c r="B152" s="89"/>
-      <c r="C152" s="89"/>
-      <c r="D152" s="89"/>
-      <c r="E152" s="89"/>
-      <c r="F152" s="89"/>
-      <c r="G152" s="89"/>
-      <c r="H152" s="89"/>
-      <c r="I152" s="89"/>
-      <c r="J152" s="89"/>
-      <c r="K152" s="89"/>
+      <c r="A152" s="98"/>
+      <c r="B152" s="98"/>
+      <c r="C152" s="98"/>
+      <c r="D152" s="98"/>
+      <c r="E152" s="98"/>
+      <c r="F152" s="98"/>
+      <c r="G152" s="98"/>
+      <c r="H152" s="98"/>
+      <c r="I152" s="98"/>
+      <c r="J152" s="98"/>
+      <c r="K152" s="98"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A153" s="90"/>
-      <c r="B153" s="90"/>
-      <c r="C153" s="90"/>
-      <c r="D153" s="90"/>
-      <c r="E153" s="90"/>
-      <c r="F153" s="90"/>
-      <c r="G153" s="90"/>
-      <c r="H153" s="90"/>
-      <c r="I153" s="90"/>
-      <c r="J153" s="90"/>
-      <c r="K153" s="90"/>
+      <c r="A153" s="97"/>
+      <c r="B153" s="97"/>
+      <c r="C153" s="97"/>
+      <c r="D153" s="97"/>
+      <c r="E153" s="97"/>
+      <c r="F153" s="97"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="97"/>
+      <c r="I153" s="97"/>
+      <c r="J153" s="97"/>
+      <c r="K153" s="97"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" s="86" t="s">
+      <c r="A154" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="B154" s="87"/>
-      <c r="C154" s="87"/>
-      <c r="D154" s="87"/>
-      <c r="E154" s="87"/>
-      <c r="F154" s="87"/>
-      <c r="G154" s="87"/>
-      <c r="H154" s="87"/>
-      <c r="I154" s="87"/>
-      <c r="J154" s="87"/>
-      <c r="K154" s="88"/>
+      <c r="B154" s="94"/>
+      <c r="C154" s="94"/>
+      <c r="D154" s="94"/>
+      <c r="E154" s="94"/>
+      <c r="F154" s="94"/>
+      <c r="G154" s="94"/>
+      <c r="H154" s="94"/>
+      <c r="I154" s="94"/>
+      <c r="J154" s="94"/>
+      <c r="K154" s="95"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
@@ -5832,45 +5847,45 @@
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="89"/>
-      <c r="B162" s="89"/>
-      <c r="C162" s="89"/>
-      <c r="D162" s="89"/>
-      <c r="E162" s="89"/>
-      <c r="F162" s="89"/>
-      <c r="G162" s="89"/>
-      <c r="H162" s="89"/>
-      <c r="I162" s="89"/>
-      <c r="J162" s="89"/>
-      <c r="K162" s="89"/>
+      <c r="A162" s="98"/>
+      <c r="B162" s="98"/>
+      <c r="C162" s="98"/>
+      <c r="D162" s="98"/>
+      <c r="E162" s="98"/>
+      <c r="F162" s="98"/>
+      <c r="G162" s="98"/>
+      <c r="H162" s="98"/>
+      <c r="I162" s="98"/>
+      <c r="J162" s="98"/>
+      <c r="K162" s="98"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="90"/>
-      <c r="B163" s="90"/>
-      <c r="C163" s="90"/>
-      <c r="D163" s="90"/>
-      <c r="E163" s="90"/>
-      <c r="F163" s="90"/>
-      <c r="G163" s="90"/>
-      <c r="H163" s="90"/>
-      <c r="I163" s="90"/>
-      <c r="J163" s="90"/>
-      <c r="K163" s="90"/>
+      <c r="A163" s="97"/>
+      <c r="B163" s="97"/>
+      <c r="C163" s="97"/>
+      <c r="D163" s="97"/>
+      <c r="E163" s="97"/>
+      <c r="F163" s="97"/>
+      <c r="G163" s="97"/>
+      <c r="H163" s="97"/>
+      <c r="I163" s="97"/>
+      <c r="J163" s="97"/>
+      <c r="K163" s="97"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A164" s="86" t="s">
+      <c r="A164" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B164" s="87"/>
-      <c r="C164" s="87"/>
-      <c r="D164" s="87"/>
-      <c r="E164" s="87"/>
-      <c r="F164" s="87"/>
-      <c r="G164" s="87"/>
-      <c r="H164" s="87"/>
-      <c r="I164" s="87"/>
-      <c r="J164" s="87"/>
-      <c r="K164" s="88"/>
+      <c r="B164" s="94"/>
+      <c r="C164" s="94"/>
+      <c r="D164" s="94"/>
+      <c r="E164" s="94"/>
+      <c r="F164" s="94"/>
+      <c r="G164" s="94"/>
+      <c r="H164" s="94"/>
+      <c r="I164" s="94"/>
+      <c r="J164" s="94"/>
+      <c r="K164" s="95"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
@@ -6153,45 +6168,45 @@
       </c>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="89"/>
-      <c r="B175" s="89"/>
-      <c r="C175" s="89"/>
-      <c r="D175" s="89"/>
-      <c r="E175" s="89"/>
-      <c r="F175" s="89"/>
-      <c r="G175" s="89"/>
-      <c r="H175" s="89"/>
-      <c r="I175" s="89"/>
-      <c r="J175" s="89"/>
-      <c r="K175" s="89"/>
+      <c r="A175" s="98"/>
+      <c r="B175" s="98"/>
+      <c r="C175" s="98"/>
+      <c r="D175" s="98"/>
+      <c r="E175" s="98"/>
+      <c r="F175" s="98"/>
+      <c r="G175" s="98"/>
+      <c r="H175" s="98"/>
+      <c r="I175" s="98"/>
+      <c r="J175" s="98"/>
+      <c r="K175" s="98"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" s="90"/>
-      <c r="B176" s="90"/>
-      <c r="C176" s="90"/>
-      <c r="D176" s="90"/>
-      <c r="E176" s="90"/>
-      <c r="F176" s="90"/>
-      <c r="G176" s="90"/>
-      <c r="H176" s="90"/>
-      <c r="I176" s="90"/>
-      <c r="J176" s="90"/>
-      <c r="K176" s="90"/>
+      <c r="A176" s="97"/>
+      <c r="B176" s="97"/>
+      <c r="C176" s="97"/>
+      <c r="D176" s="97"/>
+      <c r="E176" s="97"/>
+      <c r="F176" s="97"/>
+      <c r="G176" s="97"/>
+      <c r="H176" s="97"/>
+      <c r="I176" s="97"/>
+      <c r="J176" s="97"/>
+      <c r="K176" s="97"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A177" s="86" t="s">
+      <c r="A177" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="B177" s="87"/>
-      <c r="C177" s="87"/>
-      <c r="D177" s="87"/>
-      <c r="E177" s="87"/>
-      <c r="F177" s="87"/>
-      <c r="G177" s="87"/>
-      <c r="H177" s="87"/>
-      <c r="I177" s="87"/>
-      <c r="J177" s="87"/>
-      <c r="K177" s="88"/>
+      <c r="B177" s="94"/>
+      <c r="C177" s="94"/>
+      <c r="D177" s="94"/>
+      <c r="E177" s="94"/>
+      <c r="F177" s="94"/>
+      <c r="G177" s="94"/>
+      <c r="H177" s="94"/>
+      <c r="I177" s="94"/>
+      <c r="J177" s="94"/>
+      <c r="K177" s="95"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
@@ -6459,45 +6474,45 @@
       </c>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="89"/>
-      <c r="B187" s="89"/>
-      <c r="C187" s="89"/>
-      <c r="D187" s="89"/>
-      <c r="E187" s="89"/>
-      <c r="F187" s="89"/>
-      <c r="G187" s="89"/>
-      <c r="H187" s="89"/>
-      <c r="I187" s="89"/>
-      <c r="J187" s="89"/>
-      <c r="K187" s="89"/>
+      <c r="A187" s="98"/>
+      <c r="B187" s="98"/>
+      <c r="C187" s="98"/>
+      <c r="D187" s="98"/>
+      <c r="E187" s="98"/>
+      <c r="F187" s="98"/>
+      <c r="G187" s="98"/>
+      <c r="H187" s="98"/>
+      <c r="I187" s="98"/>
+      <c r="J187" s="98"/>
+      <c r="K187" s="98"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A188" s="90"/>
-      <c r="B188" s="90"/>
-      <c r="C188" s="90"/>
-      <c r="D188" s="90"/>
-      <c r="E188" s="90"/>
-      <c r="F188" s="90"/>
-      <c r="G188" s="90"/>
-      <c r="H188" s="90"/>
-      <c r="I188" s="90"/>
-      <c r="J188" s="90"/>
-      <c r="K188" s="90"/>
+      <c r="A188" s="97"/>
+      <c r="B188" s="97"/>
+      <c r="C188" s="97"/>
+      <c r="D188" s="97"/>
+      <c r="E188" s="97"/>
+      <c r="F188" s="97"/>
+      <c r="G188" s="97"/>
+      <c r="H188" s="97"/>
+      <c r="I188" s="97"/>
+      <c r="J188" s="97"/>
+      <c r="K188" s="97"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" s="86" t="s">
+      <c r="A189" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="B189" s="87"/>
-      <c r="C189" s="87"/>
-      <c r="D189" s="87"/>
-      <c r="E189" s="87"/>
-      <c r="F189" s="87"/>
-      <c r="G189" s="87"/>
-      <c r="H189" s="87"/>
-      <c r="I189" s="87"/>
-      <c r="J189" s="87"/>
-      <c r="K189" s="88"/>
+      <c r="B189" s="94"/>
+      <c r="C189" s="94"/>
+      <c r="D189" s="94"/>
+      <c r="E189" s="94"/>
+      <c r="F189" s="94"/>
+      <c r="G189" s="94"/>
+      <c r="H189" s="94"/>
+      <c r="I189" s="94"/>
+      <c r="J189" s="94"/>
+      <c r="K189" s="95"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
@@ -6767,45 +6782,45 @@
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="89"/>
-      <c r="B199" s="89"/>
-      <c r="C199" s="89"/>
-      <c r="D199" s="89"/>
-      <c r="E199" s="89"/>
-      <c r="F199" s="89"/>
-      <c r="G199" s="89"/>
-      <c r="H199" s="89"/>
-      <c r="I199" s="89"/>
-      <c r="J199" s="89"/>
-      <c r="K199" s="89"/>
+      <c r="A199" s="98"/>
+      <c r="B199" s="98"/>
+      <c r="C199" s="98"/>
+      <c r="D199" s="98"/>
+      <c r="E199" s="98"/>
+      <c r="F199" s="98"/>
+      <c r="G199" s="98"/>
+      <c r="H199" s="98"/>
+      <c r="I199" s="98"/>
+      <c r="J199" s="98"/>
+      <c r="K199" s="98"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A200" s="90"/>
-      <c r="B200" s="90"/>
-      <c r="C200" s="90"/>
-      <c r="D200" s="90"/>
-      <c r="E200" s="90"/>
-      <c r="F200" s="90"/>
-      <c r="G200" s="90"/>
-      <c r="H200" s="90"/>
-      <c r="I200" s="90"/>
-      <c r="J200" s="90"/>
-      <c r="K200" s="90"/>
+      <c r="A200" s="97"/>
+      <c r="B200" s="97"/>
+      <c r="C200" s="97"/>
+      <c r="D200" s="97"/>
+      <c r="E200" s="97"/>
+      <c r="F200" s="97"/>
+      <c r="G200" s="97"/>
+      <c r="H200" s="97"/>
+      <c r="I200" s="97"/>
+      <c r="J200" s="97"/>
+      <c r="K200" s="97"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="86" t="s">
+      <c r="A201" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="B201" s="87"/>
-      <c r="C201" s="87"/>
-      <c r="D201" s="87"/>
-      <c r="E201" s="87"/>
-      <c r="F201" s="87"/>
-      <c r="G201" s="87"/>
-      <c r="H201" s="87"/>
-      <c r="I201" s="87"/>
-      <c r="J201" s="87"/>
-      <c r="K201" s="88"/>
+      <c r="B201" s="94"/>
+      <c r="C201" s="94"/>
+      <c r="D201" s="94"/>
+      <c r="E201" s="94"/>
+      <c r="F201" s="94"/>
+      <c r="G201" s="94"/>
+      <c r="H201" s="94"/>
+      <c r="I201" s="94"/>
+      <c r="J201" s="94"/>
+      <c r="K201" s="95"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
@@ -7203,45 +7218,45 @@
       </c>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="89"/>
-      <c r="B215" s="89"/>
-      <c r="C215" s="89"/>
-      <c r="D215" s="89"/>
-      <c r="E215" s="89"/>
-      <c r="F215" s="89"/>
-      <c r="G215" s="89"/>
-      <c r="H215" s="89"/>
-      <c r="I215" s="89"/>
-      <c r="J215" s="89"/>
-      <c r="K215" s="89"/>
+      <c r="A215" s="98"/>
+      <c r="B215" s="98"/>
+      <c r="C215" s="98"/>
+      <c r="D215" s="98"/>
+      <c r="E215" s="98"/>
+      <c r="F215" s="98"/>
+      <c r="G215" s="98"/>
+      <c r="H215" s="98"/>
+      <c r="I215" s="98"/>
+      <c r="J215" s="98"/>
+      <c r="K215" s="98"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="90"/>
-      <c r="B216" s="90"/>
-      <c r="C216" s="90"/>
-      <c r="D216" s="90"/>
-      <c r="E216" s="90"/>
-      <c r="F216" s="90"/>
-      <c r="G216" s="90"/>
-      <c r="H216" s="90"/>
-      <c r="I216" s="90"/>
-      <c r="J216" s="90"/>
-      <c r="K216" s="90"/>
+      <c r="A216" s="97"/>
+      <c r="B216" s="97"/>
+      <c r="C216" s="97"/>
+      <c r="D216" s="97"/>
+      <c r="E216" s="97"/>
+      <c r="F216" s="97"/>
+      <c r="G216" s="97"/>
+      <c r="H216" s="97"/>
+      <c r="I216" s="97"/>
+      <c r="J216" s="97"/>
+      <c r="K216" s="97"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="86" t="s">
+      <c r="A217" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="B217" s="87"/>
-      <c r="C217" s="87"/>
-      <c r="D217" s="87"/>
-      <c r="E217" s="87"/>
-      <c r="F217" s="87"/>
-      <c r="G217" s="87"/>
-      <c r="H217" s="87"/>
-      <c r="I217" s="87"/>
-      <c r="J217" s="87"/>
-      <c r="K217" s="88"/>
+      <c r="B217" s="94"/>
+      <c r="C217" s="94"/>
+      <c r="D217" s="94"/>
+      <c r="E217" s="94"/>
+      <c r="F217" s="94"/>
+      <c r="G217" s="94"/>
+      <c r="H217" s="94"/>
+      <c r="I217" s="94"/>
+      <c r="J217" s="94"/>
+      <c r="K217" s="95"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
@@ -7442,45 +7457,45 @@
       </c>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="89"/>
-      <c r="B225" s="89"/>
-      <c r="C225" s="89"/>
-      <c r="D225" s="89"/>
-      <c r="E225" s="89"/>
-      <c r="F225" s="89"/>
-      <c r="G225" s="89"/>
-      <c r="H225" s="89"/>
-      <c r="I225" s="89"/>
-      <c r="J225" s="89"/>
-      <c r="K225" s="89"/>
+      <c r="A225" s="98"/>
+      <c r="B225" s="98"/>
+      <c r="C225" s="98"/>
+      <c r="D225" s="98"/>
+      <c r="E225" s="98"/>
+      <c r="F225" s="98"/>
+      <c r="G225" s="98"/>
+      <c r="H225" s="98"/>
+      <c r="I225" s="98"/>
+      <c r="J225" s="98"/>
+      <c r="K225" s="98"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A226" s="90"/>
-      <c r="B226" s="90"/>
-      <c r="C226" s="90"/>
-      <c r="D226" s="90"/>
-      <c r="E226" s="90"/>
-      <c r="F226" s="90"/>
-      <c r="G226" s="90"/>
-      <c r="H226" s="90"/>
-      <c r="I226" s="90"/>
-      <c r="J226" s="90"/>
-      <c r="K226" s="90"/>
+      <c r="A226" s="97"/>
+      <c r="B226" s="97"/>
+      <c r="C226" s="97"/>
+      <c r="D226" s="97"/>
+      <c r="E226" s="97"/>
+      <c r="F226" s="97"/>
+      <c r="G226" s="97"/>
+      <c r="H226" s="97"/>
+      <c r="I226" s="97"/>
+      <c r="J226" s="97"/>
+      <c r="K226" s="97"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="86" t="s">
+      <c r="A227" s="93" t="s">
         <v>204</v>
       </c>
-      <c r="B227" s="87"/>
-      <c r="C227" s="87"/>
-      <c r="D227" s="87"/>
-      <c r="E227" s="87"/>
-      <c r="F227" s="87"/>
-      <c r="G227" s="87"/>
-      <c r="H227" s="87"/>
-      <c r="I227" s="87"/>
-      <c r="J227" s="87"/>
-      <c r="K227" s="88"/>
+      <c r="B227" s="94"/>
+      <c r="C227" s="94"/>
+      <c r="D227" s="94"/>
+      <c r="E227" s="94"/>
+      <c r="F227" s="94"/>
+      <c r="G227" s="94"/>
+      <c r="H227" s="94"/>
+      <c r="I227" s="94"/>
+      <c r="J227" s="94"/>
+      <c r="K227" s="95"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
@@ -7727,45 +7742,45 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="89"/>
-      <c r="B236" s="89"/>
-      <c r="C236" s="89"/>
-      <c r="D236" s="89"/>
-      <c r="E236" s="89"/>
-      <c r="F236" s="89"/>
-      <c r="G236" s="89"/>
-      <c r="H236" s="89"/>
-      <c r="I236" s="89"/>
-      <c r="J236" s="89"/>
-      <c r="K236" s="89"/>
+      <c r="A236" s="98"/>
+      <c r="B236" s="98"/>
+      <c r="C236" s="98"/>
+      <c r="D236" s="98"/>
+      <c r="E236" s="98"/>
+      <c r="F236" s="98"/>
+      <c r="G236" s="98"/>
+      <c r="H236" s="98"/>
+      <c r="I236" s="98"/>
+      <c r="J236" s="98"/>
+      <c r="K236" s="98"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="90"/>
-      <c r="B237" s="90"/>
-      <c r="C237" s="90"/>
-      <c r="D237" s="90"/>
-      <c r="E237" s="90"/>
-      <c r="F237" s="90"/>
-      <c r="G237" s="90"/>
-      <c r="H237" s="90"/>
-      <c r="I237" s="90"/>
-      <c r="J237" s="90"/>
-      <c r="K237" s="90"/>
+      <c r="A237" s="97"/>
+      <c r="B237" s="97"/>
+      <c r="C237" s="97"/>
+      <c r="D237" s="97"/>
+      <c r="E237" s="97"/>
+      <c r="F237" s="97"/>
+      <c r="G237" s="97"/>
+      <c r="H237" s="97"/>
+      <c r="I237" s="97"/>
+      <c r="J237" s="97"/>
+      <c r="K237" s="97"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="86" t="s">
+      <c r="A238" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="B238" s="87"/>
-      <c r="C238" s="87"/>
-      <c r="D238" s="87"/>
-      <c r="E238" s="87"/>
-      <c r="F238" s="87"/>
-      <c r="G238" s="87"/>
-      <c r="H238" s="87"/>
-      <c r="I238" s="87"/>
-      <c r="J238" s="87"/>
-      <c r="K238" s="88"/>
+      <c r="B238" s="94"/>
+      <c r="C238" s="94"/>
+      <c r="D238" s="94"/>
+      <c r="E238" s="94"/>
+      <c r="F238" s="94"/>
+      <c r="G238" s="94"/>
+      <c r="H238" s="94"/>
+      <c r="I238" s="94"/>
+      <c r="J238" s="94"/>
+      <c r="K238" s="95"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
@@ -8008,45 +8023,45 @@
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="89"/>
-      <c r="B247" s="89"/>
-      <c r="C247" s="89"/>
-      <c r="D247" s="89"/>
-      <c r="E247" s="89"/>
-      <c r="F247" s="89"/>
-      <c r="G247" s="89"/>
-      <c r="H247" s="89"/>
-      <c r="I247" s="89"/>
-      <c r="J247" s="89"/>
-      <c r="K247" s="89"/>
+      <c r="A247" s="98"/>
+      <c r="B247" s="98"/>
+      <c r="C247" s="98"/>
+      <c r="D247" s="98"/>
+      <c r="E247" s="98"/>
+      <c r="F247" s="98"/>
+      <c r="G247" s="98"/>
+      <c r="H247" s="98"/>
+      <c r="I247" s="98"/>
+      <c r="J247" s="98"/>
+      <c r="K247" s="98"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="90"/>
-      <c r="B248" s="90"/>
-      <c r="C248" s="90"/>
-      <c r="D248" s="90"/>
-      <c r="E248" s="90"/>
-      <c r="F248" s="90"/>
-      <c r="G248" s="90"/>
-      <c r="H248" s="90"/>
-      <c r="I248" s="90"/>
-      <c r="J248" s="90"/>
-      <c r="K248" s="90"/>
+      <c r="A248" s="97"/>
+      <c r="B248" s="97"/>
+      <c r="C248" s="97"/>
+      <c r="D248" s="97"/>
+      <c r="E248" s="97"/>
+      <c r="F248" s="97"/>
+      <c r="G248" s="97"/>
+      <c r="H248" s="97"/>
+      <c r="I248" s="97"/>
+      <c r="J248" s="97"/>
+      <c r="K248" s="97"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A249" s="86" t="s">
+      <c r="A249" s="93" t="s">
         <v>239</v>
       </c>
-      <c r="B249" s="87"/>
-      <c r="C249" s="87"/>
-      <c r="D249" s="87"/>
-      <c r="E249" s="87"/>
-      <c r="F249" s="87"/>
-      <c r="G249" s="87"/>
-      <c r="H249" s="87"/>
-      <c r="I249" s="87"/>
-      <c r="J249" s="87"/>
-      <c r="K249" s="88"/>
+      <c r="B249" s="94"/>
+      <c r="C249" s="94"/>
+      <c r="D249" s="94"/>
+      <c r="E249" s="94"/>
+      <c r="F249" s="94"/>
+      <c r="G249" s="94"/>
+      <c r="H249" s="94"/>
+      <c r="I249" s="94"/>
+      <c r="J249" s="94"/>
+      <c r="K249" s="95"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
@@ -8229,45 +8244,45 @@
       </c>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="89"/>
-      <c r="B256" s="89"/>
-      <c r="C256" s="89"/>
-      <c r="D256" s="89"/>
-      <c r="E256" s="89"/>
-      <c r="F256" s="89"/>
-      <c r="G256" s="89"/>
-      <c r="H256" s="89"/>
-      <c r="I256" s="89"/>
-      <c r="J256" s="89"/>
-      <c r="K256" s="89"/>
+      <c r="A256" s="98"/>
+      <c r="B256" s="98"/>
+      <c r="C256" s="98"/>
+      <c r="D256" s="98"/>
+      <c r="E256" s="98"/>
+      <c r="F256" s="98"/>
+      <c r="G256" s="98"/>
+      <c r="H256" s="98"/>
+      <c r="I256" s="98"/>
+      <c r="J256" s="98"/>
+      <c r="K256" s="98"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="90"/>
-      <c r="B257" s="90"/>
-      <c r="C257" s="90"/>
-      <c r="D257" s="90"/>
-      <c r="E257" s="90"/>
-      <c r="F257" s="90"/>
-      <c r="G257" s="90"/>
-      <c r="H257" s="90"/>
-      <c r="I257" s="90"/>
-      <c r="J257" s="90"/>
-      <c r="K257" s="90"/>
+      <c r="A257" s="97"/>
+      <c r="B257" s="97"/>
+      <c r="C257" s="97"/>
+      <c r="D257" s="97"/>
+      <c r="E257" s="97"/>
+      <c r="F257" s="97"/>
+      <c r="G257" s="97"/>
+      <c r="H257" s="97"/>
+      <c r="I257" s="97"/>
+      <c r="J257" s="97"/>
+      <c r="K257" s="97"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="86" t="s">
+      <c r="A258" s="93" t="s">
         <v>241</v>
       </c>
-      <c r="B258" s="87"/>
-      <c r="C258" s="87"/>
-      <c r="D258" s="87"/>
-      <c r="E258" s="87"/>
-      <c r="F258" s="87"/>
-      <c r="G258" s="87"/>
-      <c r="H258" s="87"/>
-      <c r="I258" s="87"/>
-      <c r="J258" s="87"/>
-      <c r="K258" s="88"/>
+      <c r="B258" s="94"/>
+      <c r="C258" s="94"/>
+      <c r="D258" s="94"/>
+      <c r="E258" s="94"/>
+      <c r="F258" s="94"/>
+      <c r="G258" s="94"/>
+      <c r="H258" s="94"/>
+      <c r="I258" s="94"/>
+      <c r="J258" s="94"/>
+      <c r="K258" s="95"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
@@ -8450,45 +8465,45 @@
       </c>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="89"/>
-      <c r="B265" s="89"/>
-      <c r="C265" s="89"/>
-      <c r="D265" s="89"/>
-      <c r="E265" s="89"/>
-      <c r="F265" s="89"/>
-      <c r="G265" s="89"/>
-      <c r="H265" s="89"/>
-      <c r="I265" s="89"/>
-      <c r="J265" s="89"/>
-      <c r="K265" s="89"/>
+      <c r="A265" s="98"/>
+      <c r="B265" s="98"/>
+      <c r="C265" s="98"/>
+      <c r="D265" s="98"/>
+      <c r="E265" s="98"/>
+      <c r="F265" s="98"/>
+      <c r="G265" s="98"/>
+      <c r="H265" s="98"/>
+      <c r="I265" s="98"/>
+      <c r="J265" s="98"/>
+      <c r="K265" s="98"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A266" s="90"/>
-      <c r="B266" s="90"/>
-      <c r="C266" s="90"/>
-      <c r="D266" s="90"/>
-      <c r="E266" s="90"/>
-      <c r="F266" s="90"/>
-      <c r="G266" s="90"/>
-      <c r="H266" s="90"/>
-      <c r="I266" s="90"/>
-      <c r="J266" s="90"/>
-      <c r="K266" s="90"/>
+      <c r="A266" s="97"/>
+      <c r="B266" s="97"/>
+      <c r="C266" s="97"/>
+      <c r="D266" s="97"/>
+      <c r="E266" s="97"/>
+      <c r="F266" s="97"/>
+      <c r="G266" s="97"/>
+      <c r="H266" s="97"/>
+      <c r="I266" s="97"/>
+      <c r="J266" s="97"/>
+      <c r="K266" s="97"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A267" s="86" t="s">
+      <c r="A267" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="B267" s="87"/>
-      <c r="C267" s="87"/>
-      <c r="D267" s="87"/>
-      <c r="E267" s="87"/>
-      <c r="F267" s="87"/>
-      <c r="G267" s="87"/>
-      <c r="H267" s="87"/>
-      <c r="I267" s="87"/>
-      <c r="J267" s="87"/>
-      <c r="K267" s="88"/>
+      <c r="B267" s="94"/>
+      <c r="C267" s="94"/>
+      <c r="D267" s="94"/>
+      <c r="E267" s="94"/>
+      <c r="F267" s="94"/>
+      <c r="G267" s="94"/>
+      <c r="H267" s="94"/>
+      <c r="I267" s="94"/>
+      <c r="J267" s="94"/>
+      <c r="K267" s="95"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
@@ -8671,45 +8686,45 @@
       </c>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="89"/>
-      <c r="B274" s="89"/>
-      <c r="C274" s="89"/>
-      <c r="D274" s="89"/>
-      <c r="E274" s="89"/>
-      <c r="F274" s="89"/>
-      <c r="G274" s="89"/>
-      <c r="H274" s="89"/>
-      <c r="I274" s="89"/>
-      <c r="J274" s="89"/>
-      <c r="K274" s="89"/>
+      <c r="A274" s="98"/>
+      <c r="B274" s="98"/>
+      <c r="C274" s="98"/>
+      <c r="D274" s="98"/>
+      <c r="E274" s="98"/>
+      <c r="F274" s="98"/>
+      <c r="G274" s="98"/>
+      <c r="H274" s="98"/>
+      <c r="I274" s="98"/>
+      <c r="J274" s="98"/>
+      <c r="K274" s="98"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="90"/>
-      <c r="B275" s="90"/>
-      <c r="C275" s="90"/>
-      <c r="D275" s="90"/>
-      <c r="E275" s="90"/>
-      <c r="F275" s="90"/>
-      <c r="G275" s="90"/>
-      <c r="H275" s="90"/>
-      <c r="I275" s="90"/>
-      <c r="J275" s="90"/>
-      <c r="K275" s="90"/>
+      <c r="A275" s="97"/>
+      <c r="B275" s="97"/>
+      <c r="C275" s="97"/>
+      <c r="D275" s="97"/>
+      <c r="E275" s="97"/>
+      <c r="F275" s="97"/>
+      <c r="G275" s="97"/>
+      <c r="H275" s="97"/>
+      <c r="I275" s="97"/>
+      <c r="J275" s="97"/>
+      <c r="K275" s="97"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A276" s="86" t="s">
+      <c r="A276" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="B276" s="87"/>
-      <c r="C276" s="87"/>
-      <c r="D276" s="87"/>
-      <c r="E276" s="87"/>
-      <c r="F276" s="87"/>
-      <c r="G276" s="87"/>
-      <c r="H276" s="87"/>
-      <c r="I276" s="87"/>
-      <c r="J276" s="87"/>
-      <c r="K276" s="88"/>
+      <c r="B276" s="94"/>
+      <c r="C276" s="94"/>
+      <c r="D276" s="94"/>
+      <c r="E276" s="94"/>
+      <c r="F276" s="94"/>
+      <c r="G276" s="94"/>
+      <c r="H276" s="94"/>
+      <c r="I276" s="94"/>
+      <c r="J276" s="94"/>
+      <c r="K276" s="95"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
@@ -8892,45 +8907,45 @@
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="89"/>
-      <c r="B283" s="89"/>
-      <c r="C283" s="89"/>
-      <c r="D283" s="89"/>
-      <c r="E283" s="89"/>
-      <c r="F283" s="89"/>
-      <c r="G283" s="89"/>
-      <c r="H283" s="89"/>
-      <c r="I283" s="89"/>
-      <c r="J283" s="89"/>
-      <c r="K283" s="89"/>
+      <c r="A283" s="98"/>
+      <c r="B283" s="98"/>
+      <c r="C283" s="98"/>
+      <c r="D283" s="98"/>
+      <c r="E283" s="98"/>
+      <c r="F283" s="98"/>
+      <c r="G283" s="98"/>
+      <c r="H283" s="98"/>
+      <c r="I283" s="98"/>
+      <c r="J283" s="98"/>
+      <c r="K283" s="98"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A284" s="90"/>
-      <c r="B284" s="90"/>
-      <c r="C284" s="90"/>
-      <c r="D284" s="90"/>
-      <c r="E284" s="90"/>
-      <c r="F284" s="90"/>
-      <c r="G284" s="90"/>
-      <c r="H284" s="90"/>
-      <c r="I284" s="90"/>
-      <c r="J284" s="90"/>
-      <c r="K284" s="90"/>
+      <c r="A284" s="97"/>
+      <c r="B284" s="97"/>
+      <c r="C284" s="97"/>
+      <c r="D284" s="97"/>
+      <c r="E284" s="97"/>
+      <c r="F284" s="97"/>
+      <c r="G284" s="97"/>
+      <c r="H284" s="97"/>
+      <c r="I284" s="97"/>
+      <c r="J284" s="97"/>
+      <c r="K284" s="97"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A285" s="86" t="s">
+      <c r="A285" s="93" t="s">
         <v>212</v>
       </c>
-      <c r="B285" s="87"/>
-      <c r="C285" s="87"/>
-      <c r="D285" s="87"/>
-      <c r="E285" s="87"/>
-      <c r="F285" s="87"/>
-      <c r="G285" s="87"/>
-      <c r="H285" s="87"/>
-      <c r="I285" s="87"/>
-      <c r="J285" s="87"/>
-      <c r="K285" s="88"/>
+      <c r="B285" s="94"/>
+      <c r="C285" s="94"/>
+      <c r="D285" s="94"/>
+      <c r="E285" s="94"/>
+      <c r="F285" s="94"/>
+      <c r="G285" s="94"/>
+      <c r="H285" s="94"/>
+      <c r="I285" s="94"/>
+      <c r="J285" s="94"/>
+      <c r="K285" s="95"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
@@ -9229,45 +9244,45 @@
       </c>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="89"/>
-      <c r="B297" s="89"/>
-      <c r="C297" s="89"/>
-      <c r="D297" s="89"/>
-      <c r="E297" s="89"/>
-      <c r="F297" s="89"/>
-      <c r="G297" s="89"/>
-      <c r="H297" s="89"/>
-      <c r="I297" s="89"/>
-      <c r="J297" s="89"/>
-      <c r="K297" s="89"/>
+      <c r="A297" s="98"/>
+      <c r="B297" s="98"/>
+      <c r="C297" s="98"/>
+      <c r="D297" s="98"/>
+      <c r="E297" s="98"/>
+      <c r="F297" s="98"/>
+      <c r="G297" s="98"/>
+      <c r="H297" s="98"/>
+      <c r="I297" s="98"/>
+      <c r="J297" s="98"/>
+      <c r="K297" s="98"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A298" s="90"/>
-      <c r="B298" s="90"/>
-      <c r="C298" s="90"/>
-      <c r="D298" s="90"/>
-      <c r="E298" s="90"/>
-      <c r="F298" s="90"/>
-      <c r="G298" s="90"/>
-      <c r="H298" s="90"/>
-      <c r="I298" s="90"/>
-      <c r="J298" s="90"/>
-      <c r="K298" s="90"/>
+      <c r="A298" s="97"/>
+      <c r="B298" s="97"/>
+      <c r="C298" s="97"/>
+      <c r="D298" s="97"/>
+      <c r="E298" s="97"/>
+      <c r="F298" s="97"/>
+      <c r="G298" s="97"/>
+      <c r="H298" s="97"/>
+      <c r="I298" s="97"/>
+      <c r="J298" s="97"/>
+      <c r="K298" s="97"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="86" t="s">
+      <c r="A299" s="93" t="s">
         <v>215</v>
       </c>
-      <c r="B299" s="87"/>
-      <c r="C299" s="87"/>
-      <c r="D299" s="87"/>
-      <c r="E299" s="87"/>
-      <c r="F299" s="87"/>
-      <c r="G299" s="87"/>
-      <c r="H299" s="87"/>
-      <c r="I299" s="87"/>
-      <c r="J299" s="87"/>
-      <c r="K299" s="88"/>
+      <c r="B299" s="94"/>
+      <c r="C299" s="94"/>
+      <c r="D299" s="94"/>
+      <c r="E299" s="94"/>
+      <c r="F299" s="94"/>
+      <c r="G299" s="94"/>
+      <c r="H299" s="94"/>
+      <c r="I299" s="94"/>
+      <c r="J299" s="94"/>
+      <c r="K299" s="95"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
@@ -9514,45 +9529,45 @@
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="89"/>
-      <c r="B308" s="89"/>
-      <c r="C308" s="89"/>
-      <c r="D308" s="89"/>
-      <c r="E308" s="89"/>
-      <c r="F308" s="89"/>
-      <c r="G308" s="89"/>
-      <c r="H308" s="89"/>
-      <c r="I308" s="89"/>
-      <c r="J308" s="89"/>
-      <c r="K308" s="89"/>
+      <c r="A308" s="98"/>
+      <c r="B308" s="98"/>
+      <c r="C308" s="98"/>
+      <c r="D308" s="98"/>
+      <c r="E308" s="98"/>
+      <c r="F308" s="98"/>
+      <c r="G308" s="98"/>
+      <c r="H308" s="98"/>
+      <c r="I308" s="98"/>
+      <c r="J308" s="98"/>
+      <c r="K308" s="98"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A309" s="90"/>
-      <c r="B309" s="90"/>
-      <c r="C309" s="90"/>
-      <c r="D309" s="90"/>
-      <c r="E309" s="90"/>
-      <c r="F309" s="90"/>
-      <c r="G309" s="90"/>
-      <c r="H309" s="90"/>
-      <c r="I309" s="90"/>
-      <c r="J309" s="90"/>
-      <c r="K309" s="90"/>
+      <c r="A309" s="97"/>
+      <c r="B309" s="97"/>
+      <c r="C309" s="97"/>
+      <c r="D309" s="97"/>
+      <c r="E309" s="97"/>
+      <c r="F309" s="97"/>
+      <c r="G309" s="97"/>
+      <c r="H309" s="97"/>
+      <c r="I309" s="97"/>
+      <c r="J309" s="97"/>
+      <c r="K309" s="97"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A310" s="86" t="s">
+      <c r="A310" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="B310" s="87"/>
-      <c r="C310" s="87"/>
-      <c r="D310" s="87"/>
-      <c r="E310" s="87"/>
-      <c r="F310" s="87"/>
-      <c r="G310" s="87"/>
-      <c r="H310" s="87"/>
-      <c r="I310" s="87"/>
-      <c r="J310" s="87"/>
-      <c r="K310" s="88"/>
+      <c r="B310" s="94"/>
+      <c r="C310" s="94"/>
+      <c r="D310" s="94"/>
+      <c r="E310" s="94"/>
+      <c r="F310" s="94"/>
+      <c r="G310" s="94"/>
+      <c r="H310" s="94"/>
+      <c r="I310" s="94"/>
+      <c r="J310" s="94"/>
+      <c r="K310" s="95"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
@@ -9795,45 +9810,45 @@
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="89"/>
-      <c r="B319" s="89"/>
-      <c r="C319" s="89"/>
-      <c r="D319" s="89"/>
-      <c r="E319" s="89"/>
-      <c r="F319" s="89"/>
-      <c r="G319" s="89"/>
-      <c r="H319" s="89"/>
-      <c r="I319" s="89"/>
-      <c r="J319" s="89"/>
-      <c r="K319" s="89"/>
+      <c r="A319" s="98"/>
+      <c r="B319" s="98"/>
+      <c r="C319" s="98"/>
+      <c r="D319" s="98"/>
+      <c r="E319" s="98"/>
+      <c r="F319" s="98"/>
+      <c r="G319" s="98"/>
+      <c r="H319" s="98"/>
+      <c r="I319" s="98"/>
+      <c r="J319" s="98"/>
+      <c r="K319" s="98"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="90"/>
-      <c r="B320" s="90"/>
-      <c r="C320" s="90"/>
-      <c r="D320" s="90"/>
-      <c r="E320" s="90"/>
-      <c r="F320" s="90"/>
-      <c r="G320" s="90"/>
-      <c r="H320" s="90"/>
-      <c r="I320" s="90"/>
-      <c r="J320" s="90"/>
-      <c r="K320" s="90"/>
+      <c r="A320" s="97"/>
+      <c r="B320" s="97"/>
+      <c r="C320" s="97"/>
+      <c r="D320" s="97"/>
+      <c r="E320" s="97"/>
+      <c r="F320" s="97"/>
+      <c r="G320" s="97"/>
+      <c r="H320" s="97"/>
+      <c r="I320" s="97"/>
+      <c r="J320" s="97"/>
+      <c r="K320" s="97"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A321" s="86" t="s">
+      <c r="A321" s="93" t="s">
         <v>235</v>
       </c>
-      <c r="B321" s="87"/>
-      <c r="C321" s="87"/>
-      <c r="D321" s="87"/>
-      <c r="E321" s="87"/>
-      <c r="F321" s="87"/>
-      <c r="G321" s="87"/>
-      <c r="H321" s="87"/>
-      <c r="I321" s="87"/>
-      <c r="J321" s="87"/>
-      <c r="K321" s="88"/>
+      <c r="B321" s="94"/>
+      <c r="C321" s="94"/>
+      <c r="D321" s="94"/>
+      <c r="E321" s="94"/>
+      <c r="F321" s="94"/>
+      <c r="G321" s="94"/>
+      <c r="H321" s="94"/>
+      <c r="I321" s="94"/>
+      <c r="J321" s="94"/>
+      <c r="K321" s="95"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
@@ -10068,45 +10083,45 @@
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="89"/>
-      <c r="B330" s="89"/>
-      <c r="C330" s="89"/>
-      <c r="D330" s="89"/>
-      <c r="E330" s="89"/>
-      <c r="F330" s="89"/>
-      <c r="G330" s="89"/>
-      <c r="H330" s="89"/>
-      <c r="I330" s="89"/>
-      <c r="J330" s="89"/>
-      <c r="K330" s="89"/>
+      <c r="A330" s="98"/>
+      <c r="B330" s="98"/>
+      <c r="C330" s="98"/>
+      <c r="D330" s="98"/>
+      <c r="E330" s="98"/>
+      <c r="F330" s="98"/>
+      <c r="G330" s="98"/>
+      <c r="H330" s="98"/>
+      <c r="I330" s="98"/>
+      <c r="J330" s="98"/>
+      <c r="K330" s="98"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="90"/>
-      <c r="B331" s="90"/>
-      <c r="C331" s="90"/>
-      <c r="D331" s="90"/>
-      <c r="E331" s="90"/>
-      <c r="F331" s="90"/>
-      <c r="G331" s="90"/>
-      <c r="H331" s="90"/>
-      <c r="I331" s="90"/>
-      <c r="J331" s="90"/>
-      <c r="K331" s="90"/>
+      <c r="A331" s="97"/>
+      <c r="B331" s="97"/>
+      <c r="C331" s="97"/>
+      <c r="D331" s="97"/>
+      <c r="E331" s="97"/>
+      <c r="F331" s="97"/>
+      <c r="G331" s="97"/>
+      <c r="H331" s="97"/>
+      <c r="I331" s="97"/>
+      <c r="J331" s="97"/>
+      <c r="K331" s="97"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A332" s="86" t="s">
+      <c r="A332" s="93" t="s">
         <v>121</v>
       </c>
-      <c r="B332" s="87"/>
-      <c r="C332" s="87"/>
-      <c r="D332" s="87"/>
-      <c r="E332" s="87"/>
-      <c r="F332" s="87"/>
-      <c r="G332" s="87"/>
-      <c r="H332" s="87"/>
-      <c r="I332" s="87"/>
-      <c r="J332" s="87"/>
-      <c r="K332" s="88"/>
+      <c r="B332" s="94"/>
+      <c r="C332" s="94"/>
+      <c r="D332" s="94"/>
+      <c r="E332" s="94"/>
+      <c r="F332" s="94"/>
+      <c r="G332" s="94"/>
+      <c r="H332" s="94"/>
+      <c r="I332" s="94"/>
+      <c r="J332" s="94"/>
+      <c r="K332" s="95"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
@@ -10372,45 +10387,45 @@
       </c>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="89"/>
-      <c r="B342" s="89"/>
-      <c r="C342" s="89"/>
-      <c r="D342" s="89"/>
-      <c r="E342" s="89"/>
-      <c r="F342" s="89"/>
-      <c r="G342" s="89"/>
-      <c r="H342" s="89"/>
-      <c r="I342" s="89"/>
-      <c r="J342" s="89"/>
-      <c r="K342" s="89"/>
+      <c r="A342" s="98"/>
+      <c r="B342" s="98"/>
+      <c r="C342" s="98"/>
+      <c r="D342" s="98"/>
+      <c r="E342" s="98"/>
+      <c r="F342" s="98"/>
+      <c r="G342" s="98"/>
+      <c r="H342" s="98"/>
+      <c r="I342" s="98"/>
+      <c r="J342" s="98"/>
+      <c r="K342" s="98"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="90"/>
-      <c r="B343" s="90"/>
-      <c r="C343" s="90"/>
-      <c r="D343" s="90"/>
-      <c r="E343" s="90"/>
-      <c r="F343" s="90"/>
-      <c r="G343" s="90"/>
-      <c r="H343" s="90"/>
-      <c r="I343" s="90"/>
-      <c r="J343" s="90"/>
-      <c r="K343" s="90"/>
+      <c r="A343" s="97"/>
+      <c r="B343" s="97"/>
+      <c r="C343" s="97"/>
+      <c r="D343" s="97"/>
+      <c r="E343" s="97"/>
+      <c r="F343" s="97"/>
+      <c r="G343" s="97"/>
+      <c r="H343" s="97"/>
+      <c r="I343" s="97"/>
+      <c r="J343" s="97"/>
+      <c r="K343" s="97"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A344" s="86" t="s">
+      <c r="A344" s="93" t="s">
         <v>183</v>
       </c>
-      <c r="B344" s="87"/>
-      <c r="C344" s="87"/>
-      <c r="D344" s="87"/>
-      <c r="E344" s="87"/>
-      <c r="F344" s="87"/>
-      <c r="G344" s="87"/>
-      <c r="H344" s="87"/>
-      <c r="I344" s="87"/>
-      <c r="J344" s="87"/>
-      <c r="K344" s="88"/>
+      <c r="B344" s="94"/>
+      <c r="C344" s="94"/>
+      <c r="D344" s="94"/>
+      <c r="E344" s="94"/>
+      <c r="F344" s="94"/>
+      <c r="G344" s="94"/>
+      <c r="H344" s="94"/>
+      <c r="I344" s="94"/>
+      <c r="J344" s="94"/>
+      <c r="K344" s="95"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="20" t="s">
@@ -10682,45 +10697,45 @@
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="89"/>
-      <c r="B354" s="89"/>
-      <c r="C354" s="89"/>
-      <c r="D354" s="89"/>
-      <c r="E354" s="89"/>
-      <c r="F354" s="89"/>
-      <c r="G354" s="89"/>
-      <c r="H354" s="89"/>
-      <c r="I354" s="89"/>
-      <c r="J354" s="89"/>
-      <c r="K354" s="89"/>
+      <c r="A354" s="98"/>
+      <c r="B354" s="98"/>
+      <c r="C354" s="98"/>
+      <c r="D354" s="98"/>
+      <c r="E354" s="98"/>
+      <c r="F354" s="98"/>
+      <c r="G354" s="98"/>
+      <c r="H354" s="98"/>
+      <c r="I354" s="98"/>
+      <c r="J354" s="98"/>
+      <c r="K354" s="98"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A355" s="90"/>
-      <c r="B355" s="90"/>
-      <c r="C355" s="90"/>
-      <c r="D355" s="90"/>
-      <c r="E355" s="90"/>
-      <c r="F355" s="90"/>
-      <c r="G355" s="90"/>
-      <c r="H355" s="90"/>
-      <c r="I355" s="90"/>
-      <c r="J355" s="90"/>
-      <c r="K355" s="90"/>
+      <c r="A355" s="97"/>
+      <c r="B355" s="97"/>
+      <c r="C355" s="97"/>
+      <c r="D355" s="97"/>
+      <c r="E355" s="97"/>
+      <c r="F355" s="97"/>
+      <c r="G355" s="97"/>
+      <c r="H355" s="97"/>
+      <c r="I355" s="97"/>
+      <c r="J355" s="97"/>
+      <c r="K355" s="97"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A356" s="86" t="s">
+      <c r="A356" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="B356" s="87"/>
-      <c r="C356" s="87"/>
-      <c r="D356" s="87"/>
-      <c r="E356" s="87"/>
-      <c r="F356" s="87"/>
-      <c r="G356" s="87"/>
-      <c r="H356" s="87"/>
-      <c r="I356" s="87"/>
-      <c r="J356" s="87"/>
-      <c r="K356" s="88"/>
+      <c r="B356" s="94"/>
+      <c r="C356" s="94"/>
+      <c r="D356" s="94"/>
+      <c r="E356" s="94"/>
+      <c r="F356" s="94"/>
+      <c r="G356" s="94"/>
+      <c r="H356" s="94"/>
+      <c r="I356" s="94"/>
+      <c r="J356" s="94"/>
+      <c r="K356" s="95"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="20" t="s">
@@ -10930,45 +10945,45 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="89"/>
-      <c r="B364" s="89"/>
-      <c r="C364" s="89"/>
-      <c r="D364" s="89"/>
-      <c r="E364" s="89"/>
-      <c r="F364" s="89"/>
-      <c r="G364" s="89"/>
-      <c r="H364" s="89"/>
-      <c r="I364" s="89"/>
-      <c r="J364" s="89"/>
-      <c r="K364" s="89"/>
+      <c r="A364" s="98"/>
+      <c r="B364" s="98"/>
+      <c r="C364" s="98"/>
+      <c r="D364" s="98"/>
+      <c r="E364" s="98"/>
+      <c r="F364" s="98"/>
+      <c r="G364" s="98"/>
+      <c r="H364" s="98"/>
+      <c r="I364" s="98"/>
+      <c r="J364" s="98"/>
+      <c r="K364" s="98"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="90"/>
-      <c r="B365" s="90"/>
-      <c r="C365" s="90"/>
-      <c r="D365" s="90"/>
-      <c r="E365" s="90"/>
-      <c r="F365" s="90"/>
-      <c r="G365" s="90"/>
-      <c r="H365" s="90"/>
-      <c r="I365" s="90"/>
-      <c r="J365" s="90"/>
-      <c r="K365" s="90"/>
+      <c r="A365" s="97"/>
+      <c r="B365" s="97"/>
+      <c r="C365" s="97"/>
+      <c r="D365" s="97"/>
+      <c r="E365" s="97"/>
+      <c r="F365" s="97"/>
+      <c r="G365" s="97"/>
+      <c r="H365" s="97"/>
+      <c r="I365" s="97"/>
+      <c r="J365" s="97"/>
+      <c r="K365" s="97"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="86" t="s">
+      <c r="A366" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="B366" s="87"/>
-      <c r="C366" s="87"/>
-      <c r="D366" s="87"/>
-      <c r="E366" s="87"/>
-      <c r="F366" s="87"/>
-      <c r="G366" s="87"/>
-      <c r="H366" s="87"/>
-      <c r="I366" s="87"/>
-      <c r="J366" s="87"/>
-      <c r="K366" s="88"/>
+      <c r="B366" s="94"/>
+      <c r="C366" s="94"/>
+      <c r="D366" s="94"/>
+      <c r="E366" s="94"/>
+      <c r="F366" s="94"/>
+      <c r="G366" s="94"/>
+      <c r="H366" s="94"/>
+      <c r="I366" s="94"/>
+      <c r="J366" s="94"/>
+      <c r="K366" s="95"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="20" t="s">
@@ -11178,45 +11193,45 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="89"/>
-      <c r="B374" s="89"/>
-      <c r="C374" s="89"/>
-      <c r="D374" s="89"/>
-      <c r="E374" s="89"/>
-      <c r="F374" s="89"/>
-      <c r="G374" s="89"/>
-      <c r="H374" s="89"/>
-      <c r="I374" s="89"/>
-      <c r="J374" s="89"/>
-      <c r="K374" s="89"/>
+      <c r="A374" s="98"/>
+      <c r="B374" s="98"/>
+      <c r="C374" s="98"/>
+      <c r="D374" s="98"/>
+      <c r="E374" s="98"/>
+      <c r="F374" s="98"/>
+      <c r="G374" s="98"/>
+      <c r="H374" s="98"/>
+      <c r="I374" s="98"/>
+      <c r="J374" s="98"/>
+      <c r="K374" s="98"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="90"/>
-      <c r="B375" s="90"/>
-      <c r="C375" s="90"/>
-      <c r="D375" s="90"/>
-      <c r="E375" s="90"/>
-      <c r="F375" s="90"/>
-      <c r="G375" s="90"/>
-      <c r="H375" s="90"/>
-      <c r="I375" s="90"/>
-      <c r="J375" s="90"/>
-      <c r="K375" s="90"/>
+      <c r="A375" s="97"/>
+      <c r="B375" s="97"/>
+      <c r="C375" s="97"/>
+      <c r="D375" s="97"/>
+      <c r="E375" s="97"/>
+      <c r="F375" s="97"/>
+      <c r="G375" s="97"/>
+      <c r="H375" s="97"/>
+      <c r="I375" s="97"/>
+      <c r="J375" s="97"/>
+      <c r="K375" s="97"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="86" t="s">
+      <c r="A376" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="B376" s="87"/>
-      <c r="C376" s="87"/>
-      <c r="D376" s="87"/>
-      <c r="E376" s="87"/>
-      <c r="F376" s="87"/>
-      <c r="G376" s="87"/>
-      <c r="H376" s="87"/>
-      <c r="I376" s="87"/>
-      <c r="J376" s="87"/>
-      <c r="K376" s="88"/>
+      <c r="B376" s="94"/>
+      <c r="C376" s="94"/>
+      <c r="D376" s="94"/>
+      <c r="E376" s="94"/>
+      <c r="F376" s="94"/>
+      <c r="G376" s="94"/>
+      <c r="H376" s="94"/>
+      <c r="I376" s="94"/>
+      <c r="J376" s="94"/>
+      <c r="K376" s="95"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="20" t="s">
@@ -11420,45 +11435,45 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="89"/>
-      <c r="B384" s="89"/>
-      <c r="C384" s="89"/>
-      <c r="D384" s="89"/>
-      <c r="E384" s="89"/>
-      <c r="F384" s="89"/>
-      <c r="G384" s="89"/>
-      <c r="H384" s="89"/>
-      <c r="I384" s="89"/>
-      <c r="J384" s="89"/>
-      <c r="K384" s="89"/>
+      <c r="A384" s="98"/>
+      <c r="B384" s="98"/>
+      <c r="C384" s="98"/>
+      <c r="D384" s="98"/>
+      <c r="E384" s="98"/>
+      <c r="F384" s="98"/>
+      <c r="G384" s="98"/>
+      <c r="H384" s="98"/>
+      <c r="I384" s="98"/>
+      <c r="J384" s="98"/>
+      <c r="K384" s="98"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="90"/>
-      <c r="B385" s="90"/>
-      <c r="C385" s="90"/>
-      <c r="D385" s="90"/>
-      <c r="E385" s="90"/>
-      <c r="F385" s="90"/>
-      <c r="G385" s="90"/>
-      <c r="H385" s="90"/>
-      <c r="I385" s="90"/>
-      <c r="J385" s="90"/>
-      <c r="K385" s="90"/>
+      <c r="A385" s="97"/>
+      <c r="B385" s="97"/>
+      <c r="C385" s="97"/>
+      <c r="D385" s="97"/>
+      <c r="E385" s="97"/>
+      <c r="F385" s="97"/>
+      <c r="G385" s="97"/>
+      <c r="H385" s="97"/>
+      <c r="I385" s="97"/>
+      <c r="J385" s="97"/>
+      <c r="K385" s="97"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="86" t="s">
+      <c r="A386" s="93" t="s">
         <v>271</v>
       </c>
-      <c r="B386" s="87"/>
-      <c r="C386" s="87"/>
-      <c r="D386" s="87"/>
-      <c r="E386" s="87"/>
-      <c r="F386" s="87"/>
-      <c r="G386" s="87"/>
-      <c r="H386" s="87"/>
-      <c r="I386" s="87"/>
-      <c r="J386" s="87"/>
-      <c r="K386" s="88"/>
+      <c r="B386" s="94"/>
+      <c r="C386" s="94"/>
+      <c r="D386" s="94"/>
+      <c r="E386" s="94"/>
+      <c r="F386" s="94"/>
+      <c r="G386" s="94"/>
+      <c r="H386" s="94"/>
+      <c r="I386" s="94"/>
+      <c r="J386" s="94"/>
+      <c r="K386" s="95"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="20" t="s">
@@ -11690,41 +11705,244 @@
         <v>42</v>
       </c>
     </row>
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A395" s="98"/>
+      <c r="B395" s="98"/>
+      <c r="C395" s="98"/>
+      <c r="D395" s="98"/>
+      <c r="E395" s="98"/>
+      <c r="F395" s="98"/>
+      <c r="G395" s="98"/>
+      <c r="H395" s="98"/>
+      <c r="I395" s="98"/>
+      <c r="J395" s="98"/>
+      <c r="K395" s="98"/>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" s="97"/>
+      <c r="B396" s="97"/>
+      <c r="C396" s="97"/>
+      <c r="D396" s="97"/>
+      <c r="E396" s="97"/>
+      <c r="F396" s="97"/>
+      <c r="G396" s="97"/>
+      <c r="H396" s="97"/>
+      <c r="I396" s="97"/>
+      <c r="J396" s="97"/>
+      <c r="K396" s="97"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="B397" s="94"/>
+      <c r="C397" s="94"/>
+      <c r="D397" s="94"/>
+      <c r="E397" s="94"/>
+      <c r="F397" s="94"/>
+      <c r="G397" s="94"/>
+      <c r="H397" s="94"/>
+      <c r="I397" s="94"/>
+      <c r="J397" s="94"/>
+      <c r="K397" s="95"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B398" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C398" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D398" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E398" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F398" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G398" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H398" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I398" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J398" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K398" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" s="39">
+        <v>1</v>
+      </c>
+      <c r="B399" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C399" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D399" s="5">
+        <v>10</v>
+      </c>
+      <c r="E399" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G399" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H399" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I399" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="J399" s="86"/>
+      <c r="K399" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" s="1">
+        <v>2</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D400" s="2">
+        <v>255</v>
+      </c>
+      <c r="F400" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H400" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J400" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K400" s="9"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" s="40">
+        <v>3</v>
+      </c>
+      <c r="B401" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D401" s="7"/>
+      <c r="E401" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F401" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G401" s="7"/>
+      <c r="H401" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I401" s="88"/>
+      <c r="J401" s="88"/>
+      <c r="K401" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" s="40">
+        <v>4</v>
+      </c>
+      <c r="B402" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D402" s="7"/>
+      <c r="E402" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F402" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G402" s="7"/>
+      <c r="H402" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I402" s="88"/>
+      <c r="J402" s="88"/>
+      <c r="K402" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A403" s="41">
+        <v>5</v>
+      </c>
+      <c r="B403" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C403" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D403" s="13">
+        <v>1</v>
+      </c>
+      <c r="E403" s="13">
+        <v>0</v>
+      </c>
+      <c r="F403" s="13">
+        <v>0</v>
+      </c>
+      <c r="G403" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H403" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I403" s="87"/>
+      <c r="J403" s="87"/>
+      <c r="K403" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="65">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A21:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A199:K200"/>
-    <mergeCell ref="A189:K189"/>
-    <mergeCell ref="A187:K188"/>
-    <mergeCell ref="A177:K177"/>
-    <mergeCell ref="A175:K176"/>
-    <mergeCell ref="A297:K298"/>
-    <mergeCell ref="A299:K299"/>
-    <mergeCell ref="A308:K309"/>
-    <mergeCell ref="A258:K258"/>
-    <mergeCell ref="A265:K266"/>
-    <mergeCell ref="A267:K267"/>
-    <mergeCell ref="A274:K275"/>
-    <mergeCell ref="A276:K276"/>
-    <mergeCell ref="A164:K164"/>
-    <mergeCell ref="A162:K163"/>
-    <mergeCell ref="A154:K154"/>
-    <mergeCell ref="A64:K65"/>
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A74:K75"/>
-    <mergeCell ref="A119:K119"/>
-    <mergeCell ref="A117:K118"/>
-    <mergeCell ref="A103:K103"/>
-    <mergeCell ref="A101:K102"/>
-    <mergeCell ref="A89:K89"/>
-    <mergeCell ref="A87:K88"/>
+  <mergeCells count="67">
+    <mergeCell ref="A395:K396"/>
+    <mergeCell ref="A397:K397"/>
+    <mergeCell ref="A376:K376"/>
+    <mergeCell ref="A384:K385"/>
+    <mergeCell ref="A386:K386"/>
+    <mergeCell ref="A215:K216"/>
+    <mergeCell ref="A201:K201"/>
+    <mergeCell ref="A364:K365"/>
+    <mergeCell ref="A366:K366"/>
+    <mergeCell ref="A374:K375"/>
+    <mergeCell ref="A319:K320"/>
+    <mergeCell ref="A321:K321"/>
+    <mergeCell ref="A247:K248"/>
+    <mergeCell ref="A249:K249"/>
+    <mergeCell ref="A256:K257"/>
+    <mergeCell ref="A310:K310"/>
+    <mergeCell ref="A283:K284"/>
+    <mergeCell ref="A285:K285"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="A32:K33"/>
     <mergeCell ref="A354:K355"/>
@@ -11741,22 +11959,39 @@
     <mergeCell ref="A227:K227"/>
     <mergeCell ref="A225:K226"/>
     <mergeCell ref="A217:K217"/>
-    <mergeCell ref="A376:K376"/>
-    <mergeCell ref="A384:K385"/>
-    <mergeCell ref="A386:K386"/>
-    <mergeCell ref="A215:K216"/>
-    <mergeCell ref="A201:K201"/>
-    <mergeCell ref="A364:K365"/>
-    <mergeCell ref="A366:K366"/>
-    <mergeCell ref="A374:K375"/>
-    <mergeCell ref="A319:K320"/>
-    <mergeCell ref="A321:K321"/>
-    <mergeCell ref="A247:K248"/>
-    <mergeCell ref="A249:K249"/>
-    <mergeCell ref="A256:K257"/>
-    <mergeCell ref="A310:K310"/>
-    <mergeCell ref="A283:K284"/>
-    <mergeCell ref="A285:K285"/>
+    <mergeCell ref="A164:K164"/>
+    <mergeCell ref="A162:K163"/>
+    <mergeCell ref="A154:K154"/>
+    <mergeCell ref="A64:K65"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A74:K75"/>
+    <mergeCell ref="A119:K119"/>
+    <mergeCell ref="A117:K118"/>
+    <mergeCell ref="A103:K103"/>
+    <mergeCell ref="A101:K102"/>
+    <mergeCell ref="A89:K89"/>
+    <mergeCell ref="A87:K88"/>
+    <mergeCell ref="A297:K298"/>
+    <mergeCell ref="A299:K299"/>
+    <mergeCell ref="A308:K309"/>
+    <mergeCell ref="A258:K258"/>
+    <mergeCell ref="A265:K266"/>
+    <mergeCell ref="A267:K267"/>
+    <mergeCell ref="A274:K275"/>
+    <mergeCell ref="A276:K276"/>
+    <mergeCell ref="A199:K200"/>
+    <mergeCell ref="A189:K189"/>
+    <mergeCell ref="A187:K188"/>
+    <mergeCell ref="A177:K177"/>
+    <mergeCell ref="A175:K176"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A21:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="A13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11828,45 +12063,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
+      <c r="A1" s="98"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
+      <c r="A2" s="97"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12051,45 +12286,45 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="89"/>
-      <c r="I10" s="89"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="89"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="98"/>
+      <c r="I10" s="98"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="90"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="86" t="s">
+      <c r="A12" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="88"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -12361,45 +12596,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="89"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="89"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="98"/>
+      <c r="J22" s="98"/>
+      <c r="K22" s="98"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="88"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="94"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="94"/>
+      <c r="H24" s="94"/>
+      <c r="I24" s="94"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -12646,45 +12881,45 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="89"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="98"/>
+      <c r="G33" s="98"/>
+      <c r="H33" s="98"/>
+      <c r="I33" s="98"/>
+      <c r="J33" s="98"/>
+      <c r="K33" s="98"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-      <c r="K34" s="90"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="86" t="s">
+      <c r="A35" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="87"/>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="87"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="87"/>
-      <c r="K35" s="88"/>
+      <c r="B35" s="94"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="94"/>
+      <c r="F35" s="94"/>
+      <c r="G35" s="94"/>
+      <c r="H35" s="94"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="94"/>
+      <c r="K35" s="95"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -12958,45 +13193,45 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="89"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="89"/>
-      <c r="D45" s="89"/>
-      <c r="E45" s="89"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="89"/>
-      <c r="H45" s="89"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="89"/>
-      <c r="K45" s="89"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="98"/>
+      <c r="G45" s="98"/>
+      <c r="H45" s="98"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="98"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="90"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="90"/>
-      <c r="D46" s="90"/>
-      <c r="E46" s="90"/>
-      <c r="F46" s="90"/>
-      <c r="G46" s="90"/>
-      <c r="H46" s="90"/>
-      <c r="I46" s="90"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="90"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="86" t="s">
+      <c r="A47" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="87"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="87"/>
-      <c r="J47" s="87"/>
-      <c r="K47" s="88"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="94"/>
+      <c r="F47" s="94"/>
+      <c r="G47" s="94"/>
+      <c r="H47" s="94"/>
+      <c r="I47" s="94"/>
+      <c r="J47" s="94"/>
+      <c r="K47" s="95"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -13239,45 +13474,45 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="89"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="98"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="90"/>
-      <c r="B57" s="90"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="90"/>
-      <c r="E57" s="90"/>
-      <c r="F57" s="90"/>
-      <c r="G57" s="90"/>
-      <c r="H57" s="90"/>
-      <c r="I57" s="90"/>
-      <c r="J57" s="90"/>
-      <c r="K57" s="90"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="97"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="86" t="s">
+      <c r="A58" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="88"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="94"/>
+      <c r="G58" s="94"/>
+      <c r="H58" s="94"/>
+      <c r="I58" s="94"/>
+      <c r="J58" s="94"/>
+      <c r="K58" s="95"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -13520,45 +13755,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="89"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="98"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="98"/>
+      <c r="I67" s="98"/>
+      <c r="J67" s="98"/>
+      <c r="K67" s="98"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
-      <c r="B68" s="90"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="90"/>
-      <c r="E68" s="90"/>
-      <c r="F68" s="90"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
-      <c r="K68" s="90"/>
+      <c r="A68" s="97"/>
+      <c r="B68" s="97"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
+      <c r="K68" s="97"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="86" t="s">
+      <c r="A69" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="87"/>
-      <c r="C69" s="87"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="87"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="H69" s="87"/>
-      <c r="I69" s="87"/>
-      <c r="J69" s="87"/>
-      <c r="K69" s="88"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="94"/>
+      <c r="E69" s="94"/>
+      <c r="F69" s="94"/>
+      <c r="G69" s="94"/>
+      <c r="H69" s="94"/>
+      <c r="I69" s="94"/>
+      <c r="J69" s="94"/>
+      <c r="K69" s="95"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -13882,45 +14117,45 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="89"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="89"/>
-      <c r="D82" s="89"/>
-      <c r="E82" s="89"/>
-      <c r="F82" s="89"/>
-      <c r="G82" s="89"/>
-      <c r="H82" s="89"/>
-      <c r="I82" s="89"/>
-      <c r="J82" s="89"/>
-      <c r="K82" s="89"/>
+      <c r="A82" s="98"/>
+      <c r="B82" s="98"/>
+      <c r="C82" s="98"/>
+      <c r="D82" s="98"/>
+      <c r="E82" s="98"/>
+      <c r="F82" s="98"/>
+      <c r="G82" s="98"/>
+      <c r="H82" s="98"/>
+      <c r="I82" s="98"/>
+      <c r="J82" s="98"/>
+      <c r="K82" s="98"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="90"/>
-      <c r="B83" s="90"/>
-      <c r="C83" s="90"/>
-      <c r="D83" s="90"/>
-      <c r="E83" s="90"/>
-      <c r="F83" s="90"/>
-      <c r="G83" s="90"/>
-      <c r="H83" s="90"/>
-      <c r="I83" s="90"/>
-      <c r="J83" s="90"/>
-      <c r="K83" s="90"/>
+      <c r="A83" s="97"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="97"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="97"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="97"/>
+      <c r="I83" s="97"/>
+      <c r="J83" s="97"/>
+      <c r="K83" s="97"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="86" t="s">
+      <c r="A84" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="B84" s="87"/>
-      <c r="C84" s="87"/>
-      <c r="D84" s="87"/>
-      <c r="E84" s="87"/>
-      <c r="F84" s="87"/>
-      <c r="G84" s="87"/>
-      <c r="H84" s="87"/>
-      <c r="I84" s="87"/>
-      <c r="J84" s="87"/>
-      <c r="K84" s="88"/>
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="94"/>
+      <c r="H84" s="94"/>
+      <c r="I84" s="94"/>
+      <c r="J84" s="94"/>
+      <c r="K84" s="95"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
@@ -14101,45 +14336,45 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="89"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="89"/>
-      <c r="D91" s="89"/>
-      <c r="E91" s="89"/>
-      <c r="F91" s="89"/>
-      <c r="G91" s="89"/>
-      <c r="H91" s="89"/>
-      <c r="I91" s="89"/>
-      <c r="J91" s="89"/>
-      <c r="K91" s="89"/>
+      <c r="A91" s="98"/>
+      <c r="B91" s="98"/>
+      <c r="C91" s="98"/>
+      <c r="D91" s="98"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="98"/>
+      <c r="H91" s="98"/>
+      <c r="I91" s="98"/>
+      <c r="J91" s="98"/>
+      <c r="K91" s="98"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="90"/>
-      <c r="B92" s="90"/>
-      <c r="C92" s="90"/>
-      <c r="D92" s="90"/>
-      <c r="E92" s="90"/>
-      <c r="F92" s="90"/>
-      <c r="G92" s="90"/>
-      <c r="H92" s="90"/>
-      <c r="I92" s="90"/>
-      <c r="J92" s="90"/>
-      <c r="K92" s="90"/>
+      <c r="A92" s="97"/>
+      <c r="B92" s="97"/>
+      <c r="C92" s="97"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="97"/>
+      <c r="F92" s="97"/>
+      <c r="G92" s="97"/>
+      <c r="H92" s="97"/>
+      <c r="I92" s="97"/>
+      <c r="J92" s="97"/>
+      <c r="K92" s="97"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="86" t="s">
+      <c r="A93" s="93" t="s">
         <v>192</v>
       </c>
-      <c r="B93" s="87"/>
-      <c r="C93" s="87"/>
-      <c r="D93" s="87"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
-      <c r="G93" s="87"/>
-      <c r="H93" s="87"/>
-      <c r="I93" s="87"/>
-      <c r="J93" s="87"/>
-      <c r="K93" s="88"/>
+      <c r="B93" s="94"/>
+      <c r="C93" s="94"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="94"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="94"/>
+      <c r="H93" s="94"/>
+      <c r="I93" s="94"/>
+      <c r="J93" s="94"/>
+      <c r="K93" s="95"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -14386,45 +14621,45 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="89"/>
-      <c r="B103" s="89"/>
-      <c r="C103" s="89"/>
-      <c r="D103" s="89"/>
-      <c r="E103" s="89"/>
-      <c r="F103" s="89"/>
-      <c r="G103" s="89"/>
-      <c r="H103" s="89"/>
-      <c r="I103" s="89"/>
-      <c r="J103" s="89"/>
-      <c r="K103" s="89"/>
+      <c r="A103" s="98"/>
+      <c r="B103" s="98"/>
+      <c r="C103" s="98"/>
+      <c r="D103" s="98"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="98"/>
+      <c r="H103" s="98"/>
+      <c r="I103" s="98"/>
+      <c r="J103" s="98"/>
+      <c r="K103" s="98"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="90"/>
-      <c r="B104" s="90"/>
-      <c r="C104" s="90"/>
-      <c r="D104" s="90"/>
-      <c r="E104" s="90"/>
-      <c r="F104" s="90"/>
-      <c r="G104" s="90"/>
-      <c r="H104" s="90"/>
-      <c r="I104" s="90"/>
-      <c r="J104" s="90"/>
-      <c r="K104" s="90"/>
+      <c r="A104" s="97"/>
+      <c r="B104" s="97"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="97"/>
+      <c r="F104" s="97"/>
+      <c r="G104" s="97"/>
+      <c r="H104" s="97"/>
+      <c r="I104" s="97"/>
+      <c r="J104" s="97"/>
+      <c r="K104" s="97"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="86" t="s">
+      <c r="A105" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="87"/>
-      <c r="C105" s="87"/>
-      <c r="D105" s="87"/>
-      <c r="E105" s="87"/>
-      <c r="F105" s="87"/>
-      <c r="G105" s="87"/>
-      <c r="H105" s="87"/>
-      <c r="I105" s="87"/>
-      <c r="J105" s="87"/>
-      <c r="K105" s="88"/>
+      <c r="B105" s="94"/>
+      <c r="C105" s="94"/>
+      <c r="D105" s="94"/>
+      <c r="E105" s="94"/>
+      <c r="F105" s="94"/>
+      <c r="G105" s="94"/>
+      <c r="H105" s="94"/>
+      <c r="I105" s="94"/>
+      <c r="J105" s="94"/>
+      <c r="K105" s="95"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
@@ -14555,45 +14790,45 @@
       <c r="K109" s="14"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="89"/>
-      <c r="B110" s="89"/>
-      <c r="C110" s="89"/>
-      <c r="D110" s="89"/>
-      <c r="E110" s="89"/>
-      <c r="F110" s="89"/>
-      <c r="G110" s="89"/>
-      <c r="H110" s="89"/>
-      <c r="I110" s="89"/>
-      <c r="J110" s="89"/>
-      <c r="K110" s="89"/>
+      <c r="A110" s="98"/>
+      <c r="B110" s="98"/>
+      <c r="C110" s="98"/>
+      <c r="D110" s="98"/>
+      <c r="E110" s="98"/>
+      <c r="F110" s="98"/>
+      <c r="G110" s="98"/>
+      <c r="H110" s="98"/>
+      <c r="I110" s="98"/>
+      <c r="J110" s="98"/>
+      <c r="K110" s="98"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="90"/>
-      <c r="B111" s="90"/>
-      <c r="C111" s="90"/>
-      <c r="D111" s="90"/>
-      <c r="E111" s="90"/>
-      <c r="F111" s="90"/>
-      <c r="G111" s="90"/>
-      <c r="H111" s="90"/>
-      <c r="I111" s="90"/>
-      <c r="J111" s="90"/>
-      <c r="K111" s="90"/>
+      <c r="A111" s="97"/>
+      <c r="B111" s="97"/>
+      <c r="C111" s="97"/>
+      <c r="D111" s="97"/>
+      <c r="E111" s="97"/>
+      <c r="F111" s="97"/>
+      <c r="G111" s="97"/>
+      <c r="H111" s="97"/>
+      <c r="I111" s="97"/>
+      <c r="J111" s="97"/>
+      <c r="K111" s="97"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="86" t="s">
+      <c r="A112" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="87"/>
-      <c r="C112" s="87"/>
-      <c r="D112" s="87"/>
-      <c r="E112" s="87"/>
-      <c r="F112" s="87"/>
-      <c r="G112" s="87"/>
-      <c r="H112" s="87"/>
-      <c r="I112" s="87"/>
-      <c r="J112" s="87"/>
-      <c r="K112" s="88"/>
+      <c r="B112" s="94"/>
+      <c r="C112" s="94"/>
+      <c r="D112" s="94"/>
+      <c r="E112" s="94"/>
+      <c r="F112" s="94"/>
+      <c r="G112" s="94"/>
+      <c r="H112" s="94"/>
+      <c r="I112" s="94"/>
+      <c r="J112" s="94"/>
+      <c r="K112" s="95"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -14694,14 +14929,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="A110:K111"/>
-    <mergeCell ref="A105:K105"/>
-    <mergeCell ref="A103:K104"/>
-    <mergeCell ref="A82:K83"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A91:K92"/>
     <mergeCell ref="A67:K68"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="A12:K12"/>
@@ -14716,6 +14943,14 @@
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="A33:K34"/>
     <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="A110:K111"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A103:K104"/>
+    <mergeCell ref="A82:K83"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A91:K92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2597" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="291">
   <si>
     <t>No</t>
   </si>
@@ -495,9 +495,6 @@
     <t>ur_info</t>
   </si>
   <si>
-    <t>t_social_provide</t>
-  </si>
-  <si>
     <t>t_social_identifier</t>
   </si>
   <si>
@@ -859,6 +856,39 @@
   </si>
   <si>
     <t>pf_video</t>
+  </si>
+  <si>
+    <t>t_social_provider</t>
+  </si>
+  <si>
+    <t>ti_icon_type</t>
+  </si>
+  <si>
+    <t>ti_icon_id</t>
+  </si>
+  <si>
+    <t>ti_icon_name</t>
+  </si>
+  <si>
+    <t>ti_icon_image</t>
+  </si>
+  <si>
+    <t>pro_tiqa_teenager_icons_qualities</t>
+  </si>
+  <si>
+    <t>tiqa_teenager</t>
+  </si>
+  <si>
+    <t>tiqa_ti_id</t>
+  </si>
+  <si>
+    <t>tiqa_quality_id</t>
+  </si>
+  <si>
+    <t>tiqa_response</t>
+  </si>
+  <si>
+    <t>1 - Selected, 0 - Not Selected</t>
   </si>
 </sst>
 </file>
@@ -1093,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1366,6 +1396,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1378,22 +1432,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K419"/>
+  <dimension ref="A1:K438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K419" sqref="K419"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,49 +1771,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="95"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -1980,45 +2019,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+      <c r="G12" s="96"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="96"/>
+      <c r="J12" s="96"/>
+      <c r="K12" s="96"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="102" t="s">
+      <c r="A13" s="105" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="103"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="103"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="106"/>
+      <c r="K13" s="107"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
@@ -2224,45 +2263,45 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="104"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="100"/>
-      <c r="J22" s="100"/>
-      <c r="K22" s="100"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="A23" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="98"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="99"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2389,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>9</v>
@@ -2495,45 +2534,45 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="95"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="95"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="100"/>
-      <c r="E33" s="100"/>
-      <c r="F33" s="100"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="96"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="96"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="96" t="s">
+      <c r="A34" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+      <c r="J34" s="98"/>
+      <c r="K34" s="99"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
@@ -2614,7 +2653,7 @@
         <v>14</v>
       </c>
       <c r="D37" s="7">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>10</v>
@@ -2695,7 +2734,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>14</v>
@@ -2776,7 +2815,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>15</v>
@@ -2799,7 +2838,7 @@
         <v>12</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -2807,7 +2846,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>14</v>
@@ -2826,7 +2865,7 @@
       <c r="I44" s="42"/>
       <c r="J44" s="49"/>
       <c r="K44" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -2834,7 +2873,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>14</v>
@@ -2853,7 +2892,7 @@
       <c r="I45" s="42"/>
       <c r="J45" s="49"/>
       <c r="K45" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -2940,7 +2979,7 @@
         <v>14</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>14</v>
@@ -2965,7 +3004,7 @@
         <v>15</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C50" s="7" t="s">
         <v>14</v>
@@ -3127,7 +3166,7 @@
         <v>21</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>15</v>
@@ -3150,7 +3189,7 @@
         <v>12</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -3158,7 +3197,7 @@
         <v>22</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>15</v>
@@ -3187,7 +3226,7 @@
         <v>23</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>14</v>
@@ -3212,7 +3251,7 @@
         <v>24</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C59" s="7" t="s">
         <v>15</v>
@@ -3235,7 +3274,7 @@
         <v>12</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3349,45 +3388,45 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="101"/>
-      <c r="B64" s="101"/>
-      <c r="C64" s="101"/>
-      <c r="D64" s="101"/>
-      <c r="E64" s="101"/>
-      <c r="F64" s="101"/>
-      <c r="G64" s="101"/>
-      <c r="H64" s="101"/>
-      <c r="I64" s="101"/>
-      <c r="J64" s="101"/>
-      <c r="K64" s="101"/>
+      <c r="A64" s="95"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95"/>
+      <c r="F64" s="95"/>
+      <c r="G64" s="95"/>
+      <c r="H64" s="95"/>
+      <c r="I64" s="95"/>
+      <c r="J64" s="95"/>
+      <c r="K64" s="95"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="100"/>
-      <c r="B65" s="100"/>
-      <c r="C65" s="100"/>
-      <c r="D65" s="100"/>
-      <c r="E65" s="100"/>
-      <c r="F65" s="100"/>
-      <c r="G65" s="100"/>
-      <c r="H65" s="100"/>
-      <c r="I65" s="100"/>
-      <c r="J65" s="100"/>
-      <c r="K65" s="100"/>
+      <c r="A65" s="96"/>
+      <c r="B65" s="96"/>
+      <c r="C65" s="96"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="96"/>
+      <c r="F65" s="96"/>
+      <c r="G65" s="96"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="96"/>
+      <c r="J65" s="96"/>
+      <c r="K65" s="96"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="96" t="s">
-        <v>252</v>
-      </c>
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="97"/>
-      <c r="K66" s="98"/>
+      <c r="A66" s="97" t="s">
+        <v>251</v>
+      </c>
+      <c r="B66" s="98"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="99"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
@@ -3462,7 +3501,7 @@
         <v>2</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>116</v>
@@ -3493,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>9</v>
@@ -3503,7 +3542,7 @@
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>11</v>
@@ -3601,45 +3640,45 @@
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" s="99"/>
-      <c r="B74" s="99"/>
-      <c r="C74" s="99"/>
-      <c r="D74" s="99"/>
-      <c r="E74" s="99"/>
-      <c r="F74" s="99"/>
-      <c r="G74" s="99"/>
-      <c r="H74" s="99"/>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
-      <c r="K74" s="99"/>
+      <c r="A74" s="104"/>
+      <c r="B74" s="104"/>
+      <c r="C74" s="104"/>
+      <c r="D74" s="104"/>
+      <c r="E74" s="104"/>
+      <c r="F74" s="104"/>
+      <c r="G74" s="104"/>
+      <c r="H74" s="104"/>
+      <c r="I74" s="104"/>
+      <c r="J74" s="104"/>
+      <c r="K74" s="104"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="100"/>
-      <c r="B75" s="100"/>
-      <c r="C75" s="100"/>
-      <c r="D75" s="100"/>
-      <c r="E75" s="100"/>
-      <c r="F75" s="100"/>
-      <c r="G75" s="100"/>
-      <c r="H75" s="100"/>
-      <c r="I75" s="100"/>
-      <c r="J75" s="100"/>
-      <c r="K75" s="100"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="96"/>
+      <c r="C75" s="96"/>
+      <c r="D75" s="96"/>
+      <c r="E75" s="96"/>
+      <c r="F75" s="96"/>
+      <c r="G75" s="96"/>
+      <c r="H75" s="96"/>
+      <c r="I75" s="96"/>
+      <c r="J75" s="96"/>
+      <c r="K75" s="96"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="96" t="s">
+      <c r="A76" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="B76" s="97"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="97"/>
-      <c r="K76" s="98"/>
+      <c r="B76" s="98"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="98"/>
+      <c r="G76" s="98"/>
+      <c r="H76" s="98"/>
+      <c r="I76" s="98"/>
+      <c r="J76" s="98"/>
+      <c r="K76" s="99"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
@@ -3928,45 +3967,45 @@
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="101"/>
-      <c r="B87" s="101"/>
-      <c r="C87" s="101"/>
-      <c r="D87" s="101"/>
-      <c r="E87" s="101"/>
-      <c r="F87" s="101"/>
-      <c r="G87" s="101"/>
-      <c r="H87" s="101"/>
-      <c r="I87" s="101"/>
-      <c r="J87" s="101"/>
-      <c r="K87" s="101"/>
+      <c r="A87" s="95"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="95"/>
+      <c r="D87" s="95"/>
+      <c r="E87" s="95"/>
+      <c r="F87" s="95"/>
+      <c r="G87" s="95"/>
+      <c r="H87" s="95"/>
+      <c r="I87" s="95"/>
+      <c r="J87" s="95"/>
+      <c r="K87" s="95"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="100"/>
-      <c r="B88" s="100"/>
-      <c r="C88" s="100"/>
-      <c r="D88" s="100"/>
-      <c r="E88" s="100"/>
-      <c r="F88" s="100"/>
-      <c r="G88" s="100"/>
-      <c r="H88" s="100"/>
-      <c r="I88" s="100"/>
-      <c r="J88" s="100"/>
-      <c r="K88" s="100"/>
+      <c r="A88" s="96"/>
+      <c r="B88" s="96"/>
+      <c r="C88" s="96"/>
+      <c r="D88" s="96"/>
+      <c r="E88" s="96"/>
+      <c r="F88" s="96"/>
+      <c r="G88" s="96"/>
+      <c r="H88" s="96"/>
+      <c r="I88" s="96"/>
+      <c r="J88" s="96"/>
+      <c r="K88" s="96"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="96" t="s">
+      <c r="A89" s="97" t="s">
         <v>43</v>
       </c>
-      <c r="B89" s="97"/>
-      <c r="C89" s="97"/>
-      <c r="D89" s="97"/>
-      <c r="E89" s="97"/>
-      <c r="F89" s="97"/>
-      <c r="G89" s="97"/>
-      <c r="H89" s="97"/>
-      <c r="I89" s="97"/>
-      <c r="J89" s="97"/>
-      <c r="K89" s="98"/>
+      <c r="B89" s="98"/>
+      <c r="C89" s="98"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="98"/>
+      <c r="H89" s="98"/>
+      <c r="I89" s="98"/>
+      <c r="J89" s="98"/>
+      <c r="K89" s="99"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
@@ -4190,7 +4229,7 @@
         <v>7</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -4294,45 +4333,45 @@
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="101"/>
-      <c r="B101" s="101"/>
-      <c r="C101" s="101"/>
-      <c r="D101" s="101"/>
-      <c r="E101" s="101"/>
-      <c r="F101" s="101"/>
-      <c r="G101" s="101"/>
-      <c r="H101" s="101"/>
-      <c r="I101" s="101"/>
-      <c r="J101" s="101"/>
-      <c r="K101" s="101"/>
+      <c r="A101" s="95"/>
+      <c r="B101" s="95"/>
+      <c r="C101" s="95"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="95"/>
+      <c r="F101" s="95"/>
+      <c r="G101" s="95"/>
+      <c r="H101" s="95"/>
+      <c r="I101" s="95"/>
+      <c r="J101" s="95"/>
+      <c r="K101" s="95"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="100"/>
-      <c r="B102" s="100"/>
-      <c r="C102" s="100"/>
-      <c r="D102" s="100"/>
-      <c r="E102" s="100"/>
-      <c r="F102" s="100"/>
-      <c r="G102" s="100"/>
-      <c r="H102" s="100"/>
-      <c r="I102" s="100"/>
-      <c r="J102" s="100"/>
-      <c r="K102" s="100"/>
+      <c r="A102" s="96"/>
+      <c r="B102" s="96"/>
+      <c r="C102" s="96"/>
+      <c r="D102" s="96"/>
+      <c r="E102" s="96"/>
+      <c r="F102" s="96"/>
+      <c r="G102" s="96"/>
+      <c r="H102" s="96"/>
+      <c r="I102" s="96"/>
+      <c r="J102" s="96"/>
+      <c r="K102" s="96"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="96" t="s">
+      <c r="A103" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="B103" s="97"/>
-      <c r="C103" s="97"/>
-      <c r="D103" s="97"/>
-      <c r="E103" s="97"/>
-      <c r="F103" s="97"/>
-      <c r="G103" s="97"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="97"/>
-      <c r="J103" s="97"/>
-      <c r="K103" s="98"/>
+      <c r="B103" s="98"/>
+      <c r="C103" s="98"/>
+      <c r="D103" s="98"/>
+      <c r="E103" s="98"/>
+      <c r="F103" s="98"/>
+      <c r="G103" s="98"/>
+      <c r="H103" s="98"/>
+      <c r="I103" s="98"/>
+      <c r="J103" s="98"/>
+      <c r="K103" s="99"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="20" t="s">
@@ -4542,7 +4581,7 @@
         <v>7</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>15</v>
@@ -4575,7 +4614,7 @@
         <v>8</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C112" s="7" t="s">
         <v>14</v>
@@ -4679,45 +4718,45 @@
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="101"/>
-      <c r="B116" s="101"/>
-      <c r="C116" s="101"/>
-      <c r="D116" s="101"/>
-      <c r="E116" s="101"/>
-      <c r="F116" s="101"/>
-      <c r="G116" s="101"/>
-      <c r="H116" s="101"/>
-      <c r="I116" s="101"/>
-      <c r="J116" s="101"/>
-      <c r="K116" s="101"/>
+      <c r="A116" s="95"/>
+      <c r="B116" s="95"/>
+      <c r="C116" s="95"/>
+      <c r="D116" s="95"/>
+      <c r="E116" s="95"/>
+      <c r="F116" s="95"/>
+      <c r="G116" s="95"/>
+      <c r="H116" s="95"/>
+      <c r="I116" s="95"/>
+      <c r="J116" s="95"/>
+      <c r="K116" s="95"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="100"/>
-      <c r="B117" s="100"/>
-      <c r="C117" s="100"/>
-      <c r="D117" s="100"/>
-      <c r="E117" s="100"/>
-      <c r="F117" s="100"/>
-      <c r="G117" s="100"/>
-      <c r="H117" s="100"/>
-      <c r="I117" s="100"/>
-      <c r="J117" s="100"/>
-      <c r="K117" s="100"/>
+      <c r="A117" s="96"/>
+      <c r="B117" s="96"/>
+      <c r="C117" s="96"/>
+      <c r="D117" s="96"/>
+      <c r="E117" s="96"/>
+      <c r="F117" s="96"/>
+      <c r="G117" s="96"/>
+      <c r="H117" s="96"/>
+      <c r="I117" s="96"/>
+      <c r="J117" s="96"/>
+      <c r="K117" s="96"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A118" s="96" t="s">
+      <c r="A118" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="B118" s="97"/>
-      <c r="C118" s="97"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="97"/>
-      <c r="F118" s="97"/>
-      <c r="G118" s="97"/>
-      <c r="H118" s="97"/>
-      <c r="I118" s="97"/>
-      <c r="J118" s="97"/>
-      <c r="K118" s="98"/>
+      <c r="B118" s="98"/>
+      <c r="C118" s="98"/>
+      <c r="D118" s="98"/>
+      <c r="E118" s="98"/>
+      <c r="F118" s="98"/>
+      <c r="G118" s="98"/>
+      <c r="H118" s="98"/>
+      <c r="I118" s="98"/>
+      <c r="J118" s="98"/>
+      <c r="K118" s="99"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="20" t="s">
@@ -4908,7 +4947,7 @@
         <v>6</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C125" s="7" t="s">
         <v>14</v>
@@ -4937,7 +4976,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C126" s="7" t="s">
         <v>14</v>
@@ -5026,7 +5065,7 @@
         <v>10</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C129" s="7" t="s">
         <v>14</v>
@@ -5130,45 +5169,45 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A133" s="101"/>
-      <c r="B133" s="101"/>
-      <c r="C133" s="101"/>
-      <c r="D133" s="101"/>
-      <c r="E133" s="101"/>
-      <c r="F133" s="101"/>
-      <c r="G133" s="101"/>
-      <c r="H133" s="101"/>
-      <c r="I133" s="101"/>
-      <c r="J133" s="101"/>
-      <c r="K133" s="101"/>
+      <c r="A133" s="95"/>
+      <c r="B133" s="95"/>
+      <c r="C133" s="95"/>
+      <c r="D133" s="95"/>
+      <c r="E133" s="95"/>
+      <c r="F133" s="95"/>
+      <c r="G133" s="95"/>
+      <c r="H133" s="95"/>
+      <c r="I133" s="95"/>
+      <c r="J133" s="95"/>
+      <c r="K133" s="95"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A134" s="100"/>
-      <c r="B134" s="100"/>
-      <c r="C134" s="100"/>
-      <c r="D134" s="100"/>
-      <c r="E134" s="100"/>
-      <c r="F134" s="100"/>
-      <c r="G134" s="100"/>
-      <c r="H134" s="100"/>
-      <c r="I134" s="100"/>
-      <c r="J134" s="100"/>
-      <c r="K134" s="100"/>
+      <c r="A134" s="96"/>
+      <c r="B134" s="96"/>
+      <c r="C134" s="96"/>
+      <c r="D134" s="96"/>
+      <c r="E134" s="96"/>
+      <c r="F134" s="96"/>
+      <c r="G134" s="96"/>
+      <c r="H134" s="96"/>
+      <c r="I134" s="96"/>
+      <c r="J134" s="96"/>
+      <c r="K134" s="96"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A135" s="96" t="s">
+      <c r="A135" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="B135" s="97"/>
-      <c r="C135" s="97"/>
-      <c r="D135" s="97"/>
-      <c r="E135" s="97"/>
-      <c r="F135" s="97"/>
-      <c r="G135" s="97"/>
-      <c r="H135" s="97"/>
-      <c r="I135" s="97"/>
-      <c r="J135" s="97"/>
-      <c r="K135" s="98"/>
+      <c r="B135" s="98"/>
+      <c r="C135" s="98"/>
+      <c r="D135" s="98"/>
+      <c r="E135" s="98"/>
+      <c r="F135" s="98"/>
+      <c r="G135" s="98"/>
+      <c r="H135" s="98"/>
+      <c r="I135" s="98"/>
+      <c r="J135" s="98"/>
+      <c r="K135" s="99"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
@@ -5374,7 +5413,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C143" s="7" t="s">
         <v>15</v>
@@ -5401,7 +5440,7 @@
         <v>8</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C144" s="7" t="s">
         <v>9</v>
@@ -5430,7 +5469,7 @@
         <v>9</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C145" s="7" t="s">
         <v>17</v>
@@ -5455,7 +5494,7 @@
         <v>10</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C146" s="7" t="s">
         <v>17</v>
@@ -5561,45 +5600,45 @@
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A150" s="101"/>
-      <c r="B150" s="101"/>
-      <c r="C150" s="101"/>
-      <c r="D150" s="101"/>
-      <c r="E150" s="101"/>
-      <c r="F150" s="101"/>
-      <c r="G150" s="101"/>
-      <c r="H150" s="101"/>
-      <c r="I150" s="101"/>
-      <c r="J150" s="101"/>
-      <c r="K150" s="101"/>
+      <c r="A150" s="95"/>
+      <c r="B150" s="95"/>
+      <c r="C150" s="95"/>
+      <c r="D150" s="95"/>
+      <c r="E150" s="95"/>
+      <c r="F150" s="95"/>
+      <c r="G150" s="95"/>
+      <c r="H150" s="95"/>
+      <c r="I150" s="95"/>
+      <c r="J150" s="95"/>
+      <c r="K150" s="95"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="100"/>
-      <c r="B151" s="100"/>
-      <c r="C151" s="100"/>
-      <c r="D151" s="100"/>
-      <c r="E151" s="100"/>
-      <c r="F151" s="100"/>
-      <c r="G151" s="100"/>
-      <c r="H151" s="100"/>
-      <c r="I151" s="100"/>
-      <c r="J151" s="100"/>
-      <c r="K151" s="100"/>
+      <c r="A151" s="96"/>
+      <c r="B151" s="96"/>
+      <c r="C151" s="96"/>
+      <c r="D151" s="96"/>
+      <c r="E151" s="96"/>
+      <c r="F151" s="96"/>
+      <c r="G151" s="96"/>
+      <c r="H151" s="96"/>
+      <c r="I151" s="96"/>
+      <c r="J151" s="96"/>
+      <c r="K151" s="96"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A152" s="96" t="s">
+      <c r="A152" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="B152" s="97"/>
-      <c r="C152" s="97"/>
-      <c r="D152" s="97"/>
-      <c r="E152" s="97"/>
-      <c r="F152" s="97"/>
-      <c r="G152" s="97"/>
-      <c r="H152" s="97"/>
-      <c r="I152" s="97"/>
-      <c r="J152" s="97"/>
-      <c r="K152" s="98"/>
+      <c r="B152" s="98"/>
+      <c r="C152" s="98"/>
+      <c r="D152" s="98"/>
+      <c r="E152" s="98"/>
+      <c r="F152" s="98"/>
+      <c r="G152" s="98"/>
+      <c r="H152" s="98"/>
+      <c r="I152" s="98"/>
+      <c r="J152" s="98"/>
+      <c r="K152" s="99"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
@@ -5813,45 +5852,45 @@
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A160" s="101"/>
-      <c r="B160" s="101"/>
-      <c r="C160" s="101"/>
-      <c r="D160" s="101"/>
-      <c r="E160" s="101"/>
-      <c r="F160" s="101"/>
-      <c r="G160" s="101"/>
-      <c r="H160" s="101"/>
-      <c r="I160" s="101"/>
-      <c r="J160" s="101"/>
-      <c r="K160" s="101"/>
+      <c r="A160" s="95"/>
+      <c r="B160" s="95"/>
+      <c r="C160" s="95"/>
+      <c r="D160" s="95"/>
+      <c r="E160" s="95"/>
+      <c r="F160" s="95"/>
+      <c r="G160" s="95"/>
+      <c r="H160" s="95"/>
+      <c r="I160" s="95"/>
+      <c r="J160" s="95"/>
+      <c r="K160" s="95"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A161" s="100"/>
-      <c r="B161" s="100"/>
-      <c r="C161" s="100"/>
-      <c r="D161" s="100"/>
-      <c r="E161" s="100"/>
-      <c r="F161" s="100"/>
-      <c r="G161" s="100"/>
-      <c r="H161" s="100"/>
-      <c r="I161" s="100"/>
-      <c r="J161" s="100"/>
-      <c r="K161" s="100"/>
+      <c r="A161" s="96"/>
+      <c r="B161" s="96"/>
+      <c r="C161" s="96"/>
+      <c r="D161" s="96"/>
+      <c r="E161" s="96"/>
+      <c r="F161" s="96"/>
+      <c r="G161" s="96"/>
+      <c r="H161" s="96"/>
+      <c r="I161" s="96"/>
+      <c r="J161" s="96"/>
+      <c r="K161" s="96"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A162" s="96" t="s">
+      <c r="A162" s="97" t="s">
         <v>69</v>
       </c>
-      <c r="B162" s="97"/>
-      <c r="C162" s="97"/>
-      <c r="D162" s="97"/>
-      <c r="E162" s="97"/>
-      <c r="F162" s="97"/>
-      <c r="G162" s="97"/>
-      <c r="H162" s="97"/>
-      <c r="I162" s="97"/>
-      <c r="J162" s="97"/>
-      <c r="K162" s="98"/>
+      <c r="B162" s="98"/>
+      <c r="C162" s="98"/>
+      <c r="D162" s="98"/>
+      <c r="E162" s="98"/>
+      <c r="F162" s="98"/>
+      <c r="G162" s="98"/>
+      <c r="H162" s="98"/>
+      <c r="I162" s="98"/>
+      <c r="J162" s="98"/>
+      <c r="K162" s="99"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
@@ -6134,45 +6173,45 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="101"/>
-      <c r="B173" s="101"/>
-      <c r="C173" s="101"/>
-      <c r="D173" s="101"/>
-      <c r="E173" s="101"/>
-      <c r="F173" s="101"/>
-      <c r="G173" s="101"/>
-      <c r="H173" s="101"/>
-      <c r="I173" s="101"/>
-      <c r="J173" s="101"/>
-      <c r="K173" s="101"/>
+      <c r="A173" s="95"/>
+      <c r="B173" s="95"/>
+      <c r="C173" s="95"/>
+      <c r="D173" s="95"/>
+      <c r="E173" s="95"/>
+      <c r="F173" s="95"/>
+      <c r="G173" s="95"/>
+      <c r="H173" s="95"/>
+      <c r="I173" s="95"/>
+      <c r="J173" s="95"/>
+      <c r="K173" s="95"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="100"/>
-      <c r="B174" s="100"/>
-      <c r="C174" s="100"/>
-      <c r="D174" s="100"/>
-      <c r="E174" s="100"/>
-      <c r="F174" s="100"/>
-      <c r="G174" s="100"/>
-      <c r="H174" s="100"/>
-      <c r="I174" s="100"/>
-      <c r="J174" s="100"/>
-      <c r="K174" s="100"/>
+      <c r="A174" s="96"/>
+      <c r="B174" s="96"/>
+      <c r="C174" s="96"/>
+      <c r="D174" s="96"/>
+      <c r="E174" s="96"/>
+      <c r="F174" s="96"/>
+      <c r="G174" s="96"/>
+      <c r="H174" s="96"/>
+      <c r="I174" s="96"/>
+      <c r="J174" s="96"/>
+      <c r="K174" s="96"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="96" t="s">
+      <c r="A175" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="B175" s="97"/>
-      <c r="C175" s="97"/>
-      <c r="D175" s="97"/>
-      <c r="E175" s="97"/>
-      <c r="F175" s="97"/>
-      <c r="G175" s="97"/>
-      <c r="H175" s="97"/>
-      <c r="I175" s="97"/>
-      <c r="J175" s="97"/>
-      <c r="K175" s="98"/>
+      <c r="B175" s="98"/>
+      <c r="C175" s="98"/>
+      <c r="D175" s="98"/>
+      <c r="E175" s="98"/>
+      <c r="F175" s="98"/>
+      <c r="G175" s="98"/>
+      <c r="H175" s="98"/>
+      <c r="I175" s="98"/>
+      <c r="J175" s="98"/>
+      <c r="K175" s="99"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
@@ -6440,45 +6479,45 @@
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="101"/>
-      <c r="B185" s="101"/>
-      <c r="C185" s="101"/>
-      <c r="D185" s="101"/>
-      <c r="E185" s="101"/>
-      <c r="F185" s="101"/>
-      <c r="G185" s="101"/>
-      <c r="H185" s="101"/>
-      <c r="I185" s="101"/>
-      <c r="J185" s="101"/>
-      <c r="K185" s="101"/>
+      <c r="A185" s="95"/>
+      <c r="B185" s="95"/>
+      <c r="C185" s="95"/>
+      <c r="D185" s="95"/>
+      <c r="E185" s="95"/>
+      <c r="F185" s="95"/>
+      <c r="G185" s="95"/>
+      <c r="H185" s="95"/>
+      <c r="I185" s="95"/>
+      <c r="J185" s="95"/>
+      <c r="K185" s="95"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A186" s="100"/>
-      <c r="B186" s="100"/>
-      <c r="C186" s="100"/>
-      <c r="D186" s="100"/>
-      <c r="E186" s="100"/>
-      <c r="F186" s="100"/>
-      <c r="G186" s="100"/>
-      <c r="H186" s="100"/>
-      <c r="I186" s="100"/>
-      <c r="J186" s="100"/>
-      <c r="K186" s="100"/>
+      <c r="A186" s="96"/>
+      <c r="B186" s="96"/>
+      <c r="C186" s="96"/>
+      <c r="D186" s="96"/>
+      <c r="E186" s="96"/>
+      <c r="F186" s="96"/>
+      <c r="G186" s="96"/>
+      <c r="H186" s="96"/>
+      <c r="I186" s="96"/>
+      <c r="J186" s="96"/>
+      <c r="K186" s="96"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="96" t="s">
+      <c r="A187" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="B187" s="97"/>
-      <c r="C187" s="97"/>
-      <c r="D187" s="97"/>
-      <c r="E187" s="97"/>
-      <c r="F187" s="97"/>
-      <c r="G187" s="97"/>
-      <c r="H187" s="97"/>
-      <c r="I187" s="97"/>
-      <c r="J187" s="97"/>
-      <c r="K187" s="98"/>
+      <c r="B187" s="98"/>
+      <c r="C187" s="98"/>
+      <c r="D187" s="98"/>
+      <c r="E187" s="98"/>
+      <c r="F187" s="98"/>
+      <c r="G187" s="98"/>
+      <c r="H187" s="98"/>
+      <c r="I187" s="98"/>
+      <c r="J187" s="98"/>
+      <c r="K187" s="99"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
@@ -6748,45 +6787,45 @@
       </c>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="101"/>
-      <c r="B197" s="101"/>
-      <c r="C197" s="101"/>
-      <c r="D197" s="101"/>
-      <c r="E197" s="101"/>
-      <c r="F197" s="101"/>
-      <c r="G197" s="101"/>
-      <c r="H197" s="101"/>
-      <c r="I197" s="101"/>
-      <c r="J197" s="101"/>
-      <c r="K197" s="101"/>
+      <c r="A197" s="95"/>
+      <c r="B197" s="95"/>
+      <c r="C197" s="95"/>
+      <c r="D197" s="95"/>
+      <c r="E197" s="95"/>
+      <c r="F197" s="95"/>
+      <c r="G197" s="95"/>
+      <c r="H197" s="95"/>
+      <c r="I197" s="95"/>
+      <c r="J197" s="95"/>
+      <c r="K197" s="95"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="100"/>
-      <c r="B198" s="100"/>
-      <c r="C198" s="100"/>
-      <c r="D198" s="100"/>
-      <c r="E198" s="100"/>
-      <c r="F198" s="100"/>
-      <c r="G198" s="100"/>
-      <c r="H198" s="100"/>
-      <c r="I198" s="100"/>
-      <c r="J198" s="100"/>
-      <c r="K198" s="100"/>
+      <c r="A198" s="96"/>
+      <c r="B198" s="96"/>
+      <c r="C198" s="96"/>
+      <c r="D198" s="96"/>
+      <c r="E198" s="96"/>
+      <c r="F198" s="96"/>
+      <c r="G198" s="96"/>
+      <c r="H198" s="96"/>
+      <c r="I198" s="96"/>
+      <c r="J198" s="96"/>
+      <c r="K198" s="96"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="96" t="s">
-        <v>178</v>
-      </c>
-      <c r="B199" s="97"/>
-      <c r="C199" s="97"/>
-      <c r="D199" s="97"/>
-      <c r="E199" s="97"/>
-      <c r="F199" s="97"/>
-      <c r="G199" s="97"/>
-      <c r="H199" s="97"/>
-      <c r="I199" s="97"/>
-      <c r="J199" s="97"/>
-      <c r="K199" s="98"/>
+      <c r="A199" s="97" t="s">
+        <v>177</v>
+      </c>
+      <c r="B199" s="98"/>
+      <c r="C199" s="98"/>
+      <c r="D199" s="98"/>
+      <c r="E199" s="98"/>
+      <c r="F199" s="98"/>
+      <c r="G199" s="98"/>
+      <c r="H199" s="98"/>
+      <c r="I199" s="98"/>
+      <c r="J199" s="98"/>
+      <c r="K199" s="99"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
@@ -6861,7 +6900,7 @@
         <v>2</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C202" s="7" t="s">
         <v>116</v>
@@ -6894,7 +6933,7 @@
         <v>3</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C203" s="7" t="s">
         <v>15</v>
@@ -6927,7 +6966,7 @@
         <v>4</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C204" s="7" t="s">
         <v>14</v>
@@ -6958,7 +6997,7 @@
         <v>5</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C205" s="7" t="s">
         <v>14</v>
@@ -6989,7 +7028,7 @@
         <v>6</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C206" s="7" t="s">
         <v>14</v>
@@ -7020,7 +7059,7 @@
         <v>7</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C207" s="7" t="s">
         <v>15</v>
@@ -7053,7 +7092,7 @@
         <v>8</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C208" s="7" t="s">
         <v>78</v>
@@ -7080,7 +7119,7 @@
         <v>9</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C209" s="7" t="s">
         <v>66</v>
@@ -7107,7 +7146,7 @@
         <v>10</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C210" s="7" t="s">
         <v>14</v>
@@ -7184,45 +7223,45 @@
       </c>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="101"/>
-      <c r="B213" s="101"/>
-      <c r="C213" s="101"/>
-      <c r="D213" s="101"/>
-      <c r="E213" s="101"/>
-      <c r="F213" s="101"/>
-      <c r="G213" s="101"/>
-      <c r="H213" s="101"/>
-      <c r="I213" s="101"/>
-      <c r="J213" s="101"/>
-      <c r="K213" s="101"/>
+      <c r="A213" s="95"/>
+      <c r="B213" s="95"/>
+      <c r="C213" s="95"/>
+      <c r="D213" s="95"/>
+      <c r="E213" s="95"/>
+      <c r="F213" s="95"/>
+      <c r="G213" s="95"/>
+      <c r="H213" s="95"/>
+      <c r="I213" s="95"/>
+      <c r="J213" s="95"/>
+      <c r="K213" s="95"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="100"/>
-      <c r="B214" s="100"/>
-      <c r="C214" s="100"/>
-      <c r="D214" s="100"/>
-      <c r="E214" s="100"/>
-      <c r="F214" s="100"/>
-      <c r="G214" s="100"/>
-      <c r="H214" s="100"/>
-      <c r="I214" s="100"/>
-      <c r="J214" s="100"/>
-      <c r="K214" s="100"/>
+      <c r="A214" s="96"/>
+      <c r="B214" s="96"/>
+      <c r="C214" s="96"/>
+      <c r="D214" s="96"/>
+      <c r="E214" s="96"/>
+      <c r="F214" s="96"/>
+      <c r="G214" s="96"/>
+      <c r="H214" s="96"/>
+      <c r="I214" s="96"/>
+      <c r="J214" s="96"/>
+      <c r="K214" s="96"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="96" t="s">
-        <v>201</v>
-      </c>
-      <c r="B215" s="97"/>
-      <c r="C215" s="97"/>
-      <c r="D215" s="97"/>
-      <c r="E215" s="97"/>
-      <c r="F215" s="97"/>
-      <c r="G215" s="97"/>
-      <c r="H215" s="97"/>
-      <c r="I215" s="97"/>
-      <c r="J215" s="97"/>
-      <c r="K215" s="98"/>
+      <c r="A215" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="B215" s="98"/>
+      <c r="C215" s="98"/>
+      <c r="D215" s="98"/>
+      <c r="E215" s="98"/>
+      <c r="F215" s="98"/>
+      <c r="G215" s="98"/>
+      <c r="H215" s="98"/>
+      <c r="I215" s="98"/>
+      <c r="J215" s="98"/>
+      <c r="K215" s="99"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
@@ -7297,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>78</v>
@@ -7318,7 +7357,7 @@
         <v>3</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
@@ -7423,45 +7462,45 @@
       </c>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A223" s="101"/>
-      <c r="B223" s="101"/>
-      <c r="C223" s="101"/>
-      <c r="D223" s="101"/>
-      <c r="E223" s="101"/>
-      <c r="F223" s="101"/>
-      <c r="G223" s="101"/>
-      <c r="H223" s="101"/>
-      <c r="I223" s="101"/>
-      <c r="J223" s="101"/>
-      <c r="K223" s="101"/>
+      <c r="A223" s="95"/>
+      <c r="B223" s="95"/>
+      <c r="C223" s="95"/>
+      <c r="D223" s="95"/>
+      <c r="E223" s="95"/>
+      <c r="F223" s="95"/>
+      <c r="G223" s="95"/>
+      <c r="H223" s="95"/>
+      <c r="I223" s="95"/>
+      <c r="J223" s="95"/>
+      <c r="K223" s="95"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A224" s="100"/>
-      <c r="B224" s="100"/>
-      <c r="C224" s="100"/>
-      <c r="D224" s="100"/>
-      <c r="E224" s="100"/>
-      <c r="F224" s="100"/>
-      <c r="G224" s="100"/>
-      <c r="H224" s="100"/>
-      <c r="I224" s="100"/>
-      <c r="J224" s="100"/>
-      <c r="K224" s="100"/>
+      <c r="A224" s="96"/>
+      <c r="B224" s="96"/>
+      <c r="C224" s="96"/>
+      <c r="D224" s="96"/>
+      <c r="E224" s="96"/>
+      <c r="F224" s="96"/>
+      <c r="G224" s="96"/>
+      <c r="H224" s="96"/>
+      <c r="I224" s="96"/>
+      <c r="J224" s="96"/>
+      <c r="K224" s="96"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A225" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="B225" s="97"/>
-      <c r="C225" s="97"/>
-      <c r="D225" s="97"/>
-      <c r="E225" s="97"/>
-      <c r="F225" s="97"/>
-      <c r="G225" s="97"/>
-      <c r="H225" s="97"/>
-      <c r="I225" s="97"/>
-      <c r="J225" s="97"/>
-      <c r="K225" s="98"/>
+      <c r="A225" s="97" t="s">
+        <v>203</v>
+      </c>
+      <c r="B225" s="98"/>
+      <c r="C225" s="98"/>
+      <c r="D225" s="98"/>
+      <c r="E225" s="98"/>
+      <c r="F225" s="98"/>
+      <c r="G225" s="98"/>
+      <c r="H225" s="98"/>
+      <c r="I225" s="98"/>
+      <c r="J225" s="98"/>
+      <c r="K225" s="99"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
@@ -7536,7 +7575,7 @@
         <v>2</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C228" s="7" t="s">
         <v>116</v>
@@ -7567,7 +7606,7 @@
         <v>3</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C229" s="7" t="s">
         <v>14</v>
@@ -7596,7 +7635,7 @@
         <v>4</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C230" s="7" t="s">
         <v>15</v>
@@ -7708,45 +7747,45 @@
       </c>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A234" s="101"/>
-      <c r="B234" s="101"/>
-      <c r="C234" s="101"/>
-      <c r="D234" s="101"/>
-      <c r="E234" s="101"/>
-      <c r="F234" s="101"/>
-      <c r="G234" s="101"/>
-      <c r="H234" s="101"/>
-      <c r="I234" s="101"/>
-      <c r="J234" s="101"/>
-      <c r="K234" s="101"/>
+      <c r="A234" s="95"/>
+      <c r="B234" s="95"/>
+      <c r="C234" s="95"/>
+      <c r="D234" s="95"/>
+      <c r="E234" s="95"/>
+      <c r="F234" s="95"/>
+      <c r="G234" s="95"/>
+      <c r="H234" s="95"/>
+      <c r="I234" s="95"/>
+      <c r="J234" s="95"/>
+      <c r="K234" s="95"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A235" s="100"/>
-      <c r="B235" s="100"/>
-      <c r="C235" s="100"/>
-      <c r="D235" s="100"/>
-      <c r="E235" s="100"/>
-      <c r="F235" s="100"/>
-      <c r="G235" s="100"/>
-      <c r="H235" s="100"/>
-      <c r="I235" s="100"/>
-      <c r="J235" s="100"/>
-      <c r="K235" s="100"/>
+      <c r="A235" s="96"/>
+      <c r="B235" s="96"/>
+      <c r="C235" s="96"/>
+      <c r="D235" s="96"/>
+      <c r="E235" s="96"/>
+      <c r="F235" s="96"/>
+      <c r="G235" s="96"/>
+      <c r="H235" s="96"/>
+      <c r="I235" s="96"/>
+      <c r="J235" s="96"/>
+      <c r="K235" s="96"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="96" t="s">
-        <v>208</v>
-      </c>
-      <c r="B236" s="97"/>
-      <c r="C236" s="97"/>
-      <c r="D236" s="97"/>
-      <c r="E236" s="97"/>
-      <c r="F236" s="97"/>
-      <c r="G236" s="97"/>
-      <c r="H236" s="97"/>
-      <c r="I236" s="97"/>
-      <c r="J236" s="97"/>
-      <c r="K236" s="98"/>
+      <c r="A236" s="97" t="s">
+        <v>207</v>
+      </c>
+      <c r="B236" s="98"/>
+      <c r="C236" s="98"/>
+      <c r="D236" s="98"/>
+      <c r="E236" s="98"/>
+      <c r="F236" s="98"/>
+      <c r="G236" s="98"/>
+      <c r="H236" s="98"/>
+      <c r="I236" s="98"/>
+      <c r="J236" s="98"/>
+      <c r="K236" s="99"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
@@ -7821,7 +7860,7 @@
         <v>2</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C239" s="7" t="s">
         <v>116</v>
@@ -7850,7 +7889,7 @@
         <v>3</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C240" s="7" t="s">
         <v>116</v>
@@ -7879,7 +7918,7 @@
         <v>4</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C241" s="7" t="s">
         <v>9</v>
@@ -7989,45 +8028,45 @@
       </c>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A245" s="101"/>
-      <c r="B245" s="101"/>
-      <c r="C245" s="101"/>
-      <c r="D245" s="101"/>
-      <c r="E245" s="101"/>
-      <c r="F245" s="101"/>
-      <c r="G245" s="101"/>
-      <c r="H245" s="101"/>
-      <c r="I245" s="101"/>
-      <c r="J245" s="101"/>
-      <c r="K245" s="101"/>
+      <c r="A245" s="95"/>
+      <c r="B245" s="95"/>
+      <c r="C245" s="95"/>
+      <c r="D245" s="95"/>
+      <c r="E245" s="95"/>
+      <c r="F245" s="95"/>
+      <c r="G245" s="95"/>
+      <c r="H245" s="95"/>
+      <c r="I245" s="95"/>
+      <c r="J245" s="95"/>
+      <c r="K245" s="95"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="100"/>
-      <c r="B246" s="100"/>
-      <c r="C246" s="100"/>
-      <c r="D246" s="100"/>
-      <c r="E246" s="100"/>
-      <c r="F246" s="100"/>
-      <c r="G246" s="100"/>
-      <c r="H246" s="100"/>
-      <c r="I246" s="100"/>
-      <c r="J246" s="100"/>
-      <c r="K246" s="100"/>
+      <c r="A246" s="96"/>
+      <c r="B246" s="96"/>
+      <c r="C246" s="96"/>
+      <c r="D246" s="96"/>
+      <c r="E246" s="96"/>
+      <c r="F246" s="96"/>
+      <c r="G246" s="96"/>
+      <c r="H246" s="96"/>
+      <c r="I246" s="96"/>
+      <c r="J246" s="96"/>
+      <c r="K246" s="96"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="96" t="s">
-        <v>239</v>
-      </c>
-      <c r="B247" s="97"/>
-      <c r="C247" s="97"/>
-      <c r="D247" s="97"/>
-      <c r="E247" s="97"/>
-      <c r="F247" s="97"/>
-      <c r="G247" s="97"/>
-      <c r="H247" s="97"/>
-      <c r="I247" s="97"/>
-      <c r="J247" s="97"/>
-      <c r="K247" s="98"/>
+      <c r="A247" s="97" t="s">
+        <v>238</v>
+      </c>
+      <c r="B247" s="98"/>
+      <c r="C247" s="98"/>
+      <c r="D247" s="98"/>
+      <c r="E247" s="98"/>
+      <c r="F247" s="98"/>
+      <c r="G247" s="98"/>
+      <c r="H247" s="98"/>
+      <c r="I247" s="98"/>
+      <c r="J247" s="98"/>
+      <c r="K247" s="99"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
@@ -8102,7 +8141,7 @@
         <v>2</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C250" s="7" t="s">
         <v>14</v>
@@ -8210,45 +8249,45 @@
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A254" s="101"/>
-      <c r="B254" s="101"/>
-      <c r="C254" s="101"/>
-      <c r="D254" s="101"/>
-      <c r="E254" s="101"/>
-      <c r="F254" s="101"/>
-      <c r="G254" s="101"/>
-      <c r="H254" s="101"/>
-      <c r="I254" s="101"/>
-      <c r="J254" s="101"/>
-      <c r="K254" s="101"/>
+      <c r="A254" s="95"/>
+      <c r="B254" s="95"/>
+      <c r="C254" s="95"/>
+      <c r="D254" s="95"/>
+      <c r="E254" s="95"/>
+      <c r="F254" s="95"/>
+      <c r="G254" s="95"/>
+      <c r="H254" s="95"/>
+      <c r="I254" s="95"/>
+      <c r="J254" s="95"/>
+      <c r="K254" s="95"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A255" s="100"/>
-      <c r="B255" s="100"/>
-      <c r="C255" s="100"/>
-      <c r="D255" s="100"/>
-      <c r="E255" s="100"/>
-      <c r="F255" s="100"/>
-      <c r="G255" s="100"/>
-      <c r="H255" s="100"/>
-      <c r="I255" s="100"/>
-      <c r="J255" s="100"/>
-      <c r="K255" s="100"/>
+      <c r="A255" s="96"/>
+      <c r="B255" s="96"/>
+      <c r="C255" s="96"/>
+      <c r="D255" s="96"/>
+      <c r="E255" s="96"/>
+      <c r="F255" s="96"/>
+      <c r="G255" s="96"/>
+      <c r="H255" s="96"/>
+      <c r="I255" s="96"/>
+      <c r="J255" s="96"/>
+      <c r="K255" s="96"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A256" s="96" t="s">
-        <v>241</v>
-      </c>
-      <c r="B256" s="97"/>
-      <c r="C256" s="97"/>
-      <c r="D256" s="97"/>
-      <c r="E256" s="97"/>
-      <c r="F256" s="97"/>
-      <c r="G256" s="97"/>
-      <c r="H256" s="97"/>
-      <c r="I256" s="97"/>
-      <c r="J256" s="97"/>
-      <c r="K256" s="98"/>
+      <c r="A256" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="B256" s="98"/>
+      <c r="C256" s="98"/>
+      <c r="D256" s="98"/>
+      <c r="E256" s="98"/>
+      <c r="F256" s="98"/>
+      <c r="G256" s="98"/>
+      <c r="H256" s="98"/>
+      <c r="I256" s="98"/>
+      <c r="J256" s="98"/>
+      <c r="K256" s="99"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
@@ -8323,7 +8362,7 @@
         <v>2</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C259" s="7" t="s">
         <v>14</v>
@@ -8431,45 +8470,45 @@
       </c>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="101"/>
-      <c r="B263" s="101"/>
-      <c r="C263" s="101"/>
-      <c r="D263" s="101"/>
-      <c r="E263" s="101"/>
-      <c r="F263" s="101"/>
-      <c r="G263" s="101"/>
-      <c r="H263" s="101"/>
-      <c r="I263" s="101"/>
-      <c r="J263" s="101"/>
-      <c r="K263" s="101"/>
+      <c r="A263" s="95"/>
+      <c r="B263" s="95"/>
+      <c r="C263" s="95"/>
+      <c r="D263" s="95"/>
+      <c r="E263" s="95"/>
+      <c r="F263" s="95"/>
+      <c r="G263" s="95"/>
+      <c r="H263" s="95"/>
+      <c r="I263" s="95"/>
+      <c r="J263" s="95"/>
+      <c r="K263" s="95"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A264" s="100"/>
-      <c r="B264" s="100"/>
-      <c r="C264" s="100"/>
-      <c r="D264" s="100"/>
-      <c r="E264" s="100"/>
-      <c r="F264" s="100"/>
-      <c r="G264" s="100"/>
-      <c r="H264" s="100"/>
-      <c r="I264" s="100"/>
-      <c r="J264" s="100"/>
-      <c r="K264" s="100"/>
+      <c r="A264" s="96"/>
+      <c r="B264" s="96"/>
+      <c r="C264" s="96"/>
+      <c r="D264" s="96"/>
+      <c r="E264" s="96"/>
+      <c r="F264" s="96"/>
+      <c r="G264" s="96"/>
+      <c r="H264" s="96"/>
+      <c r="I264" s="96"/>
+      <c r="J264" s="96"/>
+      <c r="K264" s="96"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A265" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="B265" s="97"/>
-      <c r="C265" s="97"/>
-      <c r="D265" s="97"/>
-      <c r="E265" s="97"/>
-      <c r="F265" s="97"/>
-      <c r="G265" s="97"/>
-      <c r="H265" s="97"/>
-      <c r="I265" s="97"/>
-      <c r="J265" s="97"/>
-      <c r="K265" s="98"/>
+      <c r="A265" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="B265" s="98"/>
+      <c r="C265" s="98"/>
+      <c r="D265" s="98"/>
+      <c r="E265" s="98"/>
+      <c r="F265" s="98"/>
+      <c r="G265" s="98"/>
+      <c r="H265" s="98"/>
+      <c r="I265" s="98"/>
+      <c r="J265" s="98"/>
+      <c r="K265" s="99"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
@@ -8544,7 +8583,7 @@
         <v>2</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C268" s="7" t="s">
         <v>14</v>
@@ -8652,45 +8691,45 @@
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A272" s="101"/>
-      <c r="B272" s="101"/>
-      <c r="C272" s="101"/>
-      <c r="D272" s="101"/>
-      <c r="E272" s="101"/>
-      <c r="F272" s="101"/>
-      <c r="G272" s="101"/>
-      <c r="H272" s="101"/>
-      <c r="I272" s="101"/>
-      <c r="J272" s="101"/>
-      <c r="K272" s="101"/>
+      <c r="A272" s="95"/>
+      <c r="B272" s="95"/>
+      <c r="C272" s="95"/>
+      <c r="D272" s="95"/>
+      <c r="E272" s="95"/>
+      <c r="F272" s="95"/>
+      <c r="G272" s="95"/>
+      <c r="H272" s="95"/>
+      <c r="I272" s="95"/>
+      <c r="J272" s="95"/>
+      <c r="K272" s="95"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A273" s="100"/>
-      <c r="B273" s="100"/>
-      <c r="C273" s="100"/>
-      <c r="D273" s="100"/>
-      <c r="E273" s="100"/>
-      <c r="F273" s="100"/>
-      <c r="G273" s="100"/>
-      <c r="H273" s="100"/>
-      <c r="I273" s="100"/>
-      <c r="J273" s="100"/>
-      <c r="K273" s="100"/>
+      <c r="A273" s="96"/>
+      <c r="B273" s="96"/>
+      <c r="C273" s="96"/>
+      <c r="D273" s="96"/>
+      <c r="E273" s="96"/>
+      <c r="F273" s="96"/>
+      <c r="G273" s="96"/>
+      <c r="H273" s="96"/>
+      <c r="I273" s="96"/>
+      <c r="J273" s="96"/>
+      <c r="K273" s="96"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A274" s="96" t="s">
-        <v>245</v>
-      </c>
-      <c r="B274" s="97"/>
-      <c r="C274" s="97"/>
-      <c r="D274" s="97"/>
-      <c r="E274" s="97"/>
-      <c r="F274" s="97"/>
-      <c r="G274" s="97"/>
-      <c r="H274" s="97"/>
-      <c r="I274" s="97"/>
-      <c r="J274" s="97"/>
-      <c r="K274" s="98"/>
+      <c r="A274" s="97" t="s">
+        <v>244</v>
+      </c>
+      <c r="B274" s="98"/>
+      <c r="C274" s="98"/>
+      <c r="D274" s="98"/>
+      <c r="E274" s="98"/>
+      <c r="F274" s="98"/>
+      <c r="G274" s="98"/>
+      <c r="H274" s="98"/>
+      <c r="I274" s="98"/>
+      <c r="J274" s="98"/>
+      <c r="K274" s="99"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
@@ -8765,7 +8804,7 @@
         <v>2</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C277" s="7" t="s">
         <v>14</v>
@@ -8873,45 +8912,45 @@
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A281" s="101"/>
-      <c r="B281" s="101"/>
-      <c r="C281" s="101"/>
-      <c r="D281" s="101"/>
-      <c r="E281" s="101"/>
-      <c r="F281" s="101"/>
-      <c r="G281" s="101"/>
-      <c r="H281" s="101"/>
-      <c r="I281" s="101"/>
-      <c r="J281" s="101"/>
-      <c r="K281" s="101"/>
+      <c r="A281" s="95"/>
+      <c r="B281" s="95"/>
+      <c r="C281" s="95"/>
+      <c r="D281" s="95"/>
+      <c r="E281" s="95"/>
+      <c r="F281" s="95"/>
+      <c r="G281" s="95"/>
+      <c r="H281" s="95"/>
+      <c r="I281" s="95"/>
+      <c r="J281" s="95"/>
+      <c r="K281" s="95"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A282" s="100"/>
-      <c r="B282" s="100"/>
-      <c r="C282" s="100"/>
-      <c r="D282" s="100"/>
-      <c r="E282" s="100"/>
-      <c r="F282" s="100"/>
-      <c r="G282" s="100"/>
-      <c r="H282" s="100"/>
-      <c r="I282" s="100"/>
-      <c r="J282" s="100"/>
-      <c r="K282" s="100"/>
+      <c r="A282" s="96"/>
+      <c r="B282" s="96"/>
+      <c r="C282" s="96"/>
+      <c r="D282" s="96"/>
+      <c r="E282" s="96"/>
+      <c r="F282" s="96"/>
+      <c r="G282" s="96"/>
+      <c r="H282" s="96"/>
+      <c r="I282" s="96"/>
+      <c r="J282" s="96"/>
+      <c r="K282" s="96"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A283" s="96" t="s">
-        <v>212</v>
-      </c>
-      <c r="B283" s="97"/>
-      <c r="C283" s="97"/>
-      <c r="D283" s="97"/>
-      <c r="E283" s="97"/>
-      <c r="F283" s="97"/>
-      <c r="G283" s="97"/>
-      <c r="H283" s="97"/>
-      <c r="I283" s="97"/>
-      <c r="J283" s="97"/>
-      <c r="K283" s="98"/>
+      <c r="A283" s="97" t="s">
+        <v>211</v>
+      </c>
+      <c r="B283" s="98"/>
+      <c r="C283" s="98"/>
+      <c r="D283" s="98"/>
+      <c r="E283" s="98"/>
+      <c r="F283" s="98"/>
+      <c r="G283" s="98"/>
+      <c r="H283" s="98"/>
+      <c r="I283" s="98"/>
+      <c r="J283" s="98"/>
+      <c r="K283" s="99"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
@@ -8986,7 +9025,7 @@
         <v>2</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>78</v>
@@ -9007,7 +9046,7 @@
         <v>3</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>9</v>
@@ -9031,7 +9070,7 @@
         <v>4</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>15</v>
@@ -9049,7 +9088,7 @@
         <v>12</v>
       </c>
       <c r="K288" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
@@ -9057,7 +9096,7 @@
         <v>5</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>15</v>
@@ -9075,7 +9114,7 @@
         <v>12</v>
       </c>
       <c r="K289" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -9083,7 +9122,7 @@
         <v>6</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>15</v>
@@ -9101,7 +9140,7 @@
         <v>12</v>
       </c>
       <c r="K290" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -9109,7 +9148,7 @@
         <v>7</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>15</v>
@@ -9121,7 +9160,7 @@
         <v>0</v>
       </c>
       <c r="K291" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
@@ -9210,45 +9249,45 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="101"/>
-      <c r="B295" s="101"/>
-      <c r="C295" s="101"/>
-      <c r="D295" s="101"/>
-      <c r="E295" s="101"/>
-      <c r="F295" s="101"/>
-      <c r="G295" s="101"/>
-      <c r="H295" s="101"/>
-      <c r="I295" s="101"/>
-      <c r="J295" s="101"/>
-      <c r="K295" s="101"/>
+      <c r="A295" s="95"/>
+      <c r="B295" s="95"/>
+      <c r="C295" s="95"/>
+      <c r="D295" s="95"/>
+      <c r="E295" s="95"/>
+      <c r="F295" s="95"/>
+      <c r="G295" s="95"/>
+      <c r="H295" s="95"/>
+      <c r="I295" s="95"/>
+      <c r="J295" s="95"/>
+      <c r="K295" s="95"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="100"/>
-      <c r="B296" s="100"/>
-      <c r="C296" s="100"/>
-      <c r="D296" s="100"/>
-      <c r="E296" s="100"/>
-      <c r="F296" s="100"/>
-      <c r="G296" s="100"/>
-      <c r="H296" s="100"/>
-      <c r="I296" s="100"/>
-      <c r="J296" s="100"/>
-      <c r="K296" s="100"/>
+      <c r="A296" s="96"/>
+      <c r="B296" s="96"/>
+      <c r="C296" s="96"/>
+      <c r="D296" s="96"/>
+      <c r="E296" s="96"/>
+      <c r="F296" s="96"/>
+      <c r="G296" s="96"/>
+      <c r="H296" s="96"/>
+      <c r="I296" s="96"/>
+      <c r="J296" s="96"/>
+      <c r="K296" s="96"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="96" t="s">
-        <v>215</v>
-      </c>
-      <c r="B297" s="97"/>
-      <c r="C297" s="97"/>
-      <c r="D297" s="97"/>
-      <c r="E297" s="97"/>
-      <c r="F297" s="97"/>
-      <c r="G297" s="97"/>
-      <c r="H297" s="97"/>
-      <c r="I297" s="97"/>
-      <c r="J297" s="97"/>
-      <c r="K297" s="98"/>
+      <c r="A297" s="97" t="s">
+        <v>214</v>
+      </c>
+      <c r="B297" s="98"/>
+      <c r="C297" s="98"/>
+      <c r="D297" s="98"/>
+      <c r="E297" s="98"/>
+      <c r="F297" s="98"/>
+      <c r="G297" s="98"/>
+      <c r="H297" s="98"/>
+      <c r="I297" s="98"/>
+      <c r="J297" s="98"/>
+      <c r="K297" s="99"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
@@ -9323,7 +9362,7 @@
         <v>2</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C300" s="7" t="s">
         <v>116</v>
@@ -9354,7 +9393,7 @@
         <v>3</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C301" s="7" t="s">
         <v>14</v>
@@ -9383,7 +9422,7 @@
         <v>4</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C302" s="7" t="s">
         <v>15</v>
@@ -9495,45 +9534,45 @@
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="101"/>
-      <c r="B306" s="101"/>
-      <c r="C306" s="101"/>
-      <c r="D306" s="101"/>
-      <c r="E306" s="101"/>
-      <c r="F306" s="101"/>
-      <c r="G306" s="101"/>
-      <c r="H306" s="101"/>
-      <c r="I306" s="101"/>
-      <c r="J306" s="101"/>
-      <c r="K306" s="101"/>
+      <c r="A306" s="95"/>
+      <c r="B306" s="95"/>
+      <c r="C306" s="95"/>
+      <c r="D306" s="95"/>
+      <c r="E306" s="95"/>
+      <c r="F306" s="95"/>
+      <c r="G306" s="95"/>
+      <c r="H306" s="95"/>
+      <c r="I306" s="95"/>
+      <c r="J306" s="95"/>
+      <c r="K306" s="95"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A307" s="100"/>
-      <c r="B307" s="100"/>
-      <c r="C307" s="100"/>
-      <c r="D307" s="100"/>
-      <c r="E307" s="100"/>
-      <c r="F307" s="100"/>
-      <c r="G307" s="100"/>
-      <c r="H307" s="100"/>
-      <c r="I307" s="100"/>
-      <c r="J307" s="100"/>
-      <c r="K307" s="100"/>
+      <c r="A307" s="96"/>
+      <c r="B307" s="96"/>
+      <c r="C307" s="96"/>
+      <c r="D307" s="96"/>
+      <c r="E307" s="96"/>
+      <c r="F307" s="96"/>
+      <c r="G307" s="96"/>
+      <c r="H307" s="96"/>
+      <c r="I307" s="96"/>
+      <c r="J307" s="96"/>
+      <c r="K307" s="96"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A308" s="96" t="s">
-        <v>224</v>
-      </c>
-      <c r="B308" s="97"/>
-      <c r="C308" s="97"/>
-      <c r="D308" s="97"/>
-      <c r="E308" s="97"/>
-      <c r="F308" s="97"/>
-      <c r="G308" s="97"/>
-      <c r="H308" s="97"/>
-      <c r="I308" s="97"/>
-      <c r="J308" s="97"/>
-      <c r="K308" s="98"/>
+      <c r="A308" s="97" t="s">
+        <v>223</v>
+      </c>
+      <c r="B308" s="98"/>
+      <c r="C308" s="98"/>
+      <c r="D308" s="98"/>
+      <c r="E308" s="98"/>
+      <c r="F308" s="98"/>
+      <c r="G308" s="98"/>
+      <c r="H308" s="98"/>
+      <c r="I308" s="98"/>
+      <c r="J308" s="98"/>
+      <c r="K308" s="99"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
@@ -9608,7 +9647,7 @@
         <v>2</v>
       </c>
       <c r="B311" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C311" s="7" t="s">
         <v>116</v>
@@ -9637,7 +9676,7 @@
         <v>3</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C312" s="7" t="s">
         <v>116</v>
@@ -9666,7 +9705,7 @@
         <v>4</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C313" s="7" t="s">
         <v>9</v>
@@ -9776,45 +9815,45 @@
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A317" s="101"/>
-      <c r="B317" s="101"/>
-      <c r="C317" s="101"/>
-      <c r="D317" s="101"/>
-      <c r="E317" s="101"/>
-      <c r="F317" s="101"/>
-      <c r="G317" s="101"/>
-      <c r="H317" s="101"/>
-      <c r="I317" s="101"/>
-      <c r="J317" s="101"/>
-      <c r="K317" s="101"/>
+      <c r="A317" s="95"/>
+      <c r="B317" s="95"/>
+      <c r="C317" s="95"/>
+      <c r="D317" s="95"/>
+      <c r="E317" s="95"/>
+      <c r="F317" s="95"/>
+      <c r="G317" s="95"/>
+      <c r="H317" s="95"/>
+      <c r="I317" s="95"/>
+      <c r="J317" s="95"/>
+      <c r="K317" s="95"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="100"/>
-      <c r="B318" s="100"/>
-      <c r="C318" s="100"/>
-      <c r="D318" s="100"/>
-      <c r="E318" s="100"/>
-      <c r="F318" s="100"/>
-      <c r="G318" s="100"/>
-      <c r="H318" s="100"/>
-      <c r="I318" s="100"/>
-      <c r="J318" s="100"/>
-      <c r="K318" s="100"/>
+      <c r="A318" s="96"/>
+      <c r="B318" s="96"/>
+      <c r="C318" s="96"/>
+      <c r="D318" s="96"/>
+      <c r="E318" s="96"/>
+      <c r="F318" s="96"/>
+      <c r="G318" s="96"/>
+      <c r="H318" s="96"/>
+      <c r="I318" s="96"/>
+      <c r="J318" s="96"/>
+      <c r="K318" s="96"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="96" t="s">
-        <v>235</v>
-      </c>
-      <c r="B319" s="97"/>
-      <c r="C319" s="97"/>
-      <c r="D319" s="97"/>
-      <c r="E319" s="97"/>
-      <c r="F319" s="97"/>
-      <c r="G319" s="97"/>
-      <c r="H319" s="97"/>
-      <c r="I319" s="97"/>
-      <c r="J319" s="97"/>
-      <c r="K319" s="98"/>
+      <c r="A319" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="B319" s="98"/>
+      <c r="C319" s="98"/>
+      <c r="D319" s="98"/>
+      <c r="E319" s="98"/>
+      <c r="F319" s="98"/>
+      <c r="G319" s="98"/>
+      <c r="H319" s="98"/>
+      <c r="I319" s="98"/>
+      <c r="J319" s="98"/>
+      <c r="K319" s="99"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
@@ -9889,7 +9928,7 @@
         <v>2</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C322" s="7" t="s">
         <v>14</v>
@@ -9916,7 +9955,7 @@
         <v>3</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C323" s="7" t="s">
         <v>66</v>
@@ -9935,7 +9974,7 @@
         <v>12</v>
       </c>
       <c r="K323" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
@@ -9943,7 +9982,7 @@
         <v>4</v>
       </c>
       <c r="B324" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C324" s="7" t="s">
         <v>14</v>
@@ -10049,45 +10088,45 @@
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A328" s="101"/>
-      <c r="B328" s="101"/>
-      <c r="C328" s="101"/>
-      <c r="D328" s="101"/>
-      <c r="E328" s="101"/>
-      <c r="F328" s="101"/>
-      <c r="G328" s="101"/>
-      <c r="H328" s="101"/>
-      <c r="I328" s="101"/>
-      <c r="J328" s="101"/>
-      <c r="K328" s="101"/>
+      <c r="A328" s="95"/>
+      <c r="B328" s="95"/>
+      <c r="C328" s="95"/>
+      <c r="D328" s="95"/>
+      <c r="E328" s="95"/>
+      <c r="F328" s="95"/>
+      <c r="G328" s="95"/>
+      <c r="H328" s="95"/>
+      <c r="I328" s="95"/>
+      <c r="J328" s="95"/>
+      <c r="K328" s="95"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="100"/>
-      <c r="B329" s="100"/>
-      <c r="C329" s="100"/>
-      <c r="D329" s="100"/>
-      <c r="E329" s="100"/>
-      <c r="F329" s="100"/>
-      <c r="G329" s="100"/>
-      <c r="H329" s="100"/>
-      <c r="I329" s="100"/>
-      <c r="J329" s="100"/>
-      <c r="K329" s="100"/>
+      <c r="A329" s="96"/>
+      <c r="B329" s="96"/>
+      <c r="C329" s="96"/>
+      <c r="D329" s="96"/>
+      <c r="E329" s="96"/>
+      <c r="F329" s="96"/>
+      <c r="G329" s="96"/>
+      <c r="H329" s="96"/>
+      <c r="I329" s="96"/>
+      <c r="J329" s="96"/>
+      <c r="K329" s="96"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="96" t="s">
+      <c r="A330" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="B330" s="97"/>
-      <c r="C330" s="97"/>
-      <c r="D330" s="97"/>
-      <c r="E330" s="97"/>
-      <c r="F330" s="97"/>
-      <c r="G330" s="97"/>
-      <c r="H330" s="97"/>
-      <c r="I330" s="97"/>
-      <c r="J330" s="97"/>
-      <c r="K330" s="98"/>
+      <c r="B330" s="98"/>
+      <c r="C330" s="98"/>
+      <c r="D330" s="98"/>
+      <c r="E330" s="98"/>
+      <c r="F330" s="98"/>
+      <c r="G330" s="98"/>
+      <c r="H330" s="98"/>
+      <c r="I330" s="98"/>
+      <c r="J330" s="98"/>
+      <c r="K330" s="99"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
@@ -10162,7 +10201,7 @@
         <v>2</v>
       </c>
       <c r="B333" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C333" s="7" t="s">
         <v>9</v>
@@ -10185,7 +10224,7 @@
         <v>12</v>
       </c>
       <c r="K333" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
@@ -10239,7 +10278,7 @@
         <v>12</v>
       </c>
       <c r="K335" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
@@ -10247,7 +10286,7 @@
         <v>5</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C336" s="7" t="s">
         <v>14</v>
@@ -10272,7 +10311,7 @@
         <v>6</v>
       </c>
       <c r="B337" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>14</v>
@@ -10378,45 +10417,45 @@
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="101"/>
-      <c r="B341" s="101"/>
-      <c r="C341" s="101"/>
-      <c r="D341" s="101"/>
-      <c r="E341" s="101"/>
-      <c r="F341" s="101"/>
-      <c r="G341" s="101"/>
-      <c r="H341" s="101"/>
-      <c r="I341" s="101"/>
-      <c r="J341" s="101"/>
-      <c r="K341" s="101"/>
+      <c r="A341" s="95"/>
+      <c r="B341" s="95"/>
+      <c r="C341" s="95"/>
+      <c r="D341" s="95"/>
+      <c r="E341" s="95"/>
+      <c r="F341" s="95"/>
+      <c r="G341" s="95"/>
+      <c r="H341" s="95"/>
+      <c r="I341" s="95"/>
+      <c r="J341" s="95"/>
+      <c r="K341" s="95"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="100"/>
-      <c r="B342" s="100"/>
-      <c r="C342" s="100"/>
-      <c r="D342" s="100"/>
-      <c r="E342" s="100"/>
-      <c r="F342" s="100"/>
-      <c r="G342" s="100"/>
-      <c r="H342" s="100"/>
-      <c r="I342" s="100"/>
-      <c r="J342" s="100"/>
-      <c r="K342" s="100"/>
+      <c r="A342" s="96"/>
+      <c r="B342" s="96"/>
+      <c r="C342" s="96"/>
+      <c r="D342" s="96"/>
+      <c r="E342" s="96"/>
+      <c r="F342" s="96"/>
+      <c r="G342" s="96"/>
+      <c r="H342" s="96"/>
+      <c r="I342" s="96"/>
+      <c r="J342" s="96"/>
+      <c r="K342" s="96"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A343" s="96" t="s">
-        <v>276</v>
-      </c>
-      <c r="B343" s="97"/>
-      <c r="C343" s="97"/>
-      <c r="D343" s="97"/>
-      <c r="E343" s="97"/>
-      <c r="F343" s="97"/>
-      <c r="G343" s="97"/>
-      <c r="H343" s="97"/>
-      <c r="I343" s="97"/>
-      <c r="J343" s="97"/>
-      <c r="K343" s="98"/>
+      <c r="A343" s="97" t="s">
+        <v>275</v>
+      </c>
+      <c r="B343" s="98"/>
+      <c r="C343" s="98"/>
+      <c r="D343" s="98"/>
+      <c r="E343" s="98"/>
+      <c r="F343" s="98"/>
+      <c r="G343" s="98"/>
+      <c r="H343" s="98"/>
+      <c r="I343" s="98"/>
+      <c r="J343" s="98"/>
+      <c r="K343" s="99"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="20" t="s">
@@ -10491,7 +10530,7 @@
         <v>2</v>
       </c>
       <c r="B346" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C346" s="7" t="s">
         <v>116</v>
@@ -10520,7 +10559,7 @@
         <v>3</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C347" s="7" t="s">
         <v>14</v>
@@ -10545,7 +10584,7 @@
         <v>4</v>
       </c>
       <c r="B348" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C348" s="7" t="s">
         <v>66</v>
@@ -10649,45 +10688,45 @@
       </c>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="99"/>
-      <c r="B352" s="99"/>
-      <c r="C352" s="99"/>
-      <c r="D352" s="99"/>
-      <c r="E352" s="99"/>
-      <c r="F352" s="99"/>
-      <c r="G352" s="99"/>
-      <c r="H352" s="99"/>
-      <c r="I352" s="99"/>
-      <c r="J352" s="99"/>
-      <c r="K352" s="99"/>
+      <c r="A352" s="104"/>
+      <c r="B352" s="104"/>
+      <c r="C352" s="104"/>
+      <c r="D352" s="104"/>
+      <c r="E352" s="104"/>
+      <c r="F352" s="104"/>
+      <c r="G352" s="104"/>
+      <c r="H352" s="104"/>
+      <c r="I352" s="104"/>
+      <c r="J352" s="104"/>
+      <c r="K352" s="104"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="100"/>
-      <c r="B353" s="100"/>
-      <c r="C353" s="100"/>
-      <c r="D353" s="100"/>
-      <c r="E353" s="100"/>
-      <c r="F353" s="100"/>
-      <c r="G353" s="100"/>
-      <c r="H353" s="100"/>
-      <c r="I353" s="100"/>
-      <c r="J353" s="100"/>
-      <c r="K353" s="100"/>
+      <c r="A353" s="96"/>
+      <c r="B353" s="96"/>
+      <c r="C353" s="96"/>
+      <c r="D353" s="96"/>
+      <c r="E353" s="96"/>
+      <c r="F353" s="96"/>
+      <c r="G353" s="96"/>
+      <c r="H353" s="96"/>
+      <c r="I353" s="96"/>
+      <c r="J353" s="96"/>
+      <c r="K353" s="96"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A354" s="96" t="s">
-        <v>183</v>
-      </c>
-      <c r="B354" s="97"/>
-      <c r="C354" s="97"/>
-      <c r="D354" s="97"/>
-      <c r="E354" s="97"/>
-      <c r="F354" s="97"/>
-      <c r="G354" s="97"/>
-      <c r="H354" s="97"/>
-      <c r="I354" s="97"/>
-      <c r="J354" s="97"/>
-      <c r="K354" s="98"/>
+      <c r="A354" s="97" t="s">
+        <v>182</v>
+      </c>
+      <c r="B354" s="98"/>
+      <c r="C354" s="98"/>
+      <c r="D354" s="98"/>
+      <c r="E354" s="98"/>
+      <c r="F354" s="98"/>
+      <c r="G354" s="98"/>
+      <c r="H354" s="98"/>
+      <c r="I354" s="98"/>
+      <c r="J354" s="98"/>
+      <c r="K354" s="99"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="20" t="s">
@@ -10762,7 +10801,7 @@
         <v>2</v>
       </c>
       <c r="B357" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C357" s="7" t="s">
         <v>116</v>
@@ -10785,7 +10824,7 @@
         <v>12</v>
       </c>
       <c r="K357" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
@@ -10793,7 +10832,7 @@
         <v>3</v>
       </c>
       <c r="B358" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C358" s="7" t="s">
         <v>15</v>
@@ -10816,7 +10855,7 @@
         <v>12</v>
       </c>
       <c r="K358" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
@@ -10824,7 +10863,7 @@
         <v>4</v>
       </c>
       <c r="B359" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C359" s="7" t="s">
         <v>66</v>
@@ -10849,7 +10888,7 @@
         <v>5</v>
       </c>
       <c r="B360" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>15</v>
@@ -10870,7 +10909,7 @@
       <c r="I360" s="7"/>
       <c r="J360" s="52"/>
       <c r="K360" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
@@ -10959,45 +10998,45 @@
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="101"/>
-      <c r="B364" s="101"/>
-      <c r="C364" s="101"/>
-      <c r="D364" s="101"/>
-      <c r="E364" s="101"/>
-      <c r="F364" s="101"/>
-      <c r="G364" s="101"/>
-      <c r="H364" s="101"/>
-      <c r="I364" s="101"/>
-      <c r="J364" s="101"/>
-      <c r="K364" s="101"/>
+      <c r="A364" s="95"/>
+      <c r="B364" s="95"/>
+      <c r="C364" s="95"/>
+      <c r="D364" s="95"/>
+      <c r="E364" s="95"/>
+      <c r="F364" s="95"/>
+      <c r="G364" s="95"/>
+      <c r="H364" s="95"/>
+      <c r="I364" s="95"/>
+      <c r="J364" s="95"/>
+      <c r="K364" s="95"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="100"/>
-      <c r="B365" s="100"/>
-      <c r="C365" s="100"/>
-      <c r="D365" s="100"/>
-      <c r="E365" s="100"/>
-      <c r="F365" s="100"/>
-      <c r="G365" s="100"/>
-      <c r="H365" s="100"/>
-      <c r="I365" s="100"/>
-      <c r="J365" s="100"/>
-      <c r="K365" s="100"/>
+      <c r="A365" s="96"/>
+      <c r="B365" s="96"/>
+      <c r="C365" s="96"/>
+      <c r="D365" s="96"/>
+      <c r="E365" s="96"/>
+      <c r="F365" s="96"/>
+      <c r="G365" s="96"/>
+      <c r="H365" s="96"/>
+      <c r="I365" s="96"/>
+      <c r="J365" s="96"/>
+      <c r="K365" s="96"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="96" t="s">
-        <v>257</v>
-      </c>
-      <c r="B366" s="97"/>
-      <c r="C366" s="97"/>
-      <c r="D366" s="97"/>
-      <c r="E366" s="97"/>
-      <c r="F366" s="97"/>
-      <c r="G366" s="97"/>
-      <c r="H366" s="97"/>
-      <c r="I366" s="97"/>
-      <c r="J366" s="97"/>
-      <c r="K366" s="98"/>
+      <c r="A366" s="97" t="s">
+        <v>256</v>
+      </c>
+      <c r="B366" s="98"/>
+      <c r="C366" s="98"/>
+      <c r="D366" s="98"/>
+      <c r="E366" s="98"/>
+      <c r="F366" s="98"/>
+      <c r="G366" s="98"/>
+      <c r="H366" s="98"/>
+      <c r="I366" s="98"/>
+      <c r="J366" s="98"/>
+      <c r="K366" s="99"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="20" t="s">
@@ -11072,7 +11111,7 @@
         <v>2</v>
       </c>
       <c r="B369" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C369" s="7" t="s">
         <v>14</v>
@@ -11099,7 +11138,7 @@
         <v>3</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C370" s="7" t="s">
         <v>14</v>
@@ -11207,45 +11246,45 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="101"/>
-      <c r="B374" s="101"/>
-      <c r="C374" s="101"/>
-      <c r="D374" s="101"/>
-      <c r="E374" s="101"/>
-      <c r="F374" s="101"/>
-      <c r="G374" s="101"/>
-      <c r="H374" s="101"/>
-      <c r="I374" s="101"/>
-      <c r="J374" s="101"/>
-      <c r="K374" s="101"/>
+      <c r="A374" s="95"/>
+      <c r="B374" s="95"/>
+      <c r="C374" s="95"/>
+      <c r="D374" s="95"/>
+      <c r="E374" s="95"/>
+      <c r="F374" s="95"/>
+      <c r="G374" s="95"/>
+      <c r="H374" s="95"/>
+      <c r="I374" s="95"/>
+      <c r="J374" s="95"/>
+      <c r="K374" s="95"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="100"/>
-      <c r="B375" s="100"/>
-      <c r="C375" s="100"/>
-      <c r="D375" s="100"/>
-      <c r="E375" s="100"/>
-      <c r="F375" s="100"/>
-      <c r="G375" s="100"/>
-      <c r="H375" s="100"/>
-      <c r="I375" s="100"/>
-      <c r="J375" s="100"/>
-      <c r="K375" s="100"/>
+      <c r="A375" s="96"/>
+      <c r="B375" s="96"/>
+      <c r="C375" s="96"/>
+      <c r="D375" s="96"/>
+      <c r="E375" s="96"/>
+      <c r="F375" s="96"/>
+      <c r="G375" s="96"/>
+      <c r="H375" s="96"/>
+      <c r="I375" s="96"/>
+      <c r="J375" s="96"/>
+      <c r="K375" s="96"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="96" t="s">
-        <v>263</v>
-      </c>
-      <c r="B376" s="97"/>
-      <c r="C376" s="97"/>
-      <c r="D376" s="97"/>
-      <c r="E376" s="97"/>
-      <c r="F376" s="97"/>
-      <c r="G376" s="97"/>
-      <c r="H376" s="97"/>
-      <c r="I376" s="97"/>
-      <c r="J376" s="97"/>
-      <c r="K376" s="98"/>
+      <c r="A376" s="97" t="s">
+        <v>262</v>
+      </c>
+      <c r="B376" s="98"/>
+      <c r="C376" s="98"/>
+      <c r="D376" s="98"/>
+      <c r="E376" s="98"/>
+      <c r="F376" s="98"/>
+      <c r="G376" s="98"/>
+      <c r="H376" s="98"/>
+      <c r="I376" s="98"/>
+      <c r="J376" s="98"/>
+      <c r="K376" s="99"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="20" t="s">
@@ -11320,7 +11359,7 @@
         <v>2</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C379" s="7" t="s">
         <v>14</v>
@@ -11347,7 +11386,7 @@
         <v>3</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>14</v>
@@ -11455,45 +11494,45 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="101"/>
-      <c r="B384" s="101"/>
-      <c r="C384" s="101"/>
-      <c r="D384" s="101"/>
-      <c r="E384" s="101"/>
-      <c r="F384" s="101"/>
-      <c r="G384" s="101"/>
-      <c r="H384" s="101"/>
-      <c r="I384" s="101"/>
-      <c r="J384" s="101"/>
-      <c r="K384" s="101"/>
+      <c r="A384" s="95"/>
+      <c r="B384" s="95"/>
+      <c r="C384" s="95"/>
+      <c r="D384" s="95"/>
+      <c r="E384" s="95"/>
+      <c r="F384" s="95"/>
+      <c r="G384" s="95"/>
+      <c r="H384" s="95"/>
+      <c r="I384" s="95"/>
+      <c r="J384" s="95"/>
+      <c r="K384" s="95"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="100"/>
-      <c r="B385" s="100"/>
-      <c r="C385" s="100"/>
-      <c r="D385" s="100"/>
-      <c r="E385" s="100"/>
-      <c r="F385" s="100"/>
-      <c r="G385" s="100"/>
-      <c r="H385" s="100"/>
-      <c r="I385" s="100"/>
-      <c r="J385" s="100"/>
-      <c r="K385" s="100"/>
+      <c r="A385" s="96"/>
+      <c r="B385" s="96"/>
+      <c r="C385" s="96"/>
+      <c r="D385" s="96"/>
+      <c r="E385" s="96"/>
+      <c r="F385" s="96"/>
+      <c r="G385" s="96"/>
+      <c r="H385" s="96"/>
+      <c r="I385" s="96"/>
+      <c r="J385" s="96"/>
+      <c r="K385" s="96"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="96" t="s">
-        <v>266</v>
-      </c>
-      <c r="B386" s="97"/>
-      <c r="C386" s="97"/>
-      <c r="D386" s="97"/>
-      <c r="E386" s="97"/>
-      <c r="F386" s="97"/>
-      <c r="G386" s="97"/>
-      <c r="H386" s="97"/>
-      <c r="I386" s="97"/>
-      <c r="J386" s="97"/>
-      <c r="K386" s="98"/>
+      <c r="A386" s="97" t="s">
+        <v>265</v>
+      </c>
+      <c r="B386" s="98"/>
+      <c r="C386" s="98"/>
+      <c r="D386" s="98"/>
+      <c r="E386" s="98"/>
+      <c r="F386" s="98"/>
+      <c r="G386" s="98"/>
+      <c r="H386" s="98"/>
+      <c r="I386" s="98"/>
+      <c r="J386" s="98"/>
+      <c r="K386" s="99"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="20" t="s">
@@ -11568,7 +11607,7 @@
         <v>2</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>9</v>
@@ -11595,7 +11634,7 @@
         <v>3</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>78</v>
@@ -11697,45 +11736,45 @@
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A394" s="101"/>
-      <c r="B394" s="101"/>
-      <c r="C394" s="101"/>
-      <c r="D394" s="101"/>
-      <c r="E394" s="101"/>
-      <c r="F394" s="101"/>
-      <c r="G394" s="101"/>
-      <c r="H394" s="101"/>
-      <c r="I394" s="101"/>
-      <c r="J394" s="101"/>
-      <c r="K394" s="101"/>
+      <c r="A394" s="95"/>
+      <c r="B394" s="95"/>
+      <c r="C394" s="95"/>
+      <c r="D394" s="95"/>
+      <c r="E394" s="95"/>
+      <c r="F394" s="95"/>
+      <c r="G394" s="95"/>
+      <c r="H394" s="95"/>
+      <c r="I394" s="95"/>
+      <c r="J394" s="95"/>
+      <c r="K394" s="95"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="100"/>
-      <c r="B395" s="100"/>
-      <c r="C395" s="100"/>
-      <c r="D395" s="100"/>
-      <c r="E395" s="100"/>
-      <c r="F395" s="100"/>
-      <c r="G395" s="100"/>
-      <c r="H395" s="100"/>
-      <c r="I395" s="100"/>
-      <c r="J395" s="100"/>
-      <c r="K395" s="100"/>
+      <c r="A395" s="96"/>
+      <c r="B395" s="96"/>
+      <c r="C395" s="96"/>
+      <c r="D395" s="96"/>
+      <c r="E395" s="96"/>
+      <c r="F395" s="96"/>
+      <c r="G395" s="96"/>
+      <c r="H395" s="96"/>
+      <c r="I395" s="96"/>
+      <c r="J395" s="96"/>
+      <c r="K395" s="96"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="96" t="s">
-        <v>269</v>
-      </c>
-      <c r="B396" s="97"/>
-      <c r="C396" s="97"/>
-      <c r="D396" s="97"/>
-      <c r="E396" s="97"/>
-      <c r="F396" s="97"/>
-      <c r="G396" s="97"/>
-      <c r="H396" s="97"/>
-      <c r="I396" s="97"/>
-      <c r="J396" s="97"/>
-      <c r="K396" s="98"/>
+      <c r="A396" s="97" t="s">
+        <v>268</v>
+      </c>
+      <c r="B396" s="98"/>
+      <c r="C396" s="98"/>
+      <c r="D396" s="98"/>
+      <c r="E396" s="98"/>
+      <c r="F396" s="98"/>
+      <c r="G396" s="98"/>
+      <c r="H396" s="98"/>
+      <c r="I396" s="98"/>
+      <c r="J396" s="98"/>
+      <c r="K396" s="99"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="20" t="s">
@@ -11810,7 +11849,7 @@
         <v>2</v>
       </c>
       <c r="B399" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C399" s="7" t="s">
         <v>116</v>
@@ -11839,7 +11878,7 @@
         <v>3</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>9</v>
@@ -11866,7 +11905,7 @@
         <v>4</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>78</v>
@@ -11968,45 +12007,45 @@
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="101"/>
-      <c r="B405" s="101"/>
-      <c r="C405" s="101"/>
-      <c r="D405" s="101"/>
-      <c r="E405" s="101"/>
-      <c r="F405" s="101"/>
-      <c r="G405" s="101"/>
-      <c r="H405" s="101"/>
-      <c r="I405" s="101"/>
-      <c r="J405" s="101"/>
-      <c r="K405" s="101"/>
+      <c r="A405" s="95"/>
+      <c r="B405" s="95"/>
+      <c r="C405" s="95"/>
+      <c r="D405" s="95"/>
+      <c r="E405" s="95"/>
+      <c r="F405" s="95"/>
+      <c r="G405" s="95"/>
+      <c r="H405" s="95"/>
+      <c r="I405" s="95"/>
+      <c r="J405" s="95"/>
+      <c r="K405" s="95"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="100"/>
-      <c r="B406" s="100"/>
-      <c r="C406" s="100"/>
-      <c r="D406" s="100"/>
-      <c r="E406" s="100"/>
-      <c r="F406" s="100"/>
-      <c r="G406" s="100"/>
-      <c r="H406" s="100"/>
-      <c r="I406" s="100"/>
-      <c r="J406" s="100"/>
-      <c r="K406" s="100"/>
+      <c r="A406" s="96"/>
+      <c r="B406" s="96"/>
+      <c r="C406" s="96"/>
+      <c r="D406" s="96"/>
+      <c r="E406" s="96"/>
+      <c r="F406" s="96"/>
+      <c r="G406" s="96"/>
+      <c r="H406" s="96"/>
+      <c r="I406" s="96"/>
+      <c r="J406" s="96"/>
+      <c r="K406" s="96"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="96" t="s">
-        <v>272</v>
-      </c>
-      <c r="B407" s="97"/>
-      <c r="C407" s="97"/>
-      <c r="D407" s="97"/>
-      <c r="E407" s="97"/>
-      <c r="F407" s="97"/>
-      <c r="G407" s="97"/>
-      <c r="H407" s="97"/>
-      <c r="I407" s="97"/>
-      <c r="J407" s="97"/>
-      <c r="K407" s="98"/>
+      <c r="A407" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="B407" s="98"/>
+      <c r="C407" s="98"/>
+      <c r="D407" s="98"/>
+      <c r="E407" s="98"/>
+      <c r="F407" s="98"/>
+      <c r="G407" s="98"/>
+      <c r="H407" s="98"/>
+      <c r="I407" s="98"/>
+      <c r="J407" s="98"/>
+      <c r="K407" s="99"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="20" t="s">
@@ -12081,7 +12120,7 @@
         <v>2</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>14</v>
@@ -12186,45 +12225,45 @@
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="101"/>
-      <c r="B414" s="101"/>
-      <c r="C414" s="101"/>
-      <c r="D414" s="101"/>
-      <c r="E414" s="101"/>
-      <c r="F414" s="101"/>
-      <c r="G414" s="101"/>
-      <c r="H414" s="101"/>
-      <c r="I414" s="101"/>
-      <c r="J414" s="101"/>
-      <c r="K414" s="101"/>
+      <c r="A414" s="95"/>
+      <c r="B414" s="95"/>
+      <c r="C414" s="95"/>
+      <c r="D414" s="95"/>
+      <c r="E414" s="95"/>
+      <c r="F414" s="95"/>
+      <c r="G414" s="95"/>
+      <c r="H414" s="95"/>
+      <c r="I414" s="95"/>
+      <c r="J414" s="95"/>
+      <c r="K414" s="95"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="100"/>
-      <c r="B415" s="100"/>
-      <c r="C415" s="100"/>
-      <c r="D415" s="100"/>
-      <c r="E415" s="100"/>
-      <c r="F415" s="100"/>
-      <c r="G415" s="100"/>
-      <c r="H415" s="100"/>
-      <c r="I415" s="100"/>
-      <c r="J415" s="100"/>
-      <c r="K415" s="100"/>
+      <c r="A415" s="96"/>
+      <c r="B415" s="96"/>
+      <c r="C415" s="96"/>
+      <c r="D415" s="96"/>
+      <c r="E415" s="96"/>
+      <c r="F415" s="96"/>
+      <c r="G415" s="96"/>
+      <c r="H415" s="96"/>
+      <c r="I415" s="96"/>
+      <c r="J415" s="96"/>
+      <c r="K415" s="96"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="96" t="s">
-        <v>274</v>
-      </c>
-      <c r="B416" s="97"/>
-      <c r="C416" s="97"/>
-      <c r="D416" s="97"/>
-      <c r="E416" s="97"/>
-      <c r="F416" s="97"/>
-      <c r="G416" s="97"/>
-      <c r="H416" s="97"/>
-      <c r="I416" s="97"/>
-      <c r="J416" s="97"/>
-      <c r="K416" s="98"/>
+      <c r="A416" s="97" t="s">
+        <v>273</v>
+      </c>
+      <c r="B416" s="98"/>
+      <c r="C416" s="98"/>
+      <c r="D416" s="98"/>
+      <c r="E416" s="98"/>
+      <c r="F416" s="98"/>
+      <c r="G416" s="98"/>
+      <c r="H416" s="98"/>
+      <c r="I416" s="98"/>
+      <c r="J416" s="98"/>
+      <c r="K416" s="99"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="20" t="s">
@@ -12269,10 +12308,10 @@
         <v>25</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="D418" s="5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E418" s="5" t="s">
         <v>10</v>
@@ -12286,20 +12325,20 @@
       <c r="H418" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I418" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="J418" s="89"/>
+      <c r="I418" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="J418" s="94"/>
       <c r="K418" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="91">
+      <c r="A419" s="40">
         <v>2</v>
       </c>
       <c r="B419" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C419" s="7" t="s">
         <v>116</v>
@@ -12317,14 +12356,517 @@
       <c r="H419" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I419" s="91"/>
-      <c r="J419" s="91" t="s">
+      <c r="I419" s="92"/>
+      <c r="J419" s="92" t="s">
         <v>12</v>
       </c>
       <c r="K419" s="9"/>
     </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="40">
+        <v>3</v>
+      </c>
+      <c r="B420" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D420" s="7">
+        <v>1</v>
+      </c>
+      <c r="E420" s="7"/>
+      <c r="F420" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G420" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H420" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I420" s="92"/>
+      <c r="J420" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="K420" s="9"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="40">
+        <v>4</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D421" s="7">
+        <v>11</v>
+      </c>
+      <c r="E421" s="7"/>
+      <c r="F421" s="12">
+        <v>0</v>
+      </c>
+      <c r="G421" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H421" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I421" s="92"/>
+      <c r="J421" s="92"/>
+      <c r="K421" s="9"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="40">
+        <v>5</v>
+      </c>
+      <c r="B422" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D422" s="7">
+        <v>255</v>
+      </c>
+      <c r="E422" s="7"/>
+      <c r="F422" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G422" s="7"/>
+      <c r="H422" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I422" s="92"/>
+      <c r="J422" s="92"/>
+      <c r="K422" s="9"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="40">
+        <v>6</v>
+      </c>
+      <c r="B423" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C423" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D423" s="7">
+        <v>255</v>
+      </c>
+      <c r="E423" s="7"/>
+      <c r="F423" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G423" s="7"/>
+      <c r="H423" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I423" s="92"/>
+      <c r="J423" s="92"/>
+      <c r="K423" s="9"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="40">
+        <v>7</v>
+      </c>
+      <c r="B424" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C424" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D424" s="7"/>
+      <c r="E424" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F424" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G424" s="7"/>
+      <c r="H424" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I424" s="92"/>
+      <c r="J424" s="92"/>
+      <c r="K424" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="40">
+        <v>8</v>
+      </c>
+      <c r="B425" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C425" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D425" s="7"/>
+      <c r="E425" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F425" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G425" s="7"/>
+      <c r="H425" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I425" s="92"/>
+      <c r="J425" s="92"/>
+      <c r="K425" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="41">
+        <v>9</v>
+      </c>
+      <c r="B426" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C426" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D426" s="13">
+        <v>1</v>
+      </c>
+      <c r="E426" s="13">
+        <v>0</v>
+      </c>
+      <c r="F426" s="13">
+        <v>0</v>
+      </c>
+      <c r="G426" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H426" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I426" s="93"/>
+      <c r="J426" s="93"/>
+      <c r="K426" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="95"/>
+      <c r="B427" s="95"/>
+      <c r="C427" s="95"/>
+      <c r="D427" s="95"/>
+      <c r="E427" s="95"/>
+      <c r="F427" s="95"/>
+      <c r="G427" s="95"/>
+      <c r="H427" s="95"/>
+      <c r="I427" s="95"/>
+      <c r="J427" s="95"/>
+      <c r="K427" s="95"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" s="96"/>
+      <c r="B428" s="96"/>
+      <c r="C428" s="96"/>
+      <c r="D428" s="96"/>
+      <c r="E428" s="96"/>
+      <c r="F428" s="96"/>
+      <c r="G428" s="96"/>
+      <c r="H428" s="96"/>
+      <c r="I428" s="96"/>
+      <c r="J428" s="96"/>
+      <c r="K428" s="96"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A429" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="B429" s="98"/>
+      <c r="C429" s="98"/>
+      <c r="D429" s="98"/>
+      <c r="E429" s="98"/>
+      <c r="F429" s="98"/>
+      <c r="G429" s="98"/>
+      <c r="H429" s="98"/>
+      <c r="I429" s="98"/>
+      <c r="J429" s="98"/>
+      <c r="K429" s="99"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A430" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B430" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C430" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D430" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E430" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F430" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G430" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H430" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I430" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J430" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K430" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="39">
+        <v>1</v>
+      </c>
+      <c r="B431" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C431" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D431" s="5">
+        <v>20</v>
+      </c>
+      <c r="E431" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G431" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H431" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I431" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="J431" s="94"/>
+      <c r="K431" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" s="40">
+        <v>2</v>
+      </c>
+      <c r="B432" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D432" s="7">
+        <v>20</v>
+      </c>
+      <c r="E432" s="7"/>
+      <c r="F432" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G432" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H432" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I432" s="92"/>
+      <c r="J432" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="K432" s="9"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433" s="40">
+        <v>3</v>
+      </c>
+      <c r="B433" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D433" s="7">
+        <v>20</v>
+      </c>
+      <c r="E433" s="7"/>
+      <c r="F433" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G433" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H433" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I433" s="92"/>
+      <c r="J433" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="K433" s="9"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A434" s="40">
+        <v>4</v>
+      </c>
+      <c r="B434" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C434" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D434" s="7">
+        <v>10</v>
+      </c>
+      <c r="E434" s="7"/>
+      <c r="F434" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G434" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H434" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I434" s="92"/>
+      <c r="J434" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="K434" s="9"/>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A435" s="40">
+        <v>5</v>
+      </c>
+      <c r="B435" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="C435" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D435" s="7">
+        <v>1</v>
+      </c>
+      <c r="E435" s="7"/>
+      <c r="F435" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G435" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H435" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I435" s="92"/>
+      <c r="J435" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="K435" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A436" s="40">
+        <v>6</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C436" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D436" s="7"/>
+      <c r="E436" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F436" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G436" s="7"/>
+      <c r="H436" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I436" s="92"/>
+      <c r="J436" s="92"/>
+      <c r="K436" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" s="40">
+        <v>7</v>
+      </c>
+      <c r="B437" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C437" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D437" s="7"/>
+      <c r="E437" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F437" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G437" s="7"/>
+      <c r="H437" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I437" s="92"/>
+      <c r="J437" s="92"/>
+      <c r="K437" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A438" s="41">
+        <v>8</v>
+      </c>
+      <c r="B438" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C438" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D438" s="13">
+        <v>1</v>
+      </c>
+      <c r="E438" s="13">
+        <v>0</v>
+      </c>
+      <c r="F438" s="13">
+        <v>0</v>
+      </c>
+      <c r="G438" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H438" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I438" s="93"/>
+      <c r="J438" s="93"/>
+      <c r="K438" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="71">
+  <mergeCells count="73">
     <mergeCell ref="A414:K415"/>
     <mergeCell ref="A416:K416"/>
     <mergeCell ref="A341:K342"/>
@@ -12334,22 +12876,17 @@
     <mergeCell ref="A386:K386"/>
     <mergeCell ref="A394:K395"/>
     <mergeCell ref="A396:K396"/>
-    <mergeCell ref="A213:K214"/>
-    <mergeCell ref="A199:K199"/>
-    <mergeCell ref="A374:K375"/>
-    <mergeCell ref="A376:K376"/>
-    <mergeCell ref="A384:K385"/>
-    <mergeCell ref="A317:K318"/>
-    <mergeCell ref="A319:K319"/>
-    <mergeCell ref="A245:K246"/>
-    <mergeCell ref="A247:K247"/>
-    <mergeCell ref="A254:K255"/>
     <mergeCell ref="A308:K308"/>
     <mergeCell ref="A281:K282"/>
     <mergeCell ref="A283:K283"/>
     <mergeCell ref="A295:K296"/>
     <mergeCell ref="A297:K297"/>
     <mergeCell ref="A306:K307"/>
+    <mergeCell ref="A374:K375"/>
+    <mergeCell ref="A376:K376"/>
+    <mergeCell ref="A384:K385"/>
+    <mergeCell ref="A317:K318"/>
+    <mergeCell ref="A319:K319"/>
     <mergeCell ref="A34:K34"/>
     <mergeCell ref="A32:K33"/>
     <mergeCell ref="A364:K365"/>
@@ -12366,8 +12903,6 @@
     <mergeCell ref="A225:K225"/>
     <mergeCell ref="A223:K224"/>
     <mergeCell ref="A215:K215"/>
-    <mergeCell ref="A162:K162"/>
-    <mergeCell ref="A160:K161"/>
     <mergeCell ref="A152:K152"/>
     <mergeCell ref="A64:K65"/>
     <mergeCell ref="A66:K66"/>
@@ -12379,16 +12914,18 @@
     <mergeCell ref="A101:K102"/>
     <mergeCell ref="A89:K89"/>
     <mergeCell ref="A87:K88"/>
-    <mergeCell ref="A256:K256"/>
-    <mergeCell ref="A263:K264"/>
     <mergeCell ref="A265:K265"/>
     <mergeCell ref="A272:K273"/>
     <mergeCell ref="A274:K274"/>
-    <mergeCell ref="A197:K198"/>
-    <mergeCell ref="A187:K187"/>
-    <mergeCell ref="A185:K186"/>
-    <mergeCell ref="A175:K175"/>
-    <mergeCell ref="A173:K174"/>
+    <mergeCell ref="A162:K162"/>
+    <mergeCell ref="A160:K161"/>
+    <mergeCell ref="A213:K214"/>
+    <mergeCell ref="A199:K199"/>
+    <mergeCell ref="A245:K246"/>
+    <mergeCell ref="A247:K247"/>
+    <mergeCell ref="A254:K255"/>
+    <mergeCell ref="A427:K428"/>
+    <mergeCell ref="A429:K429"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -12396,6 +12933,13 @@
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="A11:K12"/>
     <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A197:K198"/>
+    <mergeCell ref="A187:K187"/>
+    <mergeCell ref="A185:K186"/>
+    <mergeCell ref="A175:K175"/>
+    <mergeCell ref="A173:K174"/>
+    <mergeCell ref="A256:K256"/>
+    <mergeCell ref="A263:K264"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12467,45 +13011,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="101"/>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
+      <c r="A1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="100"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="97" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="98"/>
+      <c r="I3" s="98"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="99"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -12690,45 +13234,45 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="95"/>
+      <c r="J10" s="95"/>
+      <c r="K10" s="95"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="100"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="96"/>
+      <c r="H11" s="96"/>
+      <c r="I11" s="96"/>
+      <c r="J11" s="96"/>
+      <c r="K11" s="96"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="A12" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -13000,45 +13544,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="H22" s="95"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="95"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="100"/>
-      <c r="J23" s="100"/>
-      <c r="K23" s="100"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="96"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="96"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
+      <c r="A24" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="99"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -13285,45 +13829,45 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
+      <c r="A33" s="95"/>
+      <c r="B33" s="95"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="95"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="95"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="95"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
+      <c r="A34" s="96"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="96"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="96"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="96"/>
+      <c r="J34" s="96"/>
+      <c r="K34" s="96"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="96" t="s">
+      <c r="A35" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
+      <c r="H35" s="98"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="98"/>
+      <c r="K35" s="99"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -13597,45 +14141,45 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="101"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
+      <c r="A45" s="95"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="95"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="95"/>
+      <c r="I45" s="95"/>
+      <c r="J45" s="95"/>
+      <c r="K45" s="95"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="100"/>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="100"/>
-      <c r="G46" s="100"/>
-      <c r="H46" s="100"/>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
-      <c r="K46" s="100"/>
+      <c r="A46" s="96"/>
+      <c r="B46" s="96"/>
+      <c r="C46" s="96"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="96"/>
+      <c r="G46" s="96"/>
+      <c r="H46" s="96"/>
+      <c r="I46" s="96"/>
+      <c r="J46" s="96"/>
+      <c r="K46" s="96"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="96" t="s">
+      <c r="A47" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="98"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="98"/>
+      <c r="G47" s="98"/>
+      <c r="H47" s="98"/>
+      <c r="I47" s="98"/>
+      <c r="J47" s="98"/>
+      <c r="K47" s="99"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -13878,45 +14422,45 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="101"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
+      <c r="A56" s="95"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="95"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="95"/>
+      <c r="G56" s="95"/>
+      <c r="H56" s="95"/>
+      <c r="I56" s="95"/>
+      <c r="J56" s="95"/>
+      <c r="K56" s="95"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="100"/>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
+      <c r="A57" s="96"/>
+      <c r="B57" s="96"/>
+      <c r="C57" s="96"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="96"/>
+      <c r="F57" s="96"/>
+      <c r="G57" s="96"/>
+      <c r="H57" s="96"/>
+      <c r="I57" s="96"/>
+      <c r="J57" s="96"/>
+      <c r="K57" s="96"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="96" t="s">
+      <c r="A58" s="97" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="98"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="98"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="98"/>
+      <c r="G58" s="98"/>
+      <c r="H58" s="98"/>
+      <c r="I58" s="98"/>
+      <c r="J58" s="98"/>
+      <c r="K58" s="99"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -14159,45 +14703,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="101"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="101"/>
-      <c r="K67" s="101"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="95"/>
+      <c r="D67" s="95"/>
+      <c r="E67" s="95"/>
+      <c r="F67" s="95"/>
+      <c r="G67" s="95"/>
+      <c r="H67" s="95"/>
+      <c r="I67" s="95"/>
+      <c r="J67" s="95"/>
+      <c r="K67" s="95"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="100"/>
-      <c r="B68" s="100"/>
-      <c r="C68" s="100"/>
-      <c r="D68" s="100"/>
-      <c r="E68" s="100"/>
-      <c r="F68" s="100"/>
-      <c r="G68" s="100"/>
-      <c r="H68" s="100"/>
-      <c r="I68" s="100"/>
-      <c r="J68" s="100"/>
-      <c r="K68" s="100"/>
+      <c r="A68" s="96"/>
+      <c r="B68" s="96"/>
+      <c r="C68" s="96"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="96"/>
+      <c r="F68" s="96"/>
+      <c r="G68" s="96"/>
+      <c r="H68" s="96"/>
+      <c r="I68" s="96"/>
+      <c r="J68" s="96"/>
+      <c r="K68" s="96"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="96" t="s">
+      <c r="A69" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="97"/>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="97"/>
-      <c r="J69" s="97"/>
-      <c r="K69" s="98"/>
+      <c r="B69" s="98"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="98"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="98"/>
+      <c r="I69" s="98"/>
+      <c r="J69" s="98"/>
+      <c r="K69" s="99"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -14521,45 +15065,45 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="101"/>
-      <c r="B82" s="101"/>
-      <c r="C82" s="101"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="101"/>
-      <c r="G82" s="101"/>
-      <c r="H82" s="101"/>
-      <c r="I82" s="101"/>
-      <c r="J82" s="101"/>
-      <c r="K82" s="101"/>
+      <c r="A82" s="95"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="95"/>
+      <c r="G82" s="95"/>
+      <c r="H82" s="95"/>
+      <c r="I82" s="95"/>
+      <c r="J82" s="95"/>
+      <c r="K82" s="95"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="100"/>
-      <c r="B83" s="100"/>
-      <c r="C83" s="100"/>
-      <c r="D83" s="100"/>
-      <c r="E83" s="100"/>
-      <c r="F83" s="100"/>
-      <c r="G83" s="100"/>
-      <c r="H83" s="100"/>
-      <c r="I83" s="100"/>
-      <c r="J83" s="100"/>
-      <c r="K83" s="100"/>
+      <c r="A83" s="96"/>
+      <c r="B83" s="96"/>
+      <c r="C83" s="96"/>
+      <c r="D83" s="96"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="96"/>
+      <c r="G83" s="96"/>
+      <c r="H83" s="96"/>
+      <c r="I83" s="96"/>
+      <c r="J83" s="96"/>
+      <c r="K83" s="96"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="96" t="s">
-        <v>193</v>
-      </c>
-      <c r="B84" s="97"/>
-      <c r="C84" s="97"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="97"/>
-      <c r="G84" s="97"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="97"/>
-      <c r="J84" s="97"/>
-      <c r="K84" s="98"/>
+      <c r="A84" s="97" t="s">
+        <v>192</v>
+      </c>
+      <c r="B84" s="98"/>
+      <c r="C84" s="98"/>
+      <c r="D84" s="98"/>
+      <c r="E84" s="98"/>
+      <c r="F84" s="98"/>
+      <c r="G84" s="98"/>
+      <c r="H84" s="98"/>
+      <c r="I84" s="98"/>
+      <c r="J84" s="98"/>
+      <c r="K84" s="99"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
@@ -14634,7 +15178,7 @@
         <v>2</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>66</v>
@@ -14740,45 +15284,45 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="101"/>
-      <c r="B91" s="101"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
+      <c r="A91" s="95"/>
+      <c r="B91" s="95"/>
+      <c r="C91" s="95"/>
+      <c r="D91" s="95"/>
+      <c r="E91" s="95"/>
+      <c r="F91" s="95"/>
+      <c r="G91" s="95"/>
+      <c r="H91" s="95"/>
+      <c r="I91" s="95"/>
+      <c r="J91" s="95"/>
+      <c r="K91" s="95"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="100"/>
-      <c r="B92" s="100"/>
-      <c r="C92" s="100"/>
-      <c r="D92" s="100"/>
-      <c r="E92" s="100"/>
-      <c r="F92" s="100"/>
-      <c r="G92" s="100"/>
-      <c r="H92" s="100"/>
-      <c r="I92" s="100"/>
-      <c r="J92" s="100"/>
-      <c r="K92" s="100"/>
+      <c r="A92" s="96"/>
+      <c r="B92" s="96"/>
+      <c r="C92" s="96"/>
+      <c r="D92" s="96"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="96"/>
+      <c r="G92" s="96"/>
+      <c r="H92" s="96"/>
+      <c r="I92" s="96"/>
+      <c r="J92" s="96"/>
+      <c r="K92" s="96"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="96" t="s">
-        <v>192</v>
-      </c>
-      <c r="B93" s="97"/>
-      <c r="C93" s="97"/>
-      <c r="D93" s="97"/>
-      <c r="E93" s="97"/>
-      <c r="F93" s="97"/>
-      <c r="G93" s="97"/>
-      <c r="H93" s="97"/>
-      <c r="I93" s="97"/>
-      <c r="J93" s="97"/>
-      <c r="K93" s="98"/>
+      <c r="A93" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="B93" s="98"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="98"/>
+      <c r="E93" s="98"/>
+      <c r="F93" s="98"/>
+      <c r="G93" s="98"/>
+      <c r="H93" s="98"/>
+      <c r="I93" s="98"/>
+      <c r="J93" s="98"/>
+      <c r="K93" s="99"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -14853,7 +15397,7 @@
         <v>2</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C96" s="7" t="s">
         <v>116</v>
@@ -14871,7 +15415,7 @@
         <v>11</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I96" s="52"/>
       <c r="J96" s="52" t="s">
@@ -14884,7 +15428,7 @@
         <v>3</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C97" s="7" t="s">
         <v>14</v>
@@ -14913,7 +15457,7 @@
         <v>4</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C98" s="7" t="s">
         <v>15</v>
@@ -15025,45 +15569,45 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="101"/>
-      <c r="B103" s="101"/>
-      <c r="C103" s="101"/>
-      <c r="D103" s="101"/>
-      <c r="E103" s="101"/>
-      <c r="F103" s="101"/>
-      <c r="G103" s="101"/>
-      <c r="H103" s="101"/>
-      <c r="I103" s="101"/>
-      <c r="J103" s="101"/>
-      <c r="K103" s="101"/>
+      <c r="A103" s="95"/>
+      <c r="B103" s="95"/>
+      <c r="C103" s="95"/>
+      <c r="D103" s="95"/>
+      <c r="E103" s="95"/>
+      <c r="F103" s="95"/>
+      <c r="G103" s="95"/>
+      <c r="H103" s="95"/>
+      <c r="I103" s="95"/>
+      <c r="J103" s="95"/>
+      <c r="K103" s="95"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="100"/>
-      <c r="B104" s="100"/>
-      <c r="C104" s="100"/>
-      <c r="D104" s="100"/>
-      <c r="E104" s="100"/>
-      <c r="F104" s="100"/>
-      <c r="G104" s="100"/>
-      <c r="H104" s="100"/>
-      <c r="I104" s="100"/>
-      <c r="J104" s="100"/>
-      <c r="K104" s="100"/>
+      <c r="A104" s="96"/>
+      <c r="B104" s="96"/>
+      <c r="C104" s="96"/>
+      <c r="D104" s="96"/>
+      <c r="E104" s="96"/>
+      <c r="F104" s="96"/>
+      <c r="G104" s="96"/>
+      <c r="H104" s="96"/>
+      <c r="I104" s="96"/>
+      <c r="J104" s="96"/>
+      <c r="K104" s="96"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="96" t="s">
+      <c r="A105" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="97"/>
-      <c r="C105" s="97"/>
-      <c r="D105" s="97"/>
-      <c r="E105" s="97"/>
-      <c r="F105" s="97"/>
-      <c r="G105" s="97"/>
-      <c r="H105" s="97"/>
-      <c r="I105" s="97"/>
-      <c r="J105" s="97"/>
-      <c r="K105" s="98"/>
+      <c r="B105" s="98"/>
+      <c r="C105" s="98"/>
+      <c r="D105" s="98"/>
+      <c r="E105" s="98"/>
+      <c r="F105" s="98"/>
+      <c r="G105" s="98"/>
+      <c r="H105" s="98"/>
+      <c r="I105" s="98"/>
+      <c r="J105" s="98"/>
+      <c r="K105" s="99"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
@@ -15194,45 +15738,45 @@
       <c r="K109" s="14"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="101"/>
-      <c r="B110" s="101"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
-      <c r="G110" s="101"/>
-      <c r="H110" s="101"/>
-      <c r="I110" s="101"/>
-      <c r="J110" s="101"/>
-      <c r="K110" s="101"/>
+      <c r="A110" s="95"/>
+      <c r="B110" s="95"/>
+      <c r="C110" s="95"/>
+      <c r="D110" s="95"/>
+      <c r="E110" s="95"/>
+      <c r="F110" s="95"/>
+      <c r="G110" s="95"/>
+      <c r="H110" s="95"/>
+      <c r="I110" s="95"/>
+      <c r="J110" s="95"/>
+      <c r="K110" s="95"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="100"/>
-      <c r="B111" s="100"/>
-      <c r="C111" s="100"/>
-      <c r="D111" s="100"/>
-      <c r="E111" s="100"/>
-      <c r="F111" s="100"/>
-      <c r="G111" s="100"/>
-      <c r="H111" s="100"/>
-      <c r="I111" s="100"/>
-      <c r="J111" s="100"/>
-      <c r="K111" s="100"/>
+      <c r="A111" s="96"/>
+      <c r="B111" s="96"/>
+      <c r="C111" s="96"/>
+      <c r="D111" s="96"/>
+      <c r="E111" s="96"/>
+      <c r="F111" s="96"/>
+      <c r="G111" s="96"/>
+      <c r="H111" s="96"/>
+      <c r="I111" s="96"/>
+      <c r="J111" s="96"/>
+      <c r="K111" s="96"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="96" t="s">
+      <c r="A112" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="97"/>
-      <c r="C112" s="97"/>
-      <c r="D112" s="97"/>
-      <c r="E112" s="97"/>
-      <c r="F112" s="97"/>
-      <c r="G112" s="97"/>
-      <c r="H112" s="97"/>
-      <c r="I112" s="97"/>
-      <c r="J112" s="97"/>
-      <c r="K112" s="98"/>
+      <c r="B112" s="98"/>
+      <c r="C112" s="98"/>
+      <c r="D112" s="98"/>
+      <c r="E112" s="98"/>
+      <c r="F112" s="98"/>
+      <c r="G112" s="98"/>
+      <c r="H112" s="98"/>
+      <c r="I112" s="98"/>
+      <c r="J112" s="98"/>
+      <c r="K112" s="99"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -1750,8 +1750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A429" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A429" sqref="A429:K438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2803" uniqueCount="301">
   <si>
     <t>No</t>
   </si>
@@ -916,6 +916,9 @@
   </si>
   <si>
     <t>trp_status</t>
+  </si>
+  <si>
+    <t>1 - Active, 0 - Inactive</t>
   </si>
 </sst>
 </file>
@@ -1793,7 +1796,7 @@
   <dimension ref="A1:K460"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+      <selection activeCell="K73" sqref="K73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3575,10 +3578,10 @@
         <v>297</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="D70" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7" t="s">
@@ -3604,18 +3607,16 @@
         <v>298</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D71" s="7">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="G71" s="7"/>
       <c r="H71" s="7" t="s">
         <v>0</v>
       </c>
@@ -3653,7 +3654,7 @@
         <v>12</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="304">
   <si>
     <t>No</t>
   </si>
@@ -922,6 +922,12 @@
   </si>
   <si>
     <t>t_social_accesstoken</t>
+  </si>
+  <si>
+    <t>pf_video_type</t>
+  </si>
+  <si>
+    <t>1 - Normal , 2 - Youtube, 3 - Vimeo</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1456,6 +1462,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1471,6 +1480,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,9 +1494,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1799,10 +1808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K461"/>
+  <dimension ref="A1:K462"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K361" sqref="K361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1822,49 +1831,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="111"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="104" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="106"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -2070,45 +2079,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
-      <c r="B11" s="101"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="101"/>
+      <c r="A11" s="102"/>
+      <c r="B11" s="102"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="102"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="102"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="102"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="103"/>
+      <c r="K12" s="103"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="112" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="112"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="114"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
@@ -2314,45 +2323,45 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
+      <c r="A21" s="107"/>
+      <c r="B21" s="107"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="107"/>
+      <c r="I21" s="107"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="103" t="s">
+      <c r="A23" s="104" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="104"/>
-      <c r="C23" s="104"/>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="104"/>
-      <c r="K23" s="105"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="106"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2585,45 +2594,45 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="101"/>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
+      <c r="A32" s="102"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="102"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="102"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="102"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
+      <c r="A33" s="103"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="103"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="103" t="s">
+      <c r="A34" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="104"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="104"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="104"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="105"/>
+      <c r="B34" s="105"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="106"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
@@ -3464,45 +3473,45 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="101"/>
-      <c r="B65" s="101"/>
-      <c r="C65" s="101"/>
-      <c r="D65" s="101"/>
-      <c r="E65" s="101"/>
-      <c r="F65" s="101"/>
-      <c r="G65" s="101"/>
-      <c r="H65" s="101"/>
-      <c r="I65" s="101"/>
-      <c r="J65" s="101"/>
-      <c r="K65" s="101"/>
+      <c r="A65" s="102"/>
+      <c r="B65" s="102"/>
+      <c r="C65" s="102"/>
+      <c r="D65" s="102"/>
+      <c r="E65" s="102"/>
+      <c r="F65" s="102"/>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="102"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="102"/>
-      <c r="B66" s="102"/>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
-      <c r="F66" s="102"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
-      <c r="I66" s="102"/>
-      <c r="J66" s="102"/>
-      <c r="K66" s="102"/>
+      <c r="A66" s="103"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="103"/>
+      <c r="D66" s="103"/>
+      <c r="E66" s="103"/>
+      <c r="F66" s="103"/>
+      <c r="G66" s="103"/>
+      <c r="H66" s="103"/>
+      <c r="I66" s="103"/>
+      <c r="J66" s="103"/>
+      <c r="K66" s="103"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="103" t="s">
+      <c r="A67" s="104" t="s">
         <v>295</v>
       </c>
-      <c r="B67" s="104"/>
-      <c r="C67" s="104"/>
-      <c r="D67" s="104"/>
-      <c r="E67" s="104"/>
-      <c r="F67" s="104"/>
-      <c r="G67" s="104"/>
-      <c r="H67" s="104"/>
-      <c r="I67" s="104"/>
-      <c r="J67" s="104"/>
-      <c r="K67" s="105"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="106"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -3743,45 +3752,45 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="101"/>
-      <c r="B76" s="101"/>
-      <c r="C76" s="101"/>
-      <c r="D76" s="101"/>
-      <c r="E76" s="101"/>
-      <c r="F76" s="101"/>
-      <c r="G76" s="101"/>
-      <c r="H76" s="101"/>
-      <c r="I76" s="101"/>
-      <c r="J76" s="101"/>
-      <c r="K76" s="101"/>
+      <c r="A76" s="102"/>
+      <c r="B76" s="102"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="102"/>
+      <c r="I76" s="102"/>
+      <c r="J76" s="102"/>
+      <c r="K76" s="102"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="102"/>
-      <c r="B77" s="102"/>
-      <c r="C77" s="102"/>
-      <c r="D77" s="102"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="102"/>
-      <c r="G77" s="102"/>
-      <c r="H77" s="102"/>
-      <c r="I77" s="102"/>
-      <c r="J77" s="102"/>
-      <c r="K77" s="102"/>
+      <c r="A77" s="103"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="103"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="103"/>
+      <c r="I77" s="103"/>
+      <c r="J77" s="103"/>
+      <c r="K77" s="103"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="103" t="s">
+      <c r="A78" s="104" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="104"/>
-      <c r="C78" s="104"/>
-      <c r="D78" s="104"/>
-      <c r="E78" s="104"/>
-      <c r="F78" s="104"/>
-      <c r="G78" s="104"/>
-      <c r="H78" s="104"/>
-      <c r="I78" s="104"/>
-      <c r="J78" s="104"/>
-      <c r="K78" s="105"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
+      <c r="J78" s="105"/>
+      <c r="K78" s="106"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
@@ -3995,45 +4004,45 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="110"/>
-      <c r="B86" s="110"/>
-      <c r="C86" s="110"/>
-      <c r="D86" s="110"/>
-      <c r="E86" s="110"/>
-      <c r="F86" s="110"/>
-      <c r="G86" s="110"/>
-      <c r="H86" s="110"/>
-      <c r="I86" s="110"/>
-      <c r="J86" s="110"/>
-      <c r="K86" s="110"/>
+      <c r="A86" s="107"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="107"/>
+      <c r="D86" s="107"/>
+      <c r="E86" s="107"/>
+      <c r="F86" s="107"/>
+      <c r="G86" s="107"/>
+      <c r="H86" s="107"/>
+      <c r="I86" s="107"/>
+      <c r="J86" s="107"/>
+      <c r="K86" s="107"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="102"/>
-      <c r="B87" s="102"/>
-      <c r="C87" s="102"/>
-      <c r="D87" s="102"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="102"/>
-      <c r="H87" s="102"/>
-      <c r="I87" s="102"/>
-      <c r="J87" s="102"/>
-      <c r="K87" s="102"/>
+      <c r="A87" s="103"/>
+      <c r="B87" s="103"/>
+      <c r="C87" s="103"/>
+      <c r="D87" s="103"/>
+      <c r="E87" s="103"/>
+      <c r="F87" s="103"/>
+      <c r="G87" s="103"/>
+      <c r="H87" s="103"/>
+      <c r="I87" s="103"/>
+      <c r="J87" s="103"/>
+      <c r="K87" s="103"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="103" t="s">
+      <c r="A88" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="104"/>
-      <c r="C88" s="104"/>
-      <c r="D88" s="104"/>
-      <c r="E88" s="104"/>
-      <c r="F88" s="104"/>
-      <c r="G88" s="104"/>
-      <c r="H88" s="104"/>
-      <c r="I88" s="104"/>
-      <c r="J88" s="104"/>
-      <c r="K88" s="105"/>
+      <c r="B88" s="105"/>
+      <c r="C88" s="105"/>
+      <c r="D88" s="105"/>
+      <c r="E88" s="105"/>
+      <c r="F88" s="105"/>
+      <c r="G88" s="105"/>
+      <c r="H88" s="105"/>
+      <c r="I88" s="105"/>
+      <c r="J88" s="105"/>
+      <c r="K88" s="106"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -4322,45 +4331,45 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="110"/>
-      <c r="B99" s="110"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="110"/>
-      <c r="G99" s="110"/>
-      <c r="H99" s="110"/>
-      <c r="I99" s="110"/>
-      <c r="J99" s="110"/>
-      <c r="K99" s="110"/>
+      <c r="A99" s="107"/>
+      <c r="B99" s="107"/>
+      <c r="C99" s="107"/>
+      <c r="D99" s="107"/>
+      <c r="E99" s="107"/>
+      <c r="F99" s="107"/>
+      <c r="G99" s="107"/>
+      <c r="H99" s="107"/>
+      <c r="I99" s="107"/>
+      <c r="J99" s="107"/>
+      <c r="K99" s="107"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="102"/>
-      <c r="B100" s="102"/>
-      <c r="C100" s="102"/>
-      <c r="D100" s="102"/>
-      <c r="E100" s="102"/>
-      <c r="F100" s="102"/>
-      <c r="G100" s="102"/>
-      <c r="H100" s="102"/>
-      <c r="I100" s="102"/>
-      <c r="J100" s="102"/>
-      <c r="K100" s="102"/>
+      <c r="A100" s="103"/>
+      <c r="B100" s="103"/>
+      <c r="C100" s="103"/>
+      <c r="D100" s="103"/>
+      <c r="E100" s="103"/>
+      <c r="F100" s="103"/>
+      <c r="G100" s="103"/>
+      <c r="H100" s="103"/>
+      <c r="I100" s="103"/>
+      <c r="J100" s="103"/>
+      <c r="K100" s="103"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="103" t="s">
+      <c r="A101" s="104" t="s">
         <v>291</v>
       </c>
-      <c r="B101" s="104"/>
-      <c r="C101" s="104"/>
-      <c r="D101" s="104"/>
-      <c r="E101" s="104"/>
-      <c r="F101" s="104"/>
-      <c r="G101" s="104"/>
-      <c r="H101" s="104"/>
-      <c r="I101" s="104"/>
-      <c r="J101" s="104"/>
-      <c r="K101" s="105"/>
+      <c r="B101" s="105"/>
+      <c r="C101" s="105"/>
+      <c r="D101" s="105"/>
+      <c r="E101" s="105"/>
+      <c r="F101" s="105"/>
+      <c r="G101" s="105"/>
+      <c r="H101" s="105"/>
+      <c r="I101" s="105"/>
+      <c r="J101" s="105"/>
+      <c r="K101" s="106"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
@@ -4601,45 +4610,45 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="101"/>
-      <c r="B110" s="101"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
-      <c r="G110" s="101"/>
-      <c r="H110" s="101"/>
-      <c r="I110" s="101"/>
-      <c r="J110" s="101"/>
-      <c r="K110" s="101"/>
+      <c r="A110" s="102"/>
+      <c r="B110" s="102"/>
+      <c r="C110" s="102"/>
+      <c r="D110" s="102"/>
+      <c r="E110" s="102"/>
+      <c r="F110" s="102"/>
+      <c r="G110" s="102"/>
+      <c r="H110" s="102"/>
+      <c r="I110" s="102"/>
+      <c r="J110" s="102"/>
+      <c r="K110" s="102"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="102"/>
-      <c r="B111" s="102"/>
-      <c r="C111" s="102"/>
-      <c r="D111" s="102"/>
-      <c r="E111" s="102"/>
-      <c r="F111" s="102"/>
-      <c r="G111" s="102"/>
-      <c r="H111" s="102"/>
-      <c r="I111" s="102"/>
-      <c r="J111" s="102"/>
-      <c r="K111" s="102"/>
+      <c r="A111" s="103"/>
+      <c r="B111" s="103"/>
+      <c r="C111" s="103"/>
+      <c r="D111" s="103"/>
+      <c r="E111" s="103"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="103"/>
+      <c r="H111" s="103"/>
+      <c r="I111" s="103"/>
+      <c r="J111" s="103"/>
+      <c r="K111" s="103"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="103" t="s">
+      <c r="A112" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="B112" s="104"/>
-      <c r="C112" s="104"/>
-      <c r="D112" s="104"/>
-      <c r="E112" s="104"/>
-      <c r="F112" s="104"/>
-      <c r="G112" s="104"/>
-      <c r="H112" s="104"/>
-      <c r="I112" s="104"/>
-      <c r="J112" s="104"/>
-      <c r="K112" s="105"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="105"/>
+      <c r="G112" s="105"/>
+      <c r="H112" s="105"/>
+      <c r="I112" s="105"/>
+      <c r="J112" s="105"/>
+      <c r="K112" s="106"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -4967,45 +4976,45 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="101"/>
-      <c r="B124" s="101"/>
-      <c r="C124" s="101"/>
-      <c r="D124" s="101"/>
-      <c r="E124" s="101"/>
-      <c r="F124" s="101"/>
-      <c r="G124" s="101"/>
-      <c r="H124" s="101"/>
-      <c r="I124" s="101"/>
-      <c r="J124" s="101"/>
-      <c r="K124" s="101"/>
+      <c r="A124" s="102"/>
+      <c r="B124" s="102"/>
+      <c r="C124" s="102"/>
+      <c r="D124" s="102"/>
+      <c r="E124" s="102"/>
+      <c r="F124" s="102"/>
+      <c r="G124" s="102"/>
+      <c r="H124" s="102"/>
+      <c r="I124" s="102"/>
+      <c r="J124" s="102"/>
+      <c r="K124" s="102"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="102"/>
-      <c r="B125" s="102"/>
-      <c r="C125" s="102"/>
-      <c r="D125" s="102"/>
-      <c r="E125" s="102"/>
-      <c r="F125" s="102"/>
-      <c r="G125" s="102"/>
-      <c r="H125" s="102"/>
-      <c r="I125" s="102"/>
-      <c r="J125" s="102"/>
-      <c r="K125" s="102"/>
+      <c r="A125" s="103"/>
+      <c r="B125" s="103"/>
+      <c r="C125" s="103"/>
+      <c r="D125" s="103"/>
+      <c r="E125" s="103"/>
+      <c r="F125" s="103"/>
+      <c r="G125" s="103"/>
+      <c r="H125" s="103"/>
+      <c r="I125" s="103"/>
+      <c r="J125" s="103"/>
+      <c r="K125" s="103"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="103" t="s">
+      <c r="A126" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="B126" s="104"/>
-      <c r="C126" s="104"/>
-      <c r="D126" s="104"/>
-      <c r="E126" s="104"/>
-      <c r="F126" s="104"/>
-      <c r="G126" s="104"/>
-      <c r="H126" s="104"/>
-      <c r="I126" s="104"/>
-      <c r="J126" s="104"/>
-      <c r="K126" s="105"/>
+      <c r="B126" s="105"/>
+      <c r="C126" s="105"/>
+      <c r="D126" s="105"/>
+      <c r="E126" s="105"/>
+      <c r="F126" s="105"/>
+      <c r="G126" s="105"/>
+      <c r="H126" s="105"/>
+      <c r="I126" s="105"/>
+      <c r="J126" s="105"/>
+      <c r="K126" s="106"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
@@ -5352,45 +5361,45 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="101"/>
-      <c r="B139" s="101"/>
-      <c r="C139" s="101"/>
-      <c r="D139" s="101"/>
-      <c r="E139" s="101"/>
-      <c r="F139" s="101"/>
-      <c r="G139" s="101"/>
-      <c r="H139" s="101"/>
-      <c r="I139" s="101"/>
-      <c r="J139" s="101"/>
-      <c r="K139" s="101"/>
+      <c r="A139" s="102"/>
+      <c r="B139" s="102"/>
+      <c r="C139" s="102"/>
+      <c r="D139" s="102"/>
+      <c r="E139" s="102"/>
+      <c r="F139" s="102"/>
+      <c r="G139" s="102"/>
+      <c r="H139" s="102"/>
+      <c r="I139" s="102"/>
+      <c r="J139" s="102"/>
+      <c r="K139" s="102"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="102"/>
-      <c r="B140" s="102"/>
-      <c r="C140" s="102"/>
-      <c r="D140" s="102"/>
-      <c r="E140" s="102"/>
-      <c r="F140" s="102"/>
-      <c r="G140" s="102"/>
-      <c r="H140" s="102"/>
-      <c r="I140" s="102"/>
-      <c r="J140" s="102"/>
-      <c r="K140" s="102"/>
+      <c r="A140" s="103"/>
+      <c r="B140" s="103"/>
+      <c r="C140" s="103"/>
+      <c r="D140" s="103"/>
+      <c r="E140" s="103"/>
+      <c r="F140" s="103"/>
+      <c r="G140" s="103"/>
+      <c r="H140" s="103"/>
+      <c r="I140" s="103"/>
+      <c r="J140" s="103"/>
+      <c r="K140" s="103"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="103" t="s">
+      <c r="A141" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="B141" s="104"/>
-      <c r="C141" s="104"/>
-      <c r="D141" s="104"/>
-      <c r="E141" s="104"/>
-      <c r="F141" s="104"/>
-      <c r="G141" s="104"/>
-      <c r="H141" s="104"/>
-      <c r="I141" s="104"/>
-      <c r="J141" s="104"/>
-      <c r="K141" s="105"/>
+      <c r="B141" s="105"/>
+      <c r="C141" s="105"/>
+      <c r="D141" s="105"/>
+      <c r="E141" s="105"/>
+      <c r="F141" s="105"/>
+      <c r="G141" s="105"/>
+      <c r="H141" s="105"/>
+      <c r="I141" s="105"/>
+      <c r="J141" s="105"/>
+      <c r="K141" s="106"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
@@ -5803,45 +5812,45 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="101"/>
-      <c r="B156" s="101"/>
-      <c r="C156" s="101"/>
-      <c r="D156" s="101"/>
-      <c r="E156" s="101"/>
-      <c r="F156" s="101"/>
-      <c r="G156" s="101"/>
-      <c r="H156" s="101"/>
-      <c r="I156" s="101"/>
-      <c r="J156" s="101"/>
-      <c r="K156" s="101"/>
+      <c r="A156" s="102"/>
+      <c r="B156" s="102"/>
+      <c r="C156" s="102"/>
+      <c r="D156" s="102"/>
+      <c r="E156" s="102"/>
+      <c r="F156" s="102"/>
+      <c r="G156" s="102"/>
+      <c r="H156" s="102"/>
+      <c r="I156" s="102"/>
+      <c r="J156" s="102"/>
+      <c r="K156" s="102"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="102"/>
-      <c r="B157" s="102"/>
-      <c r="C157" s="102"/>
-      <c r="D157" s="102"/>
-      <c r="E157" s="102"/>
-      <c r="F157" s="102"/>
-      <c r="G157" s="102"/>
-      <c r="H157" s="102"/>
-      <c r="I157" s="102"/>
-      <c r="J157" s="102"/>
-      <c r="K157" s="102"/>
+      <c r="A157" s="103"/>
+      <c r="B157" s="103"/>
+      <c r="C157" s="103"/>
+      <c r="D157" s="103"/>
+      <c r="E157" s="103"/>
+      <c r="F157" s="103"/>
+      <c r="G157" s="103"/>
+      <c r="H157" s="103"/>
+      <c r="I157" s="103"/>
+      <c r="J157" s="103"/>
+      <c r="K157" s="103"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="103" t="s">
+      <c r="A158" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="B158" s="104"/>
-      <c r="C158" s="104"/>
-      <c r="D158" s="104"/>
-      <c r="E158" s="104"/>
-      <c r="F158" s="104"/>
-      <c r="G158" s="104"/>
-      <c r="H158" s="104"/>
-      <c r="I158" s="104"/>
-      <c r="J158" s="104"/>
-      <c r="K158" s="105"/>
+      <c r="B158" s="105"/>
+      <c r="C158" s="105"/>
+      <c r="D158" s="105"/>
+      <c r="E158" s="105"/>
+      <c r="F158" s="105"/>
+      <c r="G158" s="105"/>
+      <c r="H158" s="105"/>
+      <c r="I158" s="105"/>
+      <c r="J158" s="105"/>
+      <c r="K158" s="106"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -6234,45 +6243,45 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="101"/>
-      <c r="B173" s="101"/>
-      <c r="C173" s="101"/>
-      <c r="D173" s="101"/>
-      <c r="E173" s="101"/>
-      <c r="F173" s="101"/>
-      <c r="G173" s="101"/>
-      <c r="H173" s="101"/>
-      <c r="I173" s="101"/>
-      <c r="J173" s="101"/>
-      <c r="K173" s="101"/>
+      <c r="A173" s="102"/>
+      <c r="B173" s="102"/>
+      <c r="C173" s="102"/>
+      <c r="D173" s="102"/>
+      <c r="E173" s="102"/>
+      <c r="F173" s="102"/>
+      <c r="G173" s="102"/>
+      <c r="H173" s="102"/>
+      <c r="I173" s="102"/>
+      <c r="J173" s="102"/>
+      <c r="K173" s="102"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="102"/>
-      <c r="B174" s="102"/>
-      <c r="C174" s="102"/>
-      <c r="D174" s="102"/>
-      <c r="E174" s="102"/>
-      <c r="F174" s="102"/>
-      <c r="G174" s="102"/>
-      <c r="H174" s="102"/>
-      <c r="I174" s="102"/>
-      <c r="J174" s="102"/>
-      <c r="K174" s="102"/>
+      <c r="A174" s="103"/>
+      <c r="B174" s="103"/>
+      <c r="C174" s="103"/>
+      <c r="D174" s="103"/>
+      <c r="E174" s="103"/>
+      <c r="F174" s="103"/>
+      <c r="G174" s="103"/>
+      <c r="H174" s="103"/>
+      <c r="I174" s="103"/>
+      <c r="J174" s="103"/>
+      <c r="K174" s="103"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="103" t="s">
+      <c r="A175" s="104" t="s">
         <v>134</v>
       </c>
-      <c r="B175" s="104"/>
-      <c r="C175" s="104"/>
-      <c r="D175" s="104"/>
-      <c r="E175" s="104"/>
-      <c r="F175" s="104"/>
-      <c r="G175" s="104"/>
-      <c r="H175" s="104"/>
-      <c r="I175" s="104"/>
-      <c r="J175" s="104"/>
-      <c r="K175" s="105"/>
+      <c r="B175" s="105"/>
+      <c r="C175" s="105"/>
+      <c r="D175" s="105"/>
+      <c r="E175" s="105"/>
+      <c r="F175" s="105"/>
+      <c r="G175" s="105"/>
+      <c r="H175" s="105"/>
+      <c r="I175" s="105"/>
+      <c r="J175" s="105"/>
+      <c r="K175" s="106"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
@@ -6486,45 +6495,45 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="101"/>
-      <c r="B183" s="101"/>
-      <c r="C183" s="101"/>
-      <c r="D183" s="101"/>
-      <c r="E183" s="101"/>
-      <c r="F183" s="101"/>
-      <c r="G183" s="101"/>
-      <c r="H183" s="101"/>
-      <c r="I183" s="101"/>
-      <c r="J183" s="101"/>
-      <c r="K183" s="101"/>
+      <c r="A183" s="102"/>
+      <c r="B183" s="102"/>
+      <c r="C183" s="102"/>
+      <c r="D183" s="102"/>
+      <c r="E183" s="102"/>
+      <c r="F183" s="102"/>
+      <c r="G183" s="102"/>
+      <c r="H183" s="102"/>
+      <c r="I183" s="102"/>
+      <c r="J183" s="102"/>
+      <c r="K183" s="102"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="102"/>
-      <c r="B184" s="102"/>
-      <c r="C184" s="102"/>
-      <c r="D184" s="102"/>
-      <c r="E184" s="102"/>
-      <c r="F184" s="102"/>
-      <c r="G184" s="102"/>
-      <c r="H184" s="102"/>
-      <c r="I184" s="102"/>
-      <c r="J184" s="102"/>
-      <c r="K184" s="102"/>
+      <c r="A184" s="103"/>
+      <c r="B184" s="103"/>
+      <c r="C184" s="103"/>
+      <c r="D184" s="103"/>
+      <c r="E184" s="103"/>
+      <c r="F184" s="103"/>
+      <c r="G184" s="103"/>
+      <c r="H184" s="103"/>
+      <c r="I184" s="103"/>
+      <c r="J184" s="103"/>
+      <c r="K184" s="103"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="103" t="s">
+      <c r="A185" s="104" t="s">
         <v>69</v>
       </c>
-      <c r="B185" s="104"/>
-      <c r="C185" s="104"/>
-      <c r="D185" s="104"/>
-      <c r="E185" s="104"/>
-      <c r="F185" s="104"/>
-      <c r="G185" s="104"/>
-      <c r="H185" s="104"/>
-      <c r="I185" s="104"/>
-      <c r="J185" s="104"/>
-      <c r="K185" s="105"/>
+      <c r="B185" s="105"/>
+      <c r="C185" s="105"/>
+      <c r="D185" s="105"/>
+      <c r="E185" s="105"/>
+      <c r="F185" s="105"/>
+      <c r="G185" s="105"/>
+      <c r="H185" s="105"/>
+      <c r="I185" s="105"/>
+      <c r="J185" s="105"/>
+      <c r="K185" s="106"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
@@ -6807,45 +6816,45 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="101"/>
-      <c r="B196" s="101"/>
-      <c r="C196" s="101"/>
-      <c r="D196" s="101"/>
-      <c r="E196" s="101"/>
-      <c r="F196" s="101"/>
-      <c r="G196" s="101"/>
-      <c r="H196" s="101"/>
-      <c r="I196" s="101"/>
-      <c r="J196" s="101"/>
-      <c r="K196" s="101"/>
+      <c r="A196" s="102"/>
+      <c r="B196" s="102"/>
+      <c r="C196" s="102"/>
+      <c r="D196" s="102"/>
+      <c r="E196" s="102"/>
+      <c r="F196" s="102"/>
+      <c r="G196" s="102"/>
+      <c r="H196" s="102"/>
+      <c r="I196" s="102"/>
+      <c r="J196" s="102"/>
+      <c r="K196" s="102"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="102"/>
-      <c r="B197" s="102"/>
-      <c r="C197" s="102"/>
-      <c r="D197" s="102"/>
-      <c r="E197" s="102"/>
-      <c r="F197" s="102"/>
-      <c r="G197" s="102"/>
-      <c r="H197" s="102"/>
-      <c r="I197" s="102"/>
-      <c r="J197" s="102"/>
-      <c r="K197" s="102"/>
+      <c r="A197" s="103"/>
+      <c r="B197" s="103"/>
+      <c r="C197" s="103"/>
+      <c r="D197" s="103"/>
+      <c r="E197" s="103"/>
+      <c r="F197" s="103"/>
+      <c r="G197" s="103"/>
+      <c r="H197" s="103"/>
+      <c r="I197" s="103"/>
+      <c r="J197" s="103"/>
+      <c r="K197" s="103"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="103" t="s">
+      <c r="A198" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="B198" s="104"/>
-      <c r="C198" s="104"/>
-      <c r="D198" s="104"/>
-      <c r="E198" s="104"/>
-      <c r="F198" s="104"/>
-      <c r="G198" s="104"/>
-      <c r="H198" s="104"/>
-      <c r="I198" s="104"/>
-      <c r="J198" s="104"/>
-      <c r="K198" s="105"/>
+      <c r="B198" s="105"/>
+      <c r="C198" s="105"/>
+      <c r="D198" s="105"/>
+      <c r="E198" s="105"/>
+      <c r="F198" s="105"/>
+      <c r="G198" s="105"/>
+      <c r="H198" s="105"/>
+      <c r="I198" s="105"/>
+      <c r="J198" s="105"/>
+      <c r="K198" s="106"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
@@ -7113,45 +7122,45 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="101"/>
-      <c r="B208" s="101"/>
-      <c r="C208" s="101"/>
-      <c r="D208" s="101"/>
-      <c r="E208" s="101"/>
-      <c r="F208" s="101"/>
-      <c r="G208" s="101"/>
-      <c r="H208" s="101"/>
-      <c r="I208" s="101"/>
-      <c r="J208" s="101"/>
-      <c r="K208" s="101"/>
+      <c r="A208" s="102"/>
+      <c r="B208" s="102"/>
+      <c r="C208" s="102"/>
+      <c r="D208" s="102"/>
+      <c r="E208" s="102"/>
+      <c r="F208" s="102"/>
+      <c r="G208" s="102"/>
+      <c r="H208" s="102"/>
+      <c r="I208" s="102"/>
+      <c r="J208" s="102"/>
+      <c r="K208" s="102"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="102"/>
-      <c r="B209" s="102"/>
-      <c r="C209" s="102"/>
-      <c r="D209" s="102"/>
-      <c r="E209" s="102"/>
-      <c r="F209" s="102"/>
-      <c r="G209" s="102"/>
-      <c r="H209" s="102"/>
-      <c r="I209" s="102"/>
-      <c r="J209" s="102"/>
-      <c r="K209" s="102"/>
+      <c r="A209" s="103"/>
+      <c r="B209" s="103"/>
+      <c r="C209" s="103"/>
+      <c r="D209" s="103"/>
+      <c r="E209" s="103"/>
+      <c r="F209" s="103"/>
+      <c r="G209" s="103"/>
+      <c r="H209" s="103"/>
+      <c r="I209" s="103"/>
+      <c r="J209" s="103"/>
+      <c r="K209" s="103"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="103" t="s">
+      <c r="A210" s="104" t="s">
         <v>83</v>
       </c>
-      <c r="B210" s="104"/>
-      <c r="C210" s="104"/>
-      <c r="D210" s="104"/>
-      <c r="E210" s="104"/>
-      <c r="F210" s="104"/>
-      <c r="G210" s="104"/>
-      <c r="H210" s="104"/>
-      <c r="I210" s="104"/>
-      <c r="J210" s="104"/>
-      <c r="K210" s="105"/>
+      <c r="B210" s="105"/>
+      <c r="C210" s="105"/>
+      <c r="D210" s="105"/>
+      <c r="E210" s="105"/>
+      <c r="F210" s="105"/>
+      <c r="G210" s="105"/>
+      <c r="H210" s="105"/>
+      <c r="I210" s="105"/>
+      <c r="J210" s="105"/>
+      <c r="K210" s="106"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -7421,45 +7430,45 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="101"/>
-      <c r="B220" s="101"/>
-      <c r="C220" s="101"/>
-      <c r="D220" s="101"/>
-      <c r="E220" s="101"/>
-      <c r="F220" s="101"/>
-      <c r="G220" s="101"/>
-      <c r="H220" s="101"/>
-      <c r="I220" s="101"/>
-      <c r="J220" s="101"/>
-      <c r="K220" s="101"/>
+      <c r="A220" s="102"/>
+      <c r="B220" s="102"/>
+      <c r="C220" s="102"/>
+      <c r="D220" s="102"/>
+      <c r="E220" s="102"/>
+      <c r="F220" s="102"/>
+      <c r="G220" s="102"/>
+      <c r="H220" s="102"/>
+      <c r="I220" s="102"/>
+      <c r="J220" s="102"/>
+      <c r="K220" s="102"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="102"/>
-      <c r="B221" s="102"/>
-      <c r="C221" s="102"/>
-      <c r="D221" s="102"/>
-      <c r="E221" s="102"/>
-      <c r="F221" s="102"/>
-      <c r="G221" s="102"/>
-      <c r="H221" s="102"/>
-      <c r="I221" s="102"/>
-      <c r="J221" s="102"/>
-      <c r="K221" s="102"/>
+      <c r="A221" s="103"/>
+      <c r="B221" s="103"/>
+      <c r="C221" s="103"/>
+      <c r="D221" s="103"/>
+      <c r="E221" s="103"/>
+      <c r="F221" s="103"/>
+      <c r="G221" s="103"/>
+      <c r="H221" s="103"/>
+      <c r="I221" s="103"/>
+      <c r="J221" s="103"/>
+      <c r="K221" s="103"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="103" t="s">
+      <c r="A222" s="104" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="104"/>
-      <c r="C222" s="104"/>
-      <c r="D222" s="104"/>
-      <c r="E222" s="104"/>
-      <c r="F222" s="104"/>
-      <c r="G222" s="104"/>
-      <c r="H222" s="104"/>
-      <c r="I222" s="104"/>
-      <c r="J222" s="104"/>
-      <c r="K222" s="105"/>
+      <c r="B222" s="105"/>
+      <c r="C222" s="105"/>
+      <c r="D222" s="105"/>
+      <c r="E222" s="105"/>
+      <c r="F222" s="105"/>
+      <c r="G222" s="105"/>
+      <c r="H222" s="105"/>
+      <c r="I222" s="105"/>
+      <c r="J222" s="105"/>
+      <c r="K222" s="106"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
@@ -7857,45 +7866,45 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="101"/>
-      <c r="B236" s="101"/>
-      <c r="C236" s="101"/>
-      <c r="D236" s="101"/>
-      <c r="E236" s="101"/>
-      <c r="F236" s="101"/>
-      <c r="G236" s="101"/>
-      <c r="H236" s="101"/>
-      <c r="I236" s="101"/>
-      <c r="J236" s="101"/>
-      <c r="K236" s="101"/>
+      <c r="A236" s="102"/>
+      <c r="B236" s="102"/>
+      <c r="C236" s="102"/>
+      <c r="D236" s="102"/>
+      <c r="E236" s="102"/>
+      <c r="F236" s="102"/>
+      <c r="G236" s="102"/>
+      <c r="H236" s="102"/>
+      <c r="I236" s="102"/>
+      <c r="J236" s="102"/>
+      <c r="K236" s="102"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="102"/>
-      <c r="B237" s="102"/>
-      <c r="C237" s="102"/>
-      <c r="D237" s="102"/>
-      <c r="E237" s="102"/>
-      <c r="F237" s="102"/>
-      <c r="G237" s="102"/>
-      <c r="H237" s="102"/>
-      <c r="I237" s="102"/>
-      <c r="J237" s="102"/>
-      <c r="K237" s="102"/>
+      <c r="A237" s="103"/>
+      <c r="B237" s="103"/>
+      <c r="C237" s="103"/>
+      <c r="D237" s="103"/>
+      <c r="E237" s="103"/>
+      <c r="F237" s="103"/>
+      <c r="G237" s="103"/>
+      <c r="H237" s="103"/>
+      <c r="I237" s="103"/>
+      <c r="J237" s="103"/>
+      <c r="K237" s="103"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="103" t="s">
+      <c r="A238" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="B238" s="104"/>
-      <c r="C238" s="104"/>
-      <c r="D238" s="104"/>
-      <c r="E238" s="104"/>
-      <c r="F238" s="104"/>
-      <c r="G238" s="104"/>
-      <c r="H238" s="104"/>
-      <c r="I238" s="104"/>
-      <c r="J238" s="104"/>
-      <c r="K238" s="105"/>
+      <c r="B238" s="105"/>
+      <c r="C238" s="105"/>
+      <c r="D238" s="105"/>
+      <c r="E238" s="105"/>
+      <c r="F238" s="105"/>
+      <c r="G238" s="105"/>
+      <c r="H238" s="105"/>
+      <c r="I238" s="105"/>
+      <c r="J238" s="105"/>
+      <c r="K238" s="106"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
@@ -8096,45 +8105,45 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="101"/>
-      <c r="B246" s="101"/>
-      <c r="C246" s="101"/>
-      <c r="D246" s="101"/>
-      <c r="E246" s="101"/>
-      <c r="F246" s="101"/>
-      <c r="G246" s="101"/>
-      <c r="H246" s="101"/>
-      <c r="I246" s="101"/>
-      <c r="J246" s="101"/>
-      <c r="K246" s="101"/>
+      <c r="A246" s="102"/>
+      <c r="B246" s="102"/>
+      <c r="C246" s="102"/>
+      <c r="D246" s="102"/>
+      <c r="E246" s="102"/>
+      <c r="F246" s="102"/>
+      <c r="G246" s="102"/>
+      <c r="H246" s="102"/>
+      <c r="I246" s="102"/>
+      <c r="J246" s="102"/>
+      <c r="K246" s="102"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="102"/>
-      <c r="B247" s="102"/>
-      <c r="C247" s="102"/>
-      <c r="D247" s="102"/>
-      <c r="E247" s="102"/>
-      <c r="F247" s="102"/>
-      <c r="G247" s="102"/>
-      <c r="H247" s="102"/>
-      <c r="I247" s="102"/>
-      <c r="J247" s="102"/>
-      <c r="K247" s="102"/>
+      <c r="A247" s="103"/>
+      <c r="B247" s="103"/>
+      <c r="C247" s="103"/>
+      <c r="D247" s="103"/>
+      <c r="E247" s="103"/>
+      <c r="F247" s="103"/>
+      <c r="G247" s="103"/>
+      <c r="H247" s="103"/>
+      <c r="I247" s="103"/>
+      <c r="J247" s="103"/>
+      <c r="K247" s="103"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="103" t="s">
+      <c r="A248" s="104" t="s">
         <v>203</v>
       </c>
-      <c r="B248" s="104"/>
-      <c r="C248" s="104"/>
-      <c r="D248" s="104"/>
-      <c r="E248" s="104"/>
-      <c r="F248" s="104"/>
-      <c r="G248" s="104"/>
-      <c r="H248" s="104"/>
-      <c r="I248" s="104"/>
-      <c r="J248" s="104"/>
-      <c r="K248" s="105"/>
+      <c r="B248" s="105"/>
+      <c r="C248" s="105"/>
+      <c r="D248" s="105"/>
+      <c r="E248" s="105"/>
+      <c r="F248" s="105"/>
+      <c r="G248" s="105"/>
+      <c r="H248" s="105"/>
+      <c r="I248" s="105"/>
+      <c r="J248" s="105"/>
+      <c r="K248" s="106"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
@@ -8381,45 +8390,45 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="101"/>
-      <c r="B257" s="101"/>
-      <c r="C257" s="101"/>
-      <c r="D257" s="101"/>
-      <c r="E257" s="101"/>
-      <c r="F257" s="101"/>
-      <c r="G257" s="101"/>
-      <c r="H257" s="101"/>
-      <c r="I257" s="101"/>
-      <c r="J257" s="101"/>
-      <c r="K257" s="101"/>
+      <c r="A257" s="102"/>
+      <c r="B257" s="102"/>
+      <c r="C257" s="102"/>
+      <c r="D257" s="102"/>
+      <c r="E257" s="102"/>
+      <c r="F257" s="102"/>
+      <c r="G257" s="102"/>
+      <c r="H257" s="102"/>
+      <c r="I257" s="102"/>
+      <c r="J257" s="102"/>
+      <c r="K257" s="102"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="102"/>
-      <c r="B258" s="102"/>
-      <c r="C258" s="102"/>
-      <c r="D258" s="102"/>
-      <c r="E258" s="102"/>
-      <c r="F258" s="102"/>
-      <c r="G258" s="102"/>
-      <c r="H258" s="102"/>
-      <c r="I258" s="102"/>
-      <c r="J258" s="102"/>
-      <c r="K258" s="102"/>
+      <c r="A258" s="103"/>
+      <c r="B258" s="103"/>
+      <c r="C258" s="103"/>
+      <c r="D258" s="103"/>
+      <c r="E258" s="103"/>
+      <c r="F258" s="103"/>
+      <c r="G258" s="103"/>
+      <c r="H258" s="103"/>
+      <c r="I258" s="103"/>
+      <c r="J258" s="103"/>
+      <c r="K258" s="103"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="103" t="s">
+      <c r="A259" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="B259" s="104"/>
-      <c r="C259" s="104"/>
-      <c r="D259" s="104"/>
-      <c r="E259" s="104"/>
-      <c r="F259" s="104"/>
-      <c r="G259" s="104"/>
-      <c r="H259" s="104"/>
-      <c r="I259" s="104"/>
-      <c r="J259" s="104"/>
-      <c r="K259" s="105"/>
+      <c r="B259" s="105"/>
+      <c r="C259" s="105"/>
+      <c r="D259" s="105"/>
+      <c r="E259" s="105"/>
+      <c r="F259" s="105"/>
+      <c r="G259" s="105"/>
+      <c r="H259" s="105"/>
+      <c r="I259" s="105"/>
+      <c r="J259" s="105"/>
+      <c r="K259" s="106"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
@@ -8662,45 +8671,45 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="101"/>
-      <c r="B268" s="101"/>
-      <c r="C268" s="101"/>
-      <c r="D268" s="101"/>
-      <c r="E268" s="101"/>
-      <c r="F268" s="101"/>
-      <c r="G268" s="101"/>
-      <c r="H268" s="101"/>
-      <c r="I268" s="101"/>
-      <c r="J268" s="101"/>
-      <c r="K268" s="101"/>
+      <c r="A268" s="102"/>
+      <c r="B268" s="102"/>
+      <c r="C268" s="102"/>
+      <c r="D268" s="102"/>
+      <c r="E268" s="102"/>
+      <c r="F268" s="102"/>
+      <c r="G268" s="102"/>
+      <c r="H268" s="102"/>
+      <c r="I268" s="102"/>
+      <c r="J268" s="102"/>
+      <c r="K268" s="102"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="102"/>
-      <c r="B269" s="102"/>
-      <c r="C269" s="102"/>
-      <c r="D269" s="102"/>
-      <c r="E269" s="102"/>
-      <c r="F269" s="102"/>
-      <c r="G269" s="102"/>
-      <c r="H269" s="102"/>
-      <c r="I269" s="102"/>
-      <c r="J269" s="102"/>
-      <c r="K269" s="102"/>
+      <c r="A269" s="103"/>
+      <c r="B269" s="103"/>
+      <c r="C269" s="103"/>
+      <c r="D269" s="103"/>
+      <c r="E269" s="103"/>
+      <c r="F269" s="103"/>
+      <c r="G269" s="103"/>
+      <c r="H269" s="103"/>
+      <c r="I269" s="103"/>
+      <c r="J269" s="103"/>
+      <c r="K269" s="103"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="103" t="s">
+      <c r="A270" s="104" t="s">
         <v>238</v>
       </c>
-      <c r="B270" s="104"/>
-      <c r="C270" s="104"/>
-      <c r="D270" s="104"/>
-      <c r="E270" s="104"/>
-      <c r="F270" s="104"/>
-      <c r="G270" s="104"/>
-      <c r="H270" s="104"/>
-      <c r="I270" s="104"/>
-      <c r="J270" s="104"/>
-      <c r="K270" s="105"/>
+      <c r="B270" s="105"/>
+      <c r="C270" s="105"/>
+      <c r="D270" s="105"/>
+      <c r="E270" s="105"/>
+      <c r="F270" s="105"/>
+      <c r="G270" s="105"/>
+      <c r="H270" s="105"/>
+      <c r="I270" s="105"/>
+      <c r="J270" s="105"/>
+      <c r="K270" s="106"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
@@ -8883,45 +8892,45 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="101"/>
-      <c r="B277" s="101"/>
-      <c r="C277" s="101"/>
-      <c r="D277" s="101"/>
-      <c r="E277" s="101"/>
-      <c r="F277" s="101"/>
-      <c r="G277" s="101"/>
-      <c r="H277" s="101"/>
-      <c r="I277" s="101"/>
-      <c r="J277" s="101"/>
-      <c r="K277" s="101"/>
+      <c r="A277" s="102"/>
+      <c r="B277" s="102"/>
+      <c r="C277" s="102"/>
+      <c r="D277" s="102"/>
+      <c r="E277" s="102"/>
+      <c r="F277" s="102"/>
+      <c r="G277" s="102"/>
+      <c r="H277" s="102"/>
+      <c r="I277" s="102"/>
+      <c r="J277" s="102"/>
+      <c r="K277" s="102"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="102"/>
-      <c r="B278" s="102"/>
-      <c r="C278" s="102"/>
-      <c r="D278" s="102"/>
-      <c r="E278" s="102"/>
-      <c r="F278" s="102"/>
-      <c r="G278" s="102"/>
-      <c r="H278" s="102"/>
-      <c r="I278" s="102"/>
-      <c r="J278" s="102"/>
-      <c r="K278" s="102"/>
+      <c r="A278" s="103"/>
+      <c r="B278" s="103"/>
+      <c r="C278" s="103"/>
+      <c r="D278" s="103"/>
+      <c r="E278" s="103"/>
+      <c r="F278" s="103"/>
+      <c r="G278" s="103"/>
+      <c r="H278" s="103"/>
+      <c r="I278" s="103"/>
+      <c r="J278" s="103"/>
+      <c r="K278" s="103"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="103" t="s">
+      <c r="A279" s="104" t="s">
         <v>240</v>
       </c>
-      <c r="B279" s="104"/>
-      <c r="C279" s="104"/>
-      <c r="D279" s="104"/>
-      <c r="E279" s="104"/>
-      <c r="F279" s="104"/>
-      <c r="G279" s="104"/>
-      <c r="H279" s="104"/>
-      <c r="I279" s="104"/>
-      <c r="J279" s="104"/>
-      <c r="K279" s="105"/>
+      <c r="B279" s="105"/>
+      <c r="C279" s="105"/>
+      <c r="D279" s="105"/>
+      <c r="E279" s="105"/>
+      <c r="F279" s="105"/>
+      <c r="G279" s="105"/>
+      <c r="H279" s="105"/>
+      <c r="I279" s="105"/>
+      <c r="J279" s="105"/>
+      <c r="K279" s="106"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
@@ -9104,45 +9113,45 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="101"/>
-      <c r="B286" s="101"/>
-      <c r="C286" s="101"/>
-      <c r="D286" s="101"/>
-      <c r="E286" s="101"/>
-      <c r="F286" s="101"/>
-      <c r="G286" s="101"/>
-      <c r="H286" s="101"/>
-      <c r="I286" s="101"/>
-      <c r="J286" s="101"/>
-      <c r="K286" s="101"/>
+      <c r="A286" s="102"/>
+      <c r="B286" s="102"/>
+      <c r="C286" s="102"/>
+      <c r="D286" s="102"/>
+      <c r="E286" s="102"/>
+      <c r="F286" s="102"/>
+      <c r="G286" s="102"/>
+      <c r="H286" s="102"/>
+      <c r="I286" s="102"/>
+      <c r="J286" s="102"/>
+      <c r="K286" s="102"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="102"/>
-      <c r="B287" s="102"/>
-      <c r="C287" s="102"/>
-      <c r="D287" s="102"/>
-      <c r="E287" s="102"/>
-      <c r="F287" s="102"/>
-      <c r="G287" s="102"/>
-      <c r="H287" s="102"/>
-      <c r="I287" s="102"/>
-      <c r="J287" s="102"/>
-      <c r="K287" s="102"/>
+      <c r="A287" s="103"/>
+      <c r="B287" s="103"/>
+      <c r="C287" s="103"/>
+      <c r="D287" s="103"/>
+      <c r="E287" s="103"/>
+      <c r="F287" s="103"/>
+      <c r="G287" s="103"/>
+      <c r="H287" s="103"/>
+      <c r="I287" s="103"/>
+      <c r="J287" s="103"/>
+      <c r="K287" s="103"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="103" t="s">
+      <c r="A288" s="104" t="s">
         <v>242</v>
       </c>
-      <c r="B288" s="104"/>
-      <c r="C288" s="104"/>
-      <c r="D288" s="104"/>
-      <c r="E288" s="104"/>
-      <c r="F288" s="104"/>
-      <c r="G288" s="104"/>
-      <c r="H288" s="104"/>
-      <c r="I288" s="104"/>
-      <c r="J288" s="104"/>
-      <c r="K288" s="105"/>
+      <c r="B288" s="105"/>
+      <c r="C288" s="105"/>
+      <c r="D288" s="105"/>
+      <c r="E288" s="105"/>
+      <c r="F288" s="105"/>
+      <c r="G288" s="105"/>
+      <c r="H288" s="105"/>
+      <c r="I288" s="105"/>
+      <c r="J288" s="105"/>
+      <c r="K288" s="106"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
@@ -9325,45 +9334,45 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="101"/>
-      <c r="B295" s="101"/>
-      <c r="C295" s="101"/>
-      <c r="D295" s="101"/>
-      <c r="E295" s="101"/>
-      <c r="F295" s="101"/>
-      <c r="G295" s="101"/>
-      <c r="H295" s="101"/>
-      <c r="I295" s="101"/>
-      <c r="J295" s="101"/>
-      <c r="K295" s="101"/>
+      <c r="A295" s="102"/>
+      <c r="B295" s="102"/>
+      <c r="C295" s="102"/>
+      <c r="D295" s="102"/>
+      <c r="E295" s="102"/>
+      <c r="F295" s="102"/>
+      <c r="G295" s="102"/>
+      <c r="H295" s="102"/>
+      <c r="I295" s="102"/>
+      <c r="J295" s="102"/>
+      <c r="K295" s="102"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="102"/>
-      <c r="B296" s="102"/>
-      <c r="C296" s="102"/>
-      <c r="D296" s="102"/>
-      <c r="E296" s="102"/>
-      <c r="F296" s="102"/>
-      <c r="G296" s="102"/>
-      <c r="H296" s="102"/>
-      <c r="I296" s="102"/>
-      <c r="J296" s="102"/>
-      <c r="K296" s="102"/>
+      <c r="A296" s="103"/>
+      <c r="B296" s="103"/>
+      <c r="C296" s="103"/>
+      <c r="D296" s="103"/>
+      <c r="E296" s="103"/>
+      <c r="F296" s="103"/>
+      <c r="G296" s="103"/>
+      <c r="H296" s="103"/>
+      <c r="I296" s="103"/>
+      <c r="J296" s="103"/>
+      <c r="K296" s="103"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="103" t="s">
+      <c r="A297" s="104" t="s">
         <v>244</v>
       </c>
-      <c r="B297" s="104"/>
-      <c r="C297" s="104"/>
-      <c r="D297" s="104"/>
-      <c r="E297" s="104"/>
-      <c r="F297" s="104"/>
-      <c r="G297" s="104"/>
-      <c r="H297" s="104"/>
-      <c r="I297" s="104"/>
-      <c r="J297" s="104"/>
-      <c r="K297" s="105"/>
+      <c r="B297" s="105"/>
+      <c r="C297" s="105"/>
+      <c r="D297" s="105"/>
+      <c r="E297" s="105"/>
+      <c r="F297" s="105"/>
+      <c r="G297" s="105"/>
+      <c r="H297" s="105"/>
+      <c r="I297" s="105"/>
+      <c r="J297" s="105"/>
+      <c r="K297" s="106"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
@@ -9546,45 +9555,45 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="101"/>
-      <c r="B304" s="101"/>
-      <c r="C304" s="101"/>
-      <c r="D304" s="101"/>
-      <c r="E304" s="101"/>
-      <c r="F304" s="101"/>
-      <c r="G304" s="101"/>
-      <c r="H304" s="101"/>
-      <c r="I304" s="101"/>
-      <c r="J304" s="101"/>
-      <c r="K304" s="101"/>
+      <c r="A304" s="102"/>
+      <c r="B304" s="102"/>
+      <c r="C304" s="102"/>
+      <c r="D304" s="102"/>
+      <c r="E304" s="102"/>
+      <c r="F304" s="102"/>
+      <c r="G304" s="102"/>
+      <c r="H304" s="102"/>
+      <c r="I304" s="102"/>
+      <c r="J304" s="102"/>
+      <c r="K304" s="102"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="102"/>
-      <c r="B305" s="102"/>
-      <c r="C305" s="102"/>
-      <c r="D305" s="102"/>
-      <c r="E305" s="102"/>
-      <c r="F305" s="102"/>
-      <c r="G305" s="102"/>
-      <c r="H305" s="102"/>
-      <c r="I305" s="102"/>
-      <c r="J305" s="102"/>
-      <c r="K305" s="102"/>
+      <c r="A305" s="103"/>
+      <c r="B305" s="103"/>
+      <c r="C305" s="103"/>
+      <c r="D305" s="103"/>
+      <c r="E305" s="103"/>
+      <c r="F305" s="103"/>
+      <c r="G305" s="103"/>
+      <c r="H305" s="103"/>
+      <c r="I305" s="103"/>
+      <c r="J305" s="103"/>
+      <c r="K305" s="103"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="103" t="s">
+      <c r="A306" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="B306" s="104"/>
-      <c r="C306" s="104"/>
-      <c r="D306" s="104"/>
-      <c r="E306" s="104"/>
-      <c r="F306" s="104"/>
-      <c r="G306" s="104"/>
-      <c r="H306" s="104"/>
-      <c r="I306" s="104"/>
-      <c r="J306" s="104"/>
-      <c r="K306" s="105"/>
+      <c r="B306" s="105"/>
+      <c r="C306" s="105"/>
+      <c r="D306" s="105"/>
+      <c r="E306" s="105"/>
+      <c r="F306" s="105"/>
+      <c r="G306" s="105"/>
+      <c r="H306" s="105"/>
+      <c r="I306" s="105"/>
+      <c r="J306" s="105"/>
+      <c r="K306" s="106"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
@@ -9883,45 +9892,45 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="101"/>
-      <c r="B318" s="101"/>
-      <c r="C318" s="101"/>
-      <c r="D318" s="101"/>
-      <c r="E318" s="101"/>
-      <c r="F318" s="101"/>
-      <c r="G318" s="101"/>
-      <c r="H318" s="101"/>
-      <c r="I318" s="101"/>
-      <c r="J318" s="101"/>
-      <c r="K318" s="101"/>
+      <c r="A318" s="102"/>
+      <c r="B318" s="102"/>
+      <c r="C318" s="102"/>
+      <c r="D318" s="102"/>
+      <c r="E318" s="102"/>
+      <c r="F318" s="102"/>
+      <c r="G318" s="102"/>
+      <c r="H318" s="102"/>
+      <c r="I318" s="102"/>
+      <c r="J318" s="102"/>
+      <c r="K318" s="102"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="102"/>
-      <c r="B319" s="102"/>
-      <c r="C319" s="102"/>
-      <c r="D319" s="102"/>
-      <c r="E319" s="102"/>
-      <c r="F319" s="102"/>
-      <c r="G319" s="102"/>
-      <c r="H319" s="102"/>
-      <c r="I319" s="102"/>
-      <c r="J319" s="102"/>
-      <c r="K319" s="102"/>
+      <c r="A319" s="103"/>
+      <c r="B319" s="103"/>
+      <c r="C319" s="103"/>
+      <c r="D319" s="103"/>
+      <c r="E319" s="103"/>
+      <c r="F319" s="103"/>
+      <c r="G319" s="103"/>
+      <c r="H319" s="103"/>
+      <c r="I319" s="103"/>
+      <c r="J319" s="103"/>
+      <c r="K319" s="103"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="103" t="s">
+      <c r="A320" s="104" t="s">
         <v>214</v>
       </c>
-      <c r="B320" s="104"/>
-      <c r="C320" s="104"/>
-      <c r="D320" s="104"/>
-      <c r="E320" s="104"/>
-      <c r="F320" s="104"/>
-      <c r="G320" s="104"/>
-      <c r="H320" s="104"/>
-      <c r="I320" s="104"/>
-      <c r="J320" s="104"/>
-      <c r="K320" s="105"/>
+      <c r="B320" s="105"/>
+      <c r="C320" s="105"/>
+      <c r="D320" s="105"/>
+      <c r="E320" s="105"/>
+      <c r="F320" s="105"/>
+      <c r="G320" s="105"/>
+      <c r="H320" s="105"/>
+      <c r="I320" s="105"/>
+      <c r="J320" s="105"/>
+      <c r="K320" s="106"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
@@ -10168,45 +10177,45 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="101"/>
-      <c r="B329" s="101"/>
-      <c r="C329" s="101"/>
-      <c r="D329" s="101"/>
-      <c r="E329" s="101"/>
-      <c r="F329" s="101"/>
-      <c r="G329" s="101"/>
-      <c r="H329" s="101"/>
-      <c r="I329" s="101"/>
-      <c r="J329" s="101"/>
-      <c r="K329" s="101"/>
+      <c r="A329" s="102"/>
+      <c r="B329" s="102"/>
+      <c r="C329" s="102"/>
+      <c r="D329" s="102"/>
+      <c r="E329" s="102"/>
+      <c r="F329" s="102"/>
+      <c r="G329" s="102"/>
+      <c r="H329" s="102"/>
+      <c r="I329" s="102"/>
+      <c r="J329" s="102"/>
+      <c r="K329" s="102"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="102"/>
-      <c r="B330" s="102"/>
-      <c r="C330" s="102"/>
-      <c r="D330" s="102"/>
-      <c r="E330" s="102"/>
-      <c r="F330" s="102"/>
-      <c r="G330" s="102"/>
-      <c r="H330" s="102"/>
-      <c r="I330" s="102"/>
-      <c r="J330" s="102"/>
-      <c r="K330" s="102"/>
+      <c r="A330" s="103"/>
+      <c r="B330" s="103"/>
+      <c r="C330" s="103"/>
+      <c r="D330" s="103"/>
+      <c r="E330" s="103"/>
+      <c r="F330" s="103"/>
+      <c r="G330" s="103"/>
+      <c r="H330" s="103"/>
+      <c r="I330" s="103"/>
+      <c r="J330" s="103"/>
+      <c r="K330" s="103"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="103" t="s">
+      <c r="A331" s="104" t="s">
         <v>223</v>
       </c>
-      <c r="B331" s="104"/>
-      <c r="C331" s="104"/>
-      <c r="D331" s="104"/>
-      <c r="E331" s="104"/>
-      <c r="F331" s="104"/>
-      <c r="G331" s="104"/>
-      <c r="H331" s="104"/>
-      <c r="I331" s="104"/>
-      <c r="J331" s="104"/>
-      <c r="K331" s="105"/>
+      <c r="B331" s="105"/>
+      <c r="C331" s="105"/>
+      <c r="D331" s="105"/>
+      <c r="E331" s="105"/>
+      <c r="F331" s="105"/>
+      <c r="G331" s="105"/>
+      <c r="H331" s="105"/>
+      <c r="I331" s="105"/>
+      <c r="J331" s="105"/>
+      <c r="K331" s="106"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
@@ -10449,45 +10458,45 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="101"/>
-      <c r="B340" s="101"/>
-      <c r="C340" s="101"/>
-      <c r="D340" s="101"/>
-      <c r="E340" s="101"/>
-      <c r="F340" s="101"/>
-      <c r="G340" s="101"/>
-      <c r="H340" s="101"/>
-      <c r="I340" s="101"/>
-      <c r="J340" s="101"/>
-      <c r="K340" s="101"/>
+      <c r="A340" s="102"/>
+      <c r="B340" s="102"/>
+      <c r="C340" s="102"/>
+      <c r="D340" s="102"/>
+      <c r="E340" s="102"/>
+      <c r="F340" s="102"/>
+      <c r="G340" s="102"/>
+      <c r="H340" s="102"/>
+      <c r="I340" s="102"/>
+      <c r="J340" s="102"/>
+      <c r="K340" s="102"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="102"/>
-      <c r="B341" s="102"/>
-      <c r="C341" s="102"/>
-      <c r="D341" s="102"/>
-      <c r="E341" s="102"/>
-      <c r="F341" s="102"/>
-      <c r="G341" s="102"/>
-      <c r="H341" s="102"/>
-      <c r="I341" s="102"/>
-      <c r="J341" s="102"/>
-      <c r="K341" s="102"/>
+      <c r="A341" s="103"/>
+      <c r="B341" s="103"/>
+      <c r="C341" s="103"/>
+      <c r="D341" s="103"/>
+      <c r="E341" s="103"/>
+      <c r="F341" s="103"/>
+      <c r="G341" s="103"/>
+      <c r="H341" s="103"/>
+      <c r="I341" s="103"/>
+      <c r="J341" s="103"/>
+      <c r="K341" s="103"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="103" t="s">
+      <c r="A342" s="104" t="s">
         <v>234</v>
       </c>
-      <c r="B342" s="104"/>
-      <c r="C342" s="104"/>
-      <c r="D342" s="104"/>
-      <c r="E342" s="104"/>
-      <c r="F342" s="104"/>
-      <c r="G342" s="104"/>
-      <c r="H342" s="104"/>
-      <c r="I342" s="104"/>
-      <c r="J342" s="104"/>
-      <c r="K342" s="105"/>
+      <c r="B342" s="105"/>
+      <c r="C342" s="105"/>
+      <c r="D342" s="105"/>
+      <c r="E342" s="105"/>
+      <c r="F342" s="105"/>
+      <c r="G342" s="105"/>
+      <c r="H342" s="105"/>
+      <c r="I342" s="105"/>
+      <c r="J342" s="105"/>
+      <c r="K342" s="106"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
@@ -10722,45 +10731,45 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="101"/>
-      <c r="B351" s="101"/>
-      <c r="C351" s="101"/>
-      <c r="D351" s="101"/>
-      <c r="E351" s="101"/>
-      <c r="F351" s="101"/>
-      <c r="G351" s="101"/>
-      <c r="H351" s="101"/>
-      <c r="I351" s="101"/>
-      <c r="J351" s="101"/>
-      <c r="K351" s="101"/>
+      <c r="A351" s="102"/>
+      <c r="B351" s="102"/>
+      <c r="C351" s="102"/>
+      <c r="D351" s="102"/>
+      <c r="E351" s="102"/>
+      <c r="F351" s="102"/>
+      <c r="G351" s="102"/>
+      <c r="H351" s="102"/>
+      <c r="I351" s="102"/>
+      <c r="J351" s="102"/>
+      <c r="K351" s="102"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="102"/>
-      <c r="B352" s="102"/>
-      <c r="C352" s="102"/>
-      <c r="D352" s="102"/>
-      <c r="E352" s="102"/>
-      <c r="F352" s="102"/>
-      <c r="G352" s="102"/>
-      <c r="H352" s="102"/>
-      <c r="I352" s="102"/>
-      <c r="J352" s="102"/>
-      <c r="K352" s="102"/>
+      <c r="A352" s="103"/>
+      <c r="B352" s="103"/>
+      <c r="C352" s="103"/>
+      <c r="D352" s="103"/>
+      <c r="E352" s="103"/>
+      <c r="F352" s="103"/>
+      <c r="G352" s="103"/>
+      <c r="H352" s="103"/>
+      <c r="I352" s="103"/>
+      <c r="J352" s="103"/>
+      <c r="K352" s="103"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="103" t="s">
+      <c r="A353" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="B353" s="104"/>
-      <c r="C353" s="104"/>
-      <c r="D353" s="104"/>
-      <c r="E353" s="104"/>
-      <c r="F353" s="104"/>
-      <c r="G353" s="104"/>
-      <c r="H353" s="104"/>
-      <c r="I353" s="104"/>
-      <c r="J353" s="104"/>
-      <c r="K353" s="105"/>
+      <c r="B353" s="105"/>
+      <c r="C353" s="105"/>
+      <c r="D353" s="105"/>
+      <c r="E353" s="105"/>
+      <c r="F353" s="105"/>
+      <c r="G353" s="105"/>
+      <c r="H353" s="105"/>
+      <c r="I353" s="105"/>
+      <c r="J353" s="105"/>
+      <c r="K353" s="106"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
@@ -10941,73 +10950,75 @@
       <c r="K359" s="9"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A360" s="40">
-        <v>6</v>
-      </c>
+      <c r="A360" s="40"/>
       <c r="B360" s="7" t="s">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="C360" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D360" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E360" s="10"/>
-      <c r="F360" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G360" s="7"/>
+      <c r="F360" s="12">
+        <v>0</v>
+      </c>
+      <c r="G360" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H360" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I360" s="91"/>
-      <c r="J360" s="91"/>
-      <c r="K360" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="I360" s="101"/>
+      <c r="J360" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="K360" s="14" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B361" s="7" t="s">
-        <v>23</v>
+        <v>279</v>
       </c>
       <c r="C361" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D361" s="7"/>
-      <c r="E361" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F361" s="12" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D361" s="7">
+        <v>100</v>
+      </c>
+      <c r="E361" s="10"/>
+      <c r="F361" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G361" s="7"/>
       <c r="H361" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I361" s="29"/>
-      <c r="J361" s="49"/>
-      <c r="K361" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="I361" s="91"/>
+      <c r="J361" s="91"/>
+      <c r="K361" s="9"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B362" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C362" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D362" s="7"/>
-      <c r="E362" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F362" s="10" t="s">
-        <v>18</v>
+      <c r="E362" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F362" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G362" s="7"/>
       <c r="H362" s="7" t="s">
@@ -11020,48 +11031,62 @@
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A363" s="41">
+      <c r="A363" s="40">
+        <v>8</v>
+      </c>
+      <c r="B363" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C363" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D363" s="7"/>
+      <c r="E363" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F363" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G363" s="7"/>
+      <c r="H363" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I363" s="29"/>
+      <c r="J363" s="49"/>
+      <c r="K363" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="41">
         <v>9</v>
       </c>
-      <c r="B363" s="13" t="s">
+      <c r="B364" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C363" s="13" t="s">
+      <c r="C364" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D363" s="13">
-        <v>1</v>
-      </c>
-      <c r="E363" s="13">
-        <v>0</v>
-      </c>
-      <c r="F363" s="13">
-        <v>0</v>
-      </c>
-      <c r="G363" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H363" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I363" s="28"/>
-      <c r="J363" s="48"/>
-      <c r="K363" s="14" t="s">
+      <c r="D364" s="13">
+        <v>1</v>
+      </c>
+      <c r="E364" s="13">
+        <v>0</v>
+      </c>
+      <c r="F364" s="13">
+        <v>0</v>
+      </c>
+      <c r="G364" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H364" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I364" s="28"/>
+      <c r="J364" s="48"/>
+      <c r="K364" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A364" s="101"/>
-      <c r="B364" s="101"/>
-      <c r="C364" s="101"/>
-      <c r="D364" s="101"/>
-      <c r="E364" s="101"/>
-      <c r="F364" s="101"/>
-      <c r="G364" s="101"/>
-      <c r="H364" s="101"/>
-      <c r="I364" s="101"/>
-      <c r="J364" s="101"/>
-      <c r="K364" s="101"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="102"/>
@@ -11077,136 +11102,124 @@
       <c r="K365" s="102"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="103" t="s">
+      <c r="A366" s="103"/>
+      <c r="B366" s="103"/>
+      <c r="C366" s="103"/>
+      <c r="D366" s="103"/>
+      <c r="E366" s="103"/>
+      <c r="F366" s="103"/>
+      <c r="G366" s="103"/>
+      <c r="H366" s="103"/>
+      <c r="I366" s="103"/>
+      <c r="J366" s="103"/>
+      <c r="K366" s="103"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="104" t="s">
         <v>275</v>
       </c>
-      <c r="B366" s="104"/>
-      <c r="C366" s="104"/>
-      <c r="D366" s="104"/>
-      <c r="E366" s="104"/>
-      <c r="F366" s="104"/>
-      <c r="G366" s="104"/>
-      <c r="H366" s="104"/>
-      <c r="I366" s="104"/>
-      <c r="J366" s="104"/>
-      <c r="K366" s="105"/>
-    </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B367" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C367" s="19" t="s">
+      <c r="B367" s="105"/>
+      <c r="C367" s="105"/>
+      <c r="D367" s="105"/>
+      <c r="E367" s="105"/>
+      <c r="F367" s="105"/>
+      <c r="G367" s="105"/>
+      <c r="H367" s="105"/>
+      <c r="I367" s="105"/>
+      <c r="J367" s="105"/>
+      <c r="K367" s="106"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B368" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C368" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D367" s="19" t="s">
+      <c r="D368" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E367" s="19" t="s">
+      <c r="E368" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F367" s="19" t="s">
+      <c r="F368" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G367" s="19" t="s">
+      <c r="G368" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H367" s="19" t="s">
+      <c r="H368" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I367" s="20" t="s">
+      <c r="I368" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J367" s="20" t="s">
+      <c r="J368" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K367" s="19" t="s">
+      <c r="K368" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A368" s="39">
-        <v>1</v>
-      </c>
-      <c r="B368" s="5" t="s">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="39">
+        <v>1</v>
+      </c>
+      <c r="B369" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C368" s="5" t="s">
+      <c r="C369" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D368" s="5">
+      <c r="D369" s="5">
         <v>20</v>
       </c>
-      <c r="E368" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F368" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G368" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H368" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I368" s="89" t="s">
-        <v>12</v>
-      </c>
-      <c r="J368" s="89"/>
-      <c r="K368" s="6" t="s">
+      <c r="E369" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G369" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H369" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I369" s="89" t="s">
+        <v>12</v>
+      </c>
+      <c r="J369" s="89"/>
+      <c r="K369" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A369" s="40">
-        <v>2</v>
-      </c>
-      <c r="B369" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C369" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D369" s="7">
-        <v>20</v>
-      </c>
-      <c r="E369" s="7"/>
-      <c r="F369" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G369" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H369" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I369" s="91"/>
-      <c r="J369" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="K369" s="9"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B370" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C370" s="7" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="D370" s="7">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="E370" s="7"/>
       <c r="F370" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G370" s="7"/>
-      <c r="H370" s="7"/>
+      <c r="G370" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H370" s="7" t="s">
+        <v>0</v>
+      </c>
       <c r="I370" s="91"/>
       <c r="J370" s="91" t="s">
         <v>12</v>
@@ -11215,15 +11228,17 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B371" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C371" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D371" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D371" s="7">
+        <v>255</v>
+      </c>
       <c r="E371" s="7"/>
       <c r="F371" s="7" t="s">
         <v>10</v>
@@ -11238,47 +11253,43 @@
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B372" s="7" t="s">
-        <v>23</v>
+        <v>278</v>
       </c>
       <c r="C372" s="7" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="D372" s="7"/>
-      <c r="E372" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F372" s="12" t="s">
-        <v>26</v>
+      <c r="E372" s="7"/>
+      <c r="F372" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G372" s="7"/>
-      <c r="H372" s="7" t="s">
-        <v>12</v>
-      </c>
+      <c r="H372" s="7"/>
       <c r="I372" s="91"/>
-      <c r="J372" s="91"/>
-      <c r="K372" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="J372" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K372" s="9"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B373" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C373" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D373" s="7"/>
-      <c r="E373" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F373" s="10" t="s">
-        <v>18</v>
+      <c r="E373" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F373" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G373" s="7"/>
       <c r="H373" s="7" t="s">
@@ -11291,188 +11302,184 @@
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A374" s="41">
+      <c r="A374" s="40">
+        <v>6</v>
+      </c>
+      <c r="B374" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C374" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D374" s="7"/>
+      <c r="E374" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F374" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G374" s="7"/>
+      <c r="H374" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I374" s="91"/>
+      <c r="J374" s="91"/>
+      <c r="K374" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" s="41">
         <v>7</v>
       </c>
-      <c r="B374" s="13" t="s">
+      <c r="B375" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C374" s="13" t="s">
+      <c r="C375" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D374" s="13">
-        <v>1</v>
-      </c>
-      <c r="E374" s="13">
-        <v>0</v>
-      </c>
-      <c r="F374" s="13">
-        <v>0</v>
-      </c>
-      <c r="G374" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H374" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I374" s="90"/>
-      <c r="J374" s="90"/>
-      <c r="K374" s="14" t="s">
+      <c r="D375" s="13">
+        <v>1</v>
+      </c>
+      <c r="E375" s="13">
+        <v>0</v>
+      </c>
+      <c r="F375" s="13">
+        <v>0</v>
+      </c>
+      <c r="G375" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H375" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I375" s="90"/>
+      <c r="J375" s="90"/>
+      <c r="K375" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="110"/>
-      <c r="B375" s="110"/>
-      <c r="C375" s="110"/>
-      <c r="D375" s="110"/>
-      <c r="E375" s="110"/>
-      <c r="F375" s="110"/>
-      <c r="G375" s="110"/>
-      <c r="H375" s="110"/>
-      <c r="I375" s="110"/>
-      <c r="J375" s="110"/>
-      <c r="K375" s="110"/>
-    </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="102"/>
-      <c r="B376" s="102"/>
-      <c r="C376" s="102"/>
-      <c r="D376" s="102"/>
-      <c r="E376" s="102"/>
-      <c r="F376" s="102"/>
-      <c r="G376" s="102"/>
-      <c r="H376" s="102"/>
-      <c r="I376" s="102"/>
-      <c r="J376" s="102"/>
-      <c r="K376" s="102"/>
+      <c r="A376" s="107"/>
+      <c r="B376" s="107"/>
+      <c r="C376" s="107"/>
+      <c r="D376" s="107"/>
+      <c r="E376" s="107"/>
+      <c r="F376" s="107"/>
+      <c r="G376" s="107"/>
+      <c r="H376" s="107"/>
+      <c r="I376" s="107"/>
+      <c r="J376" s="107"/>
+      <c r="K376" s="107"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="103" t="s">
+      <c r="A377" s="103"/>
+      <c r="B377" s="103"/>
+      <c r="C377" s="103"/>
+      <c r="D377" s="103"/>
+      <c r="E377" s="103"/>
+      <c r="F377" s="103"/>
+      <c r="G377" s="103"/>
+      <c r="H377" s="103"/>
+      <c r="I377" s="103"/>
+      <c r="J377" s="103"/>
+      <c r="K377" s="103"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="104" t="s">
         <v>182</v>
       </c>
-      <c r="B377" s="104"/>
-      <c r="C377" s="104"/>
-      <c r="D377" s="104"/>
-      <c r="E377" s="104"/>
-      <c r="F377" s="104"/>
-      <c r="G377" s="104"/>
-      <c r="H377" s="104"/>
-      <c r="I377" s="104"/>
-      <c r="J377" s="104"/>
-      <c r="K377" s="105"/>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B378" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C378" s="19" t="s">
+      <c r="B378" s="105"/>
+      <c r="C378" s="105"/>
+      <c r="D378" s="105"/>
+      <c r="E378" s="105"/>
+      <c r="F378" s="105"/>
+      <c r="G378" s="105"/>
+      <c r="H378" s="105"/>
+      <c r="I378" s="105"/>
+      <c r="J378" s="105"/>
+      <c r="K378" s="106"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B379" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C379" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D378" s="19" t="s">
+      <c r="D379" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E378" s="19" t="s">
+      <c r="E379" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F378" s="19" t="s">
+      <c r="F379" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G378" s="19" t="s">
+      <c r="G379" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H378" s="19" t="s">
+      <c r="H379" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I378" s="20" t="s">
+      <c r="I379" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J378" s="20" t="s">
+      <c r="J379" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K378" s="19" t="s">
+      <c r="K379" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" s="39">
-        <v>1</v>
-      </c>
-      <c r="B379" s="5" t="s">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="39">
+        <v>1</v>
+      </c>
+      <c r="B380" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C379" s="5" t="s">
+      <c r="C380" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D379" s="5">
+      <c r="D380" s="5">
         <v>20</v>
       </c>
-      <c r="E379" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F379" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G379" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H379" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I379" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J379" s="50"/>
-      <c r="K379" s="6" t="s">
+      <c r="E380" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G380" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H380" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I380" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J380" s="50"/>
+      <c r="K380" s="6" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="40">
-        <v>2</v>
-      </c>
-      <c r="B380" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C380" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D380" s="7">
-        <v>20</v>
-      </c>
-      <c r="E380" s="7"/>
-      <c r="F380" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G380" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H380" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I380" s="7"/>
-      <c r="J380" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K380" s="9" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D381" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E381" s="7"/>
       <c r="F381" s="7" t="s">
@@ -11489,25 +11496,29 @@
         <v>12</v>
       </c>
       <c r="K381" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D382" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D382" s="7">
+        <v>1</v>
+      </c>
       <c r="E382" s="7"/>
       <c r="F382" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G382" s="7"/>
+      <c r="G382" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H382" s="7" t="s">
         <v>0</v>
       </c>
@@ -11515,80 +11526,80 @@
       <c r="J382" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="K382" s="9"/>
+      <c r="K382" s="9" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D383" s="7">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="D383" s="7"/>
       <c r="E383" s="7"/>
-      <c r="F383" s="7">
-        <v>0</v>
-      </c>
-      <c r="G383" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="F383" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G383" s="7"/>
       <c r="H383" s="7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I383" s="7"/>
-      <c r="J383" s="52"/>
-      <c r="K383" s="9" t="s">
-        <v>189</v>
-      </c>
+      <c r="J383" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K383" s="9"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D384" s="7"/>
-      <c r="E384" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F384" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G384" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D384" s="7">
+        <v>1</v>
+      </c>
+      <c r="E384" s="7"/>
+      <c r="F384" s="7">
+        <v>0</v>
+      </c>
+      <c r="G384" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H384" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I384" s="52"/>
+      <c r="I384" s="7"/>
       <c r="J384" s="52"/>
       <c r="K384" s="9" t="s">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C385" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D385" s="7"/>
-      <c r="E385" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F385" s="10" t="s">
-        <v>18</v>
+      <c r="E385" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F385" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G385" s="7"/>
       <c r="H385" s="7" t="s">
@@ -11601,48 +11612,62 @@
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="41">
+      <c r="A386" s="40">
+        <v>7</v>
+      </c>
+      <c r="B386" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C386" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D386" s="7"/>
+      <c r="E386" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F386" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G386" s="7"/>
+      <c r="H386" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I386" s="52"/>
+      <c r="J386" s="52"/>
+      <c r="K386" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="41">
         <v>8</v>
       </c>
-      <c r="B386" s="13" t="s">
+      <c r="B387" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C386" s="13" t="s">
+      <c r="C387" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D386" s="13">
-        <v>1</v>
-      </c>
-      <c r="E386" s="13">
-        <v>0</v>
-      </c>
-      <c r="F386" s="13">
-        <v>0</v>
-      </c>
-      <c r="G386" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H386" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I386" s="51"/>
-      <c r="J386" s="51"/>
-      <c r="K386" s="14" t="s">
+      <c r="D387" s="13">
+        <v>1</v>
+      </c>
+      <c r="E387" s="13">
+        <v>0</v>
+      </c>
+      <c r="F387" s="13">
+        <v>0</v>
+      </c>
+      <c r="G387" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H387" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I387" s="51"/>
+      <c r="J387" s="51"/>
+      <c r="K387" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="101"/>
-      <c r="B387" s="101"/>
-      <c r="C387" s="101"/>
-      <c r="D387" s="101"/>
-      <c r="E387" s="101"/>
-      <c r="F387" s="101"/>
-      <c r="G387" s="101"/>
-      <c r="H387" s="101"/>
-      <c r="I387" s="101"/>
-      <c r="J387" s="101"/>
-      <c r="K387" s="101"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="102"/>
@@ -11658,121 +11683,107 @@
       <c r="K388" s="102"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="103" t="s">
+      <c r="A389" s="103"/>
+      <c r="B389" s="103"/>
+      <c r="C389" s="103"/>
+      <c r="D389" s="103"/>
+      <c r="E389" s="103"/>
+      <c r="F389" s="103"/>
+      <c r="G389" s="103"/>
+      <c r="H389" s="103"/>
+      <c r="I389" s="103"/>
+      <c r="J389" s="103"/>
+      <c r="K389" s="103"/>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" s="104" t="s">
         <v>256</v>
       </c>
-      <c r="B389" s="104"/>
-      <c r="C389" s="104"/>
-      <c r="D389" s="104"/>
-      <c r="E389" s="104"/>
-      <c r="F389" s="104"/>
-      <c r="G389" s="104"/>
-      <c r="H389" s="104"/>
-      <c r="I389" s="104"/>
-      <c r="J389" s="104"/>
-      <c r="K389" s="105"/>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B390" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C390" s="19" t="s">
+      <c r="B390" s="105"/>
+      <c r="C390" s="105"/>
+      <c r="D390" s="105"/>
+      <c r="E390" s="105"/>
+      <c r="F390" s="105"/>
+      <c r="G390" s="105"/>
+      <c r="H390" s="105"/>
+      <c r="I390" s="105"/>
+      <c r="J390" s="105"/>
+      <c r="K390" s="106"/>
+    </row>
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B391" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C391" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D390" s="19" t="s">
+      <c r="D391" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E390" s="19" t="s">
+      <c r="E391" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F390" s="19" t="s">
+      <c r="F391" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G390" s="19" t="s">
+      <c r="G391" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H390" s="19" t="s">
+      <c r="H391" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I390" s="20" t="s">
+      <c r="I391" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J390" s="20" t="s">
+      <c r="J391" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K390" s="19" t="s">
+      <c r="K391" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="39">
-        <v>1</v>
-      </c>
-      <c r="B391" s="5" t="s">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="39">
+        <v>1</v>
+      </c>
+      <c r="B392" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C391" s="5" t="s">
+      <c r="C392" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D391" s="5">
-        <v>10</v>
-      </c>
-      <c r="E391" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F391" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G391" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H391" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I391" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J391" s="83"/>
-      <c r="K391" s="6" t="s">
+      <c r="D392" s="5">
+        <v>10</v>
+      </c>
+      <c r="E392" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G392" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H392" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I392" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J392" s="83"/>
+      <c r="K392" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" s="40">
-        <v>2</v>
-      </c>
-      <c r="B392" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="C392" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D392" s="7">
-        <v>100</v>
-      </c>
-      <c r="E392" s="7"/>
-      <c r="F392" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G392" s="7"/>
-      <c r="H392" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I392" s="85"/>
-      <c r="J392" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K392" s="9"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C393" s="7" t="s">
         <v>14</v>
@@ -11796,47 +11807,47 @@
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D394" s="7"/>
-      <c r="E394" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F394" s="12" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D394" s="7">
+        <v>100</v>
+      </c>
+      <c r="E394" s="7"/>
+      <c r="F394" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G394" s="7"/>
       <c r="H394" s="7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I394" s="85"/>
-      <c r="J394" s="85"/>
-      <c r="K394" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="J394" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K394" s="9"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B395" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C395" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D395" s="7"/>
-      <c r="E395" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F395" s="10" t="s">
-        <v>18</v>
+      <c r="E395" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F395" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G395" s="7"/>
       <c r="H395" s="7" t="s">
@@ -11849,48 +11860,62 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="41">
+      <c r="A396" s="40">
+        <v>5</v>
+      </c>
+      <c r="B396" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C396" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D396" s="7"/>
+      <c r="E396" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F396" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G396" s="7"/>
+      <c r="H396" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I396" s="85"/>
+      <c r="J396" s="85"/>
+      <c r="K396" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="41">
         <v>6</v>
       </c>
-      <c r="B396" s="13" t="s">
+      <c r="B397" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C396" s="13" t="s">
+      <c r="C397" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D396" s="13">
-        <v>1</v>
-      </c>
-      <c r="E396" s="13">
-        <v>0</v>
-      </c>
-      <c r="F396" s="13">
-        <v>0</v>
-      </c>
-      <c r="G396" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H396" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I396" s="84"/>
-      <c r="J396" s="84"/>
-      <c r="K396" s="14" t="s">
+      <c r="D397" s="13">
+        <v>1</v>
+      </c>
+      <c r="E397" s="13">
+        <v>0</v>
+      </c>
+      <c r="F397" s="13">
+        <v>0</v>
+      </c>
+      <c r="G397" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H397" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I397" s="84"/>
+      <c r="J397" s="84"/>
+      <c r="K397" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="101"/>
-      <c r="B397" s="101"/>
-      <c r="C397" s="101"/>
-      <c r="D397" s="101"/>
-      <c r="E397" s="101"/>
-      <c r="F397" s="101"/>
-      <c r="G397" s="101"/>
-      <c r="H397" s="101"/>
-      <c r="I397" s="101"/>
-      <c r="J397" s="101"/>
-      <c r="K397" s="101"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="102"/>
@@ -11906,121 +11931,107 @@
       <c r="K398" s="102"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="103" t="s">
+      <c r="A399" s="103"/>
+      <c r="B399" s="103"/>
+      <c r="C399" s="103"/>
+      <c r="D399" s="103"/>
+      <c r="E399" s="103"/>
+      <c r="F399" s="103"/>
+      <c r="G399" s="103"/>
+      <c r="H399" s="103"/>
+      <c r="I399" s="103"/>
+      <c r="J399" s="103"/>
+      <c r="K399" s="103"/>
+    </row>
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A400" s="104" t="s">
         <v>262</v>
       </c>
-      <c r="B399" s="104"/>
-      <c r="C399" s="104"/>
-      <c r="D399" s="104"/>
-      <c r="E399" s="104"/>
-      <c r="F399" s="104"/>
-      <c r="G399" s="104"/>
-      <c r="H399" s="104"/>
-      <c r="I399" s="104"/>
-      <c r="J399" s="104"/>
-      <c r="K399" s="105"/>
-    </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B400" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C400" s="19" t="s">
+      <c r="B400" s="105"/>
+      <c r="C400" s="105"/>
+      <c r="D400" s="105"/>
+      <c r="E400" s="105"/>
+      <c r="F400" s="105"/>
+      <c r="G400" s="105"/>
+      <c r="H400" s="105"/>
+      <c r="I400" s="105"/>
+      <c r="J400" s="105"/>
+      <c r="K400" s="106"/>
+    </row>
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A401" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B401" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C401" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D400" s="19" t="s">
+      <c r="D401" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E400" s="19" t="s">
+      <c r="E401" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F400" s="19" t="s">
+      <c r="F401" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G400" s="19" t="s">
+      <c r="G401" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H400" s="19" t="s">
+      <c r="H401" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I400" s="20" t="s">
+      <c r="I401" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J400" s="20" t="s">
+      <c r="J401" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K400" s="19" t="s">
+      <c r="K401" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="39">
-        <v>1</v>
-      </c>
-      <c r="B401" s="5" t="s">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" s="39">
+        <v>1</v>
+      </c>
+      <c r="B402" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C401" s="5" t="s">
+      <c r="C402" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D401" s="5">
-        <v>10</v>
-      </c>
-      <c r="E401" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F401" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G401" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H401" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I401" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J401" s="83"/>
-      <c r="K401" s="6" t="s">
+      <c r="D402" s="5">
+        <v>10</v>
+      </c>
+      <c r="E402" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G402" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H402" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I402" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J402" s="83"/>
+      <c r="K402" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="40">
-        <v>2</v>
-      </c>
-      <c r="B402" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="C402" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D402" s="7">
-        <v>100</v>
-      </c>
-      <c r="E402" s="7"/>
-      <c r="F402" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G402" s="7"/>
-      <c r="H402" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I402" s="85"/>
-      <c r="J402" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K402" s="9"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>14</v>
@@ -12044,47 +12055,47 @@
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>23</v>
+        <v>263</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D404" s="7"/>
-      <c r="E404" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F404" s="12" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D404" s="7">
+        <v>100</v>
+      </c>
+      <c r="E404" s="7"/>
+      <c r="F404" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G404" s="7"/>
       <c r="H404" s="7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I404" s="85"/>
-      <c r="J404" s="85"/>
-      <c r="K404" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="J404" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K404" s="9"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B405" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C405" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D405" s="7"/>
-      <c r="E405" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F405" s="10" t="s">
-        <v>18</v>
+      <c r="E405" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F405" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G405" s="7"/>
       <c r="H405" s="7" t="s">
@@ -12097,48 +12108,62 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="41">
+      <c r="A406" s="40">
+        <v>5</v>
+      </c>
+      <c r="B406" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C406" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D406" s="7"/>
+      <c r="E406" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F406" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G406" s="7"/>
+      <c r="H406" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I406" s="85"/>
+      <c r="J406" s="85"/>
+      <c r="K406" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="41">
         <v>6</v>
       </c>
-      <c r="B406" s="13" t="s">
+      <c r="B407" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C406" s="13" t="s">
+      <c r="C407" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D406" s="13">
-        <v>1</v>
-      </c>
-      <c r="E406" s="13">
-        <v>0</v>
-      </c>
-      <c r="F406" s="13">
-        <v>0</v>
-      </c>
-      <c r="G406" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H406" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I406" s="84"/>
-      <c r="J406" s="84"/>
-      <c r="K406" s="14" t="s">
+      <c r="D407" s="13">
+        <v>1</v>
+      </c>
+      <c r="E407" s="13">
+        <v>0</v>
+      </c>
+      <c r="F407" s="13">
+        <v>0</v>
+      </c>
+      <c r="G407" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H407" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I407" s="84"/>
+      <c r="J407" s="84"/>
+      <c r="K407" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="101"/>
-      <c r="B407" s="101"/>
-      <c r="C407" s="101"/>
-      <c r="D407" s="101"/>
-      <c r="E407" s="101"/>
-      <c r="F407" s="101"/>
-      <c r="G407" s="101"/>
-      <c r="H407" s="101"/>
-      <c r="I407" s="101"/>
-      <c r="J407" s="101"/>
-      <c r="K407" s="101"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="102"/>
@@ -12154,179 +12179,165 @@
       <c r="K408" s="102"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="103" t="s">
+      <c r="A409" s="103"/>
+      <c r="B409" s="103"/>
+      <c r="C409" s="103"/>
+      <c r="D409" s="103"/>
+      <c r="E409" s="103"/>
+      <c r="F409" s="103"/>
+      <c r="G409" s="103"/>
+      <c r="H409" s="103"/>
+      <c r="I409" s="103"/>
+      <c r="J409" s="103"/>
+      <c r="K409" s="103"/>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="104" t="s">
         <v>265</v>
       </c>
-      <c r="B409" s="104"/>
-      <c r="C409" s="104"/>
-      <c r="D409" s="104"/>
-      <c r="E409" s="104"/>
-      <c r="F409" s="104"/>
-      <c r="G409" s="104"/>
-      <c r="H409" s="104"/>
-      <c r="I409" s="104"/>
-      <c r="J409" s="104"/>
-      <c r="K409" s="105"/>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B410" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C410" s="19" t="s">
+      <c r="B410" s="105"/>
+      <c r="C410" s="105"/>
+      <c r="D410" s="105"/>
+      <c r="E410" s="105"/>
+      <c r="F410" s="105"/>
+      <c r="G410" s="105"/>
+      <c r="H410" s="105"/>
+      <c r="I410" s="105"/>
+      <c r="J410" s="105"/>
+      <c r="K410" s="106"/>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B411" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C411" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D410" s="19" t="s">
+      <c r="D411" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E410" s="19" t="s">
+      <c r="E411" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F410" s="19" t="s">
+      <c r="F411" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G410" s="19" t="s">
+      <c r="G411" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H410" s="19" t="s">
+      <c r="H411" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I410" s="20" t="s">
+      <c r="I411" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J410" s="20" t="s">
+      <c r="J411" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K410" s="19" t="s">
+      <c r="K411" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="39">
-        <v>1</v>
-      </c>
-      <c r="B411" s="5" t="s">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="39">
+        <v>1</v>
+      </c>
+      <c r="B412" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C411" s="5" t="s">
+      <c r="C412" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D411" s="5">
-        <v>10</v>
-      </c>
-      <c r="E411" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F411" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G411" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H411" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I411" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J411" s="83"/>
-      <c r="K411" s="6" t="s">
+      <c r="D412" s="5">
+        <v>10</v>
+      </c>
+      <c r="E412" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F412" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G412" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H412" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I412" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J412" s="83"/>
+      <c r="K412" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="1">
-        <v>2</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C412" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D412" s="2">
-        <v>10</v>
-      </c>
-      <c r="F412" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G412" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H412" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J412" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K412" s="9"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
+        <v>2</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D413" s="2">
+        <v>10</v>
+      </c>
+      <c r="F413" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J413" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K413" s="9"/>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="1">
         <v>3</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B414" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="C414" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F413" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H413" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J413" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K413" s="9"/>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="40">
-        <v>4</v>
-      </c>
-      <c r="B414" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C414" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D414" s="7"/>
-      <c r="E414" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F414" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G414" s="7"/>
-      <c r="H414" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I414" s="85"/>
-      <c r="J414" s="85"/>
-      <c r="K414" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="F414" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H414" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J414" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K414" s="9"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B415" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C415" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D415" s="7"/>
-      <c r="E415" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F415" s="10" t="s">
-        <v>18</v>
+      <c r="E415" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F415" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G415" s="7"/>
       <c r="H415" s="7" t="s">
@@ -12339,48 +12350,62 @@
       </c>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="41">
+      <c r="A416" s="40">
+        <v>5</v>
+      </c>
+      <c r="B416" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C416" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D416" s="7"/>
+      <c r="E416" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F416" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G416" s="7"/>
+      <c r="H416" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I416" s="85"/>
+      <c r="J416" s="85"/>
+      <c r="K416" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="41">
         <v>6</v>
       </c>
-      <c r="B416" s="13" t="s">
+      <c r="B417" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C416" s="13" t="s">
+      <c r="C417" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D416" s="13">
-        <v>1</v>
-      </c>
-      <c r="E416" s="13">
-        <v>0</v>
-      </c>
-      <c r="F416" s="13">
-        <v>0</v>
-      </c>
-      <c r="G416" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H416" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I416" s="84"/>
-      <c r="J416" s="84"/>
-      <c r="K416" s="14" t="s">
+      <c r="D417" s="13">
+        <v>1</v>
+      </c>
+      <c r="E417" s="13">
+        <v>0</v>
+      </c>
+      <c r="F417" s="13">
+        <v>0</v>
+      </c>
+      <c r="G417" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H417" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I417" s="84"/>
+      <c r="J417" s="84"/>
+      <c r="K417" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="101"/>
-      <c r="B417" s="101"/>
-      <c r="C417" s="101"/>
-      <c r="D417" s="101"/>
-      <c r="E417" s="101"/>
-      <c r="F417" s="101"/>
-      <c r="G417" s="101"/>
-      <c r="H417" s="101"/>
-      <c r="I417" s="101"/>
-      <c r="J417" s="101"/>
-      <c r="K417" s="101"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="102"/>
@@ -12396,208 +12421,194 @@
       <c r="K418" s="102"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="103" t="s">
+      <c r="A419" s="103"/>
+      <c r="B419" s="103"/>
+      <c r="C419" s="103"/>
+      <c r="D419" s="103"/>
+      <c r="E419" s="103"/>
+      <c r="F419" s="103"/>
+      <c r="G419" s="103"/>
+      <c r="H419" s="103"/>
+      <c r="I419" s="103"/>
+      <c r="J419" s="103"/>
+      <c r="K419" s="103"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="104" t="s">
         <v>268</v>
       </c>
-      <c r="B419" s="104"/>
-      <c r="C419" s="104"/>
-      <c r="D419" s="104"/>
-      <c r="E419" s="104"/>
-      <c r="F419" s="104"/>
-      <c r="G419" s="104"/>
-      <c r="H419" s="104"/>
-      <c r="I419" s="104"/>
-      <c r="J419" s="104"/>
-      <c r="K419" s="105"/>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B420" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C420" s="19" t="s">
+      <c r="B420" s="105"/>
+      <c r="C420" s="105"/>
+      <c r="D420" s="105"/>
+      <c r="E420" s="105"/>
+      <c r="F420" s="105"/>
+      <c r="G420" s="105"/>
+      <c r="H420" s="105"/>
+      <c r="I420" s="105"/>
+      <c r="J420" s="105"/>
+      <c r="K420" s="106"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B421" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C421" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D420" s="19" t="s">
+      <c r="D421" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E420" s="19" t="s">
+      <c r="E421" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F420" s="19" t="s">
+      <c r="F421" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G420" s="19" t="s">
+      <c r="G421" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H420" s="19" t="s">
+      <c r="H421" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I420" s="20" t="s">
+      <c r="I421" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J420" s="20" t="s">
+      <c r="J421" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K420" s="19" t="s">
+      <c r="K421" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="39">
-        <v>1</v>
-      </c>
-      <c r="B421" s="5" t="s">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="39">
+        <v>1</v>
+      </c>
+      <c r="B422" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C421" s="5" t="s">
+      <c r="C422" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D421" s="5">
-        <v>10</v>
-      </c>
-      <c r="E421" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F421" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G421" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H421" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I421" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J421" s="83"/>
-      <c r="K421" s="6" t="s">
+      <c r="D422" s="5">
+        <v>10</v>
+      </c>
+      <c r="E422" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G422" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H422" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I422" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J422" s="83"/>
+      <c r="K422" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="85">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="85">
         <v>2</v>
       </c>
-      <c r="B422" s="7" t="s">
+      <c r="B423" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C422" s="7" t="s">
+      <c r="C423" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D422" s="7">
+      <c r="D423" s="7">
         <v>20</v>
       </c>
-      <c r="E422" s="7"/>
-      <c r="F422" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G422" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H422" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I422" s="85"/>
-      <c r="J422" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K422" s="9"/>
-    </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="1">
-        <v>3</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C423" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D423" s="2">
-        <v>10</v>
-      </c>
-      <c r="F423" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G423" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H423" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J423" s="1" t="s">
+      <c r="E423" s="7"/>
+      <c r="F423" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G423" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H423" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I423" s="85"/>
+      <c r="J423" s="85" t="s">
         <v>12</v>
       </c>
       <c r="K423" s="9"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
+        <v>3</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D424" s="2">
+        <v>10</v>
+      </c>
+      <c r="F424" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J424" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K424" s="9"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="1">
         <v>4</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B425" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="C425" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F424" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H424" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J424" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K424" s="9"/>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="40">
-        <v>5</v>
-      </c>
-      <c r="B425" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C425" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D425" s="7"/>
-      <c r="E425" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F425" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G425" s="7"/>
-      <c r="H425" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I425" s="85"/>
-      <c r="J425" s="85"/>
-      <c r="K425" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="F425" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H425" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J425" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K425" s="9"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B426" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C426" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D426" s="7"/>
-      <c r="E426" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F426" s="10" t="s">
-        <v>18</v>
+      <c r="E426" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F426" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G426" s="7"/>
       <c r="H426" s="7" t="s">
@@ -12610,48 +12621,62 @@
       </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="41">
+      <c r="A427" s="40">
+        <v>6</v>
+      </c>
+      <c r="B427" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C427" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D427" s="7"/>
+      <c r="E427" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F427" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G427" s="7"/>
+      <c r="H427" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I427" s="85"/>
+      <c r="J427" s="85"/>
+      <c r="K427" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" s="41">
         <v>7</v>
       </c>
-      <c r="B427" s="13" t="s">
+      <c r="B428" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C427" s="13" t="s">
+      <c r="C428" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D427" s="13">
-        <v>1</v>
-      </c>
-      <c r="E427" s="13">
-        <v>0</v>
-      </c>
-      <c r="F427" s="13">
-        <v>0</v>
-      </c>
-      <c r="G427" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H427" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I427" s="84"/>
-      <c r="J427" s="84"/>
-      <c r="K427" s="14" t="s">
+      <c r="D428" s="13">
+        <v>1</v>
+      </c>
+      <c r="E428" s="13">
+        <v>0</v>
+      </c>
+      <c r="F428" s="13">
+        <v>0</v>
+      </c>
+      <c r="G428" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H428" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I428" s="84"/>
+      <c r="J428" s="84"/>
+      <c r="K428" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="101"/>
-      <c r="B428" s="101"/>
-      <c r="C428" s="101"/>
-      <c r="D428" s="101"/>
-      <c r="E428" s="101"/>
-      <c r="F428" s="101"/>
-      <c r="G428" s="101"/>
-      <c r="H428" s="101"/>
-      <c r="I428" s="101"/>
-      <c r="J428" s="101"/>
-      <c r="K428" s="101"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="102"/>
@@ -12667,155 +12692,141 @@
       <c r="K429" s="102"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="103" t="s">
+      <c r="A430" s="103"/>
+      <c r="B430" s="103"/>
+      <c r="C430" s="103"/>
+      <c r="D430" s="103"/>
+      <c r="E430" s="103"/>
+      <c r="F430" s="103"/>
+      <c r="G430" s="103"/>
+      <c r="H430" s="103"/>
+      <c r="I430" s="103"/>
+      <c r="J430" s="103"/>
+      <c r="K430" s="103"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="104" t="s">
         <v>271</v>
       </c>
-      <c r="B430" s="104"/>
-      <c r="C430" s="104"/>
-      <c r="D430" s="104"/>
-      <c r="E430" s="104"/>
-      <c r="F430" s="104"/>
-      <c r="G430" s="104"/>
-      <c r="H430" s="104"/>
-      <c r="I430" s="104"/>
-      <c r="J430" s="104"/>
-      <c r="K430" s="105"/>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B431" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C431" s="19" t="s">
+      <c r="B431" s="105"/>
+      <c r="C431" s="105"/>
+      <c r="D431" s="105"/>
+      <c r="E431" s="105"/>
+      <c r="F431" s="105"/>
+      <c r="G431" s="105"/>
+      <c r="H431" s="105"/>
+      <c r="I431" s="105"/>
+      <c r="J431" s="105"/>
+      <c r="K431" s="106"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B432" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C432" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D431" s="19" t="s">
+      <c r="D432" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E431" s="19" t="s">
+      <c r="E432" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F431" s="19" t="s">
+      <c r="F432" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G431" s="19" t="s">
+      <c r="G432" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H431" s="19" t="s">
+      <c r="H432" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I431" s="20" t="s">
+      <c r="I432" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J431" s="20" t="s">
+      <c r="J432" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K431" s="19" t="s">
+      <c r="K432" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="39">
-        <v>1</v>
-      </c>
-      <c r="B432" s="5" t="s">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433" s="39">
+        <v>1</v>
+      </c>
+      <c r="B433" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C432" s="5" t="s">
+      <c r="C433" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D432" s="5">
-        <v>10</v>
-      </c>
-      <c r="E432" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F432" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G432" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H432" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I432" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="J432" s="86"/>
-      <c r="K432" s="6" t="s">
+      <c r="D433" s="5">
+        <v>10</v>
+      </c>
+      <c r="E433" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G433" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H433" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I433" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="J433" s="86"/>
+      <c r="K433" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" s="1">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A434" s="1">
         <v>2</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B434" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C433" s="2" t="s">
+      <c r="C434" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D433" s="2">
+      <c r="D434" s="2">
         <v>255</v>
       </c>
-      <c r="F433" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H433" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J433" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K433" s="9"/>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="40">
-        <v>3</v>
-      </c>
-      <c r="B434" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C434" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D434" s="7"/>
-      <c r="E434" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F434" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G434" s="7"/>
-      <c r="H434" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I434" s="88"/>
-      <c r="J434" s="88"/>
-      <c r="K434" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="F434" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H434" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K434" s="9"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D435" s="7"/>
-      <c r="E435" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F435" s="10" t="s">
-        <v>18</v>
+      <c r="E435" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F435" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G435" s="7"/>
       <c r="H435" s="7" t="s">
@@ -12828,48 +12839,62 @@
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="41">
+      <c r="A436" s="40">
+        <v>4</v>
+      </c>
+      <c r="B436" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C436" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D436" s="7"/>
+      <c r="E436" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F436" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G436" s="7"/>
+      <c r="H436" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I436" s="88"/>
+      <c r="J436" s="88"/>
+      <c r="K436" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" s="41">
         <v>5</v>
       </c>
-      <c r="B436" s="13" t="s">
+      <c r="B437" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C436" s="13" t="s">
+      <c r="C437" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D436" s="13">
-        <v>1</v>
-      </c>
-      <c r="E436" s="13">
-        <v>0</v>
-      </c>
-      <c r="F436" s="13">
-        <v>0</v>
-      </c>
-      <c r="G436" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H436" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I436" s="87"/>
-      <c r="J436" s="87"/>
-      <c r="K436" s="14" t="s">
+      <c r="D437" s="13">
+        <v>1</v>
+      </c>
+      <c r="E437" s="13">
+        <v>0</v>
+      </c>
+      <c r="F437" s="13">
+        <v>0</v>
+      </c>
+      <c r="G437" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H437" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I437" s="87"/>
+      <c r="J437" s="87"/>
+      <c r="K437" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="101"/>
-      <c r="B437" s="101"/>
-      <c r="C437" s="101"/>
-      <c r="D437" s="101"/>
-      <c r="E437" s="101"/>
-      <c r="F437" s="101"/>
-      <c r="G437" s="101"/>
-      <c r="H437" s="101"/>
-      <c r="I437" s="101"/>
-      <c r="J437" s="101"/>
-      <c r="K437" s="101"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="102"/>
@@ -12885,129 +12910,113 @@
       <c r="K438" s="102"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="103" t="s">
+      <c r="A439" s="103"/>
+      <c r="B439" s="103"/>
+      <c r="C439" s="103"/>
+      <c r="D439" s="103"/>
+      <c r="E439" s="103"/>
+      <c r="F439" s="103"/>
+      <c r="G439" s="103"/>
+      <c r="H439" s="103"/>
+      <c r="I439" s="103"/>
+      <c r="J439" s="103"/>
+      <c r="K439" s="103"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" s="104" t="s">
         <v>273</v>
       </c>
-      <c r="B439" s="104"/>
-      <c r="C439" s="104"/>
-      <c r="D439" s="104"/>
-      <c r="E439" s="104"/>
-      <c r="F439" s="104"/>
-      <c r="G439" s="104"/>
-      <c r="H439" s="104"/>
-      <c r="I439" s="104"/>
-      <c r="J439" s="104"/>
-      <c r="K439" s="105"/>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B440" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C440" s="19" t="s">
+      <c r="B440" s="105"/>
+      <c r="C440" s="105"/>
+      <c r="D440" s="105"/>
+      <c r="E440" s="105"/>
+      <c r="F440" s="105"/>
+      <c r="G440" s="105"/>
+      <c r="H440" s="105"/>
+      <c r="I440" s="105"/>
+      <c r="J440" s="105"/>
+      <c r="K440" s="106"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B441" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C441" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D440" s="19" t="s">
+      <c r="D441" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E440" s="19" t="s">
+      <c r="E441" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F440" s="19" t="s">
+      <c r="F441" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G440" s="19" t="s">
+      <c r="G441" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H440" s="19" t="s">
+      <c r="H441" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I440" s="20" t="s">
+      <c r="I441" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J440" s="20" t="s">
+      <c r="J441" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K440" s="19" t="s">
+      <c r="K441" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" s="39">
-        <v>1</v>
-      </c>
-      <c r="B441" s="5" t="s">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" s="39">
+        <v>1</v>
+      </c>
+      <c r="B442" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C441" s="5" t="s">
+      <c r="C442" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D441" s="5">
+      <c r="D442" s="5">
         <v>20</v>
       </c>
-      <c r="E441" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F441" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G441" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H441" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I441" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="J441" s="94"/>
-      <c r="K441" s="6" t="s">
+      <c r="E442" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G442" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H442" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I442" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="J442" s="94"/>
+      <c r="K442" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="40">
-        <v>2</v>
-      </c>
-      <c r="B442" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C442" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D442" s="7">
-        <v>20</v>
-      </c>
-      <c r="E442" s="7"/>
-      <c r="F442" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G442" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H442" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I442" s="92"/>
-      <c r="J442" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="K442" s="9"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D443" s="7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E443" s="7"/>
       <c r="F443" s="7" t="s">
@@ -13027,49 +13036,53 @@
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C444" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D444" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E444" s="7"/>
-      <c r="F444" s="12">
-        <v>0</v>
+      <c r="F444" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G444" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H444" s="7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I444" s="92"/>
-      <c r="J444" s="92"/>
+      <c r="J444" s="92" t="s">
+        <v>12</v>
+      </c>
       <c r="K444" s="9"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B445" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C445" s="7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D445" s="7">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="E445" s="7"/>
-      <c r="F445" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G445" s="7"/>
+      <c r="F445" s="12">
+        <v>0</v>
+      </c>
+      <c r="G445" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H445" s="7" t="s">
         <v>12</v>
       </c>
@@ -13079,10 +13092,10 @@
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B446" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C446" s="7" t="s">
         <v>14</v>
@@ -13104,20 +13117,20 @@
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B447" s="7" t="s">
-        <v>23</v>
+        <v>284</v>
       </c>
       <c r="C447" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D447" s="7"/>
-      <c r="E447" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F447" s="12" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D447" s="7">
+        <v>255</v>
+      </c>
+      <c r="E447" s="7"/>
+      <c r="F447" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G447" s="7"/>
       <c r="H447" s="7" t="s">
@@ -13125,26 +13138,24 @@
       </c>
       <c r="I447" s="92"/>
       <c r="J447" s="92"/>
-      <c r="K447" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="K447" s="9"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B448" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C448" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D448" s="7"/>
-      <c r="E448" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F448" s="10" t="s">
-        <v>18</v>
+      <c r="E448" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F448" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G448" s="7"/>
       <c r="H448" s="7" t="s">
@@ -13157,48 +13168,62 @@
       </c>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A449" s="41">
+      <c r="A449" s="40">
+        <v>8</v>
+      </c>
+      <c r="B449" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C449" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D449" s="7"/>
+      <c r="E449" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F449" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G449" s="7"/>
+      <c r="H449" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I449" s="92"/>
+      <c r="J449" s="92"/>
+      <c r="K449" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A450" s="41">
         <v>9</v>
       </c>
-      <c r="B449" s="13" t="s">
+      <c r="B450" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C449" s="13" t="s">
+      <c r="C450" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D449" s="13">
-        <v>1</v>
-      </c>
-      <c r="E449" s="13">
-        <v>0</v>
-      </c>
-      <c r="F449" s="13">
-        <v>0</v>
-      </c>
-      <c r="G449" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H449" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I449" s="93"/>
-      <c r="J449" s="93"/>
-      <c r="K449" s="14" t="s">
+      <c r="D450" s="13">
+        <v>1</v>
+      </c>
+      <c r="E450" s="13">
+        <v>0</v>
+      </c>
+      <c r="F450" s="13">
+        <v>0</v>
+      </c>
+      <c r="G450" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H450" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I450" s="93"/>
+      <c r="J450" s="93"/>
+      <c r="K450" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" s="101"/>
-      <c r="B450" s="101"/>
-      <c r="C450" s="101"/>
-      <c r="D450" s="101"/>
-      <c r="E450" s="101"/>
-      <c r="F450" s="101"/>
-      <c r="G450" s="101"/>
-      <c r="H450" s="101"/>
-      <c r="I450" s="101"/>
-      <c r="J450" s="101"/>
-      <c r="K450" s="101"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="102"/>
@@ -13214,123 +13239,107 @@
       <c r="K451" s="102"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="103" t="s">
+      <c r="A452" s="103"/>
+      <c r="B452" s="103"/>
+      <c r="C452" s="103"/>
+      <c r="D452" s="103"/>
+      <c r="E452" s="103"/>
+      <c r="F452" s="103"/>
+      <c r="G452" s="103"/>
+      <c r="H452" s="103"/>
+      <c r="I452" s="103"/>
+      <c r="J452" s="103"/>
+      <c r="K452" s="103"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A453" s="104" t="s">
         <v>285</v>
       </c>
-      <c r="B452" s="104"/>
-      <c r="C452" s="104"/>
-      <c r="D452" s="104"/>
-      <c r="E452" s="104"/>
-      <c r="F452" s="104"/>
-      <c r="G452" s="104"/>
-      <c r="H452" s="104"/>
-      <c r="I452" s="104"/>
-      <c r="J452" s="104"/>
-      <c r="K452" s="105"/>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B453" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C453" s="19" t="s">
+      <c r="B453" s="105"/>
+      <c r="C453" s="105"/>
+      <c r="D453" s="105"/>
+      <c r="E453" s="105"/>
+      <c r="F453" s="105"/>
+      <c r="G453" s="105"/>
+      <c r="H453" s="105"/>
+      <c r="I453" s="105"/>
+      <c r="J453" s="105"/>
+      <c r="K453" s="106"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A454" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B454" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C454" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D453" s="19" t="s">
+      <c r="D454" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E453" s="19" t="s">
+      <c r="E454" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F453" s="19" t="s">
+      <c r="F454" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G453" s="19" t="s">
+      <c r="G454" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H453" s="19" t="s">
+      <c r="H454" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I453" s="20" t="s">
+      <c r="I454" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J453" s="20" t="s">
+      <c r="J454" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K453" s="19" t="s">
+      <c r="K454" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" s="39">
-        <v>1</v>
-      </c>
-      <c r="B454" s="5" t="s">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A455" s="39">
+        <v>1</v>
+      </c>
+      <c r="B455" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C454" s="5" t="s">
+      <c r="C455" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D454" s="5">
+      <c r="D455" s="5">
         <v>20</v>
       </c>
-      <c r="E454" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F454" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G454" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H454" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I454" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="J454" s="94"/>
-      <c r="K454" s="6" t="s">
+      <c r="E455" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F455" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G455" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H455" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I455" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="J455" s="94"/>
+      <c r="K455" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" s="40">
-        <v>2</v>
-      </c>
-      <c r="B455" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C455" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D455" s="7">
-        <v>20</v>
-      </c>
-      <c r="E455" s="7"/>
-      <c r="F455" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G455" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H455" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I455" s="92"/>
-      <c r="J455" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="K455" s="9"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C456" s="7" t="s">
         <v>116</v>
@@ -13356,16 +13365,16 @@
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B457" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C457" s="7" t="s">
-        <v>9</v>
+        <v>116</v>
       </c>
       <c r="D457" s="7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E457" s="7"/>
       <c r="F457" s="7" t="s">
@@ -13385,16 +13394,16 @@
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B458" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C458" s="7" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D458" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E458" s="7"/>
       <c r="F458" s="7" t="s">
@@ -13410,53 +13419,55 @@
       <c r="J458" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="K458" s="9" t="s">
-        <v>290</v>
-      </c>
+      <c r="K458" s="9"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B459" s="7" t="s">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="C459" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D459" s="7"/>
-      <c r="E459" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F459" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G459" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="D459" s="7">
+        <v>1</v>
+      </c>
+      <c r="E459" s="7"/>
+      <c r="F459" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G459" s="7" t="s">
+        <v>11</v>
+      </c>
       <c r="H459" s="7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I459" s="92"/>
-      <c r="J459" s="92"/>
+      <c r="J459" s="92" t="s">
+        <v>12</v>
+      </c>
       <c r="K459" s="9" t="s">
-        <v>16</v>
+        <v>290</v>
       </c>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B460" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C460" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D460" s="7"/>
-      <c r="E460" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F460" s="10" t="s">
-        <v>18</v>
+      <c r="E460" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F460" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G460" s="7"/>
       <c r="H460" s="7" t="s">
@@ -13469,101 +13480,67 @@
       </c>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="41">
+      <c r="A461" s="40">
+        <v>7</v>
+      </c>
+      <c r="B461" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D461" s="7"/>
+      <c r="E461" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F461" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G461" s="7"/>
+      <c r="H461" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I461" s="92"/>
+      <c r="J461" s="92"/>
+      <c r="K461" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" s="41">
         <v>8</v>
       </c>
-      <c r="B461" s="13" t="s">
+      <c r="B462" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C461" s="13" t="s">
+      <c r="C462" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D461" s="13">
-        <v>1</v>
-      </c>
-      <c r="E461" s="13">
-        <v>0</v>
-      </c>
-      <c r="F461" s="13">
-        <v>0</v>
-      </c>
-      <c r="G461" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H461" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I461" s="93"/>
-      <c r="J461" s="93"/>
-      <c r="K461" s="14" t="s">
+      <c r="D462" s="13">
+        <v>1</v>
+      </c>
+      <c r="E462" s="13">
+        <v>0</v>
+      </c>
+      <c r="F462" s="13">
+        <v>0</v>
+      </c>
+      <c r="G462" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H462" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I462" s="93"/>
+      <c r="J462" s="93"/>
+      <c r="K462" s="14" t="s">
         <v>42</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A65:K66"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="A437:K438"/>
-    <mergeCell ref="A439:K439"/>
-    <mergeCell ref="A364:K365"/>
-    <mergeCell ref="A366:K366"/>
-    <mergeCell ref="A428:K429"/>
-    <mergeCell ref="A430:K430"/>
-    <mergeCell ref="A409:K409"/>
-    <mergeCell ref="A417:K418"/>
-    <mergeCell ref="A419:K419"/>
-    <mergeCell ref="A397:K398"/>
-    <mergeCell ref="A399:K399"/>
-    <mergeCell ref="A407:K408"/>
-    <mergeCell ref="A389:K389"/>
-    <mergeCell ref="A331:K331"/>
-    <mergeCell ref="A304:K305"/>
-    <mergeCell ref="A306:K306"/>
-    <mergeCell ref="A318:K319"/>
-    <mergeCell ref="A320:K320"/>
-    <mergeCell ref="A329:K330"/>
-    <mergeCell ref="A340:K341"/>
-    <mergeCell ref="A342:K342"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A32:K33"/>
-    <mergeCell ref="A387:K388"/>
-    <mergeCell ref="A173:K174"/>
-    <mergeCell ref="A158:K158"/>
-    <mergeCell ref="A156:K157"/>
-    <mergeCell ref="A377:K377"/>
-    <mergeCell ref="A375:K376"/>
-    <mergeCell ref="A353:K353"/>
-    <mergeCell ref="A351:K352"/>
-    <mergeCell ref="A259:K259"/>
-    <mergeCell ref="A257:K258"/>
-    <mergeCell ref="A248:K248"/>
-    <mergeCell ref="A246:K247"/>
-    <mergeCell ref="A175:K175"/>
-    <mergeCell ref="A76:K77"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="A86:K87"/>
-    <mergeCell ref="A141:K141"/>
-    <mergeCell ref="A139:K140"/>
-    <mergeCell ref="A126:K126"/>
-    <mergeCell ref="A124:K125"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="A110:K111"/>
-    <mergeCell ref="A99:K100"/>
-    <mergeCell ref="A101:K101"/>
-    <mergeCell ref="A288:K288"/>
-    <mergeCell ref="A295:K296"/>
-    <mergeCell ref="A297:K297"/>
-    <mergeCell ref="A185:K185"/>
-    <mergeCell ref="A183:K184"/>
-    <mergeCell ref="A236:K237"/>
-    <mergeCell ref="A222:K222"/>
-    <mergeCell ref="A268:K269"/>
-    <mergeCell ref="A270:K270"/>
-    <mergeCell ref="A277:K278"/>
-    <mergeCell ref="A238:K238"/>
-    <mergeCell ref="A450:K451"/>
-    <mergeCell ref="A452:K452"/>
+    <mergeCell ref="A451:K452"/>
+    <mergeCell ref="A453:K453"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
@@ -13578,6 +13555,67 @@
     <mergeCell ref="A196:K197"/>
     <mergeCell ref="A279:K279"/>
     <mergeCell ref="A286:K287"/>
+    <mergeCell ref="A288:K288"/>
+    <mergeCell ref="A295:K296"/>
+    <mergeCell ref="A297:K297"/>
+    <mergeCell ref="A185:K185"/>
+    <mergeCell ref="A183:K184"/>
+    <mergeCell ref="A236:K237"/>
+    <mergeCell ref="A222:K222"/>
+    <mergeCell ref="A268:K269"/>
+    <mergeCell ref="A270:K270"/>
+    <mergeCell ref="A277:K278"/>
+    <mergeCell ref="A238:K238"/>
+    <mergeCell ref="A175:K175"/>
+    <mergeCell ref="A76:K77"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="A86:K87"/>
+    <mergeCell ref="A141:K141"/>
+    <mergeCell ref="A139:K140"/>
+    <mergeCell ref="A126:K126"/>
+    <mergeCell ref="A124:K125"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="A110:K111"/>
+    <mergeCell ref="A99:K100"/>
+    <mergeCell ref="A101:K101"/>
+    <mergeCell ref="A340:K341"/>
+    <mergeCell ref="A342:K342"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A32:K33"/>
+    <mergeCell ref="A388:K389"/>
+    <mergeCell ref="A173:K174"/>
+    <mergeCell ref="A158:K158"/>
+    <mergeCell ref="A156:K157"/>
+    <mergeCell ref="A378:K378"/>
+    <mergeCell ref="A376:K377"/>
+    <mergeCell ref="A353:K353"/>
+    <mergeCell ref="A351:K352"/>
+    <mergeCell ref="A259:K259"/>
+    <mergeCell ref="A257:K258"/>
+    <mergeCell ref="A248:K248"/>
+    <mergeCell ref="A246:K247"/>
+    <mergeCell ref="A304:K305"/>
+    <mergeCell ref="A306:K306"/>
+    <mergeCell ref="A318:K319"/>
+    <mergeCell ref="A320:K320"/>
+    <mergeCell ref="A329:K330"/>
+    <mergeCell ref="A65:K66"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A438:K439"/>
+    <mergeCell ref="A440:K440"/>
+    <mergeCell ref="A365:K366"/>
+    <mergeCell ref="A367:K367"/>
+    <mergeCell ref="A429:K430"/>
+    <mergeCell ref="A431:K431"/>
+    <mergeCell ref="A410:K410"/>
+    <mergeCell ref="A418:K419"/>
+    <mergeCell ref="A420:K420"/>
+    <mergeCell ref="A398:K399"/>
+    <mergeCell ref="A400:K400"/>
+    <mergeCell ref="A408:K409"/>
+    <mergeCell ref="A390:K390"/>
+    <mergeCell ref="A331:K331"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13649,45 +13687,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="101"/>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
+      <c r="A1" s="102"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="102"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="105"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="106"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -13872,45 +13910,45 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
+      <c r="A10" s="102"/>
+      <c r="B10" s="102"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
+      <c r="A11" s="103"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="103"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="103" t="s">
+      <c r="A12" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -14182,45 +14220,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="101"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="101"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
+      <c r="A22" s="102"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="102"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="102"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="102"/>
+      <c r="A23" s="103"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="103"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="103"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="103"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="103" t="s">
+      <c r="A24" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="104"/>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="104"/>
-      <c r="K24" s="105"/>
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="106"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -14467,45 +14505,45 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="101"/>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="102"/>
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="102"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="102"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="102"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="103" t="s">
+      <c r="A35" s="104" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="105"/>
+      <c r="B35" s="105"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="106"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -14779,45 +14817,45 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="101"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
+      <c r="A45" s="102"/>
+      <c r="B45" s="102"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="102"/>
+      <c r="E45" s="102"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="102"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="102"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="102"/>
-      <c r="B46" s="102"/>
-      <c r="C46" s="102"/>
-      <c r="D46" s="102"/>
-      <c r="E46" s="102"/>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="102"/>
-      <c r="I46" s="102"/>
-      <c r="J46" s="102"/>
-      <c r="K46" s="102"/>
+      <c r="A46" s="103"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="103"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="103"/>
+      <c r="F46" s="103"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="103"/>
+      <c r="K46" s="103"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="103" t="s">
+      <c r="A47" s="104" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="105"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="105"/>
+      <c r="D47" s="105"/>
+      <c r="E47" s="105"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="106"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -15060,45 +15098,45 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="101"/>
-      <c r="B56" s="101"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="101"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="101"/>
-      <c r="G56" s="101"/>
-      <c r="H56" s="101"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
+      <c r="A56" s="102"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="102"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="102"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="102"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="102"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="102"/>
-      <c r="J57" s="102"/>
-      <c r="K57" s="102"/>
+      <c r="A57" s="103"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="103"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="103" t="s">
+      <c r="A58" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="104"/>
-      <c r="C58" s="104"/>
-      <c r="D58" s="104"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104"/>
-      <c r="K58" s="105"/>
+      <c r="B58" s="105"/>
+      <c r="C58" s="105"/>
+      <c r="D58" s="105"/>
+      <c r="E58" s="105"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="105"/>
+      <c r="K58" s="106"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -15341,45 +15379,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="101"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="101"/>
-      <c r="E67" s="101"/>
-      <c r="F67" s="101"/>
-      <c r="G67" s="101"/>
-      <c r="H67" s="101"/>
-      <c r="I67" s="101"/>
-      <c r="J67" s="101"/>
-      <c r="K67" s="101"/>
+      <c r="A67" s="102"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="102"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="102"/>
-      <c r="B68" s="102"/>
-      <c r="C68" s="102"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
-      <c r="G68" s="102"/>
-      <c r="H68" s="102"/>
-      <c r="I68" s="102"/>
-      <c r="J68" s="102"/>
-      <c r="K68" s="102"/>
+      <c r="A68" s="103"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="103"/>
+      <c r="D68" s="103"/>
+      <c r="E68" s="103"/>
+      <c r="F68" s="103"/>
+      <c r="G68" s="103"/>
+      <c r="H68" s="103"/>
+      <c r="I68" s="103"/>
+      <c r="J68" s="103"/>
+      <c r="K68" s="103"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="103" t="s">
+      <c r="A69" s="104" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="104"/>
-      <c r="C69" s="104"/>
-      <c r="D69" s="104"/>
-      <c r="E69" s="104"/>
-      <c r="F69" s="104"/>
-      <c r="G69" s="104"/>
-      <c r="H69" s="104"/>
-      <c r="I69" s="104"/>
-      <c r="J69" s="104"/>
-      <c r="K69" s="105"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
+      <c r="J69" s="105"/>
+      <c r="K69" s="106"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -15703,45 +15741,45 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="101"/>
-      <c r="B82" s="101"/>
-      <c r="C82" s="101"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="101"/>
-      <c r="G82" s="101"/>
-      <c r="H82" s="101"/>
-      <c r="I82" s="101"/>
-      <c r="J82" s="101"/>
-      <c r="K82" s="101"/>
+      <c r="A82" s="102"/>
+      <c r="B82" s="102"/>
+      <c r="C82" s="102"/>
+      <c r="D82" s="102"/>
+      <c r="E82" s="102"/>
+      <c r="F82" s="102"/>
+      <c r="G82" s="102"/>
+      <c r="H82" s="102"/>
+      <c r="I82" s="102"/>
+      <c r="J82" s="102"/>
+      <c r="K82" s="102"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="102"/>
-      <c r="B83" s="102"/>
-      <c r="C83" s="102"/>
-      <c r="D83" s="102"/>
-      <c r="E83" s="102"/>
-      <c r="F83" s="102"/>
-      <c r="G83" s="102"/>
-      <c r="H83" s="102"/>
-      <c r="I83" s="102"/>
-      <c r="J83" s="102"/>
-      <c r="K83" s="102"/>
+      <c r="A83" s="103"/>
+      <c r="B83" s="103"/>
+      <c r="C83" s="103"/>
+      <c r="D83" s="103"/>
+      <c r="E83" s="103"/>
+      <c r="F83" s="103"/>
+      <c r="G83" s="103"/>
+      <c r="H83" s="103"/>
+      <c r="I83" s="103"/>
+      <c r="J83" s="103"/>
+      <c r="K83" s="103"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="103" t="s">
+      <c r="A84" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="B84" s="104"/>
-      <c r="C84" s="104"/>
-      <c r="D84" s="104"/>
-      <c r="E84" s="104"/>
-      <c r="F84" s="104"/>
-      <c r="G84" s="104"/>
-      <c r="H84" s="104"/>
-      <c r="I84" s="104"/>
-      <c r="J84" s="104"/>
-      <c r="K84" s="105"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="106"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
@@ -15922,45 +15960,45 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="101"/>
-      <c r="B91" s="101"/>
-      <c r="C91" s="101"/>
-      <c r="D91" s="101"/>
-      <c r="E91" s="101"/>
-      <c r="F91" s="101"/>
-      <c r="G91" s="101"/>
-      <c r="H91" s="101"/>
-      <c r="I91" s="101"/>
-      <c r="J91" s="101"/>
-      <c r="K91" s="101"/>
+      <c r="A91" s="102"/>
+      <c r="B91" s="102"/>
+      <c r="C91" s="102"/>
+      <c r="D91" s="102"/>
+      <c r="E91" s="102"/>
+      <c r="F91" s="102"/>
+      <c r="G91" s="102"/>
+      <c r="H91" s="102"/>
+      <c r="I91" s="102"/>
+      <c r="J91" s="102"/>
+      <c r="K91" s="102"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="102"/>
-      <c r="B92" s="102"/>
-      <c r="C92" s="102"/>
-      <c r="D92" s="102"/>
-      <c r="E92" s="102"/>
-      <c r="F92" s="102"/>
-      <c r="G92" s="102"/>
-      <c r="H92" s="102"/>
-      <c r="I92" s="102"/>
-      <c r="J92" s="102"/>
-      <c r="K92" s="102"/>
+      <c r="A92" s="103"/>
+      <c r="B92" s="103"/>
+      <c r="C92" s="103"/>
+      <c r="D92" s="103"/>
+      <c r="E92" s="103"/>
+      <c r="F92" s="103"/>
+      <c r="G92" s="103"/>
+      <c r="H92" s="103"/>
+      <c r="I92" s="103"/>
+      <c r="J92" s="103"/>
+      <c r="K92" s="103"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="103" t="s">
+      <c r="A93" s="104" t="s">
         <v>191</v>
       </c>
-      <c r="B93" s="104"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="104"/>
-      <c r="E93" s="104"/>
-      <c r="F93" s="104"/>
-      <c r="G93" s="104"/>
-      <c r="H93" s="104"/>
-      <c r="I93" s="104"/>
-      <c r="J93" s="104"/>
-      <c r="K93" s="105"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="105"/>
+      <c r="F93" s="105"/>
+      <c r="G93" s="105"/>
+      <c r="H93" s="105"/>
+      <c r="I93" s="105"/>
+      <c r="J93" s="105"/>
+      <c r="K93" s="106"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -16207,45 +16245,45 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="101"/>
-      <c r="B103" s="101"/>
-      <c r="C103" s="101"/>
-      <c r="D103" s="101"/>
-      <c r="E103" s="101"/>
-      <c r="F103" s="101"/>
-      <c r="G103" s="101"/>
-      <c r="H103" s="101"/>
-      <c r="I103" s="101"/>
-      <c r="J103" s="101"/>
-      <c r="K103" s="101"/>
+      <c r="A103" s="102"/>
+      <c r="B103" s="102"/>
+      <c r="C103" s="102"/>
+      <c r="D103" s="102"/>
+      <c r="E103" s="102"/>
+      <c r="F103" s="102"/>
+      <c r="G103" s="102"/>
+      <c r="H103" s="102"/>
+      <c r="I103" s="102"/>
+      <c r="J103" s="102"/>
+      <c r="K103" s="102"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="102"/>
-      <c r="B104" s="102"/>
-      <c r="C104" s="102"/>
-      <c r="D104" s="102"/>
-      <c r="E104" s="102"/>
-      <c r="F104" s="102"/>
-      <c r="G104" s="102"/>
-      <c r="H104" s="102"/>
-      <c r="I104" s="102"/>
-      <c r="J104" s="102"/>
-      <c r="K104" s="102"/>
+      <c r="A104" s="103"/>
+      <c r="B104" s="103"/>
+      <c r="C104" s="103"/>
+      <c r="D104" s="103"/>
+      <c r="E104" s="103"/>
+      <c r="F104" s="103"/>
+      <c r="G104" s="103"/>
+      <c r="H104" s="103"/>
+      <c r="I104" s="103"/>
+      <c r="J104" s="103"/>
+      <c r="K104" s="103"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="103" t="s">
+      <c r="A105" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="104"/>
-      <c r="C105" s="104"/>
-      <c r="D105" s="104"/>
-      <c r="E105" s="104"/>
-      <c r="F105" s="104"/>
-      <c r="G105" s="104"/>
-      <c r="H105" s="104"/>
-      <c r="I105" s="104"/>
-      <c r="J105" s="104"/>
-      <c r="K105" s="105"/>
+      <c r="B105" s="105"/>
+      <c r="C105" s="105"/>
+      <c r="D105" s="105"/>
+      <c r="E105" s="105"/>
+      <c r="F105" s="105"/>
+      <c r="G105" s="105"/>
+      <c r="H105" s="105"/>
+      <c r="I105" s="105"/>
+      <c r="J105" s="105"/>
+      <c r="K105" s="106"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
@@ -16376,45 +16414,45 @@
       <c r="K109" s="14"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="101"/>
-      <c r="B110" s="101"/>
-      <c r="C110" s="101"/>
-      <c r="D110" s="101"/>
-      <c r="E110" s="101"/>
-      <c r="F110" s="101"/>
-      <c r="G110" s="101"/>
-      <c r="H110" s="101"/>
-      <c r="I110" s="101"/>
-      <c r="J110" s="101"/>
-      <c r="K110" s="101"/>
+      <c r="A110" s="102"/>
+      <c r="B110" s="102"/>
+      <c r="C110" s="102"/>
+      <c r="D110" s="102"/>
+      <c r="E110" s="102"/>
+      <c r="F110" s="102"/>
+      <c r="G110" s="102"/>
+      <c r="H110" s="102"/>
+      <c r="I110" s="102"/>
+      <c r="J110" s="102"/>
+      <c r="K110" s="102"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="102"/>
-      <c r="B111" s="102"/>
-      <c r="C111" s="102"/>
-      <c r="D111" s="102"/>
-      <c r="E111" s="102"/>
-      <c r="F111" s="102"/>
-      <c r="G111" s="102"/>
-      <c r="H111" s="102"/>
-      <c r="I111" s="102"/>
-      <c r="J111" s="102"/>
-      <c r="K111" s="102"/>
+      <c r="A111" s="103"/>
+      <c r="B111" s="103"/>
+      <c r="C111" s="103"/>
+      <c r="D111" s="103"/>
+      <c r="E111" s="103"/>
+      <c r="F111" s="103"/>
+      <c r="G111" s="103"/>
+      <c r="H111" s="103"/>
+      <c r="I111" s="103"/>
+      <c r="J111" s="103"/>
+      <c r="K111" s="103"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="103" t="s">
+      <c r="A112" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="104"/>
-      <c r="C112" s="104"/>
-      <c r="D112" s="104"/>
-      <c r="E112" s="104"/>
-      <c r="F112" s="104"/>
-      <c r="G112" s="104"/>
-      <c r="H112" s="104"/>
-      <c r="I112" s="104"/>
-      <c r="J112" s="104"/>
-      <c r="K112" s="105"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="105"/>
+      <c r="G112" s="105"/>
+      <c r="H112" s="105"/>
+      <c r="I112" s="105"/>
+      <c r="J112" s="105"/>
+      <c r="K112" s="106"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -16515,6 +16553,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="A110:K111"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A103:K104"/>
+    <mergeCell ref="A82:K83"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A91:K92"/>
     <mergeCell ref="A67:K68"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="A12:K12"/>
@@ -16529,14 +16575,6 @@
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="A33:K34"/>
     <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="A110:K111"/>
-    <mergeCell ref="A105:K105"/>
-    <mergeCell ref="A103:K104"/>
-    <mergeCell ref="A82:K83"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A91:K92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="540" windowWidth="20490" windowHeight="7215"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7155"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2813" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="309">
   <si>
     <t>No</t>
   </si>
@@ -928,6 +928,21 @@
   </si>
   <si>
     <t>1 - Normal , 2 - Youtube, 3 - Vimeo</t>
+  </si>
+  <si>
+    <t>pro_bits_baskets_interest_type_scale</t>
+  </si>
+  <si>
+    <t>bits_basket</t>
+  </si>
+  <si>
+    <t>bits_interest_type</t>
+  </si>
+  <si>
+    <t>bits_scale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - High, 2 - Moderate, 3 - Low </t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1460,6 +1475,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1808,10 +1832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K462"/>
+  <dimension ref="A1:K472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K361" sqref="K361"/>
+    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I472" sqref="I472"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,49 +1855,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="112" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
-      <c r="G2" s="110"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="111"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="114"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="107" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="109"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -2066,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
@@ -2079,45 +2103,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="102"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="102"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="105"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="103"/>
-      <c r="B12" s="103"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="106"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="106"/>
+      <c r="K12" s="106"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="115" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="114"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
+      <c r="E13" s="116"/>
+      <c r="F13" s="116"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="116"/>
+      <c r="I13" s="116"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="117"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
@@ -2309,8 +2333,8 @@
       <c r="E20" s="80">
         <v>1</v>
       </c>
-      <c r="F20" s="79">
-        <v>0</v>
+      <c r="F20" s="13">
+        <v>1</v>
       </c>
       <c r="G20" s="79"/>
       <c r="H20" s="79" t="s">
@@ -2323,45 +2347,45 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="107"/>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
+      <c r="A21" s="110"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="103"/>
-      <c r="B22" s="103"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="103"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="103"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="103"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="104" t="s">
+      <c r="A23" s="107" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="105"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="105"/>
-      <c r="K23" s="106"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="109"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2581,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31" s="13"/>
       <c r="H31" s="13" t="s">
@@ -2594,45 +2618,45 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="102"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="102"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="102"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="102"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="105"/>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="105"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="105"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="103"/>
-      <c r="B33" s="103"/>
-      <c r="C33" s="103"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="103"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="103"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="104" t="s">
+      <c r="A34" s="107" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="105"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="105"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="106"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="108"/>
+      <c r="D34" s="108"/>
+      <c r="E34" s="108"/>
+      <c r="F34" s="108"/>
+      <c r="G34" s="108"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="108"/>
+      <c r="J34" s="108"/>
+      <c r="K34" s="109"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
@@ -3460,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64" s="13"/>
       <c r="H64" s="13" t="s">
@@ -3473,45 +3497,45 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="102"/>
-      <c r="B65" s="102"/>
-      <c r="C65" s="102"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
-      <c r="F65" s="102"/>
-      <c r="G65" s="102"/>
-      <c r="H65" s="102"/>
-      <c r="I65" s="102"/>
-      <c r="J65" s="102"/>
-      <c r="K65" s="102"/>
+      <c r="A65" s="105"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
+      <c r="J65" s="105"/>
+      <c r="K65" s="105"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="103"/>
-      <c r="B66" s="103"/>
-      <c r="C66" s="103"/>
-      <c r="D66" s="103"/>
-      <c r="E66" s="103"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="103"/>
-      <c r="H66" s="103"/>
-      <c r="I66" s="103"/>
-      <c r="J66" s="103"/>
-      <c r="K66" s="103"/>
+      <c r="A66" s="106"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="106"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="106"/>
+      <c r="J66" s="106"/>
+      <c r="K66" s="106"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="104" t="s">
+      <c r="A67" s="107" t="s">
         <v>295</v>
       </c>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="105"/>
-      <c r="K67" s="106"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="108"/>
+      <c r="K67" s="109"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -3752,45 +3776,45 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="102"/>
-      <c r="B76" s="102"/>
-      <c r="C76" s="102"/>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
-      <c r="G76" s="102"/>
-      <c r="H76" s="102"/>
-      <c r="I76" s="102"/>
-      <c r="J76" s="102"/>
-      <c r="K76" s="102"/>
+      <c r="A76" s="105"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
+      <c r="J76" s="105"/>
+      <c r="K76" s="105"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="103"/>
-      <c r="B77" s="103"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="103"/>
-      <c r="J77" s="103"/>
-      <c r="K77" s="103"/>
+      <c r="A77" s="106"/>
+      <c r="B77" s="106"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="106"/>
+      <c r="E77" s="106"/>
+      <c r="F77" s="106"/>
+      <c r="G77" s="106"/>
+      <c r="H77" s="106"/>
+      <c r="I77" s="106"/>
+      <c r="J77" s="106"/>
+      <c r="K77" s="106"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="104" t="s">
+      <c r="A78" s="107" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="105"/>
-      <c r="C78" s="105"/>
-      <c r="D78" s="105"/>
-      <c r="E78" s="105"/>
-      <c r="F78" s="105"/>
-      <c r="G78" s="105"/>
-      <c r="H78" s="105"/>
-      <c r="I78" s="105"/>
-      <c r="J78" s="105"/>
-      <c r="K78" s="106"/>
+      <c r="B78" s="108"/>
+      <c r="C78" s="108"/>
+      <c r="D78" s="108"/>
+      <c r="E78" s="108"/>
+      <c r="F78" s="108"/>
+      <c r="G78" s="108"/>
+      <c r="H78" s="108"/>
+      <c r="I78" s="108"/>
+      <c r="J78" s="108"/>
+      <c r="K78" s="109"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
@@ -3991,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13" t="s">
@@ -4004,45 +4028,45 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="107"/>
-      <c r="B86" s="107"/>
-      <c r="C86" s="107"/>
-      <c r="D86" s="107"/>
-      <c r="E86" s="107"/>
-      <c r="F86" s="107"/>
-      <c r="G86" s="107"/>
-      <c r="H86" s="107"/>
-      <c r="I86" s="107"/>
-      <c r="J86" s="107"/>
-      <c r="K86" s="107"/>
+      <c r="A86" s="110"/>
+      <c r="B86" s="110"/>
+      <c r="C86" s="110"/>
+      <c r="D86" s="110"/>
+      <c r="E86" s="110"/>
+      <c r="F86" s="110"/>
+      <c r="G86" s="110"/>
+      <c r="H86" s="110"/>
+      <c r="I86" s="110"/>
+      <c r="J86" s="110"/>
+      <c r="K86" s="110"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="103"/>
-      <c r="B87" s="103"/>
-      <c r="C87" s="103"/>
-      <c r="D87" s="103"/>
-      <c r="E87" s="103"/>
-      <c r="F87" s="103"/>
-      <c r="G87" s="103"/>
-      <c r="H87" s="103"/>
-      <c r="I87" s="103"/>
-      <c r="J87" s="103"/>
-      <c r="K87" s="103"/>
+      <c r="A87" s="106"/>
+      <c r="B87" s="106"/>
+      <c r="C87" s="106"/>
+      <c r="D87" s="106"/>
+      <c r="E87" s="106"/>
+      <c r="F87" s="106"/>
+      <c r="G87" s="106"/>
+      <c r="H87" s="106"/>
+      <c r="I87" s="106"/>
+      <c r="J87" s="106"/>
+      <c r="K87" s="106"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="104" t="s">
+      <c r="A88" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="105"/>
-      <c r="C88" s="105"/>
-      <c r="D88" s="105"/>
-      <c r="E88" s="105"/>
-      <c r="F88" s="105"/>
-      <c r="G88" s="105"/>
-      <c r="H88" s="105"/>
-      <c r="I88" s="105"/>
-      <c r="J88" s="105"/>
-      <c r="K88" s="106"/>
+      <c r="B88" s="108"/>
+      <c r="C88" s="108"/>
+      <c r="D88" s="108"/>
+      <c r="E88" s="108"/>
+      <c r="F88" s="108"/>
+      <c r="G88" s="108"/>
+      <c r="H88" s="108"/>
+      <c r="I88" s="108"/>
+      <c r="J88" s="108"/>
+      <c r="K88" s="109"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -4318,7 +4342,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98" s="13"/>
       <c r="H98" s="13" t="s">
@@ -4331,45 +4355,45 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="107"/>
-      <c r="B99" s="107"/>
-      <c r="C99" s="107"/>
-      <c r="D99" s="107"/>
-      <c r="E99" s="107"/>
-      <c r="F99" s="107"/>
-      <c r="G99" s="107"/>
-      <c r="H99" s="107"/>
-      <c r="I99" s="107"/>
-      <c r="J99" s="107"/>
-      <c r="K99" s="107"/>
+      <c r="A99" s="110"/>
+      <c r="B99" s="110"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="110"/>
+      <c r="E99" s="110"/>
+      <c r="F99" s="110"/>
+      <c r="G99" s="110"/>
+      <c r="H99" s="110"/>
+      <c r="I99" s="110"/>
+      <c r="J99" s="110"/>
+      <c r="K99" s="110"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="103"/>
-      <c r="B100" s="103"/>
-      <c r="C100" s="103"/>
-      <c r="D100" s="103"/>
-      <c r="E100" s="103"/>
-      <c r="F100" s="103"/>
-      <c r="G100" s="103"/>
-      <c r="H100" s="103"/>
-      <c r="I100" s="103"/>
-      <c r="J100" s="103"/>
-      <c r="K100" s="103"/>
+      <c r="A100" s="106"/>
+      <c r="B100" s="106"/>
+      <c r="C100" s="106"/>
+      <c r="D100" s="106"/>
+      <c r="E100" s="106"/>
+      <c r="F100" s="106"/>
+      <c r="G100" s="106"/>
+      <c r="H100" s="106"/>
+      <c r="I100" s="106"/>
+      <c r="J100" s="106"/>
+      <c r="K100" s="106"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="104" t="s">
+      <c r="A101" s="107" t="s">
         <v>291</v>
       </c>
-      <c r="B101" s="105"/>
-      <c r="C101" s="105"/>
-      <c r="D101" s="105"/>
-      <c r="E101" s="105"/>
-      <c r="F101" s="105"/>
-      <c r="G101" s="105"/>
-      <c r="H101" s="105"/>
-      <c r="I101" s="105"/>
-      <c r="J101" s="105"/>
-      <c r="K101" s="106"/>
+      <c r="B101" s="108"/>
+      <c r="C101" s="108"/>
+      <c r="D101" s="108"/>
+      <c r="E101" s="108"/>
+      <c r="F101" s="108"/>
+      <c r="G101" s="108"/>
+      <c r="H101" s="108"/>
+      <c r="I101" s="108"/>
+      <c r="J101" s="108"/>
+      <c r="K101" s="109"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
@@ -4597,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109" s="13"/>
       <c r="H109" s="13" t="s">
@@ -4610,45 +4634,45 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="102"/>
-      <c r="B110" s="102"/>
-      <c r="C110" s="102"/>
-      <c r="D110" s="102"/>
-      <c r="E110" s="102"/>
-      <c r="F110" s="102"/>
-      <c r="G110" s="102"/>
-      <c r="H110" s="102"/>
-      <c r="I110" s="102"/>
-      <c r="J110" s="102"/>
-      <c r="K110" s="102"/>
+      <c r="A110" s="105"/>
+      <c r="B110" s="105"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="105"/>
+      <c r="E110" s="105"/>
+      <c r="F110" s="105"/>
+      <c r="G110" s="105"/>
+      <c r="H110" s="105"/>
+      <c r="I110" s="105"/>
+      <c r="J110" s="105"/>
+      <c r="K110" s="105"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="103"/>
-      <c r="B111" s="103"/>
-      <c r="C111" s="103"/>
-      <c r="D111" s="103"/>
-      <c r="E111" s="103"/>
-      <c r="F111" s="103"/>
-      <c r="G111" s="103"/>
-      <c r="H111" s="103"/>
-      <c r="I111" s="103"/>
-      <c r="J111" s="103"/>
-      <c r="K111" s="103"/>
+      <c r="A111" s="106"/>
+      <c r="B111" s="106"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="106"/>
+      <c r="E111" s="106"/>
+      <c r="F111" s="106"/>
+      <c r="G111" s="106"/>
+      <c r="H111" s="106"/>
+      <c r="I111" s="106"/>
+      <c r="J111" s="106"/>
+      <c r="K111" s="106"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="104" t="s">
+      <c r="A112" s="107" t="s">
         <v>43</v>
       </c>
-      <c r="B112" s="105"/>
-      <c r="C112" s="105"/>
-      <c r="D112" s="105"/>
-      <c r="E112" s="105"/>
-      <c r="F112" s="105"/>
-      <c r="G112" s="105"/>
-      <c r="H112" s="105"/>
-      <c r="I112" s="105"/>
-      <c r="J112" s="105"/>
-      <c r="K112" s="106"/>
+      <c r="B112" s="108"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="108"/>
+      <c r="E112" s="108"/>
+      <c r="F112" s="108"/>
+      <c r="G112" s="108"/>
+      <c r="H112" s="108"/>
+      <c r="I112" s="108"/>
+      <c r="J112" s="108"/>
+      <c r="K112" s="109"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -4963,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123" s="13"/>
       <c r="H123" s="13" t="s">
@@ -4976,45 +5000,45 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="102"/>
-      <c r="B124" s="102"/>
-      <c r="C124" s="102"/>
-      <c r="D124" s="102"/>
-      <c r="E124" s="102"/>
-      <c r="F124" s="102"/>
-      <c r="G124" s="102"/>
-      <c r="H124" s="102"/>
-      <c r="I124" s="102"/>
-      <c r="J124" s="102"/>
-      <c r="K124" s="102"/>
+      <c r="A124" s="105"/>
+      <c r="B124" s="105"/>
+      <c r="C124" s="105"/>
+      <c r="D124" s="105"/>
+      <c r="E124" s="105"/>
+      <c r="F124" s="105"/>
+      <c r="G124" s="105"/>
+      <c r="H124" s="105"/>
+      <c r="I124" s="105"/>
+      <c r="J124" s="105"/>
+      <c r="K124" s="105"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="103"/>
-      <c r="B125" s="103"/>
-      <c r="C125" s="103"/>
-      <c r="D125" s="103"/>
-      <c r="E125" s="103"/>
-      <c r="F125" s="103"/>
-      <c r="G125" s="103"/>
-      <c r="H125" s="103"/>
-      <c r="I125" s="103"/>
-      <c r="J125" s="103"/>
-      <c r="K125" s="103"/>
+      <c r="A125" s="106"/>
+      <c r="B125" s="106"/>
+      <c r="C125" s="106"/>
+      <c r="D125" s="106"/>
+      <c r="E125" s="106"/>
+      <c r="F125" s="106"/>
+      <c r="G125" s="106"/>
+      <c r="H125" s="106"/>
+      <c r="I125" s="106"/>
+      <c r="J125" s="106"/>
+      <c r="K125" s="106"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="104" t="s">
+      <c r="A126" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="B126" s="105"/>
-      <c r="C126" s="105"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="105"/>
-      <c r="F126" s="105"/>
-      <c r="G126" s="105"/>
-      <c r="H126" s="105"/>
-      <c r="I126" s="105"/>
-      <c r="J126" s="105"/>
-      <c r="K126" s="106"/>
+      <c r="B126" s="108"/>
+      <c r="C126" s="108"/>
+      <c r="D126" s="108"/>
+      <c r="E126" s="108"/>
+      <c r="F126" s="108"/>
+      <c r="G126" s="108"/>
+      <c r="H126" s="108"/>
+      <c r="I126" s="108"/>
+      <c r="J126" s="108"/>
+      <c r="K126" s="109"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
@@ -5348,7 +5372,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138" s="13"/>
       <c r="H138" s="13" t="s">
@@ -5361,45 +5385,45 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="102"/>
-      <c r="B139" s="102"/>
-      <c r="C139" s="102"/>
-      <c r="D139" s="102"/>
-      <c r="E139" s="102"/>
-      <c r="F139" s="102"/>
-      <c r="G139" s="102"/>
-      <c r="H139" s="102"/>
-      <c r="I139" s="102"/>
-      <c r="J139" s="102"/>
-      <c r="K139" s="102"/>
+      <c r="A139" s="105"/>
+      <c r="B139" s="105"/>
+      <c r="C139" s="105"/>
+      <c r="D139" s="105"/>
+      <c r="E139" s="105"/>
+      <c r="F139" s="105"/>
+      <c r="G139" s="105"/>
+      <c r="H139" s="105"/>
+      <c r="I139" s="105"/>
+      <c r="J139" s="105"/>
+      <c r="K139" s="105"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="103"/>
-      <c r="B140" s="103"/>
-      <c r="C140" s="103"/>
-      <c r="D140" s="103"/>
-      <c r="E140" s="103"/>
-      <c r="F140" s="103"/>
-      <c r="G140" s="103"/>
-      <c r="H140" s="103"/>
-      <c r="I140" s="103"/>
-      <c r="J140" s="103"/>
-      <c r="K140" s="103"/>
+      <c r="A140" s="106"/>
+      <c r="B140" s="106"/>
+      <c r="C140" s="106"/>
+      <c r="D140" s="106"/>
+      <c r="E140" s="106"/>
+      <c r="F140" s="106"/>
+      <c r="G140" s="106"/>
+      <c r="H140" s="106"/>
+      <c r="I140" s="106"/>
+      <c r="J140" s="106"/>
+      <c r="K140" s="106"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="104" t="s">
+      <c r="A141" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="B141" s="105"/>
-      <c r="C141" s="105"/>
-      <c r="D141" s="105"/>
-      <c r="E141" s="105"/>
-      <c r="F141" s="105"/>
-      <c r="G141" s="105"/>
-      <c r="H141" s="105"/>
-      <c r="I141" s="105"/>
-      <c r="J141" s="105"/>
-      <c r="K141" s="106"/>
+      <c r="B141" s="108"/>
+      <c r="C141" s="108"/>
+      <c r="D141" s="108"/>
+      <c r="E141" s="108"/>
+      <c r="F141" s="108"/>
+      <c r="G141" s="108"/>
+      <c r="H141" s="108"/>
+      <c r="I141" s="108"/>
+      <c r="J141" s="108"/>
+      <c r="K141" s="109"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
@@ -5799,7 +5823,7 @@
         <v>1</v>
       </c>
       <c r="F155" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155" s="13"/>
       <c r="H155" s="13" t="s">
@@ -5812,45 +5836,45 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="102"/>
-      <c r="B156" s="102"/>
-      <c r="C156" s="102"/>
-      <c r="D156" s="102"/>
-      <c r="E156" s="102"/>
-      <c r="F156" s="102"/>
-      <c r="G156" s="102"/>
-      <c r="H156" s="102"/>
-      <c r="I156" s="102"/>
-      <c r="J156" s="102"/>
-      <c r="K156" s="102"/>
+      <c r="A156" s="105"/>
+      <c r="B156" s="105"/>
+      <c r="C156" s="105"/>
+      <c r="D156" s="105"/>
+      <c r="E156" s="105"/>
+      <c r="F156" s="105"/>
+      <c r="G156" s="105"/>
+      <c r="H156" s="105"/>
+      <c r="I156" s="105"/>
+      <c r="J156" s="105"/>
+      <c r="K156" s="105"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="103"/>
-      <c r="B157" s="103"/>
-      <c r="C157" s="103"/>
-      <c r="D157" s="103"/>
-      <c r="E157" s="103"/>
-      <c r="F157" s="103"/>
-      <c r="G157" s="103"/>
-      <c r="H157" s="103"/>
-      <c r="I157" s="103"/>
-      <c r="J157" s="103"/>
-      <c r="K157" s="103"/>
+      <c r="A157" s="106"/>
+      <c r="B157" s="106"/>
+      <c r="C157" s="106"/>
+      <c r="D157" s="106"/>
+      <c r="E157" s="106"/>
+      <c r="F157" s="106"/>
+      <c r="G157" s="106"/>
+      <c r="H157" s="106"/>
+      <c r="I157" s="106"/>
+      <c r="J157" s="106"/>
+      <c r="K157" s="106"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="104" t="s">
+      <c r="A158" s="107" t="s">
         <v>126</v>
       </c>
-      <c r="B158" s="105"/>
-      <c r="C158" s="105"/>
-      <c r="D158" s="105"/>
-      <c r="E158" s="105"/>
-      <c r="F158" s="105"/>
-      <c r="G158" s="105"/>
-      <c r="H158" s="105"/>
-      <c r="I158" s="105"/>
-      <c r="J158" s="105"/>
-      <c r="K158" s="106"/>
+      <c r="B158" s="108"/>
+      <c r="C158" s="108"/>
+      <c r="D158" s="108"/>
+      <c r="E158" s="108"/>
+      <c r="F158" s="108"/>
+      <c r="G158" s="108"/>
+      <c r="H158" s="108"/>
+      <c r="I158" s="108"/>
+      <c r="J158" s="108"/>
+      <c r="K158" s="109"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -6228,7 +6252,7 @@
         <v>0</v>
       </c>
       <c r="F172" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G172" s="13" t="s">
         <v>11</v>
@@ -6243,45 +6267,45 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="102"/>
-      <c r="B173" s="102"/>
-      <c r="C173" s="102"/>
-      <c r="D173" s="102"/>
-      <c r="E173" s="102"/>
-      <c r="F173" s="102"/>
-      <c r="G173" s="102"/>
-      <c r="H173" s="102"/>
-      <c r="I173" s="102"/>
-      <c r="J173" s="102"/>
-      <c r="K173" s="102"/>
+      <c r="A173" s="105"/>
+      <c r="B173" s="105"/>
+      <c r="C173" s="105"/>
+      <c r="D173" s="105"/>
+      <c r="E173" s="105"/>
+      <c r="F173" s="105"/>
+      <c r="G173" s="105"/>
+      <c r="H173" s="105"/>
+      <c r="I173" s="105"/>
+      <c r="J173" s="105"/>
+      <c r="K173" s="105"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="103"/>
-      <c r="B174" s="103"/>
-      <c r="C174" s="103"/>
-      <c r="D174" s="103"/>
-      <c r="E174" s="103"/>
-      <c r="F174" s="103"/>
-      <c r="G174" s="103"/>
-      <c r="H174" s="103"/>
-      <c r="I174" s="103"/>
-      <c r="J174" s="103"/>
-      <c r="K174" s="103"/>
+      <c r="A174" s="106"/>
+      <c r="B174" s="106"/>
+      <c r="C174" s="106"/>
+      <c r="D174" s="106"/>
+      <c r="E174" s="106"/>
+      <c r="F174" s="106"/>
+      <c r="G174" s="106"/>
+      <c r="H174" s="106"/>
+      <c r="I174" s="106"/>
+      <c r="J174" s="106"/>
+      <c r="K174" s="106"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="104" t="s">
+      <c r="A175" s="107" t="s">
         <v>134</v>
       </c>
-      <c r="B175" s="105"/>
-      <c r="C175" s="105"/>
-      <c r="D175" s="105"/>
-      <c r="E175" s="105"/>
-      <c r="F175" s="105"/>
-      <c r="G175" s="105"/>
-      <c r="H175" s="105"/>
-      <c r="I175" s="105"/>
-      <c r="J175" s="105"/>
-      <c r="K175" s="106"/>
+      <c r="B175" s="108"/>
+      <c r="C175" s="108"/>
+      <c r="D175" s="108"/>
+      <c r="E175" s="108"/>
+      <c r="F175" s="108"/>
+      <c r="G175" s="108"/>
+      <c r="H175" s="108"/>
+      <c r="I175" s="108"/>
+      <c r="J175" s="108"/>
+      <c r="K175" s="109"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
@@ -6480,7 +6504,7 @@
         <v>0</v>
       </c>
       <c r="F182" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" s="13" t="s">
         <v>11</v>
@@ -6495,45 +6519,45 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="102"/>
-      <c r="B183" s="102"/>
-      <c r="C183" s="102"/>
-      <c r="D183" s="102"/>
-      <c r="E183" s="102"/>
-      <c r="F183" s="102"/>
-      <c r="G183" s="102"/>
-      <c r="H183" s="102"/>
-      <c r="I183" s="102"/>
-      <c r="J183" s="102"/>
-      <c r="K183" s="102"/>
+      <c r="A183" s="105"/>
+      <c r="B183" s="105"/>
+      <c r="C183" s="105"/>
+      <c r="D183" s="105"/>
+      <c r="E183" s="105"/>
+      <c r="F183" s="105"/>
+      <c r="G183" s="105"/>
+      <c r="H183" s="105"/>
+      <c r="I183" s="105"/>
+      <c r="J183" s="105"/>
+      <c r="K183" s="105"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="103"/>
-      <c r="B184" s="103"/>
-      <c r="C184" s="103"/>
-      <c r="D184" s="103"/>
-      <c r="E184" s="103"/>
-      <c r="F184" s="103"/>
-      <c r="G184" s="103"/>
-      <c r="H184" s="103"/>
-      <c r="I184" s="103"/>
-      <c r="J184" s="103"/>
-      <c r="K184" s="103"/>
+      <c r="A184" s="106"/>
+      <c r="B184" s="106"/>
+      <c r="C184" s="106"/>
+      <c r="D184" s="106"/>
+      <c r="E184" s="106"/>
+      <c r="F184" s="106"/>
+      <c r="G184" s="106"/>
+      <c r="H184" s="106"/>
+      <c r="I184" s="106"/>
+      <c r="J184" s="106"/>
+      <c r="K184" s="106"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="104" t="s">
+      <c r="A185" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="B185" s="105"/>
-      <c r="C185" s="105"/>
-      <c r="D185" s="105"/>
-      <c r="E185" s="105"/>
-      <c r="F185" s="105"/>
-      <c r="G185" s="105"/>
-      <c r="H185" s="105"/>
-      <c r="I185" s="105"/>
-      <c r="J185" s="105"/>
-      <c r="K185" s="106"/>
+      <c r="B185" s="108"/>
+      <c r="C185" s="108"/>
+      <c r="D185" s="108"/>
+      <c r="E185" s="108"/>
+      <c r="F185" s="108"/>
+      <c r="G185" s="108"/>
+      <c r="H185" s="108"/>
+      <c r="I185" s="108"/>
+      <c r="J185" s="108"/>
+      <c r="K185" s="109"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
@@ -6801,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="F195" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G195" s="13" t="s">
         <v>11</v>
@@ -6816,45 +6840,45 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="102"/>
-      <c r="B196" s="102"/>
-      <c r="C196" s="102"/>
-      <c r="D196" s="102"/>
-      <c r="E196" s="102"/>
-      <c r="F196" s="102"/>
-      <c r="G196" s="102"/>
-      <c r="H196" s="102"/>
-      <c r="I196" s="102"/>
-      <c r="J196" s="102"/>
-      <c r="K196" s="102"/>
+      <c r="A196" s="105"/>
+      <c r="B196" s="105"/>
+      <c r="C196" s="105"/>
+      <c r="D196" s="105"/>
+      <c r="E196" s="105"/>
+      <c r="F196" s="105"/>
+      <c r="G196" s="105"/>
+      <c r="H196" s="105"/>
+      <c r="I196" s="105"/>
+      <c r="J196" s="105"/>
+      <c r="K196" s="105"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="103"/>
-      <c r="B197" s="103"/>
-      <c r="C197" s="103"/>
-      <c r="D197" s="103"/>
-      <c r="E197" s="103"/>
-      <c r="F197" s="103"/>
-      <c r="G197" s="103"/>
-      <c r="H197" s="103"/>
-      <c r="I197" s="103"/>
-      <c r="J197" s="103"/>
-      <c r="K197" s="103"/>
+      <c r="A197" s="106"/>
+      <c r="B197" s="106"/>
+      <c r="C197" s="106"/>
+      <c r="D197" s="106"/>
+      <c r="E197" s="106"/>
+      <c r="F197" s="106"/>
+      <c r="G197" s="106"/>
+      <c r="H197" s="106"/>
+      <c r="I197" s="106"/>
+      <c r="J197" s="106"/>
+      <c r="K197" s="106"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="104" t="s">
+      <c r="A198" s="107" t="s">
         <v>75</v>
       </c>
-      <c r="B198" s="105"/>
-      <c r="C198" s="105"/>
-      <c r="D198" s="105"/>
-      <c r="E198" s="105"/>
-      <c r="F198" s="105"/>
-      <c r="G198" s="105"/>
-      <c r="H198" s="105"/>
-      <c r="I198" s="105"/>
-      <c r="J198" s="105"/>
-      <c r="K198" s="106"/>
+      <c r="B198" s="108"/>
+      <c r="C198" s="108"/>
+      <c r="D198" s="108"/>
+      <c r="E198" s="108"/>
+      <c r="F198" s="108"/>
+      <c r="G198" s="108"/>
+      <c r="H198" s="108"/>
+      <c r="I198" s="108"/>
+      <c r="J198" s="108"/>
+      <c r="K198" s="109"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
@@ -7107,7 +7131,7 @@
         <v>0</v>
       </c>
       <c r="F207" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G207" s="13" t="s">
         <v>11</v>
@@ -7122,45 +7146,45 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="102"/>
-      <c r="B208" s="102"/>
-      <c r="C208" s="102"/>
-      <c r="D208" s="102"/>
-      <c r="E208" s="102"/>
-      <c r="F208" s="102"/>
-      <c r="G208" s="102"/>
-      <c r="H208" s="102"/>
-      <c r="I208" s="102"/>
-      <c r="J208" s="102"/>
-      <c r="K208" s="102"/>
+      <c r="A208" s="105"/>
+      <c r="B208" s="105"/>
+      <c r="C208" s="105"/>
+      <c r="D208" s="105"/>
+      <c r="E208" s="105"/>
+      <c r="F208" s="105"/>
+      <c r="G208" s="105"/>
+      <c r="H208" s="105"/>
+      <c r="I208" s="105"/>
+      <c r="J208" s="105"/>
+      <c r="K208" s="105"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="103"/>
-      <c r="B209" s="103"/>
-      <c r="C209" s="103"/>
-      <c r="D209" s="103"/>
-      <c r="E209" s="103"/>
-      <c r="F209" s="103"/>
-      <c r="G209" s="103"/>
-      <c r="H209" s="103"/>
-      <c r="I209" s="103"/>
-      <c r="J209" s="103"/>
-      <c r="K209" s="103"/>
+      <c r="A209" s="106"/>
+      <c r="B209" s="106"/>
+      <c r="C209" s="106"/>
+      <c r="D209" s="106"/>
+      <c r="E209" s="106"/>
+      <c r="F209" s="106"/>
+      <c r="G209" s="106"/>
+      <c r="H209" s="106"/>
+      <c r="I209" s="106"/>
+      <c r="J209" s="106"/>
+      <c r="K209" s="106"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="104" t="s">
+      <c r="A210" s="107" t="s">
         <v>83</v>
       </c>
-      <c r="B210" s="105"/>
-      <c r="C210" s="105"/>
-      <c r="D210" s="105"/>
-      <c r="E210" s="105"/>
-      <c r="F210" s="105"/>
-      <c r="G210" s="105"/>
-      <c r="H210" s="105"/>
-      <c r="I210" s="105"/>
-      <c r="J210" s="105"/>
-      <c r="K210" s="106"/>
+      <c r="B210" s="108"/>
+      <c r="C210" s="108"/>
+      <c r="D210" s="108"/>
+      <c r="E210" s="108"/>
+      <c r="F210" s="108"/>
+      <c r="G210" s="108"/>
+      <c r="H210" s="108"/>
+      <c r="I210" s="108"/>
+      <c r="J210" s="108"/>
+      <c r="K210" s="109"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -7415,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="F219" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G219" s="13" t="s">
         <v>11</v>
@@ -7430,45 +7454,45 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="102"/>
-      <c r="B220" s="102"/>
-      <c r="C220" s="102"/>
-      <c r="D220" s="102"/>
-      <c r="E220" s="102"/>
-      <c r="F220" s="102"/>
-      <c r="G220" s="102"/>
-      <c r="H220" s="102"/>
-      <c r="I220" s="102"/>
-      <c r="J220" s="102"/>
-      <c r="K220" s="102"/>
+      <c r="A220" s="105"/>
+      <c r="B220" s="105"/>
+      <c r="C220" s="105"/>
+      <c r="D220" s="105"/>
+      <c r="E220" s="105"/>
+      <c r="F220" s="105"/>
+      <c r="G220" s="105"/>
+      <c r="H220" s="105"/>
+      <c r="I220" s="105"/>
+      <c r="J220" s="105"/>
+      <c r="K220" s="105"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="103"/>
-      <c r="B221" s="103"/>
-      <c r="C221" s="103"/>
-      <c r="D221" s="103"/>
-      <c r="E221" s="103"/>
-      <c r="F221" s="103"/>
-      <c r="G221" s="103"/>
-      <c r="H221" s="103"/>
-      <c r="I221" s="103"/>
-      <c r="J221" s="103"/>
-      <c r="K221" s="103"/>
+      <c r="A221" s="106"/>
+      <c r="B221" s="106"/>
+      <c r="C221" s="106"/>
+      <c r="D221" s="106"/>
+      <c r="E221" s="106"/>
+      <c r="F221" s="106"/>
+      <c r="G221" s="106"/>
+      <c r="H221" s="106"/>
+      <c r="I221" s="106"/>
+      <c r="J221" s="106"/>
+      <c r="K221" s="106"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="104" t="s">
+      <c r="A222" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="105"/>
-      <c r="C222" s="105"/>
-      <c r="D222" s="105"/>
-      <c r="E222" s="105"/>
-      <c r="F222" s="105"/>
-      <c r="G222" s="105"/>
-      <c r="H222" s="105"/>
-      <c r="I222" s="105"/>
-      <c r="J222" s="105"/>
-      <c r="K222" s="106"/>
+      <c r="B222" s="108"/>
+      <c r="C222" s="108"/>
+      <c r="D222" s="108"/>
+      <c r="E222" s="108"/>
+      <c r="F222" s="108"/>
+      <c r="G222" s="108"/>
+      <c r="H222" s="108"/>
+      <c r="I222" s="108"/>
+      <c r="J222" s="108"/>
+      <c r="K222" s="109"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
@@ -7866,45 +7890,45 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="102"/>
-      <c r="B236" s="102"/>
-      <c r="C236" s="102"/>
-      <c r="D236" s="102"/>
-      <c r="E236" s="102"/>
-      <c r="F236" s="102"/>
-      <c r="G236" s="102"/>
-      <c r="H236" s="102"/>
-      <c r="I236" s="102"/>
-      <c r="J236" s="102"/>
-      <c r="K236" s="102"/>
+      <c r="A236" s="105"/>
+      <c r="B236" s="105"/>
+      <c r="C236" s="105"/>
+      <c r="D236" s="105"/>
+      <c r="E236" s="105"/>
+      <c r="F236" s="105"/>
+      <c r="G236" s="105"/>
+      <c r="H236" s="105"/>
+      <c r="I236" s="105"/>
+      <c r="J236" s="105"/>
+      <c r="K236" s="105"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="103"/>
-      <c r="B237" s="103"/>
-      <c r="C237" s="103"/>
-      <c r="D237" s="103"/>
-      <c r="E237" s="103"/>
-      <c r="F237" s="103"/>
-      <c r="G237" s="103"/>
-      <c r="H237" s="103"/>
-      <c r="I237" s="103"/>
-      <c r="J237" s="103"/>
-      <c r="K237" s="103"/>
+      <c r="A237" s="106"/>
+      <c r="B237" s="106"/>
+      <c r="C237" s="106"/>
+      <c r="D237" s="106"/>
+      <c r="E237" s="106"/>
+      <c r="F237" s="106"/>
+      <c r="G237" s="106"/>
+      <c r="H237" s="106"/>
+      <c r="I237" s="106"/>
+      <c r="J237" s="106"/>
+      <c r="K237" s="106"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="104" t="s">
+      <c r="A238" s="107" t="s">
         <v>200</v>
       </c>
-      <c r="B238" s="105"/>
-      <c r="C238" s="105"/>
-      <c r="D238" s="105"/>
-      <c r="E238" s="105"/>
-      <c r="F238" s="105"/>
-      <c r="G238" s="105"/>
-      <c r="H238" s="105"/>
-      <c r="I238" s="105"/>
-      <c r="J238" s="105"/>
-      <c r="K238" s="106"/>
+      <c r="B238" s="108"/>
+      <c r="C238" s="108"/>
+      <c r="D238" s="108"/>
+      <c r="E238" s="108"/>
+      <c r="F238" s="108"/>
+      <c r="G238" s="108"/>
+      <c r="H238" s="108"/>
+      <c r="I238" s="108"/>
+      <c r="J238" s="108"/>
+      <c r="K238" s="109"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
@@ -8090,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="F245" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245" s="13" t="s">
         <v>11</v>
@@ -8105,45 +8129,45 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="102"/>
-      <c r="B246" s="102"/>
-      <c r="C246" s="102"/>
-      <c r="D246" s="102"/>
-      <c r="E246" s="102"/>
-      <c r="F246" s="102"/>
-      <c r="G246" s="102"/>
-      <c r="H246" s="102"/>
-      <c r="I246" s="102"/>
-      <c r="J246" s="102"/>
-      <c r="K246" s="102"/>
+      <c r="A246" s="105"/>
+      <c r="B246" s="105"/>
+      <c r="C246" s="105"/>
+      <c r="D246" s="105"/>
+      <c r="E246" s="105"/>
+      <c r="F246" s="105"/>
+      <c r="G246" s="105"/>
+      <c r="H246" s="105"/>
+      <c r="I246" s="105"/>
+      <c r="J246" s="105"/>
+      <c r="K246" s="105"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="103"/>
-      <c r="B247" s="103"/>
-      <c r="C247" s="103"/>
-      <c r="D247" s="103"/>
-      <c r="E247" s="103"/>
-      <c r="F247" s="103"/>
-      <c r="G247" s="103"/>
-      <c r="H247" s="103"/>
-      <c r="I247" s="103"/>
-      <c r="J247" s="103"/>
-      <c r="K247" s="103"/>
+      <c r="A247" s="106"/>
+      <c r="B247" s="106"/>
+      <c r="C247" s="106"/>
+      <c r="D247" s="106"/>
+      <c r="E247" s="106"/>
+      <c r="F247" s="106"/>
+      <c r="G247" s="106"/>
+      <c r="H247" s="106"/>
+      <c r="I247" s="106"/>
+      <c r="J247" s="106"/>
+      <c r="K247" s="106"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="104" t="s">
+      <c r="A248" s="107" t="s">
         <v>203</v>
       </c>
-      <c r="B248" s="105"/>
-      <c r="C248" s="105"/>
-      <c r="D248" s="105"/>
-      <c r="E248" s="105"/>
-      <c r="F248" s="105"/>
-      <c r="G248" s="105"/>
-      <c r="H248" s="105"/>
-      <c r="I248" s="105"/>
-      <c r="J248" s="105"/>
-      <c r="K248" s="106"/>
+      <c r="B248" s="108"/>
+      <c r="C248" s="108"/>
+      <c r="D248" s="108"/>
+      <c r="E248" s="108"/>
+      <c r="F248" s="108"/>
+      <c r="G248" s="108"/>
+      <c r="H248" s="108"/>
+      <c r="I248" s="108"/>
+      <c r="J248" s="108"/>
+      <c r="K248" s="109"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
@@ -8375,7 +8399,7 @@
         <v>0</v>
       </c>
       <c r="F256" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G256" s="13" t="s">
         <v>11</v>
@@ -8390,45 +8414,45 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="102"/>
-      <c r="B257" s="102"/>
-      <c r="C257" s="102"/>
-      <c r="D257" s="102"/>
-      <c r="E257" s="102"/>
-      <c r="F257" s="102"/>
-      <c r="G257" s="102"/>
-      <c r="H257" s="102"/>
-      <c r="I257" s="102"/>
-      <c r="J257" s="102"/>
-      <c r="K257" s="102"/>
+      <c r="A257" s="105"/>
+      <c r="B257" s="105"/>
+      <c r="C257" s="105"/>
+      <c r="D257" s="105"/>
+      <c r="E257" s="105"/>
+      <c r="F257" s="105"/>
+      <c r="G257" s="105"/>
+      <c r="H257" s="105"/>
+      <c r="I257" s="105"/>
+      <c r="J257" s="105"/>
+      <c r="K257" s="105"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="103"/>
-      <c r="B258" s="103"/>
-      <c r="C258" s="103"/>
-      <c r="D258" s="103"/>
-      <c r="E258" s="103"/>
-      <c r="F258" s="103"/>
-      <c r="G258" s="103"/>
-      <c r="H258" s="103"/>
-      <c r="I258" s="103"/>
-      <c r="J258" s="103"/>
-      <c r="K258" s="103"/>
+      <c r="A258" s="106"/>
+      <c r="B258" s="106"/>
+      <c r="C258" s="106"/>
+      <c r="D258" s="106"/>
+      <c r="E258" s="106"/>
+      <c r="F258" s="106"/>
+      <c r="G258" s="106"/>
+      <c r="H258" s="106"/>
+      <c r="I258" s="106"/>
+      <c r="J258" s="106"/>
+      <c r="K258" s="106"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="104" t="s">
+      <c r="A259" s="107" t="s">
         <v>207</v>
       </c>
-      <c r="B259" s="105"/>
-      <c r="C259" s="105"/>
-      <c r="D259" s="105"/>
-      <c r="E259" s="105"/>
-      <c r="F259" s="105"/>
-      <c r="G259" s="105"/>
-      <c r="H259" s="105"/>
-      <c r="I259" s="105"/>
-      <c r="J259" s="105"/>
-      <c r="K259" s="106"/>
+      <c r="B259" s="108"/>
+      <c r="C259" s="108"/>
+      <c r="D259" s="108"/>
+      <c r="E259" s="108"/>
+      <c r="F259" s="108"/>
+      <c r="G259" s="108"/>
+      <c r="H259" s="108"/>
+      <c r="I259" s="108"/>
+      <c r="J259" s="108"/>
+      <c r="K259" s="109"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
@@ -8656,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="F267" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G267" s="13" t="s">
         <v>11</v>
@@ -8671,45 +8695,45 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="102"/>
-      <c r="B268" s="102"/>
-      <c r="C268" s="102"/>
-      <c r="D268" s="102"/>
-      <c r="E268" s="102"/>
-      <c r="F268" s="102"/>
-      <c r="G268" s="102"/>
-      <c r="H268" s="102"/>
-      <c r="I268" s="102"/>
-      <c r="J268" s="102"/>
-      <c r="K268" s="102"/>
+      <c r="A268" s="105"/>
+      <c r="B268" s="105"/>
+      <c r="C268" s="105"/>
+      <c r="D268" s="105"/>
+      <c r="E268" s="105"/>
+      <c r="F268" s="105"/>
+      <c r="G268" s="105"/>
+      <c r="H268" s="105"/>
+      <c r="I268" s="105"/>
+      <c r="J268" s="105"/>
+      <c r="K268" s="105"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="103"/>
-      <c r="B269" s="103"/>
-      <c r="C269" s="103"/>
-      <c r="D269" s="103"/>
-      <c r="E269" s="103"/>
-      <c r="F269" s="103"/>
-      <c r="G269" s="103"/>
-      <c r="H269" s="103"/>
-      <c r="I269" s="103"/>
-      <c r="J269" s="103"/>
-      <c r="K269" s="103"/>
+      <c r="A269" s="106"/>
+      <c r="B269" s="106"/>
+      <c r="C269" s="106"/>
+      <c r="D269" s="106"/>
+      <c r="E269" s="106"/>
+      <c r="F269" s="106"/>
+      <c r="G269" s="106"/>
+      <c r="H269" s="106"/>
+      <c r="I269" s="106"/>
+      <c r="J269" s="106"/>
+      <c r="K269" s="106"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="104" t="s">
+      <c r="A270" s="107" t="s">
         <v>238</v>
       </c>
-      <c r="B270" s="105"/>
-      <c r="C270" s="105"/>
-      <c r="D270" s="105"/>
-      <c r="E270" s="105"/>
-      <c r="F270" s="105"/>
-      <c r="G270" s="105"/>
-      <c r="H270" s="105"/>
-      <c r="I270" s="105"/>
-      <c r="J270" s="105"/>
-      <c r="K270" s="106"/>
+      <c r="B270" s="108"/>
+      <c r="C270" s="108"/>
+      <c r="D270" s="108"/>
+      <c r="E270" s="108"/>
+      <c r="F270" s="108"/>
+      <c r="G270" s="108"/>
+      <c r="H270" s="108"/>
+      <c r="I270" s="108"/>
+      <c r="J270" s="108"/>
+      <c r="K270" s="109"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
@@ -8877,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="F276" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G276" s="13" t="s">
         <v>11</v>
@@ -8892,45 +8916,45 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="102"/>
-      <c r="B277" s="102"/>
-      <c r="C277" s="102"/>
-      <c r="D277" s="102"/>
-      <c r="E277" s="102"/>
-      <c r="F277" s="102"/>
-      <c r="G277" s="102"/>
-      <c r="H277" s="102"/>
-      <c r="I277" s="102"/>
-      <c r="J277" s="102"/>
-      <c r="K277" s="102"/>
+      <c r="A277" s="105"/>
+      <c r="B277" s="105"/>
+      <c r="C277" s="105"/>
+      <c r="D277" s="105"/>
+      <c r="E277" s="105"/>
+      <c r="F277" s="105"/>
+      <c r="G277" s="105"/>
+      <c r="H277" s="105"/>
+      <c r="I277" s="105"/>
+      <c r="J277" s="105"/>
+      <c r="K277" s="105"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="103"/>
-      <c r="B278" s="103"/>
-      <c r="C278" s="103"/>
-      <c r="D278" s="103"/>
-      <c r="E278" s="103"/>
-      <c r="F278" s="103"/>
-      <c r="G278" s="103"/>
-      <c r="H278" s="103"/>
-      <c r="I278" s="103"/>
-      <c r="J278" s="103"/>
-      <c r="K278" s="103"/>
+      <c r="A278" s="106"/>
+      <c r="B278" s="106"/>
+      <c r="C278" s="106"/>
+      <c r="D278" s="106"/>
+      <c r="E278" s="106"/>
+      <c r="F278" s="106"/>
+      <c r="G278" s="106"/>
+      <c r="H278" s="106"/>
+      <c r="I278" s="106"/>
+      <c r="J278" s="106"/>
+      <c r="K278" s="106"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="104" t="s">
+      <c r="A279" s="107" t="s">
         <v>240</v>
       </c>
-      <c r="B279" s="105"/>
-      <c r="C279" s="105"/>
-      <c r="D279" s="105"/>
-      <c r="E279" s="105"/>
-      <c r="F279" s="105"/>
-      <c r="G279" s="105"/>
-      <c r="H279" s="105"/>
-      <c r="I279" s="105"/>
-      <c r="J279" s="105"/>
-      <c r="K279" s="106"/>
+      <c r="B279" s="108"/>
+      <c r="C279" s="108"/>
+      <c r="D279" s="108"/>
+      <c r="E279" s="108"/>
+      <c r="F279" s="108"/>
+      <c r="G279" s="108"/>
+      <c r="H279" s="108"/>
+      <c r="I279" s="108"/>
+      <c r="J279" s="108"/>
+      <c r="K279" s="109"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
@@ -9098,7 +9122,7 @@
         <v>0</v>
       </c>
       <c r="F285" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G285" s="13" t="s">
         <v>11</v>
@@ -9113,45 +9137,45 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="102"/>
-      <c r="B286" s="102"/>
-      <c r="C286" s="102"/>
-      <c r="D286" s="102"/>
-      <c r="E286" s="102"/>
-      <c r="F286" s="102"/>
-      <c r="G286" s="102"/>
-      <c r="H286" s="102"/>
-      <c r="I286" s="102"/>
-      <c r="J286" s="102"/>
-      <c r="K286" s="102"/>
+      <c r="A286" s="105"/>
+      <c r="B286" s="105"/>
+      <c r="C286" s="105"/>
+      <c r="D286" s="105"/>
+      <c r="E286" s="105"/>
+      <c r="F286" s="105"/>
+      <c r="G286" s="105"/>
+      <c r="H286" s="105"/>
+      <c r="I286" s="105"/>
+      <c r="J286" s="105"/>
+      <c r="K286" s="105"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="103"/>
-      <c r="B287" s="103"/>
-      <c r="C287" s="103"/>
-      <c r="D287" s="103"/>
-      <c r="E287" s="103"/>
-      <c r="F287" s="103"/>
-      <c r="G287" s="103"/>
-      <c r="H287" s="103"/>
-      <c r="I287" s="103"/>
-      <c r="J287" s="103"/>
-      <c r="K287" s="103"/>
+      <c r="A287" s="106"/>
+      <c r="B287" s="106"/>
+      <c r="C287" s="106"/>
+      <c r="D287" s="106"/>
+      <c r="E287" s="106"/>
+      <c r="F287" s="106"/>
+      <c r="G287" s="106"/>
+      <c r="H287" s="106"/>
+      <c r="I287" s="106"/>
+      <c r="J287" s="106"/>
+      <c r="K287" s="106"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="104" t="s">
+      <c r="A288" s="107" t="s">
         <v>242</v>
       </c>
-      <c r="B288" s="105"/>
-      <c r="C288" s="105"/>
-      <c r="D288" s="105"/>
-      <c r="E288" s="105"/>
-      <c r="F288" s="105"/>
-      <c r="G288" s="105"/>
-      <c r="H288" s="105"/>
-      <c r="I288" s="105"/>
-      <c r="J288" s="105"/>
-      <c r="K288" s="106"/>
+      <c r="B288" s="108"/>
+      <c r="C288" s="108"/>
+      <c r="D288" s="108"/>
+      <c r="E288" s="108"/>
+      <c r="F288" s="108"/>
+      <c r="G288" s="108"/>
+      <c r="H288" s="108"/>
+      <c r="I288" s="108"/>
+      <c r="J288" s="108"/>
+      <c r="K288" s="109"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
@@ -9319,7 +9343,7 @@
         <v>0</v>
       </c>
       <c r="F294" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G294" s="13" t="s">
         <v>11</v>
@@ -9334,45 +9358,45 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="102"/>
-      <c r="B295" s="102"/>
-      <c r="C295" s="102"/>
-      <c r="D295" s="102"/>
-      <c r="E295" s="102"/>
-      <c r="F295" s="102"/>
-      <c r="G295" s="102"/>
-      <c r="H295" s="102"/>
-      <c r="I295" s="102"/>
-      <c r="J295" s="102"/>
-      <c r="K295" s="102"/>
+      <c r="A295" s="105"/>
+      <c r="B295" s="105"/>
+      <c r="C295" s="105"/>
+      <c r="D295" s="105"/>
+      <c r="E295" s="105"/>
+      <c r="F295" s="105"/>
+      <c r="G295" s="105"/>
+      <c r="H295" s="105"/>
+      <c r="I295" s="105"/>
+      <c r="J295" s="105"/>
+      <c r="K295" s="105"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="103"/>
-      <c r="B296" s="103"/>
-      <c r="C296" s="103"/>
-      <c r="D296" s="103"/>
-      <c r="E296" s="103"/>
-      <c r="F296" s="103"/>
-      <c r="G296" s="103"/>
-      <c r="H296" s="103"/>
-      <c r="I296" s="103"/>
-      <c r="J296" s="103"/>
-      <c r="K296" s="103"/>
+      <c r="A296" s="106"/>
+      <c r="B296" s="106"/>
+      <c r="C296" s="106"/>
+      <c r="D296" s="106"/>
+      <c r="E296" s="106"/>
+      <c r="F296" s="106"/>
+      <c r="G296" s="106"/>
+      <c r="H296" s="106"/>
+      <c r="I296" s="106"/>
+      <c r="J296" s="106"/>
+      <c r="K296" s="106"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="104" t="s">
+      <c r="A297" s="107" t="s">
         <v>244</v>
       </c>
-      <c r="B297" s="105"/>
-      <c r="C297" s="105"/>
-      <c r="D297" s="105"/>
-      <c r="E297" s="105"/>
-      <c r="F297" s="105"/>
-      <c r="G297" s="105"/>
-      <c r="H297" s="105"/>
-      <c r="I297" s="105"/>
-      <c r="J297" s="105"/>
-      <c r="K297" s="106"/>
+      <c r="B297" s="108"/>
+      <c r="C297" s="108"/>
+      <c r="D297" s="108"/>
+      <c r="E297" s="108"/>
+      <c r="F297" s="108"/>
+      <c r="G297" s="108"/>
+      <c r="H297" s="108"/>
+      <c r="I297" s="108"/>
+      <c r="J297" s="108"/>
+      <c r="K297" s="109"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
@@ -9540,7 +9564,7 @@
         <v>0</v>
       </c>
       <c r="F303" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G303" s="13" t="s">
         <v>11</v>
@@ -9555,45 +9579,45 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="102"/>
-      <c r="B304" s="102"/>
-      <c r="C304" s="102"/>
-      <c r="D304" s="102"/>
-      <c r="E304" s="102"/>
-      <c r="F304" s="102"/>
-      <c r="G304" s="102"/>
-      <c r="H304" s="102"/>
-      <c r="I304" s="102"/>
-      <c r="J304" s="102"/>
-      <c r="K304" s="102"/>
+      <c r="A304" s="105"/>
+      <c r="B304" s="105"/>
+      <c r="C304" s="105"/>
+      <c r="D304" s="105"/>
+      <c r="E304" s="105"/>
+      <c r="F304" s="105"/>
+      <c r="G304" s="105"/>
+      <c r="H304" s="105"/>
+      <c r="I304" s="105"/>
+      <c r="J304" s="105"/>
+      <c r="K304" s="105"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="103"/>
-      <c r="B305" s="103"/>
-      <c r="C305" s="103"/>
-      <c r="D305" s="103"/>
-      <c r="E305" s="103"/>
-      <c r="F305" s="103"/>
-      <c r="G305" s="103"/>
-      <c r="H305" s="103"/>
-      <c r="I305" s="103"/>
-      <c r="J305" s="103"/>
-      <c r="K305" s="103"/>
+      <c r="A305" s="106"/>
+      <c r="B305" s="106"/>
+      <c r="C305" s="106"/>
+      <c r="D305" s="106"/>
+      <c r="E305" s="106"/>
+      <c r="F305" s="106"/>
+      <c r="G305" s="106"/>
+      <c r="H305" s="106"/>
+      <c r="I305" s="106"/>
+      <c r="J305" s="106"/>
+      <c r="K305" s="106"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="104" t="s">
+      <c r="A306" s="107" t="s">
         <v>211</v>
       </c>
-      <c r="B306" s="105"/>
-      <c r="C306" s="105"/>
-      <c r="D306" s="105"/>
-      <c r="E306" s="105"/>
-      <c r="F306" s="105"/>
-      <c r="G306" s="105"/>
-      <c r="H306" s="105"/>
-      <c r="I306" s="105"/>
-      <c r="J306" s="105"/>
-      <c r="K306" s="106"/>
+      <c r="B306" s="108"/>
+      <c r="C306" s="108"/>
+      <c r="D306" s="108"/>
+      <c r="E306" s="108"/>
+      <c r="F306" s="108"/>
+      <c r="G306" s="108"/>
+      <c r="H306" s="108"/>
+      <c r="I306" s="108"/>
+      <c r="J306" s="108"/>
+      <c r="K306" s="109"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
@@ -9877,7 +9901,7 @@
         <v>0</v>
       </c>
       <c r="F317" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G317" s="13" t="s">
         <v>11</v>
@@ -9892,45 +9916,45 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="102"/>
-      <c r="B318" s="102"/>
-      <c r="C318" s="102"/>
-      <c r="D318" s="102"/>
-      <c r="E318" s="102"/>
-      <c r="F318" s="102"/>
-      <c r="G318" s="102"/>
-      <c r="H318" s="102"/>
-      <c r="I318" s="102"/>
-      <c r="J318" s="102"/>
-      <c r="K318" s="102"/>
+      <c r="A318" s="105"/>
+      <c r="B318" s="105"/>
+      <c r="C318" s="105"/>
+      <c r="D318" s="105"/>
+      <c r="E318" s="105"/>
+      <c r="F318" s="105"/>
+      <c r="G318" s="105"/>
+      <c r="H318" s="105"/>
+      <c r="I318" s="105"/>
+      <c r="J318" s="105"/>
+      <c r="K318" s="105"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="103"/>
-      <c r="B319" s="103"/>
-      <c r="C319" s="103"/>
-      <c r="D319" s="103"/>
-      <c r="E319" s="103"/>
-      <c r="F319" s="103"/>
-      <c r="G319" s="103"/>
-      <c r="H319" s="103"/>
-      <c r="I319" s="103"/>
-      <c r="J319" s="103"/>
-      <c r="K319" s="103"/>
+      <c r="A319" s="106"/>
+      <c r="B319" s="106"/>
+      <c r="C319" s="106"/>
+      <c r="D319" s="106"/>
+      <c r="E319" s="106"/>
+      <c r="F319" s="106"/>
+      <c r="G319" s="106"/>
+      <c r="H319" s="106"/>
+      <c r="I319" s="106"/>
+      <c r="J319" s="106"/>
+      <c r="K319" s="106"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="104" t="s">
+      <c r="A320" s="107" t="s">
         <v>214</v>
       </c>
-      <c r="B320" s="105"/>
-      <c r="C320" s="105"/>
-      <c r="D320" s="105"/>
-      <c r="E320" s="105"/>
-      <c r="F320" s="105"/>
-      <c r="G320" s="105"/>
-      <c r="H320" s="105"/>
-      <c r="I320" s="105"/>
-      <c r="J320" s="105"/>
-      <c r="K320" s="106"/>
+      <c r="B320" s="108"/>
+      <c r="C320" s="108"/>
+      <c r="D320" s="108"/>
+      <c r="E320" s="108"/>
+      <c r="F320" s="108"/>
+      <c r="G320" s="108"/>
+      <c r="H320" s="108"/>
+      <c r="I320" s="108"/>
+      <c r="J320" s="108"/>
+      <c r="K320" s="109"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
@@ -10162,7 +10186,7 @@
         <v>0</v>
       </c>
       <c r="F328" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G328" s="13" t="s">
         <v>11</v>
@@ -10177,45 +10201,45 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="102"/>
-      <c r="B329" s="102"/>
-      <c r="C329" s="102"/>
-      <c r="D329" s="102"/>
-      <c r="E329" s="102"/>
-      <c r="F329" s="102"/>
-      <c r="G329" s="102"/>
-      <c r="H329" s="102"/>
-      <c r="I329" s="102"/>
-      <c r="J329" s="102"/>
-      <c r="K329" s="102"/>
+      <c r="A329" s="105"/>
+      <c r="B329" s="105"/>
+      <c r="C329" s="105"/>
+      <c r="D329" s="105"/>
+      <c r="E329" s="105"/>
+      <c r="F329" s="105"/>
+      <c r="G329" s="105"/>
+      <c r="H329" s="105"/>
+      <c r="I329" s="105"/>
+      <c r="J329" s="105"/>
+      <c r="K329" s="105"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="103"/>
-      <c r="B330" s="103"/>
-      <c r="C330" s="103"/>
-      <c r="D330" s="103"/>
-      <c r="E330" s="103"/>
-      <c r="F330" s="103"/>
-      <c r="G330" s="103"/>
-      <c r="H330" s="103"/>
-      <c r="I330" s="103"/>
-      <c r="J330" s="103"/>
-      <c r="K330" s="103"/>
+      <c r="A330" s="106"/>
+      <c r="B330" s="106"/>
+      <c r="C330" s="106"/>
+      <c r="D330" s="106"/>
+      <c r="E330" s="106"/>
+      <c r="F330" s="106"/>
+      <c r="G330" s="106"/>
+      <c r="H330" s="106"/>
+      <c r="I330" s="106"/>
+      <c r="J330" s="106"/>
+      <c r="K330" s="106"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="104" t="s">
+      <c r="A331" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="B331" s="105"/>
-      <c r="C331" s="105"/>
-      <c r="D331" s="105"/>
-      <c r="E331" s="105"/>
-      <c r="F331" s="105"/>
-      <c r="G331" s="105"/>
-      <c r="H331" s="105"/>
-      <c r="I331" s="105"/>
-      <c r="J331" s="105"/>
-      <c r="K331" s="106"/>
+      <c r="B331" s="108"/>
+      <c r="C331" s="108"/>
+      <c r="D331" s="108"/>
+      <c r="E331" s="108"/>
+      <c r="F331" s="108"/>
+      <c r="G331" s="108"/>
+      <c r="H331" s="108"/>
+      <c r="I331" s="108"/>
+      <c r="J331" s="108"/>
+      <c r="K331" s="109"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
@@ -10443,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="F339" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G339" s="13" t="s">
         <v>11</v>
@@ -10458,45 +10482,45 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="102"/>
-      <c r="B340" s="102"/>
-      <c r="C340" s="102"/>
-      <c r="D340" s="102"/>
-      <c r="E340" s="102"/>
-      <c r="F340" s="102"/>
-      <c r="G340" s="102"/>
-      <c r="H340" s="102"/>
-      <c r="I340" s="102"/>
-      <c r="J340" s="102"/>
-      <c r="K340" s="102"/>
+      <c r="A340" s="105"/>
+      <c r="B340" s="105"/>
+      <c r="C340" s="105"/>
+      <c r="D340" s="105"/>
+      <c r="E340" s="105"/>
+      <c r="F340" s="105"/>
+      <c r="G340" s="105"/>
+      <c r="H340" s="105"/>
+      <c r="I340" s="105"/>
+      <c r="J340" s="105"/>
+      <c r="K340" s="105"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="103"/>
-      <c r="B341" s="103"/>
-      <c r="C341" s="103"/>
-      <c r="D341" s="103"/>
-      <c r="E341" s="103"/>
-      <c r="F341" s="103"/>
-      <c r="G341" s="103"/>
-      <c r="H341" s="103"/>
-      <c r="I341" s="103"/>
-      <c r="J341" s="103"/>
-      <c r="K341" s="103"/>
+      <c r="A341" s="106"/>
+      <c r="B341" s="106"/>
+      <c r="C341" s="106"/>
+      <c r="D341" s="106"/>
+      <c r="E341" s="106"/>
+      <c r="F341" s="106"/>
+      <c r="G341" s="106"/>
+      <c r="H341" s="106"/>
+      <c r="I341" s="106"/>
+      <c r="J341" s="106"/>
+      <c r="K341" s="106"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="104" t="s">
+      <c r="A342" s="107" t="s">
         <v>234</v>
       </c>
-      <c r="B342" s="105"/>
-      <c r="C342" s="105"/>
-      <c r="D342" s="105"/>
-      <c r="E342" s="105"/>
-      <c r="F342" s="105"/>
-      <c r="G342" s="105"/>
-      <c r="H342" s="105"/>
-      <c r="I342" s="105"/>
-      <c r="J342" s="105"/>
-      <c r="K342" s="106"/>
+      <c r="B342" s="108"/>
+      <c r="C342" s="108"/>
+      <c r="D342" s="108"/>
+      <c r="E342" s="108"/>
+      <c r="F342" s="108"/>
+      <c r="G342" s="108"/>
+      <c r="H342" s="108"/>
+      <c r="I342" s="108"/>
+      <c r="J342" s="108"/>
+      <c r="K342" s="109"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
@@ -10716,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="F350" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G350" s="13" t="s">
         <v>11</v>
@@ -10731,45 +10755,45 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="102"/>
-      <c r="B351" s="102"/>
-      <c r="C351" s="102"/>
-      <c r="D351" s="102"/>
-      <c r="E351" s="102"/>
-      <c r="F351" s="102"/>
-      <c r="G351" s="102"/>
-      <c r="H351" s="102"/>
-      <c r="I351" s="102"/>
-      <c r="J351" s="102"/>
-      <c r="K351" s="102"/>
+      <c r="A351" s="105"/>
+      <c r="B351" s="105"/>
+      <c r="C351" s="105"/>
+      <c r="D351" s="105"/>
+      <c r="E351" s="105"/>
+      <c r="F351" s="105"/>
+      <c r="G351" s="105"/>
+      <c r="H351" s="105"/>
+      <c r="I351" s="105"/>
+      <c r="J351" s="105"/>
+      <c r="K351" s="105"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="103"/>
-      <c r="B352" s="103"/>
-      <c r="C352" s="103"/>
-      <c r="D352" s="103"/>
-      <c r="E352" s="103"/>
-      <c r="F352" s="103"/>
-      <c r="G352" s="103"/>
-      <c r="H352" s="103"/>
-      <c r="I352" s="103"/>
-      <c r="J352" s="103"/>
-      <c r="K352" s="103"/>
+      <c r="A352" s="106"/>
+      <c r="B352" s="106"/>
+      <c r="C352" s="106"/>
+      <c r="D352" s="106"/>
+      <c r="E352" s="106"/>
+      <c r="F352" s="106"/>
+      <c r="G352" s="106"/>
+      <c r="H352" s="106"/>
+      <c r="I352" s="106"/>
+      <c r="J352" s="106"/>
+      <c r="K352" s="106"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="104" t="s">
+      <c r="A353" s="107" t="s">
         <v>121</v>
       </c>
-      <c r="B353" s="105"/>
-      <c r="C353" s="105"/>
-      <c r="D353" s="105"/>
-      <c r="E353" s="105"/>
-      <c r="F353" s="105"/>
-      <c r="G353" s="105"/>
-      <c r="H353" s="105"/>
-      <c r="I353" s="105"/>
-      <c r="J353" s="105"/>
-      <c r="K353" s="106"/>
+      <c r="B353" s="108"/>
+      <c r="C353" s="108"/>
+      <c r="D353" s="108"/>
+      <c r="E353" s="108"/>
+      <c r="F353" s="108"/>
+      <c r="G353" s="108"/>
+      <c r="H353" s="108"/>
+      <c r="I353" s="108"/>
+      <c r="J353" s="108"/>
+      <c r="K353" s="109"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
@@ -11074,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="F364" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G364" s="13" t="s">
         <v>11</v>
@@ -11089,45 +11113,45 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="102"/>
-      <c r="B365" s="102"/>
-      <c r="C365" s="102"/>
-      <c r="D365" s="102"/>
-      <c r="E365" s="102"/>
-      <c r="F365" s="102"/>
-      <c r="G365" s="102"/>
-      <c r="H365" s="102"/>
-      <c r="I365" s="102"/>
-      <c r="J365" s="102"/>
-      <c r="K365" s="102"/>
+      <c r="A365" s="105"/>
+      <c r="B365" s="105"/>
+      <c r="C365" s="105"/>
+      <c r="D365" s="105"/>
+      <c r="E365" s="105"/>
+      <c r="F365" s="105"/>
+      <c r="G365" s="105"/>
+      <c r="H365" s="105"/>
+      <c r="I365" s="105"/>
+      <c r="J365" s="105"/>
+      <c r="K365" s="105"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="103"/>
-      <c r="B366" s="103"/>
-      <c r="C366" s="103"/>
-      <c r="D366" s="103"/>
-      <c r="E366" s="103"/>
-      <c r="F366" s="103"/>
-      <c r="G366" s="103"/>
-      <c r="H366" s="103"/>
-      <c r="I366" s="103"/>
-      <c r="J366" s="103"/>
-      <c r="K366" s="103"/>
+      <c r="A366" s="106"/>
+      <c r="B366" s="106"/>
+      <c r="C366" s="106"/>
+      <c r="D366" s="106"/>
+      <c r="E366" s="106"/>
+      <c r="F366" s="106"/>
+      <c r="G366" s="106"/>
+      <c r="H366" s="106"/>
+      <c r="I366" s="106"/>
+      <c r="J366" s="106"/>
+      <c r="K366" s="106"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="104" t="s">
+      <c r="A367" s="107" t="s">
         <v>275</v>
       </c>
-      <c r="B367" s="105"/>
-      <c r="C367" s="105"/>
-      <c r="D367" s="105"/>
-      <c r="E367" s="105"/>
-      <c r="F367" s="105"/>
-      <c r="G367" s="105"/>
-      <c r="H367" s="105"/>
-      <c r="I367" s="105"/>
-      <c r="J367" s="105"/>
-      <c r="K367" s="106"/>
+      <c r="B367" s="108"/>
+      <c r="C367" s="108"/>
+      <c r="D367" s="108"/>
+      <c r="E367" s="108"/>
+      <c r="F367" s="108"/>
+      <c r="G367" s="108"/>
+      <c r="H367" s="108"/>
+      <c r="I367" s="108"/>
+      <c r="J367" s="108"/>
+      <c r="K367" s="109"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="20" t="s">
@@ -11345,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="F375" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G375" s="13" t="s">
         <v>11</v>
@@ -11360,45 +11384,45 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="107"/>
-      <c r="B376" s="107"/>
-      <c r="C376" s="107"/>
-      <c r="D376" s="107"/>
-      <c r="E376" s="107"/>
-      <c r="F376" s="107"/>
-      <c r="G376" s="107"/>
-      <c r="H376" s="107"/>
-      <c r="I376" s="107"/>
-      <c r="J376" s="107"/>
-      <c r="K376" s="107"/>
+      <c r="A376" s="110"/>
+      <c r="B376" s="110"/>
+      <c r="C376" s="110"/>
+      <c r="D376" s="110"/>
+      <c r="E376" s="110"/>
+      <c r="F376" s="110"/>
+      <c r="G376" s="110"/>
+      <c r="H376" s="110"/>
+      <c r="I376" s="110"/>
+      <c r="J376" s="110"/>
+      <c r="K376" s="110"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="103"/>
-      <c r="B377" s="103"/>
-      <c r="C377" s="103"/>
-      <c r="D377" s="103"/>
-      <c r="E377" s="103"/>
-      <c r="F377" s="103"/>
-      <c r="G377" s="103"/>
-      <c r="H377" s="103"/>
-      <c r="I377" s="103"/>
-      <c r="J377" s="103"/>
-      <c r="K377" s="103"/>
+      <c r="A377" s="106"/>
+      <c r="B377" s="106"/>
+      <c r="C377" s="106"/>
+      <c r="D377" s="106"/>
+      <c r="E377" s="106"/>
+      <c r="F377" s="106"/>
+      <c r="G377" s="106"/>
+      <c r="H377" s="106"/>
+      <c r="I377" s="106"/>
+      <c r="J377" s="106"/>
+      <c r="K377" s="106"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="104" t="s">
+      <c r="A378" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="B378" s="105"/>
-      <c r="C378" s="105"/>
-      <c r="D378" s="105"/>
-      <c r="E378" s="105"/>
-      <c r="F378" s="105"/>
-      <c r="G378" s="105"/>
-      <c r="H378" s="105"/>
-      <c r="I378" s="105"/>
-      <c r="J378" s="105"/>
-      <c r="K378" s="106"/>
+      <c r="B378" s="108"/>
+      <c r="C378" s="108"/>
+      <c r="D378" s="108"/>
+      <c r="E378" s="108"/>
+      <c r="F378" s="108"/>
+      <c r="G378" s="108"/>
+      <c r="H378" s="108"/>
+      <c r="I378" s="108"/>
+      <c r="J378" s="108"/>
+      <c r="K378" s="109"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="20" t="s">
@@ -11655,7 +11679,7 @@
         <v>0</v>
       </c>
       <c r="F387" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G387" s="13" t="s">
         <v>11</v>
@@ -11670,45 +11694,45 @@
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="102"/>
-      <c r="B388" s="102"/>
-      <c r="C388" s="102"/>
-      <c r="D388" s="102"/>
-      <c r="E388" s="102"/>
-      <c r="F388" s="102"/>
-      <c r="G388" s="102"/>
-      <c r="H388" s="102"/>
-      <c r="I388" s="102"/>
-      <c r="J388" s="102"/>
-      <c r="K388" s="102"/>
+      <c r="A388" s="105"/>
+      <c r="B388" s="105"/>
+      <c r="C388" s="105"/>
+      <c r="D388" s="105"/>
+      <c r="E388" s="105"/>
+      <c r="F388" s="105"/>
+      <c r="G388" s="105"/>
+      <c r="H388" s="105"/>
+      <c r="I388" s="105"/>
+      <c r="J388" s="105"/>
+      <c r="K388" s="105"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="103"/>
-      <c r="B389" s="103"/>
-      <c r="C389" s="103"/>
-      <c r="D389" s="103"/>
-      <c r="E389" s="103"/>
-      <c r="F389" s="103"/>
-      <c r="G389" s="103"/>
-      <c r="H389" s="103"/>
-      <c r="I389" s="103"/>
-      <c r="J389" s="103"/>
-      <c r="K389" s="103"/>
+      <c r="A389" s="106"/>
+      <c r="B389" s="106"/>
+      <c r="C389" s="106"/>
+      <c r="D389" s="106"/>
+      <c r="E389" s="106"/>
+      <c r="F389" s="106"/>
+      <c r="G389" s="106"/>
+      <c r="H389" s="106"/>
+      <c r="I389" s="106"/>
+      <c r="J389" s="106"/>
+      <c r="K389" s="106"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="104" t="s">
+      <c r="A390" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="B390" s="105"/>
-      <c r="C390" s="105"/>
-      <c r="D390" s="105"/>
-      <c r="E390" s="105"/>
-      <c r="F390" s="105"/>
-      <c r="G390" s="105"/>
-      <c r="H390" s="105"/>
-      <c r="I390" s="105"/>
-      <c r="J390" s="105"/>
-      <c r="K390" s="106"/>
+      <c r="B390" s="108"/>
+      <c r="C390" s="108"/>
+      <c r="D390" s="108"/>
+      <c r="E390" s="108"/>
+      <c r="F390" s="108"/>
+      <c r="G390" s="108"/>
+      <c r="H390" s="108"/>
+      <c r="I390" s="108"/>
+      <c r="J390" s="108"/>
+      <c r="K390" s="109"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="20" t="s">
@@ -11903,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="F397" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G397" s="13" t="s">
         <v>11</v>
@@ -11918,45 +11942,45 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="102"/>
-      <c r="B398" s="102"/>
-      <c r="C398" s="102"/>
-      <c r="D398" s="102"/>
-      <c r="E398" s="102"/>
-      <c r="F398" s="102"/>
-      <c r="G398" s="102"/>
-      <c r="H398" s="102"/>
-      <c r="I398" s="102"/>
-      <c r="J398" s="102"/>
-      <c r="K398" s="102"/>
+      <c r="A398" s="105"/>
+      <c r="B398" s="105"/>
+      <c r="C398" s="105"/>
+      <c r="D398" s="105"/>
+      <c r="E398" s="105"/>
+      <c r="F398" s="105"/>
+      <c r="G398" s="105"/>
+      <c r="H398" s="105"/>
+      <c r="I398" s="105"/>
+      <c r="J398" s="105"/>
+      <c r="K398" s="105"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="103"/>
-      <c r="B399" s="103"/>
-      <c r="C399" s="103"/>
-      <c r="D399" s="103"/>
-      <c r="E399" s="103"/>
-      <c r="F399" s="103"/>
-      <c r="G399" s="103"/>
-      <c r="H399" s="103"/>
-      <c r="I399" s="103"/>
-      <c r="J399" s="103"/>
-      <c r="K399" s="103"/>
+      <c r="A399" s="106"/>
+      <c r="B399" s="106"/>
+      <c r="C399" s="106"/>
+      <c r="D399" s="106"/>
+      <c r="E399" s="106"/>
+      <c r="F399" s="106"/>
+      <c r="G399" s="106"/>
+      <c r="H399" s="106"/>
+      <c r="I399" s="106"/>
+      <c r="J399" s="106"/>
+      <c r="K399" s="106"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="104" t="s">
+      <c r="A400" s="107" t="s">
         <v>262</v>
       </c>
-      <c r="B400" s="105"/>
-      <c r="C400" s="105"/>
-      <c r="D400" s="105"/>
-      <c r="E400" s="105"/>
-      <c r="F400" s="105"/>
-      <c r="G400" s="105"/>
-      <c r="H400" s="105"/>
-      <c r="I400" s="105"/>
-      <c r="J400" s="105"/>
-      <c r="K400" s="106"/>
+      <c r="B400" s="108"/>
+      <c r="C400" s="108"/>
+      <c r="D400" s="108"/>
+      <c r="E400" s="108"/>
+      <c r="F400" s="108"/>
+      <c r="G400" s="108"/>
+      <c r="H400" s="108"/>
+      <c r="I400" s="108"/>
+      <c r="J400" s="108"/>
+      <c r="K400" s="109"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="20" t="s">
@@ -12151,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="F407" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G407" s="13" t="s">
         <v>11</v>
@@ -12166,45 +12190,45 @@
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="102"/>
-      <c r="B408" s="102"/>
-      <c r="C408" s="102"/>
-      <c r="D408" s="102"/>
-      <c r="E408" s="102"/>
-      <c r="F408" s="102"/>
-      <c r="G408" s="102"/>
-      <c r="H408" s="102"/>
-      <c r="I408" s="102"/>
-      <c r="J408" s="102"/>
-      <c r="K408" s="102"/>
+      <c r="A408" s="105"/>
+      <c r="B408" s="105"/>
+      <c r="C408" s="105"/>
+      <c r="D408" s="105"/>
+      <c r="E408" s="105"/>
+      <c r="F408" s="105"/>
+      <c r="G408" s="105"/>
+      <c r="H408" s="105"/>
+      <c r="I408" s="105"/>
+      <c r="J408" s="105"/>
+      <c r="K408" s="105"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="103"/>
-      <c r="B409" s="103"/>
-      <c r="C409" s="103"/>
-      <c r="D409" s="103"/>
-      <c r="E409" s="103"/>
-      <c r="F409" s="103"/>
-      <c r="G409" s="103"/>
-      <c r="H409" s="103"/>
-      <c r="I409" s="103"/>
-      <c r="J409" s="103"/>
-      <c r="K409" s="103"/>
+      <c r="A409" s="106"/>
+      <c r="B409" s="106"/>
+      <c r="C409" s="106"/>
+      <c r="D409" s="106"/>
+      <c r="E409" s="106"/>
+      <c r="F409" s="106"/>
+      <c r="G409" s="106"/>
+      <c r="H409" s="106"/>
+      <c r="I409" s="106"/>
+      <c r="J409" s="106"/>
+      <c r="K409" s="106"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="104" t="s">
+      <c r="A410" s="107" t="s">
         <v>265</v>
       </c>
-      <c r="B410" s="105"/>
-      <c r="C410" s="105"/>
-      <c r="D410" s="105"/>
-      <c r="E410" s="105"/>
-      <c r="F410" s="105"/>
-      <c r="G410" s="105"/>
-      <c r="H410" s="105"/>
-      <c r="I410" s="105"/>
-      <c r="J410" s="105"/>
-      <c r="K410" s="106"/>
+      <c r="B410" s="108"/>
+      <c r="C410" s="108"/>
+      <c r="D410" s="108"/>
+      <c r="E410" s="108"/>
+      <c r="F410" s="108"/>
+      <c r="G410" s="108"/>
+      <c r="H410" s="108"/>
+      <c r="I410" s="108"/>
+      <c r="J410" s="108"/>
+      <c r="K410" s="109"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="20" t="s">
@@ -12393,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="F417" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G417" s="13" t="s">
         <v>11</v>
@@ -12408,45 +12432,45 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="102"/>
-      <c r="B418" s="102"/>
-      <c r="C418" s="102"/>
-      <c r="D418" s="102"/>
-      <c r="E418" s="102"/>
-      <c r="F418" s="102"/>
-      <c r="G418" s="102"/>
-      <c r="H418" s="102"/>
-      <c r="I418" s="102"/>
-      <c r="J418" s="102"/>
-      <c r="K418" s="102"/>
+      <c r="A418" s="105"/>
+      <c r="B418" s="105"/>
+      <c r="C418" s="105"/>
+      <c r="D418" s="105"/>
+      <c r="E418" s="105"/>
+      <c r="F418" s="105"/>
+      <c r="G418" s="105"/>
+      <c r="H418" s="105"/>
+      <c r="I418" s="105"/>
+      <c r="J418" s="105"/>
+      <c r="K418" s="105"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="103"/>
-      <c r="B419" s="103"/>
-      <c r="C419" s="103"/>
-      <c r="D419" s="103"/>
-      <c r="E419" s="103"/>
-      <c r="F419" s="103"/>
-      <c r="G419" s="103"/>
-      <c r="H419" s="103"/>
-      <c r="I419" s="103"/>
-      <c r="J419" s="103"/>
-      <c r="K419" s="103"/>
+      <c r="A419" s="106"/>
+      <c r="B419" s="106"/>
+      <c r="C419" s="106"/>
+      <c r="D419" s="106"/>
+      <c r="E419" s="106"/>
+      <c r="F419" s="106"/>
+      <c r="G419" s="106"/>
+      <c r="H419" s="106"/>
+      <c r="I419" s="106"/>
+      <c r="J419" s="106"/>
+      <c r="K419" s="106"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="104" t="s">
+      <c r="A420" s="107" t="s">
         <v>268</v>
       </c>
-      <c r="B420" s="105"/>
-      <c r="C420" s="105"/>
-      <c r="D420" s="105"/>
-      <c r="E420" s="105"/>
-      <c r="F420" s="105"/>
-      <c r="G420" s="105"/>
-      <c r="H420" s="105"/>
-      <c r="I420" s="105"/>
-      <c r="J420" s="105"/>
-      <c r="K420" s="106"/>
+      <c r="B420" s="108"/>
+      <c r="C420" s="108"/>
+      <c r="D420" s="108"/>
+      <c r="E420" s="108"/>
+      <c r="F420" s="108"/>
+      <c r="G420" s="108"/>
+      <c r="H420" s="108"/>
+      <c r="I420" s="108"/>
+      <c r="J420" s="108"/>
+      <c r="K420" s="109"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="20" t="s">
@@ -12664,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="F428" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G428" s="13" t="s">
         <v>11</v>
@@ -12679,45 +12703,45 @@
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="102"/>
-      <c r="B429" s="102"/>
-      <c r="C429" s="102"/>
-      <c r="D429" s="102"/>
-      <c r="E429" s="102"/>
-      <c r="F429" s="102"/>
-      <c r="G429" s="102"/>
-      <c r="H429" s="102"/>
-      <c r="I429" s="102"/>
-      <c r="J429" s="102"/>
-      <c r="K429" s="102"/>
+      <c r="A429" s="105"/>
+      <c r="B429" s="105"/>
+      <c r="C429" s="105"/>
+      <c r="D429" s="105"/>
+      <c r="E429" s="105"/>
+      <c r="F429" s="105"/>
+      <c r="G429" s="105"/>
+      <c r="H429" s="105"/>
+      <c r="I429" s="105"/>
+      <c r="J429" s="105"/>
+      <c r="K429" s="105"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="103"/>
-      <c r="B430" s="103"/>
-      <c r="C430" s="103"/>
-      <c r="D430" s="103"/>
-      <c r="E430" s="103"/>
-      <c r="F430" s="103"/>
-      <c r="G430" s="103"/>
-      <c r="H430" s="103"/>
-      <c r="I430" s="103"/>
-      <c r="J430" s="103"/>
-      <c r="K430" s="103"/>
+      <c r="A430" s="106"/>
+      <c r="B430" s="106"/>
+      <c r="C430" s="106"/>
+      <c r="D430" s="106"/>
+      <c r="E430" s="106"/>
+      <c r="F430" s="106"/>
+      <c r="G430" s="106"/>
+      <c r="H430" s="106"/>
+      <c r="I430" s="106"/>
+      <c r="J430" s="106"/>
+      <c r="K430" s="106"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="104" t="s">
+      <c r="A431" s="107" t="s">
         <v>271</v>
       </c>
-      <c r="B431" s="105"/>
-      <c r="C431" s="105"/>
-      <c r="D431" s="105"/>
-      <c r="E431" s="105"/>
-      <c r="F431" s="105"/>
-      <c r="G431" s="105"/>
-      <c r="H431" s="105"/>
-      <c r="I431" s="105"/>
-      <c r="J431" s="105"/>
-      <c r="K431" s="106"/>
+      <c r="B431" s="108"/>
+      <c r="C431" s="108"/>
+      <c r="D431" s="108"/>
+      <c r="E431" s="108"/>
+      <c r="F431" s="108"/>
+      <c r="G431" s="108"/>
+      <c r="H431" s="108"/>
+      <c r="I431" s="108"/>
+      <c r="J431" s="108"/>
+      <c r="K431" s="109"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="20" t="s">
@@ -12882,7 +12906,7 @@
         <v>0</v>
       </c>
       <c r="F437" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G437" s="13" t="s">
         <v>11</v>
@@ -12897,45 +12921,45 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="102"/>
-      <c r="B438" s="102"/>
-      <c r="C438" s="102"/>
-      <c r="D438" s="102"/>
-      <c r="E438" s="102"/>
-      <c r="F438" s="102"/>
-      <c r="G438" s="102"/>
-      <c r="H438" s="102"/>
-      <c r="I438" s="102"/>
-      <c r="J438" s="102"/>
-      <c r="K438" s="102"/>
+      <c r="A438" s="105"/>
+      <c r="B438" s="105"/>
+      <c r="C438" s="105"/>
+      <c r="D438" s="105"/>
+      <c r="E438" s="105"/>
+      <c r="F438" s="105"/>
+      <c r="G438" s="105"/>
+      <c r="H438" s="105"/>
+      <c r="I438" s="105"/>
+      <c r="J438" s="105"/>
+      <c r="K438" s="105"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="103"/>
-      <c r="B439" s="103"/>
-      <c r="C439" s="103"/>
-      <c r="D439" s="103"/>
-      <c r="E439" s="103"/>
-      <c r="F439" s="103"/>
-      <c r="G439" s="103"/>
-      <c r="H439" s="103"/>
-      <c r="I439" s="103"/>
-      <c r="J439" s="103"/>
-      <c r="K439" s="103"/>
+      <c r="A439" s="106"/>
+      <c r="B439" s="106"/>
+      <c r="C439" s="106"/>
+      <c r="D439" s="106"/>
+      <c r="E439" s="106"/>
+      <c r="F439" s="106"/>
+      <c r="G439" s="106"/>
+      <c r="H439" s="106"/>
+      <c r="I439" s="106"/>
+      <c r="J439" s="106"/>
+      <c r="K439" s="106"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="104" t="s">
+      <c r="A440" s="107" t="s">
         <v>273</v>
       </c>
-      <c r="B440" s="105"/>
-      <c r="C440" s="105"/>
-      <c r="D440" s="105"/>
-      <c r="E440" s="105"/>
-      <c r="F440" s="105"/>
-      <c r="G440" s="105"/>
-      <c r="H440" s="105"/>
-      <c r="I440" s="105"/>
-      <c r="J440" s="105"/>
-      <c r="K440" s="106"/>
+      <c r="B440" s="108"/>
+      <c r="C440" s="108"/>
+      <c r="D440" s="108"/>
+      <c r="E440" s="108"/>
+      <c r="F440" s="108"/>
+      <c r="G440" s="108"/>
+      <c r="H440" s="108"/>
+      <c r="I440" s="108"/>
+      <c r="J440" s="108"/>
+      <c r="K440" s="109"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="20" t="s">
@@ -13211,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="F450" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G450" s="13" t="s">
         <v>11</v>
@@ -13226,45 +13250,45 @@
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="102"/>
-      <c r="B451" s="102"/>
-      <c r="C451" s="102"/>
-      <c r="D451" s="102"/>
-      <c r="E451" s="102"/>
-      <c r="F451" s="102"/>
-      <c r="G451" s="102"/>
-      <c r="H451" s="102"/>
-      <c r="I451" s="102"/>
-      <c r="J451" s="102"/>
-      <c r="K451" s="102"/>
+      <c r="A451" s="105"/>
+      <c r="B451" s="105"/>
+      <c r="C451" s="105"/>
+      <c r="D451" s="105"/>
+      <c r="E451" s="105"/>
+      <c r="F451" s="105"/>
+      <c r="G451" s="105"/>
+      <c r="H451" s="105"/>
+      <c r="I451" s="105"/>
+      <c r="J451" s="105"/>
+      <c r="K451" s="105"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="103"/>
-      <c r="B452" s="103"/>
-      <c r="C452" s="103"/>
-      <c r="D452" s="103"/>
-      <c r="E452" s="103"/>
-      <c r="F452" s="103"/>
-      <c r="G452" s="103"/>
-      <c r="H452" s="103"/>
-      <c r="I452" s="103"/>
-      <c r="J452" s="103"/>
-      <c r="K452" s="103"/>
+      <c r="A452" s="106"/>
+      <c r="B452" s="106"/>
+      <c r="C452" s="106"/>
+      <c r="D452" s="106"/>
+      <c r="E452" s="106"/>
+      <c r="F452" s="106"/>
+      <c r="G452" s="106"/>
+      <c r="H452" s="106"/>
+      <c r="I452" s="106"/>
+      <c r="J452" s="106"/>
+      <c r="K452" s="106"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="104" t="s">
+      <c r="A453" s="107" t="s">
         <v>285</v>
       </c>
-      <c r="B453" s="105"/>
-      <c r="C453" s="105"/>
-      <c r="D453" s="105"/>
-      <c r="E453" s="105"/>
-      <c r="F453" s="105"/>
-      <c r="G453" s="105"/>
-      <c r="H453" s="105"/>
-      <c r="I453" s="105"/>
-      <c r="J453" s="105"/>
-      <c r="K453" s="106"/>
+      <c r="B453" s="108"/>
+      <c r="C453" s="108"/>
+      <c r="D453" s="108"/>
+      <c r="E453" s="108"/>
+      <c r="F453" s="108"/>
+      <c r="G453" s="108"/>
+      <c r="H453" s="108"/>
+      <c r="I453" s="108"/>
+      <c r="J453" s="108"/>
+      <c r="K453" s="109"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="20" t="s">
@@ -13523,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="F462" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G462" s="13" t="s">
         <v>11</v>
@@ -13537,8 +13561,262 @@
         <v>42</v>
       </c>
     </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A463" s="105"/>
+      <c r="B463" s="105"/>
+      <c r="C463" s="105"/>
+      <c r="D463" s="105"/>
+      <c r="E463" s="105"/>
+      <c r="F463" s="105"/>
+      <c r="G463" s="105"/>
+      <c r="H463" s="105"/>
+      <c r="I463" s="105"/>
+      <c r="J463" s="105"/>
+      <c r="K463" s="105"/>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" s="106"/>
+      <c r="B464" s="106"/>
+      <c r="C464" s="106"/>
+      <c r="D464" s="106"/>
+      <c r="E464" s="106"/>
+      <c r="F464" s="106"/>
+      <c r="G464" s="106"/>
+      <c r="H464" s="106"/>
+      <c r="I464" s="106"/>
+      <c r="J464" s="106"/>
+      <c r="K464" s="106"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" s="107" t="s">
+        <v>304</v>
+      </c>
+      <c r="B465" s="108"/>
+      <c r="C465" s="108"/>
+      <c r="D465" s="108"/>
+      <c r="E465" s="108"/>
+      <c r="F465" s="108"/>
+      <c r="G465" s="108"/>
+      <c r="H465" s="108"/>
+      <c r="I465" s="108"/>
+      <c r="J465" s="108"/>
+      <c r="K465" s="109"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B466" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C466" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D466" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E466" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F466" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G466" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H466" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I466" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J466" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K466" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A467" s="39">
+        <v>1</v>
+      </c>
+      <c r="B467" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C467" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D467" s="5">
+        <v>20</v>
+      </c>
+      <c r="E467" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F467" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G467" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H467" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I467" s="102" t="s">
+        <v>12</v>
+      </c>
+      <c r="J467" s="102"/>
+      <c r="K467" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A468" s="40">
+        <v>2</v>
+      </c>
+      <c r="B468" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C468" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D468" s="7">
+        <v>10</v>
+      </c>
+      <c r="E468" s="7"/>
+      <c r="F468" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G468" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H468" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I468" s="104"/>
+      <c r="J468" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="K468" s="9"/>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A469" s="40">
+        <v>3</v>
+      </c>
+      <c r="B469" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C469" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D469" s="7">
+        <v>10</v>
+      </c>
+      <c r="E469" s="7"/>
+      <c r="F469" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G469" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H469" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I469" s="104"/>
+      <c r="J469" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="K469" s="9"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" s="40">
+        <v>4</v>
+      </c>
+      <c r="B470" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C470" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D470" s="7">
+        <v>1</v>
+      </c>
+      <c r="E470" s="7"/>
+      <c r="F470" s="7">
+        <v>3</v>
+      </c>
+      <c r="G470" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H470" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I470" s="104"/>
+      <c r="J470" s="104" t="s">
+        <v>12</v>
+      </c>
+      <c r="K470" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="40">
+        <v>5</v>
+      </c>
+      <c r="B471" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C471" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D471" s="7"/>
+      <c r="E471" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F471" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G471" s="7"/>
+      <c r="H471" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I471" s="104"/>
+      <c r="J471" s="104"/>
+      <c r="K471" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="41">
+        <v>6</v>
+      </c>
+      <c r="B472" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C472" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D472" s="13"/>
+      <c r="E472" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F472" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G472" s="13"/>
+      <c r="H472" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I472" s="103"/>
+      <c r="J472" s="103"/>
+      <c r="K472" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="79">
+    <mergeCell ref="A463:K464"/>
+    <mergeCell ref="A465:K465"/>
     <mergeCell ref="A451:K452"/>
     <mergeCell ref="A453:K453"/>
     <mergeCell ref="A1:K1"/>
@@ -13687,45 +13965,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="102"/>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
-      <c r="J1" s="102"/>
-      <c r="K1" s="102"/>
+      <c r="A1" s="105"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
+      <c r="A2" s="106"/>
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+      <c r="I2" s="106"/>
+      <c r="J2" s="106"/>
+      <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="104" t="s">
+      <c r="A3" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="106"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="109"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -13910,45 +14188,45 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="102"/>
-      <c r="B10" s="102"/>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="102"/>
+      <c r="A10" s="105"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="103"/>
-      <c r="B11" s="103"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="103"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="103"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="104" t="s">
+      <c r="A12" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="105"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="106"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="109"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -14220,45 +14498,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="102"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
+      <c r="A22" s="105"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="105"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="103"/>
-      <c r="B23" s="103"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="103"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="103"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="103"/>
+      <c r="A23" s="106"/>
+      <c r="B23" s="106"/>
+      <c r="C23" s="106"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="106"/>
+      <c r="K23" s="106"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="104" t="s">
+      <c r="A24" s="107" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="105"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="105"/>
-      <c r="K24" s="106"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="109"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -14505,45 +14783,45 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="102"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
+      <c r="A33" s="105"/>
+      <c r="B33" s="105"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="105"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="103"/>
-      <c r="B34" s="103"/>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
+      <c r="A34" s="106"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="106"/>
+      <c r="D34" s="106"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="105"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="105"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="105"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="106"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="108"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="108"/>
+      <c r="G35" s="108"/>
+      <c r="H35" s="108"/>
+      <c r="I35" s="108"/>
+      <c r="J35" s="108"/>
+      <c r="K35" s="109"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -14817,45 +15095,45 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="102"/>
-      <c r="B45" s="102"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="102"/>
-      <c r="E45" s="102"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="102"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="102"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="102"/>
+      <c r="A45" s="105"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="105"/>
+      <c r="D45" s="105"/>
+      <c r="E45" s="105"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="105"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="103"/>
-      <c r="B46" s="103"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
-      <c r="E46" s="103"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="103"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="103"/>
-      <c r="J46" s="103"/>
-      <c r="K46" s="103"/>
+      <c r="A46" s="106"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="106"/>
+      <c r="D46" s="106"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="106"/>
+      <c r="K46" s="106"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="104" t="s">
+      <c r="A47" s="107" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="105"/>
-      <c r="C47" s="105"/>
-      <c r="D47" s="105"/>
-      <c r="E47" s="105"/>
-      <c r="F47" s="105"/>
-      <c r="G47" s="105"/>
-      <c r="H47" s="105"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="105"/>
-      <c r="K47" s="106"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="109"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -15098,45 +15376,45 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="102"/>
-      <c r="B56" s="102"/>
-      <c r="C56" s="102"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="102"/>
-      <c r="I56" s="102"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="102"/>
+      <c r="A56" s="105"/>
+      <c r="B56" s="105"/>
+      <c r="C56" s="105"/>
+      <c r="D56" s="105"/>
+      <c r="E56" s="105"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
+      <c r="J56" s="105"/>
+      <c r="K56" s="105"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="103"/>
-      <c r="B57" s="103"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
-      <c r="F57" s="103"/>
-      <c r="G57" s="103"/>
-      <c r="H57" s="103"/>
-      <c r="I57" s="103"/>
-      <c r="J57" s="103"/>
-      <c r="K57" s="103"/>
+      <c r="A57" s="106"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="106"/>
+      <c r="E57" s="106"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="106"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="104" t="s">
+      <c r="A58" s="107" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="105"/>
-      <c r="C58" s="105"/>
-      <c r="D58" s="105"/>
-      <c r="E58" s="105"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="105"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="105"/>
-      <c r="K58" s="106"/>
+      <c r="B58" s="108"/>
+      <c r="C58" s="108"/>
+      <c r="D58" s="108"/>
+      <c r="E58" s="108"/>
+      <c r="F58" s="108"/>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="109"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -15379,45 +15657,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="102"/>
-      <c r="B67" s="102"/>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
-      <c r="G67" s="102"/>
-      <c r="H67" s="102"/>
-      <c r="I67" s="102"/>
-      <c r="J67" s="102"/>
-      <c r="K67" s="102"/>
+      <c r="A67" s="105"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
+      <c r="J67" s="105"/>
+      <c r="K67" s="105"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="103"/>
-      <c r="B68" s="103"/>
-      <c r="C68" s="103"/>
-      <c r="D68" s="103"/>
-      <c r="E68" s="103"/>
-      <c r="F68" s="103"/>
-      <c r="G68" s="103"/>
-      <c r="H68" s="103"/>
-      <c r="I68" s="103"/>
-      <c r="J68" s="103"/>
-      <c r="K68" s="103"/>
+      <c r="A68" s="106"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="106"/>
+      <c r="H68" s="106"/>
+      <c r="I68" s="106"/>
+      <c r="J68" s="106"/>
+      <c r="K68" s="106"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="107" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="105"/>
-      <c r="C69" s="105"/>
-      <c r="D69" s="105"/>
-      <c r="E69" s="105"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="105"/>
-      <c r="H69" s="105"/>
-      <c r="I69" s="105"/>
-      <c r="J69" s="105"/>
-      <c r="K69" s="106"/>
+      <c r="B69" s="108"/>
+      <c r="C69" s="108"/>
+      <c r="D69" s="108"/>
+      <c r="E69" s="108"/>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+      <c r="J69" s="108"/>
+      <c r="K69" s="109"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -15741,45 +16019,45 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="102"/>
-      <c r="B82" s="102"/>
-      <c r="C82" s="102"/>
-      <c r="D82" s="102"/>
-      <c r="E82" s="102"/>
-      <c r="F82" s="102"/>
-      <c r="G82" s="102"/>
-      <c r="H82" s="102"/>
-      <c r="I82" s="102"/>
-      <c r="J82" s="102"/>
-      <c r="K82" s="102"/>
+      <c r="A82" s="105"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="105"/>
+      <c r="J82" s="105"/>
+      <c r="K82" s="105"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="103"/>
-      <c r="B83" s="103"/>
-      <c r="C83" s="103"/>
-      <c r="D83" s="103"/>
-      <c r="E83" s="103"/>
-      <c r="F83" s="103"/>
-      <c r="G83" s="103"/>
-      <c r="H83" s="103"/>
-      <c r="I83" s="103"/>
-      <c r="J83" s="103"/>
-      <c r="K83" s="103"/>
+      <c r="A83" s="106"/>
+      <c r="B83" s="106"/>
+      <c r="C83" s="106"/>
+      <c r="D83" s="106"/>
+      <c r="E83" s="106"/>
+      <c r="F83" s="106"/>
+      <c r="G83" s="106"/>
+      <c r="H83" s="106"/>
+      <c r="I83" s="106"/>
+      <c r="J83" s="106"/>
+      <c r="K83" s="106"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="104" t="s">
+      <c r="A84" s="107" t="s">
         <v>192</v>
       </c>
-      <c r="B84" s="105"/>
-      <c r="C84" s="105"/>
-      <c r="D84" s="105"/>
-      <c r="E84" s="105"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="105"/>
-      <c r="H84" s="105"/>
-      <c r="I84" s="105"/>
-      <c r="J84" s="105"/>
-      <c r="K84" s="106"/>
+      <c r="B84" s="108"/>
+      <c r="C84" s="108"/>
+      <c r="D84" s="108"/>
+      <c r="E84" s="108"/>
+      <c r="F84" s="108"/>
+      <c r="G84" s="108"/>
+      <c r="H84" s="108"/>
+      <c r="I84" s="108"/>
+      <c r="J84" s="108"/>
+      <c r="K84" s="109"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
@@ -15960,45 +16238,45 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="102"/>
-      <c r="B91" s="102"/>
-      <c r="C91" s="102"/>
-      <c r="D91" s="102"/>
-      <c r="E91" s="102"/>
-      <c r="F91" s="102"/>
-      <c r="G91" s="102"/>
-      <c r="H91" s="102"/>
-      <c r="I91" s="102"/>
-      <c r="J91" s="102"/>
-      <c r="K91" s="102"/>
+      <c r="A91" s="105"/>
+      <c r="B91" s="105"/>
+      <c r="C91" s="105"/>
+      <c r="D91" s="105"/>
+      <c r="E91" s="105"/>
+      <c r="F91" s="105"/>
+      <c r="G91" s="105"/>
+      <c r="H91" s="105"/>
+      <c r="I91" s="105"/>
+      <c r="J91" s="105"/>
+      <c r="K91" s="105"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="103"/>
-      <c r="B92" s="103"/>
-      <c r="C92" s="103"/>
-      <c r="D92" s="103"/>
-      <c r="E92" s="103"/>
-      <c r="F92" s="103"/>
-      <c r="G92" s="103"/>
-      <c r="H92" s="103"/>
-      <c r="I92" s="103"/>
-      <c r="J92" s="103"/>
-      <c r="K92" s="103"/>
+      <c r="A92" s="106"/>
+      <c r="B92" s="106"/>
+      <c r="C92" s="106"/>
+      <c r="D92" s="106"/>
+      <c r="E92" s="106"/>
+      <c r="F92" s="106"/>
+      <c r="G92" s="106"/>
+      <c r="H92" s="106"/>
+      <c r="I92" s="106"/>
+      <c r="J92" s="106"/>
+      <c r="K92" s="106"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="104" t="s">
+      <c r="A93" s="107" t="s">
         <v>191</v>
       </c>
-      <c r="B93" s="105"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="105"/>
-      <c r="E93" s="105"/>
-      <c r="F93" s="105"/>
-      <c r="G93" s="105"/>
-      <c r="H93" s="105"/>
-      <c r="I93" s="105"/>
-      <c r="J93" s="105"/>
-      <c r="K93" s="106"/>
+      <c r="B93" s="108"/>
+      <c r="C93" s="108"/>
+      <c r="D93" s="108"/>
+      <c r="E93" s="108"/>
+      <c r="F93" s="108"/>
+      <c r="G93" s="108"/>
+      <c r="H93" s="108"/>
+      <c r="I93" s="108"/>
+      <c r="J93" s="108"/>
+      <c r="K93" s="109"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -16245,45 +16523,45 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="102"/>
-      <c r="B103" s="102"/>
-      <c r="C103" s="102"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="102"/>
-      <c r="F103" s="102"/>
-      <c r="G103" s="102"/>
-      <c r="H103" s="102"/>
-      <c r="I103" s="102"/>
-      <c r="J103" s="102"/>
-      <c r="K103" s="102"/>
+      <c r="A103" s="105"/>
+      <c r="B103" s="105"/>
+      <c r="C103" s="105"/>
+      <c r="D103" s="105"/>
+      <c r="E103" s="105"/>
+      <c r="F103" s="105"/>
+      <c r="G103" s="105"/>
+      <c r="H103" s="105"/>
+      <c r="I103" s="105"/>
+      <c r="J103" s="105"/>
+      <c r="K103" s="105"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="103"/>
-      <c r="B104" s="103"/>
-      <c r="C104" s="103"/>
-      <c r="D104" s="103"/>
-      <c r="E104" s="103"/>
-      <c r="F104" s="103"/>
-      <c r="G104" s="103"/>
-      <c r="H104" s="103"/>
-      <c r="I104" s="103"/>
-      <c r="J104" s="103"/>
-      <c r="K104" s="103"/>
+      <c r="A104" s="106"/>
+      <c r="B104" s="106"/>
+      <c r="C104" s="106"/>
+      <c r="D104" s="106"/>
+      <c r="E104" s="106"/>
+      <c r="F104" s="106"/>
+      <c r="G104" s="106"/>
+      <c r="H104" s="106"/>
+      <c r="I104" s="106"/>
+      <c r="J104" s="106"/>
+      <c r="K104" s="106"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="104" t="s">
+      <c r="A105" s="107" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="105"/>
-      <c r="C105" s="105"/>
-      <c r="D105" s="105"/>
-      <c r="E105" s="105"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="105"/>
-      <c r="H105" s="105"/>
-      <c r="I105" s="105"/>
-      <c r="J105" s="105"/>
-      <c r="K105" s="106"/>
+      <c r="B105" s="108"/>
+      <c r="C105" s="108"/>
+      <c r="D105" s="108"/>
+      <c r="E105" s="108"/>
+      <c r="F105" s="108"/>
+      <c r="G105" s="108"/>
+      <c r="H105" s="108"/>
+      <c r="I105" s="108"/>
+      <c r="J105" s="108"/>
+      <c r="K105" s="109"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
@@ -16414,45 +16692,45 @@
       <c r="K109" s="14"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="102"/>
-      <c r="B110" s="102"/>
-      <c r="C110" s="102"/>
-      <c r="D110" s="102"/>
-      <c r="E110" s="102"/>
-      <c r="F110" s="102"/>
-      <c r="G110" s="102"/>
-      <c r="H110" s="102"/>
-      <c r="I110" s="102"/>
-      <c r="J110" s="102"/>
-      <c r="K110" s="102"/>
+      <c r="A110" s="105"/>
+      <c r="B110" s="105"/>
+      <c r="C110" s="105"/>
+      <c r="D110" s="105"/>
+      <c r="E110" s="105"/>
+      <c r="F110" s="105"/>
+      <c r="G110" s="105"/>
+      <c r="H110" s="105"/>
+      <c r="I110" s="105"/>
+      <c r="J110" s="105"/>
+      <c r="K110" s="105"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="103"/>
-      <c r="B111" s="103"/>
-      <c r="C111" s="103"/>
-      <c r="D111" s="103"/>
-      <c r="E111" s="103"/>
-      <c r="F111" s="103"/>
-      <c r="G111" s="103"/>
-      <c r="H111" s="103"/>
-      <c r="I111" s="103"/>
-      <c r="J111" s="103"/>
-      <c r="K111" s="103"/>
+      <c r="A111" s="106"/>
+      <c r="B111" s="106"/>
+      <c r="C111" s="106"/>
+      <c r="D111" s="106"/>
+      <c r="E111" s="106"/>
+      <c r="F111" s="106"/>
+      <c r="G111" s="106"/>
+      <c r="H111" s="106"/>
+      <c r="I111" s="106"/>
+      <c r="J111" s="106"/>
+      <c r="K111" s="106"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="104" t="s">
+      <c r="A112" s="107" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="105"/>
-      <c r="C112" s="105"/>
-      <c r="D112" s="105"/>
-      <c r="E112" s="105"/>
-      <c r="F112" s="105"/>
-      <c r="G112" s="105"/>
-      <c r="H112" s="105"/>
-      <c r="I112" s="105"/>
-      <c r="J112" s="105"/>
-      <c r="K112" s="106"/>
+      <c r="B112" s="108"/>
+      <c r="C112" s="108"/>
+      <c r="D112" s="108"/>
+      <c r="E112" s="108"/>
+      <c r="F112" s="108"/>
+      <c r="G112" s="108"/>
+      <c r="H112" s="108"/>
+      <c r="I112" s="108"/>
+      <c r="J112" s="108"/>
+      <c r="K112" s="109"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7155"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="20490" windowHeight="7095"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -891,9 +891,6 @@
     <t>1 - Selected, 0 - Not Selected</t>
   </si>
   <si>
-    <t>pro_tlh_teenager_level_boosters</t>
-  </si>
-  <si>
     <t>tlb_teenager</t>
   </si>
   <si>
@@ -943,6 +940,9 @@
   </si>
   <si>
     <t xml:space="preserve">1 - High, 2 - Moderate, 3 - Low </t>
+  </si>
+  <si>
+    <t>pro_tlb_teenager_level_boosters</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1487,6 +1487,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1834,8 +1837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K472"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I472" sqref="I472"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1855,49 +1858,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="115"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="108" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="110"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -2103,45 +2106,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="105"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="105"/>
+      <c r="A11" s="106"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="106"/>
-      <c r="B12" s="106"/>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="106"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="106"/>
-      <c r="K12" s="106"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="115" t="s">
+      <c r="A13" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="116"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="118"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
@@ -2347,45 +2350,45 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="110"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
+      <c r="A21" s="111"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+      <c r="K21" s="111"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
+      <c r="A22" s="107"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="107" t="s">
+      <c r="A23" s="108" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="108"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="108"/>
-      <c r="K23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="110"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2618,45 +2621,45 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="105"/>
-      <c r="B32" s="105"/>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="105"/>
+      <c r="A32" s="106"/>
+      <c r="B32" s="106"/>
+      <c r="C32" s="106"/>
+      <c r="D32" s="106"/>
+      <c r="E32" s="106"/>
+      <c r="F32" s="106"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
+      <c r="J32" s="106"/>
+      <c r="K32" s="106"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="107"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="107" t="s">
+      <c r="A34" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="108"/>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
-      <c r="F34" s="108"/>
-      <c r="G34" s="108"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="108"/>
-      <c r="K34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="110"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
@@ -2984,7 +2987,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>14</v>
@@ -3497,45 +3500,45 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="105"/>
-      <c r="B65" s="105"/>
-      <c r="C65" s="105"/>
-      <c r="D65" s="105"/>
-      <c r="E65" s="105"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="105"/>
-      <c r="H65" s="105"/>
-      <c r="I65" s="105"/>
-      <c r="J65" s="105"/>
-      <c r="K65" s="105"/>
+      <c r="A65" s="106"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="106"/>
+      <c r="J65" s="106"/>
+      <c r="K65" s="106"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="106"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
-      <c r="G66" s="106"/>
-      <c r="H66" s="106"/>
-      <c r="I66" s="106"/>
-      <c r="J66" s="106"/>
-      <c r="K66" s="106"/>
+      <c r="A66" s="107"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="107"/>
+      <c r="D66" s="107"/>
+      <c r="E66" s="107"/>
+      <c r="F66" s="107"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="107"/>
+      <c r="J66" s="107"/>
+      <c r="K66" s="107"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="107" t="s">
-        <v>295</v>
-      </c>
-      <c r="B67" s="108"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="108"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="108"/>
-      <c r="J67" s="108"/>
-      <c r="K67" s="109"/>
+      <c r="A67" s="108" t="s">
+        <v>294</v>
+      </c>
+      <c r="B67" s="109"/>
+      <c r="C67" s="109"/>
+      <c r="D67" s="109"/>
+      <c r="E67" s="109"/>
+      <c r="F67" s="109"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="109"/>
+      <c r="J67" s="109"/>
+      <c r="K67" s="110"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -3610,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C70" s="7" t="s">
         <v>116</v>
@@ -3639,7 +3642,7 @@
         <v>3</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C71" s="7" t="s">
         <v>9</v>
@@ -3668,7 +3671,7 @@
         <v>4</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C72" s="7" t="s">
         <v>14</v>
@@ -3695,7 +3698,7 @@
         <v>5</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C73" s="7" t="s">
         <v>15</v>
@@ -3718,7 +3721,7 @@
         <v>12</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
@@ -3776,45 +3779,45 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="105"/>
-      <c r="B76" s="105"/>
-      <c r="C76" s="105"/>
-      <c r="D76" s="105"/>
-      <c r="E76" s="105"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="105"/>
-      <c r="H76" s="105"/>
-      <c r="I76" s="105"/>
-      <c r="J76" s="105"/>
-      <c r="K76" s="105"/>
+      <c r="A76" s="106"/>
+      <c r="B76" s="106"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="106"/>
+      <c r="F76" s="106"/>
+      <c r="G76" s="106"/>
+      <c r="H76" s="106"/>
+      <c r="I76" s="106"/>
+      <c r="J76" s="106"/>
+      <c r="K76" s="106"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="106"/>
-      <c r="B77" s="106"/>
-      <c r="C77" s="106"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="106"/>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="106"/>
-      <c r="J77" s="106"/>
-      <c r="K77" s="106"/>
+      <c r="A77" s="107"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="107"/>
+      <c r="D77" s="107"/>
+      <c r="E77" s="107"/>
+      <c r="F77" s="107"/>
+      <c r="G77" s="107"/>
+      <c r="H77" s="107"/>
+      <c r="I77" s="107"/>
+      <c r="J77" s="107"/>
+      <c r="K77" s="107"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="107" t="s">
+      <c r="A78" s="108" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="108"/>
-      <c r="C78" s="108"/>
-      <c r="D78" s="108"/>
-      <c r="E78" s="108"/>
-      <c r="F78" s="108"/>
-      <c r="G78" s="108"/>
-      <c r="H78" s="108"/>
-      <c r="I78" s="108"/>
-      <c r="J78" s="108"/>
-      <c r="K78" s="109"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="109"/>
+      <c r="D78" s="109"/>
+      <c r="E78" s="109"/>
+      <c r="F78" s="109"/>
+      <c r="G78" s="109"/>
+      <c r="H78" s="109"/>
+      <c r="I78" s="109"/>
+      <c r="J78" s="109"/>
+      <c r="K78" s="110"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
@@ -4028,45 +4031,45 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="110"/>
-      <c r="B86" s="110"/>
-      <c r="C86" s="110"/>
-      <c r="D86" s="110"/>
-      <c r="E86" s="110"/>
-      <c r="F86" s="110"/>
-      <c r="G86" s="110"/>
-      <c r="H86" s="110"/>
-      <c r="I86" s="110"/>
-      <c r="J86" s="110"/>
-      <c r="K86" s="110"/>
+      <c r="A86" s="111"/>
+      <c r="B86" s="111"/>
+      <c r="C86" s="111"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="111"/>
+      <c r="F86" s="111"/>
+      <c r="G86" s="111"/>
+      <c r="H86" s="111"/>
+      <c r="I86" s="111"/>
+      <c r="J86" s="111"/>
+      <c r="K86" s="111"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="106"/>
-      <c r="B87" s="106"/>
-      <c r="C87" s="106"/>
-      <c r="D87" s="106"/>
-      <c r="E87" s="106"/>
-      <c r="F87" s="106"/>
-      <c r="G87" s="106"/>
-      <c r="H87" s="106"/>
-      <c r="I87" s="106"/>
-      <c r="J87" s="106"/>
-      <c r="K87" s="106"/>
+      <c r="A87" s="107"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
+      <c r="I87" s="107"/>
+      <c r="J87" s="107"/>
+      <c r="K87" s="107"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="107" t="s">
+      <c r="A88" s="108" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="108"/>
-      <c r="C88" s="108"/>
-      <c r="D88" s="108"/>
-      <c r="E88" s="108"/>
-      <c r="F88" s="108"/>
-      <c r="G88" s="108"/>
-      <c r="H88" s="108"/>
-      <c r="I88" s="108"/>
-      <c r="J88" s="108"/>
-      <c r="K88" s="109"/>
+      <c r="B88" s="109"/>
+      <c r="C88" s="109"/>
+      <c r="D88" s="109"/>
+      <c r="E88" s="109"/>
+      <c r="F88" s="109"/>
+      <c r="G88" s="109"/>
+      <c r="H88" s="109"/>
+      <c r="I88" s="109"/>
+      <c r="J88" s="109"/>
+      <c r="K88" s="110"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -4326,7 +4329,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="35">
+      <c r="A98" s="105">
         <v>9</v>
       </c>
       <c r="B98" s="13" t="s">
@@ -4355,45 +4358,45 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="110"/>
-      <c r="B99" s="110"/>
-      <c r="C99" s="110"/>
-      <c r="D99" s="110"/>
-      <c r="E99" s="110"/>
-      <c r="F99" s="110"/>
-      <c r="G99" s="110"/>
-      <c r="H99" s="110"/>
-      <c r="I99" s="110"/>
-      <c r="J99" s="110"/>
-      <c r="K99" s="110"/>
+      <c r="A99" s="111"/>
+      <c r="B99" s="111"/>
+      <c r="C99" s="111"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="111"/>
+      <c r="F99" s="111"/>
+      <c r="G99" s="111"/>
+      <c r="H99" s="111"/>
+      <c r="I99" s="111"/>
+      <c r="J99" s="111"/>
+      <c r="K99" s="111"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="106"/>
-      <c r="B100" s="106"/>
-      <c r="C100" s="106"/>
-      <c r="D100" s="106"/>
-      <c r="E100" s="106"/>
-      <c r="F100" s="106"/>
-      <c r="G100" s="106"/>
-      <c r="H100" s="106"/>
-      <c r="I100" s="106"/>
-      <c r="J100" s="106"/>
-      <c r="K100" s="106"/>
+      <c r="A100" s="107"/>
+      <c r="B100" s="107"/>
+      <c r="C100" s="107"/>
+      <c r="D100" s="107"/>
+      <c r="E100" s="107"/>
+      <c r="F100" s="107"/>
+      <c r="G100" s="107"/>
+      <c r="H100" s="107"/>
+      <c r="I100" s="107"/>
+      <c r="J100" s="107"/>
+      <c r="K100" s="107"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="107" t="s">
-        <v>291</v>
-      </c>
-      <c r="B101" s="108"/>
-      <c r="C101" s="108"/>
-      <c r="D101" s="108"/>
-      <c r="E101" s="108"/>
-      <c r="F101" s="108"/>
-      <c r="G101" s="108"/>
-      <c r="H101" s="108"/>
-      <c r="I101" s="108"/>
-      <c r="J101" s="108"/>
-      <c r="K101" s="109"/>
+      <c r="A101" s="108" t="s">
+        <v>308</v>
+      </c>
+      <c r="B101" s="109"/>
+      <c r="C101" s="109"/>
+      <c r="D101" s="109"/>
+      <c r="E101" s="109"/>
+      <c r="F101" s="109"/>
+      <c r="G101" s="109"/>
+      <c r="H101" s="109"/>
+      <c r="I101" s="109"/>
+      <c r="J101" s="109"/>
+      <c r="K101" s="110"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
@@ -4468,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C104" s="7" t="s">
         <v>116</v>
@@ -4499,7 +4502,7 @@
         <v>3</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>9</v>
@@ -4528,7 +4531,7 @@
         <v>4</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>116</v>
@@ -4634,45 +4637,45 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="105"/>
-      <c r="B110" s="105"/>
-      <c r="C110" s="105"/>
-      <c r="D110" s="105"/>
-      <c r="E110" s="105"/>
-      <c r="F110" s="105"/>
-      <c r="G110" s="105"/>
-      <c r="H110" s="105"/>
-      <c r="I110" s="105"/>
-      <c r="J110" s="105"/>
-      <c r="K110" s="105"/>
+      <c r="A110" s="106"/>
+      <c r="B110" s="106"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="106"/>
+      <c r="F110" s="106"/>
+      <c r="G110" s="106"/>
+      <c r="H110" s="106"/>
+      <c r="I110" s="106"/>
+      <c r="J110" s="106"/>
+      <c r="K110" s="106"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="106"/>
-      <c r="B111" s="106"/>
-      <c r="C111" s="106"/>
-      <c r="D111" s="106"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="106"/>
-      <c r="G111" s="106"/>
-      <c r="H111" s="106"/>
-      <c r="I111" s="106"/>
-      <c r="J111" s="106"/>
-      <c r="K111" s="106"/>
+      <c r="A111" s="107"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="107"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="107"/>
+      <c r="F111" s="107"/>
+      <c r="G111" s="107"/>
+      <c r="H111" s="107"/>
+      <c r="I111" s="107"/>
+      <c r="J111" s="107"/>
+      <c r="K111" s="107"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="107" t="s">
+      <c r="A112" s="108" t="s">
         <v>43</v>
       </c>
-      <c r="B112" s="108"/>
-      <c r="C112" s="108"/>
-      <c r="D112" s="108"/>
-      <c r="E112" s="108"/>
-      <c r="F112" s="108"/>
-      <c r="G112" s="108"/>
-      <c r="H112" s="108"/>
-      <c r="I112" s="108"/>
-      <c r="J112" s="108"/>
-      <c r="K112" s="109"/>
+      <c r="B112" s="109"/>
+      <c r="C112" s="109"/>
+      <c r="D112" s="109"/>
+      <c r="E112" s="109"/>
+      <c r="F112" s="109"/>
+      <c r="G112" s="109"/>
+      <c r="H112" s="109"/>
+      <c r="I112" s="109"/>
+      <c r="J112" s="109"/>
+      <c r="K112" s="110"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -5000,45 +5003,45 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="105"/>
-      <c r="B124" s="105"/>
-      <c r="C124" s="105"/>
-      <c r="D124" s="105"/>
-      <c r="E124" s="105"/>
-      <c r="F124" s="105"/>
-      <c r="G124" s="105"/>
-      <c r="H124" s="105"/>
-      <c r="I124" s="105"/>
-      <c r="J124" s="105"/>
-      <c r="K124" s="105"/>
+      <c r="A124" s="106"/>
+      <c r="B124" s="106"/>
+      <c r="C124" s="106"/>
+      <c r="D124" s="106"/>
+      <c r="E124" s="106"/>
+      <c r="F124" s="106"/>
+      <c r="G124" s="106"/>
+      <c r="H124" s="106"/>
+      <c r="I124" s="106"/>
+      <c r="J124" s="106"/>
+      <c r="K124" s="106"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="106"/>
-      <c r="B125" s="106"/>
-      <c r="C125" s="106"/>
-      <c r="D125" s="106"/>
-      <c r="E125" s="106"/>
-      <c r="F125" s="106"/>
-      <c r="G125" s="106"/>
-      <c r="H125" s="106"/>
-      <c r="I125" s="106"/>
-      <c r="J125" s="106"/>
-      <c r="K125" s="106"/>
+      <c r="A125" s="107"/>
+      <c r="B125" s="107"/>
+      <c r="C125" s="107"/>
+      <c r="D125" s="107"/>
+      <c r="E125" s="107"/>
+      <c r="F125" s="107"/>
+      <c r="G125" s="107"/>
+      <c r="H125" s="107"/>
+      <c r="I125" s="107"/>
+      <c r="J125" s="107"/>
+      <c r="K125" s="107"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="107" t="s">
+      <c r="A126" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="B126" s="108"/>
-      <c r="C126" s="108"/>
-      <c r="D126" s="108"/>
-      <c r="E126" s="108"/>
-      <c r="F126" s="108"/>
-      <c r="G126" s="108"/>
-      <c r="H126" s="108"/>
-      <c r="I126" s="108"/>
-      <c r="J126" s="108"/>
-      <c r="K126" s="109"/>
+      <c r="B126" s="109"/>
+      <c r="C126" s="109"/>
+      <c r="D126" s="109"/>
+      <c r="E126" s="109"/>
+      <c r="F126" s="109"/>
+      <c r="G126" s="109"/>
+      <c r="H126" s="109"/>
+      <c r="I126" s="109"/>
+      <c r="J126" s="109"/>
+      <c r="K126" s="110"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
@@ -5385,45 +5388,45 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="105"/>
-      <c r="B139" s="105"/>
-      <c r="C139" s="105"/>
-      <c r="D139" s="105"/>
-      <c r="E139" s="105"/>
-      <c r="F139" s="105"/>
-      <c r="G139" s="105"/>
-      <c r="H139" s="105"/>
-      <c r="I139" s="105"/>
-      <c r="J139" s="105"/>
-      <c r="K139" s="105"/>
+      <c r="A139" s="106"/>
+      <c r="B139" s="106"/>
+      <c r="C139" s="106"/>
+      <c r="D139" s="106"/>
+      <c r="E139" s="106"/>
+      <c r="F139" s="106"/>
+      <c r="G139" s="106"/>
+      <c r="H139" s="106"/>
+      <c r="I139" s="106"/>
+      <c r="J139" s="106"/>
+      <c r="K139" s="106"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="106"/>
-      <c r="B140" s="106"/>
-      <c r="C140" s="106"/>
-      <c r="D140" s="106"/>
-      <c r="E140" s="106"/>
-      <c r="F140" s="106"/>
-      <c r="G140" s="106"/>
-      <c r="H140" s="106"/>
-      <c r="I140" s="106"/>
-      <c r="J140" s="106"/>
-      <c r="K140" s="106"/>
+      <c r="A140" s="107"/>
+      <c r="B140" s="107"/>
+      <c r="C140" s="107"/>
+      <c r="D140" s="107"/>
+      <c r="E140" s="107"/>
+      <c r="F140" s="107"/>
+      <c r="G140" s="107"/>
+      <c r="H140" s="107"/>
+      <c r="I140" s="107"/>
+      <c r="J140" s="107"/>
+      <c r="K140" s="107"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="107" t="s">
+      <c r="A141" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="B141" s="108"/>
-      <c r="C141" s="108"/>
-      <c r="D141" s="108"/>
-      <c r="E141" s="108"/>
-      <c r="F141" s="108"/>
-      <c r="G141" s="108"/>
-      <c r="H141" s="108"/>
-      <c r="I141" s="108"/>
-      <c r="J141" s="108"/>
-      <c r="K141" s="109"/>
+      <c r="B141" s="109"/>
+      <c r="C141" s="109"/>
+      <c r="D141" s="109"/>
+      <c r="E141" s="109"/>
+      <c r="F141" s="109"/>
+      <c r="G141" s="109"/>
+      <c r="H141" s="109"/>
+      <c r="I141" s="109"/>
+      <c r="J141" s="109"/>
+      <c r="K141" s="110"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
@@ -5836,45 +5839,45 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="105"/>
-      <c r="B156" s="105"/>
-      <c r="C156" s="105"/>
-      <c r="D156" s="105"/>
-      <c r="E156" s="105"/>
-      <c r="F156" s="105"/>
-      <c r="G156" s="105"/>
-      <c r="H156" s="105"/>
-      <c r="I156" s="105"/>
-      <c r="J156" s="105"/>
-      <c r="K156" s="105"/>
+      <c r="A156" s="106"/>
+      <c r="B156" s="106"/>
+      <c r="C156" s="106"/>
+      <c r="D156" s="106"/>
+      <c r="E156" s="106"/>
+      <c r="F156" s="106"/>
+      <c r="G156" s="106"/>
+      <c r="H156" s="106"/>
+      <c r="I156" s="106"/>
+      <c r="J156" s="106"/>
+      <c r="K156" s="106"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="106"/>
-      <c r="B157" s="106"/>
-      <c r="C157" s="106"/>
-      <c r="D157" s="106"/>
-      <c r="E157" s="106"/>
-      <c r="F157" s="106"/>
-      <c r="G157" s="106"/>
-      <c r="H157" s="106"/>
-      <c r="I157" s="106"/>
-      <c r="J157" s="106"/>
-      <c r="K157" s="106"/>
+      <c r="A157" s="107"/>
+      <c r="B157" s="107"/>
+      <c r="C157" s="107"/>
+      <c r="D157" s="107"/>
+      <c r="E157" s="107"/>
+      <c r="F157" s="107"/>
+      <c r="G157" s="107"/>
+      <c r="H157" s="107"/>
+      <c r="I157" s="107"/>
+      <c r="J157" s="107"/>
+      <c r="K157" s="107"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="107" t="s">
+      <c r="A158" s="108" t="s">
         <v>126</v>
       </c>
-      <c r="B158" s="108"/>
-      <c r="C158" s="108"/>
-      <c r="D158" s="108"/>
-      <c r="E158" s="108"/>
-      <c r="F158" s="108"/>
-      <c r="G158" s="108"/>
-      <c r="H158" s="108"/>
-      <c r="I158" s="108"/>
-      <c r="J158" s="108"/>
-      <c r="K158" s="109"/>
+      <c r="B158" s="109"/>
+      <c r="C158" s="109"/>
+      <c r="D158" s="109"/>
+      <c r="E158" s="109"/>
+      <c r="F158" s="109"/>
+      <c r="G158" s="109"/>
+      <c r="H158" s="109"/>
+      <c r="I158" s="109"/>
+      <c r="J158" s="109"/>
+      <c r="K158" s="110"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -6267,45 +6270,45 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="105"/>
-      <c r="B173" s="105"/>
-      <c r="C173" s="105"/>
-      <c r="D173" s="105"/>
-      <c r="E173" s="105"/>
-      <c r="F173" s="105"/>
-      <c r="G173" s="105"/>
-      <c r="H173" s="105"/>
-      <c r="I173" s="105"/>
-      <c r="J173" s="105"/>
-      <c r="K173" s="105"/>
+      <c r="A173" s="106"/>
+      <c r="B173" s="106"/>
+      <c r="C173" s="106"/>
+      <c r="D173" s="106"/>
+      <c r="E173" s="106"/>
+      <c r="F173" s="106"/>
+      <c r="G173" s="106"/>
+      <c r="H173" s="106"/>
+      <c r="I173" s="106"/>
+      <c r="J173" s="106"/>
+      <c r="K173" s="106"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="106"/>
-      <c r="B174" s="106"/>
-      <c r="C174" s="106"/>
-      <c r="D174" s="106"/>
-      <c r="E174" s="106"/>
-      <c r="F174" s="106"/>
-      <c r="G174" s="106"/>
-      <c r="H174" s="106"/>
-      <c r="I174" s="106"/>
-      <c r="J174" s="106"/>
-      <c r="K174" s="106"/>
+      <c r="A174" s="107"/>
+      <c r="B174" s="107"/>
+      <c r="C174" s="107"/>
+      <c r="D174" s="107"/>
+      <c r="E174" s="107"/>
+      <c r="F174" s="107"/>
+      <c r="G174" s="107"/>
+      <c r="H174" s="107"/>
+      <c r="I174" s="107"/>
+      <c r="J174" s="107"/>
+      <c r="K174" s="107"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="107" t="s">
+      <c r="A175" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="B175" s="108"/>
-      <c r="C175" s="108"/>
-      <c r="D175" s="108"/>
-      <c r="E175" s="108"/>
-      <c r="F175" s="108"/>
-      <c r="G175" s="108"/>
-      <c r="H175" s="108"/>
-      <c r="I175" s="108"/>
-      <c r="J175" s="108"/>
-      <c r="K175" s="109"/>
+      <c r="B175" s="109"/>
+      <c r="C175" s="109"/>
+      <c r="D175" s="109"/>
+      <c r="E175" s="109"/>
+      <c r="F175" s="109"/>
+      <c r="G175" s="109"/>
+      <c r="H175" s="109"/>
+      <c r="I175" s="109"/>
+      <c r="J175" s="109"/>
+      <c r="K175" s="110"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
@@ -6519,45 +6522,45 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="105"/>
-      <c r="B183" s="105"/>
-      <c r="C183" s="105"/>
-      <c r="D183" s="105"/>
-      <c r="E183" s="105"/>
-      <c r="F183" s="105"/>
-      <c r="G183" s="105"/>
-      <c r="H183" s="105"/>
-      <c r="I183" s="105"/>
-      <c r="J183" s="105"/>
-      <c r="K183" s="105"/>
+      <c r="A183" s="106"/>
+      <c r="B183" s="106"/>
+      <c r="C183" s="106"/>
+      <c r="D183" s="106"/>
+      <c r="E183" s="106"/>
+      <c r="F183" s="106"/>
+      <c r="G183" s="106"/>
+      <c r="H183" s="106"/>
+      <c r="I183" s="106"/>
+      <c r="J183" s="106"/>
+      <c r="K183" s="106"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="106"/>
-      <c r="B184" s="106"/>
-      <c r="C184" s="106"/>
-      <c r="D184" s="106"/>
-      <c r="E184" s="106"/>
-      <c r="F184" s="106"/>
-      <c r="G184" s="106"/>
-      <c r="H184" s="106"/>
-      <c r="I184" s="106"/>
-      <c r="J184" s="106"/>
-      <c r="K184" s="106"/>
+      <c r="A184" s="107"/>
+      <c r="B184" s="107"/>
+      <c r="C184" s="107"/>
+      <c r="D184" s="107"/>
+      <c r="E184" s="107"/>
+      <c r="F184" s="107"/>
+      <c r="G184" s="107"/>
+      <c r="H184" s="107"/>
+      <c r="I184" s="107"/>
+      <c r="J184" s="107"/>
+      <c r="K184" s="107"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="107" t="s">
+      <c r="A185" s="108" t="s">
         <v>69</v>
       </c>
-      <c r="B185" s="108"/>
-      <c r="C185" s="108"/>
-      <c r="D185" s="108"/>
-      <c r="E185" s="108"/>
-      <c r="F185" s="108"/>
-      <c r="G185" s="108"/>
-      <c r="H185" s="108"/>
-      <c r="I185" s="108"/>
-      <c r="J185" s="108"/>
-      <c r="K185" s="109"/>
+      <c r="B185" s="109"/>
+      <c r="C185" s="109"/>
+      <c r="D185" s="109"/>
+      <c r="E185" s="109"/>
+      <c r="F185" s="109"/>
+      <c r="G185" s="109"/>
+      <c r="H185" s="109"/>
+      <c r="I185" s="109"/>
+      <c r="J185" s="109"/>
+      <c r="K185" s="110"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
@@ -6840,45 +6843,45 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="105"/>
-      <c r="B196" s="105"/>
-      <c r="C196" s="105"/>
-      <c r="D196" s="105"/>
-      <c r="E196" s="105"/>
-      <c r="F196" s="105"/>
-      <c r="G196" s="105"/>
-      <c r="H196" s="105"/>
-      <c r="I196" s="105"/>
-      <c r="J196" s="105"/>
-      <c r="K196" s="105"/>
+      <c r="A196" s="106"/>
+      <c r="B196" s="106"/>
+      <c r="C196" s="106"/>
+      <c r="D196" s="106"/>
+      <c r="E196" s="106"/>
+      <c r="F196" s="106"/>
+      <c r="G196" s="106"/>
+      <c r="H196" s="106"/>
+      <c r="I196" s="106"/>
+      <c r="J196" s="106"/>
+      <c r="K196" s="106"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="106"/>
-      <c r="B197" s="106"/>
-      <c r="C197" s="106"/>
-      <c r="D197" s="106"/>
-      <c r="E197" s="106"/>
-      <c r="F197" s="106"/>
-      <c r="G197" s="106"/>
-      <c r="H197" s="106"/>
-      <c r="I197" s="106"/>
-      <c r="J197" s="106"/>
-      <c r="K197" s="106"/>
+      <c r="A197" s="107"/>
+      <c r="B197" s="107"/>
+      <c r="C197" s="107"/>
+      <c r="D197" s="107"/>
+      <c r="E197" s="107"/>
+      <c r="F197" s="107"/>
+      <c r="G197" s="107"/>
+      <c r="H197" s="107"/>
+      <c r="I197" s="107"/>
+      <c r="J197" s="107"/>
+      <c r="K197" s="107"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="107" t="s">
+      <c r="A198" s="108" t="s">
         <v>75</v>
       </c>
-      <c r="B198" s="108"/>
-      <c r="C198" s="108"/>
-      <c r="D198" s="108"/>
-      <c r="E198" s="108"/>
-      <c r="F198" s="108"/>
-      <c r="G198" s="108"/>
-      <c r="H198" s="108"/>
-      <c r="I198" s="108"/>
-      <c r="J198" s="108"/>
-      <c r="K198" s="109"/>
+      <c r="B198" s="109"/>
+      <c r="C198" s="109"/>
+      <c r="D198" s="109"/>
+      <c r="E198" s="109"/>
+      <c r="F198" s="109"/>
+      <c r="G198" s="109"/>
+      <c r="H198" s="109"/>
+      <c r="I198" s="109"/>
+      <c r="J198" s="109"/>
+      <c r="K198" s="110"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
@@ -7146,45 +7149,45 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="105"/>
-      <c r="B208" s="105"/>
-      <c r="C208" s="105"/>
-      <c r="D208" s="105"/>
-      <c r="E208" s="105"/>
-      <c r="F208" s="105"/>
-      <c r="G208" s="105"/>
-      <c r="H208" s="105"/>
-      <c r="I208" s="105"/>
-      <c r="J208" s="105"/>
-      <c r="K208" s="105"/>
+      <c r="A208" s="106"/>
+      <c r="B208" s="106"/>
+      <c r="C208" s="106"/>
+      <c r="D208" s="106"/>
+      <c r="E208" s="106"/>
+      <c r="F208" s="106"/>
+      <c r="G208" s="106"/>
+      <c r="H208" s="106"/>
+      <c r="I208" s="106"/>
+      <c r="J208" s="106"/>
+      <c r="K208" s="106"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="106"/>
-      <c r="B209" s="106"/>
-      <c r="C209" s="106"/>
-      <c r="D209" s="106"/>
-      <c r="E209" s="106"/>
-      <c r="F209" s="106"/>
-      <c r="G209" s="106"/>
-      <c r="H209" s="106"/>
-      <c r="I209" s="106"/>
-      <c r="J209" s="106"/>
-      <c r="K209" s="106"/>
+      <c r="A209" s="107"/>
+      <c r="B209" s="107"/>
+      <c r="C209" s="107"/>
+      <c r="D209" s="107"/>
+      <c r="E209" s="107"/>
+      <c r="F209" s="107"/>
+      <c r="G209" s="107"/>
+      <c r="H209" s="107"/>
+      <c r="I209" s="107"/>
+      <c r="J209" s="107"/>
+      <c r="K209" s="107"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="107" t="s">
+      <c r="A210" s="108" t="s">
         <v>83</v>
       </c>
-      <c r="B210" s="108"/>
-      <c r="C210" s="108"/>
-      <c r="D210" s="108"/>
-      <c r="E210" s="108"/>
-      <c r="F210" s="108"/>
-      <c r="G210" s="108"/>
-      <c r="H210" s="108"/>
-      <c r="I210" s="108"/>
-      <c r="J210" s="108"/>
-      <c r="K210" s="109"/>
+      <c r="B210" s="109"/>
+      <c r="C210" s="109"/>
+      <c r="D210" s="109"/>
+      <c r="E210" s="109"/>
+      <c r="F210" s="109"/>
+      <c r="G210" s="109"/>
+      <c r="H210" s="109"/>
+      <c r="I210" s="109"/>
+      <c r="J210" s="109"/>
+      <c r="K210" s="110"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -7454,45 +7457,45 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="105"/>
-      <c r="B220" s="105"/>
-      <c r="C220" s="105"/>
-      <c r="D220" s="105"/>
-      <c r="E220" s="105"/>
-      <c r="F220" s="105"/>
-      <c r="G220" s="105"/>
-      <c r="H220" s="105"/>
-      <c r="I220" s="105"/>
-      <c r="J220" s="105"/>
-      <c r="K220" s="105"/>
+      <c r="A220" s="106"/>
+      <c r="B220" s="106"/>
+      <c r="C220" s="106"/>
+      <c r="D220" s="106"/>
+      <c r="E220" s="106"/>
+      <c r="F220" s="106"/>
+      <c r="G220" s="106"/>
+      <c r="H220" s="106"/>
+      <c r="I220" s="106"/>
+      <c r="J220" s="106"/>
+      <c r="K220" s="106"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="106"/>
-      <c r="B221" s="106"/>
-      <c r="C221" s="106"/>
-      <c r="D221" s="106"/>
-      <c r="E221" s="106"/>
-      <c r="F221" s="106"/>
-      <c r="G221" s="106"/>
-      <c r="H221" s="106"/>
-      <c r="I221" s="106"/>
-      <c r="J221" s="106"/>
-      <c r="K221" s="106"/>
+      <c r="A221" s="107"/>
+      <c r="B221" s="107"/>
+      <c r="C221" s="107"/>
+      <c r="D221" s="107"/>
+      <c r="E221" s="107"/>
+      <c r="F221" s="107"/>
+      <c r="G221" s="107"/>
+      <c r="H221" s="107"/>
+      <c r="I221" s="107"/>
+      <c r="J221" s="107"/>
+      <c r="K221" s="107"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="107" t="s">
+      <c r="A222" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="108"/>
-      <c r="C222" s="108"/>
-      <c r="D222" s="108"/>
-      <c r="E222" s="108"/>
-      <c r="F222" s="108"/>
-      <c r="G222" s="108"/>
-      <c r="H222" s="108"/>
-      <c r="I222" s="108"/>
-      <c r="J222" s="108"/>
-      <c r="K222" s="109"/>
+      <c r="B222" s="109"/>
+      <c r="C222" s="109"/>
+      <c r="D222" s="109"/>
+      <c r="E222" s="109"/>
+      <c r="F222" s="109"/>
+      <c r="G222" s="109"/>
+      <c r="H222" s="109"/>
+      <c r="I222" s="109"/>
+      <c r="J222" s="109"/>
+      <c r="K222" s="110"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
@@ -7890,45 +7893,45 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="105"/>
-      <c r="B236" s="105"/>
-      <c r="C236" s="105"/>
-      <c r="D236" s="105"/>
-      <c r="E236" s="105"/>
-      <c r="F236" s="105"/>
-      <c r="G236" s="105"/>
-      <c r="H236" s="105"/>
-      <c r="I236" s="105"/>
-      <c r="J236" s="105"/>
-      <c r="K236" s="105"/>
+      <c r="A236" s="106"/>
+      <c r="B236" s="106"/>
+      <c r="C236" s="106"/>
+      <c r="D236" s="106"/>
+      <c r="E236" s="106"/>
+      <c r="F236" s="106"/>
+      <c r="G236" s="106"/>
+      <c r="H236" s="106"/>
+      <c r="I236" s="106"/>
+      <c r="J236" s="106"/>
+      <c r="K236" s="106"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="106"/>
-      <c r="B237" s="106"/>
-      <c r="C237" s="106"/>
-      <c r="D237" s="106"/>
-      <c r="E237" s="106"/>
-      <c r="F237" s="106"/>
-      <c r="G237" s="106"/>
-      <c r="H237" s="106"/>
-      <c r="I237" s="106"/>
-      <c r="J237" s="106"/>
-      <c r="K237" s="106"/>
+      <c r="A237" s="107"/>
+      <c r="B237" s="107"/>
+      <c r="C237" s="107"/>
+      <c r="D237" s="107"/>
+      <c r="E237" s="107"/>
+      <c r="F237" s="107"/>
+      <c r="G237" s="107"/>
+      <c r="H237" s="107"/>
+      <c r="I237" s="107"/>
+      <c r="J237" s="107"/>
+      <c r="K237" s="107"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="107" t="s">
+      <c r="A238" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="B238" s="108"/>
-      <c r="C238" s="108"/>
-      <c r="D238" s="108"/>
-      <c r="E238" s="108"/>
-      <c r="F238" s="108"/>
-      <c r="G238" s="108"/>
-      <c r="H238" s="108"/>
-      <c r="I238" s="108"/>
-      <c r="J238" s="108"/>
-      <c r="K238" s="109"/>
+      <c r="B238" s="109"/>
+      <c r="C238" s="109"/>
+      <c r="D238" s="109"/>
+      <c r="E238" s="109"/>
+      <c r="F238" s="109"/>
+      <c r="G238" s="109"/>
+      <c r="H238" s="109"/>
+      <c r="I238" s="109"/>
+      <c r="J238" s="109"/>
+      <c r="K238" s="110"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
@@ -8129,45 +8132,45 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="105"/>
-      <c r="B246" s="105"/>
-      <c r="C246" s="105"/>
-      <c r="D246" s="105"/>
-      <c r="E246" s="105"/>
-      <c r="F246" s="105"/>
-      <c r="G246" s="105"/>
-      <c r="H246" s="105"/>
-      <c r="I246" s="105"/>
-      <c r="J246" s="105"/>
-      <c r="K246" s="105"/>
+      <c r="A246" s="106"/>
+      <c r="B246" s="106"/>
+      <c r="C246" s="106"/>
+      <c r="D246" s="106"/>
+      <c r="E246" s="106"/>
+      <c r="F246" s="106"/>
+      <c r="G246" s="106"/>
+      <c r="H246" s="106"/>
+      <c r="I246" s="106"/>
+      <c r="J246" s="106"/>
+      <c r="K246" s="106"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="106"/>
-      <c r="B247" s="106"/>
-      <c r="C247" s="106"/>
-      <c r="D247" s="106"/>
-      <c r="E247" s="106"/>
-      <c r="F247" s="106"/>
-      <c r="G247" s="106"/>
-      <c r="H247" s="106"/>
-      <c r="I247" s="106"/>
-      <c r="J247" s="106"/>
-      <c r="K247" s="106"/>
+      <c r="A247" s="107"/>
+      <c r="B247" s="107"/>
+      <c r="C247" s="107"/>
+      <c r="D247" s="107"/>
+      <c r="E247" s="107"/>
+      <c r="F247" s="107"/>
+      <c r="G247" s="107"/>
+      <c r="H247" s="107"/>
+      <c r="I247" s="107"/>
+      <c r="J247" s="107"/>
+      <c r="K247" s="107"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="107" t="s">
+      <c r="A248" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="B248" s="108"/>
-      <c r="C248" s="108"/>
-      <c r="D248" s="108"/>
-      <c r="E248" s="108"/>
-      <c r="F248" s="108"/>
-      <c r="G248" s="108"/>
-      <c r="H248" s="108"/>
-      <c r="I248" s="108"/>
-      <c r="J248" s="108"/>
-      <c r="K248" s="109"/>
+      <c r="B248" s="109"/>
+      <c r="C248" s="109"/>
+      <c r="D248" s="109"/>
+      <c r="E248" s="109"/>
+      <c r="F248" s="109"/>
+      <c r="G248" s="109"/>
+      <c r="H248" s="109"/>
+      <c r="I248" s="109"/>
+      <c r="J248" s="109"/>
+      <c r="K248" s="110"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
@@ -8414,45 +8417,45 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="105"/>
-      <c r="B257" s="105"/>
-      <c r="C257" s="105"/>
-      <c r="D257" s="105"/>
-      <c r="E257" s="105"/>
-      <c r="F257" s="105"/>
-      <c r="G257" s="105"/>
-      <c r="H257" s="105"/>
-      <c r="I257" s="105"/>
-      <c r="J257" s="105"/>
-      <c r="K257" s="105"/>
+      <c r="A257" s="106"/>
+      <c r="B257" s="106"/>
+      <c r="C257" s="106"/>
+      <c r="D257" s="106"/>
+      <c r="E257" s="106"/>
+      <c r="F257" s="106"/>
+      <c r="G257" s="106"/>
+      <c r="H257" s="106"/>
+      <c r="I257" s="106"/>
+      <c r="J257" s="106"/>
+      <c r="K257" s="106"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="106"/>
-      <c r="B258" s="106"/>
-      <c r="C258" s="106"/>
-      <c r="D258" s="106"/>
-      <c r="E258" s="106"/>
-      <c r="F258" s="106"/>
-      <c r="G258" s="106"/>
-      <c r="H258" s="106"/>
-      <c r="I258" s="106"/>
-      <c r="J258" s="106"/>
-      <c r="K258" s="106"/>
+      <c r="A258" s="107"/>
+      <c r="B258" s="107"/>
+      <c r="C258" s="107"/>
+      <c r="D258" s="107"/>
+      <c r="E258" s="107"/>
+      <c r="F258" s="107"/>
+      <c r="G258" s="107"/>
+      <c r="H258" s="107"/>
+      <c r="I258" s="107"/>
+      <c r="J258" s="107"/>
+      <c r="K258" s="107"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="107" t="s">
+      <c r="A259" s="108" t="s">
         <v>207</v>
       </c>
-      <c r="B259" s="108"/>
-      <c r="C259" s="108"/>
-      <c r="D259" s="108"/>
-      <c r="E259" s="108"/>
-      <c r="F259" s="108"/>
-      <c r="G259" s="108"/>
-      <c r="H259" s="108"/>
-      <c r="I259" s="108"/>
-      <c r="J259" s="108"/>
-      <c r="K259" s="109"/>
+      <c r="B259" s="109"/>
+      <c r="C259" s="109"/>
+      <c r="D259" s="109"/>
+      <c r="E259" s="109"/>
+      <c r="F259" s="109"/>
+      <c r="G259" s="109"/>
+      <c r="H259" s="109"/>
+      <c r="I259" s="109"/>
+      <c r="J259" s="109"/>
+      <c r="K259" s="110"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
@@ -8695,45 +8698,45 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="105"/>
-      <c r="B268" s="105"/>
-      <c r="C268" s="105"/>
-      <c r="D268" s="105"/>
-      <c r="E268" s="105"/>
-      <c r="F268" s="105"/>
-      <c r="G268" s="105"/>
-      <c r="H268" s="105"/>
-      <c r="I268" s="105"/>
-      <c r="J268" s="105"/>
-      <c r="K268" s="105"/>
+      <c r="A268" s="106"/>
+      <c r="B268" s="106"/>
+      <c r="C268" s="106"/>
+      <c r="D268" s="106"/>
+      <c r="E268" s="106"/>
+      <c r="F268" s="106"/>
+      <c r="G268" s="106"/>
+      <c r="H268" s="106"/>
+      <c r="I268" s="106"/>
+      <c r="J268" s="106"/>
+      <c r="K268" s="106"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="106"/>
-      <c r="B269" s="106"/>
-      <c r="C269" s="106"/>
-      <c r="D269" s="106"/>
-      <c r="E269" s="106"/>
-      <c r="F269" s="106"/>
-      <c r="G269" s="106"/>
-      <c r="H269" s="106"/>
-      <c r="I269" s="106"/>
-      <c r="J269" s="106"/>
-      <c r="K269" s="106"/>
+      <c r="A269" s="107"/>
+      <c r="B269" s="107"/>
+      <c r="C269" s="107"/>
+      <c r="D269" s="107"/>
+      <c r="E269" s="107"/>
+      <c r="F269" s="107"/>
+      <c r="G269" s="107"/>
+      <c r="H269" s="107"/>
+      <c r="I269" s="107"/>
+      <c r="J269" s="107"/>
+      <c r="K269" s="107"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="107" t="s">
+      <c r="A270" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="B270" s="108"/>
-      <c r="C270" s="108"/>
-      <c r="D270" s="108"/>
-      <c r="E270" s="108"/>
-      <c r="F270" s="108"/>
-      <c r="G270" s="108"/>
-      <c r="H270" s="108"/>
-      <c r="I270" s="108"/>
-      <c r="J270" s="108"/>
-      <c r="K270" s="109"/>
+      <c r="B270" s="109"/>
+      <c r="C270" s="109"/>
+      <c r="D270" s="109"/>
+      <c r="E270" s="109"/>
+      <c r="F270" s="109"/>
+      <c r="G270" s="109"/>
+      <c r="H270" s="109"/>
+      <c r="I270" s="109"/>
+      <c r="J270" s="109"/>
+      <c r="K270" s="110"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
@@ -8916,45 +8919,45 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="105"/>
-      <c r="B277" s="105"/>
-      <c r="C277" s="105"/>
-      <c r="D277" s="105"/>
-      <c r="E277" s="105"/>
-      <c r="F277" s="105"/>
-      <c r="G277" s="105"/>
-      <c r="H277" s="105"/>
-      <c r="I277" s="105"/>
-      <c r="J277" s="105"/>
-      <c r="K277" s="105"/>
+      <c r="A277" s="106"/>
+      <c r="B277" s="106"/>
+      <c r="C277" s="106"/>
+      <c r="D277" s="106"/>
+      <c r="E277" s="106"/>
+      <c r="F277" s="106"/>
+      <c r="G277" s="106"/>
+      <c r="H277" s="106"/>
+      <c r="I277" s="106"/>
+      <c r="J277" s="106"/>
+      <c r="K277" s="106"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="106"/>
-      <c r="B278" s="106"/>
-      <c r="C278" s="106"/>
-      <c r="D278" s="106"/>
-      <c r="E278" s="106"/>
-      <c r="F278" s="106"/>
-      <c r="G278" s="106"/>
-      <c r="H278" s="106"/>
-      <c r="I278" s="106"/>
-      <c r="J278" s="106"/>
-      <c r="K278" s="106"/>
+      <c r="A278" s="107"/>
+      <c r="B278" s="107"/>
+      <c r="C278" s="107"/>
+      <c r="D278" s="107"/>
+      <c r="E278" s="107"/>
+      <c r="F278" s="107"/>
+      <c r="G278" s="107"/>
+      <c r="H278" s="107"/>
+      <c r="I278" s="107"/>
+      <c r="J278" s="107"/>
+      <c r="K278" s="107"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="107" t="s">
+      <c r="A279" s="108" t="s">
         <v>240</v>
       </c>
-      <c r="B279" s="108"/>
-      <c r="C279" s="108"/>
-      <c r="D279" s="108"/>
-      <c r="E279" s="108"/>
-      <c r="F279" s="108"/>
-      <c r="G279" s="108"/>
-      <c r="H279" s="108"/>
-      <c r="I279" s="108"/>
-      <c r="J279" s="108"/>
-      <c r="K279" s="109"/>
+      <c r="B279" s="109"/>
+      <c r="C279" s="109"/>
+      <c r="D279" s="109"/>
+      <c r="E279" s="109"/>
+      <c r="F279" s="109"/>
+      <c r="G279" s="109"/>
+      <c r="H279" s="109"/>
+      <c r="I279" s="109"/>
+      <c r="J279" s="109"/>
+      <c r="K279" s="110"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
@@ -9137,45 +9140,45 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="105"/>
-      <c r="B286" s="105"/>
-      <c r="C286" s="105"/>
-      <c r="D286" s="105"/>
-      <c r="E286" s="105"/>
-      <c r="F286" s="105"/>
-      <c r="G286" s="105"/>
-      <c r="H286" s="105"/>
-      <c r="I286" s="105"/>
-      <c r="J286" s="105"/>
-      <c r="K286" s="105"/>
+      <c r="A286" s="106"/>
+      <c r="B286" s="106"/>
+      <c r="C286" s="106"/>
+      <c r="D286" s="106"/>
+      <c r="E286" s="106"/>
+      <c r="F286" s="106"/>
+      <c r="G286" s="106"/>
+      <c r="H286" s="106"/>
+      <c r="I286" s="106"/>
+      <c r="J286" s="106"/>
+      <c r="K286" s="106"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="106"/>
-      <c r="B287" s="106"/>
-      <c r="C287" s="106"/>
-      <c r="D287" s="106"/>
-      <c r="E287" s="106"/>
-      <c r="F287" s="106"/>
-      <c r="G287" s="106"/>
-      <c r="H287" s="106"/>
-      <c r="I287" s="106"/>
-      <c r="J287" s="106"/>
-      <c r="K287" s="106"/>
+      <c r="A287" s="107"/>
+      <c r="B287" s="107"/>
+      <c r="C287" s="107"/>
+      <c r="D287" s="107"/>
+      <c r="E287" s="107"/>
+      <c r="F287" s="107"/>
+      <c r="G287" s="107"/>
+      <c r="H287" s="107"/>
+      <c r="I287" s="107"/>
+      <c r="J287" s="107"/>
+      <c r="K287" s="107"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="107" t="s">
+      <c r="A288" s="108" t="s">
         <v>242</v>
       </c>
-      <c r="B288" s="108"/>
-      <c r="C288" s="108"/>
-      <c r="D288" s="108"/>
-      <c r="E288" s="108"/>
-      <c r="F288" s="108"/>
-      <c r="G288" s="108"/>
-      <c r="H288" s="108"/>
-      <c r="I288" s="108"/>
-      <c r="J288" s="108"/>
-      <c r="K288" s="109"/>
+      <c r="B288" s="109"/>
+      <c r="C288" s="109"/>
+      <c r="D288" s="109"/>
+      <c r="E288" s="109"/>
+      <c r="F288" s="109"/>
+      <c r="G288" s="109"/>
+      <c r="H288" s="109"/>
+      <c r="I288" s="109"/>
+      <c r="J288" s="109"/>
+      <c r="K288" s="110"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
@@ -9358,45 +9361,45 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="105"/>
-      <c r="B295" s="105"/>
-      <c r="C295" s="105"/>
-      <c r="D295" s="105"/>
-      <c r="E295" s="105"/>
-      <c r="F295" s="105"/>
-      <c r="G295" s="105"/>
-      <c r="H295" s="105"/>
-      <c r="I295" s="105"/>
-      <c r="J295" s="105"/>
-      <c r="K295" s="105"/>
+      <c r="A295" s="106"/>
+      <c r="B295" s="106"/>
+      <c r="C295" s="106"/>
+      <c r="D295" s="106"/>
+      <c r="E295" s="106"/>
+      <c r="F295" s="106"/>
+      <c r="G295" s="106"/>
+      <c r="H295" s="106"/>
+      <c r="I295" s="106"/>
+      <c r="J295" s="106"/>
+      <c r="K295" s="106"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="106"/>
-      <c r="B296" s="106"/>
-      <c r="C296" s="106"/>
-      <c r="D296" s="106"/>
-      <c r="E296" s="106"/>
-      <c r="F296" s="106"/>
-      <c r="G296" s="106"/>
-      <c r="H296" s="106"/>
-      <c r="I296" s="106"/>
-      <c r="J296" s="106"/>
-      <c r="K296" s="106"/>
+      <c r="A296" s="107"/>
+      <c r="B296" s="107"/>
+      <c r="C296" s="107"/>
+      <c r="D296" s="107"/>
+      <c r="E296" s="107"/>
+      <c r="F296" s="107"/>
+      <c r="G296" s="107"/>
+      <c r="H296" s="107"/>
+      <c r="I296" s="107"/>
+      <c r="J296" s="107"/>
+      <c r="K296" s="107"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="107" t="s">
+      <c r="A297" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="B297" s="108"/>
-      <c r="C297" s="108"/>
-      <c r="D297" s="108"/>
-      <c r="E297" s="108"/>
-      <c r="F297" s="108"/>
-      <c r="G297" s="108"/>
-      <c r="H297" s="108"/>
-      <c r="I297" s="108"/>
-      <c r="J297" s="108"/>
-      <c r="K297" s="109"/>
+      <c r="B297" s="109"/>
+      <c r="C297" s="109"/>
+      <c r="D297" s="109"/>
+      <c r="E297" s="109"/>
+      <c r="F297" s="109"/>
+      <c r="G297" s="109"/>
+      <c r="H297" s="109"/>
+      <c r="I297" s="109"/>
+      <c r="J297" s="109"/>
+      <c r="K297" s="110"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
@@ -9579,45 +9582,45 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="105"/>
-      <c r="B304" s="105"/>
-      <c r="C304" s="105"/>
-      <c r="D304" s="105"/>
-      <c r="E304" s="105"/>
-      <c r="F304" s="105"/>
-      <c r="G304" s="105"/>
-      <c r="H304" s="105"/>
-      <c r="I304" s="105"/>
-      <c r="J304" s="105"/>
-      <c r="K304" s="105"/>
+      <c r="A304" s="106"/>
+      <c r="B304" s="106"/>
+      <c r="C304" s="106"/>
+      <c r="D304" s="106"/>
+      <c r="E304" s="106"/>
+      <c r="F304" s="106"/>
+      <c r="G304" s="106"/>
+      <c r="H304" s="106"/>
+      <c r="I304" s="106"/>
+      <c r="J304" s="106"/>
+      <c r="K304" s="106"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="106"/>
-      <c r="B305" s="106"/>
-      <c r="C305" s="106"/>
-      <c r="D305" s="106"/>
-      <c r="E305" s="106"/>
-      <c r="F305" s="106"/>
-      <c r="G305" s="106"/>
-      <c r="H305" s="106"/>
-      <c r="I305" s="106"/>
-      <c r="J305" s="106"/>
-      <c r="K305" s="106"/>
+      <c r="A305" s="107"/>
+      <c r="B305" s="107"/>
+      <c r="C305" s="107"/>
+      <c r="D305" s="107"/>
+      <c r="E305" s="107"/>
+      <c r="F305" s="107"/>
+      <c r="G305" s="107"/>
+      <c r="H305" s="107"/>
+      <c r="I305" s="107"/>
+      <c r="J305" s="107"/>
+      <c r="K305" s="107"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="107" t="s">
+      <c r="A306" s="108" t="s">
         <v>211</v>
       </c>
-      <c r="B306" s="108"/>
-      <c r="C306" s="108"/>
-      <c r="D306" s="108"/>
-      <c r="E306" s="108"/>
-      <c r="F306" s="108"/>
-      <c r="G306" s="108"/>
-      <c r="H306" s="108"/>
-      <c r="I306" s="108"/>
-      <c r="J306" s="108"/>
-      <c r="K306" s="109"/>
+      <c r="B306" s="109"/>
+      <c r="C306" s="109"/>
+      <c r="D306" s="109"/>
+      <c r="E306" s="109"/>
+      <c r="F306" s="109"/>
+      <c r="G306" s="109"/>
+      <c r="H306" s="109"/>
+      <c r="I306" s="109"/>
+      <c r="J306" s="109"/>
+      <c r="K306" s="110"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
@@ -9916,45 +9919,45 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="105"/>
-      <c r="B318" s="105"/>
-      <c r="C318" s="105"/>
-      <c r="D318" s="105"/>
-      <c r="E318" s="105"/>
-      <c r="F318" s="105"/>
-      <c r="G318" s="105"/>
-      <c r="H318" s="105"/>
-      <c r="I318" s="105"/>
-      <c r="J318" s="105"/>
-      <c r="K318" s="105"/>
+      <c r="A318" s="106"/>
+      <c r="B318" s="106"/>
+      <c r="C318" s="106"/>
+      <c r="D318" s="106"/>
+      <c r="E318" s="106"/>
+      <c r="F318" s="106"/>
+      <c r="G318" s="106"/>
+      <c r="H318" s="106"/>
+      <c r="I318" s="106"/>
+      <c r="J318" s="106"/>
+      <c r="K318" s="106"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="106"/>
-      <c r="B319" s="106"/>
-      <c r="C319" s="106"/>
-      <c r="D319" s="106"/>
-      <c r="E319" s="106"/>
-      <c r="F319" s="106"/>
-      <c r="G319" s="106"/>
-      <c r="H319" s="106"/>
-      <c r="I319" s="106"/>
-      <c r="J319" s="106"/>
-      <c r="K319" s="106"/>
+      <c r="A319" s="107"/>
+      <c r="B319" s="107"/>
+      <c r="C319" s="107"/>
+      <c r="D319" s="107"/>
+      <c r="E319" s="107"/>
+      <c r="F319" s="107"/>
+      <c r="G319" s="107"/>
+      <c r="H319" s="107"/>
+      <c r="I319" s="107"/>
+      <c r="J319" s="107"/>
+      <c r="K319" s="107"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="107" t="s">
+      <c r="A320" s="108" t="s">
         <v>214</v>
       </c>
-      <c r="B320" s="108"/>
-      <c r="C320" s="108"/>
-      <c r="D320" s="108"/>
-      <c r="E320" s="108"/>
-      <c r="F320" s="108"/>
-      <c r="G320" s="108"/>
-      <c r="H320" s="108"/>
-      <c r="I320" s="108"/>
-      <c r="J320" s="108"/>
-      <c r="K320" s="109"/>
+      <c r="B320" s="109"/>
+      <c r="C320" s="109"/>
+      <c r="D320" s="109"/>
+      <c r="E320" s="109"/>
+      <c r="F320" s="109"/>
+      <c r="G320" s="109"/>
+      <c r="H320" s="109"/>
+      <c r="I320" s="109"/>
+      <c r="J320" s="109"/>
+      <c r="K320" s="110"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
@@ -10201,45 +10204,45 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="105"/>
-      <c r="B329" s="105"/>
-      <c r="C329" s="105"/>
-      <c r="D329" s="105"/>
-      <c r="E329" s="105"/>
-      <c r="F329" s="105"/>
-      <c r="G329" s="105"/>
-      <c r="H329" s="105"/>
-      <c r="I329" s="105"/>
-      <c r="J329" s="105"/>
-      <c r="K329" s="105"/>
+      <c r="A329" s="106"/>
+      <c r="B329" s="106"/>
+      <c r="C329" s="106"/>
+      <c r="D329" s="106"/>
+      <c r="E329" s="106"/>
+      <c r="F329" s="106"/>
+      <c r="G329" s="106"/>
+      <c r="H329" s="106"/>
+      <c r="I329" s="106"/>
+      <c r="J329" s="106"/>
+      <c r="K329" s="106"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="106"/>
-      <c r="B330" s="106"/>
-      <c r="C330" s="106"/>
-      <c r="D330" s="106"/>
-      <c r="E330" s="106"/>
-      <c r="F330" s="106"/>
-      <c r="G330" s="106"/>
-      <c r="H330" s="106"/>
-      <c r="I330" s="106"/>
-      <c r="J330" s="106"/>
-      <c r="K330" s="106"/>
+      <c r="A330" s="107"/>
+      <c r="B330" s="107"/>
+      <c r="C330" s="107"/>
+      <c r="D330" s="107"/>
+      <c r="E330" s="107"/>
+      <c r="F330" s="107"/>
+      <c r="G330" s="107"/>
+      <c r="H330" s="107"/>
+      <c r="I330" s="107"/>
+      <c r="J330" s="107"/>
+      <c r="K330" s="107"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="107" t="s">
+      <c r="A331" s="108" t="s">
         <v>223</v>
       </c>
-      <c r="B331" s="108"/>
-      <c r="C331" s="108"/>
-      <c r="D331" s="108"/>
-      <c r="E331" s="108"/>
-      <c r="F331" s="108"/>
-      <c r="G331" s="108"/>
-      <c r="H331" s="108"/>
-      <c r="I331" s="108"/>
-      <c r="J331" s="108"/>
-      <c r="K331" s="109"/>
+      <c r="B331" s="109"/>
+      <c r="C331" s="109"/>
+      <c r="D331" s="109"/>
+      <c r="E331" s="109"/>
+      <c r="F331" s="109"/>
+      <c r="G331" s="109"/>
+      <c r="H331" s="109"/>
+      <c r="I331" s="109"/>
+      <c r="J331" s="109"/>
+      <c r="K331" s="110"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
@@ -10482,45 +10485,45 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="105"/>
-      <c r="B340" s="105"/>
-      <c r="C340" s="105"/>
-      <c r="D340" s="105"/>
-      <c r="E340" s="105"/>
-      <c r="F340" s="105"/>
-      <c r="G340" s="105"/>
-      <c r="H340" s="105"/>
-      <c r="I340" s="105"/>
-      <c r="J340" s="105"/>
-      <c r="K340" s="105"/>
+      <c r="A340" s="106"/>
+      <c r="B340" s="106"/>
+      <c r="C340" s="106"/>
+      <c r="D340" s="106"/>
+      <c r="E340" s="106"/>
+      <c r="F340" s="106"/>
+      <c r="G340" s="106"/>
+      <c r="H340" s="106"/>
+      <c r="I340" s="106"/>
+      <c r="J340" s="106"/>
+      <c r="K340" s="106"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="106"/>
-      <c r="B341" s="106"/>
-      <c r="C341" s="106"/>
-      <c r="D341" s="106"/>
-      <c r="E341" s="106"/>
-      <c r="F341" s="106"/>
-      <c r="G341" s="106"/>
-      <c r="H341" s="106"/>
-      <c r="I341" s="106"/>
-      <c r="J341" s="106"/>
-      <c r="K341" s="106"/>
+      <c r="A341" s="107"/>
+      <c r="B341" s="107"/>
+      <c r="C341" s="107"/>
+      <c r="D341" s="107"/>
+      <c r="E341" s="107"/>
+      <c r="F341" s="107"/>
+      <c r="G341" s="107"/>
+      <c r="H341" s="107"/>
+      <c r="I341" s="107"/>
+      <c r="J341" s="107"/>
+      <c r="K341" s="107"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="107" t="s">
+      <c r="A342" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="B342" s="108"/>
-      <c r="C342" s="108"/>
-      <c r="D342" s="108"/>
-      <c r="E342" s="108"/>
-      <c r="F342" s="108"/>
-      <c r="G342" s="108"/>
-      <c r="H342" s="108"/>
-      <c r="I342" s="108"/>
-      <c r="J342" s="108"/>
-      <c r="K342" s="109"/>
+      <c r="B342" s="109"/>
+      <c r="C342" s="109"/>
+      <c r="D342" s="109"/>
+      <c r="E342" s="109"/>
+      <c r="F342" s="109"/>
+      <c r="G342" s="109"/>
+      <c r="H342" s="109"/>
+      <c r="I342" s="109"/>
+      <c r="J342" s="109"/>
+      <c r="K342" s="110"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
@@ -10755,45 +10758,45 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="105"/>
-      <c r="B351" s="105"/>
-      <c r="C351" s="105"/>
-      <c r="D351" s="105"/>
-      <c r="E351" s="105"/>
-      <c r="F351" s="105"/>
-      <c r="G351" s="105"/>
-      <c r="H351" s="105"/>
-      <c r="I351" s="105"/>
-      <c r="J351" s="105"/>
-      <c r="K351" s="105"/>
+      <c r="A351" s="106"/>
+      <c r="B351" s="106"/>
+      <c r="C351" s="106"/>
+      <c r="D351" s="106"/>
+      <c r="E351" s="106"/>
+      <c r="F351" s="106"/>
+      <c r="G351" s="106"/>
+      <c r="H351" s="106"/>
+      <c r="I351" s="106"/>
+      <c r="J351" s="106"/>
+      <c r="K351" s="106"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="106"/>
-      <c r="B352" s="106"/>
-      <c r="C352" s="106"/>
-      <c r="D352" s="106"/>
-      <c r="E352" s="106"/>
-      <c r="F352" s="106"/>
-      <c r="G352" s="106"/>
-      <c r="H352" s="106"/>
-      <c r="I352" s="106"/>
-      <c r="J352" s="106"/>
-      <c r="K352" s="106"/>
+      <c r="A352" s="107"/>
+      <c r="B352" s="107"/>
+      <c r="C352" s="107"/>
+      <c r="D352" s="107"/>
+      <c r="E352" s="107"/>
+      <c r="F352" s="107"/>
+      <c r="G352" s="107"/>
+      <c r="H352" s="107"/>
+      <c r="I352" s="107"/>
+      <c r="J352" s="107"/>
+      <c r="K352" s="107"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="107" t="s">
+      <c r="A353" s="108" t="s">
         <v>121</v>
       </c>
-      <c r="B353" s="108"/>
-      <c r="C353" s="108"/>
-      <c r="D353" s="108"/>
-      <c r="E353" s="108"/>
-      <c r="F353" s="108"/>
-      <c r="G353" s="108"/>
-      <c r="H353" s="108"/>
-      <c r="I353" s="108"/>
-      <c r="J353" s="108"/>
-      <c r="K353" s="109"/>
+      <c r="B353" s="109"/>
+      <c r="C353" s="109"/>
+      <c r="D353" s="109"/>
+      <c r="E353" s="109"/>
+      <c r="F353" s="109"/>
+      <c r="G353" s="109"/>
+      <c r="H353" s="109"/>
+      <c r="I353" s="109"/>
+      <c r="J353" s="109"/>
+      <c r="K353" s="110"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
@@ -10976,7 +10979,7 @@
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C360" s="7" t="s">
         <v>15</v>
@@ -10999,7 +11002,7 @@
         <v>12</v>
       </c>
       <c r="K360" s="14" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
@@ -11113,45 +11116,45 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="105"/>
-      <c r="B365" s="105"/>
-      <c r="C365" s="105"/>
-      <c r="D365" s="105"/>
-      <c r="E365" s="105"/>
-      <c r="F365" s="105"/>
-      <c r="G365" s="105"/>
-      <c r="H365" s="105"/>
-      <c r="I365" s="105"/>
-      <c r="J365" s="105"/>
-      <c r="K365" s="105"/>
+      <c r="A365" s="106"/>
+      <c r="B365" s="106"/>
+      <c r="C365" s="106"/>
+      <c r="D365" s="106"/>
+      <c r="E365" s="106"/>
+      <c r="F365" s="106"/>
+      <c r="G365" s="106"/>
+      <c r="H365" s="106"/>
+      <c r="I365" s="106"/>
+      <c r="J365" s="106"/>
+      <c r="K365" s="106"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="106"/>
-      <c r="B366" s="106"/>
-      <c r="C366" s="106"/>
-      <c r="D366" s="106"/>
-      <c r="E366" s="106"/>
-      <c r="F366" s="106"/>
-      <c r="G366" s="106"/>
-      <c r="H366" s="106"/>
-      <c r="I366" s="106"/>
-      <c r="J366" s="106"/>
-      <c r="K366" s="106"/>
+      <c r="A366" s="107"/>
+      <c r="B366" s="107"/>
+      <c r="C366" s="107"/>
+      <c r="D366" s="107"/>
+      <c r="E366" s="107"/>
+      <c r="F366" s="107"/>
+      <c r="G366" s="107"/>
+      <c r="H366" s="107"/>
+      <c r="I366" s="107"/>
+      <c r="J366" s="107"/>
+      <c r="K366" s="107"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="107" t="s">
+      <c r="A367" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="B367" s="108"/>
-      <c r="C367" s="108"/>
-      <c r="D367" s="108"/>
-      <c r="E367" s="108"/>
-      <c r="F367" s="108"/>
-      <c r="G367" s="108"/>
-      <c r="H367" s="108"/>
-      <c r="I367" s="108"/>
-      <c r="J367" s="108"/>
-      <c r="K367" s="109"/>
+      <c r="B367" s="109"/>
+      <c r="C367" s="109"/>
+      <c r="D367" s="109"/>
+      <c r="E367" s="109"/>
+      <c r="F367" s="109"/>
+      <c r="G367" s="109"/>
+      <c r="H367" s="109"/>
+      <c r="I367" s="109"/>
+      <c r="J367" s="109"/>
+      <c r="K367" s="110"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="20" t="s">
@@ -11384,45 +11387,45 @@
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="110"/>
-      <c r="B376" s="110"/>
-      <c r="C376" s="110"/>
-      <c r="D376" s="110"/>
-      <c r="E376" s="110"/>
-      <c r="F376" s="110"/>
-      <c r="G376" s="110"/>
-      <c r="H376" s="110"/>
-      <c r="I376" s="110"/>
-      <c r="J376" s="110"/>
-      <c r="K376" s="110"/>
+      <c r="A376" s="111"/>
+      <c r="B376" s="111"/>
+      <c r="C376" s="111"/>
+      <c r="D376" s="111"/>
+      <c r="E376" s="111"/>
+      <c r="F376" s="111"/>
+      <c r="G376" s="111"/>
+      <c r="H376" s="111"/>
+      <c r="I376" s="111"/>
+      <c r="J376" s="111"/>
+      <c r="K376" s="111"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="106"/>
-      <c r="B377" s="106"/>
-      <c r="C377" s="106"/>
-      <c r="D377" s="106"/>
-      <c r="E377" s="106"/>
-      <c r="F377" s="106"/>
-      <c r="G377" s="106"/>
-      <c r="H377" s="106"/>
-      <c r="I377" s="106"/>
-      <c r="J377" s="106"/>
-      <c r="K377" s="106"/>
+      <c r="A377" s="107"/>
+      <c r="B377" s="107"/>
+      <c r="C377" s="107"/>
+      <c r="D377" s="107"/>
+      <c r="E377" s="107"/>
+      <c r="F377" s="107"/>
+      <c r="G377" s="107"/>
+      <c r="H377" s="107"/>
+      <c r="I377" s="107"/>
+      <c r="J377" s="107"/>
+      <c r="K377" s="107"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="107" t="s">
+      <c r="A378" s="108" t="s">
         <v>182</v>
       </c>
-      <c r="B378" s="108"/>
-      <c r="C378" s="108"/>
-      <c r="D378" s="108"/>
-      <c r="E378" s="108"/>
-      <c r="F378" s="108"/>
-      <c r="G378" s="108"/>
-      <c r="H378" s="108"/>
-      <c r="I378" s="108"/>
-      <c r="J378" s="108"/>
-      <c r="K378" s="109"/>
+      <c r="B378" s="109"/>
+      <c r="C378" s="109"/>
+      <c r="D378" s="109"/>
+      <c r="E378" s="109"/>
+      <c r="F378" s="109"/>
+      <c r="G378" s="109"/>
+      <c r="H378" s="109"/>
+      <c r="I378" s="109"/>
+      <c r="J378" s="109"/>
+      <c r="K378" s="110"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="20" t="s">
@@ -11694,45 +11697,45 @@
       </c>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="105"/>
-      <c r="B388" s="105"/>
-      <c r="C388" s="105"/>
-      <c r="D388" s="105"/>
-      <c r="E388" s="105"/>
-      <c r="F388" s="105"/>
-      <c r="G388" s="105"/>
-      <c r="H388" s="105"/>
-      <c r="I388" s="105"/>
-      <c r="J388" s="105"/>
-      <c r="K388" s="105"/>
+      <c r="A388" s="106"/>
+      <c r="B388" s="106"/>
+      <c r="C388" s="106"/>
+      <c r="D388" s="106"/>
+      <c r="E388" s="106"/>
+      <c r="F388" s="106"/>
+      <c r="G388" s="106"/>
+      <c r="H388" s="106"/>
+      <c r="I388" s="106"/>
+      <c r="J388" s="106"/>
+      <c r="K388" s="106"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="106"/>
-      <c r="B389" s="106"/>
-      <c r="C389" s="106"/>
-      <c r="D389" s="106"/>
-      <c r="E389" s="106"/>
-      <c r="F389" s="106"/>
-      <c r="G389" s="106"/>
-      <c r="H389" s="106"/>
-      <c r="I389" s="106"/>
-      <c r="J389" s="106"/>
-      <c r="K389" s="106"/>
+      <c r="A389" s="107"/>
+      <c r="B389" s="107"/>
+      <c r="C389" s="107"/>
+      <c r="D389" s="107"/>
+      <c r="E389" s="107"/>
+      <c r="F389" s="107"/>
+      <c r="G389" s="107"/>
+      <c r="H389" s="107"/>
+      <c r="I389" s="107"/>
+      <c r="J389" s="107"/>
+      <c r="K389" s="107"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="107" t="s">
+      <c r="A390" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="B390" s="108"/>
-      <c r="C390" s="108"/>
-      <c r="D390" s="108"/>
-      <c r="E390" s="108"/>
-      <c r="F390" s="108"/>
-      <c r="G390" s="108"/>
-      <c r="H390" s="108"/>
-      <c r="I390" s="108"/>
-      <c r="J390" s="108"/>
-      <c r="K390" s="109"/>
+      <c r="B390" s="109"/>
+      <c r="C390" s="109"/>
+      <c r="D390" s="109"/>
+      <c r="E390" s="109"/>
+      <c r="F390" s="109"/>
+      <c r="G390" s="109"/>
+      <c r="H390" s="109"/>
+      <c r="I390" s="109"/>
+      <c r="J390" s="109"/>
+      <c r="K390" s="110"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="20" t="s">
@@ -11942,45 +11945,45 @@
       </c>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="105"/>
-      <c r="B398" s="105"/>
-      <c r="C398" s="105"/>
-      <c r="D398" s="105"/>
-      <c r="E398" s="105"/>
-      <c r="F398" s="105"/>
-      <c r="G398" s="105"/>
-      <c r="H398" s="105"/>
-      <c r="I398" s="105"/>
-      <c r="J398" s="105"/>
-      <c r="K398" s="105"/>
+      <c r="A398" s="106"/>
+      <c r="B398" s="106"/>
+      <c r="C398" s="106"/>
+      <c r="D398" s="106"/>
+      <c r="E398" s="106"/>
+      <c r="F398" s="106"/>
+      <c r="G398" s="106"/>
+      <c r="H398" s="106"/>
+      <c r="I398" s="106"/>
+      <c r="J398" s="106"/>
+      <c r="K398" s="106"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="106"/>
-      <c r="B399" s="106"/>
-      <c r="C399" s="106"/>
-      <c r="D399" s="106"/>
-      <c r="E399" s="106"/>
-      <c r="F399" s="106"/>
-      <c r="G399" s="106"/>
-      <c r="H399" s="106"/>
-      <c r="I399" s="106"/>
-      <c r="J399" s="106"/>
-      <c r="K399" s="106"/>
+      <c r="A399" s="107"/>
+      <c r="B399" s="107"/>
+      <c r="C399" s="107"/>
+      <c r="D399" s="107"/>
+      <c r="E399" s="107"/>
+      <c r="F399" s="107"/>
+      <c r="G399" s="107"/>
+      <c r="H399" s="107"/>
+      <c r="I399" s="107"/>
+      <c r="J399" s="107"/>
+      <c r="K399" s="107"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="107" t="s">
+      <c r="A400" s="108" t="s">
         <v>262</v>
       </c>
-      <c r="B400" s="108"/>
-      <c r="C400" s="108"/>
-      <c r="D400" s="108"/>
-      <c r="E400" s="108"/>
-      <c r="F400" s="108"/>
-      <c r="G400" s="108"/>
-      <c r="H400" s="108"/>
-      <c r="I400" s="108"/>
-      <c r="J400" s="108"/>
-      <c r="K400" s="109"/>
+      <c r="B400" s="109"/>
+      <c r="C400" s="109"/>
+      <c r="D400" s="109"/>
+      <c r="E400" s="109"/>
+      <c r="F400" s="109"/>
+      <c r="G400" s="109"/>
+      <c r="H400" s="109"/>
+      <c r="I400" s="109"/>
+      <c r="J400" s="109"/>
+      <c r="K400" s="110"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="20" t="s">
@@ -12190,45 +12193,45 @@
       </c>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="105"/>
-      <c r="B408" s="105"/>
-      <c r="C408" s="105"/>
-      <c r="D408" s="105"/>
-      <c r="E408" s="105"/>
-      <c r="F408" s="105"/>
-      <c r="G408" s="105"/>
-      <c r="H408" s="105"/>
-      <c r="I408" s="105"/>
-      <c r="J408" s="105"/>
-      <c r="K408" s="105"/>
+      <c r="A408" s="106"/>
+      <c r="B408" s="106"/>
+      <c r="C408" s="106"/>
+      <c r="D408" s="106"/>
+      <c r="E408" s="106"/>
+      <c r="F408" s="106"/>
+      <c r="G408" s="106"/>
+      <c r="H408" s="106"/>
+      <c r="I408" s="106"/>
+      <c r="J408" s="106"/>
+      <c r="K408" s="106"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="106"/>
-      <c r="B409" s="106"/>
-      <c r="C409" s="106"/>
-      <c r="D409" s="106"/>
-      <c r="E409" s="106"/>
-      <c r="F409" s="106"/>
-      <c r="G409" s="106"/>
-      <c r="H409" s="106"/>
-      <c r="I409" s="106"/>
-      <c r="J409" s="106"/>
-      <c r="K409" s="106"/>
+      <c r="A409" s="107"/>
+      <c r="B409" s="107"/>
+      <c r="C409" s="107"/>
+      <c r="D409" s="107"/>
+      <c r="E409" s="107"/>
+      <c r="F409" s="107"/>
+      <c r="G409" s="107"/>
+      <c r="H409" s="107"/>
+      <c r="I409" s="107"/>
+      <c r="J409" s="107"/>
+      <c r="K409" s="107"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="107" t="s">
+      <c r="A410" s="108" t="s">
         <v>265</v>
       </c>
-      <c r="B410" s="108"/>
-      <c r="C410" s="108"/>
-      <c r="D410" s="108"/>
-      <c r="E410" s="108"/>
-      <c r="F410" s="108"/>
-      <c r="G410" s="108"/>
-      <c r="H410" s="108"/>
-      <c r="I410" s="108"/>
-      <c r="J410" s="108"/>
-      <c r="K410" s="109"/>
+      <c r="B410" s="109"/>
+      <c r="C410" s="109"/>
+      <c r="D410" s="109"/>
+      <c r="E410" s="109"/>
+      <c r="F410" s="109"/>
+      <c r="G410" s="109"/>
+      <c r="H410" s="109"/>
+      <c r="I410" s="109"/>
+      <c r="J410" s="109"/>
+      <c r="K410" s="110"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="20" t="s">
@@ -12432,45 +12435,45 @@
       </c>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="105"/>
-      <c r="B418" s="105"/>
-      <c r="C418" s="105"/>
-      <c r="D418" s="105"/>
-      <c r="E418" s="105"/>
-      <c r="F418" s="105"/>
-      <c r="G418" s="105"/>
-      <c r="H418" s="105"/>
-      <c r="I418" s="105"/>
-      <c r="J418" s="105"/>
-      <c r="K418" s="105"/>
+      <c r="A418" s="106"/>
+      <c r="B418" s="106"/>
+      <c r="C418" s="106"/>
+      <c r="D418" s="106"/>
+      <c r="E418" s="106"/>
+      <c r="F418" s="106"/>
+      <c r="G418" s="106"/>
+      <c r="H418" s="106"/>
+      <c r="I418" s="106"/>
+      <c r="J418" s="106"/>
+      <c r="K418" s="106"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="106"/>
-      <c r="B419" s="106"/>
-      <c r="C419" s="106"/>
-      <c r="D419" s="106"/>
-      <c r="E419" s="106"/>
-      <c r="F419" s="106"/>
-      <c r="G419" s="106"/>
-      <c r="H419" s="106"/>
-      <c r="I419" s="106"/>
-      <c r="J419" s="106"/>
-      <c r="K419" s="106"/>
+      <c r="A419" s="107"/>
+      <c r="B419" s="107"/>
+      <c r="C419" s="107"/>
+      <c r="D419" s="107"/>
+      <c r="E419" s="107"/>
+      <c r="F419" s="107"/>
+      <c r="G419" s="107"/>
+      <c r="H419" s="107"/>
+      <c r="I419" s="107"/>
+      <c r="J419" s="107"/>
+      <c r="K419" s="107"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="107" t="s">
+      <c r="A420" s="108" t="s">
         <v>268</v>
       </c>
-      <c r="B420" s="108"/>
-      <c r="C420" s="108"/>
-      <c r="D420" s="108"/>
-      <c r="E420" s="108"/>
-      <c r="F420" s="108"/>
-      <c r="G420" s="108"/>
-      <c r="H420" s="108"/>
-      <c r="I420" s="108"/>
-      <c r="J420" s="108"/>
-      <c r="K420" s="109"/>
+      <c r="B420" s="109"/>
+      <c r="C420" s="109"/>
+      <c r="D420" s="109"/>
+      <c r="E420" s="109"/>
+      <c r="F420" s="109"/>
+      <c r="G420" s="109"/>
+      <c r="H420" s="109"/>
+      <c r="I420" s="109"/>
+      <c r="J420" s="109"/>
+      <c r="K420" s="110"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="20" t="s">
@@ -12703,45 +12706,45 @@
       </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="105"/>
-      <c r="B429" s="105"/>
-      <c r="C429" s="105"/>
-      <c r="D429" s="105"/>
-      <c r="E429" s="105"/>
-      <c r="F429" s="105"/>
-      <c r="G429" s="105"/>
-      <c r="H429" s="105"/>
-      <c r="I429" s="105"/>
-      <c r="J429" s="105"/>
-      <c r="K429" s="105"/>
+      <c r="A429" s="106"/>
+      <c r="B429" s="106"/>
+      <c r="C429" s="106"/>
+      <c r="D429" s="106"/>
+      <c r="E429" s="106"/>
+      <c r="F429" s="106"/>
+      <c r="G429" s="106"/>
+      <c r="H429" s="106"/>
+      <c r="I429" s="106"/>
+      <c r="J429" s="106"/>
+      <c r="K429" s="106"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="106"/>
-      <c r="B430" s="106"/>
-      <c r="C430" s="106"/>
-      <c r="D430" s="106"/>
-      <c r="E430" s="106"/>
-      <c r="F430" s="106"/>
-      <c r="G430" s="106"/>
-      <c r="H430" s="106"/>
-      <c r="I430" s="106"/>
-      <c r="J430" s="106"/>
-      <c r="K430" s="106"/>
+      <c r="A430" s="107"/>
+      <c r="B430" s="107"/>
+      <c r="C430" s="107"/>
+      <c r="D430" s="107"/>
+      <c r="E430" s="107"/>
+      <c r="F430" s="107"/>
+      <c r="G430" s="107"/>
+      <c r="H430" s="107"/>
+      <c r="I430" s="107"/>
+      <c r="J430" s="107"/>
+      <c r="K430" s="107"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="107" t="s">
+      <c r="A431" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="B431" s="108"/>
-      <c r="C431" s="108"/>
-      <c r="D431" s="108"/>
-      <c r="E431" s="108"/>
-      <c r="F431" s="108"/>
-      <c r="G431" s="108"/>
-      <c r="H431" s="108"/>
-      <c r="I431" s="108"/>
-      <c r="J431" s="108"/>
-      <c r="K431" s="109"/>
+      <c r="B431" s="109"/>
+      <c r="C431" s="109"/>
+      <c r="D431" s="109"/>
+      <c r="E431" s="109"/>
+      <c r="F431" s="109"/>
+      <c r="G431" s="109"/>
+      <c r="H431" s="109"/>
+      <c r="I431" s="109"/>
+      <c r="J431" s="109"/>
+      <c r="K431" s="110"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="20" t="s">
@@ -12921,45 +12924,45 @@
       </c>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="105"/>
-      <c r="B438" s="105"/>
-      <c r="C438" s="105"/>
-      <c r="D438" s="105"/>
-      <c r="E438" s="105"/>
-      <c r="F438" s="105"/>
-      <c r="G438" s="105"/>
-      <c r="H438" s="105"/>
-      <c r="I438" s="105"/>
-      <c r="J438" s="105"/>
-      <c r="K438" s="105"/>
+      <c r="A438" s="106"/>
+      <c r="B438" s="106"/>
+      <c r="C438" s="106"/>
+      <c r="D438" s="106"/>
+      <c r="E438" s="106"/>
+      <c r="F438" s="106"/>
+      <c r="G438" s="106"/>
+      <c r="H438" s="106"/>
+      <c r="I438" s="106"/>
+      <c r="J438" s="106"/>
+      <c r="K438" s="106"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="106"/>
-      <c r="B439" s="106"/>
-      <c r="C439" s="106"/>
-      <c r="D439" s="106"/>
-      <c r="E439" s="106"/>
-      <c r="F439" s="106"/>
-      <c r="G439" s="106"/>
-      <c r="H439" s="106"/>
-      <c r="I439" s="106"/>
-      <c r="J439" s="106"/>
-      <c r="K439" s="106"/>
+      <c r="A439" s="107"/>
+      <c r="B439" s="107"/>
+      <c r="C439" s="107"/>
+      <c r="D439" s="107"/>
+      <c r="E439" s="107"/>
+      <c r="F439" s="107"/>
+      <c r="G439" s="107"/>
+      <c r="H439" s="107"/>
+      <c r="I439" s="107"/>
+      <c r="J439" s="107"/>
+      <c r="K439" s="107"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="107" t="s">
+      <c r="A440" s="108" t="s">
         <v>273</v>
       </c>
-      <c r="B440" s="108"/>
-      <c r="C440" s="108"/>
-      <c r="D440" s="108"/>
-      <c r="E440" s="108"/>
-      <c r="F440" s="108"/>
-      <c r="G440" s="108"/>
-      <c r="H440" s="108"/>
-      <c r="I440" s="108"/>
-      <c r="J440" s="108"/>
-      <c r="K440" s="109"/>
+      <c r="B440" s="109"/>
+      <c r="C440" s="109"/>
+      <c r="D440" s="109"/>
+      <c r="E440" s="109"/>
+      <c r="F440" s="109"/>
+      <c r="G440" s="109"/>
+      <c r="H440" s="109"/>
+      <c r="I440" s="109"/>
+      <c r="J440" s="109"/>
+      <c r="K440" s="110"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="20" t="s">
@@ -13250,45 +13253,45 @@
       </c>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="105"/>
-      <c r="B451" s="105"/>
-      <c r="C451" s="105"/>
-      <c r="D451" s="105"/>
-      <c r="E451" s="105"/>
-      <c r="F451" s="105"/>
-      <c r="G451" s="105"/>
-      <c r="H451" s="105"/>
-      <c r="I451" s="105"/>
-      <c r="J451" s="105"/>
-      <c r="K451" s="105"/>
+      <c r="A451" s="106"/>
+      <c r="B451" s="106"/>
+      <c r="C451" s="106"/>
+      <c r="D451" s="106"/>
+      <c r="E451" s="106"/>
+      <c r="F451" s="106"/>
+      <c r="G451" s="106"/>
+      <c r="H451" s="106"/>
+      <c r="I451" s="106"/>
+      <c r="J451" s="106"/>
+      <c r="K451" s="106"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="106"/>
-      <c r="B452" s="106"/>
-      <c r="C452" s="106"/>
-      <c r="D452" s="106"/>
-      <c r="E452" s="106"/>
-      <c r="F452" s="106"/>
-      <c r="G452" s="106"/>
-      <c r="H452" s="106"/>
-      <c r="I452" s="106"/>
-      <c r="J452" s="106"/>
-      <c r="K452" s="106"/>
+      <c r="A452" s="107"/>
+      <c r="B452" s="107"/>
+      <c r="C452" s="107"/>
+      <c r="D452" s="107"/>
+      <c r="E452" s="107"/>
+      <c r="F452" s="107"/>
+      <c r="G452" s="107"/>
+      <c r="H452" s="107"/>
+      <c r="I452" s="107"/>
+      <c r="J452" s="107"/>
+      <c r="K452" s="107"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="107" t="s">
+      <c r="A453" s="108" t="s">
         <v>285</v>
       </c>
-      <c r="B453" s="108"/>
-      <c r="C453" s="108"/>
-      <c r="D453" s="108"/>
-      <c r="E453" s="108"/>
-      <c r="F453" s="108"/>
-      <c r="G453" s="108"/>
-      <c r="H453" s="108"/>
-      <c r="I453" s="108"/>
-      <c r="J453" s="108"/>
-      <c r="K453" s="109"/>
+      <c r="B453" s="109"/>
+      <c r="C453" s="109"/>
+      <c r="D453" s="109"/>
+      <c r="E453" s="109"/>
+      <c r="F453" s="109"/>
+      <c r="G453" s="109"/>
+      <c r="H453" s="109"/>
+      <c r="I453" s="109"/>
+      <c r="J453" s="109"/>
+      <c r="K453" s="110"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="20" t="s">
@@ -13562,45 +13565,45 @@
       </c>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="105"/>
-      <c r="B463" s="105"/>
-      <c r="C463" s="105"/>
-      <c r="D463" s="105"/>
-      <c r="E463" s="105"/>
-      <c r="F463" s="105"/>
-      <c r="G463" s="105"/>
-      <c r="H463" s="105"/>
-      <c r="I463" s="105"/>
-      <c r="J463" s="105"/>
-      <c r="K463" s="105"/>
+      <c r="A463" s="106"/>
+      <c r="B463" s="106"/>
+      <c r="C463" s="106"/>
+      <c r="D463" s="106"/>
+      <c r="E463" s="106"/>
+      <c r="F463" s="106"/>
+      <c r="G463" s="106"/>
+      <c r="H463" s="106"/>
+      <c r="I463" s="106"/>
+      <c r="J463" s="106"/>
+      <c r="K463" s="106"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="106"/>
-      <c r="B464" s="106"/>
-      <c r="C464" s="106"/>
-      <c r="D464" s="106"/>
-      <c r="E464" s="106"/>
-      <c r="F464" s="106"/>
-      <c r="G464" s="106"/>
-      <c r="H464" s="106"/>
-      <c r="I464" s="106"/>
-      <c r="J464" s="106"/>
-      <c r="K464" s="106"/>
+      <c r="A464" s="107"/>
+      <c r="B464" s="107"/>
+      <c r="C464" s="107"/>
+      <c r="D464" s="107"/>
+      <c r="E464" s="107"/>
+      <c r="F464" s="107"/>
+      <c r="G464" s="107"/>
+      <c r="H464" s="107"/>
+      <c r="I464" s="107"/>
+      <c r="J464" s="107"/>
+      <c r="K464" s="107"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="107" t="s">
-        <v>304</v>
-      </c>
-      <c r="B465" s="108"/>
-      <c r="C465" s="108"/>
-      <c r="D465" s="108"/>
-      <c r="E465" s="108"/>
-      <c r="F465" s="108"/>
-      <c r="G465" s="108"/>
-      <c r="H465" s="108"/>
-      <c r="I465" s="108"/>
-      <c r="J465" s="108"/>
-      <c r="K465" s="109"/>
+      <c r="A465" s="108" t="s">
+        <v>303</v>
+      </c>
+      <c r="B465" s="109"/>
+      <c r="C465" s="109"/>
+      <c r="D465" s="109"/>
+      <c r="E465" s="109"/>
+      <c r="F465" s="109"/>
+      <c r="G465" s="109"/>
+      <c r="H465" s="109"/>
+      <c r="I465" s="109"/>
+      <c r="J465" s="109"/>
+      <c r="K465" s="110"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="20" t="s">
@@ -13675,7 +13678,7 @@
         <v>2</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>9</v>
@@ -13704,7 +13707,7 @@
         <v>3</v>
       </c>
       <c r="B469" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C469" s="7" t="s">
         <v>9</v>
@@ -13733,7 +13736,7 @@
         <v>4</v>
       </c>
       <c r="B470" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C470" s="7" t="s">
         <v>15</v>
@@ -13756,7 +13759,7 @@
         <v>12</v>
       </c>
       <c r="K470" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
@@ -13965,45 +13968,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="105"/>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
+      <c r="A1" s="106"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="108"/>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="109"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="109"/>
+      <c r="E3" s="109"/>
+      <c r="F3" s="109"/>
+      <c r="G3" s="109"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="110"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14188,45 +14191,45 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="105"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
+      <c r="A10" s="106"/>
+      <c r="B10" s="106"/>
+      <c r="C10" s="106"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
+      <c r="A11" s="107"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="107"/>
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="107"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="107" t="s">
+      <c r="A12" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="110"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -14498,45 +14501,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="105"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="105"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
+      <c r="A22" s="106"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="106"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="106"/>
-      <c r="B23" s="106"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="106"/>
-      <c r="K23" s="106"/>
+      <c r="A23" s="107"/>
+      <c r="B23" s="107"/>
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="108" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="109"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="109"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="109"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="110"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -14783,45 +14786,45 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="105"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="105"/>
-      <c r="K33" s="105"/>
+      <c r="A33" s="106"/>
+      <c r="B33" s="106"/>
+      <c r="C33" s="106"/>
+      <c r="D33" s="106"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="106"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="107"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="108"/>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="108"/>
-      <c r="H35" s="108"/>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="109"/>
+      <c r="B35" s="109"/>
+      <c r="C35" s="109"/>
+      <c r="D35" s="109"/>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="110"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -15095,45 +15098,45 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="105"/>
-      <c r="B45" s="105"/>
-      <c r="C45" s="105"/>
-      <c r="D45" s="105"/>
-      <c r="E45" s="105"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="105"/>
-      <c r="H45" s="105"/>
-      <c r="I45" s="105"/>
-      <c r="J45" s="105"/>
-      <c r="K45" s="105"/>
+      <c r="A45" s="106"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="106"/>
+      <c r="K45" s="106"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="106"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="106"/>
-      <c r="E46" s="106"/>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="106"/>
-      <c r="K46" s="106"/>
+      <c r="A46" s="107"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="107" t="s">
+      <c r="A47" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="109"/>
+      <c r="B47" s="109"/>
+      <c r="C47" s="109"/>
+      <c r="D47" s="109"/>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="110"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -15376,45 +15379,45 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="105"/>
-      <c r="B56" s="105"/>
-      <c r="C56" s="105"/>
-      <c r="D56" s="105"/>
-      <c r="E56" s="105"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="105"/>
-      <c r="H56" s="105"/>
-      <c r="I56" s="105"/>
-      <c r="J56" s="105"/>
-      <c r="K56" s="105"/>
+      <c r="A56" s="106"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="106"/>
+      <c r="D56" s="106"/>
+      <c r="E56" s="106"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="106"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="106"/>
-      <c r="B57" s="106"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="106"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="106"/>
+      <c r="A57" s="107"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="107"/>
+      <c r="D57" s="107"/>
+      <c r="E57" s="107"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="107"/>
+      <c r="K57" s="107"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="107" t="s">
+      <c r="A58" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="108"/>
-      <c r="C58" s="108"/>
-      <c r="D58" s="108"/>
-      <c r="E58" s="108"/>
-      <c r="F58" s="108"/>
-      <c r="G58" s="108"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="108"/>
-      <c r="J58" s="108"/>
-      <c r="K58" s="109"/>
+      <c r="B58" s="109"/>
+      <c r="C58" s="109"/>
+      <c r="D58" s="109"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="110"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -15657,45 +15660,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="105"/>
-      <c r="B67" s="105"/>
-      <c r="C67" s="105"/>
-      <c r="D67" s="105"/>
-      <c r="E67" s="105"/>
-      <c r="F67" s="105"/>
-      <c r="G67" s="105"/>
-      <c r="H67" s="105"/>
-      <c r="I67" s="105"/>
-      <c r="J67" s="105"/>
-      <c r="K67" s="105"/>
+      <c r="A67" s="106"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="106"/>
+      <c r="J67" s="106"/>
+      <c r="K67" s="106"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="106"/>
-      <c r="B68" s="106"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106"/>
-      <c r="G68" s="106"/>
-      <c r="H68" s="106"/>
-      <c r="I68" s="106"/>
-      <c r="J68" s="106"/>
-      <c r="K68" s="106"/>
+      <c r="A68" s="107"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="107"/>
+      <c r="D68" s="107"/>
+      <c r="E68" s="107"/>
+      <c r="F68" s="107"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="107"/>
+      <c r="J68" s="107"/>
+      <c r="K68" s="107"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="107" t="s">
+      <c r="A69" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="108"/>
-      <c r="C69" s="108"/>
-      <c r="D69" s="108"/>
-      <c r="E69" s="108"/>
-      <c r="F69" s="108"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="108"/>
-      <c r="I69" s="108"/>
-      <c r="J69" s="108"/>
-      <c r="K69" s="109"/>
+      <c r="B69" s="109"/>
+      <c r="C69" s="109"/>
+      <c r="D69" s="109"/>
+      <c r="E69" s="109"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="109"/>
+      <c r="I69" s="109"/>
+      <c r="J69" s="109"/>
+      <c r="K69" s="110"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -16019,45 +16022,45 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="105"/>
-      <c r="B82" s="105"/>
-      <c r="C82" s="105"/>
-      <c r="D82" s="105"/>
-      <c r="E82" s="105"/>
-      <c r="F82" s="105"/>
-      <c r="G82" s="105"/>
-      <c r="H82" s="105"/>
-      <c r="I82" s="105"/>
-      <c r="J82" s="105"/>
-      <c r="K82" s="105"/>
+      <c r="A82" s="106"/>
+      <c r="B82" s="106"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="106"/>
+      <c r="E82" s="106"/>
+      <c r="F82" s="106"/>
+      <c r="G82" s="106"/>
+      <c r="H82" s="106"/>
+      <c r="I82" s="106"/>
+      <c r="J82" s="106"/>
+      <c r="K82" s="106"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="106"/>
-      <c r="B83" s="106"/>
-      <c r="C83" s="106"/>
-      <c r="D83" s="106"/>
-      <c r="E83" s="106"/>
-      <c r="F83" s="106"/>
-      <c r="G83" s="106"/>
-      <c r="H83" s="106"/>
-      <c r="I83" s="106"/>
-      <c r="J83" s="106"/>
-      <c r="K83" s="106"/>
+      <c r="A83" s="107"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="107"/>
+      <c r="D83" s="107"/>
+      <c r="E83" s="107"/>
+      <c r="F83" s="107"/>
+      <c r="G83" s="107"/>
+      <c r="H83" s="107"/>
+      <c r="I83" s="107"/>
+      <c r="J83" s="107"/>
+      <c r="K83" s="107"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="107" t="s">
+      <c r="A84" s="108" t="s">
         <v>192</v>
       </c>
-      <c r="B84" s="108"/>
-      <c r="C84" s="108"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="108"/>
-      <c r="H84" s="108"/>
-      <c r="I84" s="108"/>
-      <c r="J84" s="108"/>
-      <c r="K84" s="109"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="109"/>
+      <c r="D84" s="109"/>
+      <c r="E84" s="109"/>
+      <c r="F84" s="109"/>
+      <c r="G84" s="109"/>
+      <c r="H84" s="109"/>
+      <c r="I84" s="109"/>
+      <c r="J84" s="109"/>
+      <c r="K84" s="110"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
@@ -16238,45 +16241,45 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="105"/>
-      <c r="B91" s="105"/>
-      <c r="C91" s="105"/>
-      <c r="D91" s="105"/>
-      <c r="E91" s="105"/>
-      <c r="F91" s="105"/>
-      <c r="G91" s="105"/>
-      <c r="H91" s="105"/>
-      <c r="I91" s="105"/>
-      <c r="J91" s="105"/>
-      <c r="K91" s="105"/>
+      <c r="A91" s="106"/>
+      <c r="B91" s="106"/>
+      <c r="C91" s="106"/>
+      <c r="D91" s="106"/>
+      <c r="E91" s="106"/>
+      <c r="F91" s="106"/>
+      <c r="G91" s="106"/>
+      <c r="H91" s="106"/>
+      <c r="I91" s="106"/>
+      <c r="J91" s="106"/>
+      <c r="K91" s="106"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="106"/>
-      <c r="B92" s="106"/>
-      <c r="C92" s="106"/>
-      <c r="D92" s="106"/>
-      <c r="E92" s="106"/>
-      <c r="F92" s="106"/>
-      <c r="G92" s="106"/>
-      <c r="H92" s="106"/>
-      <c r="I92" s="106"/>
-      <c r="J92" s="106"/>
-      <c r="K92" s="106"/>
+      <c r="A92" s="107"/>
+      <c r="B92" s="107"/>
+      <c r="C92" s="107"/>
+      <c r="D92" s="107"/>
+      <c r="E92" s="107"/>
+      <c r="F92" s="107"/>
+      <c r="G92" s="107"/>
+      <c r="H92" s="107"/>
+      <c r="I92" s="107"/>
+      <c r="J92" s="107"/>
+      <c r="K92" s="107"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="107" t="s">
+      <c r="A93" s="108" t="s">
         <v>191</v>
       </c>
-      <c r="B93" s="108"/>
-      <c r="C93" s="108"/>
-      <c r="D93" s="108"/>
-      <c r="E93" s="108"/>
-      <c r="F93" s="108"/>
-      <c r="G93" s="108"/>
-      <c r="H93" s="108"/>
-      <c r="I93" s="108"/>
-      <c r="J93" s="108"/>
-      <c r="K93" s="109"/>
+      <c r="B93" s="109"/>
+      <c r="C93" s="109"/>
+      <c r="D93" s="109"/>
+      <c r="E93" s="109"/>
+      <c r="F93" s="109"/>
+      <c r="G93" s="109"/>
+      <c r="H93" s="109"/>
+      <c r="I93" s="109"/>
+      <c r="J93" s="109"/>
+      <c r="K93" s="110"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -16523,45 +16526,45 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="105"/>
-      <c r="B103" s="105"/>
-      <c r="C103" s="105"/>
-      <c r="D103" s="105"/>
-      <c r="E103" s="105"/>
-      <c r="F103" s="105"/>
-      <c r="G103" s="105"/>
-      <c r="H103" s="105"/>
-      <c r="I103" s="105"/>
-      <c r="J103" s="105"/>
-      <c r="K103" s="105"/>
+      <c r="A103" s="106"/>
+      <c r="B103" s="106"/>
+      <c r="C103" s="106"/>
+      <c r="D103" s="106"/>
+      <c r="E103" s="106"/>
+      <c r="F103" s="106"/>
+      <c r="G103" s="106"/>
+      <c r="H103" s="106"/>
+      <c r="I103" s="106"/>
+      <c r="J103" s="106"/>
+      <c r="K103" s="106"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="106"/>
-      <c r="B104" s="106"/>
-      <c r="C104" s="106"/>
-      <c r="D104" s="106"/>
-      <c r="E104" s="106"/>
-      <c r="F104" s="106"/>
-      <c r="G104" s="106"/>
-      <c r="H104" s="106"/>
-      <c r="I104" s="106"/>
-      <c r="J104" s="106"/>
-      <c r="K104" s="106"/>
+      <c r="A104" s="107"/>
+      <c r="B104" s="107"/>
+      <c r="C104" s="107"/>
+      <c r="D104" s="107"/>
+      <c r="E104" s="107"/>
+      <c r="F104" s="107"/>
+      <c r="G104" s="107"/>
+      <c r="H104" s="107"/>
+      <c r="I104" s="107"/>
+      <c r="J104" s="107"/>
+      <c r="K104" s="107"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="107" t="s">
+      <c r="A105" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="108"/>
-      <c r="C105" s="108"/>
-      <c r="D105" s="108"/>
-      <c r="E105" s="108"/>
-      <c r="F105" s="108"/>
-      <c r="G105" s="108"/>
-      <c r="H105" s="108"/>
-      <c r="I105" s="108"/>
-      <c r="J105" s="108"/>
-      <c r="K105" s="109"/>
+      <c r="B105" s="109"/>
+      <c r="C105" s="109"/>
+      <c r="D105" s="109"/>
+      <c r="E105" s="109"/>
+      <c r="F105" s="109"/>
+      <c r="G105" s="109"/>
+      <c r="H105" s="109"/>
+      <c r="I105" s="109"/>
+      <c r="J105" s="109"/>
+      <c r="K105" s="110"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
@@ -16692,45 +16695,45 @@
       <c r="K109" s="14"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="105"/>
-      <c r="B110" s="105"/>
-      <c r="C110" s="105"/>
-      <c r="D110" s="105"/>
-      <c r="E110" s="105"/>
-      <c r="F110" s="105"/>
-      <c r="G110" s="105"/>
-      <c r="H110" s="105"/>
-      <c r="I110" s="105"/>
-      <c r="J110" s="105"/>
-      <c r="K110" s="105"/>
+      <c r="A110" s="106"/>
+      <c r="B110" s="106"/>
+      <c r="C110" s="106"/>
+      <c r="D110" s="106"/>
+      <c r="E110" s="106"/>
+      <c r="F110" s="106"/>
+      <c r="G110" s="106"/>
+      <c r="H110" s="106"/>
+      <c r="I110" s="106"/>
+      <c r="J110" s="106"/>
+      <c r="K110" s="106"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="106"/>
-      <c r="B111" s="106"/>
-      <c r="C111" s="106"/>
-      <c r="D111" s="106"/>
-      <c r="E111" s="106"/>
-      <c r="F111" s="106"/>
-      <c r="G111" s="106"/>
-      <c r="H111" s="106"/>
-      <c r="I111" s="106"/>
-      <c r="J111" s="106"/>
-      <c r="K111" s="106"/>
+      <c r="A111" s="107"/>
+      <c r="B111" s="107"/>
+      <c r="C111" s="107"/>
+      <c r="D111" s="107"/>
+      <c r="E111" s="107"/>
+      <c r="F111" s="107"/>
+      <c r="G111" s="107"/>
+      <c r="H111" s="107"/>
+      <c r="I111" s="107"/>
+      <c r="J111" s="107"/>
+      <c r="K111" s="107"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="107" t="s">
+      <c r="A112" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="108"/>
-      <c r="C112" s="108"/>
-      <c r="D112" s="108"/>
-      <c r="E112" s="108"/>
-      <c r="F112" s="108"/>
-      <c r="G112" s="108"/>
-      <c r="H112" s="108"/>
-      <c r="I112" s="108"/>
-      <c r="J112" s="108"/>
-      <c r="K112" s="109"/>
+      <c r="B112" s="109"/>
+      <c r="C112" s="109"/>
+      <c r="D112" s="109"/>
+      <c r="E112" s="109"/>
+      <c r="F112" s="109"/>
+      <c r="G112" s="109"/>
+      <c r="H112" s="109"/>
+      <c r="I112" s="109"/>
+      <c r="J112" s="109"/>
+      <c r="K112" s="110"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="20490" windowHeight="7095"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="20490" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2863" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="312">
   <si>
     <t>No</t>
   </si>
@@ -943,6 +943,15 @@
   </si>
   <si>
     <t>pro_tlb_teenager_level_boosters</t>
+  </si>
+  <si>
+    <t>pro_tpe_teenager_profession_explore</t>
+  </si>
+  <si>
+    <t>tpe_teenager</t>
+  </si>
+  <si>
+    <t>tpe_profession</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1444,9 +1453,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1498,6 +1504,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1506,9 +1521,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1521,6 +1533,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1835,10 +1850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K472"/>
+  <dimension ref="A1:K480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:K88"/>
+    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I373" sqref="I373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,49 +1873,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="114" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="115"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="116"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="110" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -2106,45 +2121,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="106"/>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="107"/>
-      <c r="B12" s="107"/>
-      <c r="C12" s="107"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="107"/>
-      <c r="G12" s="107"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="107"/>
-      <c r="K12" s="107"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="109"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="116" t="s">
+      <c r="A13" s="118" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="117"/>
-      <c r="C13" s="117"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="118"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="120"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
@@ -2336,7 +2351,7 @@
       <c r="E20" s="80">
         <v>1</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F20" s="79">
         <v>1</v>
       </c>
       <c r="G20" s="79"/>
@@ -2350,45 +2365,45 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="111"/>
-      <c r="B21" s="111"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="111"/>
-      <c r="J21" s="111"/>
-      <c r="K21" s="111"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="107"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="107"/>
-      <c r="I22" s="107"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="109"/>
+      <c r="I22" s="109"/>
+      <c r="J22" s="109"/>
+      <c r="K22" s="109"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="110" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="110"/>
+      <c r="B23" s="111"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="111"/>
+      <c r="E23" s="111"/>
+      <c r="F23" s="111"/>
+      <c r="G23" s="111"/>
+      <c r="H23" s="111"/>
+      <c r="I23" s="111"/>
+      <c r="J23" s="111"/>
+      <c r="K23" s="112"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2621,45 +2636,45 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="106"/>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108"/>
+      <c r="D32" s="108"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="108"/>
+      <c r="G32" s="108"/>
+      <c r="H32" s="108"/>
+      <c r="I32" s="108"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="108"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="107"/>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="109"/>
+      <c r="C33" s="109"/>
+      <c r="D33" s="109"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="109"/>
+      <c r="G33" s="109"/>
+      <c r="H33" s="109"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="109"/>
+      <c r="K33" s="109"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="108" t="s">
+      <c r="A34" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="110"/>
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="112"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
@@ -3003,8 +3018,8 @@
       <c r="H46" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="100"/>
-      <c r="J46" s="100"/>
+      <c r="I46" s="99"/>
+      <c r="J46" s="99"/>
       <c r="K46" s="9"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -3500,45 +3515,45 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="106"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="106"/>
-      <c r="H65" s="106"/>
-      <c r="I65" s="106"/>
-      <c r="J65" s="106"/>
-      <c r="K65" s="106"/>
+      <c r="A65" s="108"/>
+      <c r="B65" s="108"/>
+      <c r="C65" s="108"/>
+      <c r="D65" s="108"/>
+      <c r="E65" s="108"/>
+      <c r="F65" s="108"/>
+      <c r="G65" s="108"/>
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+      <c r="J65" s="108"/>
+      <c r="K65" s="108"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="107"/>
-      <c r="B66" s="107"/>
-      <c r="C66" s="107"/>
-      <c r="D66" s="107"/>
-      <c r="E66" s="107"/>
-      <c r="F66" s="107"/>
-      <c r="G66" s="107"/>
-      <c r="H66" s="107"/>
-      <c r="I66" s="107"/>
-      <c r="J66" s="107"/>
-      <c r="K66" s="107"/>
+      <c r="A66" s="109"/>
+      <c r="B66" s="109"/>
+      <c r="C66" s="109"/>
+      <c r="D66" s="109"/>
+      <c r="E66" s="109"/>
+      <c r="F66" s="109"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="109"/>
+      <c r="J66" s="109"/>
+      <c r="K66" s="109"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="108" t="s">
+      <c r="A67" s="110" t="s">
         <v>294</v>
       </c>
-      <c r="B67" s="109"/>
-      <c r="C67" s="109"/>
-      <c r="D67" s="109"/>
-      <c r="E67" s="109"/>
-      <c r="F67" s="109"/>
-      <c r="G67" s="109"/>
-      <c r="H67" s="109"/>
-      <c r="I67" s="109"/>
-      <c r="J67" s="109"/>
-      <c r="K67" s="110"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="111"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="112"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -3600,10 +3615,10 @@
       <c r="H69" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I69" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="J69" s="98"/>
+      <c r="I69" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="J69" s="97"/>
       <c r="K69" s="6" t="s">
         <v>13</v>
       </c>
@@ -3631,8 +3646,8 @@
       <c r="H70" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I70" s="99"/>
-      <c r="J70" s="99" t="s">
+      <c r="I70" s="98"/>
+      <c r="J70" s="98" t="s">
         <v>12</v>
       </c>
       <c r="K70" s="9"/>
@@ -3660,8 +3675,8 @@
       <c r="H71" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I71" s="99"/>
-      <c r="J71" s="99" t="s">
+      <c r="I71" s="98"/>
+      <c r="J71" s="98" t="s">
         <v>12</v>
       </c>
       <c r="K71" s="9"/>
@@ -3687,8 +3702,8 @@
       <c r="H72" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I72" s="99"/>
-      <c r="J72" s="99" t="s">
+      <c r="I72" s="98"/>
+      <c r="J72" s="98" t="s">
         <v>12</v>
       </c>
       <c r="K72" s="9"/>
@@ -3716,8 +3731,8 @@
       <c r="H73" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I73" s="99"/>
-      <c r="J73" s="99" t="s">
+      <c r="I73" s="98"/>
+      <c r="J73" s="98" t="s">
         <v>12</v>
       </c>
       <c r="K73" s="9" t="s">
@@ -3745,8 +3760,8 @@
       <c r="H74" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="99"/>
-      <c r="J74" s="99"/>
+      <c r="I74" s="98"/>
+      <c r="J74" s="98"/>
       <c r="K74" s="9" t="s">
         <v>16</v>
       </c>
@@ -3772,52 +3787,52 @@
       <c r="H75" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I75" s="99"/>
-      <c r="J75" s="99"/>
+      <c r="I75" s="98"/>
+      <c r="J75" s="98"/>
       <c r="K75" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="106"/>
-      <c r="B76" s="106"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="106"/>
-      <c r="F76" s="106"/>
-      <c r="G76" s="106"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="106"/>
-      <c r="J76" s="106"/>
-      <c r="K76" s="106"/>
+      <c r="A76" s="108"/>
+      <c r="B76" s="108"/>
+      <c r="C76" s="108"/>
+      <c r="D76" s="108"/>
+      <c r="E76" s="108"/>
+      <c r="F76" s="108"/>
+      <c r="G76" s="108"/>
+      <c r="H76" s="108"/>
+      <c r="I76" s="108"/>
+      <c r="J76" s="108"/>
+      <c r="K76" s="108"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="107"/>
-      <c r="B77" s="107"/>
-      <c r="C77" s="107"/>
-      <c r="D77" s="107"/>
-      <c r="E77" s="107"/>
-      <c r="F77" s="107"/>
-      <c r="G77" s="107"/>
-      <c r="H77" s="107"/>
-      <c r="I77" s="107"/>
-      <c r="J77" s="107"/>
-      <c r="K77" s="107"/>
+      <c r="A77" s="109"/>
+      <c r="B77" s="109"/>
+      <c r="C77" s="109"/>
+      <c r="D77" s="109"/>
+      <c r="E77" s="109"/>
+      <c r="F77" s="109"/>
+      <c r="G77" s="109"/>
+      <c r="H77" s="109"/>
+      <c r="I77" s="109"/>
+      <c r="J77" s="109"/>
+      <c r="K77" s="109"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="108" t="s">
+      <c r="A78" s="110" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="109"/>
-      <c r="C78" s="109"/>
-      <c r="D78" s="109"/>
-      <c r="E78" s="109"/>
-      <c r="F78" s="109"/>
-      <c r="G78" s="109"/>
-      <c r="H78" s="109"/>
-      <c r="I78" s="109"/>
-      <c r="J78" s="109"/>
-      <c r="K78" s="110"/>
+      <c r="B78" s="111"/>
+      <c r="C78" s="111"/>
+      <c r="D78" s="111"/>
+      <c r="E78" s="111"/>
+      <c r="F78" s="111"/>
+      <c r="G78" s="111"/>
+      <c r="H78" s="111"/>
+      <c r="I78" s="111"/>
+      <c r="J78" s="111"/>
+      <c r="K78" s="112"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
@@ -4031,45 +4046,45 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="111"/>
-      <c r="B86" s="111"/>
-      <c r="C86" s="111"/>
-      <c r="D86" s="111"/>
-      <c r="E86" s="111"/>
-      <c r="F86" s="111"/>
-      <c r="G86" s="111"/>
-      <c r="H86" s="111"/>
-      <c r="I86" s="111"/>
-      <c r="J86" s="111"/>
-      <c r="K86" s="111"/>
+      <c r="A86" s="117"/>
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="117"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="117"/>
+      <c r="I86" s="117"/>
+      <c r="J86" s="117"/>
+      <c r="K86" s="117"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="107"/>
-      <c r="B87" s="107"/>
-      <c r="C87" s="107"/>
-      <c r="D87" s="107"/>
-      <c r="E87" s="107"/>
-      <c r="F87" s="107"/>
-      <c r="G87" s="107"/>
-      <c r="H87" s="107"/>
-      <c r="I87" s="107"/>
-      <c r="J87" s="107"/>
-      <c r="K87" s="107"/>
+      <c r="A87" s="109"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="109"/>
+      <c r="D87" s="109"/>
+      <c r="E87" s="109"/>
+      <c r="F87" s="109"/>
+      <c r="G87" s="109"/>
+      <c r="H87" s="109"/>
+      <c r="I87" s="109"/>
+      <c r="J87" s="109"/>
+      <c r="K87" s="109"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="108" t="s">
+      <c r="A88" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="109"/>
-      <c r="C88" s="109"/>
-      <c r="D88" s="109"/>
-      <c r="E88" s="109"/>
-      <c r="F88" s="109"/>
-      <c r="G88" s="109"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="109"/>
-      <c r="J88" s="109"/>
-      <c r="K88" s="110"/>
+      <c r="B88" s="111"/>
+      <c r="C88" s="111"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="111"/>
+      <c r="F88" s="111"/>
+      <c r="G88" s="111"/>
+      <c r="H88" s="111"/>
+      <c r="I88" s="111"/>
+      <c r="J88" s="111"/>
+      <c r="K88" s="112"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -4329,7 +4344,7 @@
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" s="105">
+      <c r="A98" s="104">
         <v>9</v>
       </c>
       <c r="B98" s="13" t="s">
@@ -4358,45 +4373,45 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="111"/>
-      <c r="B99" s="111"/>
-      <c r="C99" s="111"/>
-      <c r="D99" s="111"/>
-      <c r="E99" s="111"/>
-      <c r="F99" s="111"/>
-      <c r="G99" s="111"/>
-      <c r="H99" s="111"/>
-      <c r="I99" s="111"/>
-      <c r="J99" s="111"/>
-      <c r="K99" s="111"/>
+      <c r="A99" s="117"/>
+      <c r="B99" s="117"/>
+      <c r="C99" s="117"/>
+      <c r="D99" s="117"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+      <c r="G99" s="117"/>
+      <c r="H99" s="117"/>
+      <c r="I99" s="117"/>
+      <c r="J99" s="117"/>
+      <c r="K99" s="117"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="107"/>
-      <c r="B100" s="107"/>
-      <c r="C100" s="107"/>
-      <c r="D100" s="107"/>
-      <c r="E100" s="107"/>
-      <c r="F100" s="107"/>
-      <c r="G100" s="107"/>
-      <c r="H100" s="107"/>
-      <c r="I100" s="107"/>
-      <c r="J100" s="107"/>
-      <c r="K100" s="107"/>
+      <c r="A100" s="109"/>
+      <c r="B100" s="109"/>
+      <c r="C100" s="109"/>
+      <c r="D100" s="109"/>
+      <c r="E100" s="109"/>
+      <c r="F100" s="109"/>
+      <c r="G100" s="109"/>
+      <c r="H100" s="109"/>
+      <c r="I100" s="109"/>
+      <c r="J100" s="109"/>
+      <c r="K100" s="109"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="108" t="s">
+      <c r="A101" s="110" t="s">
         <v>308</v>
       </c>
-      <c r="B101" s="109"/>
-      <c r="C101" s="109"/>
-      <c r="D101" s="109"/>
-      <c r="E101" s="109"/>
-      <c r="F101" s="109"/>
-      <c r="G101" s="109"/>
-      <c r="H101" s="109"/>
-      <c r="I101" s="109"/>
-      <c r="J101" s="109"/>
-      <c r="K101" s="110"/>
+      <c r="B101" s="111"/>
+      <c r="C101" s="111"/>
+      <c r="D101" s="111"/>
+      <c r="E101" s="111"/>
+      <c r="F101" s="111"/>
+      <c r="G101" s="111"/>
+      <c r="H101" s="111"/>
+      <c r="I101" s="111"/>
+      <c r="J101" s="111"/>
+      <c r="K101" s="112"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
@@ -4458,10 +4473,10 @@
       <c r="H103" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I103" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="J103" s="95"/>
+      <c r="I103" s="94" t="s">
+        <v>12</v>
+      </c>
+      <c r="J103" s="94"/>
       <c r="K103" s="6" t="s">
         <v>13</v>
       </c>
@@ -4491,8 +4506,8 @@
       <c r="H104" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I104" s="97"/>
-      <c r="J104" s="97" t="s">
+      <c r="I104" s="96"/>
+      <c r="J104" s="96" t="s">
         <v>12</v>
       </c>
       <c r="K104" s="9"/>
@@ -4520,14 +4535,14 @@
       <c r="H105" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I105" s="97"/>
-      <c r="J105" s="97" t="s">
+      <c r="I105" s="96"/>
+      <c r="J105" s="96" t="s">
         <v>12</v>
       </c>
       <c r="K105" s="9"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="97">
+      <c r="A106" s="96">
         <v>4</v>
       </c>
       <c r="B106" s="7" t="s">
@@ -4549,12 +4564,12 @@
       <c r="H106" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I106" s="97"/>
-      <c r="J106" s="97"/>
+      <c r="I106" s="96"/>
+      <c r="J106" s="96"/>
       <c r="K106" s="9"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="97">
+      <c r="A107" s="96">
         <v>5</v>
       </c>
       <c r="B107" s="7" t="s">
@@ -4574,14 +4589,14 @@
       <c r="H107" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I107" s="97"/>
-      <c r="J107" s="97"/>
+      <c r="I107" s="96"/>
+      <c r="J107" s="96"/>
       <c r="K107" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="97">
+      <c r="A108" s="96">
         <v>6</v>
       </c>
       <c r="B108" s="7" t="s">
@@ -4601,14 +4616,14 @@
       <c r="H108" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I108" s="97"/>
-      <c r="J108" s="97"/>
+      <c r="I108" s="96"/>
+      <c r="J108" s="96"/>
       <c r="K108" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="97">
+      <c r="A109" s="96">
         <v>7</v>
       </c>
       <c r="B109" s="13" t="s">
@@ -4630,52 +4645,52 @@
       <c r="H109" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I109" s="96"/>
-      <c r="J109" s="96"/>
+      <c r="I109" s="95"/>
+      <c r="J109" s="95"/>
       <c r="K109" s="14" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="106"/>
-      <c r="B110" s="106"/>
-      <c r="C110" s="106"/>
-      <c r="D110" s="106"/>
-      <c r="E110" s="106"/>
-      <c r="F110" s="106"/>
-      <c r="G110" s="106"/>
-      <c r="H110" s="106"/>
-      <c r="I110" s="106"/>
-      <c r="J110" s="106"/>
-      <c r="K110" s="106"/>
+      <c r="A110" s="108"/>
+      <c r="B110" s="108"/>
+      <c r="C110" s="108"/>
+      <c r="D110" s="108"/>
+      <c r="E110" s="108"/>
+      <c r="F110" s="108"/>
+      <c r="G110" s="108"/>
+      <c r="H110" s="108"/>
+      <c r="I110" s="108"/>
+      <c r="J110" s="108"/>
+      <c r="K110" s="108"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="107"/>
-      <c r="B111" s="107"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="107"/>
-      <c r="E111" s="107"/>
-      <c r="F111" s="107"/>
-      <c r="G111" s="107"/>
-      <c r="H111" s="107"/>
-      <c r="I111" s="107"/>
-      <c r="J111" s="107"/>
-      <c r="K111" s="107"/>
+      <c r="A111" s="109"/>
+      <c r="B111" s="109"/>
+      <c r="C111" s="109"/>
+      <c r="D111" s="109"/>
+      <c r="E111" s="109"/>
+      <c r="F111" s="109"/>
+      <c r="G111" s="109"/>
+      <c r="H111" s="109"/>
+      <c r="I111" s="109"/>
+      <c r="J111" s="109"/>
+      <c r="K111" s="109"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="108" t="s">
+      <c r="A112" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="B112" s="109"/>
-      <c r="C112" s="109"/>
-      <c r="D112" s="109"/>
-      <c r="E112" s="109"/>
-      <c r="F112" s="109"/>
-      <c r="G112" s="109"/>
-      <c r="H112" s="109"/>
-      <c r="I112" s="109"/>
-      <c r="J112" s="109"/>
-      <c r="K112" s="110"/>
+      <c r="B112" s="111"/>
+      <c r="C112" s="111"/>
+      <c r="D112" s="111"/>
+      <c r="E112" s="111"/>
+      <c r="F112" s="111"/>
+      <c r="G112" s="111"/>
+      <c r="H112" s="111"/>
+      <c r="I112" s="111"/>
+      <c r="J112" s="111"/>
+      <c r="K112" s="112"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -5003,45 +5018,45 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="106"/>
-      <c r="B124" s="106"/>
-      <c r="C124" s="106"/>
-      <c r="D124" s="106"/>
-      <c r="E124" s="106"/>
-      <c r="F124" s="106"/>
-      <c r="G124" s="106"/>
-      <c r="H124" s="106"/>
-      <c r="I124" s="106"/>
-      <c r="J124" s="106"/>
-      <c r="K124" s="106"/>
+      <c r="A124" s="108"/>
+      <c r="B124" s="108"/>
+      <c r="C124" s="108"/>
+      <c r="D124" s="108"/>
+      <c r="E124" s="108"/>
+      <c r="F124" s="108"/>
+      <c r="G124" s="108"/>
+      <c r="H124" s="108"/>
+      <c r="I124" s="108"/>
+      <c r="J124" s="108"/>
+      <c r="K124" s="108"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="107"/>
-      <c r="B125" s="107"/>
-      <c r="C125" s="107"/>
-      <c r="D125" s="107"/>
-      <c r="E125" s="107"/>
-      <c r="F125" s="107"/>
-      <c r="G125" s="107"/>
-      <c r="H125" s="107"/>
-      <c r="I125" s="107"/>
-      <c r="J125" s="107"/>
-      <c r="K125" s="107"/>
+      <c r="A125" s="109"/>
+      <c r="B125" s="109"/>
+      <c r="C125" s="109"/>
+      <c r="D125" s="109"/>
+      <c r="E125" s="109"/>
+      <c r="F125" s="109"/>
+      <c r="G125" s="109"/>
+      <c r="H125" s="109"/>
+      <c r="I125" s="109"/>
+      <c r="J125" s="109"/>
+      <c r="K125" s="109"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="108" t="s">
+      <c r="A126" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B126" s="109"/>
-      <c r="C126" s="109"/>
-      <c r="D126" s="109"/>
-      <c r="E126" s="109"/>
-      <c r="F126" s="109"/>
-      <c r="G126" s="109"/>
-      <c r="H126" s="109"/>
-      <c r="I126" s="109"/>
-      <c r="J126" s="109"/>
-      <c r="K126" s="110"/>
+      <c r="B126" s="111"/>
+      <c r="C126" s="111"/>
+      <c r="D126" s="111"/>
+      <c r="E126" s="111"/>
+      <c r="F126" s="111"/>
+      <c r="G126" s="111"/>
+      <c r="H126" s="111"/>
+      <c r="I126" s="111"/>
+      <c r="J126" s="111"/>
+      <c r="K126" s="112"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
@@ -5388,45 +5403,45 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="106"/>
-      <c r="B139" s="106"/>
-      <c r="C139" s="106"/>
-      <c r="D139" s="106"/>
-      <c r="E139" s="106"/>
-      <c r="F139" s="106"/>
-      <c r="G139" s="106"/>
-      <c r="H139" s="106"/>
-      <c r="I139" s="106"/>
-      <c r="J139" s="106"/>
-      <c r="K139" s="106"/>
+      <c r="A139" s="108"/>
+      <c r="B139" s="108"/>
+      <c r="C139" s="108"/>
+      <c r="D139" s="108"/>
+      <c r="E139" s="108"/>
+      <c r="F139" s="108"/>
+      <c r="G139" s="108"/>
+      <c r="H139" s="108"/>
+      <c r="I139" s="108"/>
+      <c r="J139" s="108"/>
+      <c r="K139" s="108"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="107"/>
-      <c r="B140" s="107"/>
-      <c r="C140" s="107"/>
-      <c r="D140" s="107"/>
-      <c r="E140" s="107"/>
-      <c r="F140" s="107"/>
-      <c r="G140" s="107"/>
-      <c r="H140" s="107"/>
-      <c r="I140" s="107"/>
-      <c r="J140" s="107"/>
-      <c r="K140" s="107"/>
+      <c r="A140" s="109"/>
+      <c r="B140" s="109"/>
+      <c r="C140" s="109"/>
+      <c r="D140" s="109"/>
+      <c r="E140" s="109"/>
+      <c r="F140" s="109"/>
+      <c r="G140" s="109"/>
+      <c r="H140" s="109"/>
+      <c r="I140" s="109"/>
+      <c r="J140" s="109"/>
+      <c r="K140" s="109"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="108" t="s">
+      <c r="A141" s="110" t="s">
         <v>49</v>
       </c>
-      <c r="B141" s="109"/>
-      <c r="C141" s="109"/>
-      <c r="D141" s="109"/>
-      <c r="E141" s="109"/>
-      <c r="F141" s="109"/>
-      <c r="G141" s="109"/>
-      <c r="H141" s="109"/>
-      <c r="I141" s="109"/>
-      <c r="J141" s="109"/>
-      <c r="K141" s="110"/>
+      <c r="B141" s="111"/>
+      <c r="C141" s="111"/>
+      <c r="D141" s="111"/>
+      <c r="E141" s="111"/>
+      <c r="F141" s="111"/>
+      <c r="G141" s="111"/>
+      <c r="H141" s="111"/>
+      <c r="I141" s="111"/>
+      <c r="J141" s="111"/>
+      <c r="K141" s="112"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
@@ -5839,45 +5854,45 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="106"/>
-      <c r="B156" s="106"/>
-      <c r="C156" s="106"/>
-      <c r="D156" s="106"/>
-      <c r="E156" s="106"/>
-      <c r="F156" s="106"/>
-      <c r="G156" s="106"/>
-      <c r="H156" s="106"/>
-      <c r="I156" s="106"/>
-      <c r="J156" s="106"/>
-      <c r="K156" s="106"/>
+      <c r="A156" s="108"/>
+      <c r="B156" s="108"/>
+      <c r="C156" s="108"/>
+      <c r="D156" s="108"/>
+      <c r="E156" s="108"/>
+      <c r="F156" s="108"/>
+      <c r="G156" s="108"/>
+      <c r="H156" s="108"/>
+      <c r="I156" s="108"/>
+      <c r="J156" s="108"/>
+      <c r="K156" s="108"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="107"/>
-      <c r="B157" s="107"/>
-      <c r="C157" s="107"/>
-      <c r="D157" s="107"/>
-      <c r="E157" s="107"/>
-      <c r="F157" s="107"/>
-      <c r="G157" s="107"/>
-      <c r="H157" s="107"/>
-      <c r="I157" s="107"/>
-      <c r="J157" s="107"/>
-      <c r="K157" s="107"/>
+      <c r="A157" s="109"/>
+      <c r="B157" s="109"/>
+      <c r="C157" s="109"/>
+      <c r="D157" s="109"/>
+      <c r="E157" s="109"/>
+      <c r="F157" s="109"/>
+      <c r="G157" s="109"/>
+      <c r="H157" s="109"/>
+      <c r="I157" s="109"/>
+      <c r="J157" s="109"/>
+      <c r="K157" s="109"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="108" t="s">
+      <c r="A158" s="110" t="s">
         <v>126</v>
       </c>
-      <c r="B158" s="109"/>
-      <c r="C158" s="109"/>
-      <c r="D158" s="109"/>
-      <c r="E158" s="109"/>
-      <c r="F158" s="109"/>
-      <c r="G158" s="109"/>
-      <c r="H158" s="109"/>
-      <c r="I158" s="109"/>
-      <c r="J158" s="109"/>
-      <c r="K158" s="110"/>
+      <c r="B158" s="111"/>
+      <c r="C158" s="111"/>
+      <c r="D158" s="111"/>
+      <c r="E158" s="111"/>
+      <c r="F158" s="111"/>
+      <c r="G158" s="111"/>
+      <c r="H158" s="111"/>
+      <c r="I158" s="111"/>
+      <c r="J158" s="111"/>
+      <c r="K158" s="112"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -6270,45 +6285,45 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="106"/>
-      <c r="B173" s="106"/>
-      <c r="C173" s="106"/>
-      <c r="D173" s="106"/>
-      <c r="E173" s="106"/>
-      <c r="F173" s="106"/>
-      <c r="G173" s="106"/>
-      <c r="H173" s="106"/>
-      <c r="I173" s="106"/>
-      <c r="J173" s="106"/>
-      <c r="K173" s="106"/>
+      <c r="A173" s="108"/>
+      <c r="B173" s="108"/>
+      <c r="C173" s="108"/>
+      <c r="D173" s="108"/>
+      <c r="E173" s="108"/>
+      <c r="F173" s="108"/>
+      <c r="G173" s="108"/>
+      <c r="H173" s="108"/>
+      <c r="I173" s="108"/>
+      <c r="J173" s="108"/>
+      <c r="K173" s="108"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="107"/>
-      <c r="B174" s="107"/>
-      <c r="C174" s="107"/>
-      <c r="D174" s="107"/>
-      <c r="E174" s="107"/>
-      <c r="F174" s="107"/>
-      <c r="G174" s="107"/>
-      <c r="H174" s="107"/>
-      <c r="I174" s="107"/>
-      <c r="J174" s="107"/>
-      <c r="K174" s="107"/>
+      <c r="A174" s="109"/>
+      <c r="B174" s="109"/>
+      <c r="C174" s="109"/>
+      <c r="D174" s="109"/>
+      <c r="E174" s="109"/>
+      <c r="F174" s="109"/>
+      <c r="G174" s="109"/>
+      <c r="H174" s="109"/>
+      <c r="I174" s="109"/>
+      <c r="J174" s="109"/>
+      <c r="K174" s="109"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="108" t="s">
+      <c r="A175" s="110" t="s">
         <v>134</v>
       </c>
-      <c r="B175" s="109"/>
-      <c r="C175" s="109"/>
-      <c r="D175" s="109"/>
-      <c r="E175" s="109"/>
-      <c r="F175" s="109"/>
-      <c r="G175" s="109"/>
-      <c r="H175" s="109"/>
-      <c r="I175" s="109"/>
-      <c r="J175" s="109"/>
-      <c r="K175" s="110"/>
+      <c r="B175" s="111"/>
+      <c r="C175" s="111"/>
+      <c r="D175" s="111"/>
+      <c r="E175" s="111"/>
+      <c r="F175" s="111"/>
+      <c r="G175" s="111"/>
+      <c r="H175" s="111"/>
+      <c r="I175" s="111"/>
+      <c r="J175" s="111"/>
+      <c r="K175" s="112"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
@@ -6522,45 +6537,45 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="106"/>
-      <c r="B183" s="106"/>
-      <c r="C183" s="106"/>
-      <c r="D183" s="106"/>
-      <c r="E183" s="106"/>
-      <c r="F183" s="106"/>
-      <c r="G183" s="106"/>
-      <c r="H183" s="106"/>
-      <c r="I183" s="106"/>
-      <c r="J183" s="106"/>
-      <c r="K183" s="106"/>
+      <c r="A183" s="108"/>
+      <c r="B183" s="108"/>
+      <c r="C183" s="108"/>
+      <c r="D183" s="108"/>
+      <c r="E183" s="108"/>
+      <c r="F183" s="108"/>
+      <c r="G183" s="108"/>
+      <c r="H183" s="108"/>
+      <c r="I183" s="108"/>
+      <c r="J183" s="108"/>
+      <c r="K183" s="108"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="107"/>
-      <c r="B184" s="107"/>
-      <c r="C184" s="107"/>
-      <c r="D184" s="107"/>
-      <c r="E184" s="107"/>
-      <c r="F184" s="107"/>
-      <c r="G184" s="107"/>
-      <c r="H184" s="107"/>
-      <c r="I184" s="107"/>
-      <c r="J184" s="107"/>
-      <c r="K184" s="107"/>
+      <c r="A184" s="109"/>
+      <c r="B184" s="109"/>
+      <c r="C184" s="109"/>
+      <c r="D184" s="109"/>
+      <c r="E184" s="109"/>
+      <c r="F184" s="109"/>
+      <c r="G184" s="109"/>
+      <c r="H184" s="109"/>
+      <c r="I184" s="109"/>
+      <c r="J184" s="109"/>
+      <c r="K184" s="109"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="108" t="s">
+      <c r="A185" s="110" t="s">
         <v>69</v>
       </c>
-      <c r="B185" s="109"/>
-      <c r="C185" s="109"/>
-      <c r="D185" s="109"/>
-      <c r="E185" s="109"/>
-      <c r="F185" s="109"/>
-      <c r="G185" s="109"/>
-      <c r="H185" s="109"/>
-      <c r="I185" s="109"/>
-      <c r="J185" s="109"/>
-      <c r="K185" s="110"/>
+      <c r="B185" s="111"/>
+      <c r="C185" s="111"/>
+      <c r="D185" s="111"/>
+      <c r="E185" s="111"/>
+      <c r="F185" s="111"/>
+      <c r="G185" s="111"/>
+      <c r="H185" s="111"/>
+      <c r="I185" s="111"/>
+      <c r="J185" s="111"/>
+      <c r="K185" s="112"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
@@ -6843,45 +6858,45 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="106"/>
-      <c r="B196" s="106"/>
-      <c r="C196" s="106"/>
-      <c r="D196" s="106"/>
-      <c r="E196" s="106"/>
-      <c r="F196" s="106"/>
-      <c r="G196" s="106"/>
-      <c r="H196" s="106"/>
-      <c r="I196" s="106"/>
-      <c r="J196" s="106"/>
-      <c r="K196" s="106"/>
+      <c r="A196" s="108"/>
+      <c r="B196" s="108"/>
+      <c r="C196" s="108"/>
+      <c r="D196" s="108"/>
+      <c r="E196" s="108"/>
+      <c r="F196" s="108"/>
+      <c r="G196" s="108"/>
+      <c r="H196" s="108"/>
+      <c r="I196" s="108"/>
+      <c r="J196" s="108"/>
+      <c r="K196" s="108"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="107"/>
-      <c r="B197" s="107"/>
-      <c r="C197" s="107"/>
-      <c r="D197" s="107"/>
-      <c r="E197" s="107"/>
-      <c r="F197" s="107"/>
-      <c r="G197" s="107"/>
-      <c r="H197" s="107"/>
-      <c r="I197" s="107"/>
-      <c r="J197" s="107"/>
-      <c r="K197" s="107"/>
+      <c r="A197" s="109"/>
+      <c r="B197" s="109"/>
+      <c r="C197" s="109"/>
+      <c r="D197" s="109"/>
+      <c r="E197" s="109"/>
+      <c r="F197" s="109"/>
+      <c r="G197" s="109"/>
+      <c r="H197" s="109"/>
+      <c r="I197" s="109"/>
+      <c r="J197" s="109"/>
+      <c r="K197" s="109"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="108" t="s">
+      <c r="A198" s="110" t="s">
         <v>75</v>
       </c>
-      <c r="B198" s="109"/>
-      <c r="C198" s="109"/>
-      <c r="D198" s="109"/>
-      <c r="E198" s="109"/>
-      <c r="F198" s="109"/>
-      <c r="G198" s="109"/>
-      <c r="H198" s="109"/>
-      <c r="I198" s="109"/>
-      <c r="J198" s="109"/>
-      <c r="K198" s="110"/>
+      <c r="B198" s="111"/>
+      <c r="C198" s="111"/>
+      <c r="D198" s="111"/>
+      <c r="E198" s="111"/>
+      <c r="F198" s="111"/>
+      <c r="G198" s="111"/>
+      <c r="H198" s="111"/>
+      <c r="I198" s="111"/>
+      <c r="J198" s="111"/>
+      <c r="K198" s="112"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
@@ -7149,45 +7164,45 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="106"/>
-      <c r="B208" s="106"/>
-      <c r="C208" s="106"/>
-      <c r="D208" s="106"/>
-      <c r="E208" s="106"/>
-      <c r="F208" s="106"/>
-      <c r="G208" s="106"/>
-      <c r="H208" s="106"/>
-      <c r="I208" s="106"/>
-      <c r="J208" s="106"/>
-      <c r="K208" s="106"/>
+      <c r="A208" s="108"/>
+      <c r="B208" s="108"/>
+      <c r="C208" s="108"/>
+      <c r="D208" s="108"/>
+      <c r="E208" s="108"/>
+      <c r="F208" s="108"/>
+      <c r="G208" s="108"/>
+      <c r="H208" s="108"/>
+      <c r="I208" s="108"/>
+      <c r="J208" s="108"/>
+      <c r="K208" s="108"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="107"/>
-      <c r="B209" s="107"/>
-      <c r="C209" s="107"/>
-      <c r="D209" s="107"/>
-      <c r="E209" s="107"/>
-      <c r="F209" s="107"/>
-      <c r="G209" s="107"/>
-      <c r="H209" s="107"/>
-      <c r="I209" s="107"/>
-      <c r="J209" s="107"/>
-      <c r="K209" s="107"/>
+      <c r="A209" s="109"/>
+      <c r="B209" s="109"/>
+      <c r="C209" s="109"/>
+      <c r="D209" s="109"/>
+      <c r="E209" s="109"/>
+      <c r="F209" s="109"/>
+      <c r="G209" s="109"/>
+      <c r="H209" s="109"/>
+      <c r="I209" s="109"/>
+      <c r="J209" s="109"/>
+      <c r="K209" s="109"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="108" t="s">
+      <c r="A210" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="B210" s="109"/>
-      <c r="C210" s="109"/>
-      <c r="D210" s="109"/>
-      <c r="E210" s="109"/>
-      <c r="F210" s="109"/>
-      <c r="G210" s="109"/>
-      <c r="H210" s="109"/>
-      <c r="I210" s="109"/>
-      <c r="J210" s="109"/>
-      <c r="K210" s="110"/>
+      <c r="B210" s="111"/>
+      <c r="C210" s="111"/>
+      <c r="D210" s="111"/>
+      <c r="E210" s="111"/>
+      <c r="F210" s="111"/>
+      <c r="G210" s="111"/>
+      <c r="H210" s="111"/>
+      <c r="I210" s="111"/>
+      <c r="J210" s="111"/>
+      <c r="K210" s="112"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -7457,45 +7472,45 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="106"/>
-      <c r="B220" s="106"/>
-      <c r="C220" s="106"/>
-      <c r="D220" s="106"/>
-      <c r="E220" s="106"/>
-      <c r="F220" s="106"/>
-      <c r="G220" s="106"/>
-      <c r="H220" s="106"/>
-      <c r="I220" s="106"/>
-      <c r="J220" s="106"/>
-      <c r="K220" s="106"/>
+      <c r="A220" s="108"/>
+      <c r="B220" s="108"/>
+      <c r="C220" s="108"/>
+      <c r="D220" s="108"/>
+      <c r="E220" s="108"/>
+      <c r="F220" s="108"/>
+      <c r="G220" s="108"/>
+      <c r="H220" s="108"/>
+      <c r="I220" s="108"/>
+      <c r="J220" s="108"/>
+      <c r="K220" s="108"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="107"/>
-      <c r="B221" s="107"/>
-      <c r="C221" s="107"/>
-      <c r="D221" s="107"/>
-      <c r="E221" s="107"/>
-      <c r="F221" s="107"/>
-      <c r="G221" s="107"/>
-      <c r="H221" s="107"/>
-      <c r="I221" s="107"/>
-      <c r="J221" s="107"/>
-      <c r="K221" s="107"/>
+      <c r="A221" s="109"/>
+      <c r="B221" s="109"/>
+      <c r="C221" s="109"/>
+      <c r="D221" s="109"/>
+      <c r="E221" s="109"/>
+      <c r="F221" s="109"/>
+      <c r="G221" s="109"/>
+      <c r="H221" s="109"/>
+      <c r="I221" s="109"/>
+      <c r="J221" s="109"/>
+      <c r="K221" s="109"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="108" t="s">
+      <c r="A222" s="110" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="109"/>
-      <c r="C222" s="109"/>
-      <c r="D222" s="109"/>
-      <c r="E222" s="109"/>
-      <c r="F222" s="109"/>
-      <c r="G222" s="109"/>
-      <c r="H222" s="109"/>
-      <c r="I222" s="109"/>
-      <c r="J222" s="109"/>
-      <c r="K222" s="110"/>
+      <c r="B222" s="111"/>
+      <c r="C222" s="111"/>
+      <c r="D222" s="111"/>
+      <c r="E222" s="111"/>
+      <c r="F222" s="111"/>
+      <c r="G222" s="111"/>
+      <c r="H222" s="111"/>
+      <c r="I222" s="111"/>
+      <c r="J222" s="111"/>
+      <c r="K222" s="112"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
@@ -7893,45 +7908,45 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="106"/>
-      <c r="B236" s="106"/>
-      <c r="C236" s="106"/>
-      <c r="D236" s="106"/>
-      <c r="E236" s="106"/>
-      <c r="F236" s="106"/>
-      <c r="G236" s="106"/>
-      <c r="H236" s="106"/>
-      <c r="I236" s="106"/>
-      <c r="J236" s="106"/>
-      <c r="K236" s="106"/>
+      <c r="A236" s="108"/>
+      <c r="B236" s="108"/>
+      <c r="C236" s="108"/>
+      <c r="D236" s="108"/>
+      <c r="E236" s="108"/>
+      <c r="F236" s="108"/>
+      <c r="G236" s="108"/>
+      <c r="H236" s="108"/>
+      <c r="I236" s="108"/>
+      <c r="J236" s="108"/>
+      <c r="K236" s="108"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="107"/>
-      <c r="B237" s="107"/>
-      <c r="C237" s="107"/>
-      <c r="D237" s="107"/>
-      <c r="E237" s="107"/>
-      <c r="F237" s="107"/>
-      <c r="G237" s="107"/>
-      <c r="H237" s="107"/>
-      <c r="I237" s="107"/>
-      <c r="J237" s="107"/>
-      <c r="K237" s="107"/>
+      <c r="A237" s="109"/>
+      <c r="B237" s="109"/>
+      <c r="C237" s="109"/>
+      <c r="D237" s="109"/>
+      <c r="E237" s="109"/>
+      <c r="F237" s="109"/>
+      <c r="G237" s="109"/>
+      <c r="H237" s="109"/>
+      <c r="I237" s="109"/>
+      <c r="J237" s="109"/>
+      <c r="K237" s="109"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="108" t="s">
+      <c r="A238" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="B238" s="109"/>
-      <c r="C238" s="109"/>
-      <c r="D238" s="109"/>
-      <c r="E238" s="109"/>
-      <c r="F238" s="109"/>
-      <c r="G238" s="109"/>
-      <c r="H238" s="109"/>
-      <c r="I238" s="109"/>
-      <c r="J238" s="109"/>
-      <c r="K238" s="110"/>
+      <c r="B238" s="111"/>
+      <c r="C238" s="111"/>
+      <c r="D238" s="111"/>
+      <c r="E238" s="111"/>
+      <c r="F238" s="111"/>
+      <c r="G238" s="111"/>
+      <c r="H238" s="111"/>
+      <c r="I238" s="111"/>
+      <c r="J238" s="111"/>
+      <c r="K238" s="112"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
@@ -8132,45 +8147,45 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="106"/>
-      <c r="B246" s="106"/>
-      <c r="C246" s="106"/>
-      <c r="D246" s="106"/>
-      <c r="E246" s="106"/>
-      <c r="F246" s="106"/>
-      <c r="G246" s="106"/>
-      <c r="H246" s="106"/>
-      <c r="I246" s="106"/>
-      <c r="J246" s="106"/>
-      <c r="K246" s="106"/>
+      <c r="A246" s="108"/>
+      <c r="B246" s="108"/>
+      <c r="C246" s="108"/>
+      <c r="D246" s="108"/>
+      <c r="E246" s="108"/>
+      <c r="F246" s="108"/>
+      <c r="G246" s="108"/>
+      <c r="H246" s="108"/>
+      <c r="I246" s="108"/>
+      <c r="J246" s="108"/>
+      <c r="K246" s="108"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="107"/>
-      <c r="B247" s="107"/>
-      <c r="C247" s="107"/>
-      <c r="D247" s="107"/>
-      <c r="E247" s="107"/>
-      <c r="F247" s="107"/>
-      <c r="G247" s="107"/>
-      <c r="H247" s="107"/>
-      <c r="I247" s="107"/>
-      <c r="J247" s="107"/>
-      <c r="K247" s="107"/>
+      <c r="A247" s="109"/>
+      <c r="B247" s="109"/>
+      <c r="C247" s="109"/>
+      <c r="D247" s="109"/>
+      <c r="E247" s="109"/>
+      <c r="F247" s="109"/>
+      <c r="G247" s="109"/>
+      <c r="H247" s="109"/>
+      <c r="I247" s="109"/>
+      <c r="J247" s="109"/>
+      <c r="K247" s="109"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="108" t="s">
+      <c r="A248" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="B248" s="109"/>
-      <c r="C248" s="109"/>
-      <c r="D248" s="109"/>
-      <c r="E248" s="109"/>
-      <c r="F248" s="109"/>
-      <c r="G248" s="109"/>
-      <c r="H248" s="109"/>
-      <c r="I248" s="109"/>
-      <c r="J248" s="109"/>
-      <c r="K248" s="110"/>
+      <c r="B248" s="111"/>
+      <c r="C248" s="111"/>
+      <c r="D248" s="111"/>
+      <c r="E248" s="111"/>
+      <c r="F248" s="111"/>
+      <c r="G248" s="111"/>
+      <c r="H248" s="111"/>
+      <c r="I248" s="111"/>
+      <c r="J248" s="111"/>
+      <c r="K248" s="112"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
@@ -8417,45 +8432,45 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="106"/>
-      <c r="B257" s="106"/>
-      <c r="C257" s="106"/>
-      <c r="D257" s="106"/>
-      <c r="E257" s="106"/>
-      <c r="F257" s="106"/>
-      <c r="G257" s="106"/>
-      <c r="H257" s="106"/>
-      <c r="I257" s="106"/>
-      <c r="J257" s="106"/>
-      <c r="K257" s="106"/>
+      <c r="A257" s="108"/>
+      <c r="B257" s="108"/>
+      <c r="C257" s="108"/>
+      <c r="D257" s="108"/>
+      <c r="E257" s="108"/>
+      <c r="F257" s="108"/>
+      <c r="G257" s="108"/>
+      <c r="H257" s="108"/>
+      <c r="I257" s="108"/>
+      <c r="J257" s="108"/>
+      <c r="K257" s="108"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="107"/>
-      <c r="B258" s="107"/>
-      <c r="C258" s="107"/>
-      <c r="D258" s="107"/>
-      <c r="E258" s="107"/>
-      <c r="F258" s="107"/>
-      <c r="G258" s="107"/>
-      <c r="H258" s="107"/>
-      <c r="I258" s="107"/>
-      <c r="J258" s="107"/>
-      <c r="K258" s="107"/>
+      <c r="A258" s="109"/>
+      <c r="B258" s="109"/>
+      <c r="C258" s="109"/>
+      <c r="D258" s="109"/>
+      <c r="E258" s="109"/>
+      <c r="F258" s="109"/>
+      <c r="G258" s="109"/>
+      <c r="H258" s="109"/>
+      <c r="I258" s="109"/>
+      <c r="J258" s="109"/>
+      <c r="K258" s="109"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="108" t="s">
+      <c r="A259" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="B259" s="109"/>
-      <c r="C259" s="109"/>
-      <c r="D259" s="109"/>
-      <c r="E259" s="109"/>
-      <c r="F259" s="109"/>
-      <c r="G259" s="109"/>
-      <c r="H259" s="109"/>
-      <c r="I259" s="109"/>
-      <c r="J259" s="109"/>
-      <c r="K259" s="110"/>
+      <c r="B259" s="111"/>
+      <c r="C259" s="111"/>
+      <c r="D259" s="111"/>
+      <c r="E259" s="111"/>
+      <c r="F259" s="111"/>
+      <c r="G259" s="111"/>
+      <c r="H259" s="111"/>
+      <c r="I259" s="111"/>
+      <c r="J259" s="111"/>
+      <c r="K259" s="112"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
@@ -8698,45 +8713,45 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="106"/>
-      <c r="B268" s="106"/>
-      <c r="C268" s="106"/>
-      <c r="D268" s="106"/>
-      <c r="E268" s="106"/>
-      <c r="F268" s="106"/>
-      <c r="G268" s="106"/>
-      <c r="H268" s="106"/>
-      <c r="I268" s="106"/>
-      <c r="J268" s="106"/>
-      <c r="K268" s="106"/>
+      <c r="A268" s="108"/>
+      <c r="B268" s="108"/>
+      <c r="C268" s="108"/>
+      <c r="D268" s="108"/>
+      <c r="E268" s="108"/>
+      <c r="F268" s="108"/>
+      <c r="G268" s="108"/>
+      <c r="H268" s="108"/>
+      <c r="I268" s="108"/>
+      <c r="J268" s="108"/>
+      <c r="K268" s="108"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="107"/>
-      <c r="B269" s="107"/>
-      <c r="C269" s="107"/>
-      <c r="D269" s="107"/>
-      <c r="E269" s="107"/>
-      <c r="F269" s="107"/>
-      <c r="G269" s="107"/>
-      <c r="H269" s="107"/>
-      <c r="I269" s="107"/>
-      <c r="J269" s="107"/>
-      <c r="K269" s="107"/>
+      <c r="A269" s="109"/>
+      <c r="B269" s="109"/>
+      <c r="C269" s="109"/>
+      <c r="D269" s="109"/>
+      <c r="E269" s="109"/>
+      <c r="F269" s="109"/>
+      <c r="G269" s="109"/>
+      <c r="H269" s="109"/>
+      <c r="I269" s="109"/>
+      <c r="J269" s="109"/>
+      <c r="K269" s="109"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="108" t="s">
+      <c r="A270" s="110" t="s">
         <v>238</v>
       </c>
-      <c r="B270" s="109"/>
-      <c r="C270" s="109"/>
-      <c r="D270" s="109"/>
-      <c r="E270" s="109"/>
-      <c r="F270" s="109"/>
-      <c r="G270" s="109"/>
-      <c r="H270" s="109"/>
-      <c r="I270" s="109"/>
-      <c r="J270" s="109"/>
-      <c r="K270" s="110"/>
+      <c r="B270" s="111"/>
+      <c r="C270" s="111"/>
+      <c r="D270" s="111"/>
+      <c r="E270" s="111"/>
+      <c r="F270" s="111"/>
+      <c r="G270" s="111"/>
+      <c r="H270" s="111"/>
+      <c r="I270" s="111"/>
+      <c r="J270" s="111"/>
+      <c r="K270" s="112"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
@@ -8919,45 +8934,45 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="106"/>
-      <c r="B277" s="106"/>
-      <c r="C277" s="106"/>
-      <c r="D277" s="106"/>
-      <c r="E277" s="106"/>
-      <c r="F277" s="106"/>
-      <c r="G277" s="106"/>
-      <c r="H277" s="106"/>
-      <c r="I277" s="106"/>
-      <c r="J277" s="106"/>
-      <c r="K277" s="106"/>
+      <c r="A277" s="108"/>
+      <c r="B277" s="108"/>
+      <c r="C277" s="108"/>
+      <c r="D277" s="108"/>
+      <c r="E277" s="108"/>
+      <c r="F277" s="108"/>
+      <c r="G277" s="108"/>
+      <c r="H277" s="108"/>
+      <c r="I277" s="108"/>
+      <c r="J277" s="108"/>
+      <c r="K277" s="108"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="107"/>
-      <c r="B278" s="107"/>
-      <c r="C278" s="107"/>
-      <c r="D278" s="107"/>
-      <c r="E278" s="107"/>
-      <c r="F278" s="107"/>
-      <c r="G278" s="107"/>
-      <c r="H278" s="107"/>
-      <c r="I278" s="107"/>
-      <c r="J278" s="107"/>
-      <c r="K278" s="107"/>
+      <c r="A278" s="109"/>
+      <c r="B278" s="109"/>
+      <c r="C278" s="109"/>
+      <c r="D278" s="109"/>
+      <c r="E278" s="109"/>
+      <c r="F278" s="109"/>
+      <c r="G278" s="109"/>
+      <c r="H278" s="109"/>
+      <c r="I278" s="109"/>
+      <c r="J278" s="109"/>
+      <c r="K278" s="109"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="108" t="s">
+      <c r="A279" s="110" t="s">
         <v>240</v>
       </c>
-      <c r="B279" s="109"/>
-      <c r="C279" s="109"/>
-      <c r="D279" s="109"/>
-      <c r="E279" s="109"/>
-      <c r="F279" s="109"/>
-      <c r="G279" s="109"/>
-      <c r="H279" s="109"/>
-      <c r="I279" s="109"/>
-      <c r="J279" s="109"/>
-      <c r="K279" s="110"/>
+      <c r="B279" s="111"/>
+      <c r="C279" s="111"/>
+      <c r="D279" s="111"/>
+      <c r="E279" s="111"/>
+      <c r="F279" s="111"/>
+      <c r="G279" s="111"/>
+      <c r="H279" s="111"/>
+      <c r="I279" s="111"/>
+      <c r="J279" s="111"/>
+      <c r="K279" s="112"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
@@ -9140,45 +9155,45 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="106"/>
-      <c r="B286" s="106"/>
-      <c r="C286" s="106"/>
-      <c r="D286" s="106"/>
-      <c r="E286" s="106"/>
-      <c r="F286" s="106"/>
-      <c r="G286" s="106"/>
-      <c r="H286" s="106"/>
-      <c r="I286" s="106"/>
-      <c r="J286" s="106"/>
-      <c r="K286" s="106"/>
+      <c r="A286" s="108"/>
+      <c r="B286" s="108"/>
+      <c r="C286" s="108"/>
+      <c r="D286" s="108"/>
+      <c r="E286" s="108"/>
+      <c r="F286" s="108"/>
+      <c r="G286" s="108"/>
+      <c r="H286" s="108"/>
+      <c r="I286" s="108"/>
+      <c r="J286" s="108"/>
+      <c r="K286" s="108"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="107"/>
-      <c r="B287" s="107"/>
-      <c r="C287" s="107"/>
-      <c r="D287" s="107"/>
-      <c r="E287" s="107"/>
-      <c r="F287" s="107"/>
-      <c r="G287" s="107"/>
-      <c r="H287" s="107"/>
-      <c r="I287" s="107"/>
-      <c r="J287" s="107"/>
-      <c r="K287" s="107"/>
+      <c r="A287" s="109"/>
+      <c r="B287" s="109"/>
+      <c r="C287" s="109"/>
+      <c r="D287" s="109"/>
+      <c r="E287" s="109"/>
+      <c r="F287" s="109"/>
+      <c r="G287" s="109"/>
+      <c r="H287" s="109"/>
+      <c r="I287" s="109"/>
+      <c r="J287" s="109"/>
+      <c r="K287" s="109"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="108" t="s">
+      <c r="A288" s="110" t="s">
         <v>242</v>
       </c>
-      <c r="B288" s="109"/>
-      <c r="C288" s="109"/>
-      <c r="D288" s="109"/>
-      <c r="E288" s="109"/>
-      <c r="F288" s="109"/>
-      <c r="G288" s="109"/>
-      <c r="H288" s="109"/>
-      <c r="I288" s="109"/>
-      <c r="J288" s="109"/>
-      <c r="K288" s="110"/>
+      <c r="B288" s="111"/>
+      <c r="C288" s="111"/>
+      <c r="D288" s="111"/>
+      <c r="E288" s="111"/>
+      <c r="F288" s="111"/>
+      <c r="G288" s="111"/>
+      <c r="H288" s="111"/>
+      <c r="I288" s="111"/>
+      <c r="J288" s="111"/>
+      <c r="K288" s="112"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
@@ -9361,45 +9376,45 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="106"/>
-      <c r="B295" s="106"/>
-      <c r="C295" s="106"/>
-      <c r="D295" s="106"/>
-      <c r="E295" s="106"/>
-      <c r="F295" s="106"/>
-      <c r="G295" s="106"/>
-      <c r="H295" s="106"/>
-      <c r="I295" s="106"/>
-      <c r="J295" s="106"/>
-      <c r="K295" s="106"/>
+      <c r="A295" s="108"/>
+      <c r="B295" s="108"/>
+      <c r="C295" s="108"/>
+      <c r="D295" s="108"/>
+      <c r="E295" s="108"/>
+      <c r="F295" s="108"/>
+      <c r="G295" s="108"/>
+      <c r="H295" s="108"/>
+      <c r="I295" s="108"/>
+      <c r="J295" s="108"/>
+      <c r="K295" s="108"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="107"/>
-      <c r="B296" s="107"/>
-      <c r="C296" s="107"/>
-      <c r="D296" s="107"/>
-      <c r="E296" s="107"/>
-      <c r="F296" s="107"/>
-      <c r="G296" s="107"/>
-      <c r="H296" s="107"/>
-      <c r="I296" s="107"/>
-      <c r="J296" s="107"/>
-      <c r="K296" s="107"/>
+      <c r="A296" s="109"/>
+      <c r="B296" s="109"/>
+      <c r="C296" s="109"/>
+      <c r="D296" s="109"/>
+      <c r="E296" s="109"/>
+      <c r="F296" s="109"/>
+      <c r="G296" s="109"/>
+      <c r="H296" s="109"/>
+      <c r="I296" s="109"/>
+      <c r="J296" s="109"/>
+      <c r="K296" s="109"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="108" t="s">
+      <c r="A297" s="110" t="s">
         <v>244</v>
       </c>
-      <c r="B297" s="109"/>
-      <c r="C297" s="109"/>
-      <c r="D297" s="109"/>
-      <c r="E297" s="109"/>
-      <c r="F297" s="109"/>
-      <c r="G297" s="109"/>
-      <c r="H297" s="109"/>
-      <c r="I297" s="109"/>
-      <c r="J297" s="109"/>
-      <c r="K297" s="110"/>
+      <c r="B297" s="111"/>
+      <c r="C297" s="111"/>
+      <c r="D297" s="111"/>
+      <c r="E297" s="111"/>
+      <c r="F297" s="111"/>
+      <c r="G297" s="111"/>
+      <c r="H297" s="111"/>
+      <c r="I297" s="111"/>
+      <c r="J297" s="111"/>
+      <c r="K297" s="112"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
@@ -9582,45 +9597,45 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="106"/>
-      <c r="B304" s="106"/>
-      <c r="C304" s="106"/>
-      <c r="D304" s="106"/>
-      <c r="E304" s="106"/>
-      <c r="F304" s="106"/>
-      <c r="G304" s="106"/>
-      <c r="H304" s="106"/>
-      <c r="I304" s="106"/>
-      <c r="J304" s="106"/>
-      <c r="K304" s="106"/>
+      <c r="A304" s="108"/>
+      <c r="B304" s="108"/>
+      <c r="C304" s="108"/>
+      <c r="D304" s="108"/>
+      <c r="E304" s="108"/>
+      <c r="F304" s="108"/>
+      <c r="G304" s="108"/>
+      <c r="H304" s="108"/>
+      <c r="I304" s="108"/>
+      <c r="J304" s="108"/>
+      <c r="K304" s="108"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="107"/>
-      <c r="B305" s="107"/>
-      <c r="C305" s="107"/>
-      <c r="D305" s="107"/>
-      <c r="E305" s="107"/>
-      <c r="F305" s="107"/>
-      <c r="G305" s="107"/>
-      <c r="H305" s="107"/>
-      <c r="I305" s="107"/>
-      <c r="J305" s="107"/>
-      <c r="K305" s="107"/>
+      <c r="A305" s="109"/>
+      <c r="B305" s="109"/>
+      <c r="C305" s="109"/>
+      <c r="D305" s="109"/>
+      <c r="E305" s="109"/>
+      <c r="F305" s="109"/>
+      <c r="G305" s="109"/>
+      <c r="H305" s="109"/>
+      <c r="I305" s="109"/>
+      <c r="J305" s="109"/>
+      <c r="K305" s="109"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="108" t="s">
+      <c r="A306" s="110" t="s">
         <v>211</v>
       </c>
-      <c r="B306" s="109"/>
-      <c r="C306" s="109"/>
-      <c r="D306" s="109"/>
-      <c r="E306" s="109"/>
-      <c r="F306" s="109"/>
-      <c r="G306" s="109"/>
-      <c r="H306" s="109"/>
-      <c r="I306" s="109"/>
-      <c r="J306" s="109"/>
-      <c r="K306" s="110"/>
+      <c r="B306" s="111"/>
+      <c r="C306" s="111"/>
+      <c r="D306" s="111"/>
+      <c r="E306" s="111"/>
+      <c r="F306" s="111"/>
+      <c r="G306" s="111"/>
+      <c r="H306" s="111"/>
+      <c r="I306" s="111"/>
+      <c r="J306" s="111"/>
+      <c r="K306" s="112"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
@@ -9919,45 +9934,45 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="106"/>
-      <c r="B318" s="106"/>
-      <c r="C318" s="106"/>
-      <c r="D318" s="106"/>
-      <c r="E318" s="106"/>
-      <c r="F318" s="106"/>
-      <c r="G318" s="106"/>
-      <c r="H318" s="106"/>
-      <c r="I318" s="106"/>
-      <c r="J318" s="106"/>
-      <c r="K318" s="106"/>
+      <c r="A318" s="108"/>
+      <c r="B318" s="108"/>
+      <c r="C318" s="108"/>
+      <c r="D318" s="108"/>
+      <c r="E318" s="108"/>
+      <c r="F318" s="108"/>
+      <c r="G318" s="108"/>
+      <c r="H318" s="108"/>
+      <c r="I318" s="108"/>
+      <c r="J318" s="108"/>
+      <c r="K318" s="108"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="107"/>
-      <c r="B319" s="107"/>
-      <c r="C319" s="107"/>
-      <c r="D319" s="107"/>
-      <c r="E319" s="107"/>
-      <c r="F319" s="107"/>
-      <c r="G319" s="107"/>
-      <c r="H319" s="107"/>
-      <c r="I319" s="107"/>
-      <c r="J319" s="107"/>
-      <c r="K319" s="107"/>
+      <c r="A319" s="109"/>
+      <c r="B319" s="109"/>
+      <c r="C319" s="109"/>
+      <c r="D319" s="109"/>
+      <c r="E319" s="109"/>
+      <c r="F319" s="109"/>
+      <c r="G319" s="109"/>
+      <c r="H319" s="109"/>
+      <c r="I319" s="109"/>
+      <c r="J319" s="109"/>
+      <c r="K319" s="109"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="108" t="s">
+      <c r="A320" s="110" t="s">
         <v>214</v>
       </c>
-      <c r="B320" s="109"/>
-      <c r="C320" s="109"/>
-      <c r="D320" s="109"/>
-      <c r="E320" s="109"/>
-      <c r="F320" s="109"/>
-      <c r="G320" s="109"/>
-      <c r="H320" s="109"/>
-      <c r="I320" s="109"/>
-      <c r="J320" s="109"/>
-      <c r="K320" s="110"/>
+      <c r="B320" s="111"/>
+      <c r="C320" s="111"/>
+      <c r="D320" s="111"/>
+      <c r="E320" s="111"/>
+      <c r="F320" s="111"/>
+      <c r="G320" s="111"/>
+      <c r="H320" s="111"/>
+      <c r="I320" s="111"/>
+      <c r="J320" s="111"/>
+      <c r="K320" s="112"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
@@ -10204,45 +10219,45 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="106"/>
-      <c r="B329" s="106"/>
-      <c r="C329" s="106"/>
-      <c r="D329" s="106"/>
-      <c r="E329" s="106"/>
-      <c r="F329" s="106"/>
-      <c r="G329" s="106"/>
-      <c r="H329" s="106"/>
-      <c r="I329" s="106"/>
-      <c r="J329" s="106"/>
-      <c r="K329" s="106"/>
+      <c r="A329" s="108"/>
+      <c r="B329" s="108"/>
+      <c r="C329" s="108"/>
+      <c r="D329" s="108"/>
+      <c r="E329" s="108"/>
+      <c r="F329" s="108"/>
+      <c r="G329" s="108"/>
+      <c r="H329" s="108"/>
+      <c r="I329" s="108"/>
+      <c r="J329" s="108"/>
+      <c r="K329" s="108"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="107"/>
-      <c r="B330" s="107"/>
-      <c r="C330" s="107"/>
-      <c r="D330" s="107"/>
-      <c r="E330" s="107"/>
-      <c r="F330" s="107"/>
-      <c r="G330" s="107"/>
-      <c r="H330" s="107"/>
-      <c r="I330" s="107"/>
-      <c r="J330" s="107"/>
-      <c r="K330" s="107"/>
+      <c r="A330" s="109"/>
+      <c r="B330" s="109"/>
+      <c r="C330" s="109"/>
+      <c r="D330" s="109"/>
+      <c r="E330" s="109"/>
+      <c r="F330" s="109"/>
+      <c r="G330" s="109"/>
+      <c r="H330" s="109"/>
+      <c r="I330" s="109"/>
+      <c r="J330" s="109"/>
+      <c r="K330" s="109"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="108" t="s">
+      <c r="A331" s="110" t="s">
         <v>223</v>
       </c>
-      <c r="B331" s="109"/>
-      <c r="C331" s="109"/>
-      <c r="D331" s="109"/>
-      <c r="E331" s="109"/>
-      <c r="F331" s="109"/>
-      <c r="G331" s="109"/>
-      <c r="H331" s="109"/>
-      <c r="I331" s="109"/>
-      <c r="J331" s="109"/>
-      <c r="K331" s="110"/>
+      <c r="B331" s="111"/>
+      <c r="C331" s="111"/>
+      <c r="D331" s="111"/>
+      <c r="E331" s="111"/>
+      <c r="F331" s="111"/>
+      <c r="G331" s="111"/>
+      <c r="H331" s="111"/>
+      <c r="I331" s="111"/>
+      <c r="J331" s="111"/>
+      <c r="K331" s="112"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
@@ -10485,45 +10500,45 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="106"/>
-      <c r="B340" s="106"/>
-      <c r="C340" s="106"/>
-      <c r="D340" s="106"/>
-      <c r="E340" s="106"/>
-      <c r="F340" s="106"/>
-      <c r="G340" s="106"/>
-      <c r="H340" s="106"/>
-      <c r="I340" s="106"/>
-      <c r="J340" s="106"/>
-      <c r="K340" s="106"/>
+      <c r="A340" s="108"/>
+      <c r="B340" s="108"/>
+      <c r="C340" s="108"/>
+      <c r="D340" s="108"/>
+      <c r="E340" s="108"/>
+      <c r="F340" s="108"/>
+      <c r="G340" s="108"/>
+      <c r="H340" s="108"/>
+      <c r="I340" s="108"/>
+      <c r="J340" s="108"/>
+      <c r="K340" s="108"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="107"/>
-      <c r="B341" s="107"/>
-      <c r="C341" s="107"/>
-      <c r="D341" s="107"/>
-      <c r="E341" s="107"/>
-      <c r="F341" s="107"/>
-      <c r="G341" s="107"/>
-      <c r="H341" s="107"/>
-      <c r="I341" s="107"/>
-      <c r="J341" s="107"/>
-      <c r="K341" s="107"/>
+      <c r="A341" s="109"/>
+      <c r="B341" s="109"/>
+      <c r="C341" s="109"/>
+      <c r="D341" s="109"/>
+      <c r="E341" s="109"/>
+      <c r="F341" s="109"/>
+      <c r="G341" s="109"/>
+      <c r="H341" s="109"/>
+      <c r="I341" s="109"/>
+      <c r="J341" s="109"/>
+      <c r="K341" s="109"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="108" t="s">
+      <c r="A342" s="110" t="s">
         <v>234</v>
       </c>
-      <c r="B342" s="109"/>
-      <c r="C342" s="109"/>
-      <c r="D342" s="109"/>
-      <c r="E342" s="109"/>
-      <c r="F342" s="109"/>
-      <c r="G342" s="109"/>
-      <c r="H342" s="109"/>
-      <c r="I342" s="109"/>
-      <c r="J342" s="109"/>
-      <c r="K342" s="110"/>
+      <c r="B342" s="111"/>
+      <c r="C342" s="111"/>
+      <c r="D342" s="111"/>
+      <c r="E342" s="111"/>
+      <c r="F342" s="111"/>
+      <c r="G342" s="111"/>
+      <c r="H342" s="111"/>
+      <c r="I342" s="111"/>
+      <c r="J342" s="111"/>
+      <c r="K342" s="112"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
@@ -10758,45 +10773,45 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="106"/>
-      <c r="B351" s="106"/>
-      <c r="C351" s="106"/>
-      <c r="D351" s="106"/>
-      <c r="E351" s="106"/>
-      <c r="F351" s="106"/>
-      <c r="G351" s="106"/>
-      <c r="H351" s="106"/>
-      <c r="I351" s="106"/>
-      <c r="J351" s="106"/>
-      <c r="K351" s="106"/>
+      <c r="A351" s="108"/>
+      <c r="B351" s="108"/>
+      <c r="C351" s="108"/>
+      <c r="D351" s="108"/>
+      <c r="E351" s="108"/>
+      <c r="F351" s="108"/>
+      <c r="G351" s="108"/>
+      <c r="H351" s="108"/>
+      <c r="I351" s="108"/>
+      <c r="J351" s="108"/>
+      <c r="K351" s="108"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="107"/>
-      <c r="B352" s="107"/>
-      <c r="C352" s="107"/>
-      <c r="D352" s="107"/>
-      <c r="E352" s="107"/>
-      <c r="F352" s="107"/>
-      <c r="G352" s="107"/>
-      <c r="H352" s="107"/>
-      <c r="I352" s="107"/>
-      <c r="J352" s="107"/>
-      <c r="K352" s="107"/>
+      <c r="A352" s="109"/>
+      <c r="B352" s="109"/>
+      <c r="C352" s="109"/>
+      <c r="D352" s="109"/>
+      <c r="E352" s="109"/>
+      <c r="F352" s="109"/>
+      <c r="G352" s="109"/>
+      <c r="H352" s="109"/>
+      <c r="I352" s="109"/>
+      <c r="J352" s="109"/>
+      <c r="K352" s="109"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="108" t="s">
+      <c r="A353" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="B353" s="109"/>
-      <c r="C353" s="109"/>
-      <c r="D353" s="109"/>
-      <c r="E353" s="109"/>
-      <c r="F353" s="109"/>
-      <c r="G353" s="109"/>
-      <c r="H353" s="109"/>
-      <c r="I353" s="109"/>
-      <c r="J353" s="109"/>
-      <c r="K353" s="110"/>
+      <c r="B353" s="111"/>
+      <c r="C353" s="111"/>
+      <c r="D353" s="111"/>
+      <c r="E353" s="111"/>
+      <c r="F353" s="111"/>
+      <c r="G353" s="111"/>
+      <c r="H353" s="111"/>
+      <c r="I353" s="111"/>
+      <c r="J353" s="111"/>
+      <c r="K353" s="112"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
@@ -10997,11 +11012,11 @@
       <c r="H360" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I360" s="101"/>
-      <c r="J360" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="K360" s="14" t="s">
+      <c r="I360" s="100"/>
+      <c r="J360" s="100" t="s">
+        <v>12</v>
+      </c>
+      <c r="K360" s="9" t="s">
         <v>302</v>
       </c>
     </row>
@@ -11026,8 +11041,8 @@
       <c r="H361" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I361" s="91"/>
-      <c r="J361" s="91"/>
+      <c r="I361" s="90"/>
+      <c r="J361" s="90"/>
       <c r="K361" s="9"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
@@ -11116,45 +11131,45 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="106"/>
-      <c r="B365" s="106"/>
-      <c r="C365" s="106"/>
-      <c r="D365" s="106"/>
-      <c r="E365" s="106"/>
-      <c r="F365" s="106"/>
-      <c r="G365" s="106"/>
-      <c r="H365" s="106"/>
-      <c r="I365" s="106"/>
-      <c r="J365" s="106"/>
-      <c r="K365" s="106"/>
+      <c r="A365" s="108"/>
+      <c r="B365" s="108"/>
+      <c r="C365" s="108"/>
+      <c r="D365" s="108"/>
+      <c r="E365" s="108"/>
+      <c r="F365" s="108"/>
+      <c r="G365" s="108"/>
+      <c r="H365" s="108"/>
+      <c r="I365" s="108"/>
+      <c r="J365" s="108"/>
+      <c r="K365" s="108"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="107"/>
-      <c r="B366" s="107"/>
-      <c r="C366" s="107"/>
-      <c r="D366" s="107"/>
-      <c r="E366" s="107"/>
-      <c r="F366" s="107"/>
-      <c r="G366" s="107"/>
-      <c r="H366" s="107"/>
-      <c r="I366" s="107"/>
-      <c r="J366" s="107"/>
-      <c r="K366" s="107"/>
+      <c r="A366" s="109"/>
+      <c r="B366" s="109"/>
+      <c r="C366" s="109"/>
+      <c r="D366" s="109"/>
+      <c r="E366" s="109"/>
+      <c r="F366" s="109"/>
+      <c r="G366" s="109"/>
+      <c r="H366" s="109"/>
+      <c r="I366" s="109"/>
+      <c r="J366" s="109"/>
+      <c r="K366" s="109"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="108" t="s">
+      <c r="A367" s="110" t="s">
         <v>275</v>
       </c>
-      <c r="B367" s="109"/>
-      <c r="C367" s="109"/>
-      <c r="D367" s="109"/>
-      <c r="E367" s="109"/>
-      <c r="F367" s="109"/>
-      <c r="G367" s="109"/>
-      <c r="H367" s="109"/>
-      <c r="I367" s="109"/>
-      <c r="J367" s="109"/>
-      <c r="K367" s="110"/>
+      <c r="B367" s="111"/>
+      <c r="C367" s="111"/>
+      <c r="D367" s="111"/>
+      <c r="E367" s="111"/>
+      <c r="F367" s="111"/>
+      <c r="G367" s="111"/>
+      <c r="H367" s="111"/>
+      <c r="I367" s="111"/>
+      <c r="J367" s="111"/>
+      <c r="K367" s="112"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="20" t="s">
@@ -11247,8 +11262,8 @@
       <c r="H370" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I370" s="91"/>
-      <c r="J370" s="91" t="s">
+      <c r="I370" s="90"/>
+      <c r="J370" s="90" t="s">
         <v>12</v>
       </c>
       <c r="K370" s="9"/>
@@ -11272,8 +11287,8 @@
       </c>
       <c r="G371" s="7"/>
       <c r="H371" s="7"/>
-      <c r="I371" s="91"/>
-      <c r="J371" s="91" t="s">
+      <c r="I371" s="90"/>
+      <c r="J371" s="90" t="s">
         <v>12</v>
       </c>
       <c r="K371" s="9"/>
@@ -11295,8 +11310,8 @@
       </c>
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
-      <c r="I372" s="91"/>
-      <c r="J372" s="91" t="s">
+      <c r="I372" s="90"/>
+      <c r="J372" s="90" t="s">
         <v>12</v>
       </c>
       <c r="K372" s="9"/>
@@ -11322,8 +11337,8 @@
       <c r="H373" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I373" s="91"/>
-      <c r="J373" s="91"/>
+      <c r="I373" s="90"/>
+      <c r="J373" s="90"/>
       <c r="K373" s="9" t="s">
         <v>16</v>
       </c>
@@ -11349,164 +11364,162 @@
       <c r="H374" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I374" s="91"/>
-      <c r="J374" s="91"/>
+      <c r="I374" s="90"/>
+      <c r="J374" s="90"/>
       <c r="K374" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="41">
+      <c r="A375" s="108"/>
+      <c r="B375" s="108"/>
+      <c r="C375" s="108"/>
+      <c r="D375" s="108"/>
+      <c r="E375" s="108"/>
+      <c r="F375" s="108"/>
+      <c r="G375" s="108"/>
+      <c r="H375" s="108"/>
+      <c r="I375" s="108"/>
+      <c r="J375" s="108"/>
+      <c r="K375" s="108"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="109"/>
+      <c r="B376" s="109"/>
+      <c r="C376" s="109"/>
+      <c r="D376" s="109"/>
+      <c r="E376" s="109"/>
+      <c r="F376" s="109"/>
+      <c r="G376" s="109"/>
+      <c r="H376" s="109"/>
+      <c r="I376" s="109"/>
+      <c r="J376" s="109"/>
+      <c r="K376" s="109"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="110" t="s">
+        <v>309</v>
+      </c>
+      <c r="B377" s="111"/>
+      <c r="C377" s="111"/>
+      <c r="D377" s="111"/>
+      <c r="E377" s="111"/>
+      <c r="F377" s="111"/>
+      <c r="G377" s="111"/>
+      <c r="H377" s="111"/>
+      <c r="I377" s="111"/>
+      <c r="J377" s="111"/>
+      <c r="K377" s="112"/>
+    </row>
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A378" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B378" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C378" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D378" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B375" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C375" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D375" s="13">
-        <v>1</v>
-      </c>
-      <c r="E375" s="13">
-        <v>0</v>
-      </c>
-      <c r="F375" s="13">
-        <v>1</v>
-      </c>
-      <c r="G375" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H375" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I375" s="90"/>
-      <c r="J375" s="90"/>
-      <c r="K375" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="111"/>
-      <c r="B376" s="111"/>
-      <c r="C376" s="111"/>
-      <c r="D376" s="111"/>
-      <c r="E376" s="111"/>
-      <c r="F376" s="111"/>
-      <c r="G376" s="111"/>
-      <c r="H376" s="111"/>
-      <c r="I376" s="111"/>
-      <c r="J376" s="111"/>
-      <c r="K376" s="111"/>
-    </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="107"/>
-      <c r="B377" s="107"/>
-      <c r="C377" s="107"/>
-      <c r="D377" s="107"/>
-      <c r="E377" s="107"/>
-      <c r="F377" s="107"/>
-      <c r="G377" s="107"/>
-      <c r="H377" s="107"/>
-      <c r="I377" s="107"/>
-      <c r="J377" s="107"/>
-      <c r="K377" s="107"/>
-    </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A378" s="108" t="s">
-        <v>182</v>
-      </c>
-      <c r="B378" s="109"/>
-      <c r="C378" s="109"/>
-      <c r="D378" s="109"/>
-      <c r="E378" s="109"/>
-      <c r="F378" s="109"/>
-      <c r="G378" s="109"/>
-      <c r="H378" s="109"/>
-      <c r="I378" s="109"/>
-      <c r="J378" s="109"/>
-      <c r="K378" s="110"/>
+      <c r="E378" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F378" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G378" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H378" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I378" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J378" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K378" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A379" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B379" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C379" s="19" t="s">
+      <c r="A379" s="39">
+        <v>1</v>
+      </c>
+      <c r="B379" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C379" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D379" s="5">
+        <v>20</v>
+      </c>
+      <c r="E379" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G379" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H379" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I379" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="J379" s="105"/>
+      <c r="K379" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="40">
         <v>2</v>
       </c>
-      <c r="D379" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E379" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F379" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G379" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H379" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I379" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J379" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K379" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A380" s="39">
-        <v>1</v>
-      </c>
-      <c r="B380" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C380" s="5" t="s">
+      <c r="B380" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C380" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D380" s="5">
+      <c r="D380" s="7">
         <v>20</v>
       </c>
-      <c r="E380" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F380" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G380" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H380" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I380" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="J380" s="50"/>
-      <c r="K380" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="E380" s="7"/>
+      <c r="F380" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G380" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H380" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I380" s="107"/>
+      <c r="J380" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="K380" s="9"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>183</v>
+        <v>311</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>116</v>
+        <v>9</v>
       </c>
       <c r="D381" s="7">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E381" s="7"/>
       <c r="F381" s="7" t="s">
@@ -11518,2332 +11531,2535 @@
       <c r="H381" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I381" s="7"/>
-      <c r="J381" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K381" s="9" t="s">
-        <v>184</v>
-      </c>
+      <c r="I381" s="107"/>
+      <c r="J381" s="107" t="s">
+        <v>12</v>
+      </c>
+      <c r="K381" s="9"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
+        <v>4</v>
+      </c>
+      <c r="B382" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C382" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D382" s="7"/>
+      <c r="E382" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F382" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G382" s="7"/>
+      <c r="H382" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I382" s="107"/>
+      <c r="J382" s="107"/>
+      <c r="K382" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A383" s="41">
+        <v>5</v>
+      </c>
+      <c r="B383" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C383" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D383" s="13"/>
+      <c r="E383" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F383" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G383" s="13"/>
+      <c r="H383" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I383" s="106"/>
+      <c r="J383" s="106"/>
+      <c r="K383" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A384" s="117"/>
+      <c r="B384" s="117"/>
+      <c r="C384" s="117"/>
+      <c r="D384" s="117"/>
+      <c r="E384" s="117"/>
+      <c r="F384" s="117"/>
+      <c r="G384" s="117"/>
+      <c r="H384" s="117"/>
+      <c r="I384" s="117"/>
+      <c r="J384" s="117"/>
+      <c r="K384" s="117"/>
+    </row>
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A385" s="109"/>
+      <c r="B385" s="109"/>
+      <c r="C385" s="109"/>
+      <c r="D385" s="109"/>
+      <c r="E385" s="109"/>
+      <c r="F385" s="109"/>
+      <c r="G385" s="109"/>
+      <c r="H385" s="109"/>
+      <c r="I385" s="109"/>
+      <c r="J385" s="109"/>
+      <c r="K385" s="109"/>
+    </row>
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A386" s="110" t="s">
+        <v>182</v>
+      </c>
+      <c r="B386" s="111"/>
+      <c r="C386" s="111"/>
+      <c r="D386" s="111"/>
+      <c r="E386" s="111"/>
+      <c r="F386" s="111"/>
+      <c r="G386" s="111"/>
+      <c r="H386" s="111"/>
+      <c r="I386" s="111"/>
+      <c r="J386" s="111"/>
+      <c r="K386" s="112"/>
+    </row>
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A387" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B387" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C387" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D387" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E387" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F387" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G387" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B382" s="7" t="s">
+      <c r="H387" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I387" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J387" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K387" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A388" s="39">
+        <v>1</v>
+      </c>
+      <c r="B388" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C388" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D388" s="5">
+        <v>20</v>
+      </c>
+      <c r="E388" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G388" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H388" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I388" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="J388" s="50"/>
+      <c r="K388" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A389" s="40">
+        <v>2</v>
+      </c>
+      <c r="B389" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C389" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D389" s="7">
+        <v>20</v>
+      </c>
+      <c r="E389" s="7"/>
+      <c r="F389" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G389" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H389" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I389" s="7"/>
+      <c r="J389" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K389" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A390" s="40">
+        <v>3</v>
+      </c>
+      <c r="B390" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C382" s="7" t="s">
+      <c r="C390" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D382" s="7">
-        <v>1</v>
-      </c>
-      <c r="E382" s="7"/>
-      <c r="F382" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G382" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H382" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I382" s="7"/>
-      <c r="J382" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K382" s="9" t="s">
+      <c r="D390" s="7">
+        <v>1</v>
+      </c>
+      <c r="E390" s="7"/>
+      <c r="F390" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G390" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H390" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I390" s="7"/>
+      <c r="J390" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K390" s="9" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A383" s="40">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A391" s="40">
         <v>4</v>
       </c>
-      <c r="B383" s="7" t="s">
+      <c r="B391" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C383" s="7" t="s">
+      <c r="C391" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D383" s="7"/>
-      <c r="E383" s="7"/>
-      <c r="F383" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G383" s="7"/>
-      <c r="H383" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I383" s="7"/>
-      <c r="J383" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="K383" s="9"/>
-    </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="40">
+      <c r="D391" s="7"/>
+      <c r="E391" s="7"/>
+      <c r="F391" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G391" s="7"/>
+      <c r="H391" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I391" s="7"/>
+      <c r="J391" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="K391" s="9"/>
+    </row>
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A392" s="40">
         <v>5</v>
       </c>
-      <c r="B384" s="7" t="s">
+      <c r="B392" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C384" s="7" t="s">
+      <c r="C392" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D384" s="7">
-        <v>1</v>
-      </c>
-      <c r="E384" s="7"/>
-      <c r="F384" s="7">
-        <v>0</v>
-      </c>
-      <c r="G384" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H384" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I384" s="7"/>
-      <c r="J384" s="52"/>
-      <c r="K384" s="9" t="s">
+      <c r="D392" s="7">
+        <v>1</v>
+      </c>
+      <c r="E392" s="7"/>
+      <c r="F392" s="7">
+        <v>0</v>
+      </c>
+      <c r="G392" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H392" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I392" s="7"/>
+      <c r="J392" s="52"/>
+      <c r="K392" s="9" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="40">
-        <v>6</v>
-      </c>
-      <c r="B385" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D385" s="7"/>
-      <c r="E385" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F385" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G385" s="7"/>
-      <c r="H385" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I385" s="52"/>
-      <c r="J385" s="52"/>
-      <c r="K385" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="40">
-        <v>7</v>
-      </c>
-      <c r="B386" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C386" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D386" s="7"/>
-      <c r="E386" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F386" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G386" s="7"/>
-      <c r="H386" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I386" s="52"/>
-      <c r="J386" s="52"/>
-      <c r="K386" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" s="41">
-        <v>8</v>
-      </c>
-      <c r="B387" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C387" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D387" s="13">
-        <v>1</v>
-      </c>
-      <c r="E387" s="13">
-        <v>0</v>
-      </c>
-      <c r="F387" s="13">
-        <v>1</v>
-      </c>
-      <c r="G387" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H387" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I387" s="51"/>
-      <c r="J387" s="51"/>
-      <c r="K387" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" s="106"/>
-      <c r="B388" s="106"/>
-      <c r="C388" s="106"/>
-      <c r="D388" s="106"/>
-      <c r="E388" s="106"/>
-      <c r="F388" s="106"/>
-      <c r="G388" s="106"/>
-      <c r="H388" s="106"/>
-      <c r="I388" s="106"/>
-      <c r="J388" s="106"/>
-      <c r="K388" s="106"/>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" s="107"/>
-      <c r="B389" s="107"/>
-      <c r="C389" s="107"/>
-      <c r="D389" s="107"/>
-      <c r="E389" s="107"/>
-      <c r="F389" s="107"/>
-      <c r="G389" s="107"/>
-      <c r="H389" s="107"/>
-      <c r="I389" s="107"/>
-      <c r="J389" s="107"/>
-      <c r="K389" s="107"/>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" s="108" t="s">
-        <v>256</v>
-      </c>
-      <c r="B390" s="109"/>
-      <c r="C390" s="109"/>
-      <c r="D390" s="109"/>
-      <c r="E390" s="109"/>
-      <c r="F390" s="109"/>
-      <c r="G390" s="109"/>
-      <c r="H390" s="109"/>
-      <c r="I390" s="109"/>
-      <c r="J390" s="109"/>
-      <c r="K390" s="110"/>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B391" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C391" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D391" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E391" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F391" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G391" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H391" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I391" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J391" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K391" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" s="39">
-        <v>1</v>
-      </c>
-      <c r="B392" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C392" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D392" s="5">
-        <v>10</v>
-      </c>
-      <c r="E392" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F392" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G392" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H392" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I392" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J392" s="83"/>
-      <c r="K392" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B393" s="7" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="C393" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D393" s="7">
-        <v>100</v>
-      </c>
-      <c r="E393" s="7"/>
-      <c r="F393" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D393" s="7"/>
+      <c r="E393" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F393" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G393" s="7"/>
       <c r="H393" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I393" s="85"/>
-      <c r="J393" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K393" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I393" s="52"/>
+      <c r="J393" s="52"/>
+      <c r="K393" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B394" s="7" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="C394" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D394" s="7">
-        <v>100</v>
-      </c>
-      <c r="E394" s="7"/>
-      <c r="F394" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D394" s="7"/>
+      <c r="E394" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F394" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G394" s="7"/>
       <c r="H394" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I394" s="85"/>
-      <c r="J394" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K394" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I394" s="52"/>
+      <c r="J394" s="52"/>
+      <c r="K394" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A395" s="40">
+      <c r="A395" s="41">
+        <v>8</v>
+      </c>
+      <c r="B395" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C395" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D395" s="13">
+        <v>1</v>
+      </c>
+      <c r="E395" s="13">
+        <v>0</v>
+      </c>
+      <c r="F395" s="13">
+        <v>1</v>
+      </c>
+      <c r="G395" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H395" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I395" s="51"/>
+      <c r="J395" s="51"/>
+      <c r="K395" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A396" s="108"/>
+      <c r="B396" s="108"/>
+      <c r="C396" s="108"/>
+      <c r="D396" s="108"/>
+      <c r="E396" s="108"/>
+      <c r="F396" s="108"/>
+      <c r="G396" s="108"/>
+      <c r="H396" s="108"/>
+      <c r="I396" s="108"/>
+      <c r="J396" s="108"/>
+      <c r="K396" s="108"/>
+    </row>
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A397" s="109"/>
+      <c r="B397" s="109"/>
+      <c r="C397" s="109"/>
+      <c r="D397" s="109"/>
+      <c r="E397" s="109"/>
+      <c r="F397" s="109"/>
+      <c r="G397" s="109"/>
+      <c r="H397" s="109"/>
+      <c r="I397" s="109"/>
+      <c r="J397" s="109"/>
+      <c r="K397" s="109"/>
+    </row>
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A398" s="110" t="s">
+        <v>256</v>
+      </c>
+      <c r="B398" s="111"/>
+      <c r="C398" s="111"/>
+      <c r="D398" s="111"/>
+      <c r="E398" s="111"/>
+      <c r="F398" s="111"/>
+      <c r="G398" s="111"/>
+      <c r="H398" s="111"/>
+      <c r="I398" s="111"/>
+      <c r="J398" s="111"/>
+      <c r="K398" s="112"/>
+    </row>
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A399" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B399" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C399" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D399" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E399" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F399" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G399" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H399" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B395" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C395" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D395" s="7"/>
-      <c r="E395" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F395" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G395" s="7"/>
-      <c r="H395" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I395" s="85"/>
-      <c r="J395" s="85"/>
-      <c r="K395" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="40">
-        <v>5</v>
-      </c>
-      <c r="B396" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C396" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D396" s="7"/>
-      <c r="E396" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F396" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G396" s="7"/>
-      <c r="H396" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I396" s="85"/>
-      <c r="J396" s="85"/>
-      <c r="K396" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="41">
+      <c r="I399" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B397" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C397" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D397" s="13">
-        <v>1</v>
-      </c>
-      <c r="E397" s="13">
-        <v>0</v>
-      </c>
-      <c r="F397" s="13">
-        <v>1</v>
-      </c>
-      <c r="G397" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H397" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I397" s="84"/>
-      <c r="J397" s="84"/>
-      <c r="K397" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="106"/>
-      <c r="B398" s="106"/>
-      <c r="C398" s="106"/>
-      <c r="D398" s="106"/>
-      <c r="E398" s="106"/>
-      <c r="F398" s="106"/>
-      <c r="G398" s="106"/>
-      <c r="H398" s="106"/>
-      <c r="I398" s="106"/>
-      <c r="J398" s="106"/>
-      <c r="K398" s="106"/>
-    </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A399" s="107"/>
-      <c r="B399" s="107"/>
-      <c r="C399" s="107"/>
-      <c r="D399" s="107"/>
-      <c r="E399" s="107"/>
-      <c r="F399" s="107"/>
-      <c r="G399" s="107"/>
-      <c r="H399" s="107"/>
-      <c r="I399" s="107"/>
-      <c r="J399" s="107"/>
-      <c r="K399" s="107"/>
+      <c r="J399" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K399" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A400" s="108" t="s">
-        <v>262</v>
-      </c>
-      <c r="B400" s="109"/>
-      <c r="C400" s="109"/>
-      <c r="D400" s="109"/>
-      <c r="E400" s="109"/>
-      <c r="F400" s="109"/>
-      <c r="G400" s="109"/>
-      <c r="H400" s="109"/>
-      <c r="I400" s="109"/>
-      <c r="J400" s="109"/>
-      <c r="K400" s="110"/>
+      <c r="A400" s="39">
+        <v>1</v>
+      </c>
+      <c r="B400" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C400" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D400" s="5">
+        <v>10</v>
+      </c>
+      <c r="E400" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G400" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H400" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I400" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J400" s="83"/>
+      <c r="K400" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A401" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B401" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C401" s="19" t="s">
+      <c r="A401" s="40">
         <v>2</v>
       </c>
-      <c r="D401" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E401" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F401" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G401" s="19" t="s">
+      <c r="B401" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C401" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D401" s="7">
+        <v>100</v>
+      </c>
+      <c r="E401" s="7"/>
+      <c r="F401" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G401" s="7"/>
+      <c r="H401" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I401" s="85"/>
+      <c r="J401" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K401" s="9"/>
+    </row>
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A402" s="40">
         <v>3</v>
       </c>
-      <c r="H401" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I401" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J401" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K401" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A402" s="39">
-        <v>1</v>
-      </c>
-      <c r="B402" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C402" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D402" s="5">
-        <v>10</v>
-      </c>
-      <c r="E402" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F402" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G402" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H402" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I402" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J402" s="83"/>
-      <c r="K402" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B402" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C402" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D402" s="7">
+        <v>100</v>
+      </c>
+      <c r="E402" s="7"/>
+      <c r="F402" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G402" s="7"/>
+      <c r="H402" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I402" s="85"/>
+      <c r="J402" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K402" s="9"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>264</v>
+        <v>23</v>
       </c>
       <c r="C403" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D403" s="7">
-        <v>100</v>
-      </c>
-      <c r="E403" s="7"/>
-      <c r="F403" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D403" s="7"/>
+      <c r="E403" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F403" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G403" s="7"/>
       <c r="H403" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I403" s="85"/>
-      <c r="J403" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K403" s="9"/>
+      <c r="J403" s="85"/>
+      <c r="K403" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B404" s="7" t="s">
-        <v>263</v>
+        <v>24</v>
       </c>
       <c r="C404" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D404" s="7">
-        <v>100</v>
-      </c>
-      <c r="E404" s="7"/>
-      <c r="F404" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D404" s="7"/>
+      <c r="E404" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F404" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G404" s="7"/>
       <c r="H404" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I404" s="85"/>
-      <c r="J404" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K404" s="9"/>
+      <c r="J404" s="85"/>
+      <c r="K404" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="40">
+      <c r="A405" s="41">
+        <v>6</v>
+      </c>
+      <c r="B405" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C405" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D405" s="13">
+        <v>1</v>
+      </c>
+      <c r="E405" s="13">
+        <v>0</v>
+      </c>
+      <c r="F405" s="13">
+        <v>1</v>
+      </c>
+      <c r="G405" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H405" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I405" s="84"/>
+      <c r="J405" s="84"/>
+      <c r="K405" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" s="108"/>
+      <c r="B406" s="108"/>
+      <c r="C406" s="108"/>
+      <c r="D406" s="108"/>
+      <c r="E406" s="108"/>
+      <c r="F406" s="108"/>
+      <c r="G406" s="108"/>
+      <c r="H406" s="108"/>
+      <c r="I406" s="108"/>
+      <c r="J406" s="108"/>
+      <c r="K406" s="108"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="109"/>
+      <c r="B407" s="109"/>
+      <c r="C407" s="109"/>
+      <c r="D407" s="109"/>
+      <c r="E407" s="109"/>
+      <c r="F407" s="109"/>
+      <c r="G407" s="109"/>
+      <c r="H407" s="109"/>
+      <c r="I407" s="109"/>
+      <c r="J407" s="109"/>
+      <c r="K407" s="109"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" s="110" t="s">
+        <v>262</v>
+      </c>
+      <c r="B408" s="111"/>
+      <c r="C408" s="111"/>
+      <c r="D408" s="111"/>
+      <c r="E408" s="111"/>
+      <c r="F408" s="111"/>
+      <c r="G408" s="111"/>
+      <c r="H408" s="111"/>
+      <c r="I408" s="111"/>
+      <c r="J408" s="111"/>
+      <c r="K408" s="112"/>
+    </row>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B409" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C409" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D409" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E409" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F409" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G409" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H409" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B405" s="7" t="s">
+      <c r="I409" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J409" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K409" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="39">
+        <v>1</v>
+      </c>
+      <c r="B410" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C410" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D410" s="5">
+        <v>10</v>
+      </c>
+      <c r="E410" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G410" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H410" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I410" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J410" s="83"/>
+      <c r="K410" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="40">
+        <v>2</v>
+      </c>
+      <c r="B411" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C411" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D411" s="7">
+        <v>100</v>
+      </c>
+      <c r="E411" s="7"/>
+      <c r="F411" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G411" s="7"/>
+      <c r="H411" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I411" s="85"/>
+      <c r="J411" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K411" s="9"/>
+    </row>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="40">
+        <v>3</v>
+      </c>
+      <c r="B412" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C412" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D412" s="7">
+        <v>100</v>
+      </c>
+      <c r="E412" s="7"/>
+      <c r="F412" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G412" s="7"/>
+      <c r="H412" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I412" s="85"/>
+      <c r="J412" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K412" s="9"/>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="40">
+        <v>4</v>
+      </c>
+      <c r="B413" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C405" s="7" t="s">
+      <c r="C413" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D405" s="7"/>
-      <c r="E405" s="12" t="s">
+      <c r="D413" s="7"/>
+      <c r="E413" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F405" s="12" t="s">
+      <c r="F413" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G405" s="7"/>
-      <c r="H405" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I405" s="85"/>
-      <c r="J405" s="85"/>
-      <c r="K405" s="9" t="s">
+      <c r="G413" s="7"/>
+      <c r="H413" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I413" s="85"/>
+      <c r="J413" s="85"/>
+      <c r="K413" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="40">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="40">
         <v>5</v>
       </c>
-      <c r="B406" s="7" t="s">
+      <c r="B414" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C406" s="7" t="s">
+      <c r="C414" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D406" s="7"/>
-      <c r="E406" s="10" t="s">
+      <c r="D414" s="7"/>
+      <c r="E414" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F406" s="10" t="s">
+      <c r="F414" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G406" s="7"/>
-      <c r="H406" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I406" s="85"/>
-      <c r="J406" s="85"/>
-      <c r="K406" s="9" t="s">
+      <c r="G414" s="7"/>
+      <c r="H414" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I414" s="85"/>
+      <c r="J414" s="85"/>
+      <c r="K414" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="41">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" s="41">
         <v>6</v>
       </c>
-      <c r="B407" s="13" t="s">
+      <c r="B415" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C407" s="13" t="s">
+      <c r="C415" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D407" s="13">
-        <v>1</v>
-      </c>
-      <c r="E407" s="13">
-        <v>0</v>
-      </c>
-      <c r="F407" s="13">
-        <v>1</v>
-      </c>
-      <c r="G407" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H407" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I407" s="84"/>
-      <c r="J407" s="84"/>
-      <c r="K407" s="14" t="s">
+      <c r="D415" s="13">
+        <v>1</v>
+      </c>
+      <c r="E415" s="13">
+        <v>0</v>
+      </c>
+      <c r="F415" s="13">
+        <v>1</v>
+      </c>
+      <c r="G415" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H415" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I415" s="84"/>
+      <c r="J415" s="84"/>
+      <c r="K415" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="106"/>
-      <c r="B408" s="106"/>
-      <c r="C408" s="106"/>
-      <c r="D408" s="106"/>
-      <c r="E408" s="106"/>
-      <c r="F408" s="106"/>
-      <c r="G408" s="106"/>
-      <c r="H408" s="106"/>
-      <c r="I408" s="106"/>
-      <c r="J408" s="106"/>
-      <c r="K408" s="106"/>
-    </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="107"/>
-      <c r="B409" s="107"/>
-      <c r="C409" s="107"/>
-      <c r="D409" s="107"/>
-      <c r="E409" s="107"/>
-      <c r="F409" s="107"/>
-      <c r="G409" s="107"/>
-      <c r="H409" s="107"/>
-      <c r="I409" s="107"/>
-      <c r="J409" s="107"/>
-      <c r="K409" s="107"/>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="108" t="s">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" s="108"/>
+      <c r="B416" s="108"/>
+      <c r="C416" s="108"/>
+      <c r="D416" s="108"/>
+      <c r="E416" s="108"/>
+      <c r="F416" s="108"/>
+      <c r="G416" s="108"/>
+      <c r="H416" s="108"/>
+      <c r="I416" s="108"/>
+      <c r="J416" s="108"/>
+      <c r="K416" s="108"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="109"/>
+      <c r="B417" s="109"/>
+      <c r="C417" s="109"/>
+      <c r="D417" s="109"/>
+      <c r="E417" s="109"/>
+      <c r="F417" s="109"/>
+      <c r="G417" s="109"/>
+      <c r="H417" s="109"/>
+      <c r="I417" s="109"/>
+      <c r="J417" s="109"/>
+      <c r="K417" s="109"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="110" t="s">
         <v>265</v>
       </c>
-      <c r="B410" s="109"/>
-      <c r="C410" s="109"/>
-      <c r="D410" s="109"/>
-      <c r="E410" s="109"/>
-      <c r="F410" s="109"/>
-      <c r="G410" s="109"/>
-      <c r="H410" s="109"/>
-      <c r="I410" s="109"/>
-      <c r="J410" s="109"/>
-      <c r="K410" s="110"/>
-    </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A411" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B411" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C411" s="19" t="s">
+      <c r="B418" s="111"/>
+      <c r="C418" s="111"/>
+      <c r="D418" s="111"/>
+      <c r="E418" s="111"/>
+      <c r="F418" s="111"/>
+      <c r="G418" s="111"/>
+      <c r="H418" s="111"/>
+      <c r="I418" s="111"/>
+      <c r="J418" s="111"/>
+      <c r="K418" s="112"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B419" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C419" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D411" s="19" t="s">
+      <c r="D419" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E411" s="19" t="s">
+      <c r="E419" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F411" s="19" t="s">
+      <c r="F419" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G411" s="19" t="s">
+      <c r="G419" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H411" s="19" t="s">
+      <c r="H419" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I411" s="20" t="s">
+      <c r="I419" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J411" s="20" t="s">
+      <c r="J419" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K411" s="19" t="s">
+      <c r="K419" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A412" s="39">
-        <v>1</v>
-      </c>
-      <c r="B412" s="5" t="s">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="39">
+        <v>1</v>
+      </c>
+      <c r="B420" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C412" s="5" t="s">
+      <c r="C420" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D412" s="5">
-        <v>10</v>
-      </c>
-      <c r="E412" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F412" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G412" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H412" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I412" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J412" s="83"/>
-      <c r="K412" s="6" t="s">
+      <c r="D420" s="5">
+        <v>10</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H420" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I420" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J420" s="83"/>
+      <c r="K420" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A413" s="1">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="1">
         <v>2</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B421" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C413" s="2" t="s">
+      <c r="C421" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D413" s="2">
-        <v>10</v>
-      </c>
-      <c r="F413" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G413" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H413" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J413" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K413" s="9"/>
-    </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="1">
+      <c r="D421" s="2">
+        <v>10</v>
+      </c>
+      <c r="F421" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J421" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K421" s="9"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="1">
         <v>3</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B422" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C414" s="2" t="s">
+      <c r="C422" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F414" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H414" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J414" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K414" s="9"/>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="40">
+      <c r="F422" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J422" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K422" s="9"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="40">
         <v>4</v>
       </c>
-      <c r="B415" s="7" t="s">
+      <c r="B423" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C415" s="7" t="s">
+      <c r="C423" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D415" s="7"/>
-      <c r="E415" s="12" t="s">
+      <c r="D423" s="7"/>
+      <c r="E423" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F415" s="12" t="s">
+      <c r="F423" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G415" s="7"/>
-      <c r="H415" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I415" s="85"/>
-      <c r="J415" s="85"/>
-      <c r="K415" s="9" t="s">
+      <c r="G423" s="7"/>
+      <c r="H423" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I423" s="85"/>
+      <c r="J423" s="85"/>
+      <c r="K423" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="40">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="40">
         <v>5</v>
       </c>
-      <c r="B416" s="7" t="s">
+      <c r="B424" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C416" s="7" t="s">
+      <c r="C424" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D416" s="7"/>
-      <c r="E416" s="10" t="s">
+      <c r="D424" s="7"/>
+      <c r="E424" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F416" s="10" t="s">
+      <c r="F424" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G416" s="7"/>
-      <c r="H416" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I416" s="85"/>
-      <c r="J416" s="85"/>
-      <c r="K416" s="9" t="s">
+      <c r="G424" s="7"/>
+      <c r="H424" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I424" s="85"/>
+      <c r="J424" s="85"/>
+      <c r="K424" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="41">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="41">
         <v>6</v>
       </c>
-      <c r="B417" s="13" t="s">
+      <c r="B425" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C417" s="13" t="s">
+      <c r="C425" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D417" s="13">
-        <v>1</v>
-      </c>
-      <c r="E417" s="13">
-        <v>0</v>
-      </c>
-      <c r="F417" s="13">
-        <v>1</v>
-      </c>
-      <c r="G417" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H417" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I417" s="84"/>
-      <c r="J417" s="84"/>
-      <c r="K417" s="14" t="s">
+      <c r="D425" s="13">
+        <v>1</v>
+      </c>
+      <c r="E425" s="13">
+        <v>0</v>
+      </c>
+      <c r="F425" s="13">
+        <v>1</v>
+      </c>
+      <c r="G425" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H425" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I425" s="84"/>
+      <c r="J425" s="84"/>
+      <c r="K425" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="106"/>
-      <c r="B418" s="106"/>
-      <c r="C418" s="106"/>
-      <c r="D418" s="106"/>
-      <c r="E418" s="106"/>
-      <c r="F418" s="106"/>
-      <c r="G418" s="106"/>
-      <c r="H418" s="106"/>
-      <c r="I418" s="106"/>
-      <c r="J418" s="106"/>
-      <c r="K418" s="106"/>
-    </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="107"/>
-      <c r="B419" s="107"/>
-      <c r="C419" s="107"/>
-      <c r="D419" s="107"/>
-      <c r="E419" s="107"/>
-      <c r="F419" s="107"/>
-      <c r="G419" s="107"/>
-      <c r="H419" s="107"/>
-      <c r="I419" s="107"/>
-      <c r="J419" s="107"/>
-      <c r="K419" s="107"/>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="108" t="s">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="108"/>
+      <c r="B426" s="108"/>
+      <c r="C426" s="108"/>
+      <c r="D426" s="108"/>
+      <c r="E426" s="108"/>
+      <c r="F426" s="108"/>
+      <c r="G426" s="108"/>
+      <c r="H426" s="108"/>
+      <c r="I426" s="108"/>
+      <c r="J426" s="108"/>
+      <c r="K426" s="108"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="109"/>
+      <c r="B427" s="109"/>
+      <c r="C427" s="109"/>
+      <c r="D427" s="109"/>
+      <c r="E427" s="109"/>
+      <c r="F427" s="109"/>
+      <c r="G427" s="109"/>
+      <c r="H427" s="109"/>
+      <c r="I427" s="109"/>
+      <c r="J427" s="109"/>
+      <c r="K427" s="109"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="B420" s="109"/>
-      <c r="C420" s="109"/>
-      <c r="D420" s="109"/>
-      <c r="E420" s="109"/>
-      <c r="F420" s="109"/>
-      <c r="G420" s="109"/>
-      <c r="H420" s="109"/>
-      <c r="I420" s="109"/>
-      <c r="J420" s="109"/>
-      <c r="K420" s="110"/>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B421" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C421" s="19" t="s">
+      <c r="B428" s="111"/>
+      <c r="C428" s="111"/>
+      <c r="D428" s="111"/>
+      <c r="E428" s="111"/>
+      <c r="F428" s="111"/>
+      <c r="G428" s="111"/>
+      <c r="H428" s="111"/>
+      <c r="I428" s="111"/>
+      <c r="J428" s="111"/>
+      <c r="K428" s="112"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A429" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B429" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C429" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D421" s="19" t="s">
+      <c r="D429" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E421" s="19" t="s">
+      <c r="E429" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F421" s="19" t="s">
+      <c r="F429" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G421" s="19" t="s">
+      <c r="G429" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H421" s="19" t="s">
+      <c r="H429" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I421" s="20" t="s">
+      <c r="I429" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J421" s="20" t="s">
+      <c r="J429" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K421" s="19" t="s">
+      <c r="K429" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="39">
-        <v>1</v>
-      </c>
-      <c r="B422" s="5" t="s">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A430" s="39">
+        <v>1</v>
+      </c>
+      <c r="B430" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C422" s="5" t="s">
+      <c r="C430" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D422" s="5">
-        <v>10</v>
-      </c>
-      <c r="E422" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F422" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G422" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H422" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I422" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J422" s="83"/>
-      <c r="K422" s="6" t="s">
+      <c r="D430" s="5">
+        <v>10</v>
+      </c>
+      <c r="E430" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G430" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H430" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I430" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J430" s="83"/>
+      <c r="K430" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="85">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="85">
         <v>2</v>
       </c>
-      <c r="B423" s="7" t="s">
+      <c r="B431" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C423" s="7" t="s">
+      <c r="C431" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D423" s="7">
+      <c r="D431" s="7">
         <v>20</v>
       </c>
-      <c r="E423" s="7"/>
-      <c r="F423" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G423" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H423" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I423" s="85"/>
-      <c r="J423" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K423" s="9"/>
-    </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="1">
+      <c r="E431" s="7"/>
+      <c r="F431" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G431" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H431" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I431" s="85"/>
+      <c r="J431" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K431" s="9"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" s="1">
         <v>3</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B432" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C424" s="2" t="s">
+      <c r="C432" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D424" s="2">
-        <v>10</v>
-      </c>
-      <c r="F424" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G424" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H424" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J424" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K424" s="9"/>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="1">
+      <c r="D432" s="2">
+        <v>10</v>
+      </c>
+      <c r="F432" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G432" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H432" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K432" s="9"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433" s="1">
         <v>4</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B433" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C425" s="2" t="s">
+      <c r="C433" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F425" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H425" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J425" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K425" s="9"/>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="40">
+      <c r="F433" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H433" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K433" s="9"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A434" s="40">
         <v>5</v>
       </c>
-      <c r="B426" s="7" t="s">
+      <c r="B434" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C426" s="7" t="s">
+      <c r="C434" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D426" s="7"/>
-      <c r="E426" s="12" t="s">
+      <c r="D434" s="7"/>
+      <c r="E434" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F426" s="12" t="s">
+      <c r="F434" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G426" s="7"/>
-      <c r="H426" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I426" s="85"/>
-      <c r="J426" s="85"/>
-      <c r="K426" s="9" t="s">
+      <c r="G434" s="7"/>
+      <c r="H434" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I434" s="85"/>
+      <c r="J434" s="85"/>
+      <c r="K434" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="40">
-        <v>6</v>
-      </c>
-      <c r="B427" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C427" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D427" s="7"/>
-      <c r="E427" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F427" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G427" s="7"/>
-      <c r="H427" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I427" s="85"/>
-      <c r="J427" s="85"/>
-      <c r="K427" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="41">
-        <v>7</v>
-      </c>
-      <c r="B428" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C428" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D428" s="13">
-        <v>1</v>
-      </c>
-      <c r="E428" s="13">
-        <v>0</v>
-      </c>
-      <c r="F428" s="13">
-        <v>1</v>
-      </c>
-      <c r="G428" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H428" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I428" s="84"/>
-      <c r="J428" s="84"/>
-      <c r="K428" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="106"/>
-      <c r="B429" s="106"/>
-      <c r="C429" s="106"/>
-      <c r="D429" s="106"/>
-      <c r="E429" s="106"/>
-      <c r="F429" s="106"/>
-      <c r="G429" s="106"/>
-      <c r="H429" s="106"/>
-      <c r="I429" s="106"/>
-      <c r="J429" s="106"/>
-      <c r="K429" s="106"/>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="107"/>
-      <c r="B430" s="107"/>
-      <c r="C430" s="107"/>
-      <c r="D430" s="107"/>
-      <c r="E430" s="107"/>
-      <c r="F430" s="107"/>
-      <c r="G430" s="107"/>
-      <c r="H430" s="107"/>
-      <c r="I430" s="107"/>
-      <c r="J430" s="107"/>
-      <c r="K430" s="107"/>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="108" t="s">
-        <v>271</v>
-      </c>
-      <c r="B431" s="109"/>
-      <c r="C431" s="109"/>
-      <c r="D431" s="109"/>
-      <c r="E431" s="109"/>
-      <c r="F431" s="109"/>
-      <c r="G431" s="109"/>
-      <c r="H431" s="109"/>
-      <c r="I431" s="109"/>
-      <c r="J431" s="109"/>
-      <c r="K431" s="110"/>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B432" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C432" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D432" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E432" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F432" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G432" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H432" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I432" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J432" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K432" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" s="39">
-        <v>1</v>
-      </c>
-      <c r="B433" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C433" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D433" s="5">
-        <v>10</v>
-      </c>
-      <c r="E433" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F433" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G433" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H433" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I433" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="J433" s="86"/>
-      <c r="K433" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A434" s="1">
-        <v>2</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C434" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D434" s="2">
-        <v>255</v>
-      </c>
-      <c r="F434" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H434" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J434" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K434" s="9"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B435" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C435" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D435" s="7"/>
-      <c r="E435" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F435" s="12" t="s">
-        <v>26</v>
+      <c r="E435" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F435" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G435" s="7"/>
       <c r="H435" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I435" s="88"/>
-      <c r="J435" s="88"/>
+      <c r="I435" s="85"/>
+      <c r="J435" s="85"/>
       <c r="K435" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="40">
+      <c r="A436" s="41">
+        <v>7</v>
+      </c>
+      <c r="B436" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C436" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D436" s="13">
+        <v>1</v>
+      </c>
+      <c r="E436" s="13">
+        <v>0</v>
+      </c>
+      <c r="F436" s="13">
+        <v>1</v>
+      </c>
+      <c r="G436" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H436" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I436" s="84"/>
+      <c r="J436" s="84"/>
+      <c r="K436" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" s="108"/>
+      <c r="B437" s="108"/>
+      <c r="C437" s="108"/>
+      <c r="D437" s="108"/>
+      <c r="E437" s="108"/>
+      <c r="F437" s="108"/>
+      <c r="G437" s="108"/>
+      <c r="H437" s="108"/>
+      <c r="I437" s="108"/>
+      <c r="J437" s="108"/>
+      <c r="K437" s="108"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A438" s="109"/>
+      <c r="B438" s="109"/>
+      <c r="C438" s="109"/>
+      <c r="D438" s="109"/>
+      <c r="E438" s="109"/>
+      <c r="F438" s="109"/>
+      <c r="G438" s="109"/>
+      <c r="H438" s="109"/>
+      <c r="I438" s="109"/>
+      <c r="J438" s="109"/>
+      <c r="K438" s="109"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" s="110" t="s">
+        <v>271</v>
+      </c>
+      <c r="B439" s="111"/>
+      <c r="C439" s="111"/>
+      <c r="D439" s="111"/>
+      <c r="E439" s="111"/>
+      <c r="F439" s="111"/>
+      <c r="G439" s="111"/>
+      <c r="H439" s="111"/>
+      <c r="I439" s="111"/>
+      <c r="J439" s="111"/>
+      <c r="K439" s="112"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B440" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C440" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D440" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E440" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F440" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G440" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H440" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B436" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C436" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D436" s="7"/>
-      <c r="E436" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F436" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G436" s="7"/>
-      <c r="H436" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I436" s="88"/>
-      <c r="J436" s="88"/>
-      <c r="K436" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="41">
-        <v>5</v>
-      </c>
-      <c r="B437" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C437" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D437" s="13">
-        <v>1</v>
-      </c>
-      <c r="E437" s="13">
-        <v>0</v>
-      </c>
-      <c r="F437" s="13">
-        <v>1</v>
-      </c>
-      <c r="G437" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H437" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I437" s="87"/>
-      <c r="J437" s="87"/>
-      <c r="K437" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="106"/>
-      <c r="B438" s="106"/>
-      <c r="C438" s="106"/>
-      <c r="D438" s="106"/>
-      <c r="E438" s="106"/>
-      <c r="F438" s="106"/>
-      <c r="G438" s="106"/>
-      <c r="H438" s="106"/>
-      <c r="I438" s="106"/>
-      <c r="J438" s="106"/>
-      <c r="K438" s="106"/>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="107"/>
-      <c r="B439" s="107"/>
-      <c r="C439" s="107"/>
-      <c r="D439" s="107"/>
-      <c r="E439" s="107"/>
-      <c r="F439" s="107"/>
-      <c r="G439" s="107"/>
-      <c r="H439" s="107"/>
-      <c r="I439" s="107"/>
-      <c r="J439" s="107"/>
-      <c r="K439" s="107"/>
-    </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="108" t="s">
-        <v>273</v>
-      </c>
-      <c r="B440" s="109"/>
-      <c r="C440" s="109"/>
-      <c r="D440" s="109"/>
-      <c r="E440" s="109"/>
-      <c r="F440" s="109"/>
-      <c r="G440" s="109"/>
-      <c r="H440" s="109"/>
-      <c r="I440" s="109"/>
-      <c r="J440" s="109"/>
-      <c r="K440" s="110"/>
+      <c r="I440" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J440" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K440" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B441" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C441" s="19" t="s">
+      <c r="A441" s="39">
+        <v>1</v>
+      </c>
+      <c r="B441" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C441" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D441" s="5">
+        <v>10</v>
+      </c>
+      <c r="E441" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G441" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H441" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I441" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="J441" s="86"/>
+      <c r="K441" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A442" s="1">
         <v>2</v>
       </c>
-      <c r="D441" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E441" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F441" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G441" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H441" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I441" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J441" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K441" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A442" s="39">
-        <v>1</v>
-      </c>
-      <c r="B442" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C442" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D442" s="5">
-        <v>20</v>
-      </c>
-      <c r="E442" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F442" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G442" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H442" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I442" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="J442" s="94"/>
-      <c r="K442" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B442" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D442" s="2">
+        <v>255</v>
+      </c>
+      <c r="F442" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H442" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J442" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K442" s="9"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B443" s="7" t="s">
-        <v>274</v>
+        <v>23</v>
       </c>
       <c r="C443" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D443" s="7">
-        <v>20</v>
-      </c>
-      <c r="E443" s="7"/>
-      <c r="F443" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G443" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D443" s="7"/>
+      <c r="E443" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F443" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G443" s="7"/>
       <c r="H443" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I443" s="92"/>
-      <c r="J443" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="K443" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I443" s="88"/>
+      <c r="J443" s="88"/>
+      <c r="K443" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
+        <v>4</v>
+      </c>
+      <c r="B444" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C444" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D444" s="7"/>
+      <c r="E444" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F444" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G444" s="7"/>
+      <c r="H444" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I444" s="88"/>
+      <c r="J444" s="88"/>
+      <c r="K444" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A445" s="41">
+        <v>5</v>
+      </c>
+      <c r="B445" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C445" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D445" s="13">
+        <v>1</v>
+      </c>
+      <c r="E445" s="13">
+        <v>0</v>
+      </c>
+      <c r="F445" s="13">
+        <v>1</v>
+      </c>
+      <c r="G445" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H445" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I445" s="87"/>
+      <c r="J445" s="87"/>
+      <c r="K445" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" s="108"/>
+      <c r="B446" s="108"/>
+      <c r="C446" s="108"/>
+      <c r="D446" s="108"/>
+      <c r="E446" s="108"/>
+      <c r="F446" s="108"/>
+      <c r="G446" s="108"/>
+      <c r="H446" s="108"/>
+      <c r="I446" s="108"/>
+      <c r="J446" s="108"/>
+      <c r="K446" s="108"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" s="109"/>
+      <c r="B447" s="109"/>
+      <c r="C447" s="109"/>
+      <c r="D447" s="109"/>
+      <c r="E447" s="109"/>
+      <c r="F447" s="109"/>
+      <c r="G447" s="109"/>
+      <c r="H447" s="109"/>
+      <c r="I447" s="109"/>
+      <c r="J447" s="109"/>
+      <c r="K447" s="109"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" s="110" t="s">
+        <v>273</v>
+      </c>
+      <c r="B448" s="111"/>
+      <c r="C448" s="111"/>
+      <c r="D448" s="111"/>
+      <c r="E448" s="111"/>
+      <c r="F448" s="111"/>
+      <c r="G448" s="111"/>
+      <c r="H448" s="111"/>
+      <c r="I448" s="111"/>
+      <c r="J448" s="111"/>
+      <c r="K448" s="112"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B449" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C449" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D449" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E449" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F449" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G449" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B444" s="7" t="s">
+      <c r="H449" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I449" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J449" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K449" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A450" s="39">
+        <v>1</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D450" s="5">
+        <v>20</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G450" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H450" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I450" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="J450" s="93"/>
+      <c r="K450" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A451" s="40">
+        <v>2</v>
+      </c>
+      <c r="B451" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D451" s="7">
+        <v>20</v>
+      </c>
+      <c r="E451" s="7"/>
+      <c r="F451" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G451" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H451" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I451" s="91"/>
+      <c r="J451" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K451" s="9"/>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A452" s="40">
+        <v>3</v>
+      </c>
+      <c r="B452" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C444" s="7" t="s">
+      <c r="C452" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D444" s="7">
-        <v>1</v>
-      </c>
-      <c r="E444" s="7"/>
-      <c r="F444" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G444" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H444" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I444" s="92"/>
-      <c r="J444" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="K444" s="9"/>
-    </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="40">
+      <c r="D452" s="7">
+        <v>1</v>
+      </c>
+      <c r="E452" s="7"/>
+      <c r="F452" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G452" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H452" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I452" s="91"/>
+      <c r="J452" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K452" s="9"/>
+    </row>
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A453" s="40">
         <v>4</v>
       </c>
-      <c r="B445" s="7" t="s">
+      <c r="B453" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="C445" s="7" t="s">
+      <c r="C453" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D445" s="7">
-        <v>11</v>
-      </c>
-      <c r="E445" s="7"/>
-      <c r="F445" s="12">
-        <v>0</v>
-      </c>
-      <c r="G445" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H445" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I445" s="92"/>
-      <c r="J445" s="92"/>
-      <c r="K445" s="9"/>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="40">
+      <c r="D453" s="7">
+        <v>11</v>
+      </c>
+      <c r="E453" s="7"/>
+      <c r="F453" s="12">
+        <v>0</v>
+      </c>
+      <c r="G453" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H453" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I453" s="91"/>
+      <c r="J453" s="91"/>
+      <c r="K453" s="9"/>
+    </row>
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A454" s="40">
         <v>5</v>
       </c>
-      <c r="B446" s="7" t="s">
+      <c r="B454" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C446" s="7" t="s">
+      <c r="C454" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D446" s="7">
+      <c r="D454" s="7">
         <v>255</v>
       </c>
-      <c r="E446" s="7"/>
-      <c r="F446" s="10" t="s">
+      <c r="E454" s="7"/>
+      <c r="F454" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G446" s="7"/>
-      <c r="H446" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I446" s="92"/>
-      <c r="J446" s="92"/>
-      <c r="K446" s="9"/>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" s="40">
+      <c r="G454" s="7"/>
+      <c r="H454" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I454" s="91"/>
+      <c r="J454" s="91"/>
+      <c r="K454" s="9"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A455" s="40">
         <v>6</v>
       </c>
-      <c r="B447" s="7" t="s">
+      <c r="B455" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="C447" s="7" t="s">
+      <c r="C455" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D447" s="7">
+      <c r="D455" s="7">
         <v>255</v>
       </c>
-      <c r="E447" s="7"/>
-      <c r="F447" s="10" t="s">
+      <c r="E455" s="7"/>
+      <c r="F455" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="G447" s="7"/>
-      <c r="H447" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I447" s="92"/>
-      <c r="J447" s="92"/>
-      <c r="K447" s="9"/>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" s="40">
-        <v>7</v>
-      </c>
-      <c r="B448" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C448" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D448" s="7"/>
-      <c r="E448" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F448" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G448" s="7"/>
-      <c r="H448" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I448" s="92"/>
-      <c r="J448" s="92"/>
-      <c r="K448" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A449" s="40">
-        <v>8</v>
-      </c>
-      <c r="B449" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C449" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D449" s="7"/>
-      <c r="E449" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F449" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G449" s="7"/>
-      <c r="H449" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I449" s="92"/>
-      <c r="J449" s="92"/>
-      <c r="K449" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" s="41">
-        <v>9</v>
-      </c>
-      <c r="B450" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C450" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D450" s="13">
-        <v>1</v>
-      </c>
-      <c r="E450" s="13">
-        <v>0</v>
-      </c>
-      <c r="F450" s="13">
-        <v>1</v>
-      </c>
-      <c r="G450" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H450" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I450" s="93"/>
-      <c r="J450" s="93"/>
-      <c r="K450" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="106"/>
-      <c r="B451" s="106"/>
-      <c r="C451" s="106"/>
-      <c r="D451" s="106"/>
-      <c r="E451" s="106"/>
-      <c r="F451" s="106"/>
-      <c r="G451" s="106"/>
-      <c r="H451" s="106"/>
-      <c r="I451" s="106"/>
-      <c r="J451" s="106"/>
-      <c r="K451" s="106"/>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="107"/>
-      <c r="B452" s="107"/>
-      <c r="C452" s="107"/>
-      <c r="D452" s="107"/>
-      <c r="E452" s="107"/>
-      <c r="F452" s="107"/>
-      <c r="G452" s="107"/>
-      <c r="H452" s="107"/>
-      <c r="I452" s="107"/>
-      <c r="J452" s="107"/>
-      <c r="K452" s="107"/>
-    </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="108" t="s">
-        <v>285</v>
-      </c>
-      <c r="B453" s="109"/>
-      <c r="C453" s="109"/>
-      <c r="D453" s="109"/>
-      <c r="E453" s="109"/>
-      <c r="F453" s="109"/>
-      <c r="G453" s="109"/>
-      <c r="H453" s="109"/>
-      <c r="I453" s="109"/>
-      <c r="J453" s="109"/>
-      <c r="K453" s="110"/>
-    </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B454" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C454" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D454" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E454" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F454" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G454" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H454" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I454" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J454" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K454" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" s="39">
-        <v>1</v>
-      </c>
-      <c r="B455" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C455" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D455" s="5">
-        <v>20</v>
-      </c>
-      <c r="E455" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F455" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G455" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H455" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I455" s="94" t="s">
-        <v>12</v>
-      </c>
-      <c r="J455" s="94"/>
-      <c r="K455" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="G455" s="7"/>
+      <c r="H455" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I455" s="91"/>
+      <c r="J455" s="91"/>
+      <c r="K455" s="9"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B456" s="7" t="s">
-        <v>286</v>
+        <v>23</v>
       </c>
       <c r="C456" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D456" s="7">
-        <v>20</v>
-      </c>
-      <c r="E456" s="7"/>
-      <c r="F456" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G456" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D456" s="7"/>
+      <c r="E456" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F456" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G456" s="7"/>
       <c r="H456" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I456" s="92"/>
-      <c r="J456" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="K456" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I456" s="91"/>
+      <c r="J456" s="91"/>
+      <c r="K456" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
+        <v>8</v>
+      </c>
+      <c r="B457" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C457" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D457" s="7"/>
+      <c r="E457" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F457" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G457" s="7"/>
+      <c r="H457" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I457" s="91"/>
+      <c r="J457" s="91"/>
+      <c r="K457" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" s="41">
+        <v>9</v>
+      </c>
+      <c r="B458" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C458" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D458" s="13">
+        <v>1</v>
+      </c>
+      <c r="E458" s="13">
+        <v>0</v>
+      </c>
+      <c r="F458" s="13">
+        <v>1</v>
+      </c>
+      <c r="G458" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H458" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I458" s="92"/>
+      <c r="J458" s="92"/>
+      <c r="K458" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" s="108"/>
+      <c r="B459" s="108"/>
+      <c r="C459" s="108"/>
+      <c r="D459" s="108"/>
+      <c r="E459" s="108"/>
+      <c r="F459" s="108"/>
+      <c r="G459" s="108"/>
+      <c r="H459" s="108"/>
+      <c r="I459" s="108"/>
+      <c r="J459" s="108"/>
+      <c r="K459" s="108"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" s="109"/>
+      <c r="B460" s="109"/>
+      <c r="C460" s="109"/>
+      <c r="D460" s="109"/>
+      <c r="E460" s="109"/>
+      <c r="F460" s="109"/>
+      <c r="G460" s="109"/>
+      <c r="H460" s="109"/>
+      <c r="I460" s="109"/>
+      <c r="J460" s="109"/>
+      <c r="K460" s="109"/>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" s="110" t="s">
+        <v>285</v>
+      </c>
+      <c r="B461" s="111"/>
+      <c r="C461" s="111"/>
+      <c r="D461" s="111"/>
+      <c r="E461" s="111"/>
+      <c r="F461" s="111"/>
+      <c r="G461" s="111"/>
+      <c r="H461" s="111"/>
+      <c r="I461" s="111"/>
+      <c r="J461" s="111"/>
+      <c r="K461" s="112"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B462" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C462" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D462" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E462" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F462" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G462" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B457" s="7" t="s">
+      <c r="H462" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I462" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J462" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K462" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A463" s="39">
+        <v>1</v>
+      </c>
+      <c r="B463" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C463" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D463" s="5">
+        <v>20</v>
+      </c>
+      <c r="E463" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F463" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G463" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H463" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I463" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="J463" s="93"/>
+      <c r="K463" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A464" s="40">
+        <v>2</v>
+      </c>
+      <c r="B464" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C464" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D464" s="7">
+        <v>20</v>
+      </c>
+      <c r="E464" s="7"/>
+      <c r="F464" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G464" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H464" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I464" s="91"/>
+      <c r="J464" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K464" s="9"/>
+    </row>
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A465" s="40">
+        <v>3</v>
+      </c>
+      <c r="B465" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="C457" s="7" t="s">
+      <c r="C465" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D457" s="7">
+      <c r="D465" s="7">
         <v>20</v>
       </c>
-      <c r="E457" s="7"/>
-      <c r="F457" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G457" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H457" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I457" s="92"/>
-      <c r="J457" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="K457" s="9"/>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="40">
+      <c r="E465" s="7"/>
+      <c r="F465" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G465" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H465" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I465" s="91"/>
+      <c r="J465" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K465" s="9"/>
+    </row>
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A466" s="40">
         <v>4</v>
       </c>
-      <c r="B458" s="7" t="s">
+      <c r="B466" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C458" s="7" t="s">
+      <c r="C466" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D458" s="7">
-        <v>10</v>
-      </c>
-      <c r="E458" s="7"/>
-      <c r="F458" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G458" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H458" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I458" s="92"/>
-      <c r="J458" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="K458" s="9"/>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A459" s="40">
+      <c r="D466" s="7">
+        <v>10</v>
+      </c>
+      <c r="E466" s="7"/>
+      <c r="F466" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G466" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H466" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I466" s="91"/>
+      <c r="J466" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K466" s="9"/>
+    </row>
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A467" s="40">
         <v>5</v>
       </c>
-      <c r="B459" s="7" t="s">
+      <c r="B467" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="C459" s="7" t="s">
+      <c r="C467" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D459" s="7">
-        <v>1</v>
-      </c>
-      <c r="E459" s="7"/>
-      <c r="F459" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G459" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H459" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I459" s="92"/>
-      <c r="J459" s="92" t="s">
-        <v>12</v>
-      </c>
-      <c r="K459" s="9" t="s">
+      <c r="D467" s="7">
+        <v>1</v>
+      </c>
+      <c r="E467" s="7"/>
+      <c r="F467" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G467" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H467" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I467" s="91"/>
+      <c r="J467" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K467" s="9" t="s">
         <v>290</v>
-      </c>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="40">
-        <v>6</v>
-      </c>
-      <c r="B460" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C460" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D460" s="7"/>
-      <c r="E460" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F460" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G460" s="7"/>
-      <c r="H460" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I460" s="92"/>
-      <c r="J460" s="92"/>
-      <c r="K460" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="40">
-        <v>7</v>
-      </c>
-      <c r="B461" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C461" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D461" s="7"/>
-      <c r="E461" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F461" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G461" s="7"/>
-      <c r="H461" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I461" s="92"/>
-      <c r="J461" s="92"/>
-      <c r="K461" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" s="41">
-        <v>8</v>
-      </c>
-      <c r="B462" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C462" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D462" s="13">
-        <v>1</v>
-      </c>
-      <c r="E462" s="13">
-        <v>0</v>
-      </c>
-      <c r="F462" s="13">
-        <v>1</v>
-      </c>
-      <c r="G462" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H462" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I462" s="93"/>
-      <c r="J462" s="93"/>
-      <c r="K462" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="106"/>
-      <c r="B463" s="106"/>
-      <c r="C463" s="106"/>
-      <c r="D463" s="106"/>
-      <c r="E463" s="106"/>
-      <c r="F463" s="106"/>
-      <c r="G463" s="106"/>
-      <c r="H463" s="106"/>
-      <c r="I463" s="106"/>
-      <c r="J463" s="106"/>
-      <c r="K463" s="106"/>
-    </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A464" s="107"/>
-      <c r="B464" s="107"/>
-      <c r="C464" s="107"/>
-      <c r="D464" s="107"/>
-      <c r="E464" s="107"/>
-      <c r="F464" s="107"/>
-      <c r="G464" s="107"/>
-      <c r="H464" s="107"/>
-      <c r="I464" s="107"/>
-      <c r="J464" s="107"/>
-      <c r="K464" s="107"/>
-    </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A465" s="108" t="s">
-        <v>303</v>
-      </c>
-      <c r="B465" s="109"/>
-      <c r="C465" s="109"/>
-      <c r="D465" s="109"/>
-      <c r="E465" s="109"/>
-      <c r="F465" s="109"/>
-      <c r="G465" s="109"/>
-      <c r="H465" s="109"/>
-      <c r="I465" s="109"/>
-      <c r="J465" s="109"/>
-      <c r="K465" s="110"/>
-    </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A466" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B466" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C466" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D466" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E466" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F466" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G466" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H466" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I466" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J466" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K466" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A467" s="39">
-        <v>1</v>
-      </c>
-      <c r="B467" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C467" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D467" s="5">
-        <v>20</v>
-      </c>
-      <c r="E467" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F467" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G467" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H467" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I467" s="102" t="s">
-        <v>12</v>
-      </c>
-      <c r="J467" s="102"/>
-      <c r="K467" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B468" s="7" t="s">
-        <v>304</v>
+        <v>23</v>
       </c>
       <c r="C468" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D468" s="7">
-        <v>10</v>
-      </c>
-      <c r="E468" s="7"/>
-      <c r="F468" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G468" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D468" s="7"/>
+      <c r="E468" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F468" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G468" s="7"/>
       <c r="H468" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I468" s="104"/>
-      <c r="J468" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="K468" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I468" s="91"/>
+      <c r="J468" s="91"/>
+      <c r="K468" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
+        <v>7</v>
+      </c>
+      <c r="B469" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C469" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D469" s="7"/>
+      <c r="E469" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F469" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G469" s="7"/>
+      <c r="H469" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I469" s="91"/>
+      <c r="J469" s="91"/>
+      <c r="K469" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" s="41">
+        <v>8</v>
+      </c>
+      <c r="B470" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C470" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D470" s="13">
+        <v>1</v>
+      </c>
+      <c r="E470" s="13">
+        <v>0</v>
+      </c>
+      <c r="F470" s="13">
+        <v>1</v>
+      </c>
+      <c r="G470" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H470" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I470" s="92"/>
+      <c r="J470" s="92"/>
+      <c r="K470" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="108"/>
+      <c r="B471" s="108"/>
+      <c r="C471" s="108"/>
+      <c r="D471" s="108"/>
+      <c r="E471" s="108"/>
+      <c r="F471" s="108"/>
+      <c r="G471" s="108"/>
+      <c r="H471" s="108"/>
+      <c r="I471" s="108"/>
+      <c r="J471" s="108"/>
+      <c r="K471" s="108"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="109"/>
+      <c r="B472" s="109"/>
+      <c r="C472" s="109"/>
+      <c r="D472" s="109"/>
+      <c r="E472" s="109"/>
+      <c r="F472" s="109"/>
+      <c r="G472" s="109"/>
+      <c r="H472" s="109"/>
+      <c r="I472" s="109"/>
+      <c r="J472" s="109"/>
+      <c r="K472" s="109"/>
+    </row>
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A473" s="110" t="s">
+        <v>303</v>
+      </c>
+      <c r="B473" s="111"/>
+      <c r="C473" s="111"/>
+      <c r="D473" s="111"/>
+      <c r="E473" s="111"/>
+      <c r="F473" s="111"/>
+      <c r="G473" s="111"/>
+      <c r="H473" s="111"/>
+      <c r="I473" s="111"/>
+      <c r="J473" s="111"/>
+      <c r="K473" s="112"/>
+    </row>
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A474" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B474" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C474" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D474" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E474" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F474" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G474" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="H474" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I474" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J474" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K474" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="39">
+        <v>1</v>
+      </c>
+      <c r="B475" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C475" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D475" s="5">
+        <v>20</v>
+      </c>
+      <c r="E475" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F475" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G475" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H475" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I475" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="J475" s="101"/>
+      <c r="K475" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A476" s="40">
+        <v>2</v>
+      </c>
+      <c r="B476" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C476" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D476" s="7">
+        <v>10</v>
+      </c>
+      <c r="E476" s="7"/>
+      <c r="F476" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G476" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H476" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I476" s="103"/>
+      <c r="J476" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K476" s="9"/>
+    </row>
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A477" s="40">
+        <v>3</v>
+      </c>
+      <c r="B477" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="C469" s="7" t="s">
+      <c r="C477" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D469" s="7">
-        <v>10</v>
-      </c>
-      <c r="E469" s="7"/>
-      <c r="F469" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G469" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H469" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I469" s="104"/>
-      <c r="J469" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="K469" s="9"/>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" s="40">
+      <c r="D477" s="7">
+        <v>10</v>
+      </c>
+      <c r="E477" s="7"/>
+      <c r="F477" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G477" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H477" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I477" s="103"/>
+      <c r="J477" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K477" s="9"/>
+    </row>
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A478" s="40">
         <v>4</v>
       </c>
-      <c r="B470" s="7" t="s">
+      <c r="B478" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C470" s="7" t="s">
+      <c r="C478" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D470" s="7">
-        <v>1</v>
-      </c>
-      <c r="E470" s="7"/>
-      <c r="F470" s="7">
+      <c r="D478" s="7">
+        <v>1</v>
+      </c>
+      <c r="E478" s="7"/>
+      <c r="F478" s="7">
         <v>3</v>
       </c>
-      <c r="G470" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H470" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I470" s="104"/>
-      <c r="J470" s="104" t="s">
-        <v>12</v>
-      </c>
-      <c r="K470" s="9" t="s">
+      <c r="G478" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H478" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I478" s="103"/>
+      <c r="J478" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K478" s="9" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" s="40">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A479" s="40">
         <v>5</v>
       </c>
-      <c r="B471" s="7" t="s">
+      <c r="B479" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C471" s="7" t="s">
+      <c r="C479" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D471" s="7"/>
-      <c r="E471" s="12" t="s">
+      <c r="D479" s="7"/>
+      <c r="E479" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="F471" s="12" t="s">
+      <c r="F479" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G471" s="7"/>
-      <c r="H471" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I471" s="104"/>
-      <c r="J471" s="104"/>
-      <c r="K471" s="9" t="s">
+      <c r="G479" s="7"/>
+      <c r="H479" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I479" s="103"/>
+      <c r="J479" s="103"/>
+      <c r="K479" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" s="41">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A480" s="41">
         <v>6</v>
       </c>
-      <c r="B472" s="13" t="s">
+      <c r="B480" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C472" s="13" t="s">
+      <c r="C480" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D472" s="13"/>
-      <c r="E472" s="38" t="s">
+      <c r="D480" s="13"/>
+      <c r="E480" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F472" s="38" t="s">
+      <c r="F480" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G472" s="13"/>
-      <c r="H472" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I472" s="103"/>
-      <c r="J472" s="103"/>
-      <c r="K472" s="14" t="s">
+      <c r="G480" s="13"/>
+      <c r="H480" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I480" s="102"/>
+      <c r="J480" s="102"/>
+      <c r="K480" s="14" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="79">
-    <mergeCell ref="A463:K464"/>
-    <mergeCell ref="A465:K465"/>
-    <mergeCell ref="A451:K452"/>
-    <mergeCell ref="A453:K453"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A21:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A220:K221"/>
-    <mergeCell ref="A210:K210"/>
-    <mergeCell ref="A208:K209"/>
-    <mergeCell ref="A198:K198"/>
-    <mergeCell ref="A196:K197"/>
-    <mergeCell ref="A279:K279"/>
-    <mergeCell ref="A286:K287"/>
-    <mergeCell ref="A288:K288"/>
-    <mergeCell ref="A295:K296"/>
-    <mergeCell ref="A297:K297"/>
-    <mergeCell ref="A185:K185"/>
-    <mergeCell ref="A183:K184"/>
-    <mergeCell ref="A236:K237"/>
-    <mergeCell ref="A222:K222"/>
-    <mergeCell ref="A268:K269"/>
+  <mergeCells count="81">
+    <mergeCell ref="A65:K66"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A446:K447"/>
+    <mergeCell ref="A448:K448"/>
+    <mergeCell ref="A365:K366"/>
+    <mergeCell ref="A367:K367"/>
+    <mergeCell ref="A437:K438"/>
+    <mergeCell ref="A439:K439"/>
+    <mergeCell ref="A418:K418"/>
+    <mergeCell ref="A426:K427"/>
+    <mergeCell ref="A428:K428"/>
+    <mergeCell ref="A406:K407"/>
+    <mergeCell ref="A408:K408"/>
+    <mergeCell ref="A416:K417"/>
+    <mergeCell ref="A398:K398"/>
+    <mergeCell ref="A331:K331"/>
+    <mergeCell ref="A304:K305"/>
+    <mergeCell ref="A306:K306"/>
+    <mergeCell ref="A318:K319"/>
+    <mergeCell ref="A320:K320"/>
+    <mergeCell ref="A329:K330"/>
+    <mergeCell ref="A340:K341"/>
+    <mergeCell ref="A342:K342"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A32:K33"/>
+    <mergeCell ref="A396:K397"/>
+    <mergeCell ref="A173:K174"/>
+    <mergeCell ref="A158:K158"/>
+    <mergeCell ref="A156:K157"/>
+    <mergeCell ref="A386:K386"/>
+    <mergeCell ref="A384:K385"/>
+    <mergeCell ref="A353:K353"/>
+    <mergeCell ref="A351:K352"/>
+    <mergeCell ref="A259:K259"/>
+    <mergeCell ref="A257:K258"/>
+    <mergeCell ref="A248:K248"/>
+    <mergeCell ref="A246:K247"/>
     <mergeCell ref="A270:K270"/>
     <mergeCell ref="A277:K278"/>
     <mergeCell ref="A238:K238"/>
@@ -13860,43 +14076,34 @@
     <mergeCell ref="A110:K111"/>
     <mergeCell ref="A99:K100"/>
     <mergeCell ref="A101:K101"/>
-    <mergeCell ref="A340:K341"/>
-    <mergeCell ref="A342:K342"/>
-    <mergeCell ref="A34:K34"/>
-    <mergeCell ref="A32:K33"/>
-    <mergeCell ref="A388:K389"/>
-    <mergeCell ref="A173:K174"/>
-    <mergeCell ref="A158:K158"/>
-    <mergeCell ref="A156:K157"/>
-    <mergeCell ref="A378:K378"/>
-    <mergeCell ref="A376:K377"/>
-    <mergeCell ref="A353:K353"/>
-    <mergeCell ref="A351:K352"/>
-    <mergeCell ref="A259:K259"/>
-    <mergeCell ref="A257:K258"/>
-    <mergeCell ref="A248:K248"/>
-    <mergeCell ref="A246:K247"/>
-    <mergeCell ref="A304:K305"/>
-    <mergeCell ref="A306:K306"/>
-    <mergeCell ref="A318:K319"/>
-    <mergeCell ref="A320:K320"/>
-    <mergeCell ref="A329:K330"/>
-    <mergeCell ref="A65:K66"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="A438:K439"/>
-    <mergeCell ref="A440:K440"/>
-    <mergeCell ref="A365:K366"/>
-    <mergeCell ref="A367:K367"/>
-    <mergeCell ref="A429:K430"/>
-    <mergeCell ref="A431:K431"/>
-    <mergeCell ref="A410:K410"/>
-    <mergeCell ref="A418:K419"/>
-    <mergeCell ref="A420:K420"/>
-    <mergeCell ref="A398:K399"/>
-    <mergeCell ref="A400:K400"/>
-    <mergeCell ref="A408:K409"/>
-    <mergeCell ref="A390:K390"/>
-    <mergeCell ref="A331:K331"/>
+    <mergeCell ref="A185:K185"/>
+    <mergeCell ref="A183:K184"/>
+    <mergeCell ref="A236:K237"/>
+    <mergeCell ref="A222:K222"/>
+    <mergeCell ref="A268:K269"/>
+    <mergeCell ref="A279:K279"/>
+    <mergeCell ref="A286:K287"/>
+    <mergeCell ref="A288:K288"/>
+    <mergeCell ref="A295:K296"/>
+    <mergeCell ref="A297:K297"/>
+    <mergeCell ref="A220:K221"/>
+    <mergeCell ref="A210:K210"/>
+    <mergeCell ref="A208:K209"/>
+    <mergeCell ref="A198:K198"/>
+    <mergeCell ref="A196:K197"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A21:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A375:K376"/>
+    <mergeCell ref="A377:K377"/>
+    <mergeCell ref="A471:K472"/>
+    <mergeCell ref="A473:K473"/>
+    <mergeCell ref="A459:K460"/>
+    <mergeCell ref="A461:K461"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -13950,8 +14157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K115"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103:K115"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112:K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13968,45 +14175,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="106"/>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
+      <c r="A1" s="108"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
+      <c r="A2" s="109"/>
+      <c r="B2" s="109"/>
+      <c r="C2" s="109"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="109"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="109"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="108" t="s">
+      <c r="A3" s="110" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109"/>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="110"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="111"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="112"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14191,45 +14398,45 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="108"/>
+      <c r="I10" s="108"/>
+      <c r="J10" s="108"/>
+      <c r="K10" s="108"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="107"/>
-      <c r="B11" s="107"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="109"/>
+      <c r="I11" s="109"/>
+      <c r="J11" s="109"/>
+      <c r="K11" s="109"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="110" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
+      <c r="B12" s="111"/>
+      <c r="C12" s="111"/>
+      <c r="D12" s="111"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="112"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -14501,45 +14708,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="106"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="106"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="106"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="108"/>
+      <c r="J22" s="108"/>
+      <c r="K22" s="108"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="107"/>
-      <c r="B23" s="107"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="107"/>
-      <c r="I23" s="107"/>
-      <c r="J23" s="107"/>
-      <c r="K23" s="107"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="109"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="109"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="108" t="s">
+      <c r="A24" s="110" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="109"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="111"/>
+      <c r="H24" s="111"/>
+      <c r="I24" s="111"/>
+      <c r="J24" s="111"/>
+      <c r="K24" s="112"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -14786,45 +14993,45 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="106"/>
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="108"/>
+      <c r="E33" s="108"/>
+      <c r="F33" s="108"/>
+      <c r="G33" s="108"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="108"/>
+      <c r="J33" s="108"/>
+      <c r="K33" s="108"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="107"/>
-      <c r="B34" s="107"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="109"/>
+      <c r="D34" s="109"/>
+      <c r="E34" s="109"/>
+      <c r="F34" s="109"/>
+      <c r="G34" s="109"/>
+      <c r="H34" s="109"/>
+      <c r="I34" s="109"/>
+      <c r="J34" s="109"/>
+      <c r="K34" s="109"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="108" t="s">
+      <c r="A35" s="110" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="109"/>
-      <c r="C35" s="109"/>
-      <c r="D35" s="109"/>
-      <c r="E35" s="109"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="110"/>
+      <c r="B35" s="111"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="111"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="112"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -15098,45 +15305,45 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="106"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="106"/>
-      <c r="K45" s="106"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108"/>
+      <c r="E45" s="108"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="108"/>
+      <c r="K45" s="108"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="107"/>
-      <c r="B46" s="107"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="109"/>
+      <c r="C46" s="109"/>
+      <c r="D46" s="109"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="109"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="108" t="s">
+      <c r="A47" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="109"/>
-      <c r="C47" s="109"/>
-      <c r="D47" s="109"/>
-      <c r="E47" s="109"/>
-      <c r="F47" s="109"/>
-      <c r="G47" s="109"/>
-      <c r="H47" s="109"/>
-      <c r="I47" s="109"/>
-      <c r="J47" s="109"/>
-      <c r="K47" s="110"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="112"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -15379,45 +15586,45 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="106"/>
-      <c r="B56" s="106"/>
-      <c r="C56" s="106"/>
-      <c r="D56" s="106"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="106"/>
+      <c r="A56" s="108"/>
+      <c r="B56" s="108"/>
+      <c r="C56" s="108"/>
+      <c r="D56" s="108"/>
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
+      <c r="J56" s="108"/>
+      <c r="K56" s="108"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="107"/>
-      <c r="B57" s="107"/>
-      <c r="C57" s="107"/>
-      <c r="D57" s="107"/>
-      <c r="E57" s="107"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="107"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="107"/>
-      <c r="K57" s="107"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="109"/>
+      <c r="C57" s="109"/>
+      <c r="D57" s="109"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="109"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="108" t="s">
+      <c r="A58" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="109"/>
-      <c r="C58" s="109"/>
-      <c r="D58" s="109"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="109"/>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
-      <c r="J58" s="109"/>
-      <c r="K58" s="110"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="112"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -15660,45 +15867,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="106"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="106"/>
-      <c r="J67" s="106"/>
-      <c r="K67" s="106"/>
+      <c r="A67" s="108"/>
+      <c r="B67" s="108"/>
+      <c r="C67" s="108"/>
+      <c r="D67" s="108"/>
+      <c r="E67" s="108"/>
+      <c r="F67" s="108"/>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="108"/>
+      <c r="J67" s="108"/>
+      <c r="K67" s="108"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="107"/>
-      <c r="B68" s="107"/>
-      <c r="C68" s="107"/>
-      <c r="D68" s="107"/>
-      <c r="E68" s="107"/>
-      <c r="F68" s="107"/>
-      <c r="G68" s="107"/>
-      <c r="H68" s="107"/>
-      <c r="I68" s="107"/>
-      <c r="J68" s="107"/>
-      <c r="K68" s="107"/>
+      <c r="A68" s="109"/>
+      <c r="B68" s="109"/>
+      <c r="C68" s="109"/>
+      <c r="D68" s="109"/>
+      <c r="E68" s="109"/>
+      <c r="F68" s="109"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="109"/>
+      <c r="I68" s="109"/>
+      <c r="J68" s="109"/>
+      <c r="K68" s="109"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="108" t="s">
+      <c r="A69" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="109"/>
-      <c r="C69" s="109"/>
-      <c r="D69" s="109"/>
-      <c r="E69" s="109"/>
-      <c r="F69" s="109"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="109"/>
-      <c r="J69" s="109"/>
-      <c r="K69" s="110"/>
+      <c r="B69" s="111"/>
+      <c r="C69" s="111"/>
+      <c r="D69" s="111"/>
+      <c r="E69" s="111"/>
+      <c r="F69" s="111"/>
+      <c r="G69" s="111"/>
+      <c r="H69" s="111"/>
+      <c r="I69" s="111"/>
+      <c r="J69" s="111"/>
+      <c r="K69" s="112"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -16022,45 +16229,45 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="106"/>
-      <c r="B82" s="106"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="106"/>
-      <c r="E82" s="106"/>
-      <c r="F82" s="106"/>
-      <c r="G82" s="106"/>
-      <c r="H82" s="106"/>
-      <c r="I82" s="106"/>
-      <c r="J82" s="106"/>
-      <c r="K82" s="106"/>
+      <c r="A82" s="108"/>
+      <c r="B82" s="108"/>
+      <c r="C82" s="108"/>
+      <c r="D82" s="108"/>
+      <c r="E82" s="108"/>
+      <c r="F82" s="108"/>
+      <c r="G82" s="108"/>
+      <c r="H82" s="108"/>
+      <c r="I82" s="108"/>
+      <c r="J82" s="108"/>
+      <c r="K82" s="108"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="107"/>
-      <c r="B83" s="107"/>
-      <c r="C83" s="107"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="107"/>
-      <c r="J83" s="107"/>
-      <c r="K83" s="107"/>
+      <c r="A83" s="109"/>
+      <c r="B83" s="109"/>
+      <c r="C83" s="109"/>
+      <c r="D83" s="109"/>
+      <c r="E83" s="109"/>
+      <c r="F83" s="109"/>
+      <c r="G83" s="109"/>
+      <c r="H83" s="109"/>
+      <c r="I83" s="109"/>
+      <c r="J83" s="109"/>
+      <c r="K83" s="109"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="108" t="s">
+      <c r="A84" s="110" t="s">
         <v>192</v>
       </c>
-      <c r="B84" s="109"/>
-      <c r="C84" s="109"/>
-      <c r="D84" s="109"/>
-      <c r="E84" s="109"/>
-      <c r="F84" s="109"/>
-      <c r="G84" s="109"/>
-      <c r="H84" s="109"/>
-      <c r="I84" s="109"/>
-      <c r="J84" s="109"/>
-      <c r="K84" s="110"/>
+      <c r="B84" s="111"/>
+      <c r="C84" s="111"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="111"/>
+      <c r="F84" s="111"/>
+      <c r="G84" s="111"/>
+      <c r="H84" s="111"/>
+      <c r="I84" s="111"/>
+      <c r="J84" s="111"/>
+      <c r="K84" s="112"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
@@ -16241,45 +16448,45 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="106"/>
-      <c r="B91" s="106"/>
-      <c r="C91" s="106"/>
-      <c r="D91" s="106"/>
-      <c r="E91" s="106"/>
-      <c r="F91" s="106"/>
-      <c r="G91" s="106"/>
-      <c r="H91" s="106"/>
-      <c r="I91" s="106"/>
-      <c r="J91" s="106"/>
-      <c r="K91" s="106"/>
+      <c r="A91" s="108"/>
+      <c r="B91" s="108"/>
+      <c r="C91" s="108"/>
+      <c r="D91" s="108"/>
+      <c r="E91" s="108"/>
+      <c r="F91" s="108"/>
+      <c r="G91" s="108"/>
+      <c r="H91" s="108"/>
+      <c r="I91" s="108"/>
+      <c r="J91" s="108"/>
+      <c r="K91" s="108"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="107"/>
-      <c r="B92" s="107"/>
-      <c r="C92" s="107"/>
-      <c r="D92" s="107"/>
-      <c r="E92" s="107"/>
-      <c r="F92" s="107"/>
-      <c r="G92" s="107"/>
-      <c r="H92" s="107"/>
-      <c r="I92" s="107"/>
-      <c r="J92" s="107"/>
-      <c r="K92" s="107"/>
+      <c r="A92" s="109"/>
+      <c r="B92" s="109"/>
+      <c r="C92" s="109"/>
+      <c r="D92" s="109"/>
+      <c r="E92" s="109"/>
+      <c r="F92" s="109"/>
+      <c r="G92" s="109"/>
+      <c r="H92" s="109"/>
+      <c r="I92" s="109"/>
+      <c r="J92" s="109"/>
+      <c r="K92" s="109"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="108" t="s">
+      <c r="A93" s="110" t="s">
         <v>191</v>
       </c>
-      <c r="B93" s="109"/>
-      <c r="C93" s="109"/>
-      <c r="D93" s="109"/>
-      <c r="E93" s="109"/>
-      <c r="F93" s="109"/>
-      <c r="G93" s="109"/>
-      <c r="H93" s="109"/>
-      <c r="I93" s="109"/>
-      <c r="J93" s="109"/>
-      <c r="K93" s="110"/>
+      <c r="B93" s="111"/>
+      <c r="C93" s="111"/>
+      <c r="D93" s="111"/>
+      <c r="E93" s="111"/>
+      <c r="F93" s="111"/>
+      <c r="G93" s="111"/>
+      <c r="H93" s="111"/>
+      <c r="I93" s="111"/>
+      <c r="J93" s="111"/>
+      <c r="K93" s="112"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -16526,45 +16733,45 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="106"/>
-      <c r="B103" s="106"/>
-      <c r="C103" s="106"/>
-      <c r="D103" s="106"/>
-      <c r="E103" s="106"/>
-      <c r="F103" s="106"/>
-      <c r="G103" s="106"/>
-      <c r="H103" s="106"/>
-      <c r="I103" s="106"/>
-      <c r="J103" s="106"/>
-      <c r="K103" s="106"/>
+      <c r="A103" s="108"/>
+      <c r="B103" s="108"/>
+      <c r="C103" s="108"/>
+      <c r="D103" s="108"/>
+      <c r="E103" s="108"/>
+      <c r="F103" s="108"/>
+      <c r="G103" s="108"/>
+      <c r="H103" s="108"/>
+      <c r="I103" s="108"/>
+      <c r="J103" s="108"/>
+      <c r="K103" s="108"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="107"/>
-      <c r="B104" s="107"/>
-      <c r="C104" s="107"/>
-      <c r="D104" s="107"/>
-      <c r="E104" s="107"/>
-      <c r="F104" s="107"/>
-      <c r="G104" s="107"/>
-      <c r="H104" s="107"/>
-      <c r="I104" s="107"/>
-      <c r="J104" s="107"/>
-      <c r="K104" s="107"/>
+      <c r="A104" s="109"/>
+      <c r="B104" s="109"/>
+      <c r="C104" s="109"/>
+      <c r="D104" s="109"/>
+      <c r="E104" s="109"/>
+      <c r="F104" s="109"/>
+      <c r="G104" s="109"/>
+      <c r="H104" s="109"/>
+      <c r="I104" s="109"/>
+      <c r="J104" s="109"/>
+      <c r="K104" s="109"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="108" t="s">
+      <c r="A105" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="109"/>
-      <c r="C105" s="109"/>
-      <c r="D105" s="109"/>
-      <c r="E105" s="109"/>
-      <c r="F105" s="109"/>
-      <c r="G105" s="109"/>
-      <c r="H105" s="109"/>
-      <c r="I105" s="109"/>
-      <c r="J105" s="109"/>
-      <c r="K105" s="110"/>
+      <c r="B105" s="111"/>
+      <c r="C105" s="111"/>
+      <c r="D105" s="111"/>
+      <c r="E105" s="111"/>
+      <c r="F105" s="111"/>
+      <c r="G105" s="111"/>
+      <c r="H105" s="111"/>
+      <c r="I105" s="111"/>
+      <c r="J105" s="111"/>
+      <c r="K105" s="112"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
@@ -16695,45 +16902,45 @@
       <c r="K109" s="14"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="106"/>
-      <c r="B110" s="106"/>
-      <c r="C110" s="106"/>
-      <c r="D110" s="106"/>
-      <c r="E110" s="106"/>
-      <c r="F110" s="106"/>
-      <c r="G110" s="106"/>
-      <c r="H110" s="106"/>
-      <c r="I110" s="106"/>
-      <c r="J110" s="106"/>
-      <c r="K110" s="106"/>
+      <c r="A110" s="108"/>
+      <c r="B110" s="108"/>
+      <c r="C110" s="108"/>
+      <c r="D110" s="108"/>
+      <c r="E110" s="108"/>
+      <c r="F110" s="108"/>
+      <c r="G110" s="108"/>
+      <c r="H110" s="108"/>
+      <c r="I110" s="108"/>
+      <c r="J110" s="108"/>
+      <c r="K110" s="108"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="107"/>
-      <c r="B111" s="107"/>
-      <c r="C111" s="107"/>
-      <c r="D111" s="107"/>
-      <c r="E111" s="107"/>
-      <c r="F111" s="107"/>
-      <c r="G111" s="107"/>
-      <c r="H111" s="107"/>
-      <c r="I111" s="107"/>
-      <c r="J111" s="107"/>
-      <c r="K111" s="107"/>
+      <c r="A111" s="109"/>
+      <c r="B111" s="109"/>
+      <c r="C111" s="109"/>
+      <c r="D111" s="109"/>
+      <c r="E111" s="109"/>
+      <c r="F111" s="109"/>
+      <c r="G111" s="109"/>
+      <c r="H111" s="109"/>
+      <c r="I111" s="109"/>
+      <c r="J111" s="109"/>
+      <c r="K111" s="109"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="108" t="s">
+      <c r="A112" s="110" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="109"/>
-      <c r="C112" s="109"/>
-      <c r="D112" s="109"/>
-      <c r="E112" s="109"/>
-      <c r="F112" s="109"/>
-      <c r="G112" s="109"/>
-      <c r="H112" s="109"/>
-      <c r="I112" s="109"/>
-      <c r="J112" s="109"/>
-      <c r="K112" s="110"/>
+      <c r="B112" s="111"/>
+      <c r="C112" s="111"/>
+      <c r="D112" s="111"/>
+      <c r="E112" s="111"/>
+      <c r="F112" s="111"/>
+      <c r="G112" s="111"/>
+      <c r="H112" s="111"/>
+      <c r="I112" s="111"/>
+      <c r="J112" s="111"/>
+      <c r="K112" s="112"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -16834,14 +17041,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="A110:K111"/>
-    <mergeCell ref="A105:K105"/>
-    <mergeCell ref="A103:K104"/>
-    <mergeCell ref="A82:K83"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A91:K92"/>
     <mergeCell ref="A67:K68"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="A12:K12"/>
@@ -16856,6 +17055,14 @@
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="A33:K34"/>
     <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="A110:K111"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A103:K104"/>
+    <mergeCell ref="A82:K83"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A91:K92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="20490" windowHeight="7035"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="20490" windowHeight="6975"/>
   </bookViews>
   <sheets>
     <sheet name="Schema" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2902" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="315">
   <si>
     <t>No</t>
   </si>
@@ -952,6 +952,15 @@
   </si>
   <si>
     <t>tpe_profession</t>
+  </si>
+  <si>
+    <t>hi_category</t>
+  </si>
+  <si>
+    <t>pro_hi_human_icons_category</t>
+  </si>
+  <si>
+    <t>hic_name</t>
   </si>
 </sst>
 </file>
@@ -1186,7 +1195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1513,6 +1522,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1521,6 +1539,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1533,9 +1554,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1850,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K480"/>
+  <dimension ref="A1:K490"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A361" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I373" sqref="I373"/>
+    <sheetView tabSelected="1" topLeftCell="A396" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I412" sqref="I412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,49 +1891,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="116"/>
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="120"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -2121,45 +2139,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
+      <c r="A11" s="111"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109"/>
+      <c r="A12" s="112"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
+      <c r="K12" s="112"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="118" t="s">
+      <c r="A13" s="121" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
-      <c r="K13" s="120"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="123"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
@@ -2365,45 +2383,45 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="117"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="117"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="116"/>
+      <c r="E21" s="116"/>
+      <c r="F21" s="116"/>
+      <c r="G21" s="116"/>
+      <c r="H21" s="116"/>
+      <c r="I21" s="116"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="109"/>
-      <c r="I22" s="109"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
+      <c r="A22" s="112"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="111"/>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="111"/>
-      <c r="I23" s="111"/>
-      <c r="J23" s="111"/>
-      <c r="K23" s="112"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="114"/>
+      <c r="J23" s="114"/>
+      <c r="K23" s="115"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2636,45 +2654,45 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="108"/>
-      <c r="B32" s="108"/>
-      <c r="C32" s="108"/>
-      <c r="D32" s="108"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="108"/>
-      <c r="H32" s="108"/>
-      <c r="I32" s="108"/>
-      <c r="J32" s="108"/>
-      <c r="K32" s="108"/>
+      <c r="A32" s="111"/>
+      <c r="B32" s="111"/>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="109"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="109"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
+      <c r="A33" s="112"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="112"/>
+      <c r="J33" s="112"/>
+      <c r="K33" s="112"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
-      <c r="K34" s="112"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="114"/>
+      <c r="D34" s="114"/>
+      <c r="E34" s="114"/>
+      <c r="F34" s="114"/>
+      <c r="G34" s="114"/>
+      <c r="H34" s="114"/>
+      <c r="I34" s="114"/>
+      <c r="J34" s="114"/>
+      <c r="K34" s="115"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
@@ -3515,45 +3533,45 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="108"/>
-      <c r="B65" s="108"/>
-      <c r="C65" s="108"/>
-      <c r="D65" s="108"/>
-      <c r="E65" s="108"/>
-      <c r="F65" s="108"/>
-      <c r="G65" s="108"/>
-      <c r="H65" s="108"/>
-      <c r="I65" s="108"/>
-      <c r="J65" s="108"/>
-      <c r="K65" s="108"/>
+      <c r="A65" s="111"/>
+      <c r="B65" s="111"/>
+      <c r="C65" s="111"/>
+      <c r="D65" s="111"/>
+      <c r="E65" s="111"/>
+      <c r="F65" s="111"/>
+      <c r="G65" s="111"/>
+      <c r="H65" s="111"/>
+      <c r="I65" s="111"/>
+      <c r="J65" s="111"/>
+      <c r="K65" s="111"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="109"/>
-      <c r="B66" s="109"/>
-      <c r="C66" s="109"/>
-      <c r="D66" s="109"/>
-      <c r="E66" s="109"/>
-      <c r="F66" s="109"/>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
-      <c r="J66" s="109"/>
-      <c r="K66" s="109"/>
+      <c r="A66" s="112"/>
+      <c r="B66" s="112"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="112"/>
+      <c r="K66" s="112"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="110" t="s">
+      <c r="A67" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="B67" s="111"/>
-      <c r="C67" s="111"/>
-      <c r="D67" s="111"/>
-      <c r="E67" s="111"/>
-      <c r="F67" s="111"/>
-      <c r="G67" s="111"/>
-      <c r="H67" s="111"/>
-      <c r="I67" s="111"/>
-      <c r="J67" s="111"/>
-      <c r="K67" s="112"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
+      <c r="F67" s="114"/>
+      <c r="G67" s="114"/>
+      <c r="H67" s="114"/>
+      <c r="I67" s="114"/>
+      <c r="J67" s="114"/>
+      <c r="K67" s="115"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -3794,45 +3812,45 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
-      <c r="B76" s="108"/>
-      <c r="C76" s="108"/>
-      <c r="D76" s="108"/>
-      <c r="E76" s="108"/>
-      <c r="F76" s="108"/>
-      <c r="G76" s="108"/>
-      <c r="H76" s="108"/>
-      <c r="I76" s="108"/>
-      <c r="J76" s="108"/>
-      <c r="K76" s="108"/>
+      <c r="A76" s="111"/>
+      <c r="B76" s="111"/>
+      <c r="C76" s="111"/>
+      <c r="D76" s="111"/>
+      <c r="E76" s="111"/>
+      <c r="F76" s="111"/>
+      <c r="G76" s="111"/>
+      <c r="H76" s="111"/>
+      <c r="I76" s="111"/>
+      <c r="J76" s="111"/>
+      <c r="K76" s="111"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="109"/>
-      <c r="B77" s="109"/>
-      <c r="C77" s="109"/>
-      <c r="D77" s="109"/>
-      <c r="E77" s="109"/>
-      <c r="F77" s="109"/>
-      <c r="G77" s="109"/>
-      <c r="H77" s="109"/>
-      <c r="I77" s="109"/>
-      <c r="J77" s="109"/>
-      <c r="K77" s="109"/>
+      <c r="A77" s="112"/>
+      <c r="B77" s="112"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="112"/>
+      <c r="E77" s="112"/>
+      <c r="F77" s="112"/>
+      <c r="G77" s="112"/>
+      <c r="H77" s="112"/>
+      <c r="I77" s="112"/>
+      <c r="J77" s="112"/>
+      <c r="K77" s="112"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="110" t="s">
+      <c r="A78" s="113" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="111"/>
-      <c r="C78" s="111"/>
-      <c r="D78" s="111"/>
-      <c r="E78" s="111"/>
-      <c r="F78" s="111"/>
-      <c r="G78" s="111"/>
-      <c r="H78" s="111"/>
-      <c r="I78" s="111"/>
-      <c r="J78" s="111"/>
-      <c r="K78" s="112"/>
+      <c r="B78" s="114"/>
+      <c r="C78" s="114"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="114"/>
+      <c r="F78" s="114"/>
+      <c r="G78" s="114"/>
+      <c r="H78" s="114"/>
+      <c r="I78" s="114"/>
+      <c r="J78" s="114"/>
+      <c r="K78" s="115"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
@@ -4046,45 +4064,45 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="117"/>
-      <c r="B86" s="117"/>
-      <c r="C86" s="117"/>
-      <c r="D86" s="117"/>
-      <c r="E86" s="117"/>
-      <c r="F86" s="117"/>
-      <c r="G86" s="117"/>
-      <c r="H86" s="117"/>
-      <c r="I86" s="117"/>
-      <c r="J86" s="117"/>
-      <c r="K86" s="117"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="116"/>
+      <c r="C86" s="116"/>
+      <c r="D86" s="116"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="116"/>
+      <c r="H86" s="116"/>
+      <c r="I86" s="116"/>
+      <c r="J86" s="116"/>
+      <c r="K86" s="116"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="109"/>
-      <c r="B87" s="109"/>
-      <c r="C87" s="109"/>
-      <c r="D87" s="109"/>
-      <c r="E87" s="109"/>
-      <c r="F87" s="109"/>
-      <c r="G87" s="109"/>
-      <c r="H87" s="109"/>
-      <c r="I87" s="109"/>
-      <c r="J87" s="109"/>
-      <c r="K87" s="109"/>
+      <c r="A87" s="112"/>
+      <c r="B87" s="112"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="112"/>
+      <c r="E87" s="112"/>
+      <c r="F87" s="112"/>
+      <c r="G87" s="112"/>
+      <c r="H87" s="112"/>
+      <c r="I87" s="112"/>
+      <c r="J87" s="112"/>
+      <c r="K87" s="112"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="110" t="s">
+      <c r="A88" s="113" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="111"/>
-      <c r="C88" s="111"/>
-      <c r="D88" s="111"/>
-      <c r="E88" s="111"/>
-      <c r="F88" s="111"/>
-      <c r="G88" s="111"/>
-      <c r="H88" s="111"/>
-      <c r="I88" s="111"/>
-      <c r="J88" s="111"/>
-      <c r="K88" s="112"/>
+      <c r="B88" s="114"/>
+      <c r="C88" s="114"/>
+      <c r="D88" s="114"/>
+      <c r="E88" s="114"/>
+      <c r="F88" s="114"/>
+      <c r="G88" s="114"/>
+      <c r="H88" s="114"/>
+      <c r="I88" s="114"/>
+      <c r="J88" s="114"/>
+      <c r="K88" s="115"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -4373,45 +4391,45 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="117"/>
-      <c r="B99" s="117"/>
-      <c r="C99" s="117"/>
-      <c r="D99" s="117"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="117"/>
-      <c r="G99" s="117"/>
-      <c r="H99" s="117"/>
-      <c r="I99" s="117"/>
-      <c r="J99" s="117"/>
-      <c r="K99" s="117"/>
+      <c r="A99" s="116"/>
+      <c r="B99" s="116"/>
+      <c r="C99" s="116"/>
+      <c r="D99" s="116"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="116"/>
+      <c r="H99" s="116"/>
+      <c r="I99" s="116"/>
+      <c r="J99" s="116"/>
+      <c r="K99" s="116"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="109"/>
-      <c r="B100" s="109"/>
-      <c r="C100" s="109"/>
-      <c r="D100" s="109"/>
-      <c r="E100" s="109"/>
-      <c r="F100" s="109"/>
-      <c r="G100" s="109"/>
-      <c r="H100" s="109"/>
-      <c r="I100" s="109"/>
-      <c r="J100" s="109"/>
-      <c r="K100" s="109"/>
+      <c r="A100" s="112"/>
+      <c r="B100" s="112"/>
+      <c r="C100" s="112"/>
+      <c r="D100" s="112"/>
+      <c r="E100" s="112"/>
+      <c r="F100" s="112"/>
+      <c r="G100" s="112"/>
+      <c r="H100" s="112"/>
+      <c r="I100" s="112"/>
+      <c r="J100" s="112"/>
+      <c r="K100" s="112"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="110" t="s">
+      <c r="A101" s="113" t="s">
         <v>308</v>
       </c>
-      <c r="B101" s="111"/>
-      <c r="C101" s="111"/>
-      <c r="D101" s="111"/>
-      <c r="E101" s="111"/>
-      <c r="F101" s="111"/>
-      <c r="G101" s="111"/>
-      <c r="H101" s="111"/>
-      <c r="I101" s="111"/>
-      <c r="J101" s="111"/>
-      <c r="K101" s="112"/>
+      <c r="B101" s="114"/>
+      <c r="C101" s="114"/>
+      <c r="D101" s="114"/>
+      <c r="E101" s="114"/>
+      <c r="F101" s="114"/>
+      <c r="G101" s="114"/>
+      <c r="H101" s="114"/>
+      <c r="I101" s="114"/>
+      <c r="J101" s="114"/>
+      <c r="K101" s="115"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
@@ -4652,45 +4670,45 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="108"/>
-      <c r="B110" s="108"/>
-      <c r="C110" s="108"/>
-      <c r="D110" s="108"/>
-      <c r="E110" s="108"/>
-      <c r="F110" s="108"/>
-      <c r="G110" s="108"/>
-      <c r="H110" s="108"/>
-      <c r="I110" s="108"/>
-      <c r="J110" s="108"/>
-      <c r="K110" s="108"/>
+      <c r="A110" s="111"/>
+      <c r="B110" s="111"/>
+      <c r="C110" s="111"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="111"/>
+      <c r="H110" s="111"/>
+      <c r="I110" s="111"/>
+      <c r="J110" s="111"/>
+      <c r="K110" s="111"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="109"/>
-      <c r="B111" s="109"/>
-      <c r="C111" s="109"/>
-      <c r="D111" s="109"/>
-      <c r="E111" s="109"/>
-      <c r="F111" s="109"/>
-      <c r="G111" s="109"/>
-      <c r="H111" s="109"/>
-      <c r="I111" s="109"/>
-      <c r="J111" s="109"/>
-      <c r="K111" s="109"/>
+      <c r="A111" s="112"/>
+      <c r="B111" s="112"/>
+      <c r="C111" s="112"/>
+      <c r="D111" s="112"/>
+      <c r="E111" s="112"/>
+      <c r="F111" s="112"/>
+      <c r="G111" s="112"/>
+      <c r="H111" s="112"/>
+      <c r="I111" s="112"/>
+      <c r="J111" s="112"/>
+      <c r="K111" s="112"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="110" t="s">
+      <c r="A112" s="113" t="s">
         <v>43</v>
       </c>
-      <c r="B112" s="111"/>
-      <c r="C112" s="111"/>
-      <c r="D112" s="111"/>
-      <c r="E112" s="111"/>
-      <c r="F112" s="111"/>
-      <c r="G112" s="111"/>
-      <c r="H112" s="111"/>
-      <c r="I112" s="111"/>
-      <c r="J112" s="111"/>
-      <c r="K112" s="112"/>
+      <c r="B112" s="114"/>
+      <c r="C112" s="114"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
+      <c r="F112" s="114"/>
+      <c r="G112" s="114"/>
+      <c r="H112" s="114"/>
+      <c r="I112" s="114"/>
+      <c r="J112" s="114"/>
+      <c r="K112" s="115"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -5018,45 +5036,45 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="108"/>
-      <c r="B124" s="108"/>
-      <c r="C124" s="108"/>
-      <c r="D124" s="108"/>
-      <c r="E124" s="108"/>
-      <c r="F124" s="108"/>
-      <c r="G124" s="108"/>
-      <c r="H124" s="108"/>
-      <c r="I124" s="108"/>
-      <c r="J124" s="108"/>
-      <c r="K124" s="108"/>
+      <c r="A124" s="111"/>
+      <c r="B124" s="111"/>
+      <c r="C124" s="111"/>
+      <c r="D124" s="111"/>
+      <c r="E124" s="111"/>
+      <c r="F124" s="111"/>
+      <c r="G124" s="111"/>
+      <c r="H124" s="111"/>
+      <c r="I124" s="111"/>
+      <c r="J124" s="111"/>
+      <c r="K124" s="111"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="109"/>
-      <c r="B125" s="109"/>
-      <c r="C125" s="109"/>
-      <c r="D125" s="109"/>
-      <c r="E125" s="109"/>
-      <c r="F125" s="109"/>
-      <c r="G125" s="109"/>
-      <c r="H125" s="109"/>
-      <c r="I125" s="109"/>
-      <c r="J125" s="109"/>
-      <c r="K125" s="109"/>
+      <c r="A125" s="112"/>
+      <c r="B125" s="112"/>
+      <c r="C125" s="112"/>
+      <c r="D125" s="112"/>
+      <c r="E125" s="112"/>
+      <c r="F125" s="112"/>
+      <c r="G125" s="112"/>
+      <c r="H125" s="112"/>
+      <c r="I125" s="112"/>
+      <c r="J125" s="112"/>
+      <c r="K125" s="112"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="110" t="s">
+      <c r="A126" s="113" t="s">
         <v>50</v>
       </c>
-      <c r="B126" s="111"/>
-      <c r="C126" s="111"/>
-      <c r="D126" s="111"/>
-      <c r="E126" s="111"/>
-      <c r="F126" s="111"/>
-      <c r="G126" s="111"/>
-      <c r="H126" s="111"/>
-      <c r="I126" s="111"/>
-      <c r="J126" s="111"/>
-      <c r="K126" s="112"/>
+      <c r="B126" s="114"/>
+      <c r="C126" s="114"/>
+      <c r="D126" s="114"/>
+      <c r="E126" s="114"/>
+      <c r="F126" s="114"/>
+      <c r="G126" s="114"/>
+      <c r="H126" s="114"/>
+      <c r="I126" s="114"/>
+      <c r="J126" s="114"/>
+      <c r="K126" s="115"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
@@ -5403,45 +5421,45 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="108"/>
-      <c r="B139" s="108"/>
-      <c r="C139" s="108"/>
-      <c r="D139" s="108"/>
-      <c r="E139" s="108"/>
-      <c r="F139" s="108"/>
-      <c r="G139" s="108"/>
-      <c r="H139" s="108"/>
-      <c r="I139" s="108"/>
-      <c r="J139" s="108"/>
-      <c r="K139" s="108"/>
+      <c r="A139" s="111"/>
+      <c r="B139" s="111"/>
+      <c r="C139" s="111"/>
+      <c r="D139" s="111"/>
+      <c r="E139" s="111"/>
+      <c r="F139" s="111"/>
+      <c r="G139" s="111"/>
+      <c r="H139" s="111"/>
+      <c r="I139" s="111"/>
+      <c r="J139" s="111"/>
+      <c r="K139" s="111"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="109"/>
-      <c r="B140" s="109"/>
-      <c r="C140" s="109"/>
-      <c r="D140" s="109"/>
-      <c r="E140" s="109"/>
-      <c r="F140" s="109"/>
-      <c r="G140" s="109"/>
-      <c r="H140" s="109"/>
-      <c r="I140" s="109"/>
-      <c r="J140" s="109"/>
-      <c r="K140" s="109"/>
+      <c r="A140" s="112"/>
+      <c r="B140" s="112"/>
+      <c r="C140" s="112"/>
+      <c r="D140" s="112"/>
+      <c r="E140" s="112"/>
+      <c r="F140" s="112"/>
+      <c r="G140" s="112"/>
+      <c r="H140" s="112"/>
+      <c r="I140" s="112"/>
+      <c r="J140" s="112"/>
+      <c r="K140" s="112"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="110" t="s">
+      <c r="A141" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="B141" s="111"/>
-      <c r="C141" s="111"/>
-      <c r="D141" s="111"/>
-      <c r="E141" s="111"/>
-      <c r="F141" s="111"/>
-      <c r="G141" s="111"/>
-      <c r="H141" s="111"/>
-      <c r="I141" s="111"/>
-      <c r="J141" s="111"/>
-      <c r="K141" s="112"/>
+      <c r="B141" s="114"/>
+      <c r="C141" s="114"/>
+      <c r="D141" s="114"/>
+      <c r="E141" s="114"/>
+      <c r="F141" s="114"/>
+      <c r="G141" s="114"/>
+      <c r="H141" s="114"/>
+      <c r="I141" s="114"/>
+      <c r="J141" s="114"/>
+      <c r="K141" s="115"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
@@ -5854,45 +5872,45 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="108"/>
-      <c r="B156" s="108"/>
-      <c r="C156" s="108"/>
-      <c r="D156" s="108"/>
-      <c r="E156" s="108"/>
-      <c r="F156" s="108"/>
-      <c r="G156" s="108"/>
-      <c r="H156" s="108"/>
-      <c r="I156" s="108"/>
-      <c r="J156" s="108"/>
-      <c r="K156" s="108"/>
+      <c r="A156" s="111"/>
+      <c r="B156" s="111"/>
+      <c r="C156" s="111"/>
+      <c r="D156" s="111"/>
+      <c r="E156" s="111"/>
+      <c r="F156" s="111"/>
+      <c r="G156" s="111"/>
+      <c r="H156" s="111"/>
+      <c r="I156" s="111"/>
+      <c r="J156" s="111"/>
+      <c r="K156" s="111"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="109"/>
-      <c r="B157" s="109"/>
-      <c r="C157" s="109"/>
-      <c r="D157" s="109"/>
-      <c r="E157" s="109"/>
-      <c r="F157" s="109"/>
-      <c r="G157" s="109"/>
-      <c r="H157" s="109"/>
-      <c r="I157" s="109"/>
-      <c r="J157" s="109"/>
-      <c r="K157" s="109"/>
+      <c r="A157" s="112"/>
+      <c r="B157" s="112"/>
+      <c r="C157" s="112"/>
+      <c r="D157" s="112"/>
+      <c r="E157" s="112"/>
+      <c r="F157" s="112"/>
+      <c r="G157" s="112"/>
+      <c r="H157" s="112"/>
+      <c r="I157" s="112"/>
+      <c r="J157" s="112"/>
+      <c r="K157" s="112"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="110" t="s">
+      <c r="A158" s="113" t="s">
         <v>126</v>
       </c>
-      <c r="B158" s="111"/>
-      <c r="C158" s="111"/>
-      <c r="D158" s="111"/>
-      <c r="E158" s="111"/>
-      <c r="F158" s="111"/>
-      <c r="G158" s="111"/>
-      <c r="H158" s="111"/>
-      <c r="I158" s="111"/>
-      <c r="J158" s="111"/>
-      <c r="K158" s="112"/>
+      <c r="B158" s="114"/>
+      <c r="C158" s="114"/>
+      <c r="D158" s="114"/>
+      <c r="E158" s="114"/>
+      <c r="F158" s="114"/>
+      <c r="G158" s="114"/>
+      <c r="H158" s="114"/>
+      <c r="I158" s="114"/>
+      <c r="J158" s="114"/>
+      <c r="K158" s="115"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -6285,45 +6303,45 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="108"/>
-      <c r="B173" s="108"/>
-      <c r="C173" s="108"/>
-      <c r="D173" s="108"/>
-      <c r="E173" s="108"/>
-      <c r="F173" s="108"/>
-      <c r="G173" s="108"/>
-      <c r="H173" s="108"/>
-      <c r="I173" s="108"/>
-      <c r="J173" s="108"/>
-      <c r="K173" s="108"/>
+      <c r="A173" s="111"/>
+      <c r="B173" s="111"/>
+      <c r="C173" s="111"/>
+      <c r="D173" s="111"/>
+      <c r="E173" s="111"/>
+      <c r="F173" s="111"/>
+      <c r="G173" s="111"/>
+      <c r="H173" s="111"/>
+      <c r="I173" s="111"/>
+      <c r="J173" s="111"/>
+      <c r="K173" s="111"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="109"/>
-      <c r="B174" s="109"/>
-      <c r="C174" s="109"/>
-      <c r="D174" s="109"/>
-      <c r="E174" s="109"/>
-      <c r="F174" s="109"/>
-      <c r="G174" s="109"/>
-      <c r="H174" s="109"/>
-      <c r="I174" s="109"/>
-      <c r="J174" s="109"/>
-      <c r="K174" s="109"/>
+      <c r="A174" s="112"/>
+      <c r="B174" s="112"/>
+      <c r="C174" s="112"/>
+      <c r="D174" s="112"/>
+      <c r="E174" s="112"/>
+      <c r="F174" s="112"/>
+      <c r="G174" s="112"/>
+      <c r="H174" s="112"/>
+      <c r="I174" s="112"/>
+      <c r="J174" s="112"/>
+      <c r="K174" s="112"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="110" t="s">
+      <c r="A175" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="B175" s="111"/>
-      <c r="C175" s="111"/>
-      <c r="D175" s="111"/>
-      <c r="E175" s="111"/>
-      <c r="F175" s="111"/>
-      <c r="G175" s="111"/>
-      <c r="H175" s="111"/>
-      <c r="I175" s="111"/>
-      <c r="J175" s="111"/>
-      <c r="K175" s="112"/>
+      <c r="B175" s="114"/>
+      <c r="C175" s="114"/>
+      <c r="D175" s="114"/>
+      <c r="E175" s="114"/>
+      <c r="F175" s="114"/>
+      <c r="G175" s="114"/>
+      <c r="H175" s="114"/>
+      <c r="I175" s="114"/>
+      <c r="J175" s="114"/>
+      <c r="K175" s="115"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
@@ -6537,45 +6555,45 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="108"/>
-      <c r="B183" s="108"/>
-      <c r="C183" s="108"/>
-      <c r="D183" s="108"/>
-      <c r="E183" s="108"/>
-      <c r="F183" s="108"/>
-      <c r="G183" s="108"/>
-      <c r="H183" s="108"/>
-      <c r="I183" s="108"/>
-      <c r="J183" s="108"/>
-      <c r="K183" s="108"/>
+      <c r="A183" s="111"/>
+      <c r="B183" s="111"/>
+      <c r="C183" s="111"/>
+      <c r="D183" s="111"/>
+      <c r="E183" s="111"/>
+      <c r="F183" s="111"/>
+      <c r="G183" s="111"/>
+      <c r="H183" s="111"/>
+      <c r="I183" s="111"/>
+      <c r="J183" s="111"/>
+      <c r="K183" s="111"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="109"/>
-      <c r="B184" s="109"/>
-      <c r="C184" s="109"/>
-      <c r="D184" s="109"/>
-      <c r="E184" s="109"/>
-      <c r="F184" s="109"/>
-      <c r="G184" s="109"/>
-      <c r="H184" s="109"/>
-      <c r="I184" s="109"/>
-      <c r="J184" s="109"/>
-      <c r="K184" s="109"/>
+      <c r="A184" s="112"/>
+      <c r="B184" s="112"/>
+      <c r="C184" s="112"/>
+      <c r="D184" s="112"/>
+      <c r="E184" s="112"/>
+      <c r="F184" s="112"/>
+      <c r="G184" s="112"/>
+      <c r="H184" s="112"/>
+      <c r="I184" s="112"/>
+      <c r="J184" s="112"/>
+      <c r="K184" s="112"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="110" t="s">
+      <c r="A185" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="B185" s="111"/>
-      <c r="C185" s="111"/>
-      <c r="D185" s="111"/>
-      <c r="E185" s="111"/>
-      <c r="F185" s="111"/>
-      <c r="G185" s="111"/>
-      <c r="H185" s="111"/>
-      <c r="I185" s="111"/>
-      <c r="J185" s="111"/>
-      <c r="K185" s="112"/>
+      <c r="B185" s="114"/>
+      <c r="C185" s="114"/>
+      <c r="D185" s="114"/>
+      <c r="E185" s="114"/>
+      <c r="F185" s="114"/>
+      <c r="G185" s="114"/>
+      <c r="H185" s="114"/>
+      <c r="I185" s="114"/>
+      <c r="J185" s="114"/>
+      <c r="K185" s="115"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
@@ -6858,45 +6876,45 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="108"/>
-      <c r="B196" s="108"/>
-      <c r="C196" s="108"/>
-      <c r="D196" s="108"/>
-      <c r="E196" s="108"/>
-      <c r="F196" s="108"/>
-      <c r="G196" s="108"/>
-      <c r="H196" s="108"/>
-      <c r="I196" s="108"/>
-      <c r="J196" s="108"/>
-      <c r="K196" s="108"/>
+      <c r="A196" s="111"/>
+      <c r="B196" s="111"/>
+      <c r="C196" s="111"/>
+      <c r="D196" s="111"/>
+      <c r="E196" s="111"/>
+      <c r="F196" s="111"/>
+      <c r="G196" s="111"/>
+      <c r="H196" s="111"/>
+      <c r="I196" s="111"/>
+      <c r="J196" s="111"/>
+      <c r="K196" s="111"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="109"/>
-      <c r="B197" s="109"/>
-      <c r="C197" s="109"/>
-      <c r="D197" s="109"/>
-      <c r="E197" s="109"/>
-      <c r="F197" s="109"/>
-      <c r="G197" s="109"/>
-      <c r="H197" s="109"/>
-      <c r="I197" s="109"/>
-      <c r="J197" s="109"/>
-      <c r="K197" s="109"/>
+      <c r="A197" s="112"/>
+      <c r="B197" s="112"/>
+      <c r="C197" s="112"/>
+      <c r="D197" s="112"/>
+      <c r="E197" s="112"/>
+      <c r="F197" s="112"/>
+      <c r="G197" s="112"/>
+      <c r="H197" s="112"/>
+      <c r="I197" s="112"/>
+      <c r="J197" s="112"/>
+      <c r="K197" s="112"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="110" t="s">
+      <c r="A198" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="B198" s="111"/>
-      <c r="C198" s="111"/>
-      <c r="D198" s="111"/>
-      <c r="E198" s="111"/>
-      <c r="F198" s="111"/>
-      <c r="G198" s="111"/>
-      <c r="H198" s="111"/>
-      <c r="I198" s="111"/>
-      <c r="J198" s="111"/>
-      <c r="K198" s="112"/>
+      <c r="B198" s="114"/>
+      <c r="C198" s="114"/>
+      <c r="D198" s="114"/>
+      <c r="E198" s="114"/>
+      <c r="F198" s="114"/>
+      <c r="G198" s="114"/>
+      <c r="H198" s="114"/>
+      <c r="I198" s="114"/>
+      <c r="J198" s="114"/>
+      <c r="K198" s="115"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
@@ -7164,45 +7182,45 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="108"/>
-      <c r="B208" s="108"/>
-      <c r="C208" s="108"/>
-      <c r="D208" s="108"/>
-      <c r="E208" s="108"/>
-      <c r="F208" s="108"/>
-      <c r="G208" s="108"/>
-      <c r="H208" s="108"/>
-      <c r="I208" s="108"/>
-      <c r="J208" s="108"/>
-      <c r="K208" s="108"/>
+      <c r="A208" s="111"/>
+      <c r="B208" s="111"/>
+      <c r="C208" s="111"/>
+      <c r="D208" s="111"/>
+      <c r="E208" s="111"/>
+      <c r="F208" s="111"/>
+      <c r="G208" s="111"/>
+      <c r="H208" s="111"/>
+      <c r="I208" s="111"/>
+      <c r="J208" s="111"/>
+      <c r="K208" s="111"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="109"/>
-      <c r="B209" s="109"/>
-      <c r="C209" s="109"/>
-      <c r="D209" s="109"/>
-      <c r="E209" s="109"/>
-      <c r="F209" s="109"/>
-      <c r="G209" s="109"/>
-      <c r="H209" s="109"/>
-      <c r="I209" s="109"/>
-      <c r="J209" s="109"/>
-      <c r="K209" s="109"/>
+      <c r="A209" s="112"/>
+      <c r="B209" s="112"/>
+      <c r="C209" s="112"/>
+      <c r="D209" s="112"/>
+      <c r="E209" s="112"/>
+      <c r="F209" s="112"/>
+      <c r="G209" s="112"/>
+      <c r="H209" s="112"/>
+      <c r="I209" s="112"/>
+      <c r="J209" s="112"/>
+      <c r="K209" s="112"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="110" t="s">
+      <c r="A210" s="113" t="s">
         <v>83</v>
       </c>
-      <c r="B210" s="111"/>
-      <c r="C210" s="111"/>
-      <c r="D210" s="111"/>
-      <c r="E210" s="111"/>
-      <c r="F210" s="111"/>
-      <c r="G210" s="111"/>
-      <c r="H210" s="111"/>
-      <c r="I210" s="111"/>
-      <c r="J210" s="111"/>
-      <c r="K210" s="112"/>
+      <c r="B210" s="114"/>
+      <c r="C210" s="114"/>
+      <c r="D210" s="114"/>
+      <c r="E210" s="114"/>
+      <c r="F210" s="114"/>
+      <c r="G210" s="114"/>
+      <c r="H210" s="114"/>
+      <c r="I210" s="114"/>
+      <c r="J210" s="114"/>
+      <c r="K210" s="115"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -7472,45 +7490,45 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="108"/>
-      <c r="B220" s="108"/>
-      <c r="C220" s="108"/>
-      <c r="D220" s="108"/>
-      <c r="E220" s="108"/>
-      <c r="F220" s="108"/>
-      <c r="G220" s="108"/>
-      <c r="H220" s="108"/>
-      <c r="I220" s="108"/>
-      <c r="J220" s="108"/>
-      <c r="K220" s="108"/>
+      <c r="A220" s="111"/>
+      <c r="B220" s="111"/>
+      <c r="C220" s="111"/>
+      <c r="D220" s="111"/>
+      <c r="E220" s="111"/>
+      <c r="F220" s="111"/>
+      <c r="G220" s="111"/>
+      <c r="H220" s="111"/>
+      <c r="I220" s="111"/>
+      <c r="J220" s="111"/>
+      <c r="K220" s="111"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="109"/>
-      <c r="B221" s="109"/>
-      <c r="C221" s="109"/>
-      <c r="D221" s="109"/>
-      <c r="E221" s="109"/>
-      <c r="F221" s="109"/>
-      <c r="G221" s="109"/>
-      <c r="H221" s="109"/>
-      <c r="I221" s="109"/>
-      <c r="J221" s="109"/>
-      <c r="K221" s="109"/>
+      <c r="A221" s="112"/>
+      <c r="B221" s="112"/>
+      <c r="C221" s="112"/>
+      <c r="D221" s="112"/>
+      <c r="E221" s="112"/>
+      <c r="F221" s="112"/>
+      <c r="G221" s="112"/>
+      <c r="H221" s="112"/>
+      <c r="I221" s="112"/>
+      <c r="J221" s="112"/>
+      <c r="K221" s="112"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="110" t="s">
+      <c r="A222" s="113" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="111"/>
-      <c r="C222" s="111"/>
-      <c r="D222" s="111"/>
-      <c r="E222" s="111"/>
-      <c r="F222" s="111"/>
-      <c r="G222" s="111"/>
-      <c r="H222" s="111"/>
-      <c r="I222" s="111"/>
-      <c r="J222" s="111"/>
-      <c r="K222" s="112"/>
+      <c r="B222" s="114"/>
+      <c r="C222" s="114"/>
+      <c r="D222" s="114"/>
+      <c r="E222" s="114"/>
+      <c r="F222" s="114"/>
+      <c r="G222" s="114"/>
+      <c r="H222" s="114"/>
+      <c r="I222" s="114"/>
+      <c r="J222" s="114"/>
+      <c r="K222" s="115"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
@@ -7908,45 +7926,45 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="108"/>
-      <c r="B236" s="108"/>
-      <c r="C236" s="108"/>
-      <c r="D236" s="108"/>
-      <c r="E236" s="108"/>
-      <c r="F236" s="108"/>
-      <c r="G236" s="108"/>
-      <c r="H236" s="108"/>
-      <c r="I236" s="108"/>
-      <c r="J236" s="108"/>
-      <c r="K236" s="108"/>
+      <c r="A236" s="111"/>
+      <c r="B236" s="111"/>
+      <c r="C236" s="111"/>
+      <c r="D236" s="111"/>
+      <c r="E236" s="111"/>
+      <c r="F236" s="111"/>
+      <c r="G236" s="111"/>
+      <c r="H236" s="111"/>
+      <c r="I236" s="111"/>
+      <c r="J236" s="111"/>
+      <c r="K236" s="111"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="109"/>
-      <c r="B237" s="109"/>
-      <c r="C237" s="109"/>
-      <c r="D237" s="109"/>
-      <c r="E237" s="109"/>
-      <c r="F237" s="109"/>
-      <c r="G237" s="109"/>
-      <c r="H237" s="109"/>
-      <c r="I237" s="109"/>
-      <c r="J237" s="109"/>
-      <c r="K237" s="109"/>
+      <c r="A237" s="112"/>
+      <c r="B237" s="112"/>
+      <c r="C237" s="112"/>
+      <c r="D237" s="112"/>
+      <c r="E237" s="112"/>
+      <c r="F237" s="112"/>
+      <c r="G237" s="112"/>
+      <c r="H237" s="112"/>
+      <c r="I237" s="112"/>
+      <c r="J237" s="112"/>
+      <c r="K237" s="112"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="110" t="s">
+      <c r="A238" s="113" t="s">
         <v>200</v>
       </c>
-      <c r="B238" s="111"/>
-      <c r="C238" s="111"/>
-      <c r="D238" s="111"/>
-      <c r="E238" s="111"/>
-      <c r="F238" s="111"/>
-      <c r="G238" s="111"/>
-      <c r="H238" s="111"/>
-      <c r="I238" s="111"/>
-      <c r="J238" s="111"/>
-      <c r="K238" s="112"/>
+      <c r="B238" s="114"/>
+      <c r="C238" s="114"/>
+      <c r="D238" s="114"/>
+      <c r="E238" s="114"/>
+      <c r="F238" s="114"/>
+      <c r="G238" s="114"/>
+      <c r="H238" s="114"/>
+      <c r="I238" s="114"/>
+      <c r="J238" s="114"/>
+      <c r="K238" s="115"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
@@ -8147,45 +8165,45 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="108"/>
-      <c r="B246" s="108"/>
-      <c r="C246" s="108"/>
-      <c r="D246" s="108"/>
-      <c r="E246" s="108"/>
-      <c r="F246" s="108"/>
-      <c r="G246" s="108"/>
-      <c r="H246" s="108"/>
-      <c r="I246" s="108"/>
-      <c r="J246" s="108"/>
-      <c r="K246" s="108"/>
+      <c r="A246" s="111"/>
+      <c r="B246" s="111"/>
+      <c r="C246" s="111"/>
+      <c r="D246" s="111"/>
+      <c r="E246" s="111"/>
+      <c r="F246" s="111"/>
+      <c r="G246" s="111"/>
+      <c r="H246" s="111"/>
+      <c r="I246" s="111"/>
+      <c r="J246" s="111"/>
+      <c r="K246" s="111"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="109"/>
-      <c r="B247" s="109"/>
-      <c r="C247" s="109"/>
-      <c r="D247" s="109"/>
-      <c r="E247" s="109"/>
-      <c r="F247" s="109"/>
-      <c r="G247" s="109"/>
-      <c r="H247" s="109"/>
-      <c r="I247" s="109"/>
-      <c r="J247" s="109"/>
-      <c r="K247" s="109"/>
+      <c r="A247" s="112"/>
+      <c r="B247" s="112"/>
+      <c r="C247" s="112"/>
+      <c r="D247" s="112"/>
+      <c r="E247" s="112"/>
+      <c r="F247" s="112"/>
+      <c r="G247" s="112"/>
+      <c r="H247" s="112"/>
+      <c r="I247" s="112"/>
+      <c r="J247" s="112"/>
+      <c r="K247" s="112"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="110" t="s">
+      <c r="A248" s="113" t="s">
         <v>203</v>
       </c>
-      <c r="B248" s="111"/>
-      <c r="C248" s="111"/>
-      <c r="D248" s="111"/>
-      <c r="E248" s="111"/>
-      <c r="F248" s="111"/>
-      <c r="G248" s="111"/>
-      <c r="H248" s="111"/>
-      <c r="I248" s="111"/>
-      <c r="J248" s="111"/>
-      <c r="K248" s="112"/>
+      <c r="B248" s="114"/>
+      <c r="C248" s="114"/>
+      <c r="D248" s="114"/>
+      <c r="E248" s="114"/>
+      <c r="F248" s="114"/>
+      <c r="G248" s="114"/>
+      <c r="H248" s="114"/>
+      <c r="I248" s="114"/>
+      <c r="J248" s="114"/>
+      <c r="K248" s="115"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
@@ -8432,45 +8450,45 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="108"/>
-      <c r="B257" s="108"/>
-      <c r="C257" s="108"/>
-      <c r="D257" s="108"/>
-      <c r="E257" s="108"/>
-      <c r="F257" s="108"/>
-      <c r="G257" s="108"/>
-      <c r="H257" s="108"/>
-      <c r="I257" s="108"/>
-      <c r="J257" s="108"/>
-      <c r="K257" s="108"/>
+      <c r="A257" s="111"/>
+      <c r="B257" s="111"/>
+      <c r="C257" s="111"/>
+      <c r="D257" s="111"/>
+      <c r="E257" s="111"/>
+      <c r="F257" s="111"/>
+      <c r="G257" s="111"/>
+      <c r="H257" s="111"/>
+      <c r="I257" s="111"/>
+      <c r="J257" s="111"/>
+      <c r="K257" s="111"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="109"/>
-      <c r="B258" s="109"/>
-      <c r="C258" s="109"/>
-      <c r="D258" s="109"/>
-      <c r="E258" s="109"/>
-      <c r="F258" s="109"/>
-      <c r="G258" s="109"/>
-      <c r="H258" s="109"/>
-      <c r="I258" s="109"/>
-      <c r="J258" s="109"/>
-      <c r="K258" s="109"/>
+      <c r="A258" s="112"/>
+      <c r="B258" s="112"/>
+      <c r="C258" s="112"/>
+      <c r="D258" s="112"/>
+      <c r="E258" s="112"/>
+      <c r="F258" s="112"/>
+      <c r="G258" s="112"/>
+      <c r="H258" s="112"/>
+      <c r="I258" s="112"/>
+      <c r="J258" s="112"/>
+      <c r="K258" s="112"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="110" t="s">
+      <c r="A259" s="113" t="s">
         <v>207</v>
       </c>
-      <c r="B259" s="111"/>
-      <c r="C259" s="111"/>
-      <c r="D259" s="111"/>
-      <c r="E259" s="111"/>
-      <c r="F259" s="111"/>
-      <c r="G259" s="111"/>
-      <c r="H259" s="111"/>
-      <c r="I259" s="111"/>
-      <c r="J259" s="111"/>
-      <c r="K259" s="112"/>
+      <c r="B259" s="114"/>
+      <c r="C259" s="114"/>
+      <c r="D259" s="114"/>
+      <c r="E259" s="114"/>
+      <c r="F259" s="114"/>
+      <c r="G259" s="114"/>
+      <c r="H259" s="114"/>
+      <c r="I259" s="114"/>
+      <c r="J259" s="114"/>
+      <c r="K259" s="115"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
@@ -8713,45 +8731,45 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="108"/>
-      <c r="B268" s="108"/>
-      <c r="C268" s="108"/>
-      <c r="D268" s="108"/>
-      <c r="E268" s="108"/>
-      <c r="F268" s="108"/>
-      <c r="G268" s="108"/>
-      <c r="H268" s="108"/>
-      <c r="I268" s="108"/>
-      <c r="J268" s="108"/>
-      <c r="K268" s="108"/>
+      <c r="A268" s="111"/>
+      <c r="B268" s="111"/>
+      <c r="C268" s="111"/>
+      <c r="D268" s="111"/>
+      <c r="E268" s="111"/>
+      <c r="F268" s="111"/>
+      <c r="G268" s="111"/>
+      <c r="H268" s="111"/>
+      <c r="I268" s="111"/>
+      <c r="J268" s="111"/>
+      <c r="K268" s="111"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="109"/>
-      <c r="B269" s="109"/>
-      <c r="C269" s="109"/>
-      <c r="D269" s="109"/>
-      <c r="E269" s="109"/>
-      <c r="F269" s="109"/>
-      <c r="G269" s="109"/>
-      <c r="H269" s="109"/>
-      <c r="I269" s="109"/>
-      <c r="J269" s="109"/>
-      <c r="K269" s="109"/>
+      <c r="A269" s="112"/>
+      <c r="B269" s="112"/>
+      <c r="C269" s="112"/>
+      <c r="D269" s="112"/>
+      <c r="E269" s="112"/>
+      <c r="F269" s="112"/>
+      <c r="G269" s="112"/>
+      <c r="H269" s="112"/>
+      <c r="I269" s="112"/>
+      <c r="J269" s="112"/>
+      <c r="K269" s="112"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="110" t="s">
+      <c r="A270" s="113" t="s">
         <v>238</v>
       </c>
-      <c r="B270" s="111"/>
-      <c r="C270" s="111"/>
-      <c r="D270" s="111"/>
-      <c r="E270" s="111"/>
-      <c r="F270" s="111"/>
-      <c r="G270" s="111"/>
-      <c r="H270" s="111"/>
-      <c r="I270" s="111"/>
-      <c r="J270" s="111"/>
-      <c r="K270" s="112"/>
+      <c r="B270" s="114"/>
+      <c r="C270" s="114"/>
+      <c r="D270" s="114"/>
+      <c r="E270" s="114"/>
+      <c r="F270" s="114"/>
+      <c r="G270" s="114"/>
+      <c r="H270" s="114"/>
+      <c r="I270" s="114"/>
+      <c r="J270" s="114"/>
+      <c r="K270" s="115"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
@@ -8934,45 +8952,45 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="108"/>
-      <c r="B277" s="108"/>
-      <c r="C277" s="108"/>
-      <c r="D277" s="108"/>
-      <c r="E277" s="108"/>
-      <c r="F277" s="108"/>
-      <c r="G277" s="108"/>
-      <c r="H277" s="108"/>
-      <c r="I277" s="108"/>
-      <c r="J277" s="108"/>
-      <c r="K277" s="108"/>
+      <c r="A277" s="111"/>
+      <c r="B277" s="111"/>
+      <c r="C277" s="111"/>
+      <c r="D277" s="111"/>
+      <c r="E277" s="111"/>
+      <c r="F277" s="111"/>
+      <c r="G277" s="111"/>
+      <c r="H277" s="111"/>
+      <c r="I277" s="111"/>
+      <c r="J277" s="111"/>
+      <c r="K277" s="111"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="109"/>
-      <c r="B278" s="109"/>
-      <c r="C278" s="109"/>
-      <c r="D278" s="109"/>
-      <c r="E278" s="109"/>
-      <c r="F278" s="109"/>
-      <c r="G278" s="109"/>
-      <c r="H278" s="109"/>
-      <c r="I278" s="109"/>
-      <c r="J278" s="109"/>
-      <c r="K278" s="109"/>
+      <c r="A278" s="112"/>
+      <c r="B278" s="112"/>
+      <c r="C278" s="112"/>
+      <c r="D278" s="112"/>
+      <c r="E278" s="112"/>
+      <c r="F278" s="112"/>
+      <c r="G278" s="112"/>
+      <c r="H278" s="112"/>
+      <c r="I278" s="112"/>
+      <c r="J278" s="112"/>
+      <c r="K278" s="112"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="110" t="s">
+      <c r="A279" s="113" t="s">
         <v>240</v>
       </c>
-      <c r="B279" s="111"/>
-      <c r="C279" s="111"/>
-      <c r="D279" s="111"/>
-      <c r="E279" s="111"/>
-      <c r="F279" s="111"/>
-      <c r="G279" s="111"/>
-      <c r="H279" s="111"/>
-      <c r="I279" s="111"/>
-      <c r="J279" s="111"/>
-      <c r="K279" s="112"/>
+      <c r="B279" s="114"/>
+      <c r="C279" s="114"/>
+      <c r="D279" s="114"/>
+      <c r="E279" s="114"/>
+      <c r="F279" s="114"/>
+      <c r="G279" s="114"/>
+      <c r="H279" s="114"/>
+      <c r="I279" s="114"/>
+      <c r="J279" s="114"/>
+      <c r="K279" s="115"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
@@ -9155,45 +9173,45 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="108"/>
-      <c r="B286" s="108"/>
-      <c r="C286" s="108"/>
-      <c r="D286" s="108"/>
-      <c r="E286" s="108"/>
-      <c r="F286" s="108"/>
-      <c r="G286" s="108"/>
-      <c r="H286" s="108"/>
-      <c r="I286" s="108"/>
-      <c r="J286" s="108"/>
-      <c r="K286" s="108"/>
+      <c r="A286" s="111"/>
+      <c r="B286" s="111"/>
+      <c r="C286" s="111"/>
+      <c r="D286" s="111"/>
+      <c r="E286" s="111"/>
+      <c r="F286" s="111"/>
+      <c r="G286" s="111"/>
+      <c r="H286" s="111"/>
+      <c r="I286" s="111"/>
+      <c r="J286" s="111"/>
+      <c r="K286" s="111"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="109"/>
-      <c r="B287" s="109"/>
-      <c r="C287" s="109"/>
-      <c r="D287" s="109"/>
-      <c r="E287" s="109"/>
-      <c r="F287" s="109"/>
-      <c r="G287" s="109"/>
-      <c r="H287" s="109"/>
-      <c r="I287" s="109"/>
-      <c r="J287" s="109"/>
-      <c r="K287" s="109"/>
+      <c r="A287" s="112"/>
+      <c r="B287" s="112"/>
+      <c r="C287" s="112"/>
+      <c r="D287" s="112"/>
+      <c r="E287" s="112"/>
+      <c r="F287" s="112"/>
+      <c r="G287" s="112"/>
+      <c r="H287" s="112"/>
+      <c r="I287" s="112"/>
+      <c r="J287" s="112"/>
+      <c r="K287" s="112"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="110" t="s">
+      <c r="A288" s="113" t="s">
         <v>242</v>
       </c>
-      <c r="B288" s="111"/>
-      <c r="C288" s="111"/>
-      <c r="D288" s="111"/>
-      <c r="E288" s="111"/>
-      <c r="F288" s="111"/>
-      <c r="G288" s="111"/>
-      <c r="H288" s="111"/>
-      <c r="I288" s="111"/>
-      <c r="J288" s="111"/>
-      <c r="K288" s="112"/>
+      <c r="B288" s="114"/>
+      <c r="C288" s="114"/>
+      <c r="D288" s="114"/>
+      <c r="E288" s="114"/>
+      <c r="F288" s="114"/>
+      <c r="G288" s="114"/>
+      <c r="H288" s="114"/>
+      <c r="I288" s="114"/>
+      <c r="J288" s="114"/>
+      <c r="K288" s="115"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
@@ -9376,45 +9394,45 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="108"/>
-      <c r="B295" s="108"/>
-      <c r="C295" s="108"/>
-      <c r="D295" s="108"/>
-      <c r="E295" s="108"/>
-      <c r="F295" s="108"/>
-      <c r="G295" s="108"/>
-      <c r="H295" s="108"/>
-      <c r="I295" s="108"/>
-      <c r="J295" s="108"/>
-      <c r="K295" s="108"/>
+      <c r="A295" s="111"/>
+      <c r="B295" s="111"/>
+      <c r="C295" s="111"/>
+      <c r="D295" s="111"/>
+      <c r="E295" s="111"/>
+      <c r="F295" s="111"/>
+      <c r="G295" s="111"/>
+      <c r="H295" s="111"/>
+      <c r="I295" s="111"/>
+      <c r="J295" s="111"/>
+      <c r="K295" s="111"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="109"/>
-      <c r="B296" s="109"/>
-      <c r="C296" s="109"/>
-      <c r="D296" s="109"/>
-      <c r="E296" s="109"/>
-      <c r="F296" s="109"/>
-      <c r="G296" s="109"/>
-      <c r="H296" s="109"/>
-      <c r="I296" s="109"/>
-      <c r="J296" s="109"/>
-      <c r="K296" s="109"/>
+      <c r="A296" s="112"/>
+      <c r="B296" s="112"/>
+      <c r="C296" s="112"/>
+      <c r="D296" s="112"/>
+      <c r="E296" s="112"/>
+      <c r="F296" s="112"/>
+      <c r="G296" s="112"/>
+      <c r="H296" s="112"/>
+      <c r="I296" s="112"/>
+      <c r="J296" s="112"/>
+      <c r="K296" s="112"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="110" t="s">
+      <c r="A297" s="113" t="s">
         <v>244</v>
       </c>
-      <c r="B297" s="111"/>
-      <c r="C297" s="111"/>
-      <c r="D297" s="111"/>
-      <c r="E297" s="111"/>
-      <c r="F297" s="111"/>
-      <c r="G297" s="111"/>
-      <c r="H297" s="111"/>
-      <c r="I297" s="111"/>
-      <c r="J297" s="111"/>
-      <c r="K297" s="112"/>
+      <c r="B297" s="114"/>
+      <c r="C297" s="114"/>
+      <c r="D297" s="114"/>
+      <c r="E297" s="114"/>
+      <c r="F297" s="114"/>
+      <c r="G297" s="114"/>
+      <c r="H297" s="114"/>
+      <c r="I297" s="114"/>
+      <c r="J297" s="114"/>
+      <c r="K297" s="115"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
@@ -9597,45 +9615,45 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="108"/>
-      <c r="B304" s="108"/>
-      <c r="C304" s="108"/>
-      <c r="D304" s="108"/>
-      <c r="E304" s="108"/>
-      <c r="F304" s="108"/>
-      <c r="G304" s="108"/>
-      <c r="H304" s="108"/>
-      <c r="I304" s="108"/>
-      <c r="J304" s="108"/>
-      <c r="K304" s="108"/>
+      <c r="A304" s="111"/>
+      <c r="B304" s="111"/>
+      <c r="C304" s="111"/>
+      <c r="D304" s="111"/>
+      <c r="E304" s="111"/>
+      <c r="F304" s="111"/>
+      <c r="G304" s="111"/>
+      <c r="H304" s="111"/>
+      <c r="I304" s="111"/>
+      <c r="J304" s="111"/>
+      <c r="K304" s="111"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="109"/>
-      <c r="B305" s="109"/>
-      <c r="C305" s="109"/>
-      <c r="D305" s="109"/>
-      <c r="E305" s="109"/>
-      <c r="F305" s="109"/>
-      <c r="G305" s="109"/>
-      <c r="H305" s="109"/>
-      <c r="I305" s="109"/>
-      <c r="J305" s="109"/>
-      <c r="K305" s="109"/>
+      <c r="A305" s="112"/>
+      <c r="B305" s="112"/>
+      <c r="C305" s="112"/>
+      <c r="D305" s="112"/>
+      <c r="E305" s="112"/>
+      <c r="F305" s="112"/>
+      <c r="G305" s="112"/>
+      <c r="H305" s="112"/>
+      <c r="I305" s="112"/>
+      <c r="J305" s="112"/>
+      <c r="K305" s="112"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="110" t="s">
+      <c r="A306" s="113" t="s">
         <v>211</v>
       </c>
-      <c r="B306" s="111"/>
-      <c r="C306" s="111"/>
-      <c r="D306" s="111"/>
-      <c r="E306" s="111"/>
-      <c r="F306" s="111"/>
-      <c r="G306" s="111"/>
-      <c r="H306" s="111"/>
-      <c r="I306" s="111"/>
-      <c r="J306" s="111"/>
-      <c r="K306" s="112"/>
+      <c r="B306" s="114"/>
+      <c r="C306" s="114"/>
+      <c r="D306" s="114"/>
+      <c r="E306" s="114"/>
+      <c r="F306" s="114"/>
+      <c r="G306" s="114"/>
+      <c r="H306" s="114"/>
+      <c r="I306" s="114"/>
+      <c r="J306" s="114"/>
+      <c r="K306" s="115"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
@@ -9934,45 +9952,45 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="108"/>
-      <c r="B318" s="108"/>
-      <c r="C318" s="108"/>
-      <c r="D318" s="108"/>
-      <c r="E318" s="108"/>
-      <c r="F318" s="108"/>
-      <c r="G318" s="108"/>
-      <c r="H318" s="108"/>
-      <c r="I318" s="108"/>
-      <c r="J318" s="108"/>
-      <c r="K318" s="108"/>
+      <c r="A318" s="111"/>
+      <c r="B318" s="111"/>
+      <c r="C318" s="111"/>
+      <c r="D318" s="111"/>
+      <c r="E318" s="111"/>
+      <c r="F318" s="111"/>
+      <c r="G318" s="111"/>
+      <c r="H318" s="111"/>
+      <c r="I318" s="111"/>
+      <c r="J318" s="111"/>
+      <c r="K318" s="111"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="109"/>
-      <c r="B319" s="109"/>
-      <c r="C319" s="109"/>
-      <c r="D319" s="109"/>
-      <c r="E319" s="109"/>
-      <c r="F319" s="109"/>
-      <c r="G319" s="109"/>
-      <c r="H319" s="109"/>
-      <c r="I319" s="109"/>
-      <c r="J319" s="109"/>
-      <c r="K319" s="109"/>
+      <c r="A319" s="112"/>
+      <c r="B319" s="112"/>
+      <c r="C319" s="112"/>
+      <c r="D319" s="112"/>
+      <c r="E319" s="112"/>
+      <c r="F319" s="112"/>
+      <c r="G319" s="112"/>
+      <c r="H319" s="112"/>
+      <c r="I319" s="112"/>
+      <c r="J319" s="112"/>
+      <c r="K319" s="112"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="110" t="s">
+      <c r="A320" s="113" t="s">
         <v>214</v>
       </c>
-      <c r="B320" s="111"/>
-      <c r="C320" s="111"/>
-      <c r="D320" s="111"/>
-      <c r="E320" s="111"/>
-      <c r="F320" s="111"/>
-      <c r="G320" s="111"/>
-      <c r="H320" s="111"/>
-      <c r="I320" s="111"/>
-      <c r="J320" s="111"/>
-      <c r="K320" s="112"/>
+      <c r="B320" s="114"/>
+      <c r="C320" s="114"/>
+      <c r="D320" s="114"/>
+      <c r="E320" s="114"/>
+      <c r="F320" s="114"/>
+      <c r="G320" s="114"/>
+      <c r="H320" s="114"/>
+      <c r="I320" s="114"/>
+      <c r="J320" s="114"/>
+      <c r="K320" s="115"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
@@ -10219,45 +10237,45 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="108"/>
-      <c r="B329" s="108"/>
-      <c r="C329" s="108"/>
-      <c r="D329" s="108"/>
-      <c r="E329" s="108"/>
-      <c r="F329" s="108"/>
-      <c r="G329" s="108"/>
-      <c r="H329" s="108"/>
-      <c r="I329" s="108"/>
-      <c r="J329" s="108"/>
-      <c r="K329" s="108"/>
+      <c r="A329" s="111"/>
+      <c r="B329" s="111"/>
+      <c r="C329" s="111"/>
+      <c r="D329" s="111"/>
+      <c r="E329" s="111"/>
+      <c r="F329" s="111"/>
+      <c r="G329" s="111"/>
+      <c r="H329" s="111"/>
+      <c r="I329" s="111"/>
+      <c r="J329" s="111"/>
+      <c r="K329" s="111"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="109"/>
-      <c r="B330" s="109"/>
-      <c r="C330" s="109"/>
-      <c r="D330" s="109"/>
-      <c r="E330" s="109"/>
-      <c r="F330" s="109"/>
-      <c r="G330" s="109"/>
-      <c r="H330" s="109"/>
-      <c r="I330" s="109"/>
-      <c r="J330" s="109"/>
-      <c r="K330" s="109"/>
+      <c r="A330" s="112"/>
+      <c r="B330" s="112"/>
+      <c r="C330" s="112"/>
+      <c r="D330" s="112"/>
+      <c r="E330" s="112"/>
+      <c r="F330" s="112"/>
+      <c r="G330" s="112"/>
+      <c r="H330" s="112"/>
+      <c r="I330" s="112"/>
+      <c r="J330" s="112"/>
+      <c r="K330" s="112"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="110" t="s">
+      <c r="A331" s="113" t="s">
         <v>223</v>
       </c>
-      <c r="B331" s="111"/>
-      <c r="C331" s="111"/>
-      <c r="D331" s="111"/>
-      <c r="E331" s="111"/>
-      <c r="F331" s="111"/>
-      <c r="G331" s="111"/>
-      <c r="H331" s="111"/>
-      <c r="I331" s="111"/>
-      <c r="J331" s="111"/>
-      <c r="K331" s="112"/>
+      <c r="B331" s="114"/>
+      <c r="C331" s="114"/>
+      <c r="D331" s="114"/>
+      <c r="E331" s="114"/>
+      <c r="F331" s="114"/>
+      <c r="G331" s="114"/>
+      <c r="H331" s="114"/>
+      <c r="I331" s="114"/>
+      <c r="J331" s="114"/>
+      <c r="K331" s="115"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
@@ -10500,45 +10518,45 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="108"/>
-      <c r="B340" s="108"/>
-      <c r="C340" s="108"/>
-      <c r="D340" s="108"/>
-      <c r="E340" s="108"/>
-      <c r="F340" s="108"/>
-      <c r="G340" s="108"/>
-      <c r="H340" s="108"/>
-      <c r="I340" s="108"/>
-      <c r="J340" s="108"/>
-      <c r="K340" s="108"/>
+      <c r="A340" s="111"/>
+      <c r="B340" s="111"/>
+      <c r="C340" s="111"/>
+      <c r="D340" s="111"/>
+      <c r="E340" s="111"/>
+      <c r="F340" s="111"/>
+      <c r="G340" s="111"/>
+      <c r="H340" s="111"/>
+      <c r="I340" s="111"/>
+      <c r="J340" s="111"/>
+      <c r="K340" s="111"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="109"/>
-      <c r="B341" s="109"/>
-      <c r="C341" s="109"/>
-      <c r="D341" s="109"/>
-      <c r="E341" s="109"/>
-      <c r="F341" s="109"/>
-      <c r="G341" s="109"/>
-      <c r="H341" s="109"/>
-      <c r="I341" s="109"/>
-      <c r="J341" s="109"/>
-      <c r="K341" s="109"/>
+      <c r="A341" s="112"/>
+      <c r="B341" s="112"/>
+      <c r="C341" s="112"/>
+      <c r="D341" s="112"/>
+      <c r="E341" s="112"/>
+      <c r="F341" s="112"/>
+      <c r="G341" s="112"/>
+      <c r="H341" s="112"/>
+      <c r="I341" s="112"/>
+      <c r="J341" s="112"/>
+      <c r="K341" s="112"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="110" t="s">
+      <c r="A342" s="113" t="s">
         <v>234</v>
       </c>
-      <c r="B342" s="111"/>
-      <c r="C342" s="111"/>
-      <c r="D342" s="111"/>
-      <c r="E342" s="111"/>
-      <c r="F342" s="111"/>
-      <c r="G342" s="111"/>
-      <c r="H342" s="111"/>
-      <c r="I342" s="111"/>
-      <c r="J342" s="111"/>
-      <c r="K342" s="112"/>
+      <c r="B342" s="114"/>
+      <c r="C342" s="114"/>
+      <c r="D342" s="114"/>
+      <c r="E342" s="114"/>
+      <c r="F342" s="114"/>
+      <c r="G342" s="114"/>
+      <c r="H342" s="114"/>
+      <c r="I342" s="114"/>
+      <c r="J342" s="114"/>
+      <c r="K342" s="115"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
@@ -10773,45 +10791,45 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="108"/>
-      <c r="B351" s="108"/>
-      <c r="C351" s="108"/>
-      <c r="D351" s="108"/>
-      <c r="E351" s="108"/>
-      <c r="F351" s="108"/>
-      <c r="G351" s="108"/>
-      <c r="H351" s="108"/>
-      <c r="I351" s="108"/>
-      <c r="J351" s="108"/>
-      <c r="K351" s="108"/>
+      <c r="A351" s="111"/>
+      <c r="B351" s="111"/>
+      <c r="C351" s="111"/>
+      <c r="D351" s="111"/>
+      <c r="E351" s="111"/>
+      <c r="F351" s="111"/>
+      <c r="G351" s="111"/>
+      <c r="H351" s="111"/>
+      <c r="I351" s="111"/>
+      <c r="J351" s="111"/>
+      <c r="K351" s="111"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="109"/>
-      <c r="B352" s="109"/>
-      <c r="C352" s="109"/>
-      <c r="D352" s="109"/>
-      <c r="E352" s="109"/>
-      <c r="F352" s="109"/>
-      <c r="G352" s="109"/>
-      <c r="H352" s="109"/>
-      <c r="I352" s="109"/>
-      <c r="J352" s="109"/>
-      <c r="K352" s="109"/>
+      <c r="A352" s="112"/>
+      <c r="B352" s="112"/>
+      <c r="C352" s="112"/>
+      <c r="D352" s="112"/>
+      <c r="E352" s="112"/>
+      <c r="F352" s="112"/>
+      <c r="G352" s="112"/>
+      <c r="H352" s="112"/>
+      <c r="I352" s="112"/>
+      <c r="J352" s="112"/>
+      <c r="K352" s="112"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="110" t="s">
+      <c r="A353" s="113" t="s">
         <v>121</v>
       </c>
-      <c r="B353" s="111"/>
-      <c r="C353" s="111"/>
-      <c r="D353" s="111"/>
-      <c r="E353" s="111"/>
-      <c r="F353" s="111"/>
-      <c r="G353" s="111"/>
-      <c r="H353" s="111"/>
-      <c r="I353" s="111"/>
-      <c r="J353" s="111"/>
-      <c r="K353" s="112"/>
+      <c r="B353" s="114"/>
+      <c r="C353" s="114"/>
+      <c r="D353" s="114"/>
+      <c r="E353" s="114"/>
+      <c r="F353" s="114"/>
+      <c r="G353" s="114"/>
+      <c r="H353" s="114"/>
+      <c r="I353" s="114"/>
+      <c r="J353" s="114"/>
+      <c r="K353" s="115"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
@@ -11131,45 +11149,45 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="108"/>
-      <c r="B365" s="108"/>
-      <c r="C365" s="108"/>
-      <c r="D365" s="108"/>
-      <c r="E365" s="108"/>
-      <c r="F365" s="108"/>
-      <c r="G365" s="108"/>
-      <c r="H365" s="108"/>
-      <c r="I365" s="108"/>
-      <c r="J365" s="108"/>
-      <c r="K365" s="108"/>
+      <c r="A365" s="111"/>
+      <c r="B365" s="111"/>
+      <c r="C365" s="111"/>
+      <c r="D365" s="111"/>
+      <c r="E365" s="111"/>
+      <c r="F365" s="111"/>
+      <c r="G365" s="111"/>
+      <c r="H365" s="111"/>
+      <c r="I365" s="111"/>
+      <c r="J365" s="111"/>
+      <c r="K365" s="111"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="109"/>
-      <c r="B366" s="109"/>
-      <c r="C366" s="109"/>
-      <c r="D366" s="109"/>
-      <c r="E366" s="109"/>
-      <c r="F366" s="109"/>
-      <c r="G366" s="109"/>
-      <c r="H366" s="109"/>
-      <c r="I366" s="109"/>
-      <c r="J366" s="109"/>
-      <c r="K366" s="109"/>
+      <c r="A366" s="112"/>
+      <c r="B366" s="112"/>
+      <c r="C366" s="112"/>
+      <c r="D366" s="112"/>
+      <c r="E366" s="112"/>
+      <c r="F366" s="112"/>
+      <c r="G366" s="112"/>
+      <c r="H366" s="112"/>
+      <c r="I366" s="112"/>
+      <c r="J366" s="112"/>
+      <c r="K366" s="112"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="110" t="s">
+      <c r="A367" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="B367" s="111"/>
-      <c r="C367" s="111"/>
-      <c r="D367" s="111"/>
-      <c r="E367" s="111"/>
-      <c r="F367" s="111"/>
-      <c r="G367" s="111"/>
-      <c r="H367" s="111"/>
-      <c r="I367" s="111"/>
-      <c r="J367" s="111"/>
-      <c r="K367" s="112"/>
+      <c r="B367" s="114"/>
+      <c r="C367" s="114"/>
+      <c r="D367" s="114"/>
+      <c r="E367" s="114"/>
+      <c r="F367" s="114"/>
+      <c r="G367" s="114"/>
+      <c r="H367" s="114"/>
+      <c r="I367" s="114"/>
+      <c r="J367" s="114"/>
+      <c r="K367" s="115"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="20" t="s">
@@ -11371,45 +11389,45 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="108"/>
-      <c r="B375" s="108"/>
-      <c r="C375" s="108"/>
-      <c r="D375" s="108"/>
-      <c r="E375" s="108"/>
-      <c r="F375" s="108"/>
-      <c r="G375" s="108"/>
-      <c r="H375" s="108"/>
-      <c r="I375" s="108"/>
-      <c r="J375" s="108"/>
-      <c r="K375" s="108"/>
+      <c r="A375" s="111"/>
+      <c r="B375" s="111"/>
+      <c r="C375" s="111"/>
+      <c r="D375" s="111"/>
+      <c r="E375" s="111"/>
+      <c r="F375" s="111"/>
+      <c r="G375" s="111"/>
+      <c r="H375" s="111"/>
+      <c r="I375" s="111"/>
+      <c r="J375" s="111"/>
+      <c r="K375" s="111"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="109"/>
-      <c r="B376" s="109"/>
-      <c r="C376" s="109"/>
-      <c r="D376" s="109"/>
-      <c r="E376" s="109"/>
-      <c r="F376" s="109"/>
-      <c r="G376" s="109"/>
-      <c r="H376" s="109"/>
-      <c r="I376" s="109"/>
-      <c r="J376" s="109"/>
-      <c r="K376" s="109"/>
+      <c r="A376" s="112"/>
+      <c r="B376" s="112"/>
+      <c r="C376" s="112"/>
+      <c r="D376" s="112"/>
+      <c r="E376" s="112"/>
+      <c r="F376" s="112"/>
+      <c r="G376" s="112"/>
+      <c r="H376" s="112"/>
+      <c r="I376" s="112"/>
+      <c r="J376" s="112"/>
+      <c r="K376" s="112"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="110" t="s">
+      <c r="A377" s="113" t="s">
         <v>309</v>
       </c>
-      <c r="B377" s="111"/>
-      <c r="C377" s="111"/>
-      <c r="D377" s="111"/>
-      <c r="E377" s="111"/>
-      <c r="F377" s="111"/>
-      <c r="G377" s="111"/>
-      <c r="H377" s="111"/>
-      <c r="I377" s="111"/>
-      <c r="J377" s="111"/>
-      <c r="K377" s="112"/>
+      <c r="B377" s="114"/>
+      <c r="C377" s="114"/>
+      <c r="D377" s="114"/>
+      <c r="E377" s="114"/>
+      <c r="F377" s="114"/>
+      <c r="G377" s="114"/>
+      <c r="H377" s="114"/>
+      <c r="I377" s="114"/>
+      <c r="J377" s="114"/>
+      <c r="K377" s="115"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="20" t="s">
@@ -11592,45 +11610,45 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="117"/>
-      <c r="B384" s="117"/>
-      <c r="C384" s="117"/>
-      <c r="D384" s="117"/>
-      <c r="E384" s="117"/>
-      <c r="F384" s="117"/>
-      <c r="G384" s="117"/>
-      <c r="H384" s="117"/>
-      <c r="I384" s="117"/>
-      <c r="J384" s="117"/>
-      <c r="K384" s="117"/>
+      <c r="A384" s="116"/>
+      <c r="B384" s="116"/>
+      <c r="C384" s="116"/>
+      <c r="D384" s="116"/>
+      <c r="E384" s="116"/>
+      <c r="F384" s="116"/>
+      <c r="G384" s="116"/>
+      <c r="H384" s="116"/>
+      <c r="I384" s="116"/>
+      <c r="J384" s="116"/>
+      <c r="K384" s="116"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="109"/>
-      <c r="B385" s="109"/>
-      <c r="C385" s="109"/>
-      <c r="D385" s="109"/>
-      <c r="E385" s="109"/>
-      <c r="F385" s="109"/>
-      <c r="G385" s="109"/>
-      <c r="H385" s="109"/>
-      <c r="I385" s="109"/>
-      <c r="J385" s="109"/>
-      <c r="K385" s="109"/>
+      <c r="A385" s="112"/>
+      <c r="B385" s="112"/>
+      <c r="C385" s="112"/>
+      <c r="D385" s="112"/>
+      <c r="E385" s="112"/>
+      <c r="F385" s="112"/>
+      <c r="G385" s="112"/>
+      <c r="H385" s="112"/>
+      <c r="I385" s="112"/>
+      <c r="J385" s="112"/>
+      <c r="K385" s="112"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="110" t="s">
+      <c r="A386" s="113" t="s">
         <v>182</v>
       </c>
-      <c r="B386" s="111"/>
-      <c r="C386" s="111"/>
-      <c r="D386" s="111"/>
-      <c r="E386" s="111"/>
-      <c r="F386" s="111"/>
-      <c r="G386" s="111"/>
-      <c r="H386" s="111"/>
-      <c r="I386" s="111"/>
-      <c r="J386" s="111"/>
-      <c r="K386" s="112"/>
+      <c r="B386" s="114"/>
+      <c r="C386" s="114"/>
+      <c r="D386" s="114"/>
+      <c r="E386" s="114"/>
+      <c r="F386" s="114"/>
+      <c r="G386" s="114"/>
+      <c r="H386" s="114"/>
+      <c r="I386" s="114"/>
+      <c r="J386" s="114"/>
+      <c r="K386" s="115"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="20" t="s">
@@ -11902,45 +11920,45 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="108"/>
-      <c r="B396" s="108"/>
-      <c r="C396" s="108"/>
-      <c r="D396" s="108"/>
-      <c r="E396" s="108"/>
-      <c r="F396" s="108"/>
-      <c r="G396" s="108"/>
-      <c r="H396" s="108"/>
-      <c r="I396" s="108"/>
-      <c r="J396" s="108"/>
-      <c r="K396" s="108"/>
+      <c r="A396" s="111"/>
+      <c r="B396" s="111"/>
+      <c r="C396" s="111"/>
+      <c r="D396" s="111"/>
+      <c r="E396" s="111"/>
+      <c r="F396" s="111"/>
+      <c r="G396" s="111"/>
+      <c r="H396" s="111"/>
+      <c r="I396" s="111"/>
+      <c r="J396" s="111"/>
+      <c r="K396" s="111"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="109"/>
-      <c r="B397" s="109"/>
-      <c r="C397" s="109"/>
-      <c r="D397" s="109"/>
-      <c r="E397" s="109"/>
-      <c r="F397" s="109"/>
-      <c r="G397" s="109"/>
-      <c r="H397" s="109"/>
-      <c r="I397" s="109"/>
-      <c r="J397" s="109"/>
-      <c r="K397" s="109"/>
+      <c r="A397" s="112"/>
+      <c r="B397" s="112"/>
+      <c r="C397" s="112"/>
+      <c r="D397" s="112"/>
+      <c r="E397" s="112"/>
+      <c r="F397" s="112"/>
+      <c r="G397" s="112"/>
+      <c r="H397" s="112"/>
+      <c r="I397" s="112"/>
+      <c r="J397" s="112"/>
+      <c r="K397" s="112"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="110" t="s">
+      <c r="A398" s="113" t="s">
         <v>256</v>
       </c>
-      <c r="B398" s="111"/>
-      <c r="C398" s="111"/>
-      <c r="D398" s="111"/>
-      <c r="E398" s="111"/>
-      <c r="F398" s="111"/>
-      <c r="G398" s="111"/>
-      <c r="H398" s="111"/>
-      <c r="I398" s="111"/>
-      <c r="J398" s="111"/>
-      <c r="K398" s="112"/>
+      <c r="B398" s="114"/>
+      <c r="C398" s="114"/>
+      <c r="D398" s="114"/>
+      <c r="E398" s="114"/>
+      <c r="F398" s="114"/>
+      <c r="G398" s="114"/>
+      <c r="H398" s="114"/>
+      <c r="I398" s="114"/>
+      <c r="J398" s="114"/>
+      <c r="K398" s="115"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="20" t="s">
@@ -12150,45 +12168,45 @@
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="108"/>
-      <c r="B406" s="108"/>
-      <c r="C406" s="108"/>
-      <c r="D406" s="108"/>
-      <c r="E406" s="108"/>
-      <c r="F406" s="108"/>
-      <c r="G406" s="108"/>
-      <c r="H406" s="108"/>
-      <c r="I406" s="108"/>
-      <c r="J406" s="108"/>
-      <c r="K406" s="108"/>
+      <c r="A406" s="111"/>
+      <c r="B406" s="111"/>
+      <c r="C406" s="111"/>
+      <c r="D406" s="111"/>
+      <c r="E406" s="111"/>
+      <c r="F406" s="111"/>
+      <c r="G406" s="111"/>
+      <c r="H406" s="111"/>
+      <c r="I406" s="111"/>
+      <c r="J406" s="111"/>
+      <c r="K406" s="111"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="109"/>
-      <c r="B407" s="109"/>
-      <c r="C407" s="109"/>
-      <c r="D407" s="109"/>
-      <c r="E407" s="109"/>
-      <c r="F407" s="109"/>
-      <c r="G407" s="109"/>
-      <c r="H407" s="109"/>
-      <c r="I407" s="109"/>
-      <c r="J407" s="109"/>
-      <c r="K407" s="109"/>
+      <c r="A407" s="112"/>
+      <c r="B407" s="112"/>
+      <c r="C407" s="112"/>
+      <c r="D407" s="112"/>
+      <c r="E407" s="112"/>
+      <c r="F407" s="112"/>
+      <c r="G407" s="112"/>
+      <c r="H407" s="112"/>
+      <c r="I407" s="112"/>
+      <c r="J407" s="112"/>
+      <c r="K407" s="112"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="110" t="s">
-        <v>262</v>
-      </c>
-      <c r="B408" s="111"/>
-      <c r="C408" s="111"/>
-      <c r="D408" s="111"/>
-      <c r="E408" s="111"/>
-      <c r="F408" s="111"/>
-      <c r="G408" s="111"/>
-      <c r="H408" s="111"/>
-      <c r="I408" s="111"/>
-      <c r="J408" s="111"/>
-      <c r="K408" s="112"/>
+      <c r="A408" s="113" t="s">
+        <v>313</v>
+      </c>
+      <c r="B408" s="114"/>
+      <c r="C408" s="114"/>
+      <c r="D408" s="114"/>
+      <c r="E408" s="114"/>
+      <c r="F408" s="114"/>
+      <c r="G408" s="114"/>
+      <c r="H408" s="114"/>
+      <c r="I408" s="114"/>
+      <c r="J408" s="114"/>
+      <c r="K408" s="115"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="20" t="s">
@@ -12250,10 +12268,10 @@
       <c r="H410" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I410" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J410" s="83"/>
+      <c r="I410" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="J410" s="108"/>
       <c r="K410" s="6" t="s">
         <v>13</v>
       </c>
@@ -12263,7 +12281,7 @@
         <v>2</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>14</v>
@@ -12279,277 +12297,285 @@
       <c r="H411" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I411" s="85"/>
-      <c r="J411" s="85" t="s">
+      <c r="I411" s="110"/>
+      <c r="J411" s="110" t="s">
         <v>12</v>
       </c>
       <c r="K411" s="9"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D412" s="7">
-        <v>100</v>
-      </c>
-      <c r="E412" s="7"/>
-      <c r="F412" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D412" s="7"/>
+      <c r="E412" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F412" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G412" s="7"/>
       <c r="H412" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I412" s="85"/>
-      <c r="J412" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K412" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I412" s="110"/>
+      <c r="J412" s="110"/>
+      <c r="K412" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D413" s="7"/>
-      <c r="E413" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F413" s="12" t="s">
-        <v>26</v>
+      <c r="E413" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F413" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G413" s="7"/>
       <c r="H413" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I413" s="85"/>
-      <c r="J413" s="85"/>
+      <c r="I413" s="110"/>
+      <c r="J413" s="110"/>
       <c r="K413" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="40">
+      <c r="A414" s="41">
+        <v>6</v>
+      </c>
+      <c r="B414" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C414" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D414" s="13">
+        <v>1</v>
+      </c>
+      <c r="E414" s="13">
+        <v>0</v>
+      </c>
+      <c r="F414" s="13">
+        <v>1</v>
+      </c>
+      <c r="G414" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H414" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I414" s="109"/>
+      <c r="J414" s="109"/>
+      <c r="K414" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" s="111"/>
+      <c r="B415" s="111"/>
+      <c r="C415" s="111"/>
+      <c r="D415" s="111"/>
+      <c r="E415" s="111"/>
+      <c r="F415" s="111"/>
+      <c r="G415" s="111"/>
+      <c r="H415" s="111"/>
+      <c r="I415" s="111"/>
+      <c r="J415" s="111"/>
+      <c r="K415" s="111"/>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" s="112"/>
+      <c r="B416" s="112"/>
+      <c r="C416" s="112"/>
+      <c r="D416" s="112"/>
+      <c r="E416" s="112"/>
+      <c r="F416" s="112"/>
+      <c r="G416" s="112"/>
+      <c r="H416" s="112"/>
+      <c r="I416" s="112"/>
+      <c r="J416" s="112"/>
+      <c r="K416" s="112"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="B417" s="114"/>
+      <c r="C417" s="114"/>
+      <c r="D417" s="114"/>
+      <c r="E417" s="114"/>
+      <c r="F417" s="114"/>
+      <c r="G417" s="114"/>
+      <c r="H417" s="114"/>
+      <c r="I417" s="114"/>
+      <c r="J417" s="114"/>
+      <c r="K417" s="115"/>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B418" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C418" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D418" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E418" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B414" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C414" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D414" s="7"/>
-      <c r="E414" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F414" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G414" s="7"/>
-      <c r="H414" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I414" s="85"/>
-      <c r="J414" s="85"/>
-      <c r="K414" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="41">
+      <c r="F418" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G418" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H418" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I418" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B415" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C415" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D415" s="13">
-        <v>1</v>
-      </c>
-      <c r="E415" s="13">
-        <v>0</v>
-      </c>
-      <c r="F415" s="13">
-        <v>1</v>
-      </c>
-      <c r="G415" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H415" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I415" s="84"/>
-      <c r="J415" s="84"/>
-      <c r="K415" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="108"/>
-      <c r="B416" s="108"/>
-      <c r="C416" s="108"/>
-      <c r="D416" s="108"/>
-      <c r="E416" s="108"/>
-      <c r="F416" s="108"/>
-      <c r="G416" s="108"/>
-      <c r="H416" s="108"/>
-      <c r="I416" s="108"/>
-      <c r="J416" s="108"/>
-      <c r="K416" s="108"/>
-    </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="109"/>
-      <c r="B417" s="109"/>
-      <c r="C417" s="109"/>
-      <c r="D417" s="109"/>
-      <c r="E417" s="109"/>
-      <c r="F417" s="109"/>
-      <c r="G417" s="109"/>
-      <c r="H417" s="109"/>
-      <c r="I417" s="109"/>
-      <c r="J417" s="109"/>
-      <c r="K417" s="109"/>
-    </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="110" t="s">
-        <v>265</v>
-      </c>
-      <c r="B418" s="111"/>
-      <c r="C418" s="111"/>
-      <c r="D418" s="111"/>
-      <c r="E418" s="111"/>
-      <c r="F418" s="111"/>
-      <c r="G418" s="111"/>
-      <c r="H418" s="111"/>
-      <c r="I418" s="111"/>
-      <c r="J418" s="111"/>
-      <c r="K418" s="112"/>
+      <c r="J418" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K418" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B419" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C419" s="19" t="s">
+      <c r="A419" s="39">
+        <v>1</v>
+      </c>
+      <c r="B419" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C419" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D419" s="5">
+        <v>10</v>
+      </c>
+      <c r="E419" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G419" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H419" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I419" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J419" s="83"/>
+      <c r="K419" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="40">
         <v>2</v>
       </c>
-      <c r="D419" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E419" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F419" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G419" s="19" t="s">
+      <c r="B420" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C420" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D420" s="7">
+        <v>10</v>
+      </c>
+      <c r="E420" s="7"/>
+      <c r="F420" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G420" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H420" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I420" s="110"/>
+      <c r="J420" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="K420" s="9"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="40">
+        <v>2</v>
+      </c>
+      <c r="B421" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C421" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D421" s="7">
+        <v>100</v>
+      </c>
+      <c r="E421" s="7"/>
+      <c r="F421" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G421" s="7"/>
+      <c r="H421" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I421" s="85"/>
+      <c r="J421" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K421" s="9"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="40">
         <v>3</v>
       </c>
-      <c r="H419" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I419" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J419" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K419" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="39">
-        <v>1</v>
-      </c>
-      <c r="B420" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C420" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D420" s="5">
-        <v>10</v>
-      </c>
-      <c r="E420" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F420" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G420" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H420" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I420" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J420" s="83"/>
-      <c r="K420" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="1">
-        <v>2</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C421" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D421" s="2">
-        <v>10</v>
-      </c>
-      <c r="F421" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G421" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H421" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J421" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K421" s="9"/>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="1">
-        <v>3</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C422" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F422" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H422" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J422" s="1" t="s">
+      <c r="B422" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C422" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D422" s="7">
+        <v>100</v>
+      </c>
+      <c r="E422" s="7"/>
+      <c r="F422" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G422" s="7"/>
+      <c r="H422" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I422" s="85"/>
+      <c r="J422" s="85" t="s">
         <v>12</v>
       </c>
       <c r="K422" s="9"/>
@@ -12640,45 +12666,45 @@
       </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="108"/>
-      <c r="B426" s="108"/>
-      <c r="C426" s="108"/>
-      <c r="D426" s="108"/>
-      <c r="E426" s="108"/>
-      <c r="F426" s="108"/>
-      <c r="G426" s="108"/>
-      <c r="H426" s="108"/>
-      <c r="I426" s="108"/>
-      <c r="J426" s="108"/>
-      <c r="K426" s="108"/>
+      <c r="A426" s="111"/>
+      <c r="B426" s="111"/>
+      <c r="C426" s="111"/>
+      <c r="D426" s="111"/>
+      <c r="E426" s="111"/>
+      <c r="F426" s="111"/>
+      <c r="G426" s="111"/>
+      <c r="H426" s="111"/>
+      <c r="I426" s="111"/>
+      <c r="J426" s="111"/>
+      <c r="K426" s="111"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="109"/>
-      <c r="B427" s="109"/>
-      <c r="C427" s="109"/>
-      <c r="D427" s="109"/>
-      <c r="E427" s="109"/>
-      <c r="F427" s="109"/>
-      <c r="G427" s="109"/>
-      <c r="H427" s="109"/>
-      <c r="I427" s="109"/>
-      <c r="J427" s="109"/>
-      <c r="K427" s="109"/>
+      <c r="A427" s="112"/>
+      <c r="B427" s="112"/>
+      <c r="C427" s="112"/>
+      <c r="D427" s="112"/>
+      <c r="E427" s="112"/>
+      <c r="F427" s="112"/>
+      <c r="G427" s="112"/>
+      <c r="H427" s="112"/>
+      <c r="I427" s="112"/>
+      <c r="J427" s="112"/>
+      <c r="K427" s="112"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="110" t="s">
-        <v>268</v>
-      </c>
-      <c r="B428" s="111"/>
-      <c r="C428" s="111"/>
-      <c r="D428" s="111"/>
-      <c r="E428" s="111"/>
-      <c r="F428" s="111"/>
-      <c r="G428" s="111"/>
-      <c r="H428" s="111"/>
-      <c r="I428" s="111"/>
-      <c r="J428" s="111"/>
-      <c r="K428" s="112"/>
+      <c r="A428" s="113" t="s">
+        <v>265</v>
+      </c>
+      <c r="B428" s="114"/>
+      <c r="C428" s="114"/>
+      <c r="D428" s="114"/>
+      <c r="E428" s="114"/>
+      <c r="F428" s="114"/>
+      <c r="G428" s="114"/>
+      <c r="H428" s="114"/>
+      <c r="I428" s="114"/>
+      <c r="J428" s="114"/>
+      <c r="K428" s="115"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="20" t="s">
@@ -12749,30 +12775,28 @@
       </c>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="85">
+      <c r="A431" s="1">
         <v>2</v>
       </c>
-      <c r="B431" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C431" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D431" s="7">
-        <v>20</v>
-      </c>
-      <c r="E431" s="7"/>
-      <c r="F431" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G431" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H431" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I431" s="85"/>
-      <c r="J431" s="85" t="s">
+      <c r="B431" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D431" s="2">
+        <v>10</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H431" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J431" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K431" s="9"/>
@@ -12785,17 +12809,11 @@
         <v>267</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D432" s="2">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F432" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G432" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="H432" s="2" t="s">
         <v>0</v>
       </c>
@@ -12805,42 +12823,48 @@
       <c r="K432" s="9"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" s="1">
+      <c r="A433" s="40">
         <v>4</v>
       </c>
-      <c r="B433" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C433" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F433" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H433" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J433" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K433" s="9"/>
+      <c r="B433" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C433" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D433" s="7"/>
+      <c r="E433" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F433" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G433" s="7"/>
+      <c r="H433" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I433" s="85"/>
+      <c r="J433" s="85"/>
+      <c r="K433" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>5</v>
       </c>
       <c r="B434" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C434" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D434" s="7"/>
-      <c r="E434" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F434" s="12" t="s">
-        <v>26</v>
+      <c r="E434" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F434" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G434" s="7"/>
       <c r="H434" s="7" t="s">
@@ -12853,188 +12877,193 @@
       </c>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="40">
+      <c r="A435" s="41">
         <v>6</v>
       </c>
-      <c r="B435" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C435" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D435" s="7"/>
-      <c r="E435" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F435" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G435" s="7"/>
-      <c r="H435" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I435" s="85"/>
-      <c r="J435" s="85"/>
-      <c r="K435" s="9" t="s">
-        <v>16</v>
+      <c r="B435" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C435" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D435" s="13">
+        <v>1</v>
+      </c>
+      <c r="E435" s="13">
+        <v>0</v>
+      </c>
+      <c r="F435" s="13">
+        <v>1</v>
+      </c>
+      <c r="G435" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H435" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I435" s="84"/>
+      <c r="J435" s="84"/>
+      <c r="K435" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="41">
+      <c r="A436" s="111"/>
+      <c r="B436" s="111"/>
+      <c r="C436" s="111"/>
+      <c r="D436" s="111"/>
+      <c r="E436" s="111"/>
+      <c r="F436" s="111"/>
+      <c r="G436" s="111"/>
+      <c r="H436" s="111"/>
+      <c r="I436" s="111"/>
+      <c r="J436" s="111"/>
+      <c r="K436" s="111"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" s="112"/>
+      <c r="B437" s="112"/>
+      <c r="C437" s="112"/>
+      <c r="D437" s="112"/>
+      <c r="E437" s="112"/>
+      <c r="F437" s="112"/>
+      <c r="G437" s="112"/>
+      <c r="H437" s="112"/>
+      <c r="I437" s="112"/>
+      <c r="J437" s="112"/>
+      <c r="K437" s="112"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A438" s="113" t="s">
+        <v>268</v>
+      </c>
+      <c r="B438" s="114"/>
+      <c r="C438" s="114"/>
+      <c r="D438" s="114"/>
+      <c r="E438" s="114"/>
+      <c r="F438" s="114"/>
+      <c r="G438" s="114"/>
+      <c r="H438" s="114"/>
+      <c r="I438" s="114"/>
+      <c r="J438" s="114"/>
+      <c r="K438" s="115"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B439" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C439" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D439" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B436" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C436" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D436" s="13">
-        <v>1</v>
-      </c>
-      <c r="E436" s="13">
-        <v>0</v>
-      </c>
-      <c r="F436" s="13">
-        <v>1</v>
-      </c>
-      <c r="G436" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H436" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I436" s="84"/>
-      <c r="J436" s="84"/>
-      <c r="K436" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="108"/>
-      <c r="B437" s="108"/>
-      <c r="C437" s="108"/>
-      <c r="D437" s="108"/>
-      <c r="E437" s="108"/>
-      <c r="F437" s="108"/>
-      <c r="G437" s="108"/>
-      <c r="H437" s="108"/>
-      <c r="I437" s="108"/>
-      <c r="J437" s="108"/>
-      <c r="K437" s="108"/>
-    </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="109"/>
-      <c r="B438" s="109"/>
-      <c r="C438" s="109"/>
-      <c r="D438" s="109"/>
-      <c r="E438" s="109"/>
-      <c r="F438" s="109"/>
-      <c r="G438" s="109"/>
-      <c r="H438" s="109"/>
-      <c r="I438" s="109"/>
-      <c r="J438" s="109"/>
-      <c r="K438" s="109"/>
-    </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="110" t="s">
-        <v>271</v>
-      </c>
-      <c r="B439" s="111"/>
-      <c r="C439" s="111"/>
-      <c r="D439" s="111"/>
-      <c r="E439" s="111"/>
-      <c r="F439" s="111"/>
-      <c r="G439" s="111"/>
-      <c r="H439" s="111"/>
-      <c r="I439" s="111"/>
-      <c r="J439" s="111"/>
-      <c r="K439" s="112"/>
+      <c r="E439" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F439" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G439" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H439" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I439" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J439" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K439" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B440" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C440" s="19" t="s">
+      <c r="A440" s="39">
+        <v>1</v>
+      </c>
+      <c r="B440" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C440" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D440" s="5">
+        <v>10</v>
+      </c>
+      <c r="E440" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G440" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H440" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I440" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J440" s="83"/>
+      <c r="K440" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" s="85">
         <v>2</v>
       </c>
-      <c r="D440" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E440" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F440" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G440" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H440" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I440" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J440" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K440" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" s="39">
-        <v>1</v>
-      </c>
-      <c r="B441" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C441" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D441" s="5">
-        <v>10</v>
-      </c>
-      <c r="E441" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F441" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G441" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H441" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I441" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="J441" s="86"/>
-      <c r="K441" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B441" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C441" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D441" s="7">
+        <v>20</v>
+      </c>
+      <c r="E441" s="7"/>
+      <c r="F441" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G441" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H441" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I441" s="85"/>
+      <c r="J441" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K441" s="9"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D442" s="2">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G442" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H442" s="2" t="s">
         <v>0</v>
       </c>
@@ -13044,298 +13073,285 @@
       <c r="K442" s="9"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" s="40">
-        <v>3</v>
-      </c>
-      <c r="B443" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C443" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D443" s="7"/>
-      <c r="E443" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F443" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G443" s="7"/>
-      <c r="H443" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I443" s="88"/>
-      <c r="J443" s="88"/>
-      <c r="K443" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="A443" s="1">
+        <v>4</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F443" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H443" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J443" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K443" s="9"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D444" s="7"/>
-      <c r="E444" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F444" s="10" t="s">
-        <v>18</v>
+      <c r="E444" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F444" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G444" s="7"/>
       <c r="H444" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I444" s="88"/>
-      <c r="J444" s="88"/>
+      <c r="I444" s="85"/>
+      <c r="J444" s="85"/>
       <c r="K444" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="41">
+      <c r="A445" s="40">
+        <v>6</v>
+      </c>
+      <c r="B445" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C445" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D445" s="7"/>
+      <c r="E445" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F445" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G445" s="7"/>
+      <c r="H445" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I445" s="85"/>
+      <c r="J445" s="85"/>
+      <c r="K445" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A446" s="41">
+        <v>7</v>
+      </c>
+      <c r="B446" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C446" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D446" s="13">
+        <v>1</v>
+      </c>
+      <c r="E446" s="13">
+        <v>0</v>
+      </c>
+      <c r="F446" s="13">
+        <v>1</v>
+      </c>
+      <c r="G446" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H446" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I446" s="84"/>
+      <c r="J446" s="84"/>
+      <c r="K446" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" s="111"/>
+      <c r="B447" s="111"/>
+      <c r="C447" s="111"/>
+      <c r="D447" s="111"/>
+      <c r="E447" s="111"/>
+      <c r="F447" s="111"/>
+      <c r="G447" s="111"/>
+      <c r="H447" s="111"/>
+      <c r="I447" s="111"/>
+      <c r="J447" s="111"/>
+      <c r="K447" s="111"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" s="112"/>
+      <c r="B448" s="112"/>
+      <c r="C448" s="112"/>
+      <c r="D448" s="112"/>
+      <c r="E448" s="112"/>
+      <c r="F448" s="112"/>
+      <c r="G448" s="112"/>
+      <c r="H448" s="112"/>
+      <c r="I448" s="112"/>
+      <c r="J448" s="112"/>
+      <c r="K448" s="112"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="B449" s="114"/>
+      <c r="C449" s="114"/>
+      <c r="D449" s="114"/>
+      <c r="E449" s="114"/>
+      <c r="F449" s="114"/>
+      <c r="G449" s="114"/>
+      <c r="H449" s="114"/>
+      <c r="I449" s="114"/>
+      <c r="J449" s="114"/>
+      <c r="K449" s="115"/>
+    </row>
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A450" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B450" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C450" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D450" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E450" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B445" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C445" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D445" s="13">
-        <v>1</v>
-      </c>
-      <c r="E445" s="13">
-        <v>0</v>
-      </c>
-      <c r="F445" s="13">
-        <v>1</v>
-      </c>
-      <c r="G445" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H445" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I445" s="87"/>
-      <c r="J445" s="87"/>
-      <c r="K445" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="108"/>
-      <c r="B446" s="108"/>
-      <c r="C446" s="108"/>
-      <c r="D446" s="108"/>
-      <c r="E446" s="108"/>
-      <c r="F446" s="108"/>
-      <c r="G446" s="108"/>
-      <c r="H446" s="108"/>
-      <c r="I446" s="108"/>
-      <c r="J446" s="108"/>
-      <c r="K446" s="108"/>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" s="109"/>
-      <c r="B447" s="109"/>
-      <c r="C447" s="109"/>
-      <c r="D447" s="109"/>
-      <c r="E447" s="109"/>
-      <c r="F447" s="109"/>
-      <c r="G447" s="109"/>
-      <c r="H447" s="109"/>
-      <c r="I447" s="109"/>
-      <c r="J447" s="109"/>
-      <c r="K447" s="109"/>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" s="110" t="s">
-        <v>273</v>
-      </c>
-      <c r="B448" s="111"/>
-      <c r="C448" s="111"/>
-      <c r="D448" s="111"/>
-      <c r="E448" s="111"/>
-      <c r="F448" s="111"/>
-      <c r="G448" s="111"/>
-      <c r="H448" s="111"/>
-      <c r="I448" s="111"/>
-      <c r="J448" s="111"/>
-      <c r="K448" s="112"/>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A449" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B449" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C449" s="19" t="s">
+      <c r="F450" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G450" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H450" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I450" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J450" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K450" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A451" s="39">
+        <v>1</v>
+      </c>
+      <c r="B451" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C451" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D451" s="5">
+        <v>10</v>
+      </c>
+      <c r="E451" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F451" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G451" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H451" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I451" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="J451" s="86"/>
+      <c r="K451" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
         <v>2</v>
       </c>
-      <c r="D449" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E449" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F449" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G449" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H449" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I449" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J449" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K449" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" s="39">
-        <v>1</v>
-      </c>
-      <c r="B450" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C450" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D450" s="5">
-        <v>20</v>
-      </c>
-      <c r="E450" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F450" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G450" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H450" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I450" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="J450" s="93"/>
-      <c r="K450" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="40">
-        <v>2</v>
-      </c>
-      <c r="B451" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C451" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D451" s="7">
-        <v>20</v>
-      </c>
-      <c r="E451" s="7"/>
-      <c r="F451" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G451" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H451" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I451" s="91"/>
-      <c r="J451" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="K451" s="9"/>
-    </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A452" s="40">
-        <v>3</v>
-      </c>
-      <c r="B452" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="C452" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D452" s="7">
-        <v>1</v>
-      </c>
-      <c r="E452" s="7"/>
-      <c r="F452" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G452" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H452" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I452" s="91"/>
-      <c r="J452" s="91" t="s">
+      <c r="B452" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D452" s="2">
+        <v>255</v>
+      </c>
+      <c r="F452" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H452" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J452" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K452" s="9"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B453" s="7" t="s">
-        <v>282</v>
+        <v>23</v>
       </c>
       <c r="C453" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D453" s="7">
-        <v>11</v>
-      </c>
-      <c r="E453" s="7"/>
-      <c r="F453" s="12">
-        <v>0</v>
-      </c>
-      <c r="G453" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D453" s="7"/>
+      <c r="E453" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F453" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G453" s="7"/>
       <c r="H453" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I453" s="91"/>
-      <c r="J453" s="91"/>
-      <c r="K453" s="9"/>
+      <c r="I453" s="88"/>
+      <c r="J453" s="88"/>
+      <c r="K453" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>283</v>
+        <v>24</v>
       </c>
       <c r="C454" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D454" s="7">
-        <v>255</v>
-      </c>
-      <c r="E454" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="D454" s="7"/>
+      <c r="E454" s="10" t="s">
+        <v>18</v>
+      </c>
       <c r="F454" s="10" t="s">
         <v>18</v>
       </c>
@@ -13343,547 +13359,545 @@
       <c r="H454" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I454" s="91"/>
-      <c r="J454" s="91"/>
-      <c r="K454" s="9"/>
+      <c r="I454" s="88"/>
+      <c r="J454" s="88"/>
+      <c r="K454" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" s="40">
+      <c r="A455" s="41">
+        <v>5</v>
+      </c>
+      <c r="B455" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C455" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D455" s="13">
+        <v>1</v>
+      </c>
+      <c r="E455" s="13">
+        <v>0</v>
+      </c>
+      <c r="F455" s="13">
+        <v>1</v>
+      </c>
+      <c r="G455" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H455" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I455" s="87"/>
+      <c r="J455" s="87"/>
+      <c r="K455" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A456" s="111"/>
+      <c r="B456" s="111"/>
+      <c r="C456" s="111"/>
+      <c r="D456" s="111"/>
+      <c r="E456" s="111"/>
+      <c r="F456" s="111"/>
+      <c r="G456" s="111"/>
+      <c r="H456" s="111"/>
+      <c r="I456" s="111"/>
+      <c r="J456" s="111"/>
+      <c r="K456" s="111"/>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457" s="112"/>
+      <c r="B457" s="112"/>
+      <c r="C457" s="112"/>
+      <c r="D457" s="112"/>
+      <c r="E457" s="112"/>
+      <c r="F457" s="112"/>
+      <c r="G457" s="112"/>
+      <c r="H457" s="112"/>
+      <c r="I457" s="112"/>
+      <c r="J457" s="112"/>
+      <c r="K457" s="112"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" s="113" t="s">
+        <v>273</v>
+      </c>
+      <c r="B458" s="114"/>
+      <c r="C458" s="114"/>
+      <c r="D458" s="114"/>
+      <c r="E458" s="114"/>
+      <c r="F458" s="114"/>
+      <c r="G458" s="114"/>
+      <c r="H458" s="114"/>
+      <c r="I458" s="114"/>
+      <c r="J458" s="114"/>
+      <c r="K458" s="115"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B459" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C459" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D459" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E459" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F459" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G459" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H459" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I459" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B455" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C455" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D455" s="7">
-        <v>255</v>
-      </c>
-      <c r="E455" s="7"/>
-      <c r="F455" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G455" s="7"/>
-      <c r="H455" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I455" s="91"/>
-      <c r="J455" s="91"/>
-      <c r="K455" s="9"/>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A456" s="40">
-        <v>7</v>
-      </c>
-      <c r="B456" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C456" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D456" s="7"/>
-      <c r="E456" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F456" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G456" s="7"/>
-      <c r="H456" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I456" s="91"/>
-      <c r="J456" s="91"/>
-      <c r="K456" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" s="40">
+      <c r="J459" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K459" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B457" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C457" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D457" s="7"/>
-      <c r="E457" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F457" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G457" s="7"/>
-      <c r="H457" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I457" s="91"/>
-      <c r="J457" s="91"/>
-      <c r="K457" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A458" s="41">
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" s="39">
+        <v>1</v>
+      </c>
+      <c r="B460" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C460" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D460" s="5">
+        <v>20</v>
+      </c>
+      <c r="E460" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F460" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G460" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H460" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I460" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="J460" s="93"/>
+      <c r="K460" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A461" s="40">
+        <v>2</v>
+      </c>
+      <c r="B461" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D461" s="7">
+        <v>20</v>
+      </c>
+      <c r="E461" s="7"/>
+      <c r="F461" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G461" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H461" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I461" s="91"/>
+      <c r="J461" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K461" s="9"/>
+    </row>
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A462" s="40">
+        <v>3</v>
+      </c>
+      <c r="B462" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D462" s="7">
+        <v>1</v>
+      </c>
+      <c r="E462" s="7"/>
+      <c r="F462" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G462" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H462" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I462" s="91"/>
+      <c r="J462" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K462" s="9"/>
+    </row>
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A463" s="40">
+        <v>4</v>
+      </c>
+      <c r="B463" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C463" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B458" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C458" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D458" s="13">
-        <v>1</v>
-      </c>
-      <c r="E458" s="13">
-        <v>0</v>
-      </c>
-      <c r="F458" s="13">
-        <v>1</v>
-      </c>
-      <c r="G458" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H458" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I458" s="92"/>
-      <c r="J458" s="92"/>
-      <c r="K458" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A459" s="108"/>
-      <c r="B459" s="108"/>
-      <c r="C459" s="108"/>
-      <c r="D459" s="108"/>
-      <c r="E459" s="108"/>
-      <c r="F459" s="108"/>
-      <c r="G459" s="108"/>
-      <c r="H459" s="108"/>
-      <c r="I459" s="108"/>
-      <c r="J459" s="108"/>
-      <c r="K459" s="108"/>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A460" s="109"/>
-      <c r="B460" s="109"/>
-      <c r="C460" s="109"/>
-      <c r="D460" s="109"/>
-      <c r="E460" s="109"/>
-      <c r="F460" s="109"/>
-      <c r="G460" s="109"/>
-      <c r="H460" s="109"/>
-      <c r="I460" s="109"/>
-      <c r="J460" s="109"/>
-      <c r="K460" s="109"/>
-    </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A461" s="110" t="s">
-        <v>285</v>
-      </c>
-      <c r="B461" s="111"/>
-      <c r="C461" s="111"/>
-      <c r="D461" s="111"/>
-      <c r="E461" s="111"/>
-      <c r="F461" s="111"/>
-      <c r="G461" s="111"/>
-      <c r="H461" s="111"/>
-      <c r="I461" s="111"/>
-      <c r="J461" s="111"/>
-      <c r="K461" s="112"/>
-    </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A462" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B462" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C462" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D462" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E462" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F462" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G462" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H462" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I462" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J462" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K462" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A463" s="39">
-        <v>1</v>
-      </c>
-      <c r="B463" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C463" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D463" s="5">
-        <v>20</v>
-      </c>
-      <c r="E463" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F463" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G463" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H463" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I463" s="93" t="s">
-        <v>12</v>
-      </c>
-      <c r="J463" s="93"/>
-      <c r="K463" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D463" s="7">
+        <v>11</v>
+      </c>
+      <c r="E463" s="7"/>
+      <c r="F463" s="12">
+        <v>0</v>
+      </c>
+      <c r="G463" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H463" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I463" s="91"/>
+      <c r="J463" s="91"/>
+      <c r="K463" s="9"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B464" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C464" s="7" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="D464" s="7">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="E464" s="7"/>
-      <c r="F464" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G464" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="F464" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G464" s="7"/>
       <c r="H464" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I464" s="91"/>
-      <c r="J464" s="91" t="s">
-        <v>12</v>
-      </c>
+      <c r="J464" s="91"/>
       <c r="K464" s="9"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B465" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C465" s="7" t="s">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="D465" s="7">
-        <v>20</v>
+        <v>255</v>
       </c>
       <c r="E465" s="7"/>
-      <c r="F465" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G465" s="7" t="s">
-        <v>11</v>
-      </c>
+      <c r="F465" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G465" s="7"/>
       <c r="H465" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I465" s="91"/>
-      <c r="J465" s="91" t="s">
-        <v>12</v>
-      </c>
+      <c r="J465" s="91"/>
       <c r="K465" s="9"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B466" s="7" t="s">
-        <v>288</v>
+        <v>23</v>
       </c>
       <c r="C466" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D466" s="7">
-        <v>10</v>
-      </c>
-      <c r="E466" s="7"/>
-      <c r="F466" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G466" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D466" s="7"/>
+      <c r="E466" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F466" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G466" s="7"/>
       <c r="H466" s="7" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I466" s="91"/>
-      <c r="J466" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="K466" s="9"/>
+      <c r="J466" s="91"/>
+      <c r="K466" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
+        <v>8</v>
+      </c>
+      <c r="B467" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C467" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D467" s="7"/>
+      <c r="E467" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F467" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G467" s="7"/>
+      <c r="H467" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I467" s="91"/>
+      <c r="J467" s="91"/>
+      <c r="K467" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A468" s="41">
+        <v>9</v>
+      </c>
+      <c r="B468" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C468" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D468" s="13">
+        <v>1</v>
+      </c>
+      <c r="E468" s="13">
+        <v>0</v>
+      </c>
+      <c r="F468" s="13">
+        <v>1</v>
+      </c>
+      <c r="G468" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H468" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I468" s="92"/>
+      <c r="J468" s="92"/>
+      <c r="K468" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A469" s="111"/>
+      <c r="B469" s="111"/>
+      <c r="C469" s="111"/>
+      <c r="D469" s="111"/>
+      <c r="E469" s="111"/>
+      <c r="F469" s="111"/>
+      <c r="G469" s="111"/>
+      <c r="H469" s="111"/>
+      <c r="I469" s="111"/>
+      <c r="J469" s="111"/>
+      <c r="K469" s="111"/>
+    </row>
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A470" s="112"/>
+      <c r="B470" s="112"/>
+      <c r="C470" s="112"/>
+      <c r="D470" s="112"/>
+      <c r="E470" s="112"/>
+      <c r="F470" s="112"/>
+      <c r="G470" s="112"/>
+      <c r="H470" s="112"/>
+      <c r="I470" s="112"/>
+      <c r="J470" s="112"/>
+      <c r="K470" s="112"/>
+    </row>
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A471" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="B471" s="114"/>
+      <c r="C471" s="114"/>
+      <c r="D471" s="114"/>
+      <c r="E471" s="114"/>
+      <c r="F471" s="114"/>
+      <c r="G471" s="114"/>
+      <c r="H471" s="114"/>
+      <c r="I471" s="114"/>
+      <c r="J471" s="114"/>
+      <c r="K471" s="115"/>
+    </row>
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A472" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B472" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C472" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D472" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E472" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B467" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="C467" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D467" s="7">
-        <v>1</v>
-      </c>
-      <c r="E467" s="7"/>
-      <c r="F467" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G467" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H467" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I467" s="91"/>
-      <c r="J467" s="91" t="s">
-        <v>12</v>
-      </c>
-      <c r="K467" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A468" s="40">
+      <c r="F472" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G472" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H472" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I472" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B468" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C468" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D468" s="7"/>
-      <c r="E468" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F468" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G468" s="7"/>
-      <c r="H468" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I468" s="91"/>
-      <c r="J468" s="91"/>
-      <c r="K468" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A469" s="40">
-        <v>7</v>
-      </c>
-      <c r="B469" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C469" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D469" s="7"/>
-      <c r="E469" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F469" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G469" s="7"/>
-      <c r="H469" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I469" s="91"/>
-      <c r="J469" s="91"/>
-      <c r="K469" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A470" s="41">
+      <c r="J472" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K472" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B470" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C470" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D470" s="13">
-        <v>1</v>
-      </c>
-      <c r="E470" s="13">
-        <v>0</v>
-      </c>
-      <c r="F470" s="13">
-        <v>1</v>
-      </c>
-      <c r="G470" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H470" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I470" s="92"/>
-      <c r="J470" s="92"/>
-      <c r="K470" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A471" s="108"/>
-      <c r="B471" s="108"/>
-      <c r="C471" s="108"/>
-      <c r="D471" s="108"/>
-      <c r="E471" s="108"/>
-      <c r="F471" s="108"/>
-      <c r="G471" s="108"/>
-      <c r="H471" s="108"/>
-      <c r="I471" s="108"/>
-      <c r="J471" s="108"/>
-      <c r="K471" s="108"/>
-    </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A472" s="109"/>
-      <c r="B472" s="109"/>
-      <c r="C472" s="109"/>
-      <c r="D472" s="109"/>
-      <c r="E472" s="109"/>
-      <c r="F472" s="109"/>
-      <c r="G472" s="109"/>
-      <c r="H472" s="109"/>
-      <c r="I472" s="109"/>
-      <c r="J472" s="109"/>
-      <c r="K472" s="109"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A473" s="110" t="s">
-        <v>303</v>
-      </c>
-      <c r="B473" s="111"/>
-      <c r="C473" s="111"/>
-      <c r="D473" s="111"/>
-      <c r="E473" s="111"/>
-      <c r="F473" s="111"/>
-      <c r="G473" s="111"/>
-      <c r="H473" s="111"/>
-      <c r="I473" s="111"/>
-      <c r="J473" s="111"/>
-      <c r="K473" s="112"/>
+      <c r="A473" s="39">
+        <v>1</v>
+      </c>
+      <c r="B473" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C473" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D473" s="5">
+        <v>20</v>
+      </c>
+      <c r="E473" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G473" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H473" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I473" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="J473" s="93"/>
+      <c r="K473" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A474" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B474" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C474" s="19" t="s">
+      <c r="A474" s="40">
         <v>2</v>
       </c>
-      <c r="D474" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E474" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F474" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G474" s="19" t="s">
+      <c r="B474" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C474" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D474" s="7">
+        <v>20</v>
+      </c>
+      <c r="E474" s="7"/>
+      <c r="F474" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G474" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H474" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I474" s="91"/>
+      <c r="J474" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K474" s="9"/>
+    </row>
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A475" s="40">
         <v>3</v>
       </c>
-      <c r="H474" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I474" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J474" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K474" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A475" s="39">
-        <v>1</v>
-      </c>
-      <c r="B475" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C475" s="5" t="s">
+      <c r="B475" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C475" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D475" s="5">
+      <c r="D475" s="7">
         <v>20</v>
       </c>
-      <c r="E475" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F475" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G475" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H475" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I475" s="101" t="s">
-        <v>12</v>
-      </c>
-      <c r="J475" s="101"/>
-      <c r="K475" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="E475" s="7"/>
+      <c r="F475" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G475" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H475" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I475" s="91"/>
+      <c r="J475" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K475" s="9"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B476" s="7" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="C476" s="7" t="s">
         <v>9</v>
@@ -13901,24 +13915,24 @@
       <c r="H476" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I476" s="103"/>
-      <c r="J476" s="103" t="s">
+      <c r="I476" s="91"/>
+      <c r="J476" s="91" t="s">
         <v>12</v>
       </c>
       <c r="K476" s="9"/>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B477" s="7" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="C477" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D477" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E477" s="7"/>
       <c r="F477" s="7" t="s">
@@ -13930,120 +13944,399 @@
       <c r="H477" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I477" s="103"/>
-      <c r="J477" s="103" t="s">
-        <v>12</v>
-      </c>
-      <c r="K477" s="9"/>
+      <c r="I477" s="91"/>
+      <c r="J477" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="K477" s="9" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B478" s="7" t="s">
-        <v>306</v>
+        <v>23</v>
       </c>
       <c r="C478" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D478" s="7">
-        <v>1</v>
-      </c>
-      <c r="E478" s="7"/>
-      <c r="F478" s="7">
-        <v>3</v>
-      </c>
-      <c r="G478" s="7" t="s">
-        <v>11</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D478" s="7"/>
+      <c r="E478" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F478" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G478" s="7"/>
       <c r="H478" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I478" s="103"/>
-      <c r="J478" s="103" t="s">
-        <v>12</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="I478" s="91"/>
+      <c r="J478" s="91"/>
       <c r="K478" s="9" t="s">
-        <v>307</v>
+        <v>16</v>
       </c>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B479" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C479" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D479" s="7"/>
-      <c r="E479" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F479" s="12" t="s">
-        <v>26</v>
+      <c r="E479" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F479" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G479" s="7"/>
       <c r="H479" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I479" s="103"/>
-      <c r="J479" s="103"/>
+      <c r="I479" s="91"/>
+      <c r="J479" s="91"/>
       <c r="K479" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="41">
+        <v>8</v>
+      </c>
+      <c r="B480" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C480" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D480" s="13">
+        <v>1</v>
+      </c>
+      <c r="E480" s="13">
+        <v>0</v>
+      </c>
+      <c r="F480" s="13">
+        <v>1</v>
+      </c>
+      <c r="G480" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H480" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I480" s="92"/>
+      <c r="J480" s="92"/>
+      <c r="K480" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A481" s="111"/>
+      <c r="B481" s="111"/>
+      <c r="C481" s="111"/>
+      <c r="D481" s="111"/>
+      <c r="E481" s="111"/>
+      <c r="F481" s="111"/>
+      <c r="G481" s="111"/>
+      <c r="H481" s="111"/>
+      <c r="I481" s="111"/>
+      <c r="J481" s="111"/>
+      <c r="K481" s="111"/>
+    </row>
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A482" s="112"/>
+      <c r="B482" s="112"/>
+      <c r="C482" s="112"/>
+      <c r="D482" s="112"/>
+      <c r="E482" s="112"/>
+      <c r="F482" s="112"/>
+      <c r="G482" s="112"/>
+      <c r="H482" s="112"/>
+      <c r="I482" s="112"/>
+      <c r="J482" s="112"/>
+      <c r="K482" s="112"/>
+    </row>
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A483" s="113" t="s">
+        <v>303</v>
+      </c>
+      <c r="B483" s="114"/>
+      <c r="C483" s="114"/>
+      <c r="D483" s="114"/>
+      <c r="E483" s="114"/>
+      <c r="F483" s="114"/>
+      <c r="G483" s="114"/>
+      <c r="H483" s="114"/>
+      <c r="I483" s="114"/>
+      <c r="J483" s="114"/>
+      <c r="K483" s="115"/>
+    </row>
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A484" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B484" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C484" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D484" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E484" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F484" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G484" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H484" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I484" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B480" s="13" t="s">
+      <c r="J484" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K484" s="19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A485" s="39">
+        <v>1</v>
+      </c>
+      <c r="B485" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C485" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D485" s="5">
+        <v>20</v>
+      </c>
+      <c r="E485" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G485" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H485" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I485" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="J485" s="101"/>
+      <c r="K485" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A486" s="40">
+        <v>2</v>
+      </c>
+      <c r="B486" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C486" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D486" s="7">
+        <v>10</v>
+      </c>
+      <c r="E486" s="7"/>
+      <c r="F486" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G486" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H486" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I486" s="103"/>
+      <c r="J486" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K486" s="9"/>
+    </row>
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A487" s="40">
+        <v>3</v>
+      </c>
+      <c r="B487" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C487" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D487" s="7">
+        <v>10</v>
+      </c>
+      <c r="E487" s="7"/>
+      <c r="F487" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G487" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H487" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I487" s="103"/>
+      <c r="J487" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K487" s="9"/>
+    </row>
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A488" s="40">
+        <v>4</v>
+      </c>
+      <c r="B488" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C488" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D488" s="7">
+        <v>1</v>
+      </c>
+      <c r="E488" s="7"/>
+      <c r="F488" s="7">
+        <v>3</v>
+      </c>
+      <c r="G488" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H488" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I488" s="103"/>
+      <c r="J488" s="103" t="s">
+        <v>12</v>
+      </c>
+      <c r="K488" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A489" s="40">
+        <v>5</v>
+      </c>
+      <c r="B489" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C489" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D489" s="7"/>
+      <c r="E489" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F489" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G489" s="7"/>
+      <c r="H489" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I489" s="103"/>
+      <c r="J489" s="103"/>
+      <c r="K489" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A490" s="41">
+        <v>6</v>
+      </c>
+      <c r="B490" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C480" s="13" t="s">
+      <c r="C490" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D480" s="13"/>
-      <c r="E480" s="38" t="s">
+      <c r="D490" s="13"/>
+      <c r="E490" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="F480" s="38" t="s">
+      <c r="F490" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G480" s="13"/>
-      <c r="H480" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I480" s="102"/>
-      <c r="J480" s="102"/>
-      <c r="K480" s="14" t="s">
+      <c r="G490" s="13"/>
+      <c r="H490" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I490" s="102"/>
+      <c r="J490" s="102"/>
+      <c r="K490" s="14" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="A65:K66"/>
-    <mergeCell ref="A67:K67"/>
-    <mergeCell ref="A446:K447"/>
-    <mergeCell ref="A448:K448"/>
-    <mergeCell ref="A365:K366"/>
-    <mergeCell ref="A367:K367"/>
-    <mergeCell ref="A437:K438"/>
-    <mergeCell ref="A439:K439"/>
-    <mergeCell ref="A418:K418"/>
-    <mergeCell ref="A426:K427"/>
-    <mergeCell ref="A428:K428"/>
+  <mergeCells count="83">
+    <mergeCell ref="A375:K376"/>
+    <mergeCell ref="A377:K377"/>
+    <mergeCell ref="A481:K482"/>
+    <mergeCell ref="A483:K483"/>
+    <mergeCell ref="A469:K470"/>
+    <mergeCell ref="A471:K471"/>
     <mergeCell ref="A406:K407"/>
     <mergeCell ref="A408:K408"/>
-    <mergeCell ref="A416:K417"/>
-    <mergeCell ref="A398:K398"/>
-    <mergeCell ref="A331:K331"/>
-    <mergeCell ref="A304:K305"/>
-    <mergeCell ref="A306:K306"/>
-    <mergeCell ref="A318:K319"/>
-    <mergeCell ref="A320:K320"/>
-    <mergeCell ref="A329:K330"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A21:K22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A11:K12"/>
+    <mergeCell ref="A13:K13"/>
+    <mergeCell ref="A279:K279"/>
+    <mergeCell ref="A286:K287"/>
+    <mergeCell ref="A288:K288"/>
+    <mergeCell ref="A295:K296"/>
+    <mergeCell ref="A297:K297"/>
+    <mergeCell ref="A185:K185"/>
+    <mergeCell ref="A183:K184"/>
+    <mergeCell ref="A236:K237"/>
+    <mergeCell ref="A222:K222"/>
+    <mergeCell ref="A268:K269"/>
+    <mergeCell ref="A220:K221"/>
+    <mergeCell ref="A210:K210"/>
+    <mergeCell ref="A208:K209"/>
+    <mergeCell ref="A198:K198"/>
+    <mergeCell ref="A196:K197"/>
+    <mergeCell ref="A270:K270"/>
+    <mergeCell ref="A277:K278"/>
+    <mergeCell ref="A238:K238"/>
+    <mergeCell ref="A175:K175"/>
+    <mergeCell ref="A76:K77"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="A88:K88"/>
+    <mergeCell ref="A86:K87"/>
+    <mergeCell ref="A141:K141"/>
+    <mergeCell ref="A139:K140"/>
+    <mergeCell ref="A126:K126"/>
+    <mergeCell ref="A124:K125"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="A110:K111"/>
+    <mergeCell ref="A99:K100"/>
+    <mergeCell ref="A101:K101"/>
     <mergeCell ref="A340:K341"/>
     <mergeCell ref="A342:K342"/>
     <mergeCell ref="A34:K34"/>
@@ -14060,50 +14353,27 @@
     <mergeCell ref="A257:K258"/>
     <mergeCell ref="A248:K248"/>
     <mergeCell ref="A246:K247"/>
-    <mergeCell ref="A270:K270"/>
-    <mergeCell ref="A277:K278"/>
-    <mergeCell ref="A238:K238"/>
-    <mergeCell ref="A175:K175"/>
-    <mergeCell ref="A76:K77"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="A88:K88"/>
-    <mergeCell ref="A86:K87"/>
-    <mergeCell ref="A141:K141"/>
-    <mergeCell ref="A139:K140"/>
-    <mergeCell ref="A126:K126"/>
-    <mergeCell ref="A124:K125"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="A110:K111"/>
-    <mergeCell ref="A99:K100"/>
-    <mergeCell ref="A101:K101"/>
-    <mergeCell ref="A185:K185"/>
-    <mergeCell ref="A183:K184"/>
-    <mergeCell ref="A236:K237"/>
-    <mergeCell ref="A222:K222"/>
-    <mergeCell ref="A268:K269"/>
-    <mergeCell ref="A279:K279"/>
-    <mergeCell ref="A286:K287"/>
-    <mergeCell ref="A288:K288"/>
-    <mergeCell ref="A295:K296"/>
-    <mergeCell ref="A297:K297"/>
-    <mergeCell ref="A220:K221"/>
-    <mergeCell ref="A210:K210"/>
-    <mergeCell ref="A208:K209"/>
-    <mergeCell ref="A198:K198"/>
-    <mergeCell ref="A196:K197"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A21:K22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A11:K12"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A375:K376"/>
-    <mergeCell ref="A377:K377"/>
-    <mergeCell ref="A471:K472"/>
-    <mergeCell ref="A473:K473"/>
-    <mergeCell ref="A459:K460"/>
-    <mergeCell ref="A461:K461"/>
+    <mergeCell ref="A304:K305"/>
+    <mergeCell ref="A306:K306"/>
+    <mergeCell ref="A318:K319"/>
+    <mergeCell ref="A320:K320"/>
+    <mergeCell ref="A329:K330"/>
+    <mergeCell ref="A65:K66"/>
+    <mergeCell ref="A67:K67"/>
+    <mergeCell ref="A456:K457"/>
+    <mergeCell ref="A458:K458"/>
+    <mergeCell ref="A365:K366"/>
+    <mergeCell ref="A367:K367"/>
+    <mergeCell ref="A447:K448"/>
+    <mergeCell ref="A449:K449"/>
+    <mergeCell ref="A428:K428"/>
+    <mergeCell ref="A436:K437"/>
+    <mergeCell ref="A438:K438"/>
+    <mergeCell ref="A415:K416"/>
+    <mergeCell ref="A417:K417"/>
+    <mergeCell ref="A426:K427"/>
+    <mergeCell ref="A398:K398"/>
+    <mergeCell ref="A331:K331"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14175,45 +14445,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="108"/>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
+      <c r="A1" s="111"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
+      <c r="I1" s="111"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="109"/>
-      <c r="B2" s="109"/>
-      <c r="C2" s="109"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
+      <c r="A2" s="112"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="112"/>
+      <c r="J2" s="112"/>
+      <c r="K2" s="112"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="113" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="B3" s="114"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="114"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -14398,45 +14668,45 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="108"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="108"/>
-      <c r="I10" s="108"/>
-      <c r="J10" s="108"/>
-      <c r="K10" s="108"/>
+      <c r="A10" s="111"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="111"/>
+      <c r="K10" s="111"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="109"/>
-      <c r="I11" s="109"/>
-      <c r="J11" s="109"/>
-      <c r="K11" s="109"/>
+      <c r="A11" s="112"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="112"/>
+      <c r="G11" s="112"/>
+      <c r="H11" s="112"/>
+      <c r="I11" s="112"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="112"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="111"/>
-      <c r="C12" s="111"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="111"/>
-      <c r="K12" s="112"/>
+      <c r="B12" s="114"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="114"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -14708,45 +14978,45 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="108"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="108"/>
-      <c r="K22" s="108"/>
+      <c r="A22" s="111"/>
+      <c r="B22" s="111"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111"/>
+      <c r="E22" s="111"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="111"/>
+      <c r="H22" s="111"/>
+      <c r="I22" s="111"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="111"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="109"/>
-      <c r="I23" s="109"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="109"/>
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="112"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="112"/>
+      <c r="I23" s="112"/>
+      <c r="J23" s="112"/>
+      <c r="K23" s="112"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="111"/>
-      <c r="J24" s="111"/>
-      <c r="K24" s="112"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
+      <c r="F24" s="114"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="114"/>
+      <c r="I24" s="114"/>
+      <c r="J24" s="114"/>
+      <c r="K24" s="115"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
@@ -14993,45 +15263,45 @@
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="108"/>
-      <c r="B33" s="108"/>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
-      <c r="F33" s="108"/>
-      <c r="G33" s="108"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="108"/>
-      <c r="K33" s="108"/>
+      <c r="A33" s="111"/>
+      <c r="B33" s="111"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
-      <c r="B34" s="109"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="112"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="112"/>
+      <c r="G34" s="112"/>
+      <c r="H34" s="112"/>
+      <c r="I34" s="112"/>
+      <c r="J34" s="112"/>
+      <c r="K34" s="112"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="110" t="s">
+      <c r="A35" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="B35" s="111"/>
-      <c r="C35" s="111"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="111"/>
-      <c r="F35" s="111"/>
-      <c r="G35" s="111"/>
-      <c r="H35" s="111"/>
-      <c r="I35" s="111"/>
-      <c r="J35" s="111"/>
-      <c r="K35" s="112"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="114"/>
+      <c r="D35" s="114"/>
+      <c r="E35" s="114"/>
+      <c r="F35" s="114"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="114"/>
+      <c r="I35" s="114"/>
+      <c r="J35" s="114"/>
+      <c r="K35" s="115"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
@@ -15305,45 +15575,45 @@
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108"/>
-      <c r="E45" s="108"/>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="108"/>
-      <c r="K45" s="108"/>
+      <c r="A45" s="111"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
-      <c r="B46" s="109"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="109"/>
-      <c r="I46" s="109"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
+      <c r="A46" s="112"/>
+      <c r="B46" s="112"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="112"/>
+      <c r="E46" s="112"/>
+      <c r="F46" s="112"/>
+      <c r="G46" s="112"/>
+      <c r="H46" s="112"/>
+      <c r="I46" s="112"/>
+      <c r="J46" s="112"/>
+      <c r="K46" s="112"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="110" t="s">
+      <c r="A47" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="112"/>
+      <c r="B47" s="114"/>
+      <c r="C47" s="114"/>
+      <c r="D47" s="114"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
+      <c r="G47" s="114"/>
+      <c r="H47" s="114"/>
+      <c r="I47" s="114"/>
+      <c r="J47" s="114"/>
+      <c r="K47" s="115"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -15586,45 +15856,45 @@
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
-      <c r="B56" s="108"/>
-      <c r="C56" s="108"/>
-      <c r="D56" s="108"/>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="108"/>
-      <c r="J56" s="108"/>
-      <c r="K56" s="108"/>
+      <c r="A56" s="111"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="111"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="109"/>
-      <c r="B57" s="109"/>
-      <c r="C57" s="109"/>
-      <c r="D57" s="109"/>
-      <c r="E57" s="109"/>
-      <c r="F57" s="109"/>
-      <c r="G57" s="109"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
-      <c r="J57" s="109"/>
-      <c r="K57" s="109"/>
+      <c r="A57" s="112"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="112"/>
+      <c r="K57" s="112"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="110" t="s">
+      <c r="A58" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="111"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="111"/>
-      <c r="K58" s="112"/>
+      <c r="B58" s="114"/>
+      <c r="C58" s="114"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="114"/>
+      <c r="G58" s="114"/>
+      <c r="H58" s="114"/>
+      <c r="I58" s="114"/>
+      <c r="J58" s="114"/>
+      <c r="K58" s="115"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
@@ -15867,45 +16137,45 @@
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="108"/>
-      <c r="B67" s="108"/>
-      <c r="C67" s="108"/>
-      <c r="D67" s="108"/>
-      <c r="E67" s="108"/>
-      <c r="F67" s="108"/>
-      <c r="G67" s="108"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="108"/>
-      <c r="J67" s="108"/>
-      <c r="K67" s="108"/>
+      <c r="A67" s="111"/>
+      <c r="B67" s="111"/>
+      <c r="C67" s="111"/>
+      <c r="D67" s="111"/>
+      <c r="E67" s="111"/>
+      <c r="F67" s="111"/>
+      <c r="G67" s="111"/>
+      <c r="H67" s="111"/>
+      <c r="I67" s="111"/>
+      <c r="J67" s="111"/>
+      <c r="K67" s="111"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="109"/>
-      <c r="B68" s="109"/>
-      <c r="C68" s="109"/>
-      <c r="D68" s="109"/>
-      <c r="E68" s="109"/>
-      <c r="F68" s="109"/>
-      <c r="G68" s="109"/>
-      <c r="H68" s="109"/>
-      <c r="I68" s="109"/>
-      <c r="J68" s="109"/>
-      <c r="K68" s="109"/>
+      <c r="A68" s="112"/>
+      <c r="B68" s="112"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="112"/>
+      <c r="H68" s="112"/>
+      <c r="I68" s="112"/>
+      <c r="J68" s="112"/>
+      <c r="K68" s="112"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="110" t="s">
+      <c r="A69" s="113" t="s">
         <v>85</v>
       </c>
-      <c r="B69" s="111"/>
-      <c r="C69" s="111"/>
-      <c r="D69" s="111"/>
-      <c r="E69" s="111"/>
-      <c r="F69" s="111"/>
-      <c r="G69" s="111"/>
-      <c r="H69" s="111"/>
-      <c r="I69" s="111"/>
-      <c r="J69" s="111"/>
-      <c r="K69" s="112"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="114"/>
+      <c r="D69" s="114"/>
+      <c r="E69" s="114"/>
+      <c r="F69" s="114"/>
+      <c r="G69" s="114"/>
+      <c r="H69" s="114"/>
+      <c r="I69" s="114"/>
+      <c r="J69" s="114"/>
+      <c r="K69" s="115"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
@@ -16229,45 +16499,45 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="108"/>
-      <c r="B82" s="108"/>
-      <c r="C82" s="108"/>
-      <c r="D82" s="108"/>
-      <c r="E82" s="108"/>
-      <c r="F82" s="108"/>
-      <c r="G82" s="108"/>
-      <c r="H82" s="108"/>
-      <c r="I82" s="108"/>
-      <c r="J82" s="108"/>
-      <c r="K82" s="108"/>
+      <c r="A82" s="111"/>
+      <c r="B82" s="111"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="111"/>
+      <c r="I82" s="111"/>
+      <c r="J82" s="111"/>
+      <c r="K82" s="111"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="109"/>
-      <c r="B83" s="109"/>
-      <c r="C83" s="109"/>
-      <c r="D83" s="109"/>
-      <c r="E83" s="109"/>
-      <c r="F83" s="109"/>
-      <c r="G83" s="109"/>
-      <c r="H83" s="109"/>
-      <c r="I83" s="109"/>
-      <c r="J83" s="109"/>
-      <c r="K83" s="109"/>
+      <c r="A83" s="112"/>
+      <c r="B83" s="112"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="112"/>
+      <c r="E83" s="112"/>
+      <c r="F83" s="112"/>
+      <c r="G83" s="112"/>
+      <c r="H83" s="112"/>
+      <c r="I83" s="112"/>
+      <c r="J83" s="112"/>
+      <c r="K83" s="112"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="110" t="s">
+      <c r="A84" s="113" t="s">
         <v>192</v>
       </c>
-      <c r="B84" s="111"/>
-      <c r="C84" s="111"/>
-      <c r="D84" s="111"/>
-      <c r="E84" s="111"/>
-      <c r="F84" s="111"/>
-      <c r="G84" s="111"/>
-      <c r="H84" s="111"/>
-      <c r="I84" s="111"/>
-      <c r="J84" s="111"/>
-      <c r="K84" s="112"/>
+      <c r="B84" s="114"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="114"/>
+      <c r="F84" s="114"/>
+      <c r="G84" s="114"/>
+      <c r="H84" s="114"/>
+      <c r="I84" s="114"/>
+      <c r="J84" s="114"/>
+      <c r="K84" s="115"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="20" t="s">
@@ -16448,45 +16718,45 @@
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="108"/>
-      <c r="B91" s="108"/>
-      <c r="C91" s="108"/>
-      <c r="D91" s="108"/>
-      <c r="E91" s="108"/>
-      <c r="F91" s="108"/>
-      <c r="G91" s="108"/>
-      <c r="H91" s="108"/>
-      <c r="I91" s="108"/>
-      <c r="J91" s="108"/>
-      <c r="K91" s="108"/>
+      <c r="A91" s="111"/>
+      <c r="B91" s="111"/>
+      <c r="C91" s="111"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="111"/>
+      <c r="F91" s="111"/>
+      <c r="G91" s="111"/>
+      <c r="H91" s="111"/>
+      <c r="I91" s="111"/>
+      <c r="J91" s="111"/>
+      <c r="K91" s="111"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="109"/>
-      <c r="B92" s="109"/>
-      <c r="C92" s="109"/>
-      <c r="D92" s="109"/>
-      <c r="E92" s="109"/>
-      <c r="F92" s="109"/>
-      <c r="G92" s="109"/>
-      <c r="H92" s="109"/>
-      <c r="I92" s="109"/>
-      <c r="J92" s="109"/>
-      <c r="K92" s="109"/>
+      <c r="A92" s="112"/>
+      <c r="B92" s="112"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="112"/>
+      <c r="E92" s="112"/>
+      <c r="F92" s="112"/>
+      <c r="G92" s="112"/>
+      <c r="H92" s="112"/>
+      <c r="I92" s="112"/>
+      <c r="J92" s="112"/>
+      <c r="K92" s="112"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="110" t="s">
+      <c r="A93" s="113" t="s">
         <v>191</v>
       </c>
-      <c r="B93" s="111"/>
-      <c r="C93" s="111"/>
-      <c r="D93" s="111"/>
-      <c r="E93" s="111"/>
-      <c r="F93" s="111"/>
-      <c r="G93" s="111"/>
-      <c r="H93" s="111"/>
-      <c r="I93" s="111"/>
-      <c r="J93" s="111"/>
-      <c r="K93" s="112"/>
+      <c r="B93" s="114"/>
+      <c r="C93" s="114"/>
+      <c r="D93" s="114"/>
+      <c r="E93" s="114"/>
+      <c r="F93" s="114"/>
+      <c r="G93" s="114"/>
+      <c r="H93" s="114"/>
+      <c r="I93" s="114"/>
+      <c r="J93" s="114"/>
+      <c r="K93" s="115"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
@@ -16733,45 +17003,45 @@
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="108"/>
-      <c r="B103" s="108"/>
-      <c r="C103" s="108"/>
-      <c r="D103" s="108"/>
-      <c r="E103" s="108"/>
-      <c r="F103" s="108"/>
-      <c r="G103" s="108"/>
-      <c r="H103" s="108"/>
-      <c r="I103" s="108"/>
-      <c r="J103" s="108"/>
-      <c r="K103" s="108"/>
+      <c r="A103" s="111"/>
+      <c r="B103" s="111"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="111"/>
+      <c r="H103" s="111"/>
+      <c r="I103" s="111"/>
+      <c r="J103" s="111"/>
+      <c r="K103" s="111"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="109"/>
-      <c r="B104" s="109"/>
-      <c r="C104" s="109"/>
-      <c r="D104" s="109"/>
-      <c r="E104" s="109"/>
-      <c r="F104" s="109"/>
-      <c r="G104" s="109"/>
-      <c r="H104" s="109"/>
-      <c r="I104" s="109"/>
-      <c r="J104" s="109"/>
-      <c r="K104" s="109"/>
+      <c r="A104" s="112"/>
+      <c r="B104" s="112"/>
+      <c r="C104" s="112"/>
+      <c r="D104" s="112"/>
+      <c r="E104" s="112"/>
+      <c r="F104" s="112"/>
+      <c r="G104" s="112"/>
+      <c r="H104" s="112"/>
+      <c r="I104" s="112"/>
+      <c r="J104" s="112"/>
+      <c r="K104" s="112"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="110" t="s">
+      <c r="A105" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="111"/>
-      <c r="C105" s="111"/>
-      <c r="D105" s="111"/>
-      <c r="E105" s="111"/>
-      <c r="F105" s="111"/>
-      <c r="G105" s="111"/>
-      <c r="H105" s="111"/>
-      <c r="I105" s="111"/>
-      <c r="J105" s="111"/>
-      <c r="K105" s="112"/>
+      <c r="B105" s="114"/>
+      <c r="C105" s="114"/>
+      <c r="D105" s="114"/>
+      <c r="E105" s="114"/>
+      <c r="F105" s="114"/>
+      <c r="G105" s="114"/>
+      <c r="H105" s="114"/>
+      <c r="I105" s="114"/>
+      <c r="J105" s="114"/>
+      <c r="K105" s="115"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="20" t="s">
@@ -16902,45 +17172,45 @@
       <c r="K109" s="14"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="108"/>
-      <c r="B110" s="108"/>
-      <c r="C110" s="108"/>
-      <c r="D110" s="108"/>
-      <c r="E110" s="108"/>
-      <c r="F110" s="108"/>
-      <c r="G110" s="108"/>
-      <c r="H110" s="108"/>
-      <c r="I110" s="108"/>
-      <c r="J110" s="108"/>
-      <c r="K110" s="108"/>
+      <c r="A110" s="111"/>
+      <c r="B110" s="111"/>
+      <c r="C110" s="111"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="111"/>
+      <c r="G110" s="111"/>
+      <c r="H110" s="111"/>
+      <c r="I110" s="111"/>
+      <c r="J110" s="111"/>
+      <c r="K110" s="111"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="109"/>
-      <c r="B111" s="109"/>
-      <c r="C111" s="109"/>
-      <c r="D111" s="109"/>
-      <c r="E111" s="109"/>
-      <c r="F111" s="109"/>
-      <c r="G111" s="109"/>
-      <c r="H111" s="109"/>
-      <c r="I111" s="109"/>
-      <c r="J111" s="109"/>
-      <c r="K111" s="109"/>
+      <c r="A111" s="112"/>
+      <c r="B111" s="112"/>
+      <c r="C111" s="112"/>
+      <c r="D111" s="112"/>
+      <c r="E111" s="112"/>
+      <c r="F111" s="112"/>
+      <c r="G111" s="112"/>
+      <c r="H111" s="112"/>
+      <c r="I111" s="112"/>
+      <c r="J111" s="112"/>
+      <c r="K111" s="112"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="110" t="s">
+      <c r="A112" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="B112" s="111"/>
-      <c r="C112" s="111"/>
-      <c r="D112" s="111"/>
-      <c r="E112" s="111"/>
-      <c r="F112" s="111"/>
-      <c r="G112" s="111"/>
-      <c r="H112" s="111"/>
-      <c r="I112" s="111"/>
-      <c r="J112" s="111"/>
-      <c r="K112" s="112"/>
+      <c r="B112" s="114"/>
+      <c r="C112" s="114"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
+      <c r="F112" s="114"/>
+      <c r="G112" s="114"/>
+      <c r="H112" s="114"/>
+      <c r="I112" s="114"/>
+      <c r="J112" s="114"/>
+      <c r="K112" s="115"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -17041,6 +17311,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="A110:K111"/>
+    <mergeCell ref="A105:K105"/>
+    <mergeCell ref="A103:K104"/>
+    <mergeCell ref="A82:K83"/>
+    <mergeCell ref="A84:K84"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A91:K92"/>
     <mergeCell ref="A67:K68"/>
     <mergeCell ref="A69:K69"/>
     <mergeCell ref="A12:K12"/>
@@ -17055,14 +17333,6 @@
     <mergeCell ref="A24:K24"/>
     <mergeCell ref="A33:K34"/>
     <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="A110:K111"/>
-    <mergeCell ref="A105:K105"/>
-    <mergeCell ref="A103:K104"/>
-    <mergeCell ref="A82:K83"/>
-    <mergeCell ref="A84:K84"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A91:K92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Database Schema Proteen.xlsx
+++ b/Database Schema Proteen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2950" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="317">
   <si>
     <t>No</t>
   </si>
@@ -961,6 +961,12 @@
   </si>
   <si>
     <t>hic_name</t>
+  </si>
+  <si>
+    <t>pro_cic_cartoon_icons_category</t>
+  </si>
+  <si>
+    <t>cic_name</t>
   </si>
 </sst>
 </file>
@@ -1195,7 +1201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1531,6 +1537,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,9 +1554,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1554,6 +1566,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1868,10 +1883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K490"/>
+  <dimension ref="A1:K500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I412" sqref="I412"/>
+    <sheetView tabSelected="1" topLeftCell="A409" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A436" sqref="A436:K437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1891,49 +1906,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
+      <c r="I1" s="119"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
     </row>
     <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="120" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="120"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="113" t="s">
+      <c r="A3" s="116" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="115"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="118"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
@@ -2139,45 +2154,45 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="114"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="114"/>
+      <c r="J11" s="114"/>
+      <c r="K11" s="114"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="112"/>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="121" t="s">
+      <c r="A13" s="124" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="122"/>
-      <c r="J13" s="122"/>
-      <c r="K13" s="123"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
@@ -2383,45 +2398,45 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="123"/>
+      <c r="C21" s="123"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="123"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="112"/>
-      <c r="B22" s="112"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="116" t="s">
         <v>144</v>
       </c>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
-      <c r="J23" s="114"/>
-      <c r="K23" s="115"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
@@ -2654,45 +2669,45 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="111"/>
-      <c r="B32" s="111"/>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="111"/>
-      <c r="F32" s="111"/>
-      <c r="G32" s="111"/>
-      <c r="H32" s="111"/>
-      <c r="I32" s="111"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="111"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="112"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="112"/>
-      <c r="D33" s="112"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="112"/>
-      <c r="H33" s="112"/>
-      <c r="I33" s="112"/>
-      <c r="J33" s="112"/>
-      <c r="K33" s="112"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="113" t="s">
+      <c r="A34" s="116" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="114"/>
-      <c r="C34" s="114"/>
-      <c r="D34" s="114"/>
-      <c r="E34" s="114"/>
-      <c r="F34" s="114"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="114"/>
-      <c r="J34" s="114"/>
-      <c r="K34" s="115"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="118"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
@@ -3533,45 +3548,45 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="111"/>
-      <c r="B65" s="111"/>
-      <c r="C65" s="111"/>
-      <c r="D65" s="111"/>
-      <c r="E65" s="111"/>
-      <c r="F65" s="111"/>
-      <c r="G65" s="111"/>
-      <c r="H65" s="111"/>
-      <c r="I65" s="111"/>
-      <c r="J65" s="111"/>
-      <c r="K65" s="111"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="114"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
+      <c r="F65" s="114"/>
+      <c r="G65" s="114"/>
+      <c r="H65" s="114"/>
+      <c r="I65" s="114"/>
+      <c r="J65" s="114"/>
+      <c r="K65" s="114"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="112"/>
-      <c r="B66" s="112"/>
-      <c r="C66" s="112"/>
-      <c r="D66" s="112"/>
-      <c r="E66" s="112"/>
-      <c r="F66" s="112"/>
-      <c r="G66" s="112"/>
-      <c r="H66" s="112"/>
-      <c r="I66" s="112"/>
-      <c r="J66" s="112"/>
-      <c r="K66" s="112"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="115"/>
+      <c r="C66" s="115"/>
+      <c r="D66" s="115"/>
+      <c r="E66" s="115"/>
+      <c r="F66" s="115"/>
+      <c r="G66" s="115"/>
+      <c r="H66" s="115"/>
+      <c r="I66" s="115"/>
+      <c r="J66" s="115"/>
+      <c r="K66" s="115"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="113" t="s">
+      <c r="A67" s="116" t="s">
         <v>294</v>
       </c>
-      <c r="B67" s="114"/>
-      <c r="C67" s="114"/>
-      <c r="D67" s="114"/>
-      <c r="E67" s="114"/>
-      <c r="F67" s="114"/>
-      <c r="G67" s="114"/>
-      <c r="H67" s="114"/>
-      <c r="I67" s="114"/>
-      <c r="J67" s="114"/>
-      <c r="K67" s="115"/>
+      <c r="B67" s="117"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="117"/>
+      <c r="I67" s="117"/>
+      <c r="J67" s="117"/>
+      <c r="K67" s="118"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
@@ -3812,45 +3827,45 @@
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="111"/>
-      <c r="B76" s="111"/>
-      <c r="C76" s="111"/>
-      <c r="D76" s="111"/>
-      <c r="E76" s="111"/>
-      <c r="F76" s="111"/>
-      <c r="G76" s="111"/>
-      <c r="H76" s="111"/>
-      <c r="I76" s="111"/>
-      <c r="J76" s="111"/>
-      <c r="K76" s="111"/>
+      <c r="A76" s="114"/>
+      <c r="B76" s="114"/>
+      <c r="C76" s="114"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="114"/>
+      <c r="F76" s="114"/>
+      <c r="G76" s="114"/>
+      <c r="H76" s="114"/>
+      <c r="I76" s="114"/>
+      <c r="J76" s="114"/>
+      <c r="K76" s="114"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="112"/>
-      <c r="B77" s="112"/>
-      <c r="C77" s="112"/>
-      <c r="D77" s="112"/>
-      <c r="E77" s="112"/>
-      <c r="F77" s="112"/>
-      <c r="G77" s="112"/>
-      <c r="H77" s="112"/>
-      <c r="I77" s="112"/>
-      <c r="J77" s="112"/>
-      <c r="K77" s="112"/>
+      <c r="A77" s="115"/>
+      <c r="B77" s="115"/>
+      <c r="C77" s="115"/>
+      <c r="D77" s="115"/>
+      <c r="E77" s="115"/>
+      <c r="F77" s="115"/>
+      <c r="G77" s="115"/>
+      <c r="H77" s="115"/>
+      <c r="I77" s="115"/>
+      <c r="J77" s="115"/>
+      <c r="K77" s="115"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="113" t="s">
+      <c r="A78" s="116" t="s">
         <v>251</v>
       </c>
-      <c r="B78" s="114"/>
-      <c r="C78" s="114"/>
-      <c r="D78" s="114"/>
-      <c r="E78" s="114"/>
-      <c r="F78" s="114"/>
-      <c r="G78" s="114"/>
-      <c r="H78" s="114"/>
-      <c r="I78" s="114"/>
-      <c r="J78" s="114"/>
-      <c r="K78" s="115"/>
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="117"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="117"/>
+      <c r="H78" s="117"/>
+      <c r="I78" s="117"/>
+      <c r="J78" s="117"/>
+      <c r="K78" s="118"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="20" t="s">
@@ -4064,45 +4079,45 @@
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="116"/>
-      <c r="B86" s="116"/>
-      <c r="C86" s="116"/>
-      <c r="D86" s="116"/>
-      <c r="E86" s="116"/>
-      <c r="F86" s="116"/>
-      <c r="G86" s="116"/>
-      <c r="H86" s="116"/>
-      <c r="I86" s="116"/>
-      <c r="J86" s="116"/>
-      <c r="K86" s="116"/>
+      <c r="A86" s="123"/>
+      <c r="B86" s="123"/>
+      <c r="C86" s="123"/>
+      <c r="D86" s="123"/>
+      <c r="E86" s="123"/>
+      <c r="F86" s="123"/>
+      <c r="G86" s="123"/>
+      <c r="H86" s="123"/>
+      <c r="I86" s="123"/>
+      <c r="J86" s="123"/>
+      <c r="K86" s="123"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="112"/>
-      <c r="B87" s="112"/>
-      <c r="C87" s="112"/>
-      <c r="D87" s="112"/>
-      <c r="E87" s="112"/>
-      <c r="F87" s="112"/>
-      <c r="G87" s="112"/>
-      <c r="H87" s="112"/>
-      <c r="I87" s="112"/>
-      <c r="J87" s="112"/>
-      <c r="K87" s="112"/>
+      <c r="A87" s="115"/>
+      <c r="B87" s="115"/>
+      <c r="C87" s="115"/>
+      <c r="D87" s="115"/>
+      <c r="E87" s="115"/>
+      <c r="F87" s="115"/>
+      <c r="G87" s="115"/>
+      <c r="H87" s="115"/>
+      <c r="I87" s="115"/>
+      <c r="J87" s="115"/>
+      <c r="K87" s="115"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="113" t="s">
+      <c r="A88" s="116" t="s">
         <v>147</v>
       </c>
-      <c r="B88" s="114"/>
-      <c r="C88" s="114"/>
-      <c r="D88" s="114"/>
-      <c r="E88" s="114"/>
-      <c r="F88" s="114"/>
-      <c r="G88" s="114"/>
-      <c r="H88" s="114"/>
-      <c r="I88" s="114"/>
-      <c r="J88" s="114"/>
-      <c r="K88" s="115"/>
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
+      <c r="G88" s="117"/>
+      <c r="H88" s="117"/>
+      <c r="I88" s="117"/>
+      <c r="J88" s="117"/>
+      <c r="K88" s="118"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
@@ -4391,45 +4406,45 @@
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="116"/>
-      <c r="B99" s="116"/>
-      <c r="C99" s="116"/>
-      <c r="D99" s="116"/>
-      <c r="E99" s="116"/>
-      <c r="F99" s="116"/>
-      <c r="G99" s="116"/>
-      <c r="H99" s="116"/>
-      <c r="I99" s="116"/>
-      <c r="J99" s="116"/>
-      <c r="K99" s="116"/>
+      <c r="A99" s="123"/>
+      <c r="B99" s="123"/>
+      <c r="C99" s="123"/>
+      <c r="D99" s="123"/>
+      <c r="E99" s="123"/>
+      <c r="F99" s="123"/>
+      <c r="G99" s="123"/>
+      <c r="H99" s="123"/>
+      <c r="I99" s="123"/>
+      <c r="J99" s="123"/>
+      <c r="K99" s="123"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="112"/>
-      <c r="B100" s="112"/>
-      <c r="C100" s="112"/>
-      <c r="D100" s="112"/>
-      <c r="E100" s="112"/>
-      <c r="F100" s="112"/>
-      <c r="G100" s="112"/>
-      <c r="H100" s="112"/>
-      <c r="I100" s="112"/>
-      <c r="J100" s="112"/>
-      <c r="K100" s="112"/>
+      <c r="A100" s="115"/>
+      <c r="B100" s="115"/>
+      <c r="C100" s="115"/>
+      <c r="D100" s="115"/>
+      <c r="E100" s="115"/>
+      <c r="F100" s="115"/>
+      <c r="G100" s="115"/>
+      <c r="H100" s="115"/>
+      <c r="I100" s="115"/>
+      <c r="J100" s="115"/>
+      <c r="K100" s="115"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="113" t="s">
+      <c r="A101" s="116" t="s">
         <v>308</v>
       </c>
-      <c r="B101" s="114"/>
-      <c r="C101" s="114"/>
-      <c r="D101" s="114"/>
-      <c r="E101" s="114"/>
-      <c r="F101" s="114"/>
-      <c r="G101" s="114"/>
-      <c r="H101" s="114"/>
-      <c r="I101" s="114"/>
-      <c r="J101" s="114"/>
-      <c r="K101" s="115"/>
+      <c r="B101" s="117"/>
+      <c r="C101" s="117"/>
+      <c r="D101" s="117"/>
+      <c r="E101" s="117"/>
+      <c r="F101" s="117"/>
+      <c r="G101" s="117"/>
+      <c r="H101" s="117"/>
+      <c r="I101" s="117"/>
+      <c r="J101" s="117"/>
+      <c r="K101" s="118"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
@@ -4670,45 +4685,45 @@
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="111"/>
-      <c r="B110" s="111"/>
-      <c r="C110" s="111"/>
-      <c r="D110" s="111"/>
-      <c r="E110" s="111"/>
-      <c r="F110" s="111"/>
-      <c r="G110" s="111"/>
-      <c r="H110" s="111"/>
-      <c r="I110" s="111"/>
-      <c r="J110" s="111"/>
-      <c r="K110" s="111"/>
+      <c r="A110" s="114"/>
+      <c r="B110" s="114"/>
+      <c r="C110" s="114"/>
+      <c r="D110" s="114"/>
+      <c r="E110" s="114"/>
+      <c r="F110" s="114"/>
+      <c r="G110" s="114"/>
+      <c r="H110" s="114"/>
+      <c r="I110" s="114"/>
+      <c r="J110" s="114"/>
+      <c r="K110" s="114"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="112"/>
-      <c r="B111" s="112"/>
-      <c r="C111" s="112"/>
-      <c r="D111" s="112"/>
-      <c r="E111" s="112"/>
-      <c r="F111" s="112"/>
-      <c r="G111" s="112"/>
-      <c r="H111" s="112"/>
-      <c r="I111" s="112"/>
-      <c r="J111" s="112"/>
-      <c r="K111" s="112"/>
+      <c r="A111" s="115"/>
+      <c r="B111" s="115"/>
+      <c r="C111" s="115"/>
+      <c r="D111" s="115"/>
+      <c r="E111" s="115"/>
+      <c r="F111" s="115"/>
+      <c r="G111" s="115"/>
+      <c r="H111" s="115"/>
+      <c r="I111" s="115"/>
+      <c r="J111" s="115"/>
+      <c r="K111" s="115"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="113" t="s">
+      <c r="A112" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="B112" s="114"/>
-      <c r="C112" s="114"/>
-      <c r="D112" s="114"/>
-      <c r="E112" s="114"/>
-      <c r="F112" s="114"/>
-      <c r="G112" s="114"/>
-      <c r="H112" s="114"/>
-      <c r="I112" s="114"/>
-      <c r="J112" s="114"/>
-      <c r="K112" s="115"/>
+      <c r="B112" s="117"/>
+      <c r="C112" s="117"/>
+      <c r="D112" s="117"/>
+      <c r="E112" s="117"/>
+      <c r="F112" s="117"/>
+      <c r="G112" s="117"/>
+      <c r="H112" s="117"/>
+      <c r="I112" s="117"/>
+      <c r="J112" s="117"/>
+      <c r="K112" s="118"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="20" t="s">
@@ -5036,45 +5051,45 @@
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="111"/>
-      <c r="B124" s="111"/>
-      <c r="C124" s="111"/>
-      <c r="D124" s="111"/>
-      <c r="E124" s="111"/>
-      <c r="F124" s="111"/>
-      <c r="G124" s="111"/>
-      <c r="H124" s="111"/>
-      <c r="I124" s="111"/>
-      <c r="J124" s="111"/>
-      <c r="K124" s="111"/>
+      <c r="A124" s="114"/>
+      <c r="B124" s="114"/>
+      <c r="C124" s="114"/>
+      <c r="D124" s="114"/>
+      <c r="E124" s="114"/>
+      <c r="F124" s="114"/>
+      <c r="G124" s="114"/>
+      <c r="H124" s="114"/>
+      <c r="I124" s="114"/>
+      <c r="J124" s="114"/>
+      <c r="K124" s="114"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="112"/>
-      <c r="B125" s="112"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="112"/>
-      <c r="E125" s="112"/>
-      <c r="F125" s="112"/>
-      <c r="G125" s="112"/>
-      <c r="H125" s="112"/>
-      <c r="I125" s="112"/>
-      <c r="J125" s="112"/>
-      <c r="K125" s="112"/>
+      <c r="A125" s="115"/>
+      <c r="B125" s="115"/>
+      <c r="C125" s="115"/>
+      <c r="D125" s="115"/>
+      <c r="E125" s="115"/>
+      <c r="F125" s="115"/>
+      <c r="G125" s="115"/>
+      <c r="H125" s="115"/>
+      <c r="I125" s="115"/>
+      <c r="J125" s="115"/>
+      <c r="K125" s="115"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A126" s="113" t="s">
+      <c r="A126" s="116" t="s">
         <v>50</v>
       </c>
-      <c r="B126" s="114"/>
-      <c r="C126" s="114"/>
-      <c r="D126" s="114"/>
-      <c r="E126" s="114"/>
-      <c r="F126" s="114"/>
-      <c r="G126" s="114"/>
-      <c r="H126" s="114"/>
-      <c r="I126" s="114"/>
-      <c r="J126" s="114"/>
-      <c r="K126" s="115"/>
+      <c r="B126" s="117"/>
+      <c r="C126" s="117"/>
+      <c r="D126" s="117"/>
+      <c r="E126" s="117"/>
+      <c r="F126" s="117"/>
+      <c r="G126" s="117"/>
+      <c r="H126" s="117"/>
+      <c r="I126" s="117"/>
+      <c r="J126" s="117"/>
+      <c r="K126" s="118"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="20" t="s">
@@ -5421,45 +5436,45 @@
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A139" s="111"/>
-      <c r="B139" s="111"/>
-      <c r="C139" s="111"/>
-      <c r="D139" s="111"/>
-      <c r="E139" s="111"/>
-      <c r="F139" s="111"/>
-      <c r="G139" s="111"/>
-      <c r="H139" s="111"/>
-      <c r="I139" s="111"/>
-      <c r="J139" s="111"/>
-      <c r="K139" s="111"/>
+      <c r="A139" s="114"/>
+      <c r="B139" s="114"/>
+      <c r="C139" s="114"/>
+      <c r="D139" s="114"/>
+      <c r="E139" s="114"/>
+      <c r="F139" s="114"/>
+      <c r="G139" s="114"/>
+      <c r="H139" s="114"/>
+      <c r="I139" s="114"/>
+      <c r="J139" s="114"/>
+      <c r="K139" s="114"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A140" s="112"/>
-      <c r="B140" s="112"/>
-      <c r="C140" s="112"/>
-      <c r="D140" s="112"/>
-      <c r="E140" s="112"/>
-      <c r="F140" s="112"/>
-      <c r="G140" s="112"/>
-      <c r="H140" s="112"/>
-      <c r="I140" s="112"/>
-      <c r="J140" s="112"/>
-      <c r="K140" s="112"/>
+      <c r="A140" s="115"/>
+      <c r="B140" s="115"/>
+      <c r="C140" s="115"/>
+      <c r="D140" s="115"/>
+      <c r="E140" s="115"/>
+      <c r="F140" s="115"/>
+      <c r="G140" s="115"/>
+      <c r="H140" s="115"/>
+      <c r="I140" s="115"/>
+      <c r="J140" s="115"/>
+      <c r="K140" s="115"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="113" t="s">
+      <c r="A141" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B141" s="114"/>
-      <c r="C141" s="114"/>
-      <c r="D141" s="114"/>
-      <c r="E141" s="114"/>
-      <c r="F141" s="114"/>
-      <c r="G141" s="114"/>
-      <c r="H141" s="114"/>
-      <c r="I141" s="114"/>
-      <c r="J141" s="114"/>
-      <c r="K141" s="115"/>
+      <c r="B141" s="117"/>
+      <c r="C141" s="117"/>
+      <c r="D141" s="117"/>
+      <c r="E141" s="117"/>
+      <c r="F141" s="117"/>
+      <c r="G141" s="117"/>
+      <c r="H141" s="117"/>
+      <c r="I141" s="117"/>
+      <c r="J141" s="117"/>
+      <c r="K141" s="118"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="20" t="s">
@@ -5872,45 +5887,45 @@
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="111"/>
-      <c r="B156" s="111"/>
-      <c r="C156" s="111"/>
-      <c r="D156" s="111"/>
-      <c r="E156" s="111"/>
-      <c r="F156" s="111"/>
-      <c r="G156" s="111"/>
-      <c r="H156" s="111"/>
-      <c r="I156" s="111"/>
-      <c r="J156" s="111"/>
-      <c r="K156" s="111"/>
+      <c r="A156" s="114"/>
+      <c r="B156" s="114"/>
+      <c r="C156" s="114"/>
+      <c r="D156" s="114"/>
+      <c r="E156" s="114"/>
+      <c r="F156" s="114"/>
+      <c r="G156" s="114"/>
+      <c r="H156" s="114"/>
+      <c r="I156" s="114"/>
+      <c r="J156" s="114"/>
+      <c r="K156" s="114"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A157" s="112"/>
-      <c r="B157" s="112"/>
-      <c r="C157" s="112"/>
-      <c r="D157" s="112"/>
-      <c r="E157" s="112"/>
-      <c r="F157" s="112"/>
-      <c r="G157" s="112"/>
-      <c r="H157" s="112"/>
-      <c r="I157" s="112"/>
-      <c r="J157" s="112"/>
-      <c r="K157" s="112"/>
+      <c r="A157" s="115"/>
+      <c r="B157" s="115"/>
+      <c r="C157" s="115"/>
+      <c r="D157" s="115"/>
+      <c r="E157" s="115"/>
+      <c r="F157" s="115"/>
+      <c r="G157" s="115"/>
+      <c r="H157" s="115"/>
+      <c r="I157" s="115"/>
+      <c r="J157" s="115"/>
+      <c r="K157" s="115"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A158" s="113" t="s">
+      <c r="A158" s="116" t="s">
         <v>126</v>
       </c>
-      <c r="B158" s="114"/>
-      <c r="C158" s="114"/>
-      <c r="D158" s="114"/>
-      <c r="E158" s="114"/>
-      <c r="F158" s="114"/>
-      <c r="G158" s="114"/>
-      <c r="H158" s="114"/>
-      <c r="I158" s="114"/>
-      <c r="J158" s="114"/>
-      <c r="K158" s="115"/>
+      <c r="B158" s="117"/>
+      <c r="C158" s="117"/>
+      <c r="D158" s="117"/>
+      <c r="E158" s="117"/>
+      <c r="F158" s="117"/>
+      <c r="G158" s="117"/>
+      <c r="H158" s="117"/>
+      <c r="I158" s="117"/>
+      <c r="J158" s="117"/>
+      <c r="K158" s="118"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
@@ -6303,45 +6318,45 @@
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A173" s="111"/>
-      <c r="B173" s="111"/>
-      <c r="C173" s="111"/>
-      <c r="D173" s="111"/>
-      <c r="E173" s="111"/>
-      <c r="F173" s="111"/>
-      <c r="G173" s="111"/>
-      <c r="H173" s="111"/>
-      <c r="I173" s="111"/>
-      <c r="J173" s="111"/>
-      <c r="K173" s="111"/>
+      <c r="A173" s="114"/>
+      <c r="B173" s="114"/>
+      <c r="C173" s="114"/>
+      <c r="D173" s="114"/>
+      <c r="E173" s="114"/>
+      <c r="F173" s="114"/>
+      <c r="G173" s="114"/>
+      <c r="H173" s="114"/>
+      <c r="I173" s="114"/>
+      <c r="J173" s="114"/>
+      <c r="K173" s="114"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A174" s="112"/>
-      <c r="B174" s="112"/>
-      <c r="C174" s="112"/>
-      <c r="D174" s="112"/>
-      <c r="E174" s="112"/>
-      <c r="F174" s="112"/>
-      <c r="G174" s="112"/>
-      <c r="H174" s="112"/>
-      <c r="I174" s="112"/>
-      <c r="J174" s="112"/>
-      <c r="K174" s="112"/>
+      <c r="A174" s="115"/>
+      <c r="B174" s="115"/>
+      <c r="C174" s="115"/>
+      <c r="D174" s="115"/>
+      <c r="E174" s="115"/>
+      <c r="F174" s="115"/>
+      <c r="G174" s="115"/>
+      <c r="H174" s="115"/>
+      <c r="I174" s="115"/>
+      <c r="J174" s="115"/>
+      <c r="K174" s="115"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" s="113" t="s">
+      <c r="A175" s="116" t="s">
         <v>134</v>
       </c>
-      <c r="B175" s="114"/>
-      <c r="C175" s="114"/>
-      <c r="D175" s="114"/>
-      <c r="E175" s="114"/>
-      <c r="F175" s="114"/>
-      <c r="G175" s="114"/>
-      <c r="H175" s="114"/>
-      <c r="I175" s="114"/>
-      <c r="J175" s="114"/>
-      <c r="K175" s="115"/>
+      <c r="B175" s="117"/>
+      <c r="C175" s="117"/>
+      <c r="D175" s="117"/>
+      <c r="E175" s="117"/>
+      <c r="F175" s="117"/>
+      <c r="G175" s="117"/>
+      <c r="H175" s="117"/>
+      <c r="I175" s="117"/>
+      <c r="J175" s="117"/>
+      <c r="K175" s="118"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
@@ -6555,45 +6570,45 @@
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" s="111"/>
-      <c r="B183" s="111"/>
-      <c r="C183" s="111"/>
-      <c r="D183" s="111"/>
-      <c r="E183" s="111"/>
-      <c r="F183" s="111"/>
-      <c r="G183" s="111"/>
-      <c r="H183" s="111"/>
-      <c r="I183" s="111"/>
-      <c r="J183" s="111"/>
-      <c r="K183" s="111"/>
+      <c r="A183" s="114"/>
+      <c r="B183" s="114"/>
+      <c r="C183" s="114"/>
+      <c r="D183" s="114"/>
+      <c r="E183" s="114"/>
+      <c r="F183" s="114"/>
+      <c r="G183" s="114"/>
+      <c r="H183" s="114"/>
+      <c r="I183" s="114"/>
+      <c r="J183" s="114"/>
+      <c r="K183" s="114"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="112"/>
-      <c r="B184" s="112"/>
-      <c r="C184" s="112"/>
-      <c r="D184" s="112"/>
-      <c r="E184" s="112"/>
-      <c r="F184" s="112"/>
-      <c r="G184" s="112"/>
-      <c r="H184" s="112"/>
-      <c r="I184" s="112"/>
-      <c r="J184" s="112"/>
-      <c r="K184" s="112"/>
+      <c r="A184" s="115"/>
+      <c r="B184" s="115"/>
+      <c r="C184" s="115"/>
+      <c r="D184" s="115"/>
+      <c r="E184" s="115"/>
+      <c r="F184" s="115"/>
+      <c r="G184" s="115"/>
+      <c r="H184" s="115"/>
+      <c r="I184" s="115"/>
+      <c r="J184" s="115"/>
+      <c r="K184" s="115"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A185" s="113" t="s">
+      <c r="A185" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B185" s="114"/>
-      <c r="C185" s="114"/>
-      <c r="D185" s="114"/>
-      <c r="E185" s="114"/>
-      <c r="F185" s="114"/>
-      <c r="G185" s="114"/>
-      <c r="H185" s="114"/>
-      <c r="I185" s="114"/>
-      <c r="J185" s="114"/>
-      <c r="K185" s="115"/>
+      <c r="B185" s="117"/>
+      <c r="C185" s="117"/>
+      <c r="D185" s="117"/>
+      <c r="E185" s="117"/>
+      <c r="F185" s="117"/>
+      <c r="G185" s="117"/>
+      <c r="H185" s="117"/>
+      <c r="I185" s="117"/>
+      <c r="J185" s="117"/>
+      <c r="K185" s="118"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
@@ -6876,45 +6891,45 @@
       </c>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="111"/>
-      <c r="B196" s="111"/>
-      <c r="C196" s="111"/>
-      <c r="D196" s="111"/>
-      <c r="E196" s="111"/>
-      <c r="F196" s="111"/>
-      <c r="G196" s="111"/>
-      <c r="H196" s="111"/>
-      <c r="I196" s="111"/>
-      <c r="J196" s="111"/>
-      <c r="K196" s="111"/>
+      <c r="A196" s="114"/>
+      <c r="B196" s="114"/>
+      <c r="C196" s="114"/>
+      <c r="D196" s="114"/>
+      <c r="E196" s="114"/>
+      <c r="F196" s="114"/>
+      <c r="G196" s="114"/>
+      <c r="H196" s="114"/>
+      <c r="I196" s="114"/>
+      <c r="J196" s="114"/>
+      <c r="K196" s="114"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="112"/>
-      <c r="B197" s="112"/>
-      <c r="C197" s="112"/>
-      <c r="D197" s="112"/>
-      <c r="E197" s="112"/>
-      <c r="F197" s="112"/>
-      <c r="G197" s="112"/>
-      <c r="H197" s="112"/>
-      <c r="I197" s="112"/>
-      <c r="J197" s="112"/>
-      <c r="K197" s="112"/>
+      <c r="A197" s="115"/>
+      <c r="B197" s="115"/>
+      <c r="C197" s="115"/>
+      <c r="D197" s="115"/>
+      <c r="E197" s="115"/>
+      <c r="F197" s="115"/>
+      <c r="G197" s="115"/>
+      <c r="H197" s="115"/>
+      <c r="I197" s="115"/>
+      <c r="J197" s="115"/>
+      <c r="K197" s="115"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="113" t="s">
+      <c r="A198" s="116" t="s">
         <v>75</v>
       </c>
-      <c r="B198" s="114"/>
-      <c r="C198" s="114"/>
-      <c r="D198" s="114"/>
-      <c r="E198" s="114"/>
-      <c r="F198" s="114"/>
-      <c r="G198" s="114"/>
-      <c r="H198" s="114"/>
-      <c r="I198" s="114"/>
-      <c r="J198" s="114"/>
-      <c r="K198" s="115"/>
+      <c r="B198" s="117"/>
+      <c r="C198" s="117"/>
+      <c r="D198" s="117"/>
+      <c r="E198" s="117"/>
+      <c r="F198" s="117"/>
+      <c r="G198" s="117"/>
+      <c r="H198" s="117"/>
+      <c r="I198" s="117"/>
+      <c r="J198" s="117"/>
+      <c r="K198" s="118"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
@@ -7182,45 +7197,45 @@
       </c>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="111"/>
-      <c r="B208" s="111"/>
-      <c r="C208" s="111"/>
-      <c r="D208" s="111"/>
-      <c r="E208" s="111"/>
-      <c r="F208" s="111"/>
-      <c r="G208" s="111"/>
-      <c r="H208" s="111"/>
-      <c r="I208" s="111"/>
-      <c r="J208" s="111"/>
-      <c r="K208" s="111"/>
+      <c r="A208" s="114"/>
+      <c r="B208" s="114"/>
+      <c r="C208" s="114"/>
+      <c r="D208" s="114"/>
+      <c r="E208" s="114"/>
+      <c r="F208" s="114"/>
+      <c r="G208" s="114"/>
+      <c r="H208" s="114"/>
+      <c r="I208" s="114"/>
+      <c r="J208" s="114"/>
+      <c r="K208" s="114"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="112"/>
-      <c r="B209" s="112"/>
-      <c r="C209" s="112"/>
-      <c r="D209" s="112"/>
-      <c r="E209" s="112"/>
-      <c r="F209" s="112"/>
-      <c r="G209" s="112"/>
-      <c r="H209" s="112"/>
-      <c r="I209" s="112"/>
-      <c r="J209" s="112"/>
-      <c r="K209" s="112"/>
+      <c r="A209" s="115"/>
+      <c r="B209" s="115"/>
+      <c r="C209" s="115"/>
+      <c r="D209" s="115"/>
+      <c r="E209" s="115"/>
+      <c r="F209" s="115"/>
+      <c r="G209" s="115"/>
+      <c r="H209" s="115"/>
+      <c r="I209" s="115"/>
+      <c r="J209" s="115"/>
+      <c r="K209" s="115"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="113" t="s">
+      <c r="A210" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="B210" s="114"/>
-      <c r="C210" s="114"/>
-      <c r="D210" s="114"/>
-      <c r="E210" s="114"/>
-      <c r="F210" s="114"/>
-      <c r="G210" s="114"/>
-      <c r="H210" s="114"/>
-      <c r="I210" s="114"/>
-      <c r="J210" s="114"/>
-      <c r="K210" s="115"/>
+      <c r="B210" s="117"/>
+      <c r="C210" s="117"/>
+      <c r="D210" s="117"/>
+      <c r="E210" s="117"/>
+      <c r="F210" s="117"/>
+      <c r="G210" s="117"/>
+      <c r="H210" s="117"/>
+      <c r="I210" s="117"/>
+      <c r="J210" s="117"/>
+      <c r="K210" s="118"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
@@ -7490,45 +7505,45 @@
       </c>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A220" s="111"/>
-      <c r="B220" s="111"/>
-      <c r="C220" s="111"/>
-      <c r="D220" s="111"/>
-      <c r="E220" s="111"/>
-      <c r="F220" s="111"/>
-      <c r="G220" s="111"/>
-      <c r="H220" s="111"/>
-      <c r="I220" s="111"/>
-      <c r="J220" s="111"/>
-      <c r="K220" s="111"/>
+      <c r="A220" s="114"/>
+      <c r="B220" s="114"/>
+      <c r="C220" s="114"/>
+      <c r="D220" s="114"/>
+      <c r="E220" s="114"/>
+      <c r="F220" s="114"/>
+      <c r="G220" s="114"/>
+      <c r="H220" s="114"/>
+      <c r="I220" s="114"/>
+      <c r="J220" s="114"/>
+      <c r="K220" s="114"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A221" s="112"/>
-      <c r="B221" s="112"/>
-      <c r="C221" s="112"/>
-      <c r="D221" s="112"/>
-      <c r="E221" s="112"/>
-      <c r="F221" s="112"/>
-      <c r="G221" s="112"/>
-      <c r="H221" s="112"/>
-      <c r="I221" s="112"/>
-      <c r="J221" s="112"/>
-      <c r="K221" s="112"/>
+      <c r="A221" s="115"/>
+      <c r="B221" s="115"/>
+      <c r="C221" s="115"/>
+      <c r="D221" s="115"/>
+      <c r="E221" s="115"/>
+      <c r="F221" s="115"/>
+      <c r="G221" s="115"/>
+      <c r="H221" s="115"/>
+      <c r="I221" s="115"/>
+      <c r="J221" s="115"/>
+      <c r="K221" s="115"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A222" s="113" t="s">
+      <c r="A222" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="114"/>
-      <c r="C222" s="114"/>
-      <c r="D222" s="114"/>
-      <c r="E222" s="114"/>
-      <c r="F222" s="114"/>
-      <c r="G222" s="114"/>
-      <c r="H222" s="114"/>
-      <c r="I222" s="114"/>
-      <c r="J222" s="114"/>
-      <c r="K222" s="115"/>
+      <c r="B222" s="117"/>
+      <c r="C222" s="117"/>
+      <c r="D222" s="117"/>
+      <c r="E222" s="117"/>
+      <c r="F222" s="117"/>
+      <c r="G222" s="117"/>
+      <c r="H222" s="117"/>
+      <c r="I222" s="117"/>
+      <c r="J222" s="117"/>
+      <c r="K222" s="118"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
@@ -7926,45 +7941,45 @@
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A236" s="111"/>
-      <c r="B236" s="111"/>
-      <c r="C236" s="111"/>
-      <c r="D236" s="111"/>
-      <c r="E236" s="111"/>
-      <c r="F236" s="111"/>
-      <c r="G236" s="111"/>
-      <c r="H236" s="111"/>
-      <c r="I236" s="111"/>
-      <c r="J236" s="111"/>
-      <c r="K236" s="111"/>
+      <c r="A236" s="114"/>
+      <c r="B236" s="114"/>
+      <c r="C236" s="114"/>
+      <c r="D236" s="114"/>
+      <c r="E236" s="114"/>
+      <c r="F236" s="114"/>
+      <c r="G236" s="114"/>
+      <c r="H236" s="114"/>
+      <c r="I236" s="114"/>
+      <c r="J236" s="114"/>
+      <c r="K236" s="114"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="112"/>
-      <c r="B237" s="112"/>
-      <c r="C237" s="112"/>
-      <c r="D237" s="112"/>
-      <c r="E237" s="112"/>
-      <c r="F237" s="112"/>
-      <c r="G237" s="112"/>
-      <c r="H237" s="112"/>
-      <c r="I237" s="112"/>
-      <c r="J237" s="112"/>
-      <c r="K237" s="112"/>
+      <c r="A237" s="115"/>
+      <c r="B237" s="115"/>
+      <c r="C237" s="115"/>
+      <c r="D237" s="115"/>
+      <c r="E237" s="115"/>
+      <c r="F237" s="115"/>
+      <c r="G237" s="115"/>
+      <c r="H237" s="115"/>
+      <c r="I237" s="115"/>
+      <c r="J237" s="115"/>
+      <c r="K237" s="115"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="113" t="s">
+      <c r="A238" s="116" t="s">
         <v>200</v>
       </c>
-      <c r="B238" s="114"/>
-      <c r="C238" s="114"/>
-      <c r="D238" s="114"/>
-      <c r="E238" s="114"/>
-      <c r="F238" s="114"/>
-      <c r="G238" s="114"/>
-      <c r="H238" s="114"/>
-      <c r="I238" s="114"/>
-      <c r="J238" s="114"/>
-      <c r="K238" s="115"/>
+      <c r="B238" s="117"/>
+      <c r="C238" s="117"/>
+      <c r="D238" s="117"/>
+      <c r="E238" s="117"/>
+      <c r="F238" s="117"/>
+      <c r="G238" s="117"/>
+      <c r="H238" s="117"/>
+      <c r="I238" s="117"/>
+      <c r="J238" s="117"/>
+      <c r="K238" s="118"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
@@ -8165,45 +8180,45 @@
       </c>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A246" s="111"/>
-      <c r="B246" s="111"/>
-      <c r="C246" s="111"/>
-      <c r="D246" s="111"/>
-      <c r="E246" s="111"/>
-      <c r="F246" s="111"/>
-      <c r="G246" s="111"/>
-      <c r="H246" s="111"/>
-      <c r="I246" s="111"/>
-      <c r="J246" s="111"/>
-      <c r="K246" s="111"/>
+      <c r="A246" s="114"/>
+      <c r="B246" s="114"/>
+      <c r="C246" s="114"/>
+      <c r="D246" s="114"/>
+      <c r="E246" s="114"/>
+      <c r="F246" s="114"/>
+      <c r="G246" s="114"/>
+      <c r="H246" s="114"/>
+      <c r="I246" s="114"/>
+      <c r="J246" s="114"/>
+      <c r="K246" s="114"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A247" s="112"/>
-      <c r="B247" s="112"/>
-      <c r="C247" s="112"/>
-      <c r="D247" s="112"/>
-      <c r="E247" s="112"/>
-      <c r="F247" s="112"/>
-      <c r="G247" s="112"/>
-      <c r="H247" s="112"/>
-      <c r="I247" s="112"/>
-      <c r="J247" s="112"/>
-      <c r="K247" s="112"/>
+      <c r="A247" s="115"/>
+      <c r="B247" s="115"/>
+      <c r="C247" s="115"/>
+      <c r="D247" s="115"/>
+      <c r="E247" s="115"/>
+      <c r="F247" s="115"/>
+      <c r="G247" s="115"/>
+      <c r="H247" s="115"/>
+      <c r="I247" s="115"/>
+      <c r="J247" s="115"/>
+      <c r="K247" s="115"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A248" s="113" t="s">
+      <c r="A248" s="116" t="s">
         <v>203</v>
       </c>
-      <c r="B248" s="114"/>
-      <c r="C248" s="114"/>
-      <c r="D248" s="114"/>
-      <c r="E248" s="114"/>
-      <c r="F248" s="114"/>
-      <c r="G248" s="114"/>
-      <c r="H248" s="114"/>
-      <c r="I248" s="114"/>
-      <c r="J248" s="114"/>
-      <c r="K248" s="115"/>
+      <c r="B248" s="117"/>
+      <c r="C248" s="117"/>
+      <c r="D248" s="117"/>
+      <c r="E248" s="117"/>
+      <c r="F248" s="117"/>
+      <c r="G248" s="117"/>
+      <c r="H248" s="117"/>
+      <c r="I248" s="117"/>
+      <c r="J248" s="117"/>
+      <c r="K248" s="118"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
@@ -8450,45 +8465,45 @@
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A257" s="111"/>
-      <c r="B257" s="111"/>
-      <c r="C257" s="111"/>
-      <c r="D257" s="111"/>
-      <c r="E257" s="111"/>
-      <c r="F257" s="111"/>
-      <c r="G257" s="111"/>
-      <c r="H257" s="111"/>
-      <c r="I257" s="111"/>
-      <c r="J257" s="111"/>
-      <c r="K257" s="111"/>
+      <c r="A257" s="114"/>
+      <c r="B257" s="114"/>
+      <c r="C257" s="114"/>
+      <c r="D257" s="114"/>
+      <c r="E257" s="114"/>
+      <c r="F257" s="114"/>
+      <c r="G257" s="114"/>
+      <c r="H257" s="114"/>
+      <c r="I257" s="114"/>
+      <c r="J257" s="114"/>
+      <c r="K257" s="114"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A258" s="112"/>
-      <c r="B258" s="112"/>
-      <c r="C258" s="112"/>
-      <c r="D258" s="112"/>
-      <c r="E258" s="112"/>
-      <c r="F258" s="112"/>
-      <c r="G258" s="112"/>
-      <c r="H258" s="112"/>
-      <c r="I258" s="112"/>
-      <c r="J258" s="112"/>
-      <c r="K258" s="112"/>
+      <c r="A258" s="115"/>
+      <c r="B258" s="115"/>
+      <c r="C258" s="115"/>
+      <c r="D258" s="115"/>
+      <c r="E258" s="115"/>
+      <c r="F258" s="115"/>
+      <c r="G258" s="115"/>
+      <c r="H258" s="115"/>
+      <c r="I258" s="115"/>
+      <c r="J258" s="115"/>
+      <c r="K258" s="115"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="113" t="s">
+      <c r="A259" s="116" t="s">
         <v>207</v>
       </c>
-      <c r="B259" s="114"/>
-      <c r="C259" s="114"/>
-      <c r="D259" s="114"/>
-      <c r="E259" s="114"/>
-      <c r="F259" s="114"/>
-      <c r="G259" s="114"/>
-      <c r="H259" s="114"/>
-      <c r="I259" s="114"/>
-      <c r="J259" s="114"/>
-      <c r="K259" s="115"/>
+      <c r="B259" s="117"/>
+      <c r="C259" s="117"/>
+      <c r="D259" s="117"/>
+      <c r="E259" s="117"/>
+      <c r="F259" s="117"/>
+      <c r="G259" s="117"/>
+      <c r="H259" s="117"/>
+      <c r="I259" s="117"/>
+      <c r="J259" s="117"/>
+      <c r="K259" s="118"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
@@ -8731,45 +8746,45 @@
       </c>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A268" s="111"/>
-      <c r="B268" s="111"/>
-      <c r="C268" s="111"/>
-      <c r="D268" s="111"/>
-      <c r="E268" s="111"/>
-      <c r="F268" s="111"/>
-      <c r="G268" s="111"/>
-      <c r="H268" s="111"/>
-      <c r="I268" s="111"/>
-      <c r="J268" s="111"/>
-      <c r="K268" s="111"/>
+      <c r="A268" s="114"/>
+      <c r="B268" s="114"/>
+      <c r="C268" s="114"/>
+      <c r="D268" s="114"/>
+      <c r="E268" s="114"/>
+      <c r="F268" s="114"/>
+      <c r="G268" s="114"/>
+      <c r="H268" s="114"/>
+      <c r="I268" s="114"/>
+      <c r="J268" s="114"/>
+      <c r="K268" s="114"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A269" s="112"/>
-      <c r="B269" s="112"/>
-      <c r="C269" s="112"/>
-      <c r="D269" s="112"/>
-      <c r="E269" s="112"/>
-      <c r="F269" s="112"/>
-      <c r="G269" s="112"/>
-      <c r="H269" s="112"/>
-      <c r="I269" s="112"/>
-      <c r="J269" s="112"/>
-      <c r="K269" s="112"/>
+      <c r="A269" s="115"/>
+      <c r="B269" s="115"/>
+      <c r="C269" s="115"/>
+      <c r="D269" s="115"/>
+      <c r="E269" s="115"/>
+      <c r="F269" s="115"/>
+      <c r="G269" s="115"/>
+      <c r="H269" s="115"/>
+      <c r="I269" s="115"/>
+      <c r="J269" s="115"/>
+      <c r="K269" s="115"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A270" s="113" t="s">
+      <c r="A270" s="116" t="s">
         <v>238</v>
       </c>
-      <c r="B270" s="114"/>
-      <c r="C270" s="114"/>
-      <c r="D270" s="114"/>
-      <c r="E270" s="114"/>
-      <c r="F270" s="114"/>
-      <c r="G270" s="114"/>
-      <c r="H270" s="114"/>
-      <c r="I270" s="114"/>
-      <c r="J270" s="114"/>
-      <c r="K270" s="115"/>
+      <c r="B270" s="117"/>
+      <c r="C270" s="117"/>
+      <c r="D270" s="117"/>
+      <c r="E270" s="117"/>
+      <c r="F270" s="117"/>
+      <c r="G270" s="117"/>
+      <c r="H270" s="117"/>
+      <c r="I270" s="117"/>
+      <c r="J270" s="117"/>
+      <c r="K270" s="118"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
@@ -8952,45 +8967,45 @@
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A277" s="111"/>
-      <c r="B277" s="111"/>
-      <c r="C277" s="111"/>
-      <c r="D277" s="111"/>
-      <c r="E277" s="111"/>
-      <c r="F277" s="111"/>
-      <c r="G277" s="111"/>
-      <c r="H277" s="111"/>
-      <c r="I277" s="111"/>
-      <c r="J277" s="111"/>
-      <c r="K277" s="111"/>
+      <c r="A277" s="114"/>
+      <c r="B277" s="114"/>
+      <c r="C277" s="114"/>
+      <c r="D277" s="114"/>
+      <c r="E277" s="114"/>
+      <c r="F277" s="114"/>
+      <c r="G277" s="114"/>
+      <c r="H277" s="114"/>
+      <c r="I277" s="114"/>
+      <c r="J277" s="114"/>
+      <c r="K277" s="114"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A278" s="112"/>
-      <c r="B278" s="112"/>
-      <c r="C278" s="112"/>
-      <c r="D278" s="112"/>
-      <c r="E278" s="112"/>
-      <c r="F278" s="112"/>
-      <c r="G278" s="112"/>
-      <c r="H278" s="112"/>
-      <c r="I278" s="112"/>
-      <c r="J278" s="112"/>
-      <c r="K278" s="112"/>
+      <c r="A278" s="115"/>
+      <c r="B278" s="115"/>
+      <c r="C278" s="115"/>
+      <c r="D278" s="115"/>
+      <c r="E278" s="115"/>
+      <c r="F278" s="115"/>
+      <c r="G278" s="115"/>
+      <c r="H278" s="115"/>
+      <c r="I278" s="115"/>
+      <c r="J278" s="115"/>
+      <c r="K278" s="115"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A279" s="113" t="s">
+      <c r="A279" s="116" t="s">
         <v>240</v>
       </c>
-      <c r="B279" s="114"/>
-      <c r="C279" s="114"/>
-      <c r="D279" s="114"/>
-      <c r="E279" s="114"/>
-      <c r="F279" s="114"/>
-      <c r="G279" s="114"/>
-      <c r="H279" s="114"/>
-      <c r="I279" s="114"/>
-      <c r="J279" s="114"/>
-      <c r="K279" s="115"/>
+      <c r="B279" s="117"/>
+      <c r="C279" s="117"/>
+      <c r="D279" s="117"/>
+      <c r="E279" s="117"/>
+      <c r="F279" s="117"/>
+      <c r="G279" s="117"/>
+      <c r="H279" s="117"/>
+      <c r="I279" s="117"/>
+      <c r="J279" s="117"/>
+      <c r="K279" s="118"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
@@ -9173,45 +9188,45 @@
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A286" s="111"/>
-      <c r="B286" s="111"/>
-      <c r="C286" s="111"/>
-      <c r="D286" s="111"/>
-      <c r="E286" s="111"/>
-      <c r="F286" s="111"/>
-      <c r="G286" s="111"/>
-      <c r="H286" s="111"/>
-      <c r="I286" s="111"/>
-      <c r="J286" s="111"/>
-      <c r="K286" s="111"/>
+      <c r="A286" s="114"/>
+      <c r="B286" s="114"/>
+      <c r="C286" s="114"/>
+      <c r="D286" s="114"/>
+      <c r="E286" s="114"/>
+      <c r="F286" s="114"/>
+      <c r="G286" s="114"/>
+      <c r="H286" s="114"/>
+      <c r="I286" s="114"/>
+      <c r="J286" s="114"/>
+      <c r="K286" s="114"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="112"/>
-      <c r="B287" s="112"/>
-      <c r="C287" s="112"/>
-      <c r="D287" s="112"/>
-      <c r="E287" s="112"/>
-      <c r="F287" s="112"/>
-      <c r="G287" s="112"/>
-      <c r="H287" s="112"/>
-      <c r="I287" s="112"/>
-      <c r="J287" s="112"/>
-      <c r="K287" s="112"/>
+      <c r="A287" s="115"/>
+      <c r="B287" s="115"/>
+      <c r="C287" s="115"/>
+      <c r="D287" s="115"/>
+      <c r="E287" s="115"/>
+      <c r="F287" s="115"/>
+      <c r="G287" s="115"/>
+      <c r="H287" s="115"/>
+      <c r="I287" s="115"/>
+      <c r="J287" s="115"/>
+      <c r="K287" s="115"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A288" s="113" t="s">
+      <c r="A288" s="116" t="s">
         <v>242</v>
       </c>
-      <c r="B288" s="114"/>
-      <c r="C288" s="114"/>
-      <c r="D288" s="114"/>
-      <c r="E288" s="114"/>
-      <c r="F288" s="114"/>
-      <c r="G288" s="114"/>
-      <c r="H288" s="114"/>
-      <c r="I288" s="114"/>
-      <c r="J288" s="114"/>
-      <c r="K288" s="115"/>
+      <c r="B288" s="117"/>
+      <c r="C288" s="117"/>
+      <c r="D288" s="117"/>
+      <c r="E288" s="117"/>
+      <c r="F288" s="117"/>
+      <c r="G288" s="117"/>
+      <c r="H288" s="117"/>
+      <c r="I288" s="117"/>
+      <c r="J288" s="117"/>
+      <c r="K288" s="118"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
@@ -9394,45 +9409,45 @@
       </c>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A295" s="111"/>
-      <c r="B295" s="111"/>
-      <c r="C295" s="111"/>
-      <c r="D295" s="111"/>
-      <c r="E295" s="111"/>
-      <c r="F295" s="111"/>
-      <c r="G295" s="111"/>
-      <c r="H295" s="111"/>
-      <c r="I295" s="111"/>
-      <c r="J295" s="111"/>
-      <c r="K295" s="111"/>
+      <c r="A295" s="114"/>
+      <c r="B295" s="114"/>
+      <c r="C295" s="114"/>
+      <c r="D295" s="114"/>
+      <c r="E295" s="114"/>
+      <c r="F295" s="114"/>
+      <c r="G295" s="114"/>
+      <c r="H295" s="114"/>
+      <c r="I295" s="114"/>
+      <c r="J295" s="114"/>
+      <c r="K295" s="114"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A296" s="112"/>
-      <c r="B296" s="112"/>
-      <c r="C296" s="112"/>
-      <c r="D296" s="112"/>
-      <c r="E296" s="112"/>
-      <c r="F296" s="112"/>
-      <c r="G296" s="112"/>
-      <c r="H296" s="112"/>
-      <c r="I296" s="112"/>
-      <c r="J296" s="112"/>
-      <c r="K296" s="112"/>
+      <c r="A296" s="115"/>
+      <c r="B296" s="115"/>
+      <c r="C296" s="115"/>
+      <c r="D296" s="115"/>
+      <c r="E296" s="115"/>
+      <c r="F296" s="115"/>
+      <c r="G296" s="115"/>
+      <c r="H296" s="115"/>
+      <c r="I296" s="115"/>
+      <c r="J296" s="115"/>
+      <c r="K296" s="115"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A297" s="113" t="s">
+      <c r="A297" s="116" t="s">
         <v>244</v>
       </c>
-      <c r="B297" s="114"/>
-      <c r="C297" s="114"/>
-      <c r="D297" s="114"/>
-      <c r="E297" s="114"/>
-      <c r="F297" s="114"/>
-      <c r="G297" s="114"/>
-      <c r="H297" s="114"/>
-      <c r="I297" s="114"/>
-      <c r="J297" s="114"/>
-      <c r="K297" s="115"/>
+      <c r="B297" s="117"/>
+      <c r="C297" s="117"/>
+      <c r="D297" s="117"/>
+      <c r="E297" s="117"/>
+      <c r="F297" s="117"/>
+      <c r="G297" s="117"/>
+      <c r="H297" s="117"/>
+      <c r="I297" s="117"/>
+      <c r="J297" s="117"/>
+      <c r="K297" s="118"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
@@ -9615,45 +9630,45 @@
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A304" s="111"/>
-      <c r="B304" s="111"/>
-      <c r="C304" s="111"/>
-      <c r="D304" s="111"/>
-      <c r="E304" s="111"/>
-      <c r="F304" s="111"/>
-      <c r="G304" s="111"/>
-      <c r="H304" s="111"/>
-      <c r="I304" s="111"/>
-      <c r="J304" s="111"/>
-      <c r="K304" s="111"/>
+      <c r="A304" s="114"/>
+      <c r="B304" s="114"/>
+      <c r="C304" s="114"/>
+      <c r="D304" s="114"/>
+      <c r="E304" s="114"/>
+      <c r="F304" s="114"/>
+      <c r="G304" s="114"/>
+      <c r="H304" s="114"/>
+      <c r="I304" s="114"/>
+      <c r="J304" s="114"/>
+      <c r="K304" s="114"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A305" s="112"/>
-      <c r="B305" s="112"/>
-      <c r="C305" s="112"/>
-      <c r="D305" s="112"/>
-      <c r="E305" s="112"/>
-      <c r="F305" s="112"/>
-      <c r="G305" s="112"/>
-      <c r="H305" s="112"/>
-      <c r="I305" s="112"/>
-      <c r="J305" s="112"/>
-      <c r="K305" s="112"/>
+      <c r="A305" s="115"/>
+      <c r="B305" s="115"/>
+      <c r="C305" s="115"/>
+      <c r="D305" s="115"/>
+      <c r="E305" s="115"/>
+      <c r="F305" s="115"/>
+      <c r="G305" s="115"/>
+      <c r="H305" s="115"/>
+      <c r="I305" s="115"/>
+      <c r="J305" s="115"/>
+      <c r="K305" s="115"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A306" s="113" t="s">
+      <c r="A306" s="116" t="s">
         <v>211</v>
       </c>
-      <c r="B306" s="114"/>
-      <c r="C306" s="114"/>
-      <c r="D306" s="114"/>
-      <c r="E306" s="114"/>
-      <c r="F306" s="114"/>
-      <c r="G306" s="114"/>
-      <c r="H306" s="114"/>
-      <c r="I306" s="114"/>
-      <c r="J306" s="114"/>
-      <c r="K306" s="115"/>
+      <c r="B306" s="117"/>
+      <c r="C306" s="117"/>
+      <c r="D306" s="117"/>
+      <c r="E306" s="117"/>
+      <c r="F306" s="117"/>
+      <c r="G306" s="117"/>
+      <c r="H306" s="117"/>
+      <c r="I306" s="117"/>
+      <c r="J306" s="117"/>
+      <c r="K306" s="118"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
@@ -9952,45 +9967,45 @@
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A318" s="111"/>
-      <c r="B318" s="111"/>
-      <c r="C318" s="111"/>
-      <c r="D318" s="111"/>
-      <c r="E318" s="111"/>
-      <c r="F318" s="111"/>
-      <c r="G318" s="111"/>
-      <c r="H318" s="111"/>
-      <c r="I318" s="111"/>
-      <c r="J318" s="111"/>
-      <c r="K318" s="111"/>
+      <c r="A318" s="114"/>
+      <c r="B318" s="114"/>
+      <c r="C318" s="114"/>
+      <c r="D318" s="114"/>
+      <c r="E318" s="114"/>
+      <c r="F318" s="114"/>
+      <c r="G318" s="114"/>
+      <c r="H318" s="114"/>
+      <c r="I318" s="114"/>
+      <c r="J318" s="114"/>
+      <c r="K318" s="114"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A319" s="112"/>
-      <c r="B319" s="112"/>
-      <c r="C319" s="112"/>
-      <c r="D319" s="112"/>
-      <c r="E319" s="112"/>
-      <c r="F319" s="112"/>
-      <c r="G319" s="112"/>
-      <c r="H319" s="112"/>
-      <c r="I319" s="112"/>
-      <c r="J319" s="112"/>
-      <c r="K319" s="112"/>
+      <c r="A319" s="115"/>
+      <c r="B319" s="115"/>
+      <c r="C319" s="115"/>
+      <c r="D319" s="115"/>
+      <c r="E319" s="115"/>
+      <c r="F319" s="115"/>
+      <c r="G319" s="115"/>
+      <c r="H319" s="115"/>
+      <c r="I319" s="115"/>
+      <c r="J319" s="115"/>
+      <c r="K319" s="115"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A320" s="113" t="s">
+      <c r="A320" s="116" t="s">
         <v>214</v>
       </c>
-      <c r="B320" s="114"/>
-      <c r="C320" s="114"/>
-      <c r="D320" s="114"/>
-      <c r="E320" s="114"/>
-      <c r="F320" s="114"/>
-      <c r="G320" s="114"/>
-      <c r="H320" s="114"/>
-      <c r="I320" s="114"/>
-      <c r="J320" s="114"/>
-      <c r="K320" s="115"/>
+      <c r="B320" s="117"/>
+      <c r="C320" s="117"/>
+      <c r="D320" s="117"/>
+      <c r="E320" s="117"/>
+      <c r="F320" s="117"/>
+      <c r="G320" s="117"/>
+      <c r="H320" s="117"/>
+      <c r="I320" s="117"/>
+      <c r="J320" s="117"/>
+      <c r="K320" s="118"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
@@ -10237,45 +10252,45 @@
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A329" s="111"/>
-      <c r="B329" s="111"/>
-      <c r="C329" s="111"/>
-      <c r="D329" s="111"/>
-      <c r="E329" s="111"/>
-      <c r="F329" s="111"/>
-      <c r="G329" s="111"/>
-      <c r="H329" s="111"/>
-      <c r="I329" s="111"/>
-      <c r="J329" s="111"/>
-      <c r="K329" s="111"/>
+      <c r="A329" s="114"/>
+      <c r="B329" s="114"/>
+      <c r="C329" s="114"/>
+      <c r="D329" s="114"/>
+      <c r="E329" s="114"/>
+      <c r="F329" s="114"/>
+      <c r="G329" s="114"/>
+      <c r="H329" s="114"/>
+      <c r="I329" s="114"/>
+      <c r="J329" s="114"/>
+      <c r="K329" s="114"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A330" s="112"/>
-      <c r="B330" s="112"/>
-      <c r="C330" s="112"/>
-      <c r="D330" s="112"/>
-      <c r="E330" s="112"/>
-      <c r="F330" s="112"/>
-      <c r="G330" s="112"/>
-      <c r="H330" s="112"/>
-      <c r="I330" s="112"/>
-      <c r="J330" s="112"/>
-      <c r="K330" s="112"/>
+      <c r="A330" s="115"/>
+      <c r="B330" s="115"/>
+      <c r="C330" s="115"/>
+      <c r="D330" s="115"/>
+      <c r="E330" s="115"/>
+      <c r="F330" s="115"/>
+      <c r="G330" s="115"/>
+      <c r="H330" s="115"/>
+      <c r="I330" s="115"/>
+      <c r="J330" s="115"/>
+      <c r="K330" s="115"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A331" s="113" t="s">
+      <c r="A331" s="116" t="s">
         <v>223</v>
       </c>
-      <c r="B331" s="114"/>
-      <c r="C331" s="114"/>
-      <c r="D331" s="114"/>
-      <c r="E331" s="114"/>
-      <c r="F331" s="114"/>
-      <c r="G331" s="114"/>
-      <c r="H331" s="114"/>
-      <c r="I331" s="114"/>
-      <c r="J331" s="114"/>
-      <c r="K331" s="115"/>
+      <c r="B331" s="117"/>
+      <c r="C331" s="117"/>
+      <c r="D331" s="117"/>
+      <c r="E331" s="117"/>
+      <c r="F331" s="117"/>
+      <c r="G331" s="117"/>
+      <c r="H331" s="117"/>
+      <c r="I331" s="117"/>
+      <c r="J331" s="117"/>
+      <c r="K331" s="118"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
@@ -10518,45 +10533,45 @@
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A340" s="111"/>
-      <c r="B340" s="111"/>
-      <c r="C340" s="111"/>
-      <c r="D340" s="111"/>
-      <c r="E340" s="111"/>
-      <c r="F340" s="111"/>
-      <c r="G340" s="111"/>
-      <c r="H340" s="111"/>
-      <c r="I340" s="111"/>
-      <c r="J340" s="111"/>
-      <c r="K340" s="111"/>
+      <c r="A340" s="114"/>
+      <c r="B340" s="114"/>
+      <c r="C340" s="114"/>
+      <c r="D340" s="114"/>
+      <c r="E340" s="114"/>
+      <c r="F340" s="114"/>
+      <c r="G340" s="114"/>
+      <c r="H340" s="114"/>
+      <c r="I340" s="114"/>
+      <c r="J340" s="114"/>
+      <c r="K340" s="114"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A341" s="112"/>
-      <c r="B341" s="112"/>
-      <c r="C341" s="112"/>
-      <c r="D341" s="112"/>
-      <c r="E341" s="112"/>
-      <c r="F341" s="112"/>
-      <c r="G341" s="112"/>
-      <c r="H341" s="112"/>
-      <c r="I341" s="112"/>
-      <c r="J341" s="112"/>
-      <c r="K341" s="112"/>
+      <c r="A341" s="115"/>
+      <c r="B341" s="115"/>
+      <c r="C341" s="115"/>
+      <c r="D341" s="115"/>
+      <c r="E341" s="115"/>
+      <c r="F341" s="115"/>
+      <c r="G341" s="115"/>
+      <c r="H341" s="115"/>
+      <c r="I341" s="115"/>
+      <c r="J341" s="115"/>
+      <c r="K341" s="115"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A342" s="113" t="s">
+      <c r="A342" s="116" t="s">
         <v>234</v>
       </c>
-      <c r="B342" s="114"/>
-      <c r="C342" s="114"/>
-      <c r="D342" s="114"/>
-      <c r="E342" s="114"/>
-      <c r="F342" s="114"/>
-      <c r="G342" s="114"/>
-      <c r="H342" s="114"/>
-      <c r="I342" s="114"/>
-      <c r="J342" s="114"/>
-      <c r="K342" s="115"/>
+      <c r="B342" s="117"/>
+      <c r="C342" s="117"/>
+      <c r="D342" s="117"/>
+      <c r="E342" s="117"/>
+      <c r="F342" s="117"/>
+      <c r="G342" s="117"/>
+      <c r="H342" s="117"/>
+      <c r="I342" s="117"/>
+      <c r="J342" s="117"/>
+      <c r="K342" s="118"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
@@ -10791,45 +10806,45 @@
       </c>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A351" s="111"/>
-      <c r="B351" s="111"/>
-      <c r="C351" s="111"/>
-      <c r="D351" s="111"/>
-      <c r="E351" s="111"/>
-      <c r="F351" s="111"/>
-      <c r="G351" s="111"/>
-      <c r="H351" s="111"/>
-      <c r="I351" s="111"/>
-      <c r="J351" s="111"/>
-      <c r="K351" s="111"/>
+      <c r="A351" s="114"/>
+      <c r="B351" s="114"/>
+      <c r="C351" s="114"/>
+      <c r="D351" s="114"/>
+      <c r="E351" s="114"/>
+      <c r="F351" s="114"/>
+      <c r="G351" s="114"/>
+      <c r="H351" s="114"/>
+      <c r="I351" s="114"/>
+      <c r="J351" s="114"/>
+      <c r="K351" s="114"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A352" s="112"/>
-      <c r="B352" s="112"/>
-      <c r="C352" s="112"/>
-      <c r="D352" s="112"/>
-      <c r="E352" s="112"/>
-      <c r="F352" s="112"/>
-      <c r="G352" s="112"/>
-      <c r="H352" s="112"/>
-      <c r="I352" s="112"/>
-      <c r="J352" s="112"/>
-      <c r="K352" s="112"/>
+      <c r="A352" s="115"/>
+      <c r="B352" s="115"/>
+      <c r="C352" s="115"/>
+      <c r="D352" s="115"/>
+      <c r="E352" s="115"/>
+      <c r="F352" s="115"/>
+      <c r="G352" s="115"/>
+      <c r="H352" s="115"/>
+      <c r="I352" s="115"/>
+      <c r="J352" s="115"/>
+      <c r="K352" s="115"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A353" s="113" t="s">
+      <c r="A353" s="116" t="s">
         <v>121</v>
       </c>
-      <c r="B353" s="114"/>
-      <c r="C353" s="114"/>
-      <c r="D353" s="114"/>
-      <c r="E353" s="114"/>
-      <c r="F353" s="114"/>
-      <c r="G353" s="114"/>
-      <c r="H353" s="114"/>
-      <c r="I353" s="114"/>
-      <c r="J353" s="114"/>
-      <c r="K353" s="115"/>
+      <c r="B353" s="117"/>
+      <c r="C353" s="117"/>
+      <c r="D353" s="117"/>
+      <c r="E353" s="117"/>
+      <c r="F353" s="117"/>
+      <c r="G353" s="117"/>
+      <c r="H353" s="117"/>
+      <c r="I353" s="117"/>
+      <c r="J353" s="117"/>
+      <c r="K353" s="118"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
@@ -11149,45 +11164,45 @@
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A365" s="111"/>
-      <c r="B365" s="111"/>
-      <c r="C365" s="111"/>
-      <c r="D365" s="111"/>
-      <c r="E365" s="111"/>
-      <c r="F365" s="111"/>
-      <c r="G365" s="111"/>
-      <c r="H365" s="111"/>
-      <c r="I365" s="111"/>
-      <c r="J365" s="111"/>
-      <c r="K365" s="111"/>
+      <c r="A365" s="114"/>
+      <c r="B365" s="114"/>
+      <c r="C365" s="114"/>
+      <c r="D365" s="114"/>
+      <c r="E365" s="114"/>
+      <c r="F365" s="114"/>
+      <c r="G365" s="114"/>
+      <c r="H365" s="114"/>
+      <c r="I365" s="114"/>
+      <c r="J365" s="114"/>
+      <c r="K365" s="114"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A366" s="112"/>
-      <c r="B366" s="112"/>
-      <c r="C366" s="112"/>
-      <c r="D366" s="112"/>
-      <c r="E366" s="112"/>
-      <c r="F366" s="112"/>
-      <c r="G366" s="112"/>
-      <c r="H366" s="112"/>
-      <c r="I366" s="112"/>
-      <c r="J366" s="112"/>
-      <c r="K366" s="112"/>
+      <c r="A366" s="115"/>
+      <c r="B366" s="115"/>
+      <c r="C366" s="115"/>
+      <c r="D366" s="115"/>
+      <c r="E366" s="115"/>
+      <c r="F366" s="115"/>
+      <c r="G366" s="115"/>
+      <c r="H366" s="115"/>
+      <c r="I366" s="115"/>
+      <c r="J366" s="115"/>
+      <c r="K366" s="115"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A367" s="113" t="s">
+      <c r="A367" s="116" t="s">
         <v>275</v>
       </c>
-      <c r="B367" s="114"/>
-      <c r="C367" s="114"/>
-      <c r="D367" s="114"/>
-      <c r="E367" s="114"/>
-      <c r="F367" s="114"/>
-      <c r="G367" s="114"/>
-      <c r="H367" s="114"/>
-      <c r="I367" s="114"/>
-      <c r="J367" s="114"/>
-      <c r="K367" s="115"/>
+      <c r="B367" s="117"/>
+      <c r="C367" s="117"/>
+      <c r="D367" s="117"/>
+      <c r="E367" s="117"/>
+      <c r="F367" s="117"/>
+      <c r="G367" s="117"/>
+      <c r="H367" s="117"/>
+      <c r="I367" s="117"/>
+      <c r="J367" s="117"/>
+      <c r="K367" s="118"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="20" t="s">
@@ -11389,45 +11404,45 @@
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A375" s="111"/>
-      <c r="B375" s="111"/>
-      <c r="C375" s="111"/>
-      <c r="D375" s="111"/>
-      <c r="E375" s="111"/>
-      <c r="F375" s="111"/>
-      <c r="G375" s="111"/>
-      <c r="H375" s="111"/>
-      <c r="I375" s="111"/>
-      <c r="J375" s="111"/>
-      <c r="K375" s="111"/>
+      <c r="A375" s="114"/>
+      <c r="B375" s="114"/>
+      <c r="C375" s="114"/>
+      <c r="D375" s="114"/>
+      <c r="E375" s="114"/>
+      <c r="F375" s="114"/>
+      <c r="G375" s="114"/>
+      <c r="H375" s="114"/>
+      <c r="I375" s="114"/>
+      <c r="J375" s="114"/>
+      <c r="K375" s="114"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A376" s="112"/>
-      <c r="B376" s="112"/>
-      <c r="C376" s="112"/>
-      <c r="D376" s="112"/>
-      <c r="E376" s="112"/>
-      <c r="F376" s="112"/>
-      <c r="G376" s="112"/>
-      <c r="H376" s="112"/>
-      <c r="I376" s="112"/>
-      <c r="J376" s="112"/>
-      <c r="K376" s="112"/>
+      <c r="A376" s="115"/>
+      <c r="B376" s="115"/>
+      <c r="C376" s="115"/>
+      <c r="D376" s="115"/>
+      <c r="E376" s="115"/>
+      <c r="F376" s="115"/>
+      <c r="G376" s="115"/>
+      <c r="H376" s="115"/>
+      <c r="I376" s="115"/>
+      <c r="J376" s="115"/>
+      <c r="K376" s="115"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A377" s="113" t="s">
+      <c r="A377" s="116" t="s">
         <v>309</v>
       </c>
-      <c r="B377" s="114"/>
-      <c r="C377" s="114"/>
-      <c r="D377" s="114"/>
-      <c r="E377" s="114"/>
-      <c r="F377" s="114"/>
-      <c r="G377" s="114"/>
-      <c r="H377" s="114"/>
-      <c r="I377" s="114"/>
-      <c r="J377" s="114"/>
-      <c r="K377" s="115"/>
+      <c r="B377" s="117"/>
+      <c r="C377" s="117"/>
+      <c r="D377" s="117"/>
+      <c r="E377" s="117"/>
+      <c r="F377" s="117"/>
+      <c r="G377" s="117"/>
+      <c r="H377" s="117"/>
+      <c r="I377" s="117"/>
+      <c r="J377" s="117"/>
+      <c r="K377" s="118"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="20" t="s">
@@ -11610,45 +11625,45 @@
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A384" s="116"/>
-      <c r="B384" s="116"/>
-      <c r="C384" s="116"/>
-      <c r="D384" s="116"/>
-      <c r="E384" s="116"/>
-      <c r="F384" s="116"/>
-      <c r="G384" s="116"/>
-      <c r="H384" s="116"/>
-      <c r="I384" s="116"/>
-      <c r="J384" s="116"/>
-      <c r="K384" s="116"/>
+      <c r="A384" s="123"/>
+      <c r="B384" s="123"/>
+      <c r="C384" s="123"/>
+      <c r="D384" s="123"/>
+      <c r="E384" s="123"/>
+      <c r="F384" s="123"/>
+      <c r="G384" s="123"/>
+      <c r="H384" s="123"/>
+      <c r="I384" s="123"/>
+      <c r="J384" s="123"/>
+      <c r="K384" s="123"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A385" s="112"/>
-      <c r="B385" s="112"/>
-      <c r="C385" s="112"/>
-      <c r="D385" s="112"/>
-      <c r="E385" s="112"/>
-      <c r="F385" s="112"/>
-      <c r="G385" s="112"/>
-      <c r="H385" s="112"/>
-      <c r="I385" s="112"/>
-      <c r="J385" s="112"/>
-      <c r="K385" s="112"/>
+      <c r="A385" s="115"/>
+      <c r="B385" s="115"/>
+      <c r="C385" s="115"/>
+      <c r="D385" s="115"/>
+      <c r="E385" s="115"/>
+      <c r="F385" s="115"/>
+      <c r="G385" s="115"/>
+      <c r="H385" s="115"/>
+      <c r="I385" s="115"/>
+      <c r="J385" s="115"/>
+      <c r="K385" s="115"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A386" s="113" t="s">
+      <c r="A386" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="B386" s="114"/>
-      <c r="C386" s="114"/>
-      <c r="D386" s="114"/>
-      <c r="E386" s="114"/>
-      <c r="F386" s="114"/>
-      <c r="G386" s="114"/>
-      <c r="H386" s="114"/>
-      <c r="I386" s="114"/>
-      <c r="J386" s="114"/>
-      <c r="K386" s="115"/>
+      <c r="B386" s="117"/>
+      <c r="C386" s="117"/>
+      <c r="D386" s="117"/>
+      <c r="E386" s="117"/>
+      <c r="F386" s="117"/>
+      <c r="G386" s="117"/>
+      <c r="H386" s="117"/>
+      <c r="I386" s="117"/>
+      <c r="J386" s="117"/>
+      <c r="K386" s="118"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="20" t="s">
@@ -11920,45 +11935,45 @@
       </c>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A396" s="111"/>
-      <c r="B396" s="111"/>
-      <c r="C396" s="111"/>
-      <c r="D396" s="111"/>
-      <c r="E396" s="111"/>
-      <c r="F396" s="111"/>
-      <c r="G396" s="111"/>
-      <c r="H396" s="111"/>
-      <c r="I396" s="111"/>
-      <c r="J396" s="111"/>
-      <c r="K396" s="111"/>
+      <c r="A396" s="114"/>
+      <c r="B396" s="114"/>
+      <c r="C396" s="114"/>
+      <c r="D396" s="114"/>
+      <c r="E396" s="114"/>
+      <c r="F396" s="114"/>
+      <c r="G396" s="114"/>
+      <c r="H396" s="114"/>
+      <c r="I396" s="114"/>
+      <c r="J396" s="114"/>
+      <c r="K396" s="114"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A397" s="112"/>
-      <c r="B397" s="112"/>
-      <c r="C397" s="112"/>
-      <c r="D397" s="112"/>
-      <c r="E397" s="112"/>
-      <c r="F397" s="112"/>
-      <c r="G397" s="112"/>
-      <c r="H397" s="112"/>
-      <c r="I397" s="112"/>
-      <c r="J397" s="112"/>
-      <c r="K397" s="112"/>
+      <c r="A397" s="115"/>
+      <c r="B397" s="115"/>
+      <c r="C397" s="115"/>
+      <c r="D397" s="115"/>
+      <c r="E397" s="115"/>
+      <c r="F397" s="115"/>
+      <c r="G397" s="115"/>
+      <c r="H397" s="115"/>
+      <c r="I397" s="115"/>
+      <c r="J397" s="115"/>
+      <c r="K397" s="115"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A398" s="113" t="s">
-        <v>256</v>
-      </c>
-      <c r="B398" s="114"/>
-      <c r="C398" s="114"/>
-      <c r="D398" s="114"/>
-      <c r="E398" s="114"/>
-      <c r="F398" s="114"/>
-      <c r="G398" s="114"/>
-      <c r="H398" s="114"/>
-      <c r="I398" s="114"/>
-      <c r="J398" s="114"/>
-      <c r="K398" s="115"/>
+      <c r="A398" s="116" t="s">
+        <v>315</v>
+      </c>
+      <c r="B398" s="117"/>
+      <c r="C398" s="117"/>
+      <c r="D398" s="117"/>
+      <c r="E398" s="117"/>
+      <c r="F398" s="117"/>
+      <c r="G398" s="117"/>
+      <c r="H398" s="117"/>
+      <c r="I398" s="117"/>
+      <c r="J398" s="117"/>
+      <c r="K398" s="118"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="20" t="s">
@@ -12020,10 +12035,10 @@
       <c r="H400" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I400" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J400" s="83"/>
+      <c r="I400" s="111" t="s">
+        <v>12</v>
+      </c>
+      <c r="J400" s="111"/>
       <c r="K400" s="6" t="s">
         <v>13</v>
       </c>
@@ -12033,7 +12048,7 @@
         <v>2</v>
       </c>
       <c r="B401" s="7" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="C401" s="7" t="s">
         <v>14</v>
@@ -12049,8 +12064,8 @@
       <c r="H401" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I401" s="85"/>
-      <c r="J401" s="85" t="s">
+      <c r="I401" s="113"/>
+      <c r="J401" s="113" t="s">
         <v>12</v>
       </c>
       <c r="K401" s="9"/>
@@ -12060,228 +12075,230 @@
         <v>3</v>
       </c>
       <c r="B402" s="7" t="s">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="C402" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D402" s="7">
-        <v>100</v>
-      </c>
-      <c r="E402" s="7"/>
-      <c r="F402" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D402" s="7"/>
+      <c r="E402" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F402" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G402" s="7"/>
       <c r="H402" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I402" s="85"/>
-      <c r="J402" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K402" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I402" s="113"/>
+      <c r="J402" s="113"/>
+      <c r="K402" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>4</v>
       </c>
       <c r="B403" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C403" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D403" s="7"/>
-      <c r="E403" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F403" s="12" t="s">
-        <v>26</v>
+      <c r="E403" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F403" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G403" s="7"/>
       <c r="H403" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I403" s="85"/>
-      <c r="J403" s="85"/>
+      <c r="I403" s="113"/>
+      <c r="J403" s="113"/>
       <c r="K403" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A404" s="40">
+      <c r="A404" s="41">
         <v>5</v>
       </c>
-      <c r="B404" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C404" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D404" s="7"/>
-      <c r="E404" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F404" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G404" s="7"/>
-      <c r="H404" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I404" s="85"/>
-      <c r="J404" s="85"/>
-      <c r="K404" s="9" t="s">
-        <v>16</v>
+      <c r="B404" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C404" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D404" s="13">
+        <v>1</v>
+      </c>
+      <c r="E404" s="13">
+        <v>0</v>
+      </c>
+      <c r="F404" s="13">
+        <v>1</v>
+      </c>
+      <c r="G404" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H404" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I404" s="112"/>
+      <c r="J404" s="112"/>
+      <c r="K404" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A405" s="41">
+      <c r="A405" s="114"/>
+      <c r="B405" s="114"/>
+      <c r="C405" s="114"/>
+      <c r="D405" s="114"/>
+      <c r="E405" s="114"/>
+      <c r="F405" s="114"/>
+      <c r="G405" s="114"/>
+      <c r="H405" s="114"/>
+      <c r="I405" s="114"/>
+      <c r="J405" s="114"/>
+      <c r="K405" s="114"/>
+    </row>
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A406" s="115"/>
+      <c r="B406" s="115"/>
+      <c r="C406" s="115"/>
+      <c r="D406" s="115"/>
+      <c r="E406" s="115"/>
+      <c r="F406" s="115"/>
+      <c r="G406" s="115"/>
+      <c r="H406" s="115"/>
+      <c r="I406" s="115"/>
+      <c r="J406" s="115"/>
+      <c r="K406" s="115"/>
+    </row>
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A407" s="116" t="s">
+        <v>256</v>
+      </c>
+      <c r="B407" s="117"/>
+      <c r="C407" s="117"/>
+      <c r="D407" s="117"/>
+      <c r="E407" s="117"/>
+      <c r="F407" s="117"/>
+      <c r="G407" s="117"/>
+      <c r="H407" s="117"/>
+      <c r="I407" s="117"/>
+      <c r="J407" s="117"/>
+      <c r="K407" s="118"/>
+    </row>
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A408" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B408" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C408" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D408" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E408" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F408" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G408" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H408" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I408" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B405" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C405" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D405" s="13">
-        <v>1</v>
-      </c>
-      <c r="E405" s="13">
-        <v>0</v>
-      </c>
-      <c r="F405" s="13">
-        <v>1</v>
-      </c>
-      <c r="G405" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H405" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I405" s="84"/>
-      <c r="J405" s="84"/>
-      <c r="K405" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A406" s="111"/>
-      <c r="B406" s="111"/>
-      <c r="C406" s="111"/>
-      <c r="D406" s="111"/>
-      <c r="E406" s="111"/>
-      <c r="F406" s="111"/>
-      <c r="G406" s="111"/>
-      <c r="H406" s="111"/>
-      <c r="I406" s="111"/>
-      <c r="J406" s="111"/>
-      <c r="K406" s="111"/>
-    </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A407" s="112"/>
-      <c r="B407" s="112"/>
-      <c r="C407" s="112"/>
-      <c r="D407" s="112"/>
-      <c r="E407" s="112"/>
-      <c r="F407" s="112"/>
-      <c r="G407" s="112"/>
-      <c r="H407" s="112"/>
-      <c r="I407" s="112"/>
-      <c r="J407" s="112"/>
-      <c r="K407" s="112"/>
-    </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A408" s="113" t="s">
-        <v>313</v>
-      </c>
-      <c r="B408" s="114"/>
-      <c r="C408" s="114"/>
-      <c r="D408" s="114"/>
-      <c r="E408" s="114"/>
-      <c r="F408" s="114"/>
-      <c r="G408" s="114"/>
-      <c r="H408" s="114"/>
-      <c r="I408" s="114"/>
-      <c r="J408" s="114"/>
-      <c r="K408" s="115"/>
+      <c r="J408" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K408" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A409" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B409" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C409" s="19" t="s">
+      <c r="A409" s="39">
+        <v>1</v>
+      </c>
+      <c r="B409" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C409" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D409" s="5">
+        <v>10</v>
+      </c>
+      <c r="E409" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G409" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H409" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I409" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J409" s="83"/>
+      <c r="K409" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="40">
         <v>2</v>
       </c>
-      <c r="D409" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E409" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F409" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G409" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H409" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I409" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J409" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K409" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A410" s="39">
-        <v>1</v>
-      </c>
-      <c r="B410" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C410" s="5" t="s">
+      <c r="B410" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C410" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D410" s="5">
-        <v>10</v>
-      </c>
-      <c r="E410" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F410" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G410" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H410" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I410" s="108" t="s">
-        <v>12</v>
-      </c>
-      <c r="J410" s="108"/>
-      <c r="K410" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D410" s="7">
+        <v>10</v>
+      </c>
+      <c r="E410" s="7"/>
+      <c r="F410" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G410" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H410" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I410" s="113"/>
+      <c r="J410" s="113" t="s">
+        <v>12</v>
+      </c>
+      <c r="K410" s="9"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B411" s="7" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="C411" s="7" t="s">
         <v>14</v>
@@ -12297,8 +12314,8 @@
       <c r="H411" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I411" s="110"/>
-      <c r="J411" s="110" t="s">
+      <c r="I411" s="85"/>
+      <c r="J411" s="85" t="s">
         <v>12</v>
       </c>
       <c r="K411" s="9"/>
@@ -12308,230 +12325,228 @@
         <v>4</v>
       </c>
       <c r="B412" s="7" t="s">
-        <v>23</v>
+        <v>261</v>
       </c>
       <c r="C412" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D412" s="7"/>
-      <c r="E412" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F412" s="12" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="D412" s="7">
+        <v>100</v>
+      </c>
+      <c r="E412" s="7"/>
+      <c r="F412" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G412" s="7"/>
       <c r="H412" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I412" s="110"/>
-      <c r="J412" s="110"/>
-      <c r="K412" s="9" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" s="85"/>
+      <c r="J412" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K412" s="9"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>5</v>
       </c>
       <c r="B413" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C413" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D413" s="7"/>
-      <c r="E413" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F413" s="10" t="s">
-        <v>18</v>
+      <c r="E413" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F413" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G413" s="7"/>
       <c r="H413" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I413" s="110"/>
-      <c r="J413" s="110"/>
+      <c r="I413" s="85"/>
+      <c r="J413" s="85"/>
       <c r="K413" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A414" s="41">
+      <c r="A414" s="40">
         <v>6</v>
       </c>
-      <c r="B414" s="13" t="s">
+      <c r="B414" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C414" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D414" s="7"/>
+      <c r="E414" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F414" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G414" s="7"/>
+      <c r="H414" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I414" s="85"/>
+      <c r="J414" s="85"/>
+      <c r="K414" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" s="41">
+        <v>7</v>
+      </c>
+      <c r="B415" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C414" s="13" t="s">
+      <c r="C415" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D414" s="13">
-        <v>1</v>
-      </c>
-      <c r="E414" s="13">
-        <v>0</v>
-      </c>
-      <c r="F414" s="13">
-        <v>1</v>
-      </c>
-      <c r="G414" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H414" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I414" s="109"/>
-      <c r="J414" s="109"/>
-      <c r="K414" s="14" t="s">
+      <c r="D415" s="13">
+        <v>1</v>
+      </c>
+      <c r="E415" s="13">
+        <v>0</v>
+      </c>
+      <c r="F415" s="13">
+        <v>1</v>
+      </c>
+      <c r="G415" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H415" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I415" s="84"/>
+      <c r="J415" s="84"/>
+      <c r="K415" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A415" s="111"/>
-      <c r="B415" s="111"/>
-      <c r="C415" s="111"/>
-      <c r="D415" s="111"/>
-      <c r="E415" s="111"/>
-      <c r="F415" s="111"/>
-      <c r="G415" s="111"/>
-      <c r="H415" s="111"/>
-      <c r="I415" s="111"/>
-      <c r="J415" s="111"/>
-      <c r="K415" s="111"/>
-    </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A416" s="112"/>
-      <c r="B416" s="112"/>
-      <c r="C416" s="112"/>
-      <c r="D416" s="112"/>
-      <c r="E416" s="112"/>
-      <c r="F416" s="112"/>
-      <c r="G416" s="112"/>
-      <c r="H416" s="112"/>
-      <c r="I416" s="112"/>
-      <c r="J416" s="112"/>
-      <c r="K416" s="112"/>
+      <c r="A416" s="114"/>
+      <c r="B416" s="114"/>
+      <c r="C416" s="114"/>
+      <c r="D416" s="114"/>
+      <c r="E416" s="114"/>
+      <c r="F416" s="114"/>
+      <c r="G416" s="114"/>
+      <c r="H416" s="114"/>
+      <c r="I416" s="114"/>
+      <c r="J416" s="114"/>
+      <c r="K416" s="114"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="113" t="s">
-        <v>262</v>
-      </c>
-      <c r="B417" s="114"/>
-      <c r="C417" s="114"/>
-      <c r="D417" s="114"/>
-      <c r="E417" s="114"/>
-      <c r="F417" s="114"/>
-      <c r="G417" s="114"/>
-      <c r="H417" s="114"/>
-      <c r="I417" s="114"/>
-      <c r="J417" s="114"/>
+      <c r="A417" s="115"/>
+      <c r="B417" s="115"/>
+      <c r="C417" s="115"/>
+      <c r="D417" s="115"/>
+      <c r="E417" s="115"/>
+      <c r="F417" s="115"/>
+      <c r="G417" s="115"/>
+      <c r="H417" s="115"/>
+      <c r="I417" s="115"/>
+      <c r="J417" s="115"/>
       <c r="K417" s="115"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B418" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C418" s="19" t="s">
+      <c r="A418" s="116" t="s">
+        <v>313</v>
+      </c>
+      <c r="B418" s="117"/>
+      <c r="C418" s="117"/>
+      <c r="D418" s="117"/>
+      <c r="E418" s="117"/>
+      <c r="F418" s="117"/>
+      <c r="G418" s="117"/>
+      <c r="H418" s="117"/>
+      <c r="I418" s="117"/>
+      <c r="J418" s="117"/>
+      <c r="K418" s="118"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B419" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C419" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D418" s="19" t="s">
+      <c r="D419" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E418" s="19" t="s">
+      <c r="E419" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F418" s="19" t="s">
+      <c r="F419" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G418" s="19" t="s">
+      <c r="G419" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H418" s="19" t="s">
+      <c r="H419" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="I418" s="20" t="s">
+      <c r="I419" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="J418" s="20" t="s">
+      <c r="J419" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="K418" s="19" t="s">
+      <c r="K419" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="39">
-        <v>1</v>
-      </c>
-      <c r="B419" s="5" t="s">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="39">
+        <v>1</v>
+      </c>
+      <c r="B420" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C419" s="5" t="s">
+      <c r="C420" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D419" s="5">
-        <v>10</v>
-      </c>
-      <c r="E419" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F419" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G419" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H419" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I419" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J419" s="83"/>
-      <c r="K419" s="6" t="s">
+      <c r="D420" s="5">
+        <v>10</v>
+      </c>
+      <c r="E420" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G420" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H420" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I420" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="J420" s="108"/>
+      <c r="K420" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="40">
-        <v>2</v>
-      </c>
-      <c r="B420" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="C420" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D420" s="7">
-        <v>10</v>
-      </c>
-      <c r="E420" s="7"/>
-      <c r="F420" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G420" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H420" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I420" s="110"/>
-      <c r="J420" s="110" t="s">
-        <v>12</v>
-      </c>
-      <c r="K420" s="9"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>2</v>
       </c>
       <c r="B421" s="7" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="C421" s="7" t="s">
         <v>14</v>
@@ -12547,8 +12562,8 @@
       <c r="H421" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I421" s="85"/>
-      <c r="J421" s="85" t="s">
+      <c r="I421" s="110"/>
+      <c r="J421" s="110" t="s">
         <v>12</v>
       </c>
       <c r="K421" s="9"/>
@@ -12558,273 +12573,281 @@
         <v>3</v>
       </c>
       <c r="B422" s="7" t="s">
-        <v>263</v>
+        <v>23</v>
       </c>
       <c r="C422" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D422" s="7">
-        <v>100</v>
-      </c>
-      <c r="E422" s="7"/>
-      <c r="F422" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="D422" s="7"/>
+      <c r="E422" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F422" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G422" s="7"/>
       <c r="H422" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I422" s="85"/>
-      <c r="J422" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="K422" s="9"/>
+        <v>12</v>
+      </c>
+      <c r="I422" s="110"/>
+      <c r="J422" s="110"/>
+      <c r="K422" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>4</v>
       </c>
       <c r="B423" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C423" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D423" s="7"/>
-      <c r="E423" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F423" s="12" t="s">
-        <v>26</v>
+      <c r="E423" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F423" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G423" s="7"/>
       <c r="H423" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I423" s="85"/>
-      <c r="J423" s="85"/>
+      <c r="I423" s="110"/>
+      <c r="J423" s="110"/>
       <c r="K423" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="40">
+      <c r="A424" s="41">
         <v>5</v>
       </c>
-      <c r="B424" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C424" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D424" s="7"/>
-      <c r="E424" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F424" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G424" s="7"/>
-      <c r="H424" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I424" s="85"/>
-      <c r="J424" s="85"/>
-      <c r="K424" s="9" t="s">
-        <v>16</v>
+      <c r="B424" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C424" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D424" s="13">
+        <v>1</v>
+      </c>
+      <c r="E424" s="13">
+        <v>0</v>
+      </c>
+      <c r="F424" s="13">
+        <v>1</v>
+      </c>
+      <c r="G424" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H424" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I424" s="109"/>
+      <c r="J424" s="109"/>
+      <c r="K424" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="41">
+      <c r="A425" s="114"/>
+      <c r="B425" s="114"/>
+      <c r="C425" s="114"/>
+      <c r="D425" s="114"/>
+      <c r="E425" s="114"/>
+      <c r="F425" s="114"/>
+      <c r="G425" s="114"/>
+      <c r="H425" s="114"/>
+      <c r="I425" s="114"/>
+      <c r="J425" s="114"/>
+      <c r="K425" s="114"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="115"/>
+      <c r="B426" s="115"/>
+      <c r="C426" s="115"/>
+      <c r="D426" s="115"/>
+      <c r="E426" s="115"/>
+      <c r="F426" s="115"/>
+      <c r="G426" s="115"/>
+      <c r="H426" s="115"/>
+      <c r="I426" s="115"/>
+      <c r="J426" s="115"/>
+      <c r="K426" s="115"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="116" t="s">
+        <v>262</v>
+      </c>
+      <c r="B427" s="117"/>
+      <c r="C427" s="117"/>
+      <c r="D427" s="117"/>
+      <c r="E427" s="117"/>
+      <c r="F427" s="117"/>
+      <c r="G427" s="117"/>
+      <c r="H427" s="117"/>
+      <c r="I427" s="117"/>
+      <c r="J427" s="117"/>
+      <c r="K427" s="118"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B428" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C428" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D428" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E428" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F428" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G428" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H428" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I428" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B425" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C425" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D425" s="13">
-        <v>1</v>
-      </c>
-      <c r="E425" s="13">
-        <v>0</v>
-      </c>
-      <c r="F425" s="13">
-        <v>1</v>
-      </c>
-      <c r="G425" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H425" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I425" s="84"/>
-      <c r="J425" s="84"/>
-      <c r="K425" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="111"/>
-      <c r="B426" s="111"/>
-      <c r="C426" s="111"/>
-      <c r="D426" s="111"/>
-      <c r="E426" s="111"/>
-      <c r="F426" s="111"/>
-      <c r="G426" s="111"/>
-      <c r="H426" s="111"/>
-      <c r="I426" s="111"/>
-      <c r="J426" s="111"/>
-      <c r="K426" s="111"/>
-    </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="112"/>
-      <c r="B427" s="112"/>
-      <c r="C427" s="112"/>
-      <c r="D427" s="112"/>
-      <c r="E427" s="112"/>
-      <c r="F427" s="112"/>
-      <c r="G427" s="112"/>
-      <c r="H427" s="112"/>
-      <c r="I427" s="112"/>
-      <c r="J427" s="112"/>
-      <c r="K427" s="112"/>
-    </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="113" t="s">
-        <v>265</v>
-      </c>
-      <c r="B428" s="114"/>
-      <c r="C428" s="114"/>
-      <c r="D428" s="114"/>
-      <c r="E428" s="114"/>
-      <c r="F428" s="114"/>
-      <c r="G428" s="114"/>
-      <c r="H428" s="114"/>
-      <c r="I428" s="114"/>
-      <c r="J428" s="114"/>
-      <c r="K428" s="115"/>
+      <c r="J428" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K428" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B429" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C429" s="19" t="s">
+      <c r="A429" s="39">
+        <v>1</v>
+      </c>
+      <c r="B429" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C429" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D429" s="5">
+        <v>10</v>
+      </c>
+      <c r="E429" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G429" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H429" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I429" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J429" s="83"/>
+      <c r="K429" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A430" s="40">
         <v>2</v>
       </c>
-      <c r="D429" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E429" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F429" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G429" s="19" t="s">
+      <c r="B430" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C430" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D430" s="7">
+        <v>10</v>
+      </c>
+      <c r="E430" s="7"/>
+      <c r="F430" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G430" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H430" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I430" s="110"/>
+      <c r="J430" s="110" t="s">
+        <v>12</v>
+      </c>
+      <c r="K430" s="9"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="40">
         <v>3</v>
       </c>
-      <c r="H429" s="19" t="s">
+      <c r="B431" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="C431" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D431" s="7">
+        <v>100</v>
+      </c>
+      <c r="E431" s="7"/>
+      <c r="F431" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G431" s="7"/>
+      <c r="H431" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I431" s="85"/>
+      <c r="J431" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K431" s="9"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" s="40">
         <v>4</v>
       </c>
-      <c r="I429" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J429" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K429" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="39">
-        <v>1</v>
-      </c>
-      <c r="B430" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C430" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D430" s="5">
-        <v>10</v>
-      </c>
-      <c r="E430" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F430" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G430" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H430" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I430" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J430" s="83"/>
-      <c r="K430" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="1">
-        <v>2</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C431" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D431" s="2">
-        <v>10</v>
-      </c>
-      <c r="F431" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G431" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H431" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J431" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K431" s="9"/>
-    </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="1">
-        <v>3</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="C432" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F432" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H432" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J432" s="1" t="s">
+      <c r="B432" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="C432" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D432" s="7">
+        <v>100</v>
+      </c>
+      <c r="E432" s="7"/>
+      <c r="F432" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G432" s="7"/>
+      <c r="H432" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I432" s="85"/>
+      <c r="J432" s="85" t="s">
         <v>12</v>
       </c>
       <c r="K432" s="9"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B433" s="7" t="s">
         <v>23</v>
@@ -12851,7 +12874,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B434" s="7" t="s">
         <v>24</v>
@@ -12878,7 +12901,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="41">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B435" s="13" t="s">
         <v>41</v>
@@ -12908,45 +12931,45 @@
       </c>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="111"/>
-      <c r="B436" s="111"/>
-      <c r="C436" s="111"/>
-      <c r="D436" s="111"/>
-      <c r="E436" s="111"/>
-      <c r="F436" s="111"/>
-      <c r="G436" s="111"/>
-      <c r="H436" s="111"/>
-      <c r="I436" s="111"/>
-      <c r="J436" s="111"/>
-      <c r="K436" s="111"/>
+      <c r="A436" s="114"/>
+      <c r="B436" s="114"/>
+      <c r="C436" s="114"/>
+      <c r="D436" s="114"/>
+      <c r="E436" s="114"/>
+      <c r="F436" s="114"/>
+      <c r="G436" s="114"/>
+      <c r="H436" s="114"/>
+      <c r="I436" s="114"/>
+      <c r="J436" s="114"/>
+      <c r="K436" s="114"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="112"/>
-      <c r="B437" s="112"/>
-      <c r="C437" s="112"/>
-      <c r="D437" s="112"/>
-      <c r="E437" s="112"/>
-      <c r="F437" s="112"/>
-      <c r="G437" s="112"/>
-      <c r="H437" s="112"/>
-      <c r="I437" s="112"/>
-      <c r="J437" s="112"/>
-      <c r="K437" s="112"/>
+      <c r="A437" s="115"/>
+      <c r="B437" s="115"/>
+      <c r="C437" s="115"/>
+      <c r="D437" s="115"/>
+      <c r="E437" s="115"/>
+      <c r="F437" s="115"/>
+      <c r="G437" s="115"/>
+      <c r="H437" s="115"/>
+      <c r="I437" s="115"/>
+      <c r="J437" s="115"/>
+      <c r="K437" s="115"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="113" t="s">
-        <v>268</v>
-      </c>
-      <c r="B438" s="114"/>
-      <c r="C438" s="114"/>
-      <c r="D438" s="114"/>
-      <c r="E438" s="114"/>
-      <c r="F438" s="114"/>
-      <c r="G438" s="114"/>
-      <c r="H438" s="114"/>
-      <c r="I438" s="114"/>
-      <c r="J438" s="114"/>
-      <c r="K438" s="115"/>
+      <c r="A438" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="B438" s="117"/>
+      <c r="C438" s="117"/>
+      <c r="D438" s="117"/>
+      <c r="E438" s="117"/>
+      <c r="F438" s="117"/>
+      <c r="G438" s="117"/>
+      <c r="H438" s="117"/>
+      <c r="I438" s="117"/>
+      <c r="J438" s="117"/>
+      <c r="K438" s="118"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="20" t="s">
@@ -13017,30 +13040,28 @@
       </c>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A441" s="85">
+      <c r="A441" s="1">
         <v>2</v>
       </c>
-      <c r="B441" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C441" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D441" s="7">
-        <v>20</v>
-      </c>
-      <c r="E441" s="7"/>
-      <c r="F441" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G441" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H441" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I441" s="85"/>
-      <c r="J441" s="85" t="s">
+      <c r="B441" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D441" s="2">
+        <v>10</v>
+      </c>
+      <c r="F441" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G441" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H441" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J441" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K441" s="9"/>
@@ -13053,17 +13074,11 @@
         <v>267</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D442" s="2">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="F442" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G442" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="H442" s="2" t="s">
         <v>0</v>
       </c>
@@ -13073,42 +13088,48 @@
       <c r="K442" s="9"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A443" s="1">
+      <c r="A443" s="40">
         <v>4</v>
       </c>
-      <c r="B443" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C443" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F443" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H443" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J443" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K443" s="9"/>
+      <c r="B443" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C443" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D443" s="7"/>
+      <c r="E443" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F443" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G443" s="7"/>
+      <c r="H443" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I443" s="85"/>
+      <c r="J443" s="85"/>
+      <c r="K443" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>5</v>
       </c>
       <c r="B444" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C444" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D444" s="7"/>
-      <c r="E444" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F444" s="12" t="s">
-        <v>26</v>
+      <c r="E444" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F444" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="G444" s="7"/>
       <c r="H444" s="7" t="s">
@@ -13121,188 +13142,193 @@
       </c>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A445" s="40">
+      <c r="A445" s="41">
         <v>6</v>
       </c>
-      <c r="B445" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C445" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D445" s="7"/>
-      <c r="E445" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F445" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G445" s="7"/>
-      <c r="H445" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I445" s="85"/>
-      <c r="J445" s="85"/>
-      <c r="K445" s="9" t="s">
-        <v>16</v>
+      <c r="B445" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C445" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D445" s="13">
+        <v>1</v>
+      </c>
+      <c r="E445" s="13">
+        <v>0</v>
+      </c>
+      <c r="F445" s="13">
+        <v>1</v>
+      </c>
+      <c r="G445" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H445" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I445" s="84"/>
+      <c r="J445" s="84"/>
+      <c r="K445" s="14" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A446" s="41">
+      <c r="A446" s="114"/>
+      <c r="B446" s="114"/>
+      <c r="C446" s="114"/>
+      <c r="D446" s="114"/>
+      <c r="E446" s="114"/>
+      <c r="F446" s="114"/>
+      <c r="G446" s="114"/>
+      <c r="H446" s="114"/>
+      <c r="I446" s="114"/>
+      <c r="J446" s="114"/>
+      <c r="K446" s="114"/>
+    </row>
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A447" s="115"/>
+      <c r="B447" s="115"/>
+      <c r="C447" s="115"/>
+      <c r="D447" s="115"/>
+      <c r="E447" s="115"/>
+      <c r="F447" s="115"/>
+      <c r="G447" s="115"/>
+      <c r="H447" s="115"/>
+      <c r="I447" s="115"/>
+      <c r="J447" s="115"/>
+      <c r="K447" s="115"/>
+    </row>
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A448" s="116" t="s">
+        <v>268</v>
+      </c>
+      <c r="B448" s="117"/>
+      <c r="C448" s="117"/>
+      <c r="D448" s="117"/>
+      <c r="E448" s="117"/>
+      <c r="F448" s="117"/>
+      <c r="G448" s="117"/>
+      <c r="H448" s="117"/>
+      <c r="I448" s="117"/>
+      <c r="J448" s="117"/>
+      <c r="K448" s="118"/>
+    </row>
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A449" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B449" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C449" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D449" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B446" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C446" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D446" s="13">
-        <v>1</v>
-      </c>
-      <c r="E446" s="13">
-        <v>0</v>
-      </c>
-      <c r="F446" s="13">
-        <v>1</v>
-      </c>
-      <c r="G446" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H446" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I446" s="84"/>
-      <c r="J446" s="84"/>
-      <c r="K446" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A447" s="111"/>
-      <c r="B447" s="111"/>
-      <c r="C447" s="111"/>
-      <c r="D447" s="111"/>
-      <c r="E447" s="111"/>
-      <c r="F447" s="111"/>
-      <c r="G447" s="111"/>
-      <c r="H447" s="111"/>
-      <c r="I447" s="111"/>
-      <c r="J447" s="111"/>
-      <c r="K447" s="111"/>
-    </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A448" s="112"/>
-      <c r="B448" s="112"/>
-      <c r="C448" s="112"/>
-      <c r="D448" s="112"/>
-      <c r="E448" s="112"/>
-      <c r="F448" s="112"/>
-      <c r="G448" s="112"/>
-      <c r="H448" s="112"/>
-      <c r="I448" s="112"/>
-      <c r="J448" s="112"/>
-      <c r="K448" s="112"/>
-    </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A449" s="113" t="s">
-        <v>271</v>
-      </c>
-      <c r="B449" s="114"/>
-      <c r="C449" s="114"/>
-      <c r="D449" s="114"/>
-      <c r="E449" s="114"/>
-      <c r="F449" s="114"/>
-      <c r="G449" s="114"/>
-      <c r="H449" s="114"/>
-      <c r="I449" s="114"/>
-      <c r="J449" s="114"/>
-      <c r="K449" s="115"/>
+      <c r="E449" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="F449" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G449" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H449" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="I449" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J449" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="K449" s="19" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A450" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B450" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C450" s="19" t="s">
+      <c r="A450" s="39">
+        <v>1</v>
+      </c>
+      <c r="B450" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C450" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D450" s="5">
+        <v>10</v>
+      </c>
+      <c r="E450" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G450" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H450" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I450" s="83" t="s">
+        <v>12</v>
+      </c>
+      <c r="J450" s="83"/>
+      <c r="K450" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A451" s="85">
         <v>2</v>
       </c>
-      <c r="D450" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E450" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="F450" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="G450" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H450" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="I450" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="J450" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="K450" s="19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A451" s="39">
-        <v>1</v>
-      </c>
-      <c r="B451" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C451" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D451" s="5">
-        <v>10</v>
-      </c>
-      <c r="E451" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F451" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G451" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H451" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I451" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="J451" s="86"/>
-      <c r="K451" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="B451" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="C451" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D451" s="7">
+        <v>20</v>
+      </c>
+      <c r="E451" s="7"/>
+      <c r="F451" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G451" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H451" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I451" s="85"/>
+      <c r="J451" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="K451" s="9"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D452" s="2">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="F452" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="G452" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="H452" s="2" t="s">
         <v>0</v>
       </c>
@@ -13312,298 +13338,285 @@
       <c r="K452" s="9"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A453" s="40">
-        <v>3</v>
-      </c>
-      <c r="B453" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C453" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D453" s="7"/>
-      <c r="E453" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F453" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G453" s="7"/>
-      <c r="H453" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I453" s="88"/>
-      <c r="J453" s="88"/>
-      <c r="K453" s="9" t="s">
-        <v>16</v>
-      </c>
+      <c r="A453" s="1">
+        <v>4</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F453" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H453" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J453" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K453" s="9"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B454" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C454" s="7" t="s">
         <v>17</v>
       </c>
       <c r="D454" s="7"/>
-      <c r="E454" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F454" s="10" t="s">
-        <v>18</v>
+      <c r="E454" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F454" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="G454" s="7"/>
       <c r="H454" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I454" s="88"/>
-      <c r="J454" s="88"/>
+      <c r="I454" s="85"/>
+      <c r="J454" s="85"/>
       <c r="K454" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A455" s="41">
+      <c r="A455" s="40">
+        <v>6</v>
+      </c>
+      <c r="B455" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C455" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D455" s="7"/>
+      <c r="E455" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F455" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G455" s="7"/>
+      <c r="H455" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I455" s="85"/>
+      <c r="J455" s="85"/>
+      <c r="K455" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A456" s="41">
+        <v>7</v>
+      </c>
+      <c r="B456" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C456" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D456" s="13">
+        <v>1</v>
+      </c>
+      <c r="E456" s="13">
+        <v>0</v>
+      </c>
+      <c r="F456" s="13">
+        <v>1</v>
+      </c>
+      <c r="G456" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H456" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I456" s="84"/>
+      <c r="J456" s="84"/>
+      <c r="K456" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A457" s="114"/>
+      <c r="B457" s="114"/>
+      <c r="C457" s="114"/>
+      <c r="D457" s="114"/>
+      <c r="E457" s="114"/>
+      <c r="F457" s="114"/>
+      <c r="G457" s="114"/>
+      <c r="H457" s="114"/>
+      <c r="I457" s="114"/>
+      <c r="J457" s="114"/>
+      <c r="K457" s="114"/>
+    </row>
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A458" s="115"/>
+      <c r="B458" s="115"/>
+      <c r="C458" s="115"/>
+      <c r="D458" s="115"/>
+      <c r="E458" s="115"/>
+      <c r="F458" s="115"/>
+      <c r="G458" s="115"/>
+      <c r="H458" s="115"/>
+      <c r="I458" s="115"/>
+      <c r="J458" s="115"/>
+      <c r="K458" s="115"/>
+    </row>
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A459" s="116" t="s">
+        <v>271</v>
+      </c>
+      <c r="B459" s="117"/>
+      <c r="C459" s="117"/>
+      <c r="D459" s="117"/>
+      <c r="E459" s="117"/>
+      <c r="F459" s="117"/>
+      <c r="G459" s="117"/>
+      <c r="H459" s="117"/>
+      <c r="I459" s="117"/>
+      <c r="J459" s="117"/>
+      <c r="K459" s="118"/>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A460" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B460" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C460" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D460" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E460" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B455" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C455" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D455" s="13">
-        <v>1</v>
-      </c>
-      <c r="E455" s="13">
-        <v>0</v>
-      </c>
-      <c r="F455" s="13">
-        <v>1</v>
-      </c>
-      <c r="G455" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H455" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I455" s="87"/>
-      <c r="J455" s="87"/>
-      <c r="K455" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A456" s="111"/>
-      <c r="B456" s="111"/>
-      <c r="C456" s="111"/>
-      <c r="D456" s="111"/>
-      <c r="E456" s="111"/>
-      <c r="F456" s="111"/>
-      <c r="G456" s="111"/>
-      <c r="H456" s="111"/>
-      <c r="I456" s="111"/>
-      <c r="J456" s="111"/>
-      <c r="K456" s="111"/>
-    </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A457" s="112"/>
-      <c r="B457" s="112"/>
-      <c r="